--- a/MSC_stdev_lt.xlsx
+++ b/MSC_stdev_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E556"/>
+  <dimension ref="A1:E561"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -223,13 +223,13 @@
         <v>4.1788797378540039</v>
       </c>
       <c r="C15" s="2">
-        <v>4.1897473335266113</v>
+        <v>4.1897931098937988</v>
       </c>
       <c r="D15" s="2">
         <v>4.1788797378540039</v>
       </c>
       <c r="E15" s="2">
-        <v>4.1897473335266113</v>
+        <v>4.1897931098937988</v>
       </c>
     </row>
     <row r="16">
@@ -339,13 +339,13 @@
         <v>6.1115078926086426</v>
       </c>
       <c r="C27" s="2">
-        <v>6.1405510902404785</v>
+        <v>6.1405191421508789</v>
       </c>
       <c r="D27" s="2">
         <v>6.1115078926086426</v>
       </c>
       <c r="E27" s="2">
-        <v>6.1405510902404785</v>
+        <v>6.1405191421508789</v>
       </c>
     </row>
     <row r="28">
@@ -401,13 +401,13 @@
         <v>5.7580242156982422</v>
       </c>
       <c r="C33" s="2">
-        <v>5.9109416007995605</v>
+        <v>5.9108138084411621</v>
       </c>
       <c r="D33" s="2">
         <v>5.8651628494262695</v>
       </c>
       <c r="E33" s="2">
-        <v>5.9071388244628906</v>
+        <v>5.9070596694946289</v>
       </c>
     </row>
     <row r="34">
@@ -418,13 +418,13 @@
         <v>5.9723010063171387</v>
       </c>
       <c r="C34" s="2">
-        <v>5.9033360481262207</v>
+        <v>5.9033055305480957</v>
       </c>
       <c r="D34" s="2">
         <v>5.9284567832946777</v>
       </c>
       <c r="E34" s="2">
-        <v>5.9298315048217773</v>
+        <v>5.9297633171081543</v>
       </c>
     </row>
     <row r="35">
@@ -459,16 +459,16 @@
         <v>29587</v>
       </c>
       <c r="B38" s="2">
-        <v>6.0550446510314941</v>
+        <v>6.0550446510314942</v>
       </c>
       <c r="C38" s="2">
-        <v>5.975217342376709</v>
+        <v>5.9751706123352051</v>
       </c>
       <c r="D38" s="2">
         <v>5.9516944885253906</v>
       </c>
       <c r="E38" s="2">
-        <v>5.8554525375366211</v>
+        <v>5.8553657531738281</v>
       </c>
     </row>
     <row r="39">
@@ -479,13 +479,13 @@
         <v>5.4729719161987305</v>
       </c>
       <c r="C39" s="2">
-        <v>5.3191022872924805</v>
+        <v>5.3188409805297852</v>
       </c>
       <c r="D39" s="2">
         <v>5.9448256492614746</v>
       </c>
       <c r="E39" s="2">
-        <v>5.8394913673400879</v>
+        <v>5.839385986328125</v>
       </c>
     </row>
     <row r="40">
@@ -496,13 +496,13 @@
         <v>6.306459903717041</v>
       </c>
       <c r="C40" s="2">
-        <v>6.2241549491882324</v>
+        <v>6.224146842956543</v>
       </c>
       <c r="D40" s="2">
         <v>5.9566988945007324</v>
       </c>
       <c r="E40" s="2">
-        <v>5.8966708183288574</v>
+        <v>5.8966026306152344</v>
       </c>
     </row>
     <row r="41">
@@ -540,13 +540,13 @@
         <v>5.9923186302185059</v>
       </c>
       <c r="C44" s="2">
-        <v>6.0682086944580078</v>
+        <v>6.0682520866394043</v>
       </c>
       <c r="D44" s="2">
         <v>6.1459627151489258</v>
       </c>
       <c r="E44" s="2">
-        <v>6.123755931854248</v>
+        <v>6.1236562728881836</v>
       </c>
     </row>
     <row r="45">
@@ -557,13 +557,13 @@
         <v>6.0672760009765625</v>
       </c>
       <c r="C45" s="2">
-        <v>5.9403691291809082</v>
+        <v>5.9401168823242188</v>
       </c>
       <c r="D45" s="2">
         <v>6.0924639701843262</v>
       </c>
       <c r="E45" s="2">
-        <v>6.0902895927429199</v>
+        <v>6.0901594161987305</v>
       </c>
     </row>
     <row r="46">
@@ -574,13 +574,13 @@
         <v>6.2177972793579102</v>
       </c>
       <c r="C46" s="2">
-        <v>6.2622909545898438</v>
+        <v>6.2621088027954102</v>
       </c>
       <c r="D46" s="2">
         <v>5.9169168472290039</v>
       </c>
       <c r="E46" s="2">
-        <v>5.896296501159668</v>
+        <v>5.896186351776123</v>
       </c>
     </row>
     <row r="47">
@@ -618,13 +618,13 @@
         <v>5.3902754783630371</v>
       </c>
       <c r="C50" s="2">
-        <v>5.3143167495727539</v>
+        <v>5.3142671585083008</v>
       </c>
       <c r="D50" s="2">
         <v>5.8341712951660156</v>
       </c>
       <c r="E50" s="2">
-        <v>5.7865676879882812</v>
+        <v>5.7864751815795899</v>
       </c>
     </row>
     <row r="51">
@@ -632,16 +632,16 @@
         <v>29983</v>
       </c>
       <c r="B51" s="2">
-        <v>5.9486303329467773</v>
+        <v>5.9486303329467774</v>
       </c>
       <c r="C51" s="2">
-        <v>5.89337158203125</v>
+        <v>5.8933200836181641</v>
       </c>
       <c r="D51" s="2">
         <v>5.7062959671020508</v>
       </c>
       <c r="E51" s="2">
-        <v>5.6279935836791992</v>
+        <v>5.6279301643371582</v>
       </c>
     </row>
     <row r="52">
@@ -652,13 +652,13 @@
         <v>5.7799816131591797</v>
       </c>
       <c r="C52" s="2">
-        <v>5.6762924194335938</v>
+        <v>5.676203727722168</v>
       </c>
       <c r="D52" s="2">
         <v>5.6263575553894043</v>
       </c>
       <c r="E52" s="2">
-        <v>5.5715646743774414</v>
+        <v>5.5714998245239258</v>
       </c>
     </row>
     <row r="53">
@@ -693,16 +693,16 @@
         <v>30133</v>
       </c>
       <c r="B56" s="2">
-        <v>5.3865432739257812</v>
+        <v>5.3865432739257813</v>
       </c>
       <c r="C56" s="2">
-        <v>5.4022789001464844</v>
+        <v>5.4022083282470703</v>
       </c>
       <c r="D56" s="2">
         <v>5.6400809288024902</v>
       </c>
       <c r="E56" s="2">
-        <v>5.5673341751098633</v>
+        <v>5.5672354698181152</v>
       </c>
     </row>
     <row r="57">
@@ -713,13 +713,13 @@
         <v>5.5564494132995605</v>
       </c>
       <c r="C57" s="2">
-        <v>5.5814194679260254</v>
+        <v>5.5813207626342773</v>
       </c>
       <c r="D57" s="2">
         <v>5.5934476852416992</v>
       </c>
       <c r="E57" s="2">
-        <v>5.5310149192810059</v>
+        <v>5.5309128761291504</v>
       </c>
     </row>
     <row r="58">
@@ -730,13 +730,13 @@
         <v>5.8373498916625977</v>
       </c>
       <c r="C58" s="2">
-        <v>5.6093459129333496</v>
+        <v>5.6092090606689453</v>
       </c>
       <c r="D58" s="2">
         <v>5.580876350402832</v>
       </c>
       <c r="E58" s="2">
-        <v>5.5321316719055176</v>
+        <v>5.5320196151733399</v>
       </c>
     </row>
     <row r="59">
@@ -774,13 +774,13 @@
         <v>5.5431632995605469</v>
       </c>
       <c r="C62" s="2">
-        <v>5.5354819297790527</v>
+        <v>5.53533935546875</v>
       </c>
       <c r="D62" s="2">
         <v>5.5256805419921875</v>
       </c>
       <c r="E62" s="2">
-        <v>5.400843620300293</v>
+        <v>5.4006695747375488</v>
       </c>
     </row>
     <row r="63">
@@ -791,13 +791,13 @@
         <v>5.6156759262084961</v>
       </c>
       <c r="C63" s="2">
-        <v>5.4401936531066895</v>
+        <v>5.4400105476379395</v>
       </c>
       <c r="D63" s="2">
         <v>5.421790599822998</v>
       </c>
       <c r="E63" s="2">
-        <v>5.3313426971435547</v>
+        <v>5.3311562538146973</v>
       </c>
     </row>
     <row r="64">
@@ -808,13 +808,13 @@
         <v>5.1065330505371094</v>
       </c>
       <c r="C64" s="2">
-        <v>5.0183529853820801</v>
+        <v>5.0181188583374023</v>
       </c>
       <c r="D64" s="2">
         <v>5.3345050811767578</v>
       </c>
       <c r="E64" s="2">
-        <v>5.2480831146240234</v>
+        <v>5.2479281425476074</v>
       </c>
     </row>
     <row r="65">
@@ -852,13 +852,13 @@
         <v>5.0726470947265625</v>
       </c>
       <c r="C68" s="2">
-        <v>4.9983043670654297</v>
+        <v>4.9982438087463379</v>
       </c>
       <c r="D68" s="2">
         <v>5.0970463752746582</v>
       </c>
       <c r="E68" s="2">
-        <v>5.0734057426452637</v>
+        <v>5.0732526779174805</v>
       </c>
     </row>
     <row r="69">
@@ -869,13 +869,13 @@
         <v>4.991325855255127</v>
       </c>
       <c r="C69" s="2">
-        <v>5.0341634750366211</v>
+        <v>5.0338854789733887</v>
       </c>
       <c r="D69" s="2">
         <v>5.0938844680786133</v>
       </c>
       <c r="E69" s="2">
-        <v>5.0917568206787109</v>
+        <v>5.0916304588317871</v>
       </c>
     </row>
     <row r="70">
@@ -886,13 +886,13 @@
         <v>5.2176799774169922</v>
       </c>
       <c r="C70" s="2">
-        <v>5.2428021430969238</v>
+        <v>5.2427620887756348</v>
       </c>
       <c r="D70" s="2">
         <v>4.9554963111877441</v>
       </c>
       <c r="E70" s="2">
-        <v>4.9438605308532715</v>
+        <v>4.9437389373779297</v>
       </c>
     </row>
     <row r="71">
@@ -930,13 +930,13 @@
         <v>4.5403318405151367</v>
       </c>
       <c r="C74" s="2">
-        <v>4.5001726150512695</v>
+        <v>4.5000638961791992</v>
       </c>
       <c r="D74" s="2">
         <v>4.8358821868896484</v>
       </c>
       <c r="E74" s="2">
-        <v>4.7995710372924805</v>
+        <v>4.7994461059570313</v>
       </c>
     </row>
     <row r="75">
@@ -947,13 +947,13 @@
         <v>4.6630620956420898</v>
       </c>
       <c r="C75" s="2">
-        <v>4.5684704780578613</v>
+        <v>4.5682821273803711</v>
       </c>
       <c r="D75" s="2">
         <v>4.7086162567138672</v>
       </c>
       <c r="E75" s="2">
-        <v>4.6518278121948242</v>
+        <v>4.6516737937927246</v>
       </c>
     </row>
     <row r="76">
@@ -964,13 +964,13 @@
         <v>4.922454833984375</v>
       </c>
       <c r="C76" s="2">
-        <v>4.8868398666381836</v>
+        <v>4.8866753578186035</v>
       </c>
       <c r="D76" s="2">
         <v>4.8247361183166504</v>
       </c>
       <c r="E76" s="2">
-        <v>4.8027753829956055</v>
+        <v>4.802666187286377</v>
       </c>
     </row>
     <row r="77">
@@ -1008,13 +1008,13 @@
         <v>5.173095703125</v>
       </c>
       <c r="C80" s="2">
-        <v>5.2556185722351074</v>
+        <v>5.255643367767334</v>
       </c>
       <c r="D80" s="2">
         <v>4.7965712547302246</v>
       </c>
       <c r="E80" s="2">
-        <v>4.7717504501342773</v>
+        <v>4.7716507911682129</v>
       </c>
     </row>
     <row r="81">
@@ -1025,13 +1025,13 @@
         <v>4.6439208984375</v>
       </c>
       <c r="C81" s="2">
-        <v>4.5643806457519531</v>
+        <v>4.5641584396362305</v>
       </c>
       <c r="D81" s="2">
         <v>4.7546100616455078</v>
       </c>
       <c r="E81" s="2">
-        <v>4.7333874702453613</v>
+        <v>4.733309268951416</v>
       </c>
     </row>
     <row r="82">
@@ -1042,13 +1042,13 @@
         <v>4.4468135833740234</v>
       </c>
       <c r="C82" s="2">
-        <v>4.3801627159118652</v>
+        <v>4.3801259994506836</v>
       </c>
       <c r="D82" s="2">
         <v>4.757075309753418</v>
       </c>
       <c r="E82" s="2">
-        <v>4.7135939598083496</v>
+        <v>4.7135419845581055</v>
       </c>
     </row>
     <row r="83">
@@ -1086,13 +1086,13 @@
         <v>4.7644710540771484</v>
       </c>
       <c r="C86" s="2">
-        <v>4.6542139053344727</v>
+        <v>4.6542401313781738</v>
       </c>
       <c r="D86" s="2">
         <v>4.815241813659668</v>
       </c>
       <c r="E86" s="2">
-        <v>4.7351861000061035</v>
+        <v>4.7351603507995605</v>
       </c>
     </row>
     <row r="87">
@@ -1103,13 +1103,13 @@
         <v>4.888249397277832</v>
       </c>
       <c r="C87" s="2">
-        <v>4.8112092018127441</v>
+        <v>4.8111028671264648</v>
       </c>
       <c r="D87" s="2">
         <v>4.9380512237548828</v>
       </c>
       <c r="E87" s="2">
-        <v>4.8535270690917969</v>
+        <v>4.8535051345825195</v>
       </c>
     </row>
     <row r="88">
@@ -1120,13 +1120,13 @@
         <v>5.1614327430725098</v>
       </c>
       <c r="C88" s="2">
-        <v>5.095158576965332</v>
+        <v>5.0951724052429199</v>
       </c>
       <c r="D88" s="2">
         <v>4.8513517379760742</v>
       </c>
       <c r="E88" s="2">
-        <v>4.7523574829101562</v>
+        <v>4.7522940635681152</v>
       </c>
     </row>
     <row r="89">
@@ -1164,13 +1164,13 @@
         <v>4.5912532806396484</v>
       </c>
       <c r="C92" s="2">
-        <v>4.4488482475280762</v>
+        <v>4.4486613273620606</v>
       </c>
       <c r="D92" s="2">
         <v>4.6403255462646484</v>
       </c>
       <c r="E92" s="2">
-        <v>4.5831694602966309</v>
+        <v>4.583099365234375</v>
       </c>
     </row>
     <row r="93">
@@ -1181,13 +1181,13 @@
         <v>4.1453595161437988</v>
       </c>
       <c r="C93" s="2">
-        <v>4.1635384559631348</v>
+        <v>4.1635246276855469</v>
       </c>
       <c r="D93" s="2">
         <v>4.4666228294372559</v>
       </c>
       <c r="E93" s="2">
-        <v>4.4125065803527832</v>
+        <v>4.4124078750610352</v>
       </c>
     </row>
     <row r="94">
@@ -1198,13 +1198,13 @@
         <v>4.6632556915283203</v>
       </c>
       <c r="C94" s="2">
-        <v>4.6251330375671387</v>
+        <v>4.6250381469726563</v>
       </c>
       <c r="D94" s="2">
         <v>4.4666228294372559</v>
       </c>
       <c r="E94" s="2">
-        <v>4.4125065803527832</v>
+        <v>4.4124078750610352</v>
       </c>
     </row>
     <row r="95">
@@ -1260,13 +1260,13 @@
         <v>4.4021458625793457</v>
       </c>
       <c r="C100" s="2">
-        <v>4.1631793975830078</v>
+        <v>4.1629242897033691</v>
       </c>
       <c r="D100" s="2">
         <v>4.1503567695617676</v>
       </c>
       <c r="E100" s="2">
-        <v>3.9590492248535156</v>
+        <v>3.958789587020874</v>
       </c>
     </row>
     <row r="101">
@@ -1295,13 +1295,13 @@
         <v>3.8985676765441895</v>
       </c>
       <c r="C103" s="2">
-        <v>3.7549192905426025</v>
+        <v>3.7546548843383789</v>
       </c>
       <c r="D103" s="2">
         <v>4.0395383834838867</v>
       </c>
       <c r="E103" s="2">
-        <v>3.9077479839324951</v>
+        <v>3.9075114727020264</v>
       </c>
     </row>
     <row r="104">
@@ -1330,13 +1330,13 @@
         <v>3.8179013729095459</v>
       </c>
       <c r="C106" s="2">
-        <v>3.8051455020904541</v>
+        <v>3.8049552440643311</v>
       </c>
       <c r="D106" s="2">
         <v>4.0753483772277832</v>
       </c>
       <c r="E106" s="2">
-        <v>4.0170645713806152</v>
+        <v>4.0168476104736328</v>
       </c>
     </row>
     <row r="107">
@@ -1365,13 +1365,13 @@
         <v>4.5095758438110352</v>
       </c>
       <c r="C109" s="2">
-        <v>4.4911289215087891</v>
+        <v>4.4909334182739258</v>
       </c>
       <c r="D109" s="2">
         <v>4.1512641906738281</v>
       </c>
       <c r="E109" s="2">
-        <v>4.0808095932006836</v>
+        <v>4.0806317329406738</v>
       </c>
     </row>
     <row r="110">
@@ -1400,13 +1400,13 @@
         <v>4.1263151168823242</v>
       </c>
       <c r="C112" s="2">
-        <v>3.9461538791656494</v>
+        <v>3.9460065364837646</v>
       </c>
       <c r="D112" s="2">
         <v>4.3904008865356445</v>
       </c>
       <c r="E112" s="2">
-        <v>4.3307533264160156</v>
+        <v>4.3305749893188477</v>
       </c>
     </row>
     <row r="113">
@@ -1435,13 +1435,13 @@
         <v>4.5353116989135742</v>
       </c>
       <c r="C115" s="2">
-        <v>4.5549769401550293</v>
+        <v>4.5547842979431152</v>
       </c>
       <c r="D115" s="2">
         <v>3.9998931884765625</v>
       </c>
       <c r="E115" s="2">
-        <v>3.9550046920776367</v>
+        <v>3.954770565032959</v>
       </c>
     </row>
     <row r="116">
@@ -1470,13 +1470,13 @@
         <v>3.3380529880523682</v>
       </c>
       <c r="C118" s="2">
-        <v>3.3638832569122314</v>
+        <v>3.3635208606719971</v>
       </c>
       <c r="D118" s="2">
         <v>4.2668075561523438</v>
       </c>
       <c r="E118" s="2">
-        <v>4.3081169128417969</v>
+        <v>4.3078908920288086</v>
       </c>
     </row>
     <row r="119">
@@ -1505,13 +1505,13 @@
         <v>4.9270586967468262</v>
       </c>
       <c r="C121" s="2">
-        <v>5.0054903030395508</v>
+        <v>5.0053677558898926</v>
       </c>
       <c r="D121" s="2">
         <v>4.1325559616088867</v>
       </c>
       <c r="E121" s="2">
-        <v>4.1846866607666016</v>
+        <v>4.1844444274902344</v>
       </c>
     </row>
     <row r="122">
@@ -1765,13 +1765,13 @@
         <v>4.0407509803771973</v>
       </c>
       <c r="C149" s="2">
-        <v>4.0177202224731445</v>
+        <v>4.0173754692077637</v>
       </c>
       <c r="D149" s="2">
         <v>3.9090104103088379</v>
       </c>
       <c r="E149" s="2">
-        <v>3.9090585708618164</v>
+        <v>3.9088435173034668</v>
       </c>
     </row>
     <row r="150">
@@ -1782,13 +1782,13 @@
         <v>3.6292774677276611</v>
       </c>
       <c r="C150" s="2">
-        <v>3.6051418781280518</v>
+        <v>3.6049213409423828</v>
       </c>
       <c r="D150" s="2">
         <v>3.974285364151001</v>
       </c>
       <c r="E150" s="2">
-        <v>3.9661147594451904</v>
+        <v>3.9659008979797363</v>
       </c>
     </row>
     <row r="151">
@@ -1796,16 +1796,16 @@
         <v>33025</v>
       </c>
       <c r="B151" s="2">
-        <v>4.0736160278320312</v>
+        <v>4.0736160278320313</v>
       </c>
       <c r="C151" s="2">
-        <v>4.0397844314575195</v>
+        <v>4.0396394729614258</v>
       </c>
       <c r="D151" s="2">
         <v>3.9965953826904297</v>
       </c>
       <c r="E151" s="2">
-        <v>3.9815897941589355</v>
+        <v>3.98140549659729</v>
       </c>
     </row>
     <row r="152">
@@ -1816,13 +1816,13 @@
         <v>4.0311360359191895</v>
       </c>
       <c r="C152" s="2">
-        <v>4.086543083190918</v>
+        <v>4.0861907005310059</v>
       </c>
       <c r="D152" s="2">
         <v>4.0567965507507324</v>
       </c>
       <c r="E152" s="2">
-        <v>4.0266432762145996</v>
+        <v>4.0264663696289063</v>
       </c>
     </row>
     <row r="153">
@@ -1833,13 +1833,13 @@
         <v>3.7702715396881104</v>
       </c>
       <c r="C153" s="2">
-        <v>3.7961034774780273</v>
+        <v>3.7960910797119141</v>
       </c>
       <c r="D153" s="2">
         <v>4.0978078842163086</v>
       </c>
       <c r="E153" s="2">
-        <v>4.0640325546264648</v>
+        <v>4.0638628005981445</v>
       </c>
     </row>
     <row r="154">
@@ -1850,13 +1850,13 @@
         <v>4.3006601333618164</v>
       </c>
       <c r="C154" s="2">
-        <v>4.2513957023620605</v>
+        <v>4.2511868476867676</v>
       </c>
       <c r="D154" s="2">
-        <v>4.1319494247436523</v>
+        <v>4.1319494247436524</v>
       </c>
       <c r="E154" s="2">
-        <v>4.0618376731872559</v>
+        <v>4.0616989135742188</v>
       </c>
     </row>
     <row r="155">
@@ -1867,13 +1867,13 @@
         <v>4.130455493927002</v>
       </c>
       <c r="C155" s="2">
-        <v>4.0744404792785645</v>
+        <v>4.0744342803955078</v>
       </c>
       <c r="D155" s="2">
         <v>4.1520943641662598</v>
       </c>
       <c r="E155" s="2">
-        <v>4.0804338455200195</v>
+        <v>4.0803313255310059</v>
       </c>
     </row>
     <row r="156">
@@ -1884,13 +1884,13 @@
         <v>4.478203296661377</v>
       </c>
       <c r="C156" s="2">
-        <v>4.3420166969299316</v>
+        <v>4.3418927192687988</v>
       </c>
       <c r="D156" s="2">
         <v>4.1483449935913086</v>
       </c>
       <c r="E156" s="2">
-        <v>4.0688366889953613</v>
+        <v>4.0686984062194824</v>
       </c>
     </row>
     <row r="157">
@@ -1901,13 +1901,13 @@
         <v>4.425900936126709</v>
       </c>
       <c r="C157" s="2">
-        <v>4.3631453514099121</v>
+        <v>4.3630332946777344</v>
       </c>
       <c r="D157" s="2">
         <v>4.1562228202819824</v>
       </c>
       <c r="E157" s="2">
-        <v>4.0657601356506348</v>
+        <v>4.0656514167785645</v>
       </c>
     </row>
     <row r="158">
@@ -1918,13 +1918,13 @@
         <v>4.3480219841003418</v>
       </c>
       <c r="C158" s="2">
-        <v>3.9979684352874756</v>
+        <v>3.9978985786437988</v>
       </c>
       <c r="D158" s="2">
         <v>4.1692380905151367</v>
       </c>
       <c r="E158" s="2">
-        <v>4.0688238143920898</v>
+        <v>4.068692684173584</v>
       </c>
     </row>
     <row r="159">
@@ -1932,16 +1932,16 @@
         <v>33270</v>
       </c>
       <c r="B159" s="2">
-        <v>3.8105847835540771</v>
+        <v>3.8105847835540772</v>
       </c>
       <c r="C159" s="2">
-        <v>3.7725064754486084</v>
+        <v>3.7726140022277832</v>
       </c>
       <c r="D159" s="2">
         <v>4.0699191093444824</v>
       </c>
       <c r="E159" s="2">
-        <v>3.9810574054718018</v>
+        <v>3.9809153079986572</v>
       </c>
     </row>
     <row r="160">
@@ -1952,13 +1952,13 @@
         <v>4.0398716926574707</v>
       </c>
       <c r="C160" s="2">
-        <v>3.9354112148284912</v>
+        <v>3.9349453449249268</v>
       </c>
       <c r="D160" s="2">
         <v>3.9994978904724121</v>
       </c>
       <c r="E160" s="2">
-        <v>3.9113264083862305</v>
+        <v>3.9111921787261963</v>
       </c>
     </row>
     <row r="161">
@@ -1969,13 +1969,13 @@
         <v>4.1020364761352539</v>
       </c>
       <c r="C161" s="2">
-        <v>4.0588550567626953</v>
+        <v>4.0587663650512695</v>
       </c>
       <c r="D161" s="2">
         <v>3.8941307067871094</v>
       </c>
       <c r="E161" s="2">
-        <v>3.8242716789245605</v>
+        <v>3.8241329193115234</v>
       </c>
     </row>
     <row r="162">
@@ -1986,13 +1986,13 @@
         <v>3.8874070644378662</v>
       </c>
       <c r="C162" s="2">
-        <v>3.823676586151123</v>
+        <v>3.8234632015228271</v>
       </c>
       <c r="D162" s="2">
         <v>3.8076536655426025</v>
       </c>
       <c r="E162" s="2">
-        <v>3.739875316619873</v>
+        <v>3.7397301197052002</v>
       </c>
     </row>
     <row r="163">
@@ -2003,13 +2003,13 @@
         <v>3.4067883491516113</v>
       </c>
       <c r="C163" s="2">
-        <v>3.461496114730835</v>
+        <v>3.4611907005310059</v>
       </c>
       <c r="D163" s="2">
         <v>3.8048508167266846</v>
       </c>
       <c r="E163" s="2">
-        <v>3.757340669631958</v>
+        <v>3.7571711540222168</v>
       </c>
     </row>
     <row r="164">
@@ -2020,13 +2020,13 @@
         <v>3.4966666698455811</v>
       </c>
       <c r="C164" s="2">
-        <v>3.446861743927002</v>
+        <v>3.4469263553619385</v>
       </c>
       <c r="D164" s="2">
         <v>3.8857729434967041</v>
       </c>
       <c r="E164" s="2">
-        <v>3.8224077224731445</v>
+        <v>3.8222146034240723</v>
       </c>
     </row>
     <row r="165">
@@ -2037,13 +2037,13 @@
         <v>3.5298976898193359</v>
       </c>
       <c r="C165" s="2">
-        <v>3.5585246086120605</v>
+        <v>3.5583581924438477</v>
       </c>
       <c r="D165" s="2">
         <v>3.8797805309295654</v>
       </c>
       <c r="E165" s="2">
-        <v>3.825188159942627</v>
+        <v>3.8250572681427002</v>
       </c>
     </row>
     <row r="166">
@@ -2054,13 +2054,13 @@
         <v>3.6476085186004639</v>
       </c>
       <c r="C166" s="2">
-        <v>3.6035768985748291</v>
+        <v>3.6034073829650879</v>
       </c>
       <c r="D166" s="2">
         <v>3.8594353199005127</v>
       </c>
       <c r="E166" s="2">
-        <v>3.809819221496582</v>
+        <v>3.8096845149993896</v>
       </c>
     </row>
     <row r="167">
@@ -2071,13 +2071,13 @@
         <v>4.3227953910827637</v>
       </c>
       <c r="C167" s="2">
-        <v>4.1551570892333984</v>
+        <v>4.1548690795898438</v>
       </c>
       <c r="D167" s="2">
         <v>3.8741469383239746</v>
       </c>
       <c r="E167" s="2">
-        <v>3.8426146507263184</v>
+        <v>3.8424723148345947</v>
       </c>
     </row>
     <row r="168">
@@ -2088,13 +2088,13 @@
         <v>4.5388855934143066</v>
       </c>
       <c r="C168" s="2">
-        <v>4.3581094741821289</v>
+        <v>4.3580045700073242</v>
       </c>
       <c r="D168" s="2">
         <v>3.9207284450531006</v>
       </c>
       <c r="E168" s="2">
-        <v>3.8836765289306641</v>
+        <v>3.8835504055023193</v>
       </c>
     </row>
     <row r="169">
@@ -2102,16 +2102,16 @@
         <v>33573</v>
       </c>
       <c r="B169" s="2">
-        <v>3.9859380722045898</v>
+        <v>3.9859380722045899</v>
       </c>
       <c r="C169" s="2">
-        <v>3.960435152053833</v>
+        <v>3.9605305194854736</v>
       </c>
       <c r="D169" s="2">
         <v>4.0254907608032227</v>
       </c>
       <c r="E169" s="2">
-        <v>3.9537026882171631</v>
+        <v>3.9535648822784424</v>
       </c>
     </row>
     <row r="170">
@@ -2122,13 +2122,13 @@
         <v>3.918931245803833</v>
       </c>
       <c r="C170" s="2">
-        <v>3.9205350875854492</v>
+        <v>3.92041015625</v>
       </c>
       <c r="D170" s="2">
         <v>4.0412383079528809</v>
       </c>
       <c r="E170" s="2">
-        <v>3.9537086486816406</v>
+        <v>3.9535923004150391</v>
       </c>
     </row>
     <row r="171">
@@ -2139,13 +2139,13 @@
         <v>4.0198111534118652</v>
       </c>
       <c r="C171" s="2">
-        <v>4.1188364028930664</v>
+        <v>4.118553638458252</v>
       </c>
       <c r="D171" s="2">
         <v>4.0694746971130371</v>
       </c>
       <c r="E171" s="2">
-        <v>3.9808773994445801</v>
+        <v>3.9807484149932861</v>
       </c>
     </row>
     <row r="172">
@@ -2156,13 +2156,13 @@
         <v>3.8260209560394287</v>
       </c>
       <c r="C172" s="2">
-        <v>3.8310532569885254</v>
+        <v>3.8308937549591065</v>
       </c>
       <c r="D172" s="2">
         <v>4.0094428062438965</v>
       </c>
       <c r="E172" s="2">
-        <v>3.9415578842163086</v>
+        <v>3.941434383392334</v>
       </c>
     </row>
     <row r="173">
@@ -2173,13 +2173,13 @@
         <v>4.4395270347595215</v>
       </c>
       <c r="C173" s="2">
-        <v>4.0770955085754395</v>
+        <v>4.077056884765625</v>
       </c>
       <c r="D173" s="2">
         <v>3.9834260940551758</v>
       </c>
       <c r="E173" s="2">
-        <v>3.9437587261199951</v>
+        <v>3.9436378479003906</v>
       </c>
     </row>
     <row r="174">
@@ -2190,13 +2190,13 @@
         <v>3.6716256141662598</v>
       </c>
       <c r="C174" s="2">
-        <v>3.5585787296295166</v>
+        <v>3.5586056709289551</v>
       </c>
       <c r="D174" s="2">
         <v>3.9549510478973389</v>
       </c>
       <c r="E174" s="2">
-        <v>3.909785270690918</v>
+        <v>3.909639835357666</v>
       </c>
     </row>
     <row r="175">
@@ -2207,13 +2207,13 @@
         <v>3.9017355442047119</v>
       </c>
       <c r="C175" s="2">
-        <v>3.8480954170227051</v>
+        <v>3.8478105068206787</v>
       </c>
       <c r="D175" s="2">
         <v>3.9263350963592529</v>
       </c>
       <c r="E175" s="2">
-        <v>3.8810324668884277</v>
+        <v>3.8808877468109131</v>
       </c>
     </row>
     <row r="176">
@@ -2224,13 +2224,13 @@
         <v>3.7825098037719727</v>
       </c>
       <c r="C176" s="2">
-        <v>3.8012816905975342</v>
+        <v>3.8010437488555908</v>
       </c>
       <c r="D176" s="2">
         <v>3.9105796813964844</v>
       </c>
       <c r="E176" s="2">
-        <v>3.841205358505249</v>
+        <v>3.8410847187042236</v>
       </c>
     </row>
     <row r="177">
@@ -2241,13 +2241,13 @@
         <v>4.3047347068786621</v>
       </c>
       <c r="C177" s="2">
-        <v>4.3779163360595703</v>
+        <v>4.3778367042541504</v>
       </c>
       <c r="D177" s="2">
         <v>3.8544960021972656</v>
       </c>
       <c r="E177" s="2">
-        <v>3.7781555652618408</v>
+        <v>3.7780375480651855</v>
       </c>
     </row>
     <row r="178">
@@ -2258,13 +2258,13 @@
         <v>3.7296640872955322</v>
       </c>
       <c r="C178" s="2">
-        <v>3.6546742916107178</v>
+        <v>3.6545464992523193</v>
       </c>
       <c r="D178" s="2">
         <v>3.8200070858001709</v>
       </c>
       <c r="E178" s="2">
-        <v>3.7547287940979004</v>
+        <v>3.7545843124389649</v>
       </c>
     </row>
     <row r="179">
@@ -2275,13 +2275,13 @@
         <v>3.6613872051239014</v>
       </c>
       <c r="C179" s="2">
-        <v>3.6617603302001953</v>
+        <v>3.6616420745849609</v>
       </c>
       <c r="D179" s="2">
         <v>3.7984433174133301</v>
       </c>
       <c r="E179" s="2">
-        <v>3.7381432056427002</v>
+        <v>3.7379777431488037</v>
       </c>
     </row>
     <row r="180">
@@ -2292,13 +2292,13 @@
         <v>3.8780112266540527</v>
       </c>
       <c r="C180" s="2">
-        <v>3.7603936195373535</v>
+        <v>3.7603271007537842</v>
       </c>
       <c r="D180" s="2">
         <v>3.7613801956176758</v>
       </c>
       <c r="E180" s="2">
-        <v>3.711068868637085</v>
+        <v>3.7109072208404541</v>
       </c>
     </row>
     <row r="181">
@@ -2309,13 +2309,13 @@
         <v>3.3212690353393555</v>
       </c>
       <c r="C181" s="2">
-        <v>3.2636041641235352</v>
+        <v>3.2634687423706055</v>
       </c>
       <c r="D181" s="2">
         <v>3.7816169261932373</v>
       </c>
       <c r="E181" s="2">
-        <v>3.7198784351348877</v>
+        <v>3.7197012901306152</v>
       </c>
     </row>
     <row r="182">
@@ -2323,16 +2323,16 @@
         <v>33970</v>
       </c>
       <c r="B182" s="2">
-        <v>4.129127025604248</v>
+        <v>4.1291270256042481</v>
       </c>
       <c r="C182" s="2">
-        <v>3.8662538528442383</v>
+        <v>3.8659780025482178</v>
       </c>
       <c r="D182" s="2">
         <v>3.745964527130127</v>
       </c>
       <c r="E182" s="2">
-        <v>3.6827824115753174</v>
+        <v>3.6825902462005615</v>
       </c>
     </row>
     <row r="183">
@@ -2343,13 +2343,13 @@
         <v>3.4775512218475342</v>
       </c>
       <c r="C183" s="2">
-        <v>3.4093101024627686</v>
+        <v>3.4091472625732422</v>
       </c>
       <c r="D183" s="2">
         <v>3.7568225860595703</v>
       </c>
       <c r="E183" s="2">
-        <v>3.6990034580230713</v>
+        <v>3.6988053321838379</v>
       </c>
     </row>
     <row r="184">
@@ -2357,16 +2357,16 @@
         <v>34029</v>
       </c>
       <c r="B184" s="2">
-        <v>3.5681676864624023</v>
+        <v>3.5681676864624024</v>
       </c>
       <c r="C184" s="2">
-        <v>3.6044244766235352</v>
+        <v>3.6041741371154785</v>
       </c>
       <c r="D184" s="2">
         <v>3.7859220504760742</v>
       </c>
       <c r="E184" s="2">
-        <v>3.6970634460449219</v>
+        <v>3.6968898773193359</v>
       </c>
     </row>
     <row r="185">
@@ -2377,13 +2377,13 @@
         <v>3.9646396636962891</v>
       </c>
       <c r="C185" s="2">
-        <v>3.8805677890777588</v>
+        <v>3.8801920413970947</v>
       </c>
       <c r="D185" s="2">
         <v>3.804668664932251</v>
       </c>
       <c r="E185" s="2">
-        <v>3.7197751998901367</v>
+        <v>3.7195847034454346</v>
       </c>
     </row>
     <row r="186">
@@ -2391,16 +2391,16 @@
         <v>34090</v>
       </c>
       <c r="B186" s="2">
-        <v>3.9838638305664062</v>
+        <v>3.9838638305664063</v>
       </c>
       <c r="C186" s="2">
-        <v>4.0440535545349121</v>
+        <v>4.0438370704650879</v>
       </c>
       <c r="D186" s="2">
         <v>3.9430408477783203</v>
       </c>
       <c r="E186" s="2">
-        <v>3.8583319187164307</v>
+        <v>3.8581454753875732</v>
       </c>
     </row>
     <row r="187">
@@ -2411,13 +2411,13 @@
         <v>3.8273870944976807</v>
       </c>
       <c r="C187" s="2">
-        <v>3.800663948059082</v>
+        <v>3.8004806041717529</v>
       </c>
       <c r="D187" s="2">
         <v>3.9191761016845703</v>
       </c>
       <c r="E187" s="2">
-        <v>3.8490397930145264</v>
+        <v>3.848879337310791</v>
       </c>
     </row>
     <row r="188">
@@ -2428,13 +2428,13 @@
         <v>3.9232823848724365</v>
       </c>
       <c r="C188" s="2">
-        <v>3.6442997455596924</v>
+        <v>3.6444048881530762</v>
       </c>
       <c r="D188" s="2">
         <v>3.9901235103607178</v>
       </c>
       <c r="E188" s="2">
-        <v>3.9286055564880371</v>
+        <v>3.9284548759460449</v>
       </c>
     </row>
     <row r="189">
@@ -2445,13 +2445,13 @@
         <v>4.0467309951782227</v>
       </c>
       <c r="C189" s="2">
-        <v>3.9647986888885498</v>
+        <v>3.9645786285400391</v>
       </c>
       <c r="D189" s="2">
         <v>4.0468387603759766</v>
       </c>
       <c r="E189" s="2">
-        <v>3.9861531257629395</v>
+        <v>3.9860367774963379</v>
       </c>
     </row>
     <row r="190">
@@ -2462,13 +2462,13 @@
         <v>4.5666170120239258</v>
       </c>
       <c r="C190" s="2">
-        <v>4.5106143951416016</v>
+        <v>4.5105156898498535</v>
       </c>
       <c r="D190" s="2">
         <v>3.960597038269043</v>
       </c>
       <c r="E190" s="2">
-        <v>3.8926725387573242</v>
+        <v>3.8925728797912598</v>
       </c>
     </row>
     <row r="191">
@@ -2479,13 +2479,13 @@
         <v>3.9143457412719727</v>
       </c>
       <c r="C191" s="2">
-        <v>3.7826247215270996</v>
+        <v>3.7825832366943359</v>
       </c>
       <c r="D191" s="2">
         <v>3.8566398620605469</v>
       </c>
       <c r="E191" s="2">
-        <v>3.7852928638458252</v>
+        <v>3.7851972579956055</v>
       </c>
     </row>
     <row r="192">
@@ -2496,13 +2496,13 @@
         <v>4.1160769462585449</v>
       </c>
       <c r="C192" s="2">
-        <v>4.1254034042358398</v>
+        <v>4.125328540802002</v>
       </c>
       <c r="D192" s="2">
         <v>3.8897714614868164</v>
       </c>
       <c r="E192" s="2">
-        <v>3.8137350082397461</v>
+        <v>3.8136439323425293</v>
       </c>
     </row>
     <row r="193">
@@ -2513,13 +2513,13 @@
         <v>4.0786056518554688</v>
       </c>
       <c r="C193" s="2">
-        <v>4.1223516464233398</v>
+        <v>4.1224112510681152</v>
       </c>
       <c r="D193" s="2">
         <v>3.8120527267456055</v>
       </c>
       <c r="E193" s="2">
-        <v>3.7772021293640137</v>
+        <v>3.7770993709564209</v>
       </c>
     </row>
     <row r="194">
@@ -2530,13 +2530,13 @@
         <v>3.1884627342224121</v>
       </c>
       <c r="C194" s="2">
-        <v>3.0392425060272217</v>
+        <v>3.039015531539917</v>
       </c>
       <c r="D194" s="2">
         <v>3.7646775245666504</v>
       </c>
       <c r="E194" s="2">
-        <v>3.7228600978851318</v>
+        <v>3.7228007316589356</v>
       </c>
     </row>
     <row r="195">
@@ -2547,13 +2547,13 @@
         <v>3.0482499599456787</v>
       </c>
       <c r="C195" s="2">
-        <v>3.0776364803314209</v>
+        <v>3.0774574279785156</v>
       </c>
       <c r="D195" s="2">
         <v>3.6284298896789551</v>
       </c>
       <c r="E195" s="2">
-        <v>3.5948410034179688</v>
+        <v>3.5947766304016113</v>
       </c>
     </row>
     <row r="196">
@@ -2564,13 +2564,13 @@
         <v>4.1255717277526855</v>
       </c>
       <c r="C196" s="2">
-        <v>4.0566425323486328</v>
+        <v>4.0564999580383301</v>
       </c>
       <c r="D196" s="2">
         <v>3.6339685916900635</v>
       </c>
       <c r="E196" s="2">
-        <v>3.6065666675567627</v>
+        <v>3.6065001487731934</v>
       </c>
     </row>
     <row r="197">
@@ -2581,13 +2581,13 @@
         <v>3.2238137722015381</v>
       </c>
       <c r="C197" s="2">
-        <v>3.3155045509338379</v>
+        <v>3.3155031204223633</v>
       </c>
       <c r="D197" s="2">
         <v>3.5637655258178711</v>
       </c>
       <c r="E197" s="2">
-        <v>3.5330255031585693</v>
+        <v>3.532940149307251</v>
       </c>
     </row>
     <row r="198">
@@ -2595,16 +2595,16 @@
         <v>34455</v>
       </c>
       <c r="B198" s="2">
-        <v>3.6203534603118896</v>
+        <v>3.6203534603118897</v>
       </c>
       <c r="C198" s="2">
-        <v>3.4757201671600342</v>
+        <v>3.4758925437927246</v>
       </c>
       <c r="D198" s="2">
         <v>3.4463129043579102</v>
       </c>
       <c r="E198" s="2">
-        <v>3.3992412090301514</v>
+        <v>3.3991122245788574</v>
       </c>
     </row>
     <row r="199">
@@ -2615,13 +2615,13 @@
         <v>3.3403892517089844</v>
       </c>
       <c r="C199" s="2">
-        <v>3.3584420680999756</v>
+        <v>3.3582983016967774</v>
       </c>
       <c r="D199" s="2">
         <v>3.4527311325073242</v>
       </c>
       <c r="E199" s="2">
-        <v>3.4225807189941406</v>
+        <v>3.4224772453308105</v>
       </c>
     </row>
     <row r="200">
@@ -2632,13 +2632,13 @@
         <v>3.9641928672790527</v>
       </c>
       <c r="C200" s="2">
-        <v>3.8881566524505615</v>
+        <v>3.888094425201416</v>
       </c>
       <c r="D200" s="2">
         <v>3.5121605396270752</v>
       </c>
       <c r="E200" s="2">
-        <v>3.4830443859100342</v>
+        <v>3.4829738140106201</v>
       </c>
     </row>
     <row r="201">
@@ -2649,13 +2649,13 @@
         <v>3.4842512607574463</v>
       </c>
       <c r="C201" s="2">
-        <v>3.4635324478149414</v>
+        <v>3.4632887840270996</v>
       </c>
       <c r="D201" s="2">
         <v>3.3905034065246582</v>
       </c>
       <c r="E201" s="2">
-        <v>3.3659381866455078</v>
+        <v>3.3658628463745117</v>
       </c>
     </row>
     <row r="202">
@@ -2666,13 +2666,13 @@
         <v>3.0215303897857666</v>
       </c>
       <c r="C202" s="2">
-        <v>2.9182932376861572</v>
+        <v>2.9179592132568359</v>
       </c>
       <c r="D202" s="2">
         <v>3.4051318168640137</v>
       </c>
       <c r="E202" s="2">
-        <v>3.3599731922149658</v>
+        <v>3.3599276542663574</v>
       </c>
     </row>
     <row r="203">
@@ -2683,13 +2683,13 @@
         <v>3.2462267875671387</v>
       </c>
       <c r="C203" s="2">
-        <v>3.2492985725402832</v>
+        <v>3.2493023872375488</v>
       </c>
       <c r="D203" s="2">
         <v>3.3391690254211426</v>
       </c>
       <c r="E203" s="2">
-        <v>3.3105843067169189</v>
+        <v>3.3105065822601318</v>
       </c>
     </row>
     <row r="204">
@@ -2700,13 +2700,13 @@
         <v>3.5831162929534912</v>
       </c>
       <c r="C204" s="2">
-        <v>3.6218085289001465</v>
+        <v>3.621924638748169</v>
       </c>
       <c r="D204" s="2">
         <v>3.3376224040985107</v>
       </c>
       <c r="E204" s="2">
-        <v>3.2930049896240234</v>
+        <v>3.292935848236084</v>
       </c>
     </row>
     <row r="205">
@@ -2717,13 +2717,13 @@
         <v>3.0306565761566162</v>
       </c>
       <c r="C205" s="2">
-        <v>3.0026865005493164</v>
+        <v>3.0025012493133545</v>
       </c>
       <c r="D205" s="2">
         <v>3.2475378513336182</v>
       </c>
       <c r="E205" s="2">
-        <v>3.2003204822540283</v>
+        <v>3.20025634765625</v>
       </c>
     </row>
     <row r="206">
@@ -2734,13 +2734,13 @@
         <v>3.3554694652557373</v>
       </c>
       <c r="C206" s="2">
-        <v>3.2618212699890137</v>
+        <v>3.2620863914489746</v>
       </c>
       <c r="D206" s="2">
         <v>3.167449951171875</v>
       </c>
       <c r="E206" s="2">
-        <v>3.0976095199584961</v>
+        <v>3.097557544708252</v>
       </c>
     </row>
     <row r="207">
@@ -2751,13 +2751,13 @@
         <v>3.0266876220703125</v>
       </c>
       <c r="C207" s="2">
-        <v>3.0312204360961914</v>
+        <v>3.0311036109924316</v>
       </c>
       <c r="D207" s="2">
         <v>3.191051721572876</v>
       </c>
       <c r="E207" s="2">
-        <v>3.1306688785552979</v>
+        <v>3.1306326389312744</v>
       </c>
     </row>
     <row r="208">
@@ -2768,13 +2768,13 @@
         <v>3.326469898223877</v>
       </c>
       <c r="C208" s="2">
-        <v>3.2002272605895996</v>
+        <v>3.2001619338989258</v>
       </c>
       <c r="D208" s="2">
         <v>3.1807165145874023</v>
       </c>
       <c r="E208" s="2">
-        <v>3.1267035007476807</v>
+        <v>3.1266202926635742</v>
       </c>
     </row>
     <row r="209">
@@ -2785,13 +2785,13 @@
         <v>3.1534333229064941</v>
       </c>
       <c r="C209" s="2">
-        <v>3.0539951324462891</v>
+        <v>3.0539793968200684</v>
       </c>
       <c r="D209" s="2">
         <v>3.1588447093963623</v>
       </c>
       <c r="E209" s="2">
-        <v>3.0965356826782227</v>
+        <v>3.0964422225952148</v>
       </c>
     </row>
     <row r="210">
@@ -2802,13 +2802,13 @@
         <v>2.7634584903717041</v>
       </c>
       <c r="C210" s="2">
-        <v>2.5391342639923096</v>
+        <v>2.5390000343322754</v>
       </c>
       <c r="D210" s="2">
         <v>3.1920223236083984</v>
       </c>
       <c r="E210" s="2">
-        <v>3.1324615478515625</v>
+        <v>3.1324028968811035</v>
       </c>
     </row>
     <row r="211">
@@ -2819,13 +2819,13 @@
         <v>3.2339470386505127</v>
       </c>
       <c r="C211" s="2">
-        <v>3.2158272266387939</v>
+        <v>3.215634822845459</v>
       </c>
       <c r="D211" s="2">
         <v>3.1167340278625488</v>
       </c>
       <c r="E211" s="2">
-        <v>3.0686967372894287</v>
+        <v>3.0686013698577881</v>
       </c>
     </row>
     <row r="212">
@@ -2836,13 +2836,13 @@
         <v>3.1532101631164551</v>
       </c>
       <c r="C212" s="2">
-        <v>3.2136108875274658</v>
+        <v>3.2131900787353516</v>
       </c>
       <c r="D212" s="2">
         <v>3.1478762626647949</v>
       </c>
       <c r="E212" s="2">
-        <v>3.0710690021514893</v>
+        <v>3.0709495544433594</v>
       </c>
     </row>
     <row r="213">
@@ -2853,13 +2853,13 @@
         <v>3.3862698078155518</v>
       </c>
       <c r="C213" s="2">
-        <v>3.3502986431121826</v>
+        <v>3.3503215312957764</v>
       </c>
       <c r="D213" s="2">
         <v>3.1121904850006104</v>
       </c>
       <c r="E213" s="2">
-        <v>3.0251085758209229</v>
+        <v>3.0249779224395752</v>
       </c>
     </row>
     <row r="214">
@@ -2870,13 +2870,13 @@
         <v>3.3292543888092041</v>
       </c>
       <c r="C214" s="2">
-        <v>3.3260178565979004</v>
+        <v>3.3261477947235108</v>
       </c>
       <c r="D214" s="2">
         <v>3.1172163486480713</v>
       </c>
       <c r="E214" s="2">
-        <v>3.0247774124145508</v>
+        <v>3.024660587310791</v>
       </c>
     </row>
     <row r="215">
@@ -2887,13 +2887,13 @@
         <v>2.6778759956359863</v>
       </c>
       <c r="C215" s="2">
-        <v>2.687938928604126</v>
+        <v>2.6878736019134522</v>
       </c>
       <c r="D215" s="2">
-        <v>3.1227946281433105</v>
+        <v>3.1227946281433106</v>
       </c>
       <c r="E215" s="2">
-        <v>3.0182735919952393</v>
+        <v>3.0181295871734619</v>
       </c>
     </row>
     <row r="216">
@@ -2904,13 +2904,13 @@
         <v>3.3069674968719482</v>
       </c>
       <c r="C216" s="2">
-        <v>3.0525712966918945</v>
+        <v>3.0522363185882568</v>
       </c>
       <c r="D216" s="2">
         <v>3.1679747104644775</v>
       </c>
       <c r="E216" s="2">
-        <v>3.0509316921234131</v>
+        <v>3.050818681716919</v>
       </c>
     </row>
     <row r="217">
@@ -2921,13 +2921,13 @@
         <v>3.0052967071533203</v>
       </c>
       <c r="C217" s="2">
-        <v>2.7865831851959229</v>
+        <v>2.7864181995391846</v>
       </c>
       <c r="D217" s="2">
-        <v>3.1287002563476562</v>
+        <v>3.1287002563476563</v>
       </c>
       <c r="E217" s="2">
-        <v>2.9649639129638672</v>
+        <v>2.9648728370666504</v>
       </c>
     </row>
     <row r="218">
@@ -2938,13 +2938,13 @@
         <v>3.1986663341522217</v>
       </c>
       <c r="C218" s="2">
-        <v>3.0510134696960449</v>
+        <v>3.0511231422424316</v>
       </c>
       <c r="D218" s="2">
         <v>3.1426537036895752</v>
       </c>
       <c r="E218" s="2">
-        <v>2.9766860008239746</v>
+        <v>2.9765908718109131</v>
       </c>
     </row>
     <row r="219">
@@ -2955,13 +2955,13 @@
         <v>2.8136639595031738</v>
       </c>
       <c r="C219" s="2">
-        <v>2.4806008338928223</v>
+        <v>2.4802207946777344</v>
       </c>
       <c r="D219" s="2">
         <v>3.13094162940979</v>
       </c>
       <c r="E219" s="2">
-        <v>2.9346961975097656</v>
+        <v>2.9345483779907227</v>
       </c>
     </row>
     <row r="220">
@@ -2972,13 +2972,13 @@
         <v>3.6405684947967529</v>
       </c>
       <c r="C220" s="2">
-        <v>3.5097506046295166</v>
+        <v>3.5098357200622559</v>
       </c>
       <c r="D220" s="2">
         <v>3.2145609855651855</v>
       </c>
       <c r="E220" s="2">
-        <v>3.0244820117950439</v>
+        <v>3.0243520736694336</v>
       </c>
     </row>
     <row r="221">
@@ -2989,13 +2989,13 @@
         <v>2.7997400760650635</v>
       </c>
       <c r="C221" s="2">
-        <v>2.4399008750915527</v>
+        <v>2.439678430557251</v>
       </c>
       <c r="D221" s="2">
         <v>3.1816213130950928</v>
       </c>
       <c r="E221" s="2">
-        <v>3.021700382232666</v>
+        <v>3.0215773582458496</v>
       </c>
     </row>
     <row r="222">
@@ -3006,13 +3006,13 @@
         <v>3.5118489265441895</v>
       </c>
       <c r="C222" s="2">
-        <v>3.4557962417602539</v>
+        <v>3.4557845592498779</v>
       </c>
       <c r="D222" s="2">
         <v>3.1948869228363037</v>
       </c>
       <c r="E222" s="2">
-        <v>3.0686202049255371</v>
+        <v>3.0684995651245117</v>
       </c>
     </row>
     <row r="223">
@@ -3023,13 +3023,13 @@
         <v>3.223846435546875</v>
       </c>
       <c r="C223" s="2">
-        <v>2.9481112957000732</v>
+        <v>2.9477643966674805</v>
       </c>
       <c r="D223" s="2">
         <v>3.2163012027740479</v>
       </c>
       <c r="E223" s="2">
-        <v>3.1053509712219238</v>
+        <v>3.1051805019378662</v>
       </c>
     </row>
     <row r="224">
@@ -3040,13 +3040,13 @@
         <v>3.430450439453125</v>
       </c>
       <c r="C224" s="2">
-        <v>3.4960098266601562</v>
+        <v>3.4961061477661133</v>
       </c>
       <c r="D224" s="2">
         <v>3.2372779846191406</v>
       </c>
       <c r="E224" s="2">
-        <v>3.1665327548980713</v>
+        <v>3.166393518447876</v>
       </c>
     </row>
     <row r="225">
@@ -3057,13 +3057,13 @@
         <v>3.0105109214782715</v>
       </c>
       <c r="C225" s="2">
-        <v>3.0275373458862305</v>
+        <v>3.0272648334503174</v>
       </c>
       <c r="D225" s="2">
         <v>3.127838134765625</v>
       </c>
       <c r="E225" s="2">
-        <v>3.0755367279052734</v>
+        <v>3.0753653049468994</v>
       </c>
     </row>
     <row r="226">
@@ -3074,13 +3074,13 @@
         <v>3.1246864795684814</v>
       </c>
       <c r="C226" s="2">
-        <v>3.2088623046875</v>
+        <v>3.2087182998657227</v>
       </c>
       <c r="D226" s="2">
         <v>3.1378114223480225</v>
       </c>
       <c r="E226" s="2">
-        <v>3.1039481163024902</v>
+        <v>3.1038022041320801</v>
       </c>
     </row>
     <row r="227">
@@ -3088,16 +3088,16 @@
         <v>35339</v>
       </c>
       <c r="B227" s="2">
-        <v>3.3913955688476562</v>
+        <v>3.3913955688476563</v>
       </c>
       <c r="C227" s="2">
-        <v>3.381589412689209</v>
+        <v>3.3812518119812012</v>
       </c>
       <c r="D227" s="2">
         <v>3.0965931415557861</v>
       </c>
       <c r="E227" s="2">
-        <v>3.0605733394622803</v>
+        <v>3.0604112148284912</v>
       </c>
     </row>
     <row r="228">
@@ -3108,13 +3108,13 @@
         <v>3.0024549961090088</v>
       </c>
       <c r="C228" s="2">
-        <v>3.031235933303833</v>
+        <v>3.0311374664306641</v>
       </c>
       <c r="D228" s="2">
         <v>3.0485906600952148</v>
       </c>
       <c r="E228" s="2">
-        <v>3.0201358795166016</v>
+        <v>3.0200023651123047</v>
       </c>
     </row>
     <row r="229">
@@ -3125,13 +3125,13 @@
         <v>2.6556093692779541</v>
       </c>
       <c r="C229" s="2">
-        <v>2.6907882690429688</v>
+        <v>2.6905813217163086</v>
       </c>
       <c r="D229" s="2">
         <v>2.9838063716888428</v>
       </c>
       <c r="E229" s="2">
-        <v>2.9277572631835938</v>
+        <v>2.927619457244873</v>
       </c>
     </row>
     <row r="230">
@@ -3142,13 +3142,13 @@
         <v>2.8895001411437988</v>
       </c>
       <c r="C230" s="2">
-        <v>2.6956031322479248</v>
+        <v>2.6956117153167725</v>
       </c>
       <c r="D230" s="2">
         <v>2.9771034717559814</v>
       </c>
       <c r="E230" s="2">
-        <v>2.904646635055542</v>
+        <v>2.9045383930206299</v>
       </c>
     </row>
     <row r="231">
@@ -3159,13 +3159,13 @@
         <v>3.1408829689025879</v>
       </c>
       <c r="C231" s="2">
-        <v>3.0654230117797852</v>
+        <v>3.0652651786804199</v>
       </c>
       <c r="D231" s="2">
-        <v>2.9764928817749023</v>
+        <v>2.9764928817749024</v>
       </c>
       <c r="E231" s="2">
-        <v>2.9079089164733887</v>
+        <v>2.9078085422515869</v>
       </c>
     </row>
     <row r="232">
@@ -3176,13 +3176,13 @@
         <v>2.7918250560760498</v>
       </c>
       <c r="C232" s="2">
-        <v>2.5841739177703857</v>
+        <v>2.5840849876403809</v>
       </c>
       <c r="D232" s="2">
         <v>2.9911315441131592</v>
       </c>
       <c r="E232" s="2">
-        <v>2.9207515716552734</v>
+        <v>2.9206910133361817</v>
       </c>
     </row>
     <row r="233">
@@ -3193,13 +3193,13 @@
         <v>2.8473913669586182</v>
       </c>
       <c r="C233" s="2">
-        <v>2.6646020412445068</v>
+        <v>2.6646595001220703</v>
       </c>
       <c r="D233" s="2">
         <v>3.0460283756256104</v>
       </c>
       <c r="E233" s="2">
-        <v>2.9659216403961182</v>
+        <v>2.965862512588501</v>
       </c>
     </row>
     <row r="234">
@@ -3207,16 +3207,16 @@
         <v>35551</v>
       </c>
       <c r="B234" s="2">
-        <v>2.9501862525939941</v>
+        <v>2.9501862525939942</v>
       </c>
       <c r="C234" s="2">
-        <v>2.819542407989502</v>
+        <v>2.8195347785949707</v>
       </c>
       <c r="D234" s="2">
-        <v>3.0399088859558105</v>
+        <v>3.0399088859558106</v>
       </c>
       <c r="E234" s="2">
-        <v>2.9571774005889893</v>
+        <v>2.957089900970459</v>
       </c>
     </row>
     <row r="235">
@@ -3227,13 +3227,13 @@
         <v>3.1191895008087158</v>
       </c>
       <c r="C235" s="2">
-        <v>3.238222599029541</v>
+        <v>3.238149881362915</v>
       </c>
       <c r="D235" s="2">
         <v>3.1280696392059326</v>
       </c>
       <c r="E235" s="2">
-        <v>3.0761237144470215</v>
+        <v>3.0760564804077148</v>
       </c>
     </row>
     <row r="236">
@@ -3244,13 +3244,13 @@
         <v>3.5231449604034424</v>
       </c>
       <c r="C236" s="2">
-        <v>3.4971737861633301</v>
+        <v>3.4971940517425537</v>
       </c>
       <c r="D236" s="2">
         <v>3.1685526371002197</v>
       </c>
       <c r="E236" s="2">
-        <v>3.1350095272064209</v>
+        <v>3.1349489688873291</v>
       </c>
     </row>
     <row r="237">
@@ -3261,13 +3261,13 @@
         <v>3.4965260028839111</v>
       </c>
       <c r="C237" s="2">
-        <v>3.4377655982971191</v>
+        <v>3.4376811981201172</v>
       </c>
       <c r="D237" s="2">
         <v>3.2153244018554688</v>
       </c>
       <c r="E237" s="2">
-        <v>3.1788818836212158</v>
+        <v>3.1788125038146973</v>
       </c>
     </row>
     <row r="238">
@@ -3278,13 +3278,13 @@
         <v>2.6005332469940186</v>
       </c>
       <c r="C238" s="2">
-        <v>2.6120893955230713</v>
+        <v>2.6116282939910889</v>
       </c>
       <c r="D238" s="2">
         <v>3.2169513702392578</v>
       </c>
       <c r="E238" s="2">
-        <v>3.2073109149932861</v>
+        <v>3.207195520401001</v>
       </c>
     </row>
     <row r="239">
@@ -3295,13 +3295,13 @@
         <v>3.6829466819763184</v>
       </c>
       <c r="C239" s="2">
-        <v>3.7661201953887939</v>
+        <v>3.7663102149963379</v>
       </c>
       <c r="D239" s="2">
         <v>3.1889281272888184</v>
       </c>
       <c r="E239" s="2">
-        <v>3.1954069137573242</v>
+        <v>3.1952755451202393</v>
       </c>
     </row>
     <row r="240">
@@ -3312,13 +3312,13 @@
         <v>3.505230188369751</v>
       </c>
       <c r="C240" s="2">
-        <v>3.5953960418701172</v>
+        <v>3.5952985286712646</v>
       </c>
       <c r="D240" s="2">
         <v>3.2115790843963623</v>
       </c>
       <c r="E240" s="2">
-        <v>3.1905820369720459</v>
+        <v>3.1904518604278565</v>
       </c>
     </row>
     <row r="241">
@@ -3329,13 +3329,13 @@
         <v>3.2127711772918701</v>
       </c>
       <c r="C241" s="2">
-        <v>2.97902512550354</v>
+        <v>2.9788558483123779</v>
       </c>
       <c r="D241" s="2">
         <v>3.0848937034606934</v>
       </c>
       <c r="E241" s="2">
-        <v>3.0741152763366699</v>
+        <v>3.0739462375640869</v>
       </c>
     </row>
     <row r="242">
@@ -3346,13 +3346,13 @@
         <v>2.8620338439941406</v>
       </c>
       <c r="C242" s="2">
-        <v>2.9204626083374023</v>
+        <v>2.9201066493988037</v>
       </c>
       <c r="D242" s="2">
         <v>3.0242416858673096</v>
       </c>
       <c r="E242" s="2">
-        <v>3.0108013153076172</v>
+        <v>3.0106143951416016</v>
       </c>
     </row>
     <row r="243">
@@ -3363,13 +3363,13 @@
         <v>2.6979777812957764</v>
       </c>
       <c r="C243" s="2">
-        <v>2.7124063968658447</v>
+        <v>2.7122542858123779</v>
       </c>
       <c r="D243" s="2">
         <v>3.0114040374755859</v>
       </c>
       <c r="E243" s="2">
-        <v>2.9896223545074463</v>
+        <v>2.9894645214080811</v>
       </c>
     </row>
     <row r="244">
@@ -3380,13 +3380,13 @@
         <v>3.3230476379394531</v>
       </c>
       <c r="C244" s="2">
-        <v>3.1947996616363525</v>
+        <v>3.1947381496429443</v>
       </c>
       <c r="D244" s="2">
         <v>2.8580513000488281</v>
       </c>
       <c r="E244" s="2">
-        <v>2.8343374729156494</v>
+        <v>2.8341224193572998</v>
       </c>
     </row>
     <row r="245">
@@ -3397,13 +3397,13 @@
         <v>2.3829770088195801</v>
       </c>
       <c r="C245" s="2">
-        <v>2.448972225189209</v>
+        <v>2.4486434459686279</v>
       </c>
       <c r="D245" s="2">
         <v>2.7454192638397217</v>
       </c>
       <c r="E245" s="2">
-        <v>2.7023699283599854</v>
+        <v>2.7021646499633789</v>
       </c>
     </row>
     <row r="246">
@@ -3414,13 +3414,13 @@
         <v>2.9506573677062988</v>
       </c>
       <c r="C246" s="2">
-        <v>2.8679404258728027</v>
+        <v>2.8676950931549072</v>
       </c>
       <c r="D246" s="2">
         <v>2.7061033248901367</v>
       </c>
       <c r="E246" s="2">
-        <v>2.6713020801544189</v>
+        <v>2.6711077690124512</v>
       </c>
     </row>
     <row r="247">
@@ -3431,13 +3431,13 @@
         <v>2.4849939346313477</v>
       </c>
       <c r="C247" s="2">
-        <v>2.4214785099029541</v>
+        <v>2.4212794303894043</v>
       </c>
       <c r="D247" s="2">
         <v>2.6917681694030762</v>
       </c>
       <c r="E247" s="2">
-        <v>2.6344032287597656</v>
+        <v>2.6341924667358399</v>
       </c>
     </row>
     <row r="248">
@@ -3448,13 +3448,13 @@
         <v>2.302772045135498</v>
       </c>
       <c r="C248" s="2">
-        <v>2.3685555458068848</v>
+        <v>2.3682293891906738</v>
       </c>
       <c r="D248" s="2">
         <v>2.7224681377410889</v>
       </c>
       <c r="E248" s="2">
-        <v>2.6689321994781494</v>
+        <v>2.6687583923339844</v>
       </c>
     </row>
     <row r="249">
@@ -3465,13 +3465,13 @@
         <v>2.4915425777435303</v>
       </c>
       <c r="C249" s="2">
-        <v>2.4076893329620361</v>
+        <v>2.4076790809631348</v>
       </c>
       <c r="D249" s="2">
         <v>2.6708219051361084</v>
       </c>
       <c r="E249" s="2">
-        <v>2.6084387302398682</v>
+        <v>2.6082642078399658</v>
       </c>
     </row>
     <row r="250">
@@ -3482,13 +3482,13 @@
         <v>2.8589277267456055</v>
       </c>
       <c r="C250" s="2">
-        <v>2.6994149684906006</v>
+        <v>2.6993441581726074</v>
       </c>
       <c r="D250" s="2">
         <v>2.7147762775421143</v>
       </c>
       <c r="E250" s="2">
-        <v>2.6415586471557617</v>
+        <v>2.6414332389831543</v>
       </c>
     </row>
     <row r="251">
@@ -3499,13 +3499,13 @@
         <v>2.7330176830291748</v>
       </c>
       <c r="C251" s="2">
-        <v>2.5883712768554688</v>
+        <v>2.5878691673278809</v>
       </c>
       <c r="D251" s="2">
         <v>2.6843230724334717</v>
       </c>
       <c r="E251" s="2">
-        <v>2.6086013317108154</v>
+        <v>2.6085004806518555</v>
       </c>
     </row>
     <row r="252">
@@ -3516,13 +3516,13 @@
         <v>2.9742763042449951</v>
       </c>
       <c r="C252" s="2">
-        <v>3.0231671333312988</v>
+        <v>3.0233469009399414</v>
       </c>
       <c r="D252" s="2">
         <v>2.7008523941040039</v>
       </c>
       <c r="E252" s="2">
-        <v>2.6150646209716797</v>
+        <v>2.6149821281433105</v>
       </c>
     </row>
     <row r="253">
@@ -3533,13 +3533,13 @@
         <v>2.8582320213317871</v>
       </c>
       <c r="C253" s="2">
-        <v>2.6503586769104004</v>
+        <v>2.650291919708252</v>
       </c>
       <c r="D253" s="2">
         <v>2.7425746917724609</v>
       </c>
       <c r="E253" s="2">
-        <v>2.6469182968139648</v>
+        <v>2.646857738494873</v>
       </c>
     </row>
     <row r="254">
@@ -3550,13 +3550,13 @@
         <v>2.7785665988922119</v>
       </c>
       <c r="C254" s="2">
-        <v>2.7470512390136719</v>
+        <v>2.7471640110015869</v>
       </c>
       <c r="D254" s="2">
         <v>2.7578179836273193</v>
       </c>
       <c r="E254" s="2">
-        <v>2.6635406017303467</v>
+        <v>2.6634664535522461</v>
       </c>
     </row>
     <row r="255">
@@ -3567,13 +3567,13 @@
         <v>2.6765787601470947</v>
       </c>
       <c r="C255" s="2">
-        <v>2.5713248252868652</v>
+        <v>2.5713009834289551</v>
       </c>
       <c r="D255" s="2">
         <v>2.7331204414367676</v>
       </c>
       <c r="E255" s="2">
-        <v>2.6641247272491455</v>
+        <v>2.6640338897705078</v>
       </c>
     </row>
     <row r="256">
@@ -3584,13 +3584,13 @@
         <v>2.6337580680847168</v>
       </c>
       <c r="C256" s="2">
-        <v>2.479649543762207</v>
+        <v>2.4796125888824463</v>
       </c>
       <c r="D256" s="2">
         <v>2.7129490375518799</v>
       </c>
       <c r="E256" s="2">
-        <v>2.663715124130249</v>
+        <v>2.6636614799499512</v>
       </c>
     </row>
     <row r="257">
@@ -3601,13 +3601,13 @@
         <v>2.678272008895874</v>
       </c>
       <c r="C257" s="2">
-        <v>2.655238151550293</v>
+        <v>2.6551117897033692</v>
       </c>
       <c r="D257" s="2">
         <v>2.7248332500457764</v>
       </c>
       <c r="E257" s="2">
-        <v>2.6615364551544189</v>
+        <v>2.6614267826080322</v>
       </c>
     </row>
     <row r="258">
@@ -3618,13 +3618,13 @@
         <v>2.6287331581115723</v>
       </c>
       <c r="C258" s="2">
-        <v>2.5572893619537354</v>
+        <v>2.5571556091308594</v>
       </c>
       <c r="D258" s="2">
         <v>2.7202703952789307</v>
       </c>
       <c r="E258" s="2">
-        <v>2.6650021076202393</v>
+        <v>2.6648707389831543</v>
       </c>
     </row>
     <row r="259">
@@ -3635,13 +3635,13 @@
         <v>2.636648416519165</v>
       </c>
       <c r="C259" s="2">
-        <v>2.7046718597412109</v>
+        <v>2.7044527530670166</v>
       </c>
       <c r="D259" s="2">
         <v>2.6817796230316162</v>
       </c>
       <c r="E259" s="2">
-        <v>2.6070334911346436</v>
+        <v>2.6068642139434815</v>
       </c>
     </row>
     <row r="260">
@@ -3649,16 +3649,16 @@
         <v>36342</v>
       </c>
       <c r="B260" s="2">
-        <v>2.5514752864837646</v>
+        <v>2.5514752864837647</v>
       </c>
       <c r="C260" s="2">
-        <v>2.5846848487854004</v>
+        <v>2.5845174789428711</v>
       </c>
       <c r="D260" s="2">
         <v>2.6873016357421875</v>
       </c>
       <c r="E260" s="2">
-        <v>2.6226787567138672</v>
+        <v>2.6224782466888428</v>
       </c>
     </row>
     <row r="261">
@@ -3669,13 +3669,13 @@
         <v>3.0812349319458008</v>
       </c>
       <c r="C261" s="2">
-        <v>3.0035595893859863</v>
+        <v>3.0032329559326172</v>
       </c>
       <c r="D261" s="2">
         <v>2.7034556865692139</v>
       </c>
       <c r="E261" s="2">
-        <v>2.6546700000762939</v>
+        <v>2.6544566154479981</v>
       </c>
     </row>
     <row r="262">
@@ -3686,13 +3686,13 @@
         <v>2.8171656131744385</v>
       </c>
       <c r="C262" s="2">
-        <v>2.6815505027770996</v>
+        <v>2.6812875270843506</v>
       </c>
       <c r="D262" s="2">
         <v>2.6964144706726074</v>
       </c>
       <c r="E262" s="2">
-        <v>2.6255362033843994</v>
+        <v>2.6253767013549805</v>
       </c>
     </row>
     <row r="263">
@@ -3700,16 +3700,16 @@
         <v>36434</v>
       </c>
       <c r="B263" s="2">
-        <v>2.4321508407592773</v>
+        <v>2.4321508407592774</v>
       </c>
       <c r="C263" s="2">
-        <v>2.2253329753875732</v>
+        <v>2.2251067161560059</v>
       </c>
       <c r="D263" s="2">
         <v>2.6909148693084717</v>
       </c>
       <c r="E263" s="2">
-        <v>2.6170966625213623</v>
+        <v>2.6169500350952148</v>
       </c>
     </row>
     <row r="264">
@@ -3720,13 +3720,13 @@
         <v>2.7262763977050781</v>
       </c>
       <c r="C264" s="2">
-        <v>2.7121315002441406</v>
+        <v>2.7118263244628906</v>
       </c>
       <c r="D264" s="2">
         <v>2.7549972534179688</v>
       </c>
       <c r="E264" s="2">
-        <v>2.6549694538116455</v>
+        <v>2.6548418998718262</v>
       </c>
     </row>
     <row r="265">
@@ -3737,13 +3737,13 @@
         <v>2.779144287109375</v>
       </c>
       <c r="C265" s="2">
-        <v>2.7675721645355225</v>
+        <v>2.7674176692962646</v>
       </c>
       <c r="D265" s="2">
         <v>2.8090832233428955</v>
       </c>
       <c r="E265" s="2">
-        <v>2.6844689846038818</v>
+        <v>2.6843445301055908</v>
       </c>
     </row>
     <row r="266">
@@ -3754,13 +3754,13 @@
         <v>2.6149022579193115</v>
       </c>
       <c r="C266" s="2">
-        <v>2.393033504486084</v>
+        <v>2.3933942317962646</v>
       </c>
       <c r="D266" s="2">
         <v>2.768094539642334</v>
       </c>
       <c r="E266" s="2">
-        <v>2.6417849063873291</v>
+        <v>2.6416778564453125</v>
       </c>
     </row>
     <row r="267">
@@ -3771,13 +3771,13 @@
         <v>2.5792360305786133</v>
       </c>
       <c r="C267" s="2">
-        <v>2.481332540512085</v>
+        <v>2.4813146591186524</v>
       </c>
       <c r="D267" s="2">
         <v>2.8302388191223145</v>
       </c>
       <c r="E267" s="2">
-        <v>2.7126069068908691</v>
+        <v>2.7125215530395508</v>
       </c>
     </row>
     <row r="268">
@@ -3788,13 +3788,13 @@
         <v>3.2133891582489014</v>
       </c>
       <c r="C268" s="2">
-        <v>3.0455269813537598</v>
+        <v>3.0454797744750977</v>
       </c>
       <c r="D268" s="2">
         <v>2.8525166511535645</v>
       </c>
       <c r="E268" s="2">
-        <v>2.7600574493408203</v>
+        <v>2.7600269317626953</v>
       </c>
     </row>
     <row r="269">
@@ -3805,13 +3805,13 @@
         <v>3.0382492542266846</v>
       </c>
       <c r="C269" s="2">
-        <v>2.8501815795898438</v>
+        <v>2.8500406742095947</v>
       </c>
       <c r="D269" s="2">
-        <v>2.8651344776153564</v>
+        <v>2.8651344776153565</v>
       </c>
       <c r="E269" s="2">
-        <v>2.7402362823486328</v>
+        <v>2.740225076675415</v>
       </c>
     </row>
     <row r="270">
@@ -3822,13 +3822,13 @@
         <v>2.7123379707336426</v>
       </c>
       <c r="C270" s="2">
-        <v>2.6194016933441162</v>
+        <v>2.6192328929901123</v>
       </c>
       <c r="D270" s="2">
         <v>2.8804192543029785</v>
       </c>
       <c r="E270" s="2">
-        <v>2.7538328170776367</v>
+        <v>2.7538537979125977</v>
       </c>
     </row>
     <row r="271">
@@ -3839,13 +3839,13 @@
         <v>3.3764641284942627</v>
       </c>
       <c r="C271" s="2">
-        <v>3.3189494609832764</v>
+        <v>3.3188817501068115</v>
       </c>
       <c r="D271" s="2">
         <v>2.9208593368530273</v>
       </c>
       <c r="E271" s="2">
-        <v>2.8061051368713379</v>
+        <v>2.8060805797576904</v>
       </c>
     </row>
     <row r="272">
@@ -3856,13 +3856,13 @@
         <v>2.6326503753662109</v>
       </c>
       <c r="C272" s="2">
-        <v>2.652388334274292</v>
+        <v>2.6526534557342529</v>
       </c>
       <c r="D272" s="2">
         <v>3.0039057731628418</v>
       </c>
       <c r="E272" s="2">
-        <v>2.9034914970397949</v>
+        <v>2.9034581184387207</v>
       </c>
     </row>
     <row r="273">
@@ -3873,13 +3873,13 @@
         <v>2.8398375511169434</v>
       </c>
       <c r="C273" s="2">
-        <v>2.5337402820587158</v>
+        <v>2.5336101055145264</v>
       </c>
       <c r="D273" s="2">
         <v>2.9937937259674072</v>
       </c>
       <c r="E273" s="2">
-        <v>2.905064582824707</v>
+        <v>2.9050357341766357</v>
       </c>
     </row>
     <row r="274">
@@ -3890,13 +3890,13 @@
         <v>2.9167056083679199</v>
       </c>
       <c r="C274" s="2">
-        <v>2.8899414539337158</v>
+        <v>2.8900775909423828</v>
       </c>
       <c r="D274" s="2">
-        <v>2.9863662719726562</v>
+        <v>2.9863662719726563</v>
       </c>
       <c r="E274" s="2">
-        <v>2.9188179969787598</v>
+        <v>2.9187946319580078</v>
       </c>
     </row>
     <row r="275">
@@ -3907,13 +3907,13 @@
         <v>2.9788649082183838</v>
       </c>
       <c r="C275" s="2">
-        <v>2.8634839057922363</v>
+        <v>2.8634335994720459</v>
       </c>
       <c r="D275" s="2">
         <v>2.9935076236724854</v>
       </c>
       <c r="E275" s="2">
-        <v>2.9292707443237305</v>
+        <v>2.9292497634887695</v>
       </c>
     </row>
     <row r="276">
@@ -3924,13 +3924,13 @@
         <v>3.3266537189483643</v>
       </c>
       <c r="C276" s="2">
-        <v>3.3578100204467773</v>
+        <v>3.3577127456665039</v>
       </c>
       <c r="D276" s="2">
         <v>2.9609360694885254</v>
       </c>
       <c r="E276" s="2">
-        <v>2.896357536315918</v>
+        <v>2.8963167667388916</v>
       </c>
     </row>
     <row r="277">
@@ -3941,13 +3941,13 @@
         <v>3.1223795413970947</v>
       </c>
       <c r="C277" s="2">
-        <v>3.0596842765808105</v>
+        <v>3.0596785545349121</v>
       </c>
       <c r="D277" s="2">
         <v>3.0026471614837646</v>
       </c>
       <c r="E277" s="2">
-        <v>2.9238016605377197</v>
+        <v>2.9237170219421387</v>
       </c>
     </row>
     <row r="278">
@@ -3958,13 +3958,13 @@
         <v>2.9714028835296631</v>
       </c>
       <c r="C278" s="2">
-        <v>2.9739632606506348</v>
+        <v>2.9738717079162598</v>
       </c>
       <c r="D278" s="2">
         <v>3.0358569622039795</v>
       </c>
       <c r="E278" s="2">
-        <v>2.9898529052734375</v>
+        <v>2.9897632598876953</v>
       </c>
     </row>
     <row r="279">
@@ -3975,13 +3975,13 @@
         <v>2.7766101360321045</v>
       </c>
       <c r="C279" s="2">
-        <v>2.7134754657745361</v>
+        <v>2.7133276462554932</v>
       </c>
       <c r="D279" s="2">
         <v>3.0247781276702881</v>
       </c>
       <c r="E279" s="2">
-        <v>2.9543325901031494</v>
+        <v>2.9542162418365479</v>
       </c>
     </row>
     <row r="280">
@@ -3989,16 +3989,16 @@
         <v>36951</v>
       </c>
       <c r="B280" s="2">
-        <v>3.0833199024200439</v>
+        <v>3.083319902420044</v>
       </c>
       <c r="C280" s="2">
-        <v>3.0227315425872803</v>
+        <v>3.0224845409393311</v>
       </c>
       <c r="D280" s="2">
         <v>3.0043797492980957</v>
       </c>
       <c r="E280" s="2">
-        <v>2.9391334056854248</v>
+        <v>2.9390180110931397</v>
       </c>
     </row>
     <row r="281">
@@ -4009,13 +4009,13 @@
         <v>3.0080509185791016</v>
       </c>
       <c r="C281" s="2">
-        <v>2.8993852138519287</v>
+        <v>2.8992559909820557</v>
       </c>
       <c r="D281" s="2">
         <v>2.9357397556304932</v>
       </c>
       <c r="E281" s="2">
-        <v>2.8589847087860107</v>
+        <v>2.8588783740997315</v>
       </c>
     </row>
     <row r="282">
@@ -4026,13 +4026,13 @@
         <v>3.1387259960174561</v>
       </c>
       <c r="C282" s="2">
-        <v>3.1282014846801758</v>
+        <v>3.1280272006988525</v>
       </c>
       <c r="D282" s="2">
         <v>2.8883428573608398</v>
       </c>
       <c r="E282" s="2">
-        <v>2.8074865341186523</v>
+        <v>2.807398796081543</v>
       </c>
     </row>
     <row r="283">
@@ -4043,13 +4043,13 @@
         <v>2.8169944286346436</v>
       </c>
       <c r="C283" s="2">
-        <v>2.5702590942382812</v>
+        <v>2.5701537132263184</v>
       </c>
       <c r="D283" s="2">
         <v>2.8581039905548096</v>
       </c>
       <c r="E283" s="2">
-        <v>2.7961592674255371</v>
+        <v>2.7960464954376221</v>
       </c>
     </row>
     <row r="284">
@@ -4060,13 +4060,13 @@
         <v>2.795280933380127</v>
       </c>
       <c r="C284" s="2">
-        <v>2.7266900539398193</v>
+        <v>2.7266504764556885</v>
       </c>
       <c r="D284" s="2">
         <v>2.8784995079040527</v>
       </c>
       <c r="E284" s="2">
-        <v>2.8115043640136719</v>
+        <v>2.8114042282104492</v>
       </c>
     </row>
     <row r="285">
@@ -4077,13 +4077,13 @@
         <v>2.7088937759399414</v>
       </c>
       <c r="C285" s="2">
-        <v>2.6364712715148926</v>
+        <v>2.6364560127258301</v>
       </c>
       <c r="D285" s="2">
         <v>2.9298126697540283</v>
       </c>
       <c r="E285" s="2">
-        <v>2.8752131462097168</v>
+        <v>2.8751151561737061</v>
       </c>
     </row>
     <row r="286">
@@ -4094,13 +4094,13 @@
         <v>2.6958062648773193</v>
       </c>
       <c r="C286" s="2">
-        <v>2.5962018966674805</v>
+        <v>2.5963609218597412</v>
       </c>
       <c r="D286" s="2">
         <v>2.8711872100830078</v>
       </c>
       <c r="E286" s="2">
-        <v>2.8246445655822754</v>
+        <v>2.8245308399200439</v>
       </c>
     </row>
     <row r="287">
@@ -4111,13 +4111,13 @@
         <v>2.6992526054382324</v>
       </c>
       <c r="C287" s="2">
-        <v>2.8720166683197021</v>
+        <v>2.8717029094696045</v>
       </c>
       <c r="D287" s="2">
         <v>2.8382124900817871</v>
       </c>
       <c r="E287" s="2">
-        <v>2.788952112197876</v>
+        <v>2.7888641357421875</v>
       </c>
     </row>
     <row r="288">
@@ -4128,13 +4128,13 @@
         <v>2.9601714611053467</v>
       </c>
       <c r="C288" s="2">
-        <v>2.851581335067749</v>
+        <v>2.8515467643737793</v>
       </c>
       <c r="D288" s="2">
         <v>2.8817493915557861</v>
       </c>
       <c r="E288" s="2">
-        <v>2.8545825481414795</v>
+        <v>2.8545019626617432</v>
       </c>
     </row>
     <row r="289">
@@ -4145,13 +4145,13 @@
         <v>3.5451385974884033</v>
       </c>
       <c r="C289" s="2">
-        <v>3.5961105823516846</v>
+        <v>3.5958824157714844</v>
       </c>
       <c r="D289" s="2">
         <v>2.9315910339355469</v>
       </c>
       <c r="E289" s="2">
-        <v>2.8982307910919189</v>
+        <v>2.8981599807739258</v>
       </c>
     </row>
     <row r="290">
@@ -4162,13 +4162,13 @@
         <v>2.4804210662841797</v>
       </c>
       <c r="C290" s="2">
-        <v>2.4442679882049561</v>
+        <v>2.4439961910247803</v>
       </c>
       <c r="D290" s="2">
         <v>2.9121754169464111</v>
       </c>
       <c r="E290" s="2">
-        <v>2.8801019191741943</v>
+        <v>2.8800206184387207</v>
       </c>
     </row>
     <row r="291">
@@ -4179,13 +4179,13 @@
         <v>2.841954231262207</v>
       </c>
       <c r="C291" s="2">
-        <v>2.8069696426391602</v>
+        <v>2.8070278167724609</v>
       </c>
       <c r="D291" s="2">
         <v>2.932633638381958</v>
       </c>
       <c r="E291" s="2">
-        <v>2.9025421142578125</v>
+        <v>2.9024267196655273</v>
       </c>
     </row>
     <row r="292">
@@ -4196,13 +4196,13 @@
         <v>3.2088251113891602</v>
       </c>
       <c r="C292" s="2">
-        <v>3.1609327793121338</v>
+        <v>3.1608948707580567</v>
       </c>
       <c r="D292" s="2">
-        <v>2.9704816341400146</v>
+        <v>2.9704816341400147</v>
       </c>
       <c r="E292" s="2">
-        <v>2.9156980514526367</v>
+        <v>2.9156105518341064</v>
       </c>
     </row>
     <row r="293">
@@ -4213,13 +4213,13 @@
         <v>3.2438561916351318</v>
       </c>
       <c r="C293" s="2">
-        <v>3.1195247173309326</v>
+        <v>3.1195719242095947</v>
       </c>
       <c r="D293" s="2">
         <v>2.9342086315155029</v>
       </c>
       <c r="E293" s="2">
-        <v>2.8911318778991699</v>
+        <v>2.8910236358642578</v>
       </c>
     </row>
     <row r="294">
@@ -4230,13 +4230,13 @@
         <v>2.5341536998748779</v>
       </c>
       <c r="C294" s="2">
-        <v>2.4733126163482666</v>
+        <v>2.4732010364532471</v>
       </c>
       <c r="D294" s="2">
         <v>2.8772158622741699</v>
       </c>
       <c r="E294" s="2">
-        <v>2.8114228248596191</v>
+        <v>2.8113479614257813</v>
       </c>
     </row>
     <row r="295">
@@ -4247,13 +4247,13 @@
         <v>2.879929780960083</v>
       </c>
       <c r="C295" s="2">
-        <v>2.7981622219085693</v>
+        <v>2.7980163097381592</v>
       </c>
       <c r="D295" s="2">
         <v>2.9354000091552734</v>
       </c>
       <c r="E295" s="2">
-        <v>2.8651790618896484</v>
+        <v>2.8651111125946045</v>
       </c>
     </row>
     <row r="296">
@@ -4264,13 +4264,13 @@
         <v>3.0398852825164795</v>
       </c>
       <c r="C296" s="2">
-        <v>2.9904212951660156</v>
+        <v>2.9903583526611328</v>
       </c>
       <c r="D296" s="2">
         <v>2.9405057430267334</v>
       </c>
       <c r="E296" s="2">
-        <v>2.8417506217956543</v>
+        <v>2.8416914939880371</v>
       </c>
     </row>
     <row r="297">
@@ -4281,13 +4281,13 @@
         <v>2.6337132453918457</v>
       </c>
       <c r="C297" s="2">
-        <v>2.6304850578308105</v>
+        <v>2.6302633285522461</v>
       </c>
       <c r="D297" s="2">
         <v>2.9440460205078125</v>
       </c>
       <c r="E297" s="2">
-        <v>2.8440215587615967</v>
+        <v>2.8439736366271973</v>
       </c>
     </row>
     <row r="298">
@@ -4298,13 +4298,13 @@
         <v>3.0322039127349854</v>
       </c>
       <c r="C298" s="2">
-        <v>2.8787298202514648</v>
+        <v>2.8788018226623535</v>
       </c>
       <c r="D298" s="2">
         <v>2.888934850692749</v>
       </c>
       <c r="E298" s="2">
-        <v>2.7938404083251953</v>
+        <v>2.7937905788421631</v>
       </c>
     </row>
     <row r="299">
@@ -4315,13 +4315,13 @@
         <v>3.0040779113769531</v>
       </c>
       <c r="C299" s="2">
-        <v>2.9280738830566406</v>
+        <v>2.9278640747070313</v>
       </c>
       <c r="D299" s="2">
         <v>2.9606404304504395</v>
       </c>
       <c r="E299" s="2">
-        <v>2.8886737823486328</v>
+        <v>2.8886394500732422</v>
       </c>
     </row>
     <row r="300">
@@ -4332,13 +4332,13 @@
         <v>2.8879055976867676</v>
       </c>
       <c r="C300" s="2">
-        <v>2.5961129665374756</v>
+        <v>2.5962512493133545</v>
       </c>
       <c r="D300" s="2">
         <v>2.9479122161865234</v>
       </c>
       <c r="E300" s="2">
-        <v>2.8984036445617676</v>
+        <v>2.8983550071716309</v>
       </c>
     </row>
     <row r="301">
@@ -4349,13 +4349,13 @@
         <v>3.2406888008117676</v>
       </c>
       <c r="C301" s="2">
-        <v>3.1813709735870361</v>
+        <v>3.1814348697662354</v>
       </c>
       <c r="D301" s="2">
         <v>3.0099730491638184</v>
       </c>
       <c r="E301" s="2">
-        <v>2.9322566986083984</v>
+        <v>2.9322032928466797</v>
       </c>
     </row>
     <row r="302">
@@ -4366,13 +4366,13 @@
         <v>2.7478563785552979</v>
       </c>
       <c r="C302" s="2">
-        <v>2.6678941249847412</v>
+        <v>2.6679232120513916</v>
       </c>
       <c r="D302" s="2">
         <v>3.0016026496887207</v>
       </c>
       <c r="E302" s="2">
-        <v>2.9201841354370117</v>
+        <v>2.9201343059539795</v>
       </c>
     </row>
     <row r="303">
@@ -4383,13 +4383,13 @@
         <v>3.1795029640197754</v>
       </c>
       <c r="C303" s="2">
-        <v>3.3268129825592041</v>
+        <v>3.3268425464630127</v>
       </c>
       <c r="D303" s="2">
         <v>2.9876425266265869</v>
       </c>
       <c r="E303" s="2">
-        <v>2.925485372543335</v>
+        <v>2.9253990650177002</v>
       </c>
     </row>
     <row r="304">
@@ -4400,13 +4400,13 @@
         <v>2.7653753757476807</v>
       </c>
       <c r="C304" s="2">
-        <v>2.8857309818267822</v>
+        <v>2.8854553699493408</v>
       </c>
       <c r="D304" s="2">
         <v>2.9952743053436279</v>
       </c>
       <c r="E304" s="2">
-        <v>2.9282670021057129</v>
+        <v>2.9281923770904541</v>
       </c>
     </row>
     <row r="305">
@@ -4417,13 +4417,13 @@
         <v>3.5984334945678711</v>
       </c>
       <c r="C305" s="2">
-        <v>3.2950994968414307</v>
+        <v>3.2949938774108887</v>
       </c>
       <c r="D305" s="2">
         <v>3.0517692565917969</v>
       </c>
       <c r="E305" s="2">
-        <v>3.0130329132080078</v>
+        <v>3.0129318237304688</v>
       </c>
     </row>
     <row r="306">
@@ -4434,13 +4434,13 @@
         <v>2.5583784580230713</v>
       </c>
       <c r="C306" s="2">
-        <v>2.5218324661254883</v>
+        <v>2.521641731262207</v>
       </c>
       <c r="D306" s="2">
         <v>3.0155408382415771</v>
       </c>
       <c r="E306" s="2">
-        <v>2.9822587966918945</v>
+        <v>2.9821181297302246</v>
       </c>
     </row>
     <row r="307">
@@ -4451,13 +4451,13 @@
         <v>2.9065632820129395</v>
       </c>
       <c r="C307" s="2">
-        <v>2.9264404773712158</v>
+        <v>2.926184892654419</v>
       </c>
       <c r="D307" s="2">
         <v>3.0446062088012695</v>
       </c>
       <c r="E307" s="2">
-        <v>3.0231921672821045</v>
+        <v>3.0230369567871094</v>
       </c>
     </row>
     <row r="308">
@@ -4468,13 +4468,13 @@
         <v>3.0727653503417969</v>
       </c>
       <c r="C308" s="2">
-        <v>2.9531083106994629</v>
+        <v>2.9530029296875</v>
       </c>
       <c r="D308" s="2">
-        <v>2.9843366146087646</v>
+        <v>2.9843366146087647</v>
       </c>
       <c r="E308" s="2">
-        <v>2.9450945854187012</v>
+        <v>2.9449658393859863</v>
       </c>
     </row>
     <row r="309">
@@ -4485,13 +4485,13 @@
         <v>3.396359920501709</v>
       </c>
       <c r="C309" s="2">
-        <v>3.3590066432952881</v>
+        <v>3.3589067459106445</v>
       </c>
       <c r="D309" s="2">
         <v>2.9754116535186768</v>
       </c>
       <c r="E309" s="2">
-        <v>2.9151804447174072</v>
+        <v>2.9150729179382324</v>
       </c>
     </row>
     <row r="310">
@@ -4502,13 +4502,13 @@
         <v>2.9146325588226318</v>
       </c>
       <c r="C310" s="2">
-        <v>2.9044029712677002</v>
+        <v>2.9041116237640381</v>
       </c>
       <c r="D310" s="2">
         <v>2.8857958316802979</v>
       </c>
       <c r="E310" s="2">
-        <v>2.8651623725891113</v>
+        <v>2.8650469779968262</v>
       </c>
     </row>
     <row r="311">
@@ -4519,13 +4519,13 @@
         <v>3.009443998336792</v>
       </c>
       <c r="C311" s="2">
-        <v>3.0362954139709473</v>
+        <v>3.0361921787261963</v>
       </c>
       <c r="D311" s="2">
         <v>2.9076120853424072</v>
       </c>
       <c r="E311" s="2">
-        <v>2.8887944221496582</v>
+        <v>2.8886799812316895</v>
       </c>
     </row>
     <row r="312">
@@ -4533,16 +4533,16 @@
         <v>37926</v>
       </c>
       <c r="B312" s="2">
-        <v>2.6370763778686523</v>
+        <v>2.6370763778686524</v>
       </c>
       <c r="C312" s="2">
-        <v>2.6239352226257324</v>
+        <v>2.6242029666900635</v>
       </c>
       <c r="D312" s="2">
         <v>2.9007503986358643</v>
       </c>
       <c r="E312" s="2">
-        <v>2.8907871246337891</v>
+        <v>2.8906867504119873</v>
       </c>
     </row>
     <row r="313">
@@ -4553,13 +4553,13 @@
         <v>2.6850523948669434</v>
       </c>
       <c r="C313" s="2">
-        <v>2.6165027618408203</v>
+        <v>2.6164193153381348</v>
       </c>
       <c r="D313" s="2">
         <v>2.8695483207702637</v>
       </c>
       <c r="E313" s="2">
-        <v>2.8815920352935791</v>
+        <v>2.8815128803253174</v>
       </c>
     </row>
     <row r="314">
@@ -4570,13 +4570,13 @@
         <v>2.7918891906738281</v>
       </c>
       <c r="C314" s="2">
-        <v>2.8449380397796631</v>
+        <v>2.8447611331939697</v>
       </c>
       <c r="D314" s="2">
         <v>2.8094995021820068</v>
       </c>
       <c r="E314" s="2">
-        <v>2.8242113590240479</v>
+        <v>2.8241455554962158</v>
       </c>
     </row>
     <row r="315">
@@ -4587,13 +4587,13 @@
         <v>2.7547266483306885</v>
       </c>
       <c r="C315" s="2">
-        <v>2.7345194816589355</v>
+        <v>2.7343370914459229</v>
       </c>
       <c r="D315" s="2">
         <v>2.7660925388336182</v>
       </c>
       <c r="E315" s="2">
-        <v>2.7726843357086182</v>
+        <v>2.7726171016693115</v>
       </c>
     </row>
     <row r="316">
@@ -4604,13 +4604,13 @@
         <v>2.8448073863983154</v>
       </c>
       <c r="C316" s="2">
-        <v>2.94437575340271</v>
+        <v>2.9442474842071533</v>
       </c>
       <c r="D316" s="2">
         <v>2.7220799922943115</v>
       </c>
       <c r="E316" s="2">
-        <v>2.7243001461029053</v>
+        <v>2.7242076396942139</v>
       </c>
     </row>
     <row r="317">
@@ -4621,13 +4621,13 @@
         <v>2.7919459342956543</v>
       </c>
       <c r="C317" s="2">
-        <v>2.8703525066375732</v>
+        <v>2.8704378604888916</v>
       </c>
       <c r="D317" s="2">
         <v>2.8139922618865967</v>
       </c>
       <c r="E317" s="2">
-        <v>2.8169035911560059</v>
+        <v>2.8167886734008789</v>
       </c>
     </row>
     <row r="318">
@@ -4638,13 +4638,13 @@
         <v>2.855921745300293</v>
       </c>
       <c r="C318" s="2">
-        <v>2.8425796031951904</v>
+        <v>2.8425993919372559</v>
       </c>
       <c r="D318" s="2">
         <v>2.8755722045898438</v>
       </c>
       <c r="E318" s="2">
-        <v>2.8893914222717285</v>
+        <v>2.8892910480499268</v>
       </c>
     </row>
     <row r="319">
@@ -4655,13 +4655,13 @@
         <v>2.5239691734313965</v>
       </c>
       <c r="C319" s="2">
-        <v>2.4406607151031494</v>
+        <v>2.4403555393218994</v>
       </c>
       <c r="D319" s="2">
         <v>2.8728706836700439</v>
       </c>
       <c r="E319" s="2">
-        <v>2.8763358592987061</v>
+        <v>2.8762540817260742</v>
       </c>
     </row>
     <row r="320">
@@ -4672,13 +4672,13 @@
         <v>2.6133308410644531</v>
       </c>
       <c r="C320" s="2">
-        <v>2.6008367538452148</v>
+        <v>2.6005082130432129</v>
       </c>
       <c r="D320" s="2">
         <v>2.8676979541778564</v>
       </c>
       <c r="E320" s="2">
-        <v>2.8812038898468018</v>
+        <v>2.8811061382293701</v>
       </c>
     </row>
     <row r="321">
@@ -4689,13 +4689,13 @@
         <v>3.4642865657806396</v>
       </c>
       <c r="C321" s="2">
-        <v>3.4573664665222168</v>
+        <v>3.4574329853057861</v>
       </c>
       <c r="D321" s="2">
         <v>2.8698451519012451</v>
       </c>
       <c r="E321" s="2">
-        <v>2.8468844890594482</v>
+        <v>2.8467869758605957</v>
       </c>
     </row>
     <row r="322">
@@ -4706,13 +4706,13 @@
         <v>3.2392730712890625</v>
       </c>
       <c r="C322" s="2">
-        <v>3.2688941955566406</v>
+        <v>3.2689402103424072</v>
       </c>
       <c r="D322" s="2">
         <v>2.8810973167419434</v>
       </c>
       <c r="E322" s="2">
-        <v>2.8550798892974854</v>
+        <v>2.8549184799194336</v>
       </c>
     </row>
     <row r="323">
@@ -4723,13 +4723,13 @@
         <v>2.7675745487213135</v>
       </c>
       <c r="C323" s="2">
-        <v>2.7274363040924072</v>
+        <v>2.7274279594421387</v>
       </c>
       <c r="D323" s="2">
-        <v>2.8653018474578857</v>
+        <v>2.8653018474578858</v>
       </c>
       <c r="E323" s="2">
-        <v>2.8464415073394775</v>
+        <v>2.8462624549865723</v>
       </c>
     </row>
     <row r="324">
@@ -4740,13 +4740,13 @@
         <v>2.708172082901001</v>
       </c>
       <c r="C324" s="2">
-        <v>2.7783324718475342</v>
+        <v>2.7780046463012695</v>
       </c>
       <c r="D324" s="2">
         <v>2.9021182060241699</v>
       </c>
       <c r="E324" s="2">
-        <v>2.8919367790222168</v>
+        <v>2.8917746543884277</v>
       </c>
     </row>
     <row r="325">
@@ -4757,13 +4757,13 @@
         <v>2.8641316890716553</v>
       </c>
       <c r="C325" s="2">
-        <v>2.6355020999908447</v>
+        <v>2.6353752613067627</v>
       </c>
       <c r="D325" s="2">
         <v>2.9019820690155029</v>
       </c>
       <c r="E325" s="2">
-        <v>2.8971920013427734</v>
+        <v>2.8970398902893067</v>
       </c>
     </row>
     <row r="326">
@@ -4774,13 +4774,13 @@
         <v>2.8932168483734131</v>
       </c>
       <c r="C326" s="2">
-        <v>2.9441113471984863</v>
+        <v>2.943622350692749</v>
       </c>
       <c r="D326" s="2">
         <v>2.8163001537322998</v>
       </c>
       <c r="E326" s="2">
-        <v>2.8090119361877441</v>
+        <v>2.8088321685791016</v>
       </c>
     </row>
     <row r="327">
@@ -4791,13 +4791,13 @@
         <v>2.7137627601623535</v>
       </c>
       <c r="C327" s="2">
-        <v>2.7648324966430664</v>
+        <v>2.7646956443786621</v>
       </c>
       <c r="D327" s="2">
         <v>2.7646729946136475</v>
       </c>
       <c r="E327" s="2">
-        <v>2.7559728622436523</v>
+        <v>2.7557697296142578</v>
       </c>
     </row>
     <row r="328">
@@ -4808,13 +4808,13 @@
         <v>2.8553144931793213</v>
       </c>
       <c r="C328" s="2">
-        <v>2.8501179218292236</v>
+        <v>2.8499641418457031</v>
       </c>
       <c r="D328" s="2">
-        <v>2.7419497966766357</v>
+        <v>2.7419497966766358</v>
       </c>
       <c r="E328" s="2">
-        <v>2.733048677444458</v>
+        <v>2.7328581809997559</v>
       </c>
     </row>
     <row r="329">
@@ -4825,13 +4825,13 @@
         <v>2.6121056079864502</v>
       </c>
       <c r="C329" s="2">
-        <v>2.6481344699859619</v>
+        <v>2.6478948593139648</v>
       </c>
       <c r="D329" s="2">
         <v>2.8135664463043213</v>
       </c>
       <c r="E329" s="2">
-        <v>2.7937607765197754</v>
+        <v>2.7935972213745117</v>
       </c>
     </row>
     <row r="330">
@@ -4842,13 +4842,13 @@
         <v>2.6931507587432861</v>
       </c>
       <c r="C330" s="2">
-        <v>2.6637461185455322</v>
+        <v>2.6635646820068359</v>
       </c>
       <c r="D330" s="2">
         <v>2.8811171054840088</v>
       </c>
       <c r="E330" s="2">
-        <v>2.8721749782562256</v>
+        <v>2.8719990253448486</v>
       </c>
     </row>
     <row r="331">
@@ -4859,13 +4859,13 @@
         <v>2.7746286392211914</v>
       </c>
       <c r="C331" s="2">
-        <v>2.7915418148040771</v>
+        <v>2.7913789749145508</v>
       </c>
       <c r="D331" s="2">
         <v>2.9362571239471436</v>
       </c>
       <c r="E331" s="2">
-        <v>2.9028010368347168</v>
+        <v>2.9026849269866943</v>
       </c>
     </row>
     <row r="332">
@@ -4876,13 +4876,13 @@
         <v>2.5630660057067871</v>
       </c>
       <c r="C332" s="2">
-        <v>2.5211184024810791</v>
+        <v>2.5212240219116211</v>
       </c>
       <c r="D332" s="2">
         <v>2.9898898601531982</v>
       </c>
       <c r="E332" s="2">
-        <v>2.9431817531585693</v>
+        <v>2.9430625438690186</v>
       </c>
     </row>
     <row r="333">
@@ -4893,13 +4893,13 @@
         <v>3.3527207374572754</v>
       </c>
       <c r="C333" s="2">
-        <v>3.3247432708740234</v>
+        <v>3.3246557712554932</v>
       </c>
       <c r="D333" s="2">
         <v>3.0033667087554932</v>
       </c>
       <c r="E333" s="2">
-        <v>2.9442758560180664</v>
+        <v>2.9441497325897217</v>
       </c>
     </row>
     <row r="334">
@@ -4910,13 +4910,13 @@
         <v>3.4720878601074219</v>
       </c>
       <c r="C334" s="2">
-        <v>3.341228723526001</v>
+        <v>3.3409914970397949</v>
       </c>
       <c r="D334" s="2">
         <v>3.0960991382598877</v>
       </c>
       <c r="E334" s="2">
-        <v>3.047321081161499</v>
+        <v>3.0472302436828613</v>
       </c>
     </row>
     <row r="335">
@@ -4927,13 +4927,13 @@
         <v>3.3894779682159424</v>
       </c>
       <c r="C335" s="2">
-        <v>3.2197465896606445</v>
+        <v>3.2197945117950439</v>
       </c>
       <c r="D335" s="2">
         <v>3.0677731037139893</v>
       </c>
       <c r="E335" s="2">
-        <v>3.0174825191497803</v>
+        <v>3.017425537109375</v>
       </c>
     </row>
     <row r="336">
@@ -4944,13 +4944,13 @@
         <v>3.1964564323425293</v>
       </c>
       <c r="C336" s="2">
-        <v>3.1282591819763184</v>
+        <v>3.1280946731567383</v>
       </c>
       <c r="D336" s="2">
         <v>3.1209614276885986</v>
       </c>
       <c r="E336" s="2">
-        <v>3.0746204853057861</v>
+        <v>3.0745644569396973</v>
       </c>
     </row>
     <row r="337">
@@ -4961,13 +4961,13 @@
         <v>2.9766063690185547</v>
       </c>
       <c r="C337" s="2">
-        <v>2.8599643707275391</v>
+        <v>2.8597478866577149</v>
       </c>
       <c r="D337" s="2">
-        <v>3.2216255664825439</v>
+        <v>3.221625566482544</v>
       </c>
       <c r="E337" s="2">
-        <v>3.1762526035308838</v>
+        <v>3.1761999130249024</v>
       </c>
     </row>
     <row r="338">
@@ -4978,13 +4978,13 @@
         <v>3.4466981887817383</v>
       </c>
       <c r="C338" s="2">
-        <v>3.57554030418396</v>
+        <v>3.575620174407959</v>
       </c>
       <c r="D338" s="2">
         <v>3.2171969413757324</v>
       </c>
       <c r="E338" s="2">
-        <v>3.1853654384613037</v>
+        <v>3.1853177547454834</v>
       </c>
     </row>
     <row r="339">
@@ -4995,13 +4995,13 @@
         <v>2.4382150173187256</v>
       </c>
       <c r="C339" s="2">
-        <v>2.3952000141143799</v>
+        <v>2.3953230381011963</v>
       </c>
       <c r="D339" s="2">
         <v>3.1648685932159424</v>
       </c>
       <c r="E339" s="2">
-        <v>3.1445779800415039</v>
+        <v>3.1445305347442627</v>
       </c>
     </row>
     <row r="340">
@@ -5012,13 +5012,13 @@
         <v>3.2533247470855713</v>
       </c>
       <c r="C340" s="2">
-        <v>3.3057832717895508</v>
+        <v>3.3056292533874512</v>
       </c>
       <c r="D340" s="2">
         <v>3.0457100868225098</v>
       </c>
       <c r="E340" s="2">
-        <v>3.0311102867126465</v>
+        <v>3.0310549736022949</v>
       </c>
     </row>
     <row r="341">
@@ -5029,13 +5029,13 @@
         <v>3.4690430164337158</v>
       </c>
       <c r="C341" s="2">
-        <v>3.4358072280883789</v>
+        <v>3.4359421730041504</v>
       </c>
       <c r="D341" s="2">
         <v>3.0564477443695068</v>
       </c>
       <c r="E341" s="2">
-        <v>3.039926290512085</v>
+        <v>3.0399048328399658</v>
       </c>
     </row>
     <row r="342">
@@ -5046,13 +5046,13 @@
         <v>3.3128621578216553</v>
       </c>
       <c r="C342" s="2">
-        <v>3.4067590236663818</v>
+        <v>3.4067161083221436</v>
       </c>
       <c r="D342" s="2">
         <v>3.0107812881469727</v>
       </c>
       <c r="E342" s="2">
-        <v>3.0077059268951416</v>
+        <v>3.007716178894043</v>
       </c>
     </row>
     <row r="343">
@@ -5063,13 +5063,13 @@
         <v>3.0011341571807861</v>
       </c>
       <c r="C343" s="2">
-        <v>2.9741408824920654</v>
+        <v>2.9739077091217041</v>
       </c>
       <c r="D343" s="2">
         <v>2.9489359855651855</v>
       </c>
       <c r="E343" s="2">
-        <v>2.9365584850311279</v>
+        <v>2.936539888381958</v>
       </c>
     </row>
     <row r="344">
@@ -5080,13 +5080,13 @@
         <v>2.3170506954193115</v>
       </c>
       <c r="C344" s="2">
-        <v>2.1985383033752441</v>
+        <v>2.1985135078430176</v>
       </c>
       <c r="D344" s="2">
         <v>2.9932661056518555</v>
       </c>
       <c r="E344" s="2">
-        <v>2.9807467460632324</v>
+        <v>2.9807195663452148</v>
       </c>
     </row>
     <row r="345">
@@ -5097,13 +5097,13 @@
         <v>3.2930951118469238</v>
       </c>
       <c r="C345" s="2">
-        <v>3.2076029777526855</v>
+        <v>3.2077445983886719</v>
       </c>
       <c r="D345" s="2">
         <v>2.9684574604034424</v>
       </c>
       <c r="E345" s="2">
-        <v>2.9537076950073242</v>
+        <v>2.9536762237548828</v>
       </c>
     </row>
     <row r="346">
@@ -5114,13 +5114,13 @@
         <v>2.5656082630157471</v>
       </c>
       <c r="C346" s="2">
-        <v>2.5699806213378906</v>
+        <v>2.5700488090515137</v>
       </c>
       <c r="D346" s="2">
         <v>2.9091699123382568</v>
       </c>
       <c r="E346" s="2">
-        <v>2.894193172454834</v>
+        <v>2.894122838973999</v>
       </c>
     </row>
     <row r="347">
@@ -5131,13 +5131,13 @@
         <v>2.8900904655456543</v>
       </c>
       <c r="C347" s="2">
-        <v>2.9352138042449951</v>
+        <v>2.9350345134735108</v>
       </c>
       <c r="D347" s="2">
         <v>2.7975034713745117</v>
       </c>
       <c r="E347" s="2">
-        <v>2.7675316333770752</v>
+        <v>2.7674503326416016</v>
       </c>
     </row>
     <row r="348">
@@ -5148,13 +5148,13 @@
         <v>2.8371856212615967</v>
       </c>
       <c r="C348" s="2">
-        <v>2.7928955554962158</v>
+        <v>2.7929396629333496</v>
       </c>
       <c r="D348" s="2">
         <v>2.7610433101654053</v>
       </c>
       <c r="E348" s="2">
-        <v>2.725968599319458</v>
+        <v>2.7259092330932617</v>
       </c>
     </row>
     <row r="349">
@@ -5165,13 +5165,13 @@
         <v>3.0300476551055908</v>
       </c>
       <c r="C349" s="2">
-        <v>3.0624313354492188</v>
+        <v>3.0622384548187256</v>
       </c>
       <c r="D349" s="2">
         <v>2.8130855560302734</v>
       </c>
       <c r="E349" s="2">
-        <v>2.769047737121582</v>
+        <v>2.7689981460571289</v>
       </c>
     </row>
     <row r="350">
@@ -5182,13 +5182,13 @@
         <v>2.9354543685913086</v>
       </c>
       <c r="C350" s="2">
-        <v>2.9001758098602295</v>
+        <v>2.8999629020690918</v>
       </c>
       <c r="D350" s="2">
         <v>2.7753708362579346</v>
       </c>
       <c r="E350" s="2">
-        <v>2.7328920364379883</v>
+        <v>2.7328212261199951</v>
       </c>
     </row>
     <row r="351">
@@ -5199,13 +5199,13 @@
         <v>2.3078649044036865</v>
       </c>
       <c r="C351" s="2">
-        <v>2.2668056488037109</v>
+        <v>2.2666633129119873</v>
       </c>
       <c r="D351" s="2">
         <v>2.7796561717987061</v>
       </c>
       <c r="E351" s="2">
-        <v>2.7339534759521484</v>
+        <v>2.7338740825653076</v>
       </c>
     </row>
     <row r="352">
@@ -5216,13 +5216,13 @@
         <v>2.6729929447174072</v>
       </c>
       <c r="C352" s="2">
-        <v>2.6000723838806152</v>
+        <v>2.6000382900238037</v>
       </c>
       <c r="D352" s="2">
         <v>2.7898030281066895</v>
       </c>
       <c r="E352" s="2">
-        <v>2.743354320526123</v>
+        <v>2.743316650390625</v>
       </c>
     </row>
     <row r="353">
@@ -5233,13 +5233,13 @@
         <v>2.7854316234588623</v>
       </c>
       <c r="C353" s="2">
-        <v>2.5862517356872559</v>
+        <v>2.586313009262085</v>
       </c>
       <c r="D353" s="2">
         <v>2.8075573444366455</v>
       </c>
       <c r="E353" s="2">
-        <v>2.7566530704498291</v>
+        <v>2.756605863571167</v>
       </c>
     </row>
     <row r="354">
@@ -5250,13 +5250,13 @@
         <v>2.9536609649658203</v>
       </c>
       <c r="C354" s="2">
-        <v>2.8822023868560791</v>
+        <v>2.8821523189544678</v>
       </c>
       <c r="D354" s="2">
         <v>2.7602970600128174</v>
       </c>
       <c r="E354" s="2">
-        <v>2.7057299613952637</v>
+        <v>2.7056865692138672</v>
       </c>
     </row>
     <row r="355">
@@ -5267,13 +5267,13 @@
         <v>2.6041765213012695</v>
       </c>
       <c r="C355" s="2">
-        <v>2.5795323848724365</v>
+        <v>2.5795252323150635</v>
       </c>
       <c r="D355" s="2">
         <v>2.7145042419433594</v>
       </c>
       <c r="E355" s="2">
-        <v>2.662489652633667</v>
+        <v>2.6624298095703125</v>
       </c>
     </row>
     <row r="356">
@@ -5284,13 +5284,13 @@
         <v>2.9814133644104004</v>
       </c>
       <c r="C356" s="2">
-        <v>3.0198206901550293</v>
+        <v>3.0200164318084717</v>
       </c>
       <c r="D356" s="2">
         <v>2.8583881855010986</v>
       </c>
       <c r="E356" s="2">
-        <v>2.8159918785095215</v>
+        <v>2.8159177303314209</v>
       </c>
     </row>
     <row r="357">
@@ -5301,13 +5301,13 @@
         <v>2.996973991394043</v>
       </c>
       <c r="C357" s="2">
-        <v>2.9125843048095703</v>
+        <v>2.9125425815582275</v>
       </c>
       <c r="D357" s="2">
         <v>2.8879735469818115</v>
       </c>
       <c r="E357" s="2">
-        <v>2.8544988632202148</v>
+        <v>2.8544297218322754</v>
       </c>
     </row>
     <row r="358">
@@ -5318,13 +5318,13 @@
         <v>2.6047053337097168</v>
       </c>
       <c r="C358" s="2">
-        <v>2.6041243076324463</v>
+        <v>2.6039655208587647</v>
       </c>
       <c r="D358" s="2">
         <v>2.8947820663452148</v>
       </c>
       <c r="E358" s="2">
-        <v>2.8949499130249023</v>
+        <v>2.8948819637298584</v>
       </c>
     </row>
     <row r="359">
@@ -5335,13 +5335,13 @@
         <v>2.5233175754547119</v>
       </c>
       <c r="C359" s="2">
-        <v>2.5110127925872803</v>
+        <v>2.510650634765625</v>
       </c>
       <c r="D359" s="2">
         <v>2.8767657279968262</v>
       </c>
       <c r="E359" s="2">
-        <v>2.8908867835998535</v>
+        <v>2.8908050060272217</v>
       </c>
     </row>
     <row r="360">
@@ -5352,13 +5352,13 @@
         <v>3.6028206348419189</v>
       </c>
       <c r="C360" s="2">
-        <v>3.6483249664306641</v>
+        <v>3.648054838180542</v>
       </c>
       <c r="D360" s="2">
         <v>2.9705870151519775</v>
       </c>
       <c r="E360" s="2">
-        <v>2.9772450923919678</v>
+        <v>2.977161169052124</v>
       </c>
     </row>
     <row r="361">
@@ -5366,16 +5366,16 @@
         <v>39417</v>
       </c>
       <c r="B361" s="2">
-        <v>2.9392609596252441</v>
+        <v>2.9392609596252442</v>
       </c>
       <c r="C361" s="2">
-        <v>2.946636438369751</v>
+        <v>2.9466476440429688</v>
       </c>
       <c r="D361" s="2">
         <v>3.0329892635345459</v>
       </c>
       <c r="E361" s="2">
-        <v>3.0128426551818848</v>
+        <v>3.0127058029174805</v>
       </c>
     </row>
     <row r="362">
@@ -5386,13 +5386,13 @@
         <v>2.8467082977294922</v>
       </c>
       <c r="C362" s="2">
-        <v>2.9503099918365479</v>
+        <v>2.9503815174102783</v>
       </c>
       <c r="D362" s="2">
         <v>3.1134994029998779</v>
       </c>
       <c r="E362" s="2">
-        <v>3.1063840389251709</v>
+        <v>3.1062519550323486</v>
       </c>
     </row>
     <row r="363">
@@ -5403,13 +5403,13 @@
         <v>2.7915153503417969</v>
       </c>
       <c r="C363" s="2">
-        <v>2.8456342220306396</v>
+        <v>2.8454601764678955</v>
       </c>
       <c r="D363" s="2">
         <v>3.2506794929504395</v>
       </c>
       <c r="E363" s="2">
-        <v>3.2337908744812012</v>
+        <v>3.2336485385894775</v>
       </c>
     </row>
     <row r="364">
@@ -5420,13 +5420,13 @@
         <v>3.4485676288604736</v>
       </c>
       <c r="C364" s="2">
-        <v>3.3567590713500977</v>
+        <v>3.3567311763763428</v>
       </c>
       <c r="D364" s="2">
         <v>3.3929991722106934</v>
       </c>
       <c r="E364" s="2">
-        <v>3.3825585842132568</v>
+        <v>3.3824484348297119</v>
       </c>
     </row>
     <row r="365">
@@ -5437,13 +5437,13 @@
         <v>3.5430328845977783</v>
       </c>
       <c r="C365" s="2">
-        <v>3.3401978015899658</v>
+        <v>3.3399171829223633</v>
       </c>
       <c r="D365" s="2">
         <v>3.3593947887420654</v>
       </c>
       <c r="E365" s="2">
-        <v>3.3425693511962891</v>
+        <v>3.3424980640411377</v>
       </c>
     </row>
     <row r="366">
@@ -5454,13 +5454,13 @@
         <v>3.7215662002563477</v>
       </c>
       <c r="C366" s="2">
-        <v>3.7544574737548828</v>
+        <v>3.7544598579406738</v>
       </c>
       <c r="D366" s="2">
         <v>3.4102058410644531</v>
       </c>
       <c r="E366" s="2">
-        <v>3.3920407295227051</v>
+        <v>3.3919658660888672</v>
       </c>
     </row>
     <row r="367">
@@ -5471,13 +5471,13 @@
         <v>3.8393266201019287</v>
       </c>
       <c r="C367" s="2">
-        <v>3.7507855892181396</v>
+        <v>3.7505331039428711</v>
       </c>
       <c r="D367" s="2">
         <v>3.4632799625396729</v>
       </c>
       <c r="E367" s="2">
-        <v>3.4448511600494385</v>
+        <v>3.444749116897583</v>
       </c>
     </row>
     <row r="368">
@@ -5488,13 +5488,13 @@
         <v>3.8041937351226807</v>
       </c>
       <c r="C368" s="2">
-        <v>3.8499212265014648</v>
+        <v>3.8498504161834717</v>
       </c>
       <c r="D368" s="2">
         <v>3.5386779308319092</v>
       </c>
       <c r="E368" s="2">
-        <v>3.5142643451690674</v>
+        <v>3.5141780376434326</v>
       </c>
     </row>
     <row r="369">
@@ -5505,13 +5505,13 @@
         <v>3.3003807067871094</v>
       </c>
       <c r="C369" s="2">
-        <v>3.288421630859375</v>
+        <v>3.2885019779205322</v>
       </c>
       <c r="D369" s="2">
         <v>3.5326230525970459</v>
       </c>
       <c r="E369" s="2">
-        <v>3.5235095024108887</v>
+        <v>3.5234224796295166</v>
       </c>
     </row>
     <row r="370">
@@ -5522,13 +5522,13 @@
         <v>3.396561861038208</v>
       </c>
       <c r="C370" s="2">
-        <v>3.3918802738189697</v>
+        <v>3.3918578624725342</v>
       </c>
       <c r="D370" s="2">
         <v>3.5288946628570557</v>
       </c>
       <c r="E370" s="2">
-        <v>3.5344936847686768</v>
+        <v>3.5344414710998535</v>
       </c>
     </row>
     <row r="371">
@@ -5539,13 +5539,13 @@
         <v>3.3243756294250488</v>
       </c>
       <c r="C371" s="2">
-        <v>3.4256036281585693</v>
+        <v>3.4254307746887207</v>
       </c>
       <c r="D371" s="2">
         <v>3.5113959312438965</v>
       </c>
       <c r="E371" s="2">
-        <v>3.5091285705566406</v>
+        <v>3.5090887546539307</v>
       </c>
     </row>
     <row r="372">
@@ -5556,13 +5556,13 @@
         <v>3.4700953960418701</v>
       </c>
       <c r="C372" s="2">
-        <v>3.4703524112701416</v>
+        <v>3.4703207015991211</v>
       </c>
       <c r="D372" s="2">
         <v>3.473313570022583</v>
       </c>
       <c r="E372" s="2">
-        <v>3.4921529293060303</v>
+        <v>3.4921162128448486</v>
       </c>
     </row>
     <row r="373">
@@ -5573,13 +5573,13 @@
         <v>3.3940751552581787</v>
       </c>
       <c r="C373" s="2">
-        <v>3.4399650096893311</v>
+        <v>3.4399294853210449</v>
       </c>
       <c r="D373" s="2">
         <v>3.4050359725952148</v>
       </c>
       <c r="E373" s="2">
-        <v>3.4265878200531006</v>
+        <v>3.4265551567077637</v>
       </c>
     </row>
     <row r="374">
@@ -5590,13 +5590,13 @@
         <v>3.5094757080078125</v>
       </c>
       <c r="C374" s="2">
-        <v>3.4390561580657959</v>
+        <v>3.4390900135040283</v>
       </c>
       <c r="D374" s="2">
         <v>3.419992208480835</v>
       </c>
       <c r="E374" s="2">
-        <v>3.4479300975799561</v>
+        <v>3.4478650093078613</v>
       </c>
     </row>
     <row r="375">
@@ -5607,13 +5607,13 @@
         <v>3.564077615737915</v>
       </c>
       <c r="C375" s="2">
-        <v>3.5261719226837158</v>
+        <v>3.5262835025787354</v>
       </c>
       <c r="D375" s="2">
         <v>3.4214012622833252</v>
       </c>
       <c r="E375" s="2">
-        <v>3.46164870262146</v>
+        <v>3.4615845680236817</v>
       </c>
     </row>
     <row r="376">
@@ -5624,13 +5624,13 @@
         <v>3.4965860843658447</v>
       </c>
       <c r="C376" s="2">
-        <v>3.5980033874511719</v>
+        <v>3.5977814197540283</v>
       </c>
       <c r="D376" s="2">
         <v>3.5204756259918213</v>
       </c>
       <c r="E376" s="2">
-        <v>3.561530590057373</v>
+        <v>3.5614643096923828</v>
       </c>
     </row>
     <row r="377">
@@ -5641,13 +5641,13 @@
         <v>3.189694881439209</v>
       </c>
       <c r="C377" s="2">
-        <v>3.2598352432250977</v>
+        <v>3.2598013877868652</v>
       </c>
       <c r="D377" s="2">
         <v>3.4483969211578369</v>
       </c>
       <c r="E377" s="2">
-        <v>3.5042674541473389</v>
+        <v>3.5041916370391846</v>
       </c>
     </row>
     <row r="378">
@@ -5658,13 +5658,13 @@
         <v>3.4349884986877441</v>
       </c>
       <c r="C378" s="2">
-        <v>3.4805033206939697</v>
+        <v>3.4802894592285156</v>
       </c>
       <c r="D378" s="2">
         <v>3.4510953426361084</v>
       </c>
       <c r="E378" s="2">
-        <v>3.4959478378295898</v>
+        <v>3.4958662986755371</v>
       </c>
     </row>
     <row r="379">
@@ -5675,13 +5675,13 @@
         <v>3.4092419147491455</v>
       </c>
       <c r="C379" s="2">
-        <v>3.5153481960296631</v>
+        <v>3.5153343677520752</v>
       </c>
       <c r="D379" s="2">
         <v>3.4201765060424805</v>
       </c>
       <c r="E379" s="2">
-        <v>3.4736166000366211</v>
+        <v>3.473522424697876</v>
       </c>
     </row>
     <row r="380">
@@ -5692,13 +5692,13 @@
         <v>4.2160458564758301</v>
       </c>
       <c r="C380" s="2">
-        <v>4.3245396614074707</v>
+        <v>4.3243479728698731</v>
       </c>
       <c r="D380" s="2">
         <v>3.3299660682678223</v>
       </c>
       <c r="E380" s="2">
-        <v>3.3871393203735352</v>
+        <v>3.3870437145233154</v>
       </c>
     </row>
     <row r="381">
@@ -5706,16 +5706,16 @@
         <v>40026</v>
       </c>
       <c r="B381" s="2">
-        <v>2.8213868141174316</v>
+        <v>2.8213868141174317</v>
       </c>
       <c r="C381" s="2">
-        <v>2.954984188079834</v>
+        <v>2.9548664093017578</v>
       </c>
       <c r="D381" s="2">
         <v>3.3169794082641602</v>
       </c>
       <c r="E381" s="2">
-        <v>3.3764846324920654</v>
+        <v>3.3764042854309082</v>
       </c>
     </row>
     <row r="382">
@@ -5726,13 +5726,13 @@
         <v>3.4183616638183594</v>
       </c>
       <c r="C382" s="2">
-        <v>3.3650882244110107</v>
+        <v>3.3650026321411133</v>
       </c>
       <c r="D382" s="2">
         <v>3.3591029644012451</v>
       </c>
       <c r="E382" s="2">
-        <v>3.3936724662780762</v>
+        <v>3.3935837745666504</v>
       </c>
     </row>
     <row r="383">
@@ -5743,13 +5743,13 @@
         <v>3.2312054634094238</v>
       </c>
       <c r="C383" s="2">
-        <v>3.2380759716033936</v>
+        <v>3.2379937171936035</v>
       </c>
       <c r="D383" s="2">
         <v>3.3747761249542236</v>
       </c>
       <c r="E383" s="2">
-        <v>3.4013562202453613</v>
+        <v>3.4013018608093262</v>
       </c>
     </row>
     <row r="384">
@@ -5760,13 +5760,13 @@
         <v>2.7521841526031494</v>
       </c>
       <c r="C384" s="2">
-        <v>2.7478759288787842</v>
+        <v>2.747976541519165</v>
       </c>
       <c r="D384" s="2">
         <v>3.3357021808624268</v>
       </c>
       <c r="E384" s="2">
-        <v>3.3492841720581055</v>
+        <v>3.3492069244384766</v>
       </c>
     </row>
     <row r="385">
@@ -5777,13 +5777,13 @@
         <v>3.3797051906585693</v>
       </c>
       <c r="C385" s="2">
-        <v>3.5021116733551025</v>
+        <v>3.5020270347595215</v>
       </c>
       <c r="D385" s="2">
         <v>3.2344791889190674</v>
       </c>
       <c r="E385" s="2">
-        <v>3.241959810256958</v>
+        <v>3.2418961524963379</v>
       </c>
     </row>
     <row r="386">
@@ -5794,13 +5794,13 @@
         <v>3.5688071250915527</v>
       </c>
       <c r="C386" s="2">
-        <v>3.4145240783691406</v>
+        <v>3.4144155979156494</v>
       </c>
       <c r="D386" s="2">
         <v>3.2539050579071045</v>
       </c>
       <c r="E386" s="2">
-        <v>3.2450790405273438</v>
+        <v>3.2450311183929443</v>
       </c>
     </row>
     <row r="387">
@@ -5811,13 +5811,13 @@
         <v>3.5760478973388672</v>
       </c>
       <c r="C387" s="2">
-        <v>3.5496571063995361</v>
+        <v>3.5497531890869141</v>
       </c>
       <c r="D387" s="2">
         <v>3.152677059173584</v>
       </c>
       <c r="E387" s="2">
-        <v>3.15938401222229</v>
+        <v>3.1593296527862549</v>
       </c>
     </row>
     <row r="388">
@@ -5828,13 +5828,13 @@
         <v>3.0575752258300781</v>
       </c>
       <c r="C388" s="2">
-        <v>3.0467007160186768</v>
+        <v>3.0464797019958496</v>
       </c>
       <c r="D388" s="2">
         <v>3.1137194633483887</v>
       </c>
       <c r="E388" s="2">
-        <v>3.1080586910247803</v>
+        <v>3.1080288887023926</v>
       </c>
     </row>
     <row r="389">
@@ -5845,13 +5845,13 @@
         <v>3.3050394058227539</v>
       </c>
       <c r="C389" s="2">
-        <v>3.3586206436157227</v>
+        <v>3.3585515022277832</v>
       </c>
       <c r="D389" s="2">
         <v>3.1617593765258789</v>
       </c>
       <c r="E389" s="2">
-        <v>3.1563894748687744</v>
+        <v>3.1563196182250977</v>
       </c>
     </row>
     <row r="390">
@@ -5862,13 +5862,13 @@
         <v>2.9962191581726074</v>
       </c>
       <c r="C390" s="2">
-        <v>2.9830563068389893</v>
+        <v>2.9830806255340576</v>
       </c>
       <c r="D390" s="2">
-        <v>3.0901715755462646</v>
+        <v>3.0901715755462647</v>
       </c>
       <c r="E390" s="2">
-        <v>3.0746726989746094</v>
+        <v>3.0745694637298584</v>
       </c>
     </row>
     <row r="391">
@@ -5879,13 +5879,13 @@
         <v>2.5073091983795166</v>
       </c>
       <c r="C391" s="2">
-        <v>2.5938334465026855</v>
+        <v>2.5936882495880127</v>
       </c>
       <c r="D391" s="2">
         <v>3.0425910949707031</v>
       </c>
       <c r="E391" s="2">
-        <v>2.9939506053924561</v>
+        <v>2.9938392639160156</v>
       </c>
     </row>
     <row r="392">
@@ -5896,13 +5896,13 @@
         <v>2.8805880546569824</v>
       </c>
       <c r="C392" s="2">
-        <v>2.776148796081543</v>
+        <v>2.7762877941131592</v>
       </c>
       <c r="D392" s="2">
         <v>2.9899451732635498</v>
       </c>
       <c r="E392" s="2">
-        <v>2.9428796768188477</v>
+        <v>2.942716121673584</v>
       </c>
     </row>
     <row r="393">
@@ -5913,13 +5913,13 @@
         <v>3.1845428943634033</v>
       </c>
       <c r="C393" s="2">
-        <v>3.1828515529632568</v>
+        <v>3.1825931072235108</v>
       </c>
       <c r="D393" s="2">
         <v>3.0211079120635986</v>
       </c>
       <c r="E393" s="2">
-        <v>2.9710712432861328</v>
+        <v>2.9709224700927734</v>
       </c>
     </row>
     <row r="394">
@@ -5930,13 +5930,13 @@
         <v>2.7354156970977783</v>
       </c>
       <c r="C394" s="2">
-        <v>2.7666611671447754</v>
+        <v>2.76627516746521</v>
       </c>
       <c r="D394" s="2">
         <v>2.988760232925415</v>
       </c>
       <c r="E394" s="2">
-        <v>2.9361121654510498</v>
+        <v>2.9359536170959473</v>
       </c>
     </row>
     <row r="395">
@@ -5947,13 +5947,13 @@
         <v>3.1405818462371826</v>
       </c>
       <c r="C395" s="2">
-        <v>2.6880266666412354</v>
+        <v>2.6878445148468018</v>
       </c>
       <c r="D395" s="2">
         <v>2.959986686706543</v>
       </c>
       <c r="E395" s="2">
-        <v>2.9028341770172119</v>
+        <v>2.90267014503479</v>
       </c>
     </row>
     <row r="396">
@@ -5964,13 +5964,13 @@
         <v>3.1022353172302246</v>
       </c>
       <c r="C396" s="2">
-        <v>3.0900177955627441</v>
+        <v>3.0896449089050293</v>
       </c>
       <c r="D396" s="2">
         <v>3.0459551811218262</v>
       </c>
       <c r="E396" s="2">
-        <v>2.9721403121948242</v>
+        <v>2.9719822406768799</v>
       </c>
     </row>
     <row r="397">
@@ -5981,13 +5981,13 @@
         <v>3.3380398750305176</v>
       </c>
       <c r="C397" s="2">
-        <v>3.3004250526428223</v>
+        <v>3.3003358840942383</v>
       </c>
       <c r="D397" s="2">
         <v>3.10400390625</v>
       </c>
       <c r="E397" s="2">
-        <v>3.0389456748962402</v>
+        <v>3.0387723445892334</v>
       </c>
     </row>
     <row r="398">
@@ -5998,13 +5998,13 @@
         <v>3.0139105319976807</v>
       </c>
       <c r="C398" s="2">
-        <v>3.0439891815185547</v>
+        <v>3.043832540512085</v>
       </c>
       <c r="D398" s="2">
         <v>3.0988743305206299</v>
       </c>
       <c r="E398" s="2">
-        <v>3.0456697940826416</v>
+        <v>3.045501708984375</v>
       </c>
     </row>
     <row r="399">
@@ -6015,13 +6015,13 @@
         <v>2.7372558116912842</v>
       </c>
       <c r="C399" s="2">
-        <v>2.6835541725158691</v>
+        <v>2.6835298538208008</v>
       </c>
       <c r="D399" s="2">
         <v>3.1548702716827393</v>
       </c>
       <c r="E399" s="2">
-        <v>3.0909783840179443</v>
+        <v>3.0908622741699219</v>
       </c>
     </row>
     <row r="400">
@@ -6032,13 +6032,13 @@
         <v>3.2810258865356445</v>
       </c>
       <c r="C400" s="2">
-        <v>3.2175877094268799</v>
+        <v>3.2174968719482422</v>
       </c>
       <c r="D400" s="2">
         <v>3.1094582080841064</v>
       </c>
       <c r="E400" s="2">
-        <v>3.0916144847869873</v>
+        <v>3.0915210247039795</v>
       </c>
     </row>
     <row r="401">
@@ -6049,13 +6049,13 @@
         <v>3.4030265808105469</v>
       </c>
       <c r="C401" s="2">
-        <v>3.3773972988128662</v>
+        <v>3.3773989677429199</v>
       </c>
       <c r="D401" s="2">
         <v>3.1314268112182617</v>
       </c>
       <c r="E401" s="2">
-        <v>3.1210789680480957</v>
+        <v>3.1210219860076904</v>
       </c>
     </row>
     <row r="402">
@@ -6066,13 +6066,13 @@
         <v>3.1383779048919678</v>
       </c>
       <c r="C402" s="2">
-        <v>3.2433693408966064</v>
+        <v>3.2431564331054688</v>
       </c>
       <c r="D402" s="2">
         <v>3.0907306671142578</v>
       </c>
       <c r="E402" s="2">
-        <v>3.0803911685943604</v>
+        <v>3.0803403854370117</v>
       </c>
     </row>
     <row r="403">
@@ -6083,13 +6083,13 @@
         <v>3.2393794059753418</v>
       </c>
       <c r="C403" s="2">
-        <v>3.1744377613067627</v>
+        <v>3.1745197772979736</v>
       </c>
       <c r="D403" s="2">
         <v>3.071422815322876</v>
       </c>
       <c r="E403" s="2">
-        <v>3.0537877082824707</v>
+        <v>3.0537517070770264</v>
       </c>
     </row>
     <row r="404">
@@ -6100,13 +6100,13 @@
         <v>2.7318727970123291</v>
       </c>
       <c r="C404" s="2">
-        <v>2.6937522888183594</v>
+        <v>2.6937744617462158</v>
       </c>
       <c r="D404" s="2">
         <v>3.0552563667297363</v>
       </c>
       <c r="E404" s="2">
-        <v>3.0328438282012939</v>
+        <v>3.0327708721160889</v>
       </c>
     </row>
     <row r="405">
@@ -6117,13 +6117,13 @@
         <v>3.2999529838562012</v>
       </c>
       <c r="C405" s="2">
-        <v>3.3551979064941406</v>
+        <v>3.3551521301269531</v>
       </c>
       <c r="D405" s="2">
         <v>3.0121161937713623</v>
       </c>
       <c r="E405" s="2">
-        <v>3.0075452327728271</v>
+        <v>3.0074408054351807</v>
       </c>
     </row>
     <row r="406">
@@ -6134,13 +6134,13 @@
         <v>2.9717750549316406</v>
       </c>
       <c r="C406" s="2">
-        <v>2.9342341423034668</v>
+        <v>2.9342021942138672</v>
       </c>
       <c r="D406" s="2">
         <v>2.943411111831665</v>
       </c>
       <c r="E406" s="2">
-        <v>2.9434194564819336</v>
+        <v>2.9432864189147949</v>
       </c>
     </row>
     <row r="407">
@@ -6151,13 +6151,13 @@
         <v>2.8401391506195068</v>
       </c>
       <c r="C407" s="2">
-        <v>2.8045578002929688</v>
+        <v>2.8045341968536377</v>
       </c>
       <c r="D407" s="2">
         <v>2.9322686195373535</v>
       </c>
       <c r="E407" s="2">
-        <v>2.9267234802246094</v>
+        <v>2.9265952110290527</v>
       </c>
     </row>
     <row r="408">
@@ -6168,13 +6168,13 @@
         <v>2.5917577743530273</v>
       </c>
       <c r="C408" s="2">
-        <v>2.4950604438781738</v>
+        <v>2.4947032928466797</v>
       </c>
       <c r="D408" s="2">
         <v>2.9009478092193604</v>
       </c>
       <c r="E408" s="2">
-        <v>2.9030342102050781</v>
+        <v>2.9028880596160889</v>
       </c>
     </row>
     <row r="409">
@@ -6185,13 +6185,13 @@
         <v>2.8927643299102783</v>
       </c>
       <c r="C409" s="2">
-        <v>2.9899003505706787</v>
+        <v>2.9895262718200684</v>
       </c>
       <c r="D409" s="2">
         <v>2.9216787815093994</v>
       </c>
       <c r="E409" s="2">
-        <v>2.9287877082824707</v>
+        <v>2.9286413192749024</v>
       </c>
     </row>
     <row r="410">
@@ -6202,13 +6202,13 @@
         <v>2.7846798896789551</v>
       </c>
       <c r="C410" s="2">
-        <v>2.8002643585205078</v>
+        <v>2.8000082969665527</v>
       </c>
       <c r="D410" s="2">
-        <v>2.8747327327728271</v>
+        <v>2.8747327327728272</v>
       </c>
       <c r="E410" s="2">
-        <v>2.8742477893829346</v>
+        <v>2.8740909099578858</v>
       </c>
     </row>
     <row r="411">
@@ -6219,13 +6219,13 @@
         <v>3.0380964279174805</v>
       </c>
       <c r="C411" s="2">
-        <v>3.0931057929992676</v>
+        <v>3.0929372310638428</v>
       </c>
       <c r="D411" s="2">
         <v>2.8957514762878418</v>
       </c>
       <c r="E411" s="2">
-        <v>2.8925573825836182</v>
+        <v>2.892401933670044</v>
       </c>
     </row>
     <row r="412">
@@ -6236,13 +6236,13 @@
         <v>2.9574911594390869</v>
       </c>
       <c r="C412" s="2">
-        <v>2.9612350463867188</v>
+        <v>2.9611546993255615</v>
       </c>
       <c r="D412" s="2">
         <v>2.9098155498504639</v>
       </c>
       <c r="E412" s="2">
-        <v>2.8990883827209473</v>
+        <v>2.8989391326904297</v>
       </c>
     </row>
     <row r="413">
@@ -6253,13 +6253,13 @@
         <v>2.9184513092041016</v>
       </c>
       <c r="C413" s="2">
-        <v>2.9255325794219971</v>
+        <v>2.9255526065826416</v>
       </c>
       <c r="D413" s="2">
         <v>2.9318664073944092</v>
       </c>
       <c r="E413" s="2">
-        <v>2.9262912273406982</v>
+        <v>2.9261679649353027</v>
       </c>
     </row>
     <row r="414">
@@ -6270,13 +6270,13 @@
         <v>2.8774399757385254</v>
       </c>
       <c r="C414" s="2">
-        <v>2.8643405437469482</v>
+        <v>2.864199161529541</v>
       </c>
       <c r="D414" s="2">
         <v>2.9796748161315918</v>
       </c>
       <c r="E414" s="2">
-        <v>2.9763824939727783</v>
+        <v>2.9762823581695557</v>
       </c>
     </row>
     <row r="415">
@@ -6287,13 +6287,13 @@
         <v>3.1609432697296143</v>
       </c>
       <c r="C415" s="2">
-        <v>3.0990200042724609</v>
+        <v>3.099001407623291</v>
       </c>
       <c r="D415" s="2">
         <v>3.0407562255859375</v>
       </c>
       <c r="E415" s="2">
-        <v>3.0353813171386719</v>
+        <v>3.0353138446807861</v>
       </c>
     </row>
     <row r="416">
@@ -6304,13 +6304,13 @@
         <v>2.9667150974273682</v>
       </c>
       <c r="C416" s="2">
-        <v>2.8633368015289307</v>
+        <v>2.8633682727813721</v>
       </c>
       <c r="D416" s="2">
         <v>3.0985720157623291</v>
       </c>
       <c r="E416" s="2">
-        <v>3.0918138027191162</v>
+        <v>3.0917696952819824</v>
       </c>
     </row>
     <row r="417">
@@ -6321,13 +6321,13 @@
         <v>2.7902162075042725</v>
       </c>
       <c r="C417" s="2">
-        <v>2.7398853302001953</v>
+        <v>2.7397632598876953</v>
       </c>
       <c r="D417" s="2">
         <v>3.0900552272796631</v>
       </c>
       <c r="E417" s="2">
-        <v>3.0867834091186523</v>
+        <v>3.0867412090301514</v>
       </c>
     </row>
     <row r="418">
@@ -6338,13 +6338,13 @@
         <v>3.3230390548706055</v>
       </c>
       <c r="C418" s="2">
-        <v>3.4407212734222412</v>
+        <v>3.4405553340911865</v>
       </c>
       <c r="D418" s="2">
-        <v>3.1378860473632812</v>
+        <v>3.1378860473632813</v>
       </c>
       <c r="E418" s="2">
-        <v>3.142186164855957</v>
+        <v>3.142117977142334</v>
       </c>
     </row>
     <row r="419">
@@ -6355,13 +6355,13 @@
         <v>3.3344135284423828</v>
       </c>
       <c r="C419" s="2">
-        <v>3.3312551975250244</v>
+        <v>3.3312923908233643</v>
       </c>
       <c r="D419" s="2">
         <v>3.1894783973693848</v>
       </c>
       <c r="E419" s="2">
-        <v>3.2064383029937744</v>
+        <v>3.2063643932342529</v>
       </c>
     </row>
     <row r="420">
@@ -6372,13 +6372,13 @@
         <v>3.5584390163421631</v>
       </c>
       <c r="C420" s="2">
-        <v>3.6009981632232666</v>
+        <v>3.6010398864746094</v>
       </c>
       <c r="D420" s="2">
         <v>3.1751704216003418</v>
       </c>
       <c r="E420" s="2">
-        <v>3.2027757167816162</v>
+        <v>3.2026810646057129</v>
       </c>
     </row>
     <row r="421">
@@ -6389,13 +6389,13 @@
         <v>2.8808391094207764</v>
       </c>
       <c r="C421" s="2">
-        <v>2.9159615039825439</v>
+        <v>2.9158985614776611</v>
       </c>
       <c r="D421" s="2">
         <v>3.2250933647155762</v>
       </c>
       <c r="E421" s="2">
-        <v>3.2508478164672852</v>
+        <v>3.2507340908050537</v>
       </c>
     </row>
     <row r="422">
@@ -6406,13 +6406,13 @@
         <v>3.3489301204681396</v>
       </c>
       <c r="C422" s="2">
-        <v>3.4241573810577393</v>
+        <v>3.4239444732666016</v>
       </c>
       <c r="D422" s="2">
         <v>3.2920436859130859</v>
       </c>
       <c r="E422" s="2">
-        <v>3.3218388557434082</v>
+        <v>3.3217575550079346</v>
       </c>
     </row>
     <row r="423">
@@ -6423,13 +6423,13 @@
         <v>3.3417708873748779</v>
       </c>
       <c r="C423" s="2">
-        <v>3.4426090717315674</v>
+        <v>3.4424161911010742</v>
       </c>
       <c r="D423" s="2">
         <v>3.2705795764923096</v>
       </c>
       <c r="E423" s="2">
-        <v>3.2796337604522705</v>
+        <v>3.2795634269714355</v>
       </c>
     </row>
     <row r="424">
@@ -6440,13 +6440,13 @@
         <v>3.0321712493896484</v>
       </c>
       <c r="C424" s="2">
-        <v>3.0660576820373535</v>
+        <v>3.0658519268035889</v>
       </c>
       <c r="D424" s="2">
         <v>3.1837081909179688</v>
       </c>
       <c r="E424" s="2">
-        <v>3.1822893619537354</v>
+        <v>3.1822230815887451</v>
       </c>
     </row>
     <row r="425">
@@ -6457,13 +6457,13 @@
         <v>3.4160213470458984</v>
       </c>
       <c r="C425" s="2">
-        <v>3.295985221862793</v>
+        <v>3.2958455085754395</v>
       </c>
       <c r="D425" s="2">
         <v>3.1636965274810791</v>
       </c>
       <c r="E425" s="2">
-        <v>3.1531686782836914</v>
+        <v>3.1531052589416504</v>
       </c>
     </row>
     <row r="426">
@@ -6474,13 +6474,13 @@
         <v>3.3927681446075439</v>
       </c>
       <c r="C426" s="2">
-        <v>3.3788034915924072</v>
+        <v>3.3789741992950439</v>
       </c>
       <c r="D426" s="2">
         <v>3.1743838787078857</v>
       </c>
       <c r="E426" s="2">
-        <v>3.1560883522033691</v>
+        <v>3.1560492515563965</v>
       </c>
     </row>
     <row r="427">
@@ -6491,13 +6491,13 @@
         <v>3.1298623085021973</v>
       </c>
       <c r="C427" s="2">
-        <v>3.0608761310577393</v>
+        <v>3.060807466506958</v>
       </c>
       <c r="D427" s="2">
         <v>3.1469569206237793</v>
       </c>
       <c r="E427" s="2">
-        <v>3.1284959316253662</v>
+        <v>3.1284558773040772</v>
       </c>
     </row>
     <row r="428">
@@ -6508,13 +6508,13 @@
         <v>2.5525708198547363</v>
       </c>
       <c r="C428" s="2">
-        <v>2.4551565647125244</v>
+        <v>2.4552299976348877</v>
       </c>
       <c r="D428" s="2">
         <v>3.1523776054382324</v>
       </c>
       <c r="E428" s="2">
-        <v>3.1078996658325195</v>
+        <v>3.1078622341156006</v>
       </c>
     </row>
     <row r="429">
@@ -6525,13 +6525,13 @@
         <v>3.3783354759216309</v>
       </c>
       <c r="C429" s="2">
-        <v>3.3389120101928711</v>
+        <v>3.338979959487915</v>
       </c>
       <c r="D429" s="2">
         <v>3.1923325061798096</v>
       </c>
       <c r="E429" s="2">
-        <v>3.1409575939178467</v>
+        <v>3.14095139503479</v>
       </c>
     </row>
     <row r="430">
@@ -6542,13 +6542,13 @@
         <v>2.9770252704620361</v>
       </c>
       <c r="C430" s="2">
-        <v>2.942237377166748</v>
+        <v>2.9423942565917969</v>
       </c>
       <c r="D430" s="2">
-        <v>3.1372289657592773</v>
+        <v>3.1372289657592774</v>
       </c>
       <c r="E430" s="2">
-        <v>3.0956335067749023</v>
+        <v>3.0956313610076904</v>
       </c>
     </row>
     <row r="431">
@@ -6559,13 +6559,13 @@
         <v>3.102086067199707</v>
       </c>
       <c r="C431" s="2">
-        <v>3.1758248805999756</v>
+        <v>3.1756041049957275</v>
       </c>
       <c r="D431" s="2">
         <v>3.1095607280731201</v>
       </c>
       <c r="E431" s="2">
-        <v>3.0463278293609619</v>
+        <v>3.0463035106658936</v>
       </c>
     </row>
     <row r="432">
@@ -6576,13 +6576,13 @@
         <v>3.3905570507049561</v>
       </c>
       <c r="C432" s="2">
-        <v>3.2572438716888428</v>
+        <v>3.2570734024047852</v>
       </c>
       <c r="D432" s="2">
         <v>3.101276159286499</v>
       </c>
       <c r="E432" s="2">
-        <v>3.0514004230499268</v>
+        <v>3.051375150680542</v>
       </c>
     </row>
     <row r="433">
@@ -6593,13 +6593,13 @@
         <v>3.391765832901001</v>
       </c>
       <c r="C433" s="2">
-        <v>3.363579273223877</v>
+        <v>3.3636534214019775</v>
       </c>
       <c r="D433" s="2">
         <v>3.146780252456665</v>
       </c>
       <c r="E433" s="2">
-        <v>3.0990743637084961</v>
+        <v>3.0990519523620606</v>
       </c>
     </row>
     <row r="434">
@@ -6610,13 +6610,13 @@
         <v>2.9200890064239502</v>
       </c>
       <c r="C434" s="2">
-        <v>2.8880684375762939</v>
+        <v>2.8879654407501221</v>
       </c>
       <c r="D434" s="2">
         <v>3.1014249324798584</v>
       </c>
       <c r="E434" s="2">
-        <v>3.0576248168945312</v>
+        <v>3.0575945377349854</v>
       </c>
     </row>
     <row r="435">
@@ -6627,13 +6627,13 @@
         <v>3.1437547206878662</v>
       </c>
       <c r="C435" s="2">
-        <v>2.9350521564483643</v>
+        <v>2.9350225925445557</v>
       </c>
       <c r="D435" s="2">
         <v>3.1049909591674805</v>
       </c>
       <c r="E435" s="2">
-        <v>3.0574705600738525</v>
+        <v>3.0574407577514649</v>
       </c>
     </row>
     <row r="436">
@@ -6644,13 +6644,13 @@
         <v>3.0553004741668701</v>
       </c>
       <c r="C436" s="2">
-        <v>3.1065299510955811</v>
+        <v>3.106452465057373</v>
       </c>
       <c r="D436" s="2">
         <v>3.0878763198852539</v>
       </c>
       <c r="E436" s="2">
-        <v>3.0370304584503174</v>
+        <v>3.0370135307312012</v>
       </c>
     </row>
     <row r="437">
@@ -6661,13 +6661,13 @@
         <v>2.9621086120605469</v>
       </c>
       <c r="C437" s="2">
-        <v>2.8842206001281738</v>
+        <v>2.8843228816986084</v>
       </c>
       <c r="D437" s="2">
         <v>3.0275809764862061</v>
       </c>
       <c r="E437" s="2">
-        <v>2.9765350818634033</v>
+        <v>2.9765183925628662</v>
       </c>
     </row>
     <row r="438">
@@ -6678,13 +6678,13 @@
         <v>2.9701380729675293</v>
       </c>
       <c r="C438" s="2">
-        <v>2.9658670425415039</v>
+        <v>2.9658629894256592</v>
       </c>
       <c r="D438" s="2">
         <v>2.940532922744751</v>
       </c>
       <c r="E438" s="2">
-        <v>2.8747718334197998</v>
+        <v>2.8747036457061768</v>
       </c>
     </row>
     <row r="439">
@@ -6695,13 +6695,13 @@
         <v>3.0091185569763184</v>
       </c>
       <c r="C439" s="2">
-        <v>2.9408493041992188</v>
+        <v>2.9410088062286377</v>
       </c>
       <c r="D439" s="2">
         <v>2.9111831188201904</v>
       </c>
       <c r="E439" s="2">
-        <v>2.853304386138916</v>
+        <v>2.8532350063323975</v>
       </c>
     </row>
     <row r="440">
@@ -6712,13 +6712,13 @@
         <v>2.9480540752410889</v>
       </c>
       <c r="C440" s="2">
-        <v>2.9918644428253174</v>
+        <v>2.9917593002319336</v>
       </c>
       <c r="D440" s="2">
         <v>2.8712742328643799</v>
       </c>
       <c r="E440" s="2">
-        <v>2.8352711200714111</v>
+        <v>2.8352065086364746</v>
       </c>
     </row>
     <row r="441">
@@ -6729,13 +6729,13 @@
         <v>2.8479001522064209</v>
       </c>
       <c r="C441" s="2">
-        <v>2.7127845287322998</v>
+        <v>2.7126185894012451</v>
       </c>
       <c r="D441" s="2">
         <v>2.8171241283416748</v>
       </c>
       <c r="E441" s="2">
-        <v>2.7703413963317871</v>
+        <v>2.7702560424804688</v>
       </c>
     </row>
     <row r="442">
@@ -6746,13 +6746,13 @@
         <v>2.6083316802978516</v>
       </c>
       <c r="C442" s="2">
-        <v>2.4477095603942871</v>
+        <v>2.4473187923431396</v>
       </c>
       <c r="D442" s="2">
         <v>2.7841508388519287</v>
       </c>
       <c r="E442" s="2">
-        <v>2.7493321895599365</v>
+        <v>2.7492177486419678</v>
       </c>
     </row>
     <row r="443">
@@ -6763,13 +6763,13 @@
         <v>2.6559422016143799</v>
       </c>
       <c r="C443" s="2">
-        <v>2.6948623657226562</v>
+        <v>2.6947481632232666</v>
       </c>
       <c r="D443" s="2">
         <v>2.7631773948669434</v>
       </c>
       <c r="E443" s="2">
-        <v>2.7325196266174316</v>
+        <v>2.7324130535125732</v>
       </c>
     </row>
     <row r="444">
@@ -6780,13 +6780,13 @@
         <v>2.7845733165740967</v>
       </c>
       <c r="C444" s="2">
-        <v>2.7727518081665039</v>
+        <v>2.7727668285369873</v>
       </c>
       <c r="D444" s="2">
         <v>2.736886739730835</v>
       </c>
       <c r="E444" s="2">
-        <v>2.7129974365234375</v>
+        <v>2.7128701210021973</v>
       </c>
     </row>
     <row r="445">
@@ -6797,13 +6797,13 @@
         <v>2.5679512023925781</v>
       </c>
       <c r="C445" s="2">
-        <v>2.5221636295318604</v>
+        <v>2.5218989849090576</v>
       </c>
       <c r="D445" s="2">
         <v>2.6898953914642334</v>
       </c>
       <c r="E445" s="2">
-        <v>2.663322925567627</v>
+        <v>2.6632239818572998</v>
       </c>
     </row>
     <row r="446">
@@ -6814,13 +6814,13 @@
         <v>2.6653487682342529</v>
       </c>
       <c r="C446" s="2">
-        <v>2.6951372623443604</v>
+        <v>2.6949765682220459</v>
       </c>
       <c r="D446" s="2">
         <v>2.6980898380279541</v>
       </c>
       <c r="E446" s="2">
-        <v>2.6699767112731934</v>
+        <v>2.6698920726776123</v>
       </c>
     </row>
     <row r="447">
@@ -6831,13 +6831,13 @@
         <v>2.7813756465911865</v>
       </c>
       <c r="C447" s="2">
-        <v>2.81455397605896</v>
+        <v>2.8146209716796875</v>
       </c>
       <c r="D447" s="2">
         <v>2.6988604068756104</v>
       </c>
       <c r="E447" s="2">
-        <v>2.6783604621887207</v>
+        <v>2.6783227920532227</v>
       </c>
     </row>
     <row r="448">
@@ -6848,13 +6848,13 @@
         <v>2.7725033760070801</v>
       </c>
       <c r="C448" s="2">
-        <v>2.7651486396789551</v>
+        <v>2.7651224136352539</v>
       </c>
       <c r="D448" s="2">
         <v>2.7359039783477783</v>
       </c>
       <c r="E448" s="2">
-        <v>2.695751428604126</v>
+        <v>2.6957478523254395</v>
       </c>
     </row>
     <row r="449">
@@ -6865,13 +6865,13 @@
         <v>2.5251312255859375</v>
       </c>
       <c r="C449" s="2">
-        <v>2.544795036315918</v>
+        <v>2.5449445247650147</v>
       </c>
       <c r="D449" s="2">
         <v>2.7346234321594238</v>
       </c>
       <c r="E449" s="2">
-        <v>2.6913621425628662</v>
+        <v>2.691378116607666</v>
       </c>
     </row>
     <row r="450">
@@ -6882,13 +6882,13 @@
         <v>2.9216506481170654</v>
       </c>
       <c r="C450" s="2">
-        <v>2.7726688385009766</v>
+        <v>2.7726318836212158</v>
       </c>
       <c r="D450" s="2">
         <v>2.7363929748535156</v>
       </c>
       <c r="E450" s="2">
-        <v>2.6759207248687744</v>
+        <v>2.6759531497955322</v>
       </c>
     </row>
     <row r="451">
@@ -6899,13 +6899,13 @@
         <v>2.6152679920196533</v>
       </c>
       <c r="C451" s="2">
-        <v>2.5231623649597168</v>
+        <v>2.5231940746307373</v>
       </c>
       <c r="D451" s="2">
         <v>2.7989218235015869</v>
       </c>
       <c r="E451" s="2">
-        <v>2.7290313243865967</v>
+        <v>2.7290658950805664</v>
       </c>
     </row>
     <row r="452">
@@ -6916,13 +6916,13 @@
         <v>2.9893345832824707</v>
       </c>
       <c r="C452" s="2">
-        <v>2.8513808250427246</v>
+        <v>2.8515751361846924</v>
       </c>
       <c r="D452" s="2">
         <v>2.7745163440704346</v>
       </c>
       <c r="E452" s="2">
-        <v>2.6817936897277832</v>
+        <v>2.6818270683288574</v>
       </c>
     </row>
     <row r="453">
@@ -6933,13 +6933,13 @@
         <v>2.7730464935302734</v>
       </c>
       <c r="C453" s="2">
-        <v>2.7332479953765869</v>
+        <v>2.7334377765655518</v>
       </c>
       <c r="D453" s="2">
         <v>2.7575724124908447</v>
       </c>
       <c r="E453" s="2">
-        <v>2.6538972854614258</v>
+        <v>2.653937578201294</v>
       </c>
     </row>
     <row r="454">
@@ -6950,13 +6950,13 @@
         <v>2.5838770866394043</v>
       </c>
       <c r="C454" s="2">
-        <v>2.3831925392150879</v>
+        <v>2.3830747604370117</v>
       </c>
       <c r="D454" s="2">
         <v>2.8140444755554199</v>
       </c>
       <c r="E454" s="2">
-        <v>2.7068972587585449</v>
+        <v>2.706902027130127</v>
       </c>
     </row>
     <row r="455">
@@ -6967,13 +6967,13 @@
         <v>3.22810959815979</v>
       </c>
       <c r="C455" s="2">
-        <v>3.1731312274932861</v>
+        <v>3.172992467880249</v>
       </c>
       <c r="D455" s="2">
         <v>2.796811580657959</v>
       </c>
       <c r="E455" s="2">
-        <v>2.7088305950164795</v>
+        <v>2.708845853805542</v>
       </c>
     </row>
     <row r="456">
@@ -6984,13 +6984,13 @@
         <v>2.5617256164550781</v>
       </c>
       <c r="C456" s="2">
-        <v>2.3894157409667969</v>
+        <v>2.3894708156585693</v>
       </c>
       <c r="D456" s="2">
         <v>2.8140428066253662</v>
       </c>
       <c r="E456" s="2">
-        <v>2.7190749645233154</v>
+        <v>2.7190911769866943</v>
       </c>
     </row>
     <row r="457">
@@ -7001,13 +7001,13 @@
         <v>2.6200084686279297</v>
       </c>
       <c r="C457" s="2">
-        <v>2.5140805244445801</v>
+        <v>2.5141177177429199</v>
       </c>
       <c r="D457" s="2">
         <v>2.7849936485290527</v>
       </c>
       <c r="E457" s="2">
-        <v>2.7033162117004395</v>
+        <v>2.7033140659332275</v>
       </c>
     </row>
     <row r="458">
@@ -7018,13 +7018,13 @@
         <v>3.033379077911377</v>
       </c>
       <c r="C458" s="2">
-        <v>3.0217962265014648</v>
+        <v>3.0216240882873535</v>
       </c>
       <c r="D458" s="2">
         <v>2.7469065189361572</v>
       </c>
       <c r="E458" s="2">
-        <v>2.6703543663024902</v>
+        <v>2.670344352722168</v>
       </c>
     </row>
     <row r="459">
@@ -7035,13 +7035,13 @@
         <v>2.7665557861328125</v>
       </c>
       <c r="C459" s="2">
-        <v>2.7900686264038086</v>
+        <v>2.7901265621185303</v>
       </c>
       <c r="D459" s="2">
         <v>2.7278730869293213</v>
       </c>
       <c r="E459" s="2">
-        <v>2.6815018653869629</v>
+        <v>2.6814892292022705</v>
       </c>
     </row>
     <row r="460">
@@ -7052,13 +7052,13 @@
         <v>2.7703475952148438</v>
       </c>
       <c r="C460" s="2">
-        <v>2.6153600215911865</v>
+        <v>2.615401029586792</v>
       </c>
       <c r="D460" s="2">
         <v>2.6778824329376221</v>
       </c>
       <c r="E460" s="2">
-        <v>2.6325592994689941</v>
+        <v>2.6325650215148926</v>
       </c>
     </row>
     <row r="461">
@@ -7069,13 +7069,13 @@
         <v>2.7278928756713867</v>
       </c>
       <c r="C461" s="2">
-        <v>2.7095534801483154</v>
+        <v>2.7095813751220703</v>
       </c>
       <c r="D461" s="2">
         <v>2.6666951179504395</v>
       </c>
       <c r="E461" s="2">
-        <v>2.6364426612854004</v>
+        <v>2.636432409286499</v>
       </c>
     </row>
     <row r="462">
@@ -7086,13 +7086,13 @@
         <v>2.4302632808685303</v>
       </c>
       <c r="C462" s="2">
-        <v>2.4365913867950439</v>
+        <v>2.436711311340332</v>
       </c>
       <c r="D462" s="2">
         <v>2.6616573333740234</v>
       </c>
       <c r="E462" s="2">
-        <v>2.64412522315979</v>
+        <v>2.6441071033477783</v>
       </c>
     </row>
     <row r="463">
@@ -7103,13 +7103,13 @@
         <v>2.4125761985778809</v>
       </c>
       <c r="C463" s="2">
-        <v>2.4835195541381836</v>
+        <v>2.4833786487579346</v>
       </c>
       <c r="D463" s="2">
         <v>2.6214265823364258</v>
       </c>
       <c r="E463" s="2">
-        <v>2.6101021766662598</v>
+        <v>2.6101145744323731</v>
       </c>
     </row>
     <row r="464">
@@ -7120,13 +7120,13 @@
         <v>2.7781939506530762</v>
       </c>
       <c r="C464" s="2">
-        <v>2.7326481342315674</v>
+        <v>2.7326734066009521</v>
       </c>
       <c r="D464" s="2">
         <v>2.6013615131378174</v>
       </c>
       <c r="E464" s="2">
-        <v>2.597883939743042</v>
+        <v>2.5978798866271973</v>
       </c>
     </row>
     <row r="465">
@@ -7137,13 +7137,13 @@
         <v>2.4610390663146973</v>
       </c>
       <c r="C465" s="2">
-        <v>2.4243652820587158</v>
+        <v>2.4242780208587647</v>
       </c>
       <c r="D465" s="2">
         <v>2.6265122890472412</v>
       </c>
       <c r="E465" s="2">
-        <v>2.6335146427154541</v>
+        <v>2.6335136890411377</v>
       </c>
     </row>
     <row r="466">
@@ -7154,13 +7154,13 @@
         <v>2.5746691226959229</v>
       </c>
       <c r="C466" s="2">
-        <v>2.5832240581512451</v>
+        <v>2.583188533782959</v>
       </c>
       <c r="D466" s="2">
         <v>2.6273176670074463</v>
       </c>
       <c r="E466" s="2">
-        <v>2.6409430503845215</v>
+        <v>2.6409187316894531</v>
       </c>
     </row>
     <row r="467">
@@ -7171,13 +7171,13 @@
         <v>2.6713011264801025</v>
       </c>
       <c r="C467" s="2">
-        <v>2.7155892848968506</v>
+        <v>2.7156913280487061</v>
       </c>
       <c r="D467" s="2">
         <v>2.6889805793762207</v>
       </c>
       <c r="E467" s="2">
-        <v>2.6873772144317627</v>
+        <v>2.6873505115509033</v>
       </c>
     </row>
     <row r="468">
@@ -7188,13 +7188,13 @@
         <v>2.5859699249267578</v>
       </c>
       <c r="C468" s="2">
-        <v>2.6801033020019531</v>
+        <v>2.6800148487091065</v>
       </c>
       <c r="D468" s="2">
-        <v>2.7668824195861816</v>
+        <v>2.7668824195861817</v>
       </c>
       <c r="E468" s="2">
-        <v>2.7620327472686768</v>
+        <v>2.7620267868041992</v>
       </c>
     </row>
     <row r="469">
@@ -7205,13 +7205,13 @@
         <v>2.9967043399810791</v>
       </c>
       <c r="C469" s="2">
-        <v>2.9360370635986328</v>
+        <v>2.9361050128936768</v>
       </c>
       <c r="D469" s="2">
-        <v>2.7486641407012939</v>
+        <v>2.748664140701294</v>
       </c>
       <c r="E469" s="2">
-        <v>2.752310037612915</v>
+        <v>2.7523012161254883</v>
       </c>
     </row>
     <row r="470">
@@ -7222,13 +7222,13 @@
         <v>2.7351410388946533</v>
       </c>
       <c r="C470" s="2">
-        <v>2.7764086723327637</v>
+        <v>2.7762277126312256</v>
       </c>
       <c r="D470" s="2">
         <v>2.7564685344696045</v>
       </c>
       <c r="E470" s="2">
-        <v>2.7563002109527588</v>
+        <v>2.7562956809997559</v>
       </c>
     </row>
     <row r="471">
@@ -7239,13 +7239,13 @@
         <v>2.9852306842803955</v>
       </c>
       <c r="C471" s="2">
-        <v>2.8544986248016357</v>
+        <v>2.8545980453491211</v>
       </c>
       <c r="D471" s="2">
         <v>2.8123488426208496</v>
       </c>
       <c r="E471" s="2">
-        <v>2.8029696941375732</v>
+        <v>2.8029680252075195</v>
       </c>
     </row>
     <row r="472">
@@ -7256,13 +7256,13 @@
         <v>3.1136932373046875</v>
       </c>
       <c r="C472" s="2">
-        <v>3.1554210186004639</v>
+        <v>3.1554641723632813</v>
       </c>
       <c r="D472" s="2">
         <v>2.7665665149688721</v>
       </c>
       <c r="E472" s="2">
-        <v>2.7488751411437988</v>
+        <v>2.7488827705383301</v>
       </c>
     </row>
     <row r="473">
@@ -7273,13 +7273,13 @@
         <v>2.6142282485961914</v>
       </c>
       <c r="C473" s="2">
-        <v>2.6451432704925537</v>
+        <v>2.6451427936553955</v>
       </c>
       <c r="D473" s="2">
         <v>2.7636537551879883</v>
       </c>
       <c r="E473" s="2">
-        <v>2.7329301834106445</v>
+        <v>2.732947826385498</v>
       </c>
     </row>
     <row r="474">
@@ -7290,13 +7290,13 @@
         <v>2.5312793254852295</v>
       </c>
       <c r="C474" s="2">
-        <v>2.4602761268615723</v>
+        <v>2.460228443145752</v>
       </c>
       <c r="D474" s="2">
         <v>2.7696874141693115</v>
       </c>
       <c r="E474" s="2">
-        <v>2.7335774898529053</v>
+        <v>2.7335915565490723</v>
       </c>
     </row>
     <row r="475">
@@ -7307,13 +7307,13 @@
         <v>3.0775909423828125</v>
       </c>
       <c r="C475" s="2">
-        <v>3.0032494068145752</v>
+        <v>3.0032403469085693</v>
       </c>
       <c r="D475" s="2">
         <v>2.7364692687988281</v>
       </c>
       <c r="E475" s="2">
-        <v>2.6906094551086426</v>
+        <v>2.6906349658966064</v>
       </c>
     </row>
     <row r="476">
@@ -7324,13 +7324,13 @@
         <v>2.2592616081237793</v>
       </c>
       <c r="C476" s="2">
-        <v>2.2287397384643555</v>
+        <v>2.2289242744445801</v>
       </c>
       <c r="D476" s="2">
         <v>2.731764554977417</v>
       </c>
       <c r="E476" s="2">
-        <v>2.6950652599334717</v>
+        <v>2.6950869560241699</v>
       </c>
     </row>
     <row r="477">
@@ -7341,13 +7341,13 @@
         <v>2.5597541332244873</v>
       </c>
       <c r="C477" s="2">
-        <v>2.5365970134735107</v>
+        <v>2.5365996360778809</v>
       </c>
       <c r="D477" s="2">
         <v>2.6701865196228027</v>
       </c>
       <c r="E477" s="2">
-        <v>2.6273202896118164</v>
+        <v>2.6273140907287598</v>
       </c>
     </row>
     <row r="478">
@@ -7358,13 +7358,13 @@
         <v>3.0510075092315674</v>
       </c>
       <c r="C478" s="2">
-        <v>2.9418635368347168</v>
+        <v>2.941899299621582</v>
       </c>
       <c r="D478" s="2">
         <v>2.6619458198547363</v>
       </c>
       <c r="E478" s="2">
-        <v>2.6122453212738037</v>
+        <v>2.6122324466705322</v>
       </c>
     </row>
     <row r="479">
@@ -7375,13 +7375,13 @@
         <v>2.4361770153045654</v>
       </c>
       <c r="C479" s="2">
-        <v>2.3896956443786621</v>
+        <v>2.3896181583404541</v>
       </c>
       <c r="D479" s="2">
         <v>2.6666512489318848</v>
       </c>
       <c r="E479" s="2">
-        <v>2.6245579719543457</v>
+        <v>2.6245489120483398</v>
       </c>
     </row>
     <row r="480">
@@ -7392,13 +7392,13 @@
         <v>2.9428889751434326</v>
       </c>
       <c r="C480" s="2">
-        <v>2.8946013450622559</v>
+        <v>2.894665002822876</v>
       </c>
       <c r="D480" s="2">
         <v>2.6039409637451172</v>
       </c>
       <c r="E480" s="2">
-        <v>2.5674173831939697</v>
+        <v>2.5673830509185791</v>
       </c>
     </row>
     <row r="481">
@@ -7409,13 +7409,13 @@
         <v>2.5594911575317383</v>
       </c>
       <c r="C481" s="2">
-        <v>2.5457155704498291</v>
+        <v>2.5455093383789063</v>
       </c>
       <c r="D481" s="2">
         <v>2.6355845928192139</v>
       </c>
       <c r="E481" s="2">
-        <v>2.5944893360137939</v>
+        <v>2.5944256782531738</v>
       </c>
     </row>
     <row r="482">
@@ -7426,13 +7426,13 @@
         <v>2.5400607585906982</v>
       </c>
       <c r="C482" s="2">
-        <v>2.5094699859619141</v>
+        <v>2.5094077587127686</v>
       </c>
       <c r="D482" s="2">
         <v>2.6351888179779053</v>
       </c>
       <c r="E482" s="2">
-        <v>2.5859432220458984</v>
+        <v>2.5858802795410156</v>
       </c>
     </row>
     <row r="483">
@@ -7443,13 +7443,13 @@
         <v>2.5736291408538818</v>
       </c>
       <c r="C483" s="2">
-        <v>2.5710902214050293</v>
+        <v>2.5710759162902832</v>
       </c>
       <c r="D483" s="2">
         <v>2.6240286827087402</v>
       </c>
       <c r="E483" s="2">
-        <v>2.5731441974639893</v>
+        <v>2.5730757713317871</v>
       </c>
     </row>
     <row r="484">
@@ -7460,13 +7460,13 @@
         <v>2.5131983757019043</v>
       </c>
       <c r="C484" s="2">
-        <v>2.4889826774597168</v>
+        <v>2.48874831199646</v>
       </c>
       <c r="D484" s="2">
         <v>2.633913516998291</v>
       </c>
       <c r="E484" s="2">
-        <v>2.5938372611999512</v>
+        <v>2.5937764644622803</v>
       </c>
     </row>
     <row r="485">
@@ -7477,13 +7477,13 @@
         <v>2.5440547466278076</v>
       </c>
       <c r="C485" s="2">
-        <v>2.4723880290985107</v>
+        <v>2.4723067283630371</v>
       </c>
       <c r="D485" s="2">
         <v>2.6443402767181396</v>
       </c>
       <c r="E485" s="2">
-        <v>2.5996651649475098</v>
+        <v>2.5995862483978272</v>
       </c>
     </row>
     <row r="486">
@@ -7494,13 +7494,13 @@
         <v>2.5561923980712891</v>
       </c>
       <c r="C486" s="2">
-        <v>2.4596824645996094</v>
+        <v>2.4596912860870361</v>
       </c>
       <c r="D486" s="2">
         <v>2.6657605171203613</v>
       </c>
       <c r="E486" s="2">
-        <v>2.6252074241638184</v>
+        <v>2.6251697540283203</v>
       </c>
     </row>
     <row r="487">
@@ -7511,13 +7511,13 @@
         <v>2.9505648612976074</v>
       </c>
       <c r="C487" s="2">
-        <v>2.8266713619232178</v>
+        <v>2.82666015625</v>
       </c>
       <c r="D487" s="2">
         <v>2.6703059673309326</v>
       </c>
       <c r="E487" s="2">
-        <v>2.6386442184448242</v>
+        <v>2.638601541519165</v>
       </c>
     </row>
     <row r="488">
@@ -7528,13 +7528,13 @@
         <v>2.5251419544219971</v>
       </c>
       <c r="C488" s="2">
-        <v>2.5759334564208984</v>
+        <v>2.5759241580963135</v>
       </c>
       <c r="D488" s="2">
         <v>2.6668796539306641</v>
       </c>
       <c r="E488" s="2">
-        <v>2.6234705448150635</v>
+        <v>2.6234335899353027</v>
       </c>
     </row>
     <row r="489">
@@ -7545,13 +7545,13 @@
         <v>3.0367288589477539</v>
       </c>
       <c r="C489" s="2">
-        <v>2.947052001953125</v>
+        <v>2.9469518661499023</v>
       </c>
       <c r="D489" s="2">
         <v>2.6861402988433838</v>
       </c>
       <c r="E489" s="2">
-        <v>2.6481118202209473</v>
+        <v>2.6481006145477295</v>
       </c>
     </row>
     <row r="490">
@@ -7562,13 +7562,13 @@
         <v>2.7522745132446289</v>
       </c>
       <c r="C490" s="2">
-        <v>2.7755961418151855</v>
+        <v>2.7757608890533447</v>
       </c>
       <c r="D490" s="2">
         <v>2.6630902290344238</v>
       </c>
       <c r="E490" s="2">
-        <v>2.6373279094696045</v>
+        <v>2.6373367309570313</v>
       </c>
     </row>
     <row r="491">
@@ -7576,16 +7576,16 @@
         <v>43374</v>
       </c>
       <c r="B491" s="2">
-        <v>2.5809698104858398</v>
+        <v>2.5809698104858399</v>
       </c>
       <c r="C491" s="2">
-        <v>2.6304018497467041</v>
+        <v>2.6302947998046875</v>
       </c>
       <c r="D491" s="2">
         <v>2.6858401298522949</v>
       </c>
       <c r="E491" s="2">
-        <v>2.6720178127288818</v>
+        <v>2.6720113754272461</v>
       </c>
     </row>
     <row r="492">
@@ -7596,13 +7596,13 @@
         <v>2.5427908897399902</v>
       </c>
       <c r="C492" s="2">
-        <v>2.4345262050628662</v>
+        <v>2.4345643520355225</v>
       </c>
       <c r="D492" s="2">
         <v>2.5910727977752686</v>
       </c>
       <c r="E492" s="2">
-        <v>2.5945165157318115</v>
+        <v>2.5945141315460205</v>
       </c>
     </row>
     <row r="493">
@@ -7610,16 +7610,16 @@
         <v>43435</v>
       </c>
       <c r="B493" s="2">
-        <v>2.6865453720092773</v>
+        <v>2.6865453720092774</v>
       </c>
       <c r="C493" s="2">
-        <v>2.7107548713684082</v>
+        <v>2.7107503414154053</v>
       </c>
       <c r="D493" s="2">
         <v>2.5656423568725586</v>
       </c>
       <c r="E493" s="2">
-        <v>2.5681602954864502</v>
+        <v>2.5681707859039307</v>
       </c>
     </row>
     <row r="494">
@@ -7630,13 +7630,13 @@
         <v>2.3366026878356934</v>
       </c>
       <c r="C494" s="2">
-        <v>2.3753318786621094</v>
+        <v>2.375432014465332</v>
       </c>
       <c r="D494" s="2">
         <v>2.5340976715087891</v>
       </c>
       <c r="E494" s="2">
-        <v>2.53293776512146</v>
+        <v>2.532968282699585</v>
       </c>
     </row>
     <row r="495">
@@ -7647,13 +7647,13 @@
         <v>2.7609415054321289</v>
       </c>
       <c r="C495" s="2">
-        <v>2.7718925476074219</v>
+        <v>2.7717635631561279</v>
       </c>
       <c r="D495" s="2">
-        <v>2.5165019035339355</v>
+        <v>2.5165019035339356</v>
       </c>
       <c r="E495" s="2">
-        <v>2.4964029788970947</v>
+        <v>2.4964101314544678</v>
       </c>
     </row>
     <row r="496">
@@ -7664,13 +7664,13 @@
         <v>2.0976600646972656</v>
       </c>
       <c r="C496" s="2">
-        <v>2.1291592121124268</v>
+        <v>2.1291847229003906</v>
       </c>
       <c r="D496" s="2">
         <v>2.5515782833099365</v>
       </c>
       <c r="E496" s="2">
-        <v>2.5190761089324951</v>
+        <v>2.5190784931182861</v>
       </c>
     </row>
     <row r="497">
@@ -7681,13 +7681,13 @@
         <v>2.2962672710418701</v>
       </c>
       <c r="C497" s="2">
-        <v>2.3387289047241211</v>
+        <v>2.3388338088989258</v>
       </c>
       <c r="D497" s="2">
         <v>2.5546910762786865</v>
       </c>
       <c r="E497" s="2">
-        <v>2.5428857803344727</v>
+        <v>2.542853832244873</v>
       </c>
     </row>
     <row r="498">
@@ -7698,13 +7698,13 @@
         <v>2.7528274059295654</v>
       </c>
       <c r="C498" s="2">
-        <v>2.6300485134124756</v>
+        <v>2.6301305294036865</v>
       </c>
       <c r="D498" s="2">
         <v>2.5697212219238281</v>
       </c>
       <c r="E498" s="2">
-        <v>2.5350198745727539</v>
+        <v>2.5350172519683838</v>
       </c>
     </row>
     <row r="499">
@@ -7715,13 +7715,13 @@
         <v>2.5939116477966309</v>
       </c>
       <c r="C499" s="2">
-        <v>2.4467823505401611</v>
+        <v>2.4467363357543945</v>
       </c>
       <c r="D499" s="2">
         <v>2.5828979015350342</v>
       </c>
       <c r="E499" s="2">
-        <v>2.5369670391082764</v>
+        <v>2.5369663238525391</v>
       </c>
     </row>
     <row r="500">
@@ -7732,13 +7732,13 @@
         <v>2.896658182144165</v>
       </c>
       <c r="C500" s="2">
-        <v>2.8344604969024658</v>
+        <v>2.8343098163604736</v>
       </c>
       <c r="D500" s="2">
         <v>2.5934164524078369</v>
       </c>
       <c r="E500" s="2">
-        <v>2.5197620391845703</v>
+        <v>2.5197820663452148</v>
       </c>
     </row>
     <row r="501">
@@ -7749,13 +7749,13 @@
         <v>2.5708050727844238</v>
       </c>
       <c r="C501" s="2">
-        <v>2.6488132476806641</v>
+        <v>2.6485438346862793</v>
       </c>
       <c r="D501" s="2">
         <v>2.6256239414215088</v>
       </c>
       <c r="E501" s="2">
-        <v>2.5460362434387207</v>
+        <v>2.5460402965545654</v>
       </c>
     </row>
     <row r="502">
@@ -7766,13 +7766,13 @@
         <v>2.8218173980712891</v>
       </c>
       <c r="C502" s="2">
-        <v>2.6399612426757812</v>
+        <v>2.6402196884155274</v>
       </c>
       <c r="D502" s="2">
         <v>2.6227767467498779</v>
       </c>
       <c r="E502" s="2">
-        <v>2.521204948425293</v>
+        <v>2.5211808681488037</v>
       </c>
     </row>
     <row r="503">
@@ -7783,13 +7783,13 @@
         <v>2.4551935195922852</v>
       </c>
       <c r="C503" s="2">
-        <v>2.3928573131561279</v>
+        <v>2.3929736614227295</v>
       </c>
       <c r="D503" s="2">
         <v>2.608351469039917</v>
       </c>
       <c r="E503" s="2">
-        <v>2.5223832130432129</v>
+        <v>2.5223624706268311</v>
       </c>
     </row>
     <row r="504">
@@ -7800,13 +7800,13 @@
         <v>2.8556067943572998</v>
       </c>
       <c r="C504" s="2">
-        <v>2.6170473098754883</v>
+        <v>2.61710524559021</v>
       </c>
       <c r="D504" s="2">
         <v>2.5827634334564209</v>
       </c>
       <c r="E504" s="2">
-        <v>2.514028787612915</v>
+        <v>2.5140178203582764</v>
       </c>
     </row>
     <row r="505">
@@ -7817,13 +7817,13 @@
         <v>2.3875288963317871</v>
       </c>
       <c r="C505" s="2">
-        <v>2.3656270503997803</v>
+        <v>2.3655107021331787</v>
       </c>
       <c r="D505" s="2">
         <v>2.5589601993560791</v>
       </c>
       <c r="E505" s="2">
-        <v>2.4959282875061035</v>
+        <v>2.495929479598999</v>
       </c>
     </row>
     <row r="506">
@@ -7834,13 +7834,13 @@
         <v>2.2706425189971924</v>
       </c>
       <c r="C506" s="2">
-        <v>2.1152465343475342</v>
+        <v>2.1150975227355957</v>
       </c>
       <c r="D506" s="2">
         <v>2.6139340400695801</v>
       </c>
       <c r="E506" s="2">
-        <v>2.5450665950775146</v>
+        <v>2.5451080799102783</v>
       </c>
     </row>
     <row r="507">
@@ -7851,13 +7851,13 @@
         <v>2.6229984760284424</v>
       </c>
       <c r="C507" s="2">
-        <v>2.6406540870666504</v>
+        <v>2.6407656669616699</v>
       </c>
       <c r="D507" s="2">
         <v>2.5573687553405762</v>
       </c>
       <c r="E507" s="2">
-        <v>2.5201830863952637</v>
+        <v>2.5201902389526367</v>
       </c>
     </row>
     <row r="508">
@@ -7868,13 +7868,13 @@
         <v>2.3636209964752197</v>
       </c>
       <c r="C508" s="2">
-        <v>2.3715927600860596</v>
+        <v>2.3716349601745606</v>
       </c>
       <c r="D508" s="2">
         <v>2.5642008781433105</v>
       </c>
       <c r="E508" s="2">
-        <v>2.5301346778869629</v>
+        <v>2.5301456451416016</v>
       </c>
     </row>
     <row r="509">
@@ -7885,13 +7885,13 @@
         <v>2.6824285984039307</v>
       </c>
       <c r="C509" s="2">
-        <v>2.6715550422668457</v>
+        <v>2.6715147495269775</v>
       </c>
       <c r="D509" s="2">
         <v>2.5378682613372803</v>
       </c>
       <c r="E509" s="2">
-        <v>2.5443565845489502</v>
+        <v>2.5443451404571533</v>
       </c>
     </row>
     <row r="510">
@@ -7902,13 +7902,13 @@
         <v>3.0655684471130371</v>
       </c>
       <c r="C510" s="2">
-        <v>3.0910587310791016</v>
+        <v>3.091151237487793</v>
       </c>
       <c r="D510" s="2">
         <v>2.5521366596221924</v>
       </c>
       <c r="E510" s="2">
-        <v>2.5619678497314453</v>
+        <v>2.5619716644287109</v>
       </c>
     </row>
     <row r="511">
@@ -7919,13 +7919,13 @@
         <v>2.3127312660217285</v>
       </c>
       <c r="C511" s="2">
-        <v>2.4160079956054688</v>
+        <v>2.4159576892852783</v>
       </c>
       <c r="D511" s="2">
         <v>2.6005368232727051</v>
       </c>
       <c r="E511" s="2">
-        <v>2.6184043884277344</v>
+        <v>2.6184172630310059</v>
       </c>
     </row>
     <row r="512">
@@ -7936,13 +7936,13 @@
         <v>2.5166811943054199</v>
       </c>
       <c r="C512" s="2">
-        <v>2.4824225902557373</v>
+        <v>2.4825737476348877</v>
       </c>
       <c r="D512" s="2">
         <v>2.5813901424407959</v>
       </c>
       <c r="E512" s="2">
-        <v>2.5981166362762451</v>
+        <v>2.5981109142303467</v>
       </c>
     </row>
     <row r="513">
@@ -7953,13 +7953,13 @@
         <v>2.6186144351959229</v>
       </c>
       <c r="C513" s="2">
-        <v>2.745044469833374</v>
+        <v>2.7449004650115967</v>
       </c>
       <c r="D513" s="2">
         <v>2.6622903347015381</v>
       </c>
       <c r="E513" s="2">
-        <v>2.6814703941345215</v>
+        <v>2.6814424991607666</v>
       </c>
     </row>
     <row r="514">
@@ -7970,13 +7970,13 @@
         <v>2.5159430503845215</v>
       </c>
       <c r="C514" s="2">
-        <v>2.5241281986236572</v>
+        <v>2.5241484642028809</v>
       </c>
       <c r="D514" s="2">
         <v>2.6796371936798096</v>
       </c>
       <c r="E514" s="2">
-        <v>2.686720609664917</v>
+        <v>2.6866827011108399</v>
       </c>
     </row>
     <row r="515">
@@ -7987,13 +7987,13 @@
         <v>2.7062458992004395</v>
       </c>
       <c r="C515" s="2">
-        <v>2.6231751441955566</v>
+        <v>2.62310791015625</v>
       </c>
       <c r="D515" s="2">
         <v>2.6662776470184326</v>
       </c>
       <c r="E515" s="2">
-        <v>2.6751072406768799</v>
+        <v>2.6750373840332031</v>
       </c>
     </row>
     <row r="516">
@@ -8004,13 +8004,13 @@
         <v>2.4506778717041016</v>
       </c>
       <c r="C516" s="2">
-        <v>2.4580638408660889</v>
+        <v>2.4580094814300537</v>
       </c>
       <c r="D516" s="2">
         <v>2.7365729808807373</v>
       </c>
       <c r="E516" s="2">
-        <v>2.7268738746643066</v>
+        <v>2.7268161773681641</v>
       </c>
     </row>
     <row r="517">
@@ -8021,13 +8021,13 @@
         <v>3.0917212963104248</v>
       </c>
       <c r="C517" s="2">
-        <v>3.1217777729034424</v>
+        <v>3.1216187477111816</v>
       </c>
       <c r="D517" s="2">
         <v>2.7284095287322998</v>
       </c>
       <c r="E517" s="2">
-        <v>2.7198150157928467</v>
+        <v>2.7197520732879639</v>
       </c>
     </row>
     <row r="518">
@@ -8038,13 +8038,13 @@
         <v>2.8385505676269531</v>
       </c>
       <c r="C518" s="2">
-        <v>2.7188067436218262</v>
+        <v>2.7186760902404785</v>
       </c>
       <c r="D518" s="2">
         <v>2.742429256439209</v>
       </c>
       <c r="E518" s="2">
-        <v>2.7251813411712646</v>
+        <v>2.7251358032226563</v>
       </c>
     </row>
     <row r="519">
@@ -8055,13 +8055,13 @@
         <v>2.94533371925354</v>
       </c>
       <c r="C519" s="2">
-        <v>2.9865381717681885</v>
+        <v>2.9863431453704834</v>
       </c>
       <c r="D519" s="2">
         <v>2.8440389633178711</v>
       </c>
       <c r="E519" s="2">
-        <v>2.8413872718811035</v>
+        <v>2.8413331508636475</v>
       </c>
     </row>
     <row r="520">
@@ -8072,13 +8072,13 @@
         <v>2.9453883171081543</v>
       </c>
       <c r="C520" s="2">
-        <v>2.8819074630737305</v>
+        <v>2.8819677829742432</v>
       </c>
       <c r="D520" s="2">
         <v>2.9764657020568848</v>
       </c>
       <c r="E520" s="2">
-        <v>2.9473516941070557</v>
+        <v>2.9472887516021729</v>
       </c>
     </row>
     <row r="521">
@@ -8089,13 +8089,13 @@
         <v>2.4432106018066406</v>
       </c>
       <c r="C521" s="2">
-        <v>2.418893575668335</v>
+        <v>2.4189972877502442</v>
       </c>
       <c r="D521" s="2">
         <v>3.1342942714691162</v>
       </c>
       <c r="E521" s="2">
-        <v>3.094576358795166</v>
+        <v>3.0945103168487549</v>
       </c>
     </row>
     <row r="522">
@@ -8106,13 +8106,13 @@
         <v>2.7447912693023682</v>
       </c>
       <c r="C522" s="2">
-        <v>2.7933404445648193</v>
+        <v>2.793353796005249</v>
       </c>
       <c r="D522" s="2">
         <v>3.1873319149017334</v>
       </c>
       <c r="E522" s="2">
-        <v>3.1311352252960205</v>
+        <v>3.131103515625</v>
       </c>
     </row>
     <row r="523">
@@ -8123,13 +8123,13 @@
         <v>3.4304304122924805</v>
       </c>
       <c r="C523" s="2">
-        <v>3.5699832439422607</v>
+        <v>3.5699234008789063</v>
       </c>
       <c r="D523" s="2">
         <v>3.2289783954620361</v>
       </c>
       <c r="E523" s="2">
-        <v>3.1896336078643799</v>
+        <v>3.1895997524261475</v>
       </c>
     </row>
     <row r="524">
@@ -8140,13 +8140,13 @@
         <v>3.8980875015258789</v>
       </c>
       <c r="C524" s="2">
-        <v>3.5768530368804932</v>
+        <v>3.5767083168029785</v>
       </c>
       <c r="D524" s="2">
         <v>3.2866997718811035</v>
       </c>
       <c r="E524" s="2">
-        <v>3.2307183742523193</v>
+        <v>3.2307138442993164</v>
       </c>
     </row>
     <row r="525">
@@ -8157,13 +8157,13 @@
         <v>3.8711347579956055</v>
       </c>
       <c r="C525" s="2">
-        <v>3.7830862998962402</v>
+        <v>3.7830047607421875</v>
       </c>
       <c r="D525" s="2">
         <v>3.3973889350891113</v>
       </c>
       <c r="E525" s="2">
-        <v>3.3459687232971191</v>
+        <v>3.3459348678588867</v>
       </c>
     </row>
     <row r="526">
@@ -8174,13 +8174,13 @@
         <v>3.5690600872039795</v>
       </c>
       <c r="C526" s="2">
-        <v>3.4508087635040283</v>
+        <v>3.4509568214416504</v>
       </c>
       <c r="D526" s="2">
         <v>3.514833927154541</v>
       </c>
       <c r="E526" s="2">
-        <v>3.4676637649536133</v>
+        <v>3.4676103591918945</v>
       </c>
     </row>
     <row r="527">
@@ -8191,13 +8191,13 @@
         <v>3.213369607925415</v>
       </c>
       <c r="C527" s="2">
-        <v>3.2452905178070068</v>
+        <v>3.2451426982879639</v>
       </c>
       <c r="D527" s="2">
-        <v>3.6371064186096191</v>
+        <v>3.6371064186096192</v>
       </c>
       <c r="E527" s="2">
-        <v>3.5762088298797607</v>
+        <v>3.5761816501617432</v>
       </c>
     </row>
     <row r="528">
@@ -8208,13 +8208,13 @@
         <v>3.4648256301879883</v>
       </c>
       <c r="C528" s="2">
-        <v>3.3563027381896973</v>
+        <v>3.3563694953918457</v>
       </c>
       <c r="D528" s="2">
         <v>3.6798088550567627</v>
       </c>
       <c r="E528" s="2">
-        <v>3.6030325889587402</v>
+        <v>3.6029765605926514</v>
       </c>
     </row>
     <row r="529">
@@ -8225,13 +8225,13 @@
         <v>3.9415903091430664</v>
       </c>
       <c r="C529" s="2">
-        <v>3.9191601276397705</v>
+        <v>3.9189562797546387</v>
       </c>
       <c r="D529" s="2">
         <v>3.6931970119476318</v>
       </c>
       <c r="E529" s="2">
-        <v>3.6378092765808105</v>
+        <v>3.6377825736999512</v>
       </c>
     </row>
     <row r="530">
@@ -8242,13 +8242,13 @@
         <v>3.5002150535583496</v>
       </c>
       <c r="C530" s="2">
-        <v>3.5141482353210449</v>
+        <v>3.51407790184021</v>
       </c>
       <c r="D530" s="2">
         <v>3.7167260646820068</v>
       </c>
       <c r="E530" s="2">
-        <v>3.66025710105896</v>
+        <v>3.6602694988250733</v>
       </c>
     </row>
     <row r="531">
@@ -8259,13 +8259,13 @@
         <v>3.8452441692352295</v>
       </c>
       <c r="C531" s="2">
-        <v>3.7702457904815674</v>
+        <v>3.7704946994781494</v>
       </c>
       <c r="D531" s="2">
-        <v>3.8630597591400146</v>
+        <v>3.8630597591400147</v>
       </c>
       <c r="E531" s="2">
-        <v>3.7955396175384521</v>
+        <v>3.7955076694488525</v>
       </c>
     </row>
     <row r="532">
@@ -8276,13 +8276,13 @@
         <v>3.814753532409668</v>
       </c>
       <c r="C532" s="2">
-        <v>3.8113980293273926</v>
+        <v>3.8110771179199219</v>
       </c>
       <c r="D532" s="2">
         <v>3.9556484222412109</v>
       </c>
       <c r="E532" s="2">
-        <v>3.8835775852203369</v>
+        <v>3.8835489749908447</v>
       </c>
     </row>
     <row r="533">
@@ -8293,13 +8293,13 @@
         <v>4.0185794830322266</v>
       </c>
       <c r="C533" s="2">
-        <v>3.8898422718048096</v>
+        <v>3.8899631500244141</v>
       </c>
       <c r="D533" s="2">
         <v>3.9714298248291016</v>
       </c>
       <c r="E533" s="2">
-        <v>3.9132218360900879</v>
+        <v>3.9131941795349121</v>
       </c>
     </row>
     <row r="534">
@@ -8310,13 +8310,13 @@
         <v>4.0828957557678223</v>
       </c>
       <c r="C534" s="2">
-        <v>3.9851169586181641</v>
+        <v>3.9853882789611816</v>
       </c>
       <c r="D534" s="2">
         <v>4.0083322525024414</v>
       </c>
       <c r="E534" s="2">
-        <v>3.9515385627746582</v>
+        <v>3.9515380859375</v>
       </c>
     </row>
     <row r="535">
@@ -8327,13 +8327,13 @@
         <v>4.8860640525817871</v>
       </c>
       <c r="C535" s="2">
-        <v>4.6683516502380371</v>
+        <v>4.6680989265441895</v>
       </c>
       <c r="D535" s="2">
         <v>4.1091818809509277</v>
       </c>
       <c r="E535" s="2">
-        <v>4.0363550186157227</v>
+        <v>4.0363516807556152</v>
       </c>
     </row>
     <row r="536">
@@ -8344,13 +8344,13 @@
         <v>4.0466670989990234</v>
       </c>
       <c r="C536" s="2">
-        <v>4.037632942199707</v>
+        <v>4.0375156402587891</v>
       </c>
       <c r="D536" s="2">
         <v>4.1340928077697754</v>
       </c>
       <c r="E536" s="2">
-        <v>4.0677337646484375</v>
+        <v>4.0677118301391602</v>
       </c>
     </row>
     <row r="537">
@@ -8361,13 +8361,13 @@
         <v>3.6068596839904785</v>
       </c>
       <c r="C537" s="2">
-        <v>3.623100757598877</v>
+        <v>3.6231765747070313</v>
       </c>
       <c r="D537" s="2">
         <v>4.1659126281738281</v>
       </c>
       <c r="E537" s="2">
-        <v>4.0790009498596191</v>
+        <v>4.0790181159973145</v>
       </c>
     </row>
     <row r="538">
@@ -8378,13 +8378,13 @@
         <v>4.2737116813659668</v>
       </c>
       <c r="C538" s="2">
-        <v>4.2640113830566406</v>
+        <v>4.2640509605407715</v>
       </c>
       <c r="D538" s="2">
         <v>4.1496243476867676</v>
       </c>
       <c r="E538" s="2">
-        <v>4.068723201751709</v>
+        <v>4.0687131881713867</v>
       </c>
     </row>
     <row r="539">
@@ -8395,13 +8395,13 @@
         <v>4.4078612327575684</v>
       </c>
       <c r="C539" s="2">
-        <v>4.2774958610534668</v>
+        <v>4.2773985862731934</v>
       </c>
       <c r="D539" s="2">
         <v>4.1836681365966797</v>
       </c>
       <c r="E539" s="2">
-        <v>4.0876145362854004</v>
+        <v>4.0875639915466309</v>
       </c>
     </row>
     <row r="540">
@@ -8412,13 +8412,13 @@
         <v>4.0694417953491211</v>
       </c>
       <c r="C540" s="2">
-        <v>4.0526523590087891</v>
+        <v>4.052736759185791</v>
       </c>
       <c r="D540" s="2">
         <v>4.1096882820129395</v>
       </c>
       <c r="E540" s="2">
-        <v>4.047177791595459</v>
+        <v>4.0471224784851074</v>
       </c>
     </row>
     <row r="541">
@@ -8429,13 +8429,13 @@
         <v>4.1011319160461426</v>
       </c>
       <c r="C541" s="2">
-        <v>3.9128050804138184</v>
+        <v>3.9128329753875732</v>
       </c>
       <c r="D541" s="2">
         <v>4.0478038787841797</v>
       </c>
       <c r="E541" s="2">
-        <v>3.9806034564971924</v>
+        <v>3.9805762767791748</v>
       </c>
     </row>
     <row r="542">
@@ -8446,13 +8446,13 @@
         <v>3.8719861507415771</v>
       </c>
       <c r="C542" s="2">
-        <v>3.797339916229248</v>
+        <v>3.7972180843353272</v>
       </c>
       <c r="D542" s="2">
         <v>4.1201076507568359</v>
       </c>
       <c r="E542" s="2">
-        <v>4.0554108619689941</v>
+        <v>4.0553698539733887</v>
       </c>
     </row>
     <row r="543">
@@ -8463,13 +8463,13 @@
         <v>4.3892917633056641</v>
       </c>
       <c r="C543" s="2">
-        <v>4.1551399230957031</v>
+        <v>4.1550464630126953</v>
       </c>
       <c r="D543" s="2">
         <v>4.0656123161315918</v>
       </c>
       <c r="E543" s="2">
-        <v>3.990501880645752</v>
+        <v>3.9904582500457764</v>
       </c>
     </row>
     <row r="544">
@@ -8480,13 +8480,13 @@
         <v>4.2202444076538086</v>
       </c>
       <c r="C544" s="2">
-        <v>4.3044223785400391</v>
+        <v>4.3041281700134277</v>
       </c>
       <c r="D544" s="2">
         <v>4.0455965995788574</v>
       </c>
       <c r="E544" s="2">
-        <v>3.9823904037475586</v>
+        <v>3.9823498725891113</v>
       </c>
     </row>
     <row r="545">
@@ -8497,13 +8497,13 @@
         <v>3.4897079467773438</v>
       </c>
       <c r="C545" s="2">
-        <v>3.4384641647338867</v>
+        <v>3.4385986328125</v>
       </c>
       <c r="D545" s="2">
         <v>4.0015368461608887</v>
       </c>
       <c r="E545" s="2">
-        <v>3.9382412433624268</v>
+        <v>3.9381940364837646</v>
       </c>
     </row>
     <row r="546">
@@ -8514,13 +8514,13 @@
         <v>4.257591724395752</v>
       </c>
       <c r="C546" s="2">
-        <v>4.2963676452636719</v>
+        <v>4.2963199615478516</v>
       </c>
       <c r="D546" s="2">
         <v>3.9736373424530029</v>
       </c>
       <c r="E546" s="2">
-        <v>3.9372389316558838</v>
+        <v>3.9372012615203858</v>
       </c>
     </row>
     <row r="547">
@@ -8531,13 +8531,13 @@
         <v>3.7832555770874023</v>
       </c>
       <c r="C547" s="2">
-        <v>3.6798286437988281</v>
+        <v>3.6798455715179443</v>
       </c>
       <c r="D547" s="2">
         <v>3.9578354358673096</v>
       </c>
       <c r="E547" s="2">
-        <v>3.925713062286377</v>
+        <v>3.9256868362426758</v>
       </c>
     </row>
     <row r="548">
@@ -8548,13 +8548,13 @@
         <v>4.2277169227600098</v>
       </c>
       <c r="C548" s="2">
-        <v>4.2044939994812012</v>
+        <v>4.2044224739074707</v>
       </c>
       <c r="D548" s="2">
         <v>3.9201803207397461</v>
       </c>
       <c r="E548" s="2">
-        <v>3.9068548679351807</v>
+        <v>3.906818151473999</v>
       </c>
     </row>
     <row r="549">
@@ -8565,13 +8565,13 @@
         <v>3.6729066371917725</v>
       </c>
       <c r="C549" s="2">
-        <v>3.6553092002868652</v>
+        <v>3.6553339958190918</v>
       </c>
       <c r="D549" s="2">
         <v>3.8609051704406738</v>
       </c>
       <c r="E549" s="2">
-        <v>3.8404016494750977</v>
+        <v>3.8403937816619873</v>
       </c>
     </row>
     <row r="550">
@@ -8582,13 +8582,13 @@
         <v>3.8500359058380127</v>
       </c>
       <c r="C550" s="2">
-        <v>3.9037854671478271</v>
+        <v>3.9038984775543213</v>
       </c>
       <c r="D550" s="2">
         <v>3.9055280685424805</v>
       </c>
       <c r="E550" s="2">
-        <v>3.8948163986206055</v>
+        <v>3.8947708606719971</v>
       </c>
     </row>
     <row r="551">
@@ -8599,13 +8599,13 @@
         <v>3.7297689914703369</v>
       </c>
       <c r="C551" s="2">
-        <v>3.6936063766479492</v>
+        <v>3.6935880184173584</v>
       </c>
       <c r="D551" s="2">
         <v>3.8611819744110107</v>
       </c>
       <c r="E551" s="2">
-        <v>3.8516626358032227</v>
+        <v>3.8516290187835693</v>
       </c>
     </row>
     <row r="552">
@@ -8616,13 +8616,13 @@
         <v>4.0503945350646973</v>
       </c>
       <c r="C552" s="2">
-        <v>3.9854154586791992</v>
+        <v>3.9852290153503418</v>
       </c>
       <c r="D552" s="2">
         <v>3.827488899230957</v>
       </c>
       <c r="E552" s="2">
-        <v>3.81732177734375</v>
+        <v>3.8172755241394043</v>
       </c>
     </row>
     <row r="553">
@@ -8633,13 +8633,13 @@
         <v>3.6867685317993164</v>
       </c>
       <c r="C553" s="2">
-        <v>3.706343412399292</v>
+        <v>3.7063076496124268</v>
       </c>
       <c r="D553" s="2">
-        <v>3.7774603366851807</v>
+        <v>3.7212235927581787</v>
       </c>
       <c r="E553" s="2">
-        <v>3.7689251899719238</v>
+        <v>3.7106261253356934</v>
       </c>
     </row>
     <row r="554">
@@ -8650,13 +8650,13 @@
         <v>3.8913142681121826</v>
       </c>
       <c r="C554" s="2">
-        <v>3.928196907043457</v>
+        <v>3.9279930591583252</v>
       </c>
       <c r="D554" s="2">
-        <v>3.7923965454101562</v>
+        <v>3.6855175495147705</v>
       </c>
       <c r="E554" s="2">
-        <v>3.7851560115814209</v>
+        <v>3.6837420463562012</v>
       </c>
     </row>
     <row r="555">
@@ -8667,13 +8667,13 @@
         <v>3.8584771156311035</v>
       </c>
       <c r="C555" s="2">
-        <v>3.9079844951629639</v>
+        <v>3.9080419540405274</v>
       </c>
       <c r="D555" s="2">
-        <v>3.7827901840209961</v>
+        <v>3.7216579914093018</v>
       </c>
       <c r="E555" s="2">
-        <v>3.7653844356536865</v>
+        <v>3.7107634544372559</v>
       </c>
     </row>
     <row r="556">
@@ -8684,13 +8684,98 @@
         <v>3.4800169467926025</v>
       </c>
       <c r="C556" s="2">
-        <v>3.370760440826416</v>
+        <v>3.3706645965576172</v>
       </c>
       <c r="D556" s="2">
-        <v>3.7933943271636963</v>
+        <v>3.6132152080535889</v>
       </c>
       <c r="E556" s="2">
-        <v>3.7797400951385498</v>
+        <v>3.513087272644043</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B557" s="2">
+        <v>3.271329402923584</v>
+      </c>
+      <c r="C557" s="2">
+        <v>3.2445788383483887</v>
+      </c>
+      <c r="D557" s="2">
+        <v>3.6763715744018555</v>
+      </c>
+      <c r="E557" s="2">
+        <v>3.5917513370513916</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B558" s="2">
+        <v>3.3515520095825195</v>
+      </c>
+      <c r="C558" s="2">
+        <v>3.4133763313293457</v>
+      </c>
+      <c r="D558" s="2">
+        <v>3.6750719547271729</v>
+      </c>
+      <c r="E558" s="2">
+        <v>3.5774319171905518</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B559" s="2">
+        <v>4.1752991676330566</v>
+      </c>
+      <c r="C559" s="2">
+        <v>4.1470913887023926</v>
+      </c>
+      <c r="D559" s="2">
+        <v>3.6441802978515625</v>
+      </c>
+      <c r="E559" s="2">
+        <v>3.5273516178131104</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B560" s="2">
+        <v>2.7537853717803955</v>
+      </c>
+      <c r="C560" s="2">
+        <v>1.9145033359527588</v>
+      </c>
+      <c r="D560" s="2">
+        <v>3.608464241027832</v>
+      </c>
+      <c r="E560" s="2">
+        <v>3.4639034271240234</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B561" s="2">
+        <v>4.6188020706176758</v>
+      </c>
+      <c r="C561" s="2">
+        <v>4.6932053565979004</v>
+      </c>
+      <c r="D561" s="2">
+        <v>3.6341536045074463</v>
+      </c>
+      <c r="E561" s="2">
+        <v>3.4825510978698731</v>
       </c>
     </row>
   </sheetData>

--- a/MSC_stdev_lt.xlsx
+++ b/MSC_stdev_lt.xlsx
@@ -223,13 +223,13 @@
         <v>4.1788797378540039</v>
       </c>
       <c r="C15" s="2">
-        <v>4.1897931098937988</v>
+        <v>4.1893577575683594</v>
       </c>
       <c r="D15" s="2">
         <v>4.1788797378540039</v>
       </c>
       <c r="E15" s="2">
-        <v>4.1897931098937988</v>
+        <v>4.1893577575683594</v>
       </c>
     </row>
     <row r="16">
@@ -339,13 +339,13 @@
         <v>6.1115078926086426</v>
       </c>
       <c r="C27" s="2">
-        <v>6.1405191421508789</v>
+        <v>6.1401910781860352</v>
       </c>
       <c r="D27" s="2">
         <v>6.1115078926086426</v>
       </c>
       <c r="E27" s="2">
-        <v>6.1405191421508789</v>
+        <v>6.1401910781860352</v>
       </c>
     </row>
     <row r="28">
@@ -401,13 +401,13 @@
         <v>5.7580242156982422</v>
       </c>
       <c r="C33" s="2">
-        <v>5.9108138084411621</v>
+        <v>5.9110288619995117</v>
       </c>
       <c r="D33" s="2">
         <v>5.8651628494262695</v>
       </c>
       <c r="E33" s="2">
-        <v>5.9070596694946289</v>
+        <v>5.9070100784301758</v>
       </c>
     </row>
     <row r="34">
@@ -418,13 +418,13 @@
         <v>5.9723010063171387</v>
       </c>
       <c r="C34" s="2">
-        <v>5.9033055305480957</v>
+        <v>5.9029917716979981</v>
       </c>
       <c r="D34" s="2">
         <v>5.9284567832946777</v>
       </c>
       <c r="E34" s="2">
-        <v>5.9297633171081543</v>
+        <v>5.9298138618469238</v>
       </c>
     </row>
     <row r="35">
@@ -462,13 +462,13 @@
         <v>6.0550446510314942</v>
       </c>
       <c r="C38" s="2">
-        <v>5.9751706123352051</v>
+        <v>5.9754209518432617</v>
       </c>
       <c r="D38" s="2">
         <v>5.9516944885253906</v>
       </c>
       <c r="E38" s="2">
-        <v>5.8553657531738281</v>
+        <v>5.8554916381835938</v>
       </c>
     </row>
     <row r="39">
@@ -479,13 +479,13 @@
         <v>5.4729719161987305</v>
       </c>
       <c r="C39" s="2">
-        <v>5.3188409805297852</v>
+        <v>5.3194408416748047</v>
       </c>
       <c r="D39" s="2">
         <v>5.9448256492614746</v>
       </c>
       <c r="E39" s="2">
-        <v>5.839385986328125</v>
+        <v>5.839658260345459</v>
       </c>
     </row>
     <row r="40">
@@ -496,13 +496,13 @@
         <v>6.306459903717041</v>
       </c>
       <c r="C40" s="2">
-        <v>6.224146842956543</v>
+        <v>6.2241134643554688</v>
       </c>
       <c r="D40" s="2">
         <v>5.9566988945007324</v>
       </c>
       <c r="E40" s="2">
-        <v>5.8966026306152344</v>
+        <v>5.8966302871704102</v>
       </c>
     </row>
     <row r="41">
@@ -540,13 +540,13 @@
         <v>5.9923186302185059</v>
       </c>
       <c r="C44" s="2">
-        <v>6.0682520866394043</v>
+        <v>6.0675449371337891</v>
       </c>
       <c r="D44" s="2">
         <v>6.1459627151489258</v>
       </c>
       <c r="E44" s="2">
-        <v>6.1236562728881836</v>
+        <v>6.1237578392028809</v>
       </c>
     </row>
     <row r="45">
@@ -557,13 +557,13 @@
         <v>6.0672760009765625</v>
       </c>
       <c r="C45" s="2">
-        <v>5.9401168823242188</v>
+        <v>5.9404535293579102</v>
       </c>
       <c r="D45" s="2">
         <v>6.0924639701843262</v>
       </c>
       <c r="E45" s="2">
-        <v>6.0901594161987305</v>
+        <v>6.0903058052062988</v>
       </c>
     </row>
     <row r="46">
@@ -574,13 +574,13 @@
         <v>6.2177972793579102</v>
       </c>
       <c r="C46" s="2">
-        <v>6.2621088027954102</v>
+        <v>6.2629194259643555</v>
       </c>
       <c r="D46" s="2">
         <v>5.9169168472290039</v>
       </c>
       <c r="E46" s="2">
-        <v>5.896186351776123</v>
+        <v>5.8964543342590332</v>
       </c>
     </row>
     <row r="47">
@@ -618,13 +618,13 @@
         <v>5.3902754783630371</v>
       </c>
       <c r="C50" s="2">
-        <v>5.3142671585083008</v>
+        <v>5.3148994445800781</v>
       </c>
       <c r="D50" s="2">
         <v>5.8341712951660156</v>
       </c>
       <c r="E50" s="2">
-        <v>5.7864751815795899</v>
+        <v>5.7868490219116211</v>
       </c>
     </row>
     <row r="51">
@@ -635,13 +635,13 @@
         <v>5.9486303329467774</v>
       </c>
       <c r="C51" s="2">
-        <v>5.8933200836181641</v>
+        <v>5.8934602737426758</v>
       </c>
       <c r="D51" s="2">
         <v>5.7062959671020508</v>
       </c>
       <c r="E51" s="2">
-        <v>5.6279301643371582</v>
+        <v>5.6281590461730957</v>
       </c>
     </row>
     <row r="52">
@@ -652,13 +652,13 @@
         <v>5.7799816131591797</v>
       </c>
       <c r="C52" s="2">
-        <v>5.676203727722168</v>
+        <v>5.676116943359375</v>
       </c>
       <c r="D52" s="2">
         <v>5.6263575553894043</v>
       </c>
       <c r="E52" s="2">
-        <v>5.5714998245239258</v>
+        <v>5.5716338157653809</v>
       </c>
     </row>
     <row r="53">
@@ -696,13 +696,13 @@
         <v>5.3865432739257813</v>
       </c>
       <c r="C56" s="2">
-        <v>5.4022083282470703</v>
+        <v>5.4020581245422363</v>
       </c>
       <c r="D56" s="2">
         <v>5.6400809288024902</v>
       </c>
       <c r="E56" s="2">
-        <v>5.5672354698181152</v>
+        <v>5.5673375129699707</v>
       </c>
     </row>
     <row r="57">
@@ -713,13 +713,13 @@
         <v>5.5564494132995605</v>
       </c>
       <c r="C57" s="2">
-        <v>5.5813207626342773</v>
+        <v>5.5819921493530273</v>
       </c>
       <c r="D57" s="2">
         <v>5.5934476852416992</v>
       </c>
       <c r="E57" s="2">
-        <v>5.5309128761291504</v>
+        <v>5.5310778617858887</v>
       </c>
     </row>
     <row r="58">
@@ -730,13 +730,13 @@
         <v>5.8373498916625977</v>
       </c>
       <c r="C58" s="2">
-        <v>5.6092090606689453</v>
+        <v>5.6091833114624024</v>
       </c>
       <c r="D58" s="2">
         <v>5.580876350402832</v>
       </c>
       <c r="E58" s="2">
-        <v>5.5320196151733399</v>
+        <v>5.5322055816650391</v>
       </c>
     </row>
     <row r="59">
@@ -774,13 +774,13 @@
         <v>5.5431632995605469</v>
       </c>
       <c r="C62" s="2">
-        <v>5.53533935546875</v>
+        <v>5.535588264465332</v>
       </c>
       <c r="D62" s="2">
         <v>5.5256805419921875</v>
       </c>
       <c r="E62" s="2">
-        <v>5.4006695747375488</v>
+        <v>5.4008479118347168</v>
       </c>
     </row>
     <row r="63">
@@ -791,13 +791,13 @@
         <v>5.6156759262084961</v>
       </c>
       <c r="C63" s="2">
-        <v>5.4400105476379395</v>
+        <v>5.4399185180664063</v>
       </c>
       <c r="D63" s="2">
         <v>5.421790599822998</v>
       </c>
       <c r="E63" s="2">
-        <v>5.3311562538146973</v>
+        <v>5.3314027786254883</v>
       </c>
     </row>
     <row r="64">
@@ -808,13 +808,13 @@
         <v>5.1065330505371094</v>
       </c>
       <c r="C64" s="2">
-        <v>5.0181188583374023</v>
+        <v>5.0187020301818848</v>
       </c>
       <c r="D64" s="2">
         <v>5.3345050811767578</v>
       </c>
       <c r="E64" s="2">
-        <v>5.2479281425476074</v>
+        <v>5.248197078704834</v>
       </c>
     </row>
     <row r="65">
@@ -852,13 +852,13 @@
         <v>5.0726470947265625</v>
       </c>
       <c r="C68" s="2">
-        <v>4.9982438087463379</v>
+        <v>4.9985799789428711</v>
       </c>
       <c r="D68" s="2">
         <v>5.0970463752746582</v>
       </c>
       <c r="E68" s="2">
-        <v>5.0732526779174805</v>
+        <v>5.073601245880127</v>
       </c>
     </row>
     <row r="69">
@@ -869,13 +869,13 @@
         <v>4.991325855255127</v>
       </c>
       <c r="C69" s="2">
-        <v>5.0338854789733887</v>
+        <v>5.0350031852722168</v>
       </c>
       <c r="D69" s="2">
         <v>5.0938844680786133</v>
       </c>
       <c r="E69" s="2">
-        <v>5.0916304588317871</v>
+        <v>5.0919013023376465</v>
       </c>
     </row>
     <row r="70">
@@ -886,13 +886,13 @@
         <v>5.2176799774169922</v>
       </c>
       <c r="C70" s="2">
-        <v>5.2427620887756348</v>
+        <v>5.2421202659606934</v>
       </c>
       <c r="D70" s="2">
         <v>4.9554963111877441</v>
       </c>
       <c r="E70" s="2">
-        <v>4.9437389373779297</v>
+        <v>4.9441423416137695</v>
       </c>
     </row>
     <row r="71">
@@ -930,13 +930,13 @@
         <v>4.5403318405151367</v>
       </c>
       <c r="C74" s="2">
-        <v>4.5000638961791992</v>
+        <v>4.5008664131164551</v>
       </c>
       <c r="D74" s="2">
         <v>4.8358821868896484</v>
       </c>
       <c r="E74" s="2">
-        <v>4.7994461059570313</v>
+        <v>4.7998476028442383</v>
       </c>
     </row>
     <row r="75">
@@ -947,13 +947,13 @@
         <v>4.6630620956420898</v>
       </c>
       <c r="C75" s="2">
-        <v>4.5682821273803711</v>
+        <v>4.5689506530761719</v>
       </c>
       <c r="D75" s="2">
         <v>4.7086162567138672</v>
       </c>
       <c r="E75" s="2">
-        <v>4.6516737937927246</v>
+        <v>4.6524233818054199</v>
       </c>
     </row>
     <row r="76">
@@ -964,13 +964,13 @@
         <v>4.922454833984375</v>
       </c>
       <c r="C76" s="2">
-        <v>4.8866753578186035</v>
+        <v>4.8874530792236328</v>
       </c>
       <c r="D76" s="2">
         <v>4.8247361183166504</v>
       </c>
       <c r="E76" s="2">
-        <v>4.802666187286377</v>
+        <v>4.8031101226806641</v>
       </c>
     </row>
     <row r="77">
@@ -1008,13 +1008,13 @@
         <v>5.173095703125</v>
       </c>
       <c r="C80" s="2">
-        <v>5.255643367767334</v>
+        <v>5.2551712989807129</v>
       </c>
       <c r="D80" s="2">
         <v>4.7965712547302246</v>
       </c>
       <c r="E80" s="2">
-        <v>4.7716507911682129</v>
+        <v>4.772162914276123</v>
       </c>
     </row>
     <row r="81">
@@ -1025,13 +1025,13 @@
         <v>4.6439208984375</v>
       </c>
       <c r="C81" s="2">
-        <v>4.5641584396362305</v>
+        <v>4.565277099609375</v>
       </c>
       <c r="D81" s="2">
         <v>4.7546100616455078</v>
       </c>
       <c r="E81" s="2">
-        <v>4.733309268951416</v>
+        <v>4.7337327003479004</v>
       </c>
     </row>
     <row r="82">
@@ -1042,13 +1042,13 @@
         <v>4.4468135833740234</v>
       </c>
       <c r="C82" s="2">
-        <v>4.3801259994506836</v>
+        <v>4.3807501792907715</v>
       </c>
       <c r="D82" s="2">
         <v>4.757075309753418</v>
       </c>
       <c r="E82" s="2">
-        <v>4.7135419845581055</v>
+        <v>4.7137651443481445</v>
       </c>
     </row>
     <row r="83">
@@ -1086,13 +1086,13 @@
         <v>4.7644710540771484</v>
       </c>
       <c r="C86" s="2">
-        <v>4.6542401313781738</v>
+        <v>4.6538615226745606</v>
       </c>
       <c r="D86" s="2">
         <v>4.815241813659668</v>
       </c>
       <c r="E86" s="2">
-        <v>4.7351603507995605</v>
+        <v>4.735285758972168</v>
       </c>
     </row>
     <row r="87">
@@ -1103,13 +1103,13 @@
         <v>4.888249397277832</v>
       </c>
       <c r="C87" s="2">
-        <v>4.8111028671264648</v>
+        <v>4.8117351531982422</v>
       </c>
       <c r="D87" s="2">
         <v>4.9380512237548828</v>
       </c>
       <c r="E87" s="2">
-        <v>4.8535051345825195</v>
+        <v>4.8534641265869141</v>
       </c>
     </row>
     <row r="88">
@@ -1120,13 +1120,13 @@
         <v>5.1614327430725098</v>
       </c>
       <c r="C88" s="2">
-        <v>5.0951724052429199</v>
+        <v>5.0947957038879395</v>
       </c>
       <c r="D88" s="2">
         <v>4.8513517379760742</v>
       </c>
       <c r="E88" s="2">
-        <v>4.7522940635681152</v>
+        <v>4.7524247169494629</v>
       </c>
     </row>
     <row r="89">
@@ -1164,13 +1164,13 @@
         <v>4.5912532806396484</v>
       </c>
       <c r="C92" s="2">
-        <v>4.4486613273620606</v>
+        <v>4.4493069648742676</v>
       </c>
       <c r="D92" s="2">
         <v>4.6403255462646484</v>
       </c>
       <c r="E92" s="2">
-        <v>4.583099365234375</v>
+        <v>4.583308219909668</v>
       </c>
     </row>
     <row r="93">
@@ -1181,13 +1181,13 @@
         <v>4.1453595161437988</v>
       </c>
       <c r="C93" s="2">
-        <v>4.1635246276855469</v>
+        <v>4.1634550094604492</v>
       </c>
       <c r="D93" s="2">
         <v>4.4666228294372559</v>
       </c>
       <c r="E93" s="2">
-        <v>4.4124078750610352</v>
+        <v>4.4128127098083496</v>
       </c>
     </row>
     <row r="94">
@@ -1198,13 +1198,13 @@
         <v>4.6632556915283203</v>
       </c>
       <c r="C94" s="2">
-        <v>4.6250381469726563</v>
+        <v>4.625676155090332</v>
       </c>
       <c r="D94" s="2">
         <v>4.4666228294372559</v>
       </c>
       <c r="E94" s="2">
-        <v>4.4124078750610352</v>
+        <v>4.4128127098083496</v>
       </c>
     </row>
     <row r="95">
@@ -1260,13 +1260,13 @@
         <v>4.4021458625793457</v>
       </c>
       <c r="C100" s="2">
-        <v>4.1629242897033691</v>
+        <v>4.163334846496582</v>
       </c>
       <c r="D100" s="2">
         <v>4.1503567695617676</v>
       </c>
       <c r="E100" s="2">
-        <v>3.958789587020874</v>
+        <v>3.9594745635986328</v>
       </c>
     </row>
     <row r="101">
@@ -1295,13 +1295,13 @@
         <v>3.8985676765441895</v>
       </c>
       <c r="C103" s="2">
-        <v>3.7546548843383789</v>
+        <v>3.7556145191192627</v>
       </c>
       <c r="D103" s="2">
         <v>4.0395383834838867</v>
       </c>
       <c r="E103" s="2">
-        <v>3.9075114727020264</v>
+        <v>3.9078292846679688</v>
       </c>
     </row>
     <row r="104">
@@ -1330,13 +1330,13 @@
         <v>3.8179013729095459</v>
       </c>
       <c r="C106" s="2">
-        <v>3.8049552440643311</v>
+        <v>3.8045387268066406</v>
       </c>
       <c r="D106" s="2">
         <v>4.0753483772277832</v>
       </c>
       <c r="E106" s="2">
-        <v>4.0168476104736328</v>
+        <v>4.0169620513916016</v>
       </c>
     </row>
     <row r="107">
@@ -1365,13 +1365,13 @@
         <v>4.5095758438110352</v>
       </c>
       <c r="C109" s="2">
-        <v>4.4909334182739258</v>
+        <v>4.4907321929931641</v>
       </c>
       <c r="D109" s="2">
         <v>4.1512641906738281</v>
       </c>
       <c r="E109" s="2">
-        <v>4.0806317329406738</v>
+        <v>4.0804152488708496</v>
       </c>
     </row>
     <row r="110">
@@ -1400,13 +1400,13 @@
         <v>4.1263151168823242</v>
       </c>
       <c r="C112" s="2">
-        <v>3.9460065364837646</v>
+        <v>3.9459753036499023</v>
       </c>
       <c r="D112" s="2">
         <v>4.3904008865356445</v>
       </c>
       <c r="E112" s="2">
-        <v>4.3305749893188477</v>
+        <v>4.3301968574523926</v>
       </c>
     </row>
     <row r="113">
@@ -1435,13 +1435,13 @@
         <v>4.5353116989135742</v>
       </c>
       <c r="C115" s="2">
-        <v>4.5547842979431152</v>
+        <v>4.5538825988769531</v>
       </c>
       <c r="D115" s="2">
         <v>3.9998931884765625</v>
       </c>
       <c r="E115" s="2">
-        <v>3.954770565032959</v>
+        <v>3.954099178314209</v>
       </c>
     </row>
     <row r="116">
@@ -1470,13 +1470,13 @@
         <v>3.3380529880523682</v>
       </c>
       <c r="C118" s="2">
-        <v>3.3635208606719971</v>
+        <v>3.3624393939971924</v>
       </c>
       <c r="D118" s="2">
         <v>4.2668075561523438</v>
       </c>
       <c r="E118" s="2">
-        <v>4.3078908920288086</v>
+        <v>4.3071532249450684</v>
       </c>
     </row>
     <row r="119">
@@ -1505,13 +1505,13 @@
         <v>4.9270586967468262</v>
       </c>
       <c r="C121" s="2">
-        <v>5.0053677558898926</v>
+        <v>5.0051374435424805</v>
       </c>
       <c r="D121" s="2">
         <v>4.1325559616088867</v>
       </c>
       <c r="E121" s="2">
-        <v>4.1844444274902344</v>
+        <v>4.1837882995605469</v>
       </c>
     </row>
     <row r="122">
@@ -1765,13 +1765,13 @@
         <v>4.0407509803771973</v>
       </c>
       <c r="C149" s="2">
-        <v>4.0173754692077637</v>
+        <v>4.0178918838500977</v>
       </c>
       <c r="D149" s="2">
         <v>3.9090104103088379</v>
       </c>
       <c r="E149" s="2">
-        <v>3.9088435173034668</v>
+        <v>3.9088001251220703</v>
       </c>
     </row>
     <row r="150">
@@ -1782,13 +1782,13 @@
         <v>3.6292774677276611</v>
       </c>
       <c r="C150" s="2">
-        <v>3.6049213409423828</v>
+        <v>3.604778528213501</v>
       </c>
       <c r="D150" s="2">
         <v>3.974285364151001</v>
       </c>
       <c r="E150" s="2">
-        <v>3.9659008979797363</v>
+        <v>3.9658923149108887</v>
       </c>
     </row>
     <row r="151">
@@ -1799,13 +1799,13 @@
         <v>4.0736160278320313</v>
       </c>
       <c r="C151" s="2">
-        <v>4.0396394729614258</v>
+        <v>4.0401120185852051</v>
       </c>
       <c r="D151" s="2">
         <v>3.9965953826904297</v>
       </c>
       <c r="E151" s="2">
-        <v>3.98140549659729</v>
+        <v>3.9812748432159424</v>
       </c>
     </row>
     <row r="152">
@@ -1816,13 +1816,13 @@
         <v>4.0311360359191895</v>
       </c>
       <c r="C152" s="2">
-        <v>4.0861907005310059</v>
+        <v>4.0852775573730469</v>
       </c>
       <c r="D152" s="2">
         <v>4.0567965507507324</v>
       </c>
       <c r="E152" s="2">
-        <v>4.0264663696289063</v>
+        <v>4.0262260437011719</v>
       </c>
     </row>
     <row r="153">
@@ -1833,13 +1833,13 @@
         <v>3.7702715396881104</v>
       </c>
       <c r="C153" s="2">
-        <v>3.7960910797119141</v>
+        <v>3.7959408760070801</v>
       </c>
       <c r="D153" s="2">
         <v>4.0978078842163086</v>
       </c>
       <c r="E153" s="2">
-        <v>4.0638628005981445</v>
+        <v>4.0636582374572754</v>
       </c>
     </row>
     <row r="154">
@@ -1850,13 +1850,13 @@
         <v>4.3006601333618164</v>
       </c>
       <c r="C154" s="2">
-        <v>4.2511868476867676</v>
+        <v>4.2513523101806641</v>
       </c>
       <c r="D154" s="2">
         <v>4.1319494247436524</v>
       </c>
       <c r="E154" s="2">
-        <v>4.0616989135742188</v>
+        <v>4.0613746643066406</v>
       </c>
     </row>
     <row r="155">
@@ -1867,13 +1867,13 @@
         <v>4.130455493927002</v>
       </c>
       <c r="C155" s="2">
-        <v>4.0744342803955078</v>
+        <v>4.0735712051391602</v>
       </c>
       <c r="D155" s="2">
         <v>4.1520943641662598</v>
       </c>
       <c r="E155" s="2">
-        <v>4.0803313255310059</v>
+        <v>4.0799498558044434</v>
       </c>
     </row>
     <row r="156">
@@ -1884,13 +1884,13 @@
         <v>4.478203296661377</v>
       </c>
       <c r="C156" s="2">
-        <v>4.3418927192687988</v>
+        <v>4.340883731842041</v>
       </c>
       <c r="D156" s="2">
         <v>4.1483449935913086</v>
       </c>
       <c r="E156" s="2">
-        <v>4.0686984062194824</v>
+        <v>4.0683245658874512</v>
       </c>
     </row>
     <row r="157">
@@ -1901,13 +1901,13 @@
         <v>4.425900936126709</v>
       </c>
       <c r="C157" s="2">
-        <v>4.3630332946777344</v>
+        <v>4.3631143569946289</v>
       </c>
       <c r="D157" s="2">
         <v>4.1562228202819824</v>
       </c>
       <c r="E157" s="2">
-        <v>4.0656514167785645</v>
+        <v>4.0652608871459961</v>
       </c>
     </row>
     <row r="158">
@@ -1918,13 +1918,13 @@
         <v>4.3480219841003418</v>
       </c>
       <c r="C158" s="2">
-        <v>3.9978985786437988</v>
+        <v>3.9973433017730713</v>
       </c>
       <c r="D158" s="2">
         <v>4.1692380905151367</v>
       </c>
       <c r="E158" s="2">
-        <v>4.068692684173584</v>
+        <v>4.0681939125061035</v>
       </c>
     </row>
     <row r="159">
@@ -1935,13 +1935,13 @@
         <v>3.8105847835540772</v>
       </c>
       <c r="C159" s="2">
-        <v>3.7726140022277832</v>
+        <v>3.7719523906707764</v>
       </c>
       <c r="D159" s="2">
         <v>4.0699191093444824</v>
       </c>
       <c r="E159" s="2">
-        <v>3.9809153079986572</v>
+        <v>3.9803156852722168</v>
       </c>
     </row>
     <row r="160">
@@ -1952,13 +1952,13 @@
         <v>4.0398716926574707</v>
       </c>
       <c r="C160" s="2">
-        <v>3.9349453449249268</v>
+        <v>3.9354846477508545</v>
       </c>
       <c r="D160" s="2">
         <v>3.9994978904724121</v>
       </c>
       <c r="E160" s="2">
-        <v>3.9111921787261963</v>
+        <v>3.910585880279541</v>
       </c>
     </row>
     <row r="161">
@@ -1969,13 +1969,13 @@
         <v>4.1020364761352539</v>
       </c>
       <c r="C161" s="2">
-        <v>4.0587663650512695</v>
+        <v>4.0577058792114258</v>
       </c>
       <c r="D161" s="2">
         <v>3.8941307067871094</v>
       </c>
       <c r="E161" s="2">
-        <v>3.8241329193115234</v>
+        <v>3.8234965801239014</v>
       </c>
     </row>
     <row r="162">
@@ -1986,13 +1986,13 @@
         <v>3.8874070644378662</v>
       </c>
       <c r="C162" s="2">
-        <v>3.8234632015228271</v>
+        <v>3.8223385810852051</v>
       </c>
       <c r="D162" s="2">
         <v>3.8076536655426025</v>
       </c>
       <c r="E162" s="2">
-        <v>3.7397301197052002</v>
+        <v>3.7390255928039551</v>
       </c>
     </row>
     <row r="163">
@@ -2003,13 +2003,13 @@
         <v>3.4067883491516113</v>
       </c>
       <c r="C163" s="2">
-        <v>3.4611907005310059</v>
+        <v>3.4604475498199463</v>
       </c>
       <c r="D163" s="2">
         <v>3.8048508167266846</v>
       </c>
       <c r="E163" s="2">
-        <v>3.7571711540222168</v>
+        <v>3.7565181255340576</v>
       </c>
     </row>
     <row r="164">
@@ -2020,13 +2020,13 @@
         <v>3.4966666698455811</v>
       </c>
       <c r="C164" s="2">
-        <v>3.4469263553619385</v>
+        <v>3.4460024833679199</v>
       </c>
       <c r="D164" s="2">
         <v>3.8857729434967041</v>
       </c>
       <c r="E164" s="2">
-        <v>3.8222146034240723</v>
+        <v>3.8215837478637695</v>
       </c>
     </row>
     <row r="165">
@@ -2037,13 +2037,13 @@
         <v>3.5298976898193359</v>
       </c>
       <c r="C165" s="2">
-        <v>3.5583581924438477</v>
+        <v>3.5570793151855469</v>
       </c>
       <c r="D165" s="2">
         <v>3.8797805309295654</v>
       </c>
       <c r="E165" s="2">
-        <v>3.8250572681427002</v>
+        <v>3.8243019580841064</v>
       </c>
     </row>
     <row r="166">
@@ -2054,13 +2054,13 @@
         <v>3.6476085186004639</v>
       </c>
       <c r="C166" s="2">
-        <v>3.6034073829650879</v>
+        <v>3.6028761863708496</v>
       </c>
       <c r="D166" s="2">
         <v>3.8594353199005127</v>
       </c>
       <c r="E166" s="2">
-        <v>3.8096845149993896</v>
+        <v>3.8091056346893311</v>
       </c>
     </row>
     <row r="167">
@@ -2071,13 +2071,13 @@
         <v>4.3227953910827637</v>
       </c>
       <c r="C167" s="2">
-        <v>4.1548690795898438</v>
+        <v>4.1547770500183105</v>
       </c>
       <c r="D167" s="2">
         <v>3.8741469383239746</v>
       </c>
       <c r="E167" s="2">
-        <v>3.8424723148345947</v>
+        <v>3.8419556617736817</v>
       </c>
     </row>
     <row r="168">
@@ -2088,13 +2088,13 @@
         <v>4.5388855934143066</v>
       </c>
       <c r="C168" s="2">
-        <v>4.3580045700073242</v>
+        <v>4.3575410842895508</v>
       </c>
       <c r="D168" s="2">
         <v>3.9207284450531006</v>
       </c>
       <c r="E168" s="2">
-        <v>3.8835504055023193</v>
+        <v>3.8829929828643799</v>
       </c>
     </row>
     <row r="169">
@@ -2105,13 +2105,13 @@
         <v>3.9859380722045899</v>
       </c>
       <c r="C169" s="2">
-        <v>3.9605305194854736</v>
+        <v>3.9599499702453613</v>
       </c>
       <c r="D169" s="2">
         <v>4.0254907608032227</v>
       </c>
       <c r="E169" s="2">
-        <v>3.9535648822784424</v>
+        <v>3.9530224800109863</v>
       </c>
     </row>
     <row r="170">
@@ -2122,13 +2122,13 @@
         <v>3.918931245803833</v>
       </c>
       <c r="C170" s="2">
-        <v>3.92041015625</v>
+        <v>3.92093825340271</v>
       </c>
       <c r="D170" s="2">
         <v>4.0412383079528809</v>
       </c>
       <c r="E170" s="2">
-        <v>3.9535923004150391</v>
+        <v>3.9533822536468506</v>
       </c>
     </row>
     <row r="171">
@@ -2139,13 +2139,13 @@
         <v>4.0198111534118652</v>
       </c>
       <c r="C171" s="2">
-        <v>4.118553638458252</v>
+        <v>4.1179900169372559</v>
       </c>
       <c r="D171" s="2">
         <v>4.0694746971130371</v>
       </c>
       <c r="E171" s="2">
-        <v>3.9807484149932861</v>
+        <v>3.9804377555847168</v>
       </c>
     </row>
     <row r="172">
@@ -2156,13 +2156,13 @@
         <v>3.8260209560394287</v>
       </c>
       <c r="C172" s="2">
-        <v>3.8308937549591065</v>
+        <v>3.8297834396362305</v>
       </c>
       <c r="D172" s="2">
         <v>4.0094428062438965</v>
       </c>
       <c r="E172" s="2">
-        <v>3.941434383392334</v>
+        <v>3.9410815238952637</v>
       </c>
     </row>
     <row r="173">
@@ -2173,13 +2173,13 @@
         <v>4.4395270347595215</v>
       </c>
       <c r="C173" s="2">
-        <v>4.077056884765625</v>
+        <v>4.0762672424316406</v>
       </c>
       <c r="D173" s="2">
         <v>3.9834260940551758</v>
       </c>
       <c r="E173" s="2">
-        <v>3.9436378479003906</v>
+        <v>3.9432492256164551</v>
       </c>
     </row>
     <row r="174">
@@ -2190,13 +2190,13 @@
         <v>3.6716256141662598</v>
       </c>
       <c r="C174" s="2">
-        <v>3.5586056709289551</v>
+        <v>3.5603177547454834</v>
       </c>
       <c r="D174" s="2">
         <v>3.9549510478973389</v>
       </c>
       <c r="E174" s="2">
-        <v>3.909639835357666</v>
+        <v>3.9093306064605713</v>
       </c>
     </row>
     <row r="175">
@@ -2207,13 +2207,13 @@
         <v>3.9017355442047119</v>
       </c>
       <c r="C175" s="2">
-        <v>3.8478105068206787</v>
+        <v>3.8463759422302246</v>
       </c>
       <c r="D175" s="2">
         <v>3.9263350963592529</v>
       </c>
       <c r="E175" s="2">
-        <v>3.8808877468109131</v>
+        <v>3.8805756568908691</v>
       </c>
     </row>
     <row r="176">
@@ -2224,13 +2224,13 @@
         <v>3.7825098037719727</v>
       </c>
       <c r="C176" s="2">
-        <v>3.8010437488555908</v>
+        <v>3.800570011138916</v>
       </c>
       <c r="D176" s="2">
         <v>3.9105796813964844</v>
       </c>
       <c r="E176" s="2">
-        <v>3.8410847187042236</v>
+        <v>3.8408982753753662</v>
       </c>
     </row>
     <row r="177">
@@ -2241,13 +2241,13 @@
         <v>4.3047347068786621</v>
       </c>
       <c r="C177" s="2">
-        <v>4.3778367042541504</v>
+        <v>4.3770503997802734</v>
       </c>
       <c r="D177" s="2">
         <v>3.8544960021972656</v>
       </c>
       <c r="E177" s="2">
-        <v>3.7780375480651855</v>
+        <v>3.7781052589416504</v>
       </c>
     </row>
     <row r="178">
@@ -2258,13 +2258,13 @@
         <v>3.7296640872955322</v>
       </c>
       <c r="C178" s="2">
-        <v>3.6545464992523193</v>
+        <v>3.6546831130981445</v>
       </c>
       <c r="D178" s="2">
         <v>3.8200070858001709</v>
       </c>
       <c r="E178" s="2">
-        <v>3.7545843124389649</v>
+        <v>3.7546217441558838</v>
       </c>
     </row>
     <row r="179">
@@ -2275,13 +2275,13 @@
         <v>3.6613872051239014</v>
       </c>
       <c r="C179" s="2">
-        <v>3.6616420745849609</v>
+        <v>3.6621425151824951</v>
       </c>
       <c r="D179" s="2">
         <v>3.7984433174133301</v>
       </c>
       <c r="E179" s="2">
-        <v>3.7379777431488037</v>
+        <v>3.7378244400024414</v>
       </c>
     </row>
     <row r="180">
@@ -2292,13 +2292,13 @@
         <v>3.8780112266540527</v>
       </c>
       <c r="C180" s="2">
-        <v>3.7603271007537842</v>
+        <v>3.7608933448791504</v>
       </c>
       <c r="D180" s="2">
         <v>3.7613801956176758</v>
       </c>
       <c r="E180" s="2">
-        <v>3.7109072208404541</v>
+        <v>3.7109055519104004</v>
       </c>
     </row>
     <row r="181">
@@ -2309,13 +2309,13 @@
         <v>3.3212690353393555</v>
       </c>
       <c r="C181" s="2">
-        <v>3.2634687423706055</v>
+        <v>3.2646472454071045</v>
       </c>
       <c r="D181" s="2">
         <v>3.7816169261932373</v>
       </c>
       <c r="E181" s="2">
-        <v>3.7197012901306152</v>
+        <v>3.7197666168212891</v>
       </c>
     </row>
     <row r="182">
@@ -2326,13 +2326,13 @@
         <v>4.1291270256042481</v>
       </c>
       <c r="C182" s="2">
-        <v>3.8659780025482178</v>
+        <v>3.8649148941040039</v>
       </c>
       <c r="D182" s="2">
         <v>3.745964527130127</v>
       </c>
       <c r="E182" s="2">
-        <v>3.6825902462005615</v>
+        <v>3.682755708694458</v>
       </c>
     </row>
     <row r="183">
@@ -2343,13 +2343,13 @@
         <v>3.4775512218475342</v>
       </c>
       <c r="C183" s="2">
-        <v>3.4091472625732422</v>
+        <v>3.4091434478759766</v>
       </c>
       <c r="D183" s="2">
         <v>3.7568225860595703</v>
       </c>
       <c r="E183" s="2">
-        <v>3.6988053321838379</v>
+        <v>3.6990973949432373</v>
       </c>
     </row>
     <row r="184">
@@ -2360,13 +2360,13 @@
         <v>3.5681676864624024</v>
       </c>
       <c r="C184" s="2">
-        <v>3.6041741371154785</v>
+        <v>3.6041057109832764</v>
       </c>
       <c r="D184" s="2">
         <v>3.7859220504760742</v>
       </c>
       <c r="E184" s="2">
-        <v>3.6968898773193359</v>
+        <v>3.6970632076263428</v>
       </c>
     </row>
     <row r="185">
@@ -2377,13 +2377,13 @@
         <v>3.9646396636962891</v>
       </c>
       <c r="C185" s="2">
-        <v>3.8801920413970947</v>
+        <v>3.8803184032440186</v>
       </c>
       <c r="D185" s="2">
         <v>3.804668664932251</v>
       </c>
       <c r="E185" s="2">
-        <v>3.7195847034454346</v>
+        <v>3.7196121215820313</v>
       </c>
     </row>
     <row r="186">
@@ -2394,13 +2394,13 @@
         <v>3.9838638305664063</v>
       </c>
       <c r="C186" s="2">
-        <v>4.0438370704650879</v>
+        <v>4.0439534187316895</v>
       </c>
       <c r="D186" s="2">
         <v>3.9430408477783203</v>
       </c>
       <c r="E186" s="2">
-        <v>3.8581454753875732</v>
+        <v>3.8579931259155273</v>
       </c>
     </row>
     <row r="187">
@@ -2411,13 +2411,13 @@
         <v>3.8273870944976807</v>
       </c>
       <c r="C187" s="2">
-        <v>3.8004806041717529</v>
+        <v>3.8017580509185791</v>
       </c>
       <c r="D187" s="2">
         <v>3.9191761016845703</v>
       </c>
       <c r="E187" s="2">
-        <v>3.848879337310791</v>
+        <v>3.8488929271697998</v>
       </c>
     </row>
     <row r="188">
@@ -2428,13 +2428,13 @@
         <v>3.9232823848724365</v>
       </c>
       <c r="C188" s="2">
-        <v>3.6444048881530762</v>
+        <v>3.6438348293304443</v>
       </c>
       <c r="D188" s="2">
         <v>3.9901235103607178</v>
       </c>
       <c r="E188" s="2">
-        <v>3.9284548759460449</v>
+        <v>3.9283177852630615</v>
       </c>
     </row>
     <row r="189">
@@ -2445,13 +2445,13 @@
         <v>4.0467309951782227</v>
       </c>
       <c r="C189" s="2">
-        <v>3.9645786285400391</v>
+        <v>3.9638330936431885</v>
       </c>
       <c r="D189" s="2">
         <v>4.0468387603759766</v>
       </c>
       <c r="E189" s="2">
-        <v>3.9860367774963379</v>
+        <v>3.9858343601226807</v>
       </c>
     </row>
     <row r="190">
@@ -2462,13 +2462,13 @@
         <v>4.5666170120239258</v>
       </c>
       <c r="C190" s="2">
-        <v>4.5105156898498535</v>
+        <v>4.5100765228271484</v>
       </c>
       <c r="D190" s="2">
         <v>3.960597038269043</v>
       </c>
       <c r="E190" s="2">
-        <v>3.8925728797912598</v>
+        <v>3.8921897411346436</v>
       </c>
     </row>
     <row r="191">
@@ -2479,13 +2479,13 @@
         <v>3.9143457412719727</v>
       </c>
       <c r="C191" s="2">
-        <v>3.7825832366943359</v>
+        <v>3.7830119132995605</v>
       </c>
       <c r="D191" s="2">
         <v>3.8566398620605469</v>
       </c>
       <c r="E191" s="2">
-        <v>3.7851972579956055</v>
+        <v>3.7846870422363281</v>
       </c>
     </row>
     <row r="192">
@@ -2496,13 +2496,13 @@
         <v>4.1160769462585449</v>
       </c>
       <c r="C192" s="2">
-        <v>4.125328540802002</v>
+        <v>4.1239686012268066</v>
       </c>
       <c r="D192" s="2">
         <v>3.8897714614868164</v>
       </c>
       <c r="E192" s="2">
-        <v>3.8136439323425293</v>
+        <v>3.812932014465332</v>
       </c>
     </row>
     <row r="193">
@@ -2513,13 +2513,13 @@
         <v>4.0786056518554688</v>
       </c>
       <c r="C193" s="2">
-        <v>4.1224112510681152</v>
+        <v>4.1217551231384277</v>
       </c>
       <c r="D193" s="2">
         <v>3.8120527267456055</v>
       </c>
       <c r="E193" s="2">
-        <v>3.7770993709564209</v>
+        <v>3.7763042449951172</v>
       </c>
     </row>
     <row r="194">
@@ -2530,13 +2530,13 @@
         <v>3.1884627342224121</v>
       </c>
       <c r="C194" s="2">
-        <v>3.039015531539917</v>
+        <v>3.0375161170959473</v>
       </c>
       <c r="D194" s="2">
         <v>3.7646775245666504</v>
       </c>
       <c r="E194" s="2">
-        <v>3.7228007316589356</v>
+        <v>3.721998929977417</v>
       </c>
     </row>
     <row r="195">
@@ -2547,13 +2547,13 @@
         <v>3.0482499599456787</v>
       </c>
       <c r="C195" s="2">
-        <v>3.0774574279785156</v>
+        <v>3.0764281749725342</v>
       </c>
       <c r="D195" s="2">
         <v>3.6284298896789551</v>
       </c>
       <c r="E195" s="2">
-        <v>3.5947766304016113</v>
+        <v>3.5939793586730957</v>
       </c>
     </row>
     <row r="196">
@@ -2564,13 +2564,13 @@
         <v>4.1255717277526855</v>
       </c>
       <c r="C196" s="2">
-        <v>4.0564999580383301</v>
+        <v>4.0559635162353516</v>
       </c>
       <c r="D196" s="2">
         <v>3.6339685916900635</v>
       </c>
       <c r="E196" s="2">
-        <v>3.6065001487731934</v>
+        <v>3.6056995391845703</v>
       </c>
     </row>
     <row r="197">
@@ -2581,13 +2581,13 @@
         <v>3.2238137722015381</v>
       </c>
       <c r="C197" s="2">
-        <v>3.3155031204223633</v>
+        <v>3.3141841888427734</v>
       </c>
       <c r="D197" s="2">
         <v>3.5637655258178711</v>
       </c>
       <c r="E197" s="2">
-        <v>3.532940149307251</v>
+        <v>3.5323507785797119</v>
       </c>
     </row>
     <row r="198">
@@ -2598,13 +2598,13 @@
         <v>3.6203534603118897</v>
       </c>
       <c r="C198" s="2">
-        <v>3.4758925437927246</v>
+        <v>3.4750864505767822</v>
       </c>
       <c r="D198" s="2">
         <v>3.4463129043579102</v>
       </c>
       <c r="E198" s="2">
-        <v>3.3991122245788574</v>
+        <v>3.3986279964447021</v>
       </c>
     </row>
     <row r="199">
@@ -2615,13 +2615,13 @@
         <v>3.3403892517089844</v>
       </c>
       <c r="C199" s="2">
-        <v>3.3582983016967774</v>
+        <v>3.3579006195068359</v>
       </c>
       <c r="D199" s="2">
         <v>3.4527311325073242</v>
       </c>
       <c r="E199" s="2">
-        <v>3.4224772453308105</v>
+        <v>3.422111988067627</v>
       </c>
     </row>
     <row r="200">
@@ -2632,13 +2632,13 @@
         <v>3.9641928672790527</v>
       </c>
       <c r="C200" s="2">
-        <v>3.888094425201416</v>
+        <v>3.8884930610656738</v>
       </c>
       <c r="D200" s="2">
         <v>3.5121605396270752</v>
       </c>
       <c r="E200" s="2">
-        <v>3.4829738140106201</v>
+        <v>3.4826598167419434</v>
       </c>
     </row>
     <row r="201">
@@ -2649,13 +2649,13 @@
         <v>3.4842512607574463</v>
       </c>
       <c r="C201" s="2">
-        <v>3.4632887840270996</v>
+        <v>3.4638307094573975</v>
       </c>
       <c r="D201" s="2">
         <v>3.3905034065246582</v>
       </c>
       <c r="E201" s="2">
-        <v>3.3658628463745117</v>
+        <v>3.3655650615692139</v>
       </c>
     </row>
     <row r="202">
@@ -2666,13 +2666,13 @@
         <v>3.0215303897857666</v>
       </c>
       <c r="C202" s="2">
-        <v>2.9179592132568359</v>
+        <v>2.9182488918304443</v>
       </c>
       <c r="D202" s="2">
         <v>3.4051318168640137</v>
       </c>
       <c r="E202" s="2">
-        <v>3.3599276542663574</v>
+        <v>3.3598463535308838</v>
       </c>
     </row>
     <row r="203">
@@ -2683,13 +2683,13 @@
         <v>3.2462267875671387</v>
       </c>
       <c r="C203" s="2">
-        <v>3.2493023872375488</v>
+        <v>3.2488718032836914</v>
       </c>
       <c r="D203" s="2">
         <v>3.3391690254211426</v>
       </c>
       <c r="E203" s="2">
-        <v>3.3105065822601318</v>
+        <v>3.3104419708251953</v>
       </c>
     </row>
     <row r="204">
@@ -2700,13 +2700,13 @@
         <v>3.5831162929534912</v>
       </c>
       <c r="C204" s="2">
-        <v>3.621924638748169</v>
+        <v>3.6213598251342773</v>
       </c>
       <c r="D204" s="2">
         <v>3.3376224040985107</v>
       </c>
       <c r="E204" s="2">
-        <v>3.292935848236084</v>
+        <v>3.2928812503814697</v>
       </c>
     </row>
     <row r="205">
@@ -2717,13 +2717,13 @@
         <v>3.0306565761566162</v>
       </c>
       <c r="C205" s="2">
-        <v>3.0025012493133545</v>
+        <v>3.0021090507507324</v>
       </c>
       <c r="D205" s="2">
         <v>3.2475378513336182</v>
       </c>
       <c r="E205" s="2">
-        <v>3.20025634765625</v>
+        <v>3.2002687454223633</v>
       </c>
     </row>
     <row r="206">
@@ -2734,13 +2734,13 @@
         <v>3.3554694652557373</v>
       </c>
       <c r="C206" s="2">
-        <v>3.2620863914489746</v>
+        <v>3.2627158164978027</v>
       </c>
       <c r="D206" s="2">
         <v>3.167449951171875</v>
       </c>
       <c r="E206" s="2">
-        <v>3.097557544708252</v>
+        <v>3.097524881362915</v>
       </c>
     </row>
     <row r="207">
@@ -2751,13 +2751,13 @@
         <v>3.0266876220703125</v>
       </c>
       <c r="C207" s="2">
-        <v>3.0311036109924316</v>
+        <v>3.0304489135742188</v>
       </c>
       <c r="D207" s="2">
         <v>3.191051721572876</v>
       </c>
       <c r="E207" s="2">
-        <v>3.1306326389312744</v>
+        <v>3.1304869651794434</v>
       </c>
     </row>
     <row r="208">
@@ -2768,13 +2768,13 @@
         <v>3.326469898223877</v>
       </c>
       <c r="C208" s="2">
-        <v>3.2001619338989258</v>
+        <v>3.1998538970947266</v>
       </c>
       <c r="D208" s="2">
         <v>3.1807165145874023</v>
       </c>
       <c r="E208" s="2">
-        <v>3.1266202926635742</v>
+        <v>3.1264035701751709</v>
       </c>
     </row>
     <row r="209">
@@ -2785,13 +2785,13 @@
         <v>3.1534333229064941</v>
       </c>
       <c r="C209" s="2">
-        <v>3.0539793968200684</v>
+        <v>3.0549802780151367</v>
       </c>
       <c r="D209" s="2">
         <v>3.1588447093963623</v>
       </c>
       <c r="E209" s="2">
-        <v>3.0964422225952148</v>
+        <v>3.0963258743286133</v>
       </c>
     </row>
     <row r="210">
@@ -2802,13 +2802,13 @@
         <v>2.7634584903717041</v>
       </c>
       <c r="C210" s="2">
-        <v>2.5390000343322754</v>
+        <v>2.5391345024108887</v>
       </c>
       <c r="D210" s="2">
         <v>3.1920223236083984</v>
       </c>
       <c r="E210" s="2">
-        <v>3.1324028968811035</v>
+        <v>3.1322181224822998</v>
       </c>
     </row>
     <row r="211">
@@ -2819,13 +2819,13 @@
         <v>3.2339470386505127</v>
       </c>
       <c r="C211" s="2">
-        <v>3.215634822845459</v>
+        <v>3.2149093151092529</v>
       </c>
       <c r="D211" s="2">
         <v>3.1167340278625488</v>
       </c>
       <c r="E211" s="2">
-        <v>3.0686013698577881</v>
+        <v>3.0682389736175537</v>
       </c>
     </row>
     <row r="212">
@@ -2836,13 +2836,13 @@
         <v>3.1532101631164551</v>
       </c>
       <c r="C212" s="2">
-        <v>3.2131900787353516</v>
+        <v>3.212120532989502</v>
       </c>
       <c r="D212" s="2">
         <v>3.1478762626647949</v>
       </c>
       <c r="E212" s="2">
-        <v>3.0709495544433594</v>
+        <v>3.0703985691070557</v>
       </c>
     </row>
     <row r="213">
@@ -2853,13 +2853,13 @@
         <v>3.3862698078155518</v>
       </c>
       <c r="C213" s="2">
-        <v>3.3503215312957764</v>
+        <v>3.3506612777709961</v>
       </c>
       <c r="D213" s="2">
         <v>3.1121904850006104</v>
       </c>
       <c r="E213" s="2">
-        <v>3.0249779224395752</v>
+        <v>3.024376392364502</v>
       </c>
     </row>
     <row r="214">
@@ -2870,13 +2870,13 @@
         <v>3.3292543888092041</v>
       </c>
       <c r="C214" s="2">
-        <v>3.3261477947235108</v>
+        <v>3.3251385688781738</v>
       </c>
       <c r="D214" s="2">
         <v>3.1172163486480713</v>
       </c>
       <c r="E214" s="2">
-        <v>3.024660587310791</v>
+        <v>3.0239858627319336</v>
       </c>
     </row>
     <row r="215">
@@ -2887,13 +2887,13 @@
         <v>2.6778759956359863</v>
       </c>
       <c r="C215" s="2">
-        <v>2.6878736019134522</v>
+        <v>2.6869041919708252</v>
       </c>
       <c r="D215" s="2">
         <v>3.1227946281433106</v>
       </c>
       <c r="E215" s="2">
-        <v>3.0181295871734619</v>
+        <v>3.0173661708831787</v>
       </c>
     </row>
     <row r="216">
@@ -2904,13 +2904,13 @@
         <v>3.3069674968719482</v>
       </c>
       <c r="C216" s="2">
-        <v>3.0522363185882568</v>
+        <v>3.049884557723999</v>
       </c>
       <c r="D216" s="2">
         <v>3.1679747104644775</v>
       </c>
       <c r="E216" s="2">
-        <v>3.050818681716919</v>
+        <v>3.0501499176025391</v>
       </c>
     </row>
     <row r="217">
@@ -2921,13 +2921,13 @@
         <v>3.0052967071533203</v>
       </c>
       <c r="C217" s="2">
-        <v>2.7864181995391846</v>
+        <v>2.7856545448303223</v>
       </c>
       <c r="D217" s="2">
         <v>3.1287002563476563</v>
       </c>
       <c r="E217" s="2">
-        <v>2.9648728370666504</v>
+        <v>2.9642126560211182</v>
       </c>
     </row>
     <row r="218">
@@ -2938,13 +2938,13 @@
         <v>3.1986663341522217</v>
       </c>
       <c r="C218" s="2">
-        <v>3.0511231422424316</v>
+        <v>3.0514647960662842</v>
       </c>
       <c r="D218" s="2">
         <v>3.1426537036895752</v>
       </c>
       <c r="E218" s="2">
-        <v>2.9765908718109131</v>
+        <v>2.9759917259216309</v>
       </c>
     </row>
     <row r="219">
@@ -2955,13 +2955,13 @@
         <v>2.8136639595031738</v>
       </c>
       <c r="C219" s="2">
-        <v>2.4802207946777344</v>
+        <v>2.479557991027832</v>
       </c>
       <c r="D219" s="2">
         <v>3.13094162940979</v>
       </c>
       <c r="E219" s="2">
-        <v>2.9345483779907227</v>
+        <v>2.9340362548828125</v>
       </c>
     </row>
     <row r="220">
@@ -2972,13 +2972,13 @@
         <v>3.6405684947967529</v>
       </c>
       <c r="C220" s="2">
-        <v>3.5098357200622559</v>
+        <v>3.5099618434906006</v>
       </c>
       <c r="D220" s="2">
         <v>3.2145609855651855</v>
       </c>
       <c r="E220" s="2">
-        <v>3.0243520736694336</v>
+        <v>3.0239415168762207</v>
       </c>
     </row>
     <row r="221">
@@ -2989,13 +2989,13 @@
         <v>2.7997400760650635</v>
       </c>
       <c r="C221" s="2">
-        <v>2.439678430557251</v>
+        <v>2.4386870861053467</v>
       </c>
       <c r="D221" s="2">
         <v>3.1816213130950928</v>
       </c>
       <c r="E221" s="2">
-        <v>3.0215773582458496</v>
+        <v>3.0213432312011719</v>
       </c>
     </row>
     <row r="222">
@@ -3006,13 +3006,13 @@
         <v>3.5118489265441895</v>
       </c>
       <c r="C222" s="2">
-        <v>3.4557845592498779</v>
+        <v>3.4566724300384521</v>
       </c>
       <c r="D222" s="2">
         <v>3.1948869228363037</v>
       </c>
       <c r="E222" s="2">
-        <v>3.0684995651245117</v>
+        <v>3.0682072639465332</v>
       </c>
     </row>
     <row r="223">
@@ -3023,13 +3023,13 @@
         <v>3.223846435546875</v>
       </c>
       <c r="C223" s="2">
-        <v>2.9477643966674805</v>
+        <v>2.9475390911102295</v>
       </c>
       <c r="D223" s="2">
         <v>3.2163012027740479</v>
       </c>
       <c r="E223" s="2">
-        <v>3.1051805019378662</v>
+        <v>3.1048030853271484</v>
       </c>
     </row>
     <row r="224">
@@ -3040,13 +3040,13 @@
         <v>3.430450439453125</v>
       </c>
       <c r="C224" s="2">
-        <v>3.4961061477661133</v>
+        <v>3.496051549911499</v>
       </c>
       <c r="D224" s="2">
         <v>3.2372779846191406</v>
       </c>
       <c r="E224" s="2">
-        <v>3.166393518447876</v>
+        <v>3.1659088134765625</v>
       </c>
     </row>
     <row r="225">
@@ -3057,13 +3057,13 @@
         <v>3.0105109214782715</v>
       </c>
       <c r="C225" s="2">
-        <v>3.0272648334503174</v>
+        <v>3.0264990329742432</v>
       </c>
       <c r="D225" s="2">
         <v>3.127838134765625</v>
       </c>
       <c r="E225" s="2">
-        <v>3.0753653049468994</v>
+        <v>3.0746936798095703</v>
       </c>
     </row>
     <row r="226">
@@ -3074,13 +3074,13 @@
         <v>3.1246864795684814</v>
       </c>
       <c r="C226" s="2">
-        <v>3.2087182998657227</v>
+        <v>3.2074310779571533</v>
       </c>
       <c r="D226" s="2">
         <v>3.1378114223480225</v>
       </c>
       <c r="E226" s="2">
-        <v>3.1038022041320801</v>
+        <v>3.1030712127685547</v>
       </c>
     </row>
     <row r="227">
@@ -3091,13 +3091,13 @@
         <v>3.3913955688476563</v>
       </c>
       <c r="C227" s="2">
-        <v>3.3812518119812012</v>
+        <v>3.3808274269104004</v>
       </c>
       <c r="D227" s="2">
         <v>3.0965931415557861</v>
       </c>
       <c r="E227" s="2">
-        <v>3.0604112148284912</v>
+        <v>3.0596294403076172</v>
       </c>
     </row>
     <row r="228">
@@ -3108,13 +3108,13 @@
         <v>3.0024549961090088</v>
       </c>
       <c r="C228" s="2">
-        <v>3.0311374664306641</v>
+        <v>3.0295088291168213</v>
       </c>
       <c r="D228" s="2">
         <v>3.0485906600952148</v>
       </c>
       <c r="E228" s="2">
-        <v>3.0200023651123047</v>
+        <v>3.0191771984100342</v>
       </c>
     </row>
     <row r="229">
@@ -3125,13 +3125,13 @@
         <v>2.6556093692779541</v>
       </c>
       <c r="C229" s="2">
-        <v>2.6905813217163086</v>
+        <v>2.6890256404876709</v>
       </c>
       <c r="D229" s="2">
         <v>2.9838063716888428</v>
       </c>
       <c r="E229" s="2">
-        <v>2.927619457244873</v>
+        <v>2.9266901016235352</v>
       </c>
     </row>
     <row r="230">
@@ -3142,13 +3142,13 @@
         <v>2.8895001411437988</v>
       </c>
       <c r="C230" s="2">
-        <v>2.6956117153167725</v>
+        <v>2.6940855979919434</v>
       </c>
       <c r="D230" s="2">
         <v>2.9771034717559814</v>
       </c>
       <c r="E230" s="2">
-        <v>2.9045383930206299</v>
+        <v>2.9035367965698242</v>
       </c>
     </row>
     <row r="231">
@@ -3159,13 +3159,13 @@
         <v>3.1408829689025879</v>
       </c>
       <c r="C231" s="2">
-        <v>3.0652651786804199</v>
+        <v>3.0656957626342773</v>
       </c>
       <c r="D231" s="2">
         <v>2.9764928817749024</v>
       </c>
       <c r="E231" s="2">
-        <v>2.9078085422515869</v>
+        <v>2.9067480564117432</v>
       </c>
     </row>
     <row r="232">
@@ -3176,13 +3176,13 @@
         <v>2.7918250560760498</v>
       </c>
       <c r="C232" s="2">
-        <v>2.5840849876403809</v>
+        <v>2.5834689140319824</v>
       </c>
       <c r="D232" s="2">
         <v>2.9911315441131592</v>
       </c>
       <c r="E232" s="2">
-        <v>2.9206910133361817</v>
+        <v>2.919677734375</v>
       </c>
     </row>
     <row r="233">
@@ -3193,13 +3193,13 @@
         <v>2.8473913669586182</v>
       </c>
       <c r="C233" s="2">
-        <v>2.6646595001220703</v>
+        <v>2.6636683940887451</v>
       </c>
       <c r="D233" s="2">
         <v>3.0460283756256104</v>
       </c>
       <c r="E233" s="2">
-        <v>2.965862512588501</v>
+        <v>2.9649503231048584</v>
       </c>
     </row>
     <row r="234">
@@ -3210,13 +3210,13 @@
         <v>2.9501862525939942</v>
       </c>
       <c r="C234" s="2">
-        <v>2.8195347785949707</v>
+        <v>2.8181185722351074</v>
       </c>
       <c r="D234" s="2">
         <v>3.0399088859558106</v>
       </c>
       <c r="E234" s="2">
-        <v>2.957089900970459</v>
+        <v>2.9563784599304199</v>
       </c>
     </row>
     <row r="235">
@@ -3227,13 +3227,13 @@
         <v>3.1191895008087158</v>
       </c>
       <c r="C235" s="2">
-        <v>3.238149881362915</v>
+        <v>3.2363333702087402</v>
       </c>
       <c r="D235" s="2">
         <v>3.1280696392059326</v>
       </c>
       <c r="E235" s="2">
-        <v>3.0760564804077148</v>
+        <v>3.0755441188812256</v>
       </c>
     </row>
     <row r="236">
@@ -3244,13 +3244,13 @@
         <v>3.5231449604034424</v>
       </c>
       <c r="C236" s="2">
-        <v>3.4971940517425537</v>
+        <v>3.4971950054168701</v>
       </c>
       <c r="D236" s="2">
         <v>3.1685526371002197</v>
       </c>
       <c r="E236" s="2">
-        <v>3.1349489688873291</v>
+        <v>3.1342887878417969</v>
       </c>
     </row>
     <row r="237">
@@ -3261,13 +3261,13 @@
         <v>3.4965260028839111</v>
       </c>
       <c r="C237" s="2">
-        <v>3.4376811981201172</v>
+        <v>3.4369606971740723</v>
       </c>
       <c r="D237" s="2">
         <v>3.2153244018554688</v>
       </c>
       <c r="E237" s="2">
-        <v>3.1788125038146973</v>
+        <v>3.1782040596008301</v>
       </c>
     </row>
     <row r="238">
@@ -3278,13 +3278,13 @@
         <v>2.6005332469940186</v>
       </c>
       <c r="C238" s="2">
-        <v>2.6116282939910889</v>
+        <v>2.6118805408477783</v>
       </c>
       <c r="D238" s="2">
         <v>3.2169513702392578</v>
       </c>
       <c r="E238" s="2">
-        <v>3.207195520401001</v>
+        <v>3.2067775726318359</v>
       </c>
     </row>
     <row r="239">
@@ -3295,13 +3295,13 @@
         <v>3.6829466819763184</v>
       </c>
       <c r="C239" s="2">
-        <v>3.7663102149963379</v>
+        <v>3.7665750980377197</v>
       </c>
       <c r="D239" s="2">
         <v>3.1889281272888184</v>
       </c>
       <c r="E239" s="2">
-        <v>3.1952755451202393</v>
+        <v>3.1949310302734375</v>
       </c>
     </row>
     <row r="240">
@@ -3312,13 +3312,13 @@
         <v>3.505230188369751</v>
       </c>
       <c r="C240" s="2">
-        <v>3.5952985286712646</v>
+        <v>3.5943980216979981</v>
       </c>
       <c r="D240" s="2">
         <v>3.2115790843963623</v>
       </c>
       <c r="E240" s="2">
-        <v>3.1904518604278565</v>
+        <v>3.1902086734771729</v>
       </c>
     </row>
     <row r="241">
@@ -3329,13 +3329,13 @@
         <v>3.2127711772918701</v>
       </c>
       <c r="C241" s="2">
-        <v>2.9788558483123779</v>
+        <v>2.9787068367004395</v>
       </c>
       <c r="D241" s="2">
         <v>3.0848937034606934</v>
       </c>
       <c r="E241" s="2">
-        <v>3.0739462375640869</v>
+        <v>3.0735864639282227</v>
       </c>
     </row>
     <row r="242">
@@ -3346,13 +3346,13 @@
         <v>2.8620338439941406</v>
       </c>
       <c r="C242" s="2">
-        <v>2.9201066493988037</v>
+        <v>2.9208295345306396</v>
       </c>
       <c r="D242" s="2">
         <v>3.0242416858673096</v>
       </c>
       <c r="E242" s="2">
-        <v>3.0106143951416016</v>
+        <v>3.0101883411407471</v>
       </c>
     </row>
     <row r="243">
@@ -3363,13 +3363,13 @@
         <v>2.6979777812957764</v>
       </c>
       <c r="C243" s="2">
-        <v>2.7122542858123779</v>
+        <v>2.711500883102417</v>
       </c>
       <c r="D243" s="2">
         <v>3.0114040374755859</v>
       </c>
       <c r="E243" s="2">
-        <v>2.9894645214080811</v>
+        <v>2.9889340400695801</v>
       </c>
     </row>
     <row r="244">
@@ -3380,13 +3380,13 @@
         <v>3.3230476379394531</v>
       </c>
       <c r="C244" s="2">
-        <v>3.1947381496429443</v>
+        <v>3.1938307285308838</v>
       </c>
       <c r="D244" s="2">
         <v>2.8580513000488281</v>
       </c>
       <c r="E244" s="2">
-        <v>2.8341224193572998</v>
+        <v>2.8333671092987061</v>
       </c>
     </row>
     <row r="245">
@@ -3397,13 +3397,13 @@
         <v>2.3829770088195801</v>
       </c>
       <c r="C245" s="2">
-        <v>2.4486434459686279</v>
+        <v>2.4475967884063721</v>
       </c>
       <c r="D245" s="2">
         <v>2.7454192638397217</v>
       </c>
       <c r="E245" s="2">
-        <v>2.7021646499633789</v>
+        <v>2.7012996673583984</v>
       </c>
     </row>
     <row r="246">
@@ -3414,13 +3414,13 @@
         <v>2.9506573677062988</v>
       </c>
       <c r="C246" s="2">
-        <v>2.8676950931549072</v>
+        <v>2.8663773536682129</v>
       </c>
       <c r="D246" s="2">
         <v>2.7061033248901367</v>
       </c>
       <c r="E246" s="2">
-        <v>2.6711077690124512</v>
+        <v>2.6703979969024658</v>
       </c>
     </row>
     <row r="247">
@@ -3431,13 +3431,13 @@
         <v>2.4849939346313477</v>
       </c>
       <c r="C247" s="2">
-        <v>2.4212794303894043</v>
+        <v>2.4205911159515381</v>
       </c>
       <c r="D247" s="2">
         <v>2.6917681694030762</v>
       </c>
       <c r="E247" s="2">
-        <v>2.6341924667358399</v>
+        <v>2.6333482265472412</v>
       </c>
     </row>
     <row r="248">
@@ -3448,13 +3448,13 @@
         <v>2.302772045135498</v>
       </c>
       <c r="C248" s="2">
-        <v>2.3682293891906738</v>
+        <v>2.3664731979370117</v>
       </c>
       <c r="D248" s="2">
         <v>2.7224681377410889</v>
       </c>
       <c r="E248" s="2">
-        <v>2.6687583923339844</v>
+        <v>2.6677765846252442</v>
       </c>
     </row>
     <row r="249">
@@ -3465,13 +3465,13 @@
         <v>2.4915425777435303</v>
       </c>
       <c r="C249" s="2">
-        <v>2.4076790809631348</v>
+        <v>2.4057900905609131</v>
       </c>
       <c r="D249" s="2">
         <v>2.6708219051361084</v>
       </c>
       <c r="E249" s="2">
-        <v>2.6082642078399658</v>
+        <v>2.6073527336120605</v>
       </c>
     </row>
     <row r="250">
@@ -3482,13 +3482,13 @@
         <v>2.8589277267456055</v>
       </c>
       <c r="C250" s="2">
-        <v>2.6993441581726074</v>
+        <v>2.7005922794342041</v>
       </c>
       <c r="D250" s="2">
         <v>2.7147762775421143</v>
       </c>
       <c r="E250" s="2">
-        <v>2.6414332389831543</v>
+        <v>2.6405947208404541</v>
       </c>
     </row>
     <row r="251">
@@ -3499,13 +3499,13 @@
         <v>2.7330176830291748</v>
       </c>
       <c r="C251" s="2">
-        <v>2.5878691673278809</v>
+        <v>2.5873825550079346</v>
       </c>
       <c r="D251" s="2">
         <v>2.6843230724334717</v>
       </c>
       <c r="E251" s="2">
-        <v>2.6085004806518555</v>
+        <v>2.6077196598052979</v>
       </c>
     </row>
     <row r="252">
@@ -3516,13 +3516,13 @@
         <v>2.9742763042449951</v>
       </c>
       <c r="C252" s="2">
-        <v>3.0233469009399414</v>
+        <v>3.021355152130127</v>
       </c>
       <c r="D252" s="2">
         <v>2.7008523941040039</v>
       </c>
       <c r="E252" s="2">
-        <v>2.6149821281433105</v>
+        <v>2.6142456531524658</v>
       </c>
     </row>
     <row r="253">
@@ -3533,13 +3533,13 @@
         <v>2.8582320213317871</v>
       </c>
       <c r="C253" s="2">
-        <v>2.650291919708252</v>
+        <v>2.6500167846679688</v>
       </c>
       <c r="D253" s="2">
         <v>2.7425746917724609</v>
       </c>
       <c r="E253" s="2">
-        <v>2.646857738494873</v>
+        <v>2.6460995674133301</v>
       </c>
     </row>
     <row r="254">
@@ -3550,13 +3550,13 @@
         <v>2.7785665988922119</v>
       </c>
       <c r="C254" s="2">
-        <v>2.7471640110015869</v>
+        <v>2.7467730045318604</v>
       </c>
       <c r="D254" s="2">
         <v>2.7578179836273193</v>
       </c>
       <c r="E254" s="2">
-        <v>2.6634664535522461</v>
+        <v>2.6628680229187012</v>
       </c>
     </row>
     <row r="255">
@@ -3567,13 +3567,13 @@
         <v>2.6765787601470947</v>
       </c>
       <c r="C255" s="2">
-        <v>2.5713009834289551</v>
+        <v>2.5705029964447021</v>
       </c>
       <c r="D255" s="2">
         <v>2.7331204414367676</v>
       </c>
       <c r="E255" s="2">
-        <v>2.6640338897705078</v>
+        <v>2.6631760597229004</v>
       </c>
     </row>
     <row r="256">
@@ -3584,13 +3584,13 @@
         <v>2.6337580680847168</v>
       </c>
       <c r="C256" s="2">
-        <v>2.4796125888824463</v>
+        <v>2.4793257713317871</v>
       </c>
       <c r="D256" s="2">
         <v>2.7129490375518799</v>
       </c>
       <c r="E256" s="2">
-        <v>2.6636614799499512</v>
+        <v>2.6627871990203857</v>
       </c>
     </row>
     <row r="257">
@@ -3601,13 +3601,13 @@
         <v>2.678272008895874</v>
       </c>
       <c r="C257" s="2">
-        <v>2.6551117897033692</v>
+        <v>2.6531565189361572</v>
       </c>
       <c r="D257" s="2">
         <v>2.7248332500457764</v>
       </c>
       <c r="E257" s="2">
-        <v>2.6614267826080322</v>
+        <v>2.6608285903930664</v>
       </c>
     </row>
     <row r="258">
@@ -3618,13 +3618,13 @@
         <v>2.6287331581115723</v>
       </c>
       <c r="C258" s="2">
-        <v>2.5571556091308594</v>
+        <v>2.556706428527832</v>
       </c>
       <c r="D258" s="2">
         <v>2.7202703952789307</v>
       </c>
       <c r="E258" s="2">
-        <v>2.6648707389831543</v>
+        <v>2.6643106937408447</v>
       </c>
     </row>
     <row r="259">
@@ -3635,13 +3635,13 @@
         <v>2.636648416519165</v>
       </c>
       <c r="C259" s="2">
-        <v>2.7044527530670166</v>
+        <v>2.7033658027648926</v>
       </c>
       <c r="D259" s="2">
         <v>2.6817796230316162</v>
       </c>
       <c r="E259" s="2">
-        <v>2.6068642139434815</v>
+        <v>2.6063926219940186</v>
       </c>
     </row>
     <row r="260">
@@ -3652,13 +3652,13 @@
         <v>2.5514752864837647</v>
       </c>
       <c r="C260" s="2">
-        <v>2.5845174789428711</v>
+        <v>2.5838823318481445</v>
       </c>
       <c r="D260" s="2">
         <v>2.6873016357421875</v>
       </c>
       <c r="E260" s="2">
-        <v>2.6224782466888428</v>
+        <v>2.6220123767852783</v>
       </c>
     </row>
     <row r="261">
@@ -3669,13 +3669,13 @@
         <v>3.0812349319458008</v>
       </c>
       <c r="C261" s="2">
-        <v>3.0032329559326172</v>
+        <v>3.0037267208099365</v>
       </c>
       <c r="D261" s="2">
         <v>2.7034556865692139</v>
       </c>
       <c r="E261" s="2">
-        <v>2.6544566154479981</v>
+        <v>2.653883695602417</v>
       </c>
     </row>
     <row r="262">
@@ -3686,13 +3686,13 @@
         <v>2.8171656131744385</v>
       </c>
       <c r="C262" s="2">
-        <v>2.6812875270843506</v>
+        <v>2.6813569068908691</v>
       </c>
       <c r="D262" s="2">
         <v>2.6964144706726074</v>
       </c>
       <c r="E262" s="2">
-        <v>2.6253767013549805</v>
+        <v>2.6249485015869141</v>
       </c>
     </row>
     <row r="263">
@@ -3703,13 +3703,13 @@
         <v>2.4321508407592774</v>
       </c>
       <c r="C263" s="2">
-        <v>2.2251067161560059</v>
+        <v>2.2255091667175293</v>
       </c>
       <c r="D263" s="2">
         <v>2.6909148693084717</v>
       </c>
       <c r="E263" s="2">
-        <v>2.6169500350952148</v>
+        <v>2.6164913177490234</v>
       </c>
     </row>
     <row r="264">
@@ -3720,13 +3720,13 @@
         <v>2.7262763977050781</v>
       </c>
       <c r="C264" s="2">
-        <v>2.7118263244628906</v>
+        <v>2.71108078956604</v>
       </c>
       <c r="D264" s="2">
         <v>2.7549972534179688</v>
       </c>
       <c r="E264" s="2">
-        <v>2.6548418998718262</v>
+        <v>2.6543986797332764</v>
       </c>
     </row>
     <row r="265">
@@ -3737,13 +3737,13 @@
         <v>2.779144287109375</v>
       </c>
       <c r="C265" s="2">
-        <v>2.7674176692962646</v>
+        <v>2.7661678791046143</v>
       </c>
       <c r="D265" s="2">
         <v>2.8090832233428955</v>
       </c>
       <c r="E265" s="2">
-        <v>2.6843445301055908</v>
+        <v>2.683912992477417</v>
       </c>
     </row>
     <row r="266">
@@ -3754,13 +3754,13 @@
         <v>2.6149022579193115</v>
       </c>
       <c r="C266" s="2">
-        <v>2.3933942317962646</v>
+        <v>2.3927404880523682</v>
       </c>
       <c r="D266" s="2">
         <v>2.768094539642334</v>
       </c>
       <c r="E266" s="2">
-        <v>2.6416778564453125</v>
+        <v>2.6411073207855225</v>
       </c>
     </row>
     <row r="267">
@@ -3771,13 +3771,13 @@
         <v>2.5792360305786133</v>
       </c>
       <c r="C267" s="2">
-        <v>2.4813146591186524</v>
+        <v>2.4805917739868164</v>
       </c>
       <c r="D267" s="2">
         <v>2.8302388191223145</v>
       </c>
       <c r="E267" s="2">
-        <v>2.7125215530395508</v>
+        <v>2.7118897438049316</v>
       </c>
     </row>
     <row r="268">
@@ -3788,13 +3788,13 @@
         <v>3.2133891582489014</v>
       </c>
       <c r="C268" s="2">
-        <v>3.0454797744750977</v>
+        <v>3.0445318222045899</v>
       </c>
       <c r="D268" s="2">
         <v>2.8525166511535645</v>
       </c>
       <c r="E268" s="2">
-        <v>2.7600269317626953</v>
+        <v>2.7592959403991699</v>
       </c>
     </row>
     <row r="269">
@@ -3805,13 +3805,13 @@
         <v>3.0382492542266846</v>
       </c>
       <c r="C269" s="2">
-        <v>2.8500406742095947</v>
+        <v>2.8495118618011475</v>
       </c>
       <c r="D269" s="2">
         <v>2.8651344776153565</v>
       </c>
       <c r="E269" s="2">
-        <v>2.740225076675415</v>
+        <v>2.7396228313446045</v>
       </c>
     </row>
     <row r="270">
@@ -3822,13 +3822,13 @@
         <v>2.7123379707336426</v>
       </c>
       <c r="C270" s="2">
-        <v>2.6192328929901123</v>
+        <v>2.6184749603271484</v>
       </c>
       <c r="D270" s="2">
         <v>2.8804192543029785</v>
       </c>
       <c r="E270" s="2">
-        <v>2.7538537979125977</v>
+        <v>2.7533602714538574</v>
       </c>
     </row>
     <row r="271">
@@ -3839,13 +3839,13 @@
         <v>3.3764641284942627</v>
       </c>
       <c r="C271" s="2">
-        <v>3.3188817501068115</v>
+        <v>3.3183984756469727</v>
       </c>
       <c r="D271" s="2">
         <v>2.9208593368530273</v>
       </c>
       <c r="E271" s="2">
-        <v>2.8060805797576904</v>
+        <v>2.805635929107666</v>
       </c>
     </row>
     <row r="272">
@@ -3856,13 +3856,13 @@
         <v>2.6326503753662109</v>
       </c>
       <c r="C272" s="2">
-        <v>2.6526534557342529</v>
+        <v>2.6521658897399902</v>
       </c>
       <c r="D272" s="2">
         <v>3.0039057731628418</v>
       </c>
       <c r="E272" s="2">
-        <v>2.9034581184387207</v>
+        <v>2.9030532836914063</v>
       </c>
     </row>
     <row r="273">
@@ -3873,13 +3873,13 @@
         <v>2.8398375511169434</v>
       </c>
       <c r="C273" s="2">
-        <v>2.5336101055145264</v>
+        <v>2.5340232849121094</v>
       </c>
       <c r="D273" s="2">
         <v>2.9937937259674072</v>
       </c>
       <c r="E273" s="2">
-        <v>2.9050357341766357</v>
+        <v>2.9046816825866699</v>
       </c>
     </row>
     <row r="274">
@@ -3890,13 +3890,13 @@
         <v>2.9167056083679199</v>
       </c>
       <c r="C274" s="2">
-        <v>2.8900775909423828</v>
+        <v>2.8898036479949951</v>
       </c>
       <c r="D274" s="2">
         <v>2.9863662719726563</v>
       </c>
       <c r="E274" s="2">
-        <v>2.9187946319580078</v>
+        <v>2.9185059070587158</v>
       </c>
     </row>
     <row r="275">
@@ -3907,13 +3907,13 @@
         <v>2.9788649082183838</v>
       </c>
       <c r="C275" s="2">
-        <v>2.8634335994720459</v>
+        <v>2.8632209300994873</v>
       </c>
       <c r="D275" s="2">
         <v>2.9935076236724854</v>
       </c>
       <c r="E275" s="2">
-        <v>2.9292497634887695</v>
+        <v>2.9289865493774414</v>
       </c>
     </row>
     <row r="276">
@@ -3924,13 +3924,13 @@
         <v>3.3266537189483643</v>
       </c>
       <c r="C276" s="2">
-        <v>3.3577127456665039</v>
+        <v>3.3573479652404785</v>
       </c>
       <c r="D276" s="2">
         <v>2.9609360694885254</v>
       </c>
       <c r="E276" s="2">
-        <v>2.8963167667388916</v>
+        <v>2.8961050510406494</v>
       </c>
     </row>
     <row r="277">
@@ -3941,13 +3941,13 @@
         <v>3.1223795413970947</v>
       </c>
       <c r="C277" s="2">
-        <v>3.0596785545349121</v>
+        <v>3.0591886043548584</v>
       </c>
       <c r="D277" s="2">
         <v>3.0026471614837646</v>
       </c>
       <c r="E277" s="2">
-        <v>2.9237170219421387</v>
+        <v>2.9235053062438965</v>
       </c>
     </row>
     <row r="278">
@@ -3958,13 +3958,13 @@
         <v>2.9714028835296631</v>
       </c>
       <c r="C278" s="2">
-        <v>2.9738717079162598</v>
+        <v>2.9739298820495605</v>
       </c>
       <c r="D278" s="2">
         <v>3.0358569622039795</v>
       </c>
       <c r="E278" s="2">
-        <v>2.9897632598876953</v>
+        <v>2.9895172119140625</v>
       </c>
     </row>
     <row r="279">
@@ -3975,13 +3975,13 @@
         <v>2.7766101360321045</v>
       </c>
       <c r="C279" s="2">
-        <v>2.7133276462554932</v>
+        <v>2.7128000259399414</v>
       </c>
       <c r="D279" s="2">
         <v>3.0247781276702881</v>
       </c>
       <c r="E279" s="2">
-        <v>2.9542162418365479</v>
+        <v>2.9541029930114746</v>
       </c>
     </row>
     <row r="280">
@@ -3992,13 +3992,13 @@
         <v>3.083319902420044</v>
       </c>
       <c r="C280" s="2">
-        <v>3.0224845409393311</v>
+        <v>3.0224645137786865</v>
       </c>
       <c r="D280" s="2">
         <v>3.0043797492980957</v>
       </c>
       <c r="E280" s="2">
-        <v>2.9390180110931397</v>
+        <v>2.938828706741333</v>
       </c>
     </row>
     <row r="281">
@@ -4009,13 +4009,13 @@
         <v>3.0080509185791016</v>
       </c>
       <c r="C281" s="2">
-        <v>2.8992559909820557</v>
+        <v>2.8987679481506348</v>
       </c>
       <c r="D281" s="2">
         <v>2.9357397556304932</v>
       </c>
       <c r="E281" s="2">
-        <v>2.8588783740997315</v>
+        <v>2.8585371971130371</v>
       </c>
     </row>
     <row r="282">
@@ -4026,13 +4026,13 @@
         <v>3.1387259960174561</v>
       </c>
       <c r="C282" s="2">
-        <v>3.1280272006988525</v>
+        <v>3.1281321048736572</v>
       </c>
       <c r="D282" s="2">
         <v>2.8883428573608398</v>
       </c>
       <c r="E282" s="2">
-        <v>2.807398796081543</v>
+        <v>2.8068890571594238</v>
       </c>
     </row>
     <row r="283">
@@ -4043,13 +4043,13 @@
         <v>2.8169944286346436</v>
       </c>
       <c r="C283" s="2">
-        <v>2.5701537132263184</v>
+        <v>2.571075439453125</v>
       </c>
       <c r="D283" s="2">
         <v>2.8581039905548096</v>
       </c>
       <c r="E283" s="2">
-        <v>2.7960464954376221</v>
+        <v>2.7952861785888672</v>
       </c>
     </row>
     <row r="284">
@@ -4060,13 +4060,13 @@
         <v>2.795280933380127</v>
       </c>
       <c r="C284" s="2">
-        <v>2.7266504764556885</v>
+        <v>2.7257518768310547</v>
       </c>
       <c r="D284" s="2">
         <v>2.8784995079040527</v>
       </c>
       <c r="E284" s="2">
-        <v>2.8114042282104492</v>
+        <v>2.8105347156524658</v>
       </c>
     </row>
     <row r="285">
@@ -4077,13 +4077,13 @@
         <v>2.7088937759399414</v>
       </c>
       <c r="C285" s="2">
-        <v>2.6364560127258301</v>
+        <v>2.6347243785858154</v>
       </c>
       <c r="D285" s="2">
         <v>2.9298126697540283</v>
       </c>
       <c r="E285" s="2">
-        <v>2.8751151561737061</v>
+        <v>2.8742847442626953</v>
       </c>
     </row>
     <row r="286">
@@ -4094,13 +4094,13 @@
         <v>2.6958062648773193</v>
       </c>
       <c r="C286" s="2">
-        <v>2.5963609218597412</v>
+        <v>2.594355583190918</v>
       </c>
       <c r="D286" s="2">
         <v>2.8711872100830078</v>
       </c>
       <c r="E286" s="2">
-        <v>2.8245308399200439</v>
+        <v>2.8238186836242676</v>
       </c>
     </row>
     <row r="287">
@@ -4111,13 +4111,13 @@
         <v>2.6992526054382324</v>
       </c>
       <c r="C287" s="2">
-        <v>2.8717029094696045</v>
+        <v>2.8695037364959717</v>
       </c>
       <c r="D287" s="2">
         <v>2.8382124900817871</v>
       </c>
       <c r="E287" s="2">
-        <v>2.7888641357421875</v>
+        <v>2.7880442142486572</v>
       </c>
     </row>
     <row r="288">
@@ -4128,13 +4128,13 @@
         <v>2.9601714611053467</v>
       </c>
       <c r="C288" s="2">
-        <v>2.8515467643737793</v>
+        <v>2.8500370979309082</v>
       </c>
       <c r="D288" s="2">
         <v>2.8817493915557861</v>
       </c>
       <c r="E288" s="2">
-        <v>2.8545019626617432</v>
+        <v>2.853482723236084</v>
       </c>
     </row>
     <row r="289">
@@ -4145,13 +4145,13 @@
         <v>3.5451385974884033</v>
       </c>
       <c r="C289" s="2">
-        <v>3.5958824157714844</v>
+        <v>3.5962135791778565</v>
       </c>
       <c r="D289" s="2">
         <v>2.9315910339355469</v>
       </c>
       <c r="E289" s="2">
-        <v>2.8981599807739258</v>
+        <v>2.8971340656280518</v>
       </c>
     </row>
     <row r="290">
@@ -4162,13 +4162,13 @@
         <v>2.4804210662841797</v>
       </c>
       <c r="C290" s="2">
-        <v>2.4439961910247803</v>
+        <v>2.4445745944976807</v>
       </c>
       <c r="D290" s="2">
         <v>2.9121754169464111</v>
       </c>
       <c r="E290" s="2">
-        <v>2.8800206184387207</v>
+        <v>2.8789904117584229</v>
       </c>
     </row>
     <row r="291">
@@ -4179,13 +4179,13 @@
         <v>2.841954231262207</v>
       </c>
       <c r="C291" s="2">
-        <v>2.8070278167724609</v>
+        <v>2.8061625957489014</v>
       </c>
       <c r="D291" s="2">
         <v>2.932633638381958</v>
       </c>
       <c r="E291" s="2">
-        <v>2.9024267196655273</v>
+        <v>2.9014408588409424</v>
       </c>
     </row>
     <row r="292">
@@ -4196,13 +4196,13 @@
         <v>3.2088251113891602</v>
       </c>
       <c r="C292" s="2">
-        <v>3.1608948707580567</v>
+        <v>3.1600217819213867</v>
       </c>
       <c r="D292" s="2">
         <v>2.9704816341400147</v>
       </c>
       <c r="E292" s="2">
-        <v>2.9156105518341064</v>
+        <v>2.914968729019165</v>
       </c>
     </row>
     <row r="293">
@@ -4213,13 +4213,13 @@
         <v>3.2438561916351318</v>
       </c>
       <c r="C293" s="2">
-        <v>3.1195719242095947</v>
+        <v>3.1186132431030273</v>
       </c>
       <c r="D293" s="2">
         <v>2.9342086315155029</v>
       </c>
       <c r="E293" s="2">
-        <v>2.8910236358642578</v>
+        <v>2.8906590938568115</v>
       </c>
     </row>
     <row r="294">
@@ -4230,13 +4230,13 @@
         <v>2.5341536998748779</v>
       </c>
       <c r="C294" s="2">
-        <v>2.4732010364532471</v>
+        <v>2.4714314937591553</v>
       </c>
       <c r="D294" s="2">
         <v>2.8772158622741699</v>
       </c>
       <c r="E294" s="2">
-        <v>2.8113479614257813</v>
+        <v>2.8108692169189453</v>
       </c>
     </row>
     <row r="295">
@@ -4247,13 +4247,13 @@
         <v>2.879929780960083</v>
       </c>
       <c r="C295" s="2">
-        <v>2.7980163097381592</v>
+        <v>2.796410083770752</v>
       </c>
       <c r="D295" s="2">
         <v>2.9354000091552734</v>
       </c>
       <c r="E295" s="2">
-        <v>2.8651111125946045</v>
+        <v>2.8643944263458252</v>
       </c>
     </row>
     <row r="296">
@@ -4264,13 +4264,13 @@
         <v>3.0398852825164795</v>
       </c>
       <c r="C296" s="2">
-        <v>2.9903583526611328</v>
+        <v>2.9912536144256592</v>
       </c>
       <c r="D296" s="2">
         <v>2.9405057430267334</v>
       </c>
       <c r="E296" s="2">
-        <v>2.8416914939880371</v>
+        <v>2.8411915302276611</v>
       </c>
     </row>
     <row r="297">
@@ -4281,13 +4281,13 @@
         <v>2.6337132453918457</v>
       </c>
       <c r="C297" s="2">
-        <v>2.6302633285522461</v>
+        <v>2.6312503814697266</v>
       </c>
       <c r="D297" s="2">
         <v>2.9440460205078125</v>
       </c>
       <c r="E297" s="2">
-        <v>2.8439736366271973</v>
+        <v>2.8435108661651611</v>
       </c>
     </row>
     <row r="298">
@@ -4298,13 +4298,13 @@
         <v>3.0322039127349854</v>
       </c>
       <c r="C298" s="2">
-        <v>2.8788018226623535</v>
+        <v>2.8781044483184815</v>
       </c>
       <c r="D298" s="2">
         <v>2.888934850692749</v>
       </c>
       <c r="E298" s="2">
-        <v>2.7937905788421631</v>
+        <v>2.7933738231658936</v>
       </c>
     </row>
     <row r="299">
@@ -4315,13 +4315,13 @@
         <v>3.0040779113769531</v>
       </c>
       <c r="C299" s="2">
-        <v>2.9278640747070313</v>
+        <v>2.9263012409210205</v>
       </c>
       <c r="D299" s="2">
         <v>2.9606404304504395</v>
       </c>
       <c r="E299" s="2">
-        <v>2.8886394500732422</v>
+        <v>2.8882107734680176</v>
       </c>
     </row>
     <row r="300">
@@ -4332,13 +4332,13 @@
         <v>2.8879055976867676</v>
       </c>
       <c r="C300" s="2">
-        <v>2.5962512493133545</v>
+        <v>2.5973384380340576</v>
       </c>
       <c r="D300" s="2">
         <v>2.9479122161865234</v>
       </c>
       <c r="E300" s="2">
-        <v>2.8983550071716309</v>
+        <v>2.8978271484375</v>
       </c>
     </row>
     <row r="301">
@@ -4349,13 +4349,13 @@
         <v>3.2406888008117676</v>
       </c>
       <c r="C301" s="2">
-        <v>3.1814348697662354</v>
+        <v>3.1808938980102539</v>
       </c>
       <c r="D301" s="2">
         <v>3.0099730491638184</v>
       </c>
       <c r="E301" s="2">
-        <v>2.9322032928466797</v>
+        <v>2.9314558506011963</v>
       </c>
     </row>
     <row r="302">
@@ -4366,13 +4366,13 @@
         <v>2.7478563785552979</v>
       </c>
       <c r="C302" s="2">
-        <v>2.6679232120513916</v>
+        <v>2.6673812866210938</v>
       </c>
       <c r="D302" s="2">
         <v>3.0016026496887207</v>
       </c>
       <c r="E302" s="2">
-        <v>2.9201343059539795</v>
+        <v>2.9192090034484863</v>
       </c>
     </row>
     <row r="303">
@@ -4383,13 +4383,13 @@
         <v>3.1795029640197754</v>
       </c>
       <c r="C303" s="2">
-        <v>3.3268425464630127</v>
+        <v>3.3249645233154297</v>
       </c>
       <c r="D303" s="2">
         <v>2.9876425266265869</v>
       </c>
       <c r="E303" s="2">
-        <v>2.9253990650177002</v>
+        <v>2.9244334697723389</v>
       </c>
     </row>
     <row r="304">
@@ -4400,13 +4400,13 @@
         <v>2.7653753757476807</v>
       </c>
       <c r="C304" s="2">
-        <v>2.8854553699493408</v>
+        <v>2.8829565048217773</v>
       </c>
       <c r="D304" s="2">
         <v>2.9952743053436279</v>
       </c>
       <c r="E304" s="2">
-        <v>2.9281923770904541</v>
+        <v>2.927262544631958</v>
       </c>
     </row>
     <row r="305">
@@ -4417,13 +4417,13 @@
         <v>3.5984334945678711</v>
       </c>
       <c r="C305" s="2">
-        <v>3.2949938774108887</v>
+        <v>3.2939116954803467</v>
       </c>
       <c r="D305" s="2">
         <v>3.0517692565917969</v>
       </c>
       <c r="E305" s="2">
-        <v>3.0129318237304688</v>
+        <v>3.0117590427398682</v>
       </c>
     </row>
     <row r="306">
@@ -4434,13 +4434,13 @@
         <v>2.5583784580230713</v>
       </c>
       <c r="C306" s="2">
-        <v>2.521641731262207</v>
+        <v>2.5210292339324951</v>
       </c>
       <c r="D306" s="2">
         <v>3.0155408382415771</v>
       </c>
       <c r="E306" s="2">
-        <v>2.9821181297302246</v>
+        <v>2.9809727668762207</v>
       </c>
     </row>
     <row r="307">
@@ -4451,13 +4451,13 @@
         <v>2.9065632820129395</v>
       </c>
       <c r="C307" s="2">
-        <v>2.926184892654419</v>
+        <v>2.9251248836517334</v>
       </c>
       <c r="D307" s="2">
         <v>3.0446062088012695</v>
       </c>
       <c r="E307" s="2">
-        <v>3.0230369567871094</v>
+        <v>3.0218007564544678</v>
       </c>
     </row>
     <row r="308">
@@ -4468,13 +4468,13 @@
         <v>3.0727653503417969</v>
       </c>
       <c r="C308" s="2">
-        <v>2.9530029296875</v>
+        <v>2.9517624378204346</v>
       </c>
       <c r="D308" s="2">
         <v>2.9843366146087647</v>
       </c>
       <c r="E308" s="2">
-        <v>2.9449658393859863</v>
+        <v>2.9437658786773682</v>
       </c>
     </row>
     <row r="309">
@@ -4485,13 +4485,13 @@
         <v>3.396359920501709</v>
       </c>
       <c r="C309" s="2">
-        <v>3.3589067459106445</v>
+        <v>3.3578073978424072</v>
       </c>
       <c r="D309" s="2">
         <v>2.9754116535186768</v>
       </c>
       <c r="E309" s="2">
-        <v>2.9150729179382324</v>
+        <v>2.9140243530273438</v>
       </c>
     </row>
     <row r="310">
@@ -4502,13 +4502,13 @@
         <v>2.9146325588226318</v>
       </c>
       <c r="C310" s="2">
-        <v>2.9041116237640381</v>
+        <v>2.9038176536560059</v>
       </c>
       <c r="D310" s="2">
         <v>2.8857958316802979</v>
       </c>
       <c r="E310" s="2">
-        <v>2.8650469779968262</v>
+        <v>2.8639676570892334</v>
       </c>
     </row>
     <row r="311">
@@ -4519,13 +4519,13 @@
         <v>3.009443998336792</v>
       </c>
       <c r="C311" s="2">
-        <v>3.0361921787261963</v>
+        <v>3.0348331928253174</v>
       </c>
       <c r="D311" s="2">
         <v>2.9076120853424072</v>
       </c>
       <c r="E311" s="2">
-        <v>2.8886799812316895</v>
+        <v>2.8875489234924316</v>
       </c>
     </row>
     <row r="312">
@@ -4536,13 +4536,13 @@
         <v>2.6370763778686524</v>
       </c>
       <c r="C312" s="2">
-        <v>2.6242029666900635</v>
+        <v>2.6226508617401123</v>
       </c>
       <c r="D312" s="2">
         <v>2.9007503986358643</v>
       </c>
       <c r="E312" s="2">
-        <v>2.8906867504119873</v>
+        <v>2.8896136283874512</v>
       </c>
     </row>
     <row r="313">
@@ -4553,13 +4553,13 @@
         <v>2.6850523948669434</v>
       </c>
       <c r="C313" s="2">
-        <v>2.6164193153381348</v>
+        <v>2.6152820587158203</v>
       </c>
       <c r="D313" s="2">
         <v>2.8695483207702637</v>
       </c>
       <c r="E313" s="2">
-        <v>2.8815128803253174</v>
+        <v>2.8804845809936524</v>
       </c>
     </row>
     <row r="314">
@@ -4570,13 +4570,13 @@
         <v>2.7918891906738281</v>
       </c>
       <c r="C314" s="2">
-        <v>2.8447611331939697</v>
+        <v>2.8434021472930908</v>
       </c>
       <c r="D314" s="2">
         <v>2.8094995021820068</v>
       </c>
       <c r="E314" s="2">
-        <v>2.8241455554962158</v>
+        <v>2.8231468200683594</v>
       </c>
     </row>
     <row r="315">
@@ -4587,13 +4587,13 @@
         <v>2.7547266483306885</v>
       </c>
       <c r="C315" s="2">
-        <v>2.7343370914459229</v>
+        <v>2.7332589626312256</v>
       </c>
       <c r="D315" s="2">
         <v>2.7660925388336182</v>
       </c>
       <c r="E315" s="2">
-        <v>2.7726171016693115</v>
+        <v>2.7715530395507813</v>
       </c>
     </row>
     <row r="316">
@@ -4604,13 +4604,13 @@
         <v>2.8448073863983154</v>
       </c>
       <c r="C316" s="2">
-        <v>2.9442474842071533</v>
+        <v>2.9437077045440674</v>
       </c>
       <c r="D316" s="2">
         <v>2.7220799922943115</v>
       </c>
       <c r="E316" s="2">
-        <v>2.7242076396942139</v>
+        <v>2.7232093811035156</v>
       </c>
     </row>
     <row r="317">
@@ -4621,13 +4621,13 @@
         <v>2.7919459342956543</v>
       </c>
       <c r="C317" s="2">
-        <v>2.8704378604888916</v>
+        <v>2.8696019649505615</v>
       </c>
       <c r="D317" s="2">
         <v>2.8139922618865967</v>
       </c>
       <c r="E317" s="2">
-        <v>2.8167886734008789</v>
+        <v>2.8158943653106689</v>
       </c>
     </row>
     <row r="318">
@@ -4638,13 +4638,13 @@
         <v>2.855921745300293</v>
       </c>
       <c r="C318" s="2">
-        <v>2.8425993919372559</v>
+        <v>2.8417661190032959</v>
       </c>
       <c r="D318" s="2">
         <v>2.8755722045898438</v>
       </c>
       <c r="E318" s="2">
-        <v>2.8892910480499268</v>
+        <v>2.8885016441345215</v>
       </c>
     </row>
     <row r="319">
@@ -4655,13 +4655,13 @@
         <v>2.5239691734313965</v>
       </c>
       <c r="C319" s="2">
-        <v>2.4403555393218994</v>
+        <v>2.4394745826721191</v>
       </c>
       <c r="D319" s="2">
         <v>2.8728706836700439</v>
       </c>
       <c r="E319" s="2">
-        <v>2.8762540817260742</v>
+        <v>2.8753597736358643</v>
       </c>
     </row>
     <row r="320">
@@ -4672,13 +4672,13 @@
         <v>2.6133308410644531</v>
       </c>
       <c r="C320" s="2">
-        <v>2.6005082130432129</v>
+        <v>2.5997395515441895</v>
       </c>
       <c r="D320" s="2">
         <v>2.8676979541778564</v>
       </c>
       <c r="E320" s="2">
-        <v>2.8811061382293701</v>
+        <v>2.8801584243774414</v>
       </c>
     </row>
     <row r="321">
@@ -4689,13 +4689,13 @@
         <v>3.4642865657806396</v>
       </c>
       <c r="C321" s="2">
-        <v>3.4574329853057861</v>
+        <v>3.4568164348602295</v>
       </c>
       <c r="D321" s="2">
         <v>2.8698451519012451</v>
       </c>
       <c r="E321" s="2">
-        <v>2.8467869758605957</v>
+        <v>2.8457291126251221</v>
       </c>
     </row>
     <row r="322">
@@ -4706,13 +4706,13 @@
         <v>3.2392730712890625</v>
       </c>
       <c r="C322" s="2">
-        <v>3.2689402103424072</v>
+        <v>3.2687478065490723</v>
       </c>
       <c r="D322" s="2">
         <v>2.8810973167419434</v>
       </c>
       <c r="E322" s="2">
-        <v>2.8549184799194336</v>
+        <v>2.8539941310882568</v>
       </c>
     </row>
     <row r="323">
@@ -4723,13 +4723,13 @@
         <v>2.7675745487213135</v>
       </c>
       <c r="C323" s="2">
-        <v>2.7274279594421387</v>
+        <v>2.7251241207122803</v>
       </c>
       <c r="D323" s="2">
         <v>2.8653018474578858</v>
       </c>
       <c r="E323" s="2">
-        <v>2.8462624549865723</v>
+        <v>2.845181941986084</v>
       </c>
     </row>
     <row r="324">
@@ -4740,13 +4740,13 @@
         <v>2.708172082901001</v>
       </c>
       <c r="C324" s="2">
-        <v>2.7780046463012695</v>
+        <v>2.7764472961425781</v>
       </c>
       <c r="D324" s="2">
         <v>2.9021182060241699</v>
       </c>
       <c r="E324" s="2">
-        <v>2.8917746543884277</v>
+        <v>2.8906927108764648</v>
       </c>
     </row>
     <row r="325">
@@ -4757,13 +4757,13 @@
         <v>2.8641316890716553</v>
       </c>
       <c r="C325" s="2">
-        <v>2.6353752613067627</v>
+        <v>2.6338434219360352</v>
       </c>
       <c r="D325" s="2">
         <v>2.9019820690155029</v>
       </c>
       <c r="E325" s="2">
-        <v>2.8970398902893067</v>
+        <v>2.8958847522735596</v>
       </c>
     </row>
     <row r="326">
@@ -4774,13 +4774,13 @@
         <v>2.8932168483734131</v>
       </c>
       <c r="C326" s="2">
-        <v>2.943622350692749</v>
+        <v>2.9439873695373535</v>
       </c>
       <c r="D326" s="2">
         <v>2.8163001537322998</v>
       </c>
       <c r="E326" s="2">
-        <v>2.8088321685791016</v>
+        <v>2.8076872825622559</v>
       </c>
     </row>
     <row r="327">
@@ -4791,13 +4791,13 @@
         <v>2.7137627601623535</v>
       </c>
       <c r="C327" s="2">
-        <v>2.7646956443786621</v>
+        <v>2.7624566555023193</v>
       </c>
       <c r="D327" s="2">
         <v>2.7646729946136475</v>
       </c>
       <c r="E327" s="2">
-        <v>2.7557697296142578</v>
+        <v>2.7546067237854004</v>
       </c>
     </row>
     <row r="328">
@@ -4808,13 +4808,13 @@
         <v>2.8553144931793213</v>
       </c>
       <c r="C328" s="2">
-        <v>2.8499641418457031</v>
+        <v>2.8490710258483887</v>
       </c>
       <c r="D328" s="2">
         <v>2.7419497966766358</v>
       </c>
       <c r="E328" s="2">
-        <v>2.7328581809997559</v>
+        <v>2.7319328784942627</v>
       </c>
     </row>
     <row r="329">
@@ -4825,13 +4825,13 @@
         <v>2.6121056079864502</v>
       </c>
       <c r="C329" s="2">
-        <v>2.6478948593139648</v>
+        <v>2.6464676856994629</v>
       </c>
       <c r="D329" s="2">
         <v>2.8135664463043213</v>
       </c>
       <c r="E329" s="2">
-        <v>2.7935972213745117</v>
+        <v>2.7926065921783447</v>
       </c>
     </row>
     <row r="330">
@@ -4842,13 +4842,13 @@
         <v>2.6931507587432861</v>
       </c>
       <c r="C330" s="2">
-        <v>2.6635646820068359</v>
+        <v>2.6630399227142334</v>
       </c>
       <c r="D330" s="2">
         <v>2.8811171054840088</v>
       </c>
       <c r="E330" s="2">
-        <v>2.8719990253448486</v>
+        <v>2.8712787628173828</v>
       </c>
     </row>
     <row r="331">
@@ -4859,13 +4859,13 @@
         <v>2.7746286392211914</v>
       </c>
       <c r="C331" s="2">
-        <v>2.7913789749145508</v>
+        <v>2.7910223007202148</v>
       </c>
       <c r="D331" s="2">
         <v>2.9362571239471436</v>
       </c>
       <c r="E331" s="2">
-        <v>2.9026849269866943</v>
+        <v>2.9017922878265381</v>
       </c>
     </row>
     <row r="332">
@@ -4876,13 +4876,13 @@
         <v>2.5630660057067871</v>
       </c>
       <c r="C332" s="2">
-        <v>2.5212240219116211</v>
+        <v>2.5210611820220947</v>
       </c>
       <c r="D332" s="2">
         <v>2.9898898601531982</v>
       </c>
       <c r="E332" s="2">
-        <v>2.9430625438690186</v>
+        <v>2.9423768520355225</v>
       </c>
     </row>
     <row r="333">
@@ -4893,13 +4893,13 @@
         <v>3.3527207374572754</v>
       </c>
       <c r="C333" s="2">
-        <v>3.3246557712554932</v>
+        <v>3.3225090503692627</v>
       </c>
       <c r="D333" s="2">
         <v>3.0033667087554932</v>
       </c>
       <c r="E333" s="2">
-        <v>2.9441497325897217</v>
+        <v>2.9435276985168457</v>
       </c>
     </row>
     <row r="334">
@@ -4910,13 +4910,13 @@
         <v>3.4720878601074219</v>
       </c>
       <c r="C334" s="2">
-        <v>3.3409914970397949</v>
+        <v>3.3418939113616943</v>
       </c>
       <c r="D334" s="2">
         <v>3.0960991382598877</v>
       </c>
       <c r="E334" s="2">
-        <v>3.0472302436828613</v>
+        <v>3.046736478805542</v>
       </c>
     </row>
     <row r="335">
@@ -4927,13 +4927,13 @@
         <v>3.3894779682159424</v>
       </c>
       <c r="C335" s="2">
-        <v>3.2197945117950439</v>
+        <v>3.2186081409454346</v>
       </c>
       <c r="D335" s="2">
         <v>3.0677731037139893</v>
       </c>
       <c r="E335" s="2">
-        <v>3.017425537109375</v>
+        <v>3.0167334079742432</v>
       </c>
     </row>
     <row r="336">
@@ -4944,13 +4944,13 @@
         <v>3.1964564323425293</v>
       </c>
       <c r="C336" s="2">
-        <v>3.1280946731567383</v>
+        <v>3.1277186870574951</v>
       </c>
       <c r="D336" s="2">
         <v>3.1209614276885986</v>
       </c>
       <c r="E336" s="2">
-        <v>3.0745644569396973</v>
+        <v>3.0738286972045899</v>
       </c>
     </row>
     <row r="337">
@@ -4961,13 +4961,13 @@
         <v>2.9766063690185547</v>
       </c>
       <c r="C337" s="2">
-        <v>2.8597478866577149</v>
+        <v>2.8594281673431396</v>
       </c>
       <c r="D337" s="2">
         <v>3.221625566482544</v>
       </c>
       <c r="E337" s="2">
-        <v>3.1761999130249024</v>
+        <v>3.1753859519958496</v>
       </c>
     </row>
     <row r="338">
@@ -4978,13 +4978,13 @@
         <v>3.4466981887817383</v>
       </c>
       <c r="C338" s="2">
-        <v>3.575620174407959</v>
+        <v>3.5753471851348877</v>
       </c>
       <c r="D338" s="2">
         <v>3.2171969413757324</v>
       </c>
       <c r="E338" s="2">
-        <v>3.1853177547454834</v>
+        <v>3.1845567226409912</v>
       </c>
     </row>
     <row r="339">
@@ -4995,13 +4995,13 @@
         <v>2.4382150173187256</v>
       </c>
       <c r="C339" s="2">
-        <v>2.3953230381011963</v>
+        <v>2.3930130004882813</v>
       </c>
       <c r="D339" s="2">
         <v>3.1648685932159424</v>
       </c>
       <c r="E339" s="2">
-        <v>3.1445305347442627</v>
+        <v>3.1437258720397949</v>
       </c>
     </row>
     <row r="340">
@@ -5012,13 +5012,13 @@
         <v>3.2533247470855713</v>
       </c>
       <c r="C340" s="2">
-        <v>3.3056292533874512</v>
+        <v>3.3048779964447021</v>
       </c>
       <c r="D340" s="2">
         <v>3.0457100868225098</v>
       </c>
       <c r="E340" s="2">
-        <v>3.0310549736022949</v>
+        <v>3.0302989482879639</v>
       </c>
     </row>
     <row r="341">
@@ -5029,13 +5029,13 @@
         <v>3.4690430164337158</v>
       </c>
       <c r="C341" s="2">
-        <v>3.4359421730041504</v>
+        <v>3.4350781440734863</v>
       </c>
       <c r="D341" s="2">
         <v>3.0564477443695068</v>
       </c>
       <c r="E341" s="2">
-        <v>3.0399048328399658</v>
+        <v>3.0390424728393555</v>
       </c>
     </row>
     <row r="342">
@@ -5046,13 +5046,13 @@
         <v>3.3128621578216553</v>
       </c>
       <c r="C342" s="2">
-        <v>3.4067161083221436</v>
+        <v>3.4050450325012207</v>
       </c>
       <c r="D342" s="2">
         <v>3.0107812881469727</v>
       </c>
       <c r="E342" s="2">
-        <v>3.007716178894043</v>
+        <v>3.0066018104553223</v>
       </c>
     </row>
     <row r="343">
@@ -5063,13 +5063,13 @@
         <v>3.0011341571807861</v>
       </c>
       <c r="C343" s="2">
-        <v>2.9739077091217041</v>
+        <v>2.9744160175323486</v>
       </c>
       <c r="D343" s="2">
         <v>2.9489359855651855</v>
       </c>
       <c r="E343" s="2">
-        <v>2.936539888381958</v>
+        <v>2.9353880882263184</v>
       </c>
     </row>
     <row r="344">
@@ -5080,13 +5080,13 @@
         <v>2.3170506954193115</v>
       </c>
       <c r="C344" s="2">
-        <v>2.1985135078430176</v>
+        <v>2.1977665424346924</v>
       </c>
       <c r="D344" s="2">
         <v>2.9932661056518555</v>
       </c>
       <c r="E344" s="2">
-        <v>2.9807195663452148</v>
+        <v>2.9798159599304199</v>
       </c>
     </row>
     <row r="345">
@@ -5097,13 +5097,13 @@
         <v>3.2930951118469238</v>
       </c>
       <c r="C345" s="2">
-        <v>3.2077445983886719</v>
+        <v>3.2064096927642822</v>
       </c>
       <c r="D345" s="2">
         <v>2.9684574604034424</v>
       </c>
       <c r="E345" s="2">
-        <v>2.9536762237548828</v>
+        <v>2.9528629779815674</v>
       </c>
     </row>
     <row r="346">
@@ -5114,13 +5114,13 @@
         <v>2.5656082630157471</v>
       </c>
       <c r="C346" s="2">
-        <v>2.5700488090515137</v>
+        <v>2.5674622058868408</v>
       </c>
       <c r="D346" s="2">
         <v>2.9091699123382568</v>
       </c>
       <c r="E346" s="2">
-        <v>2.894122838973999</v>
+        <v>2.8933522701263428</v>
       </c>
     </row>
     <row r="347">
@@ -5131,13 +5131,13 @@
         <v>2.8900904655456543</v>
       </c>
       <c r="C347" s="2">
-        <v>2.9350345134735108</v>
+        <v>2.9344241619110107</v>
       </c>
       <c r="D347" s="2">
         <v>2.7975034713745117</v>
       </c>
       <c r="E347" s="2">
-        <v>2.7674503326416016</v>
+        <v>2.7668366432189942</v>
       </c>
     </row>
     <row r="348">
@@ -5148,13 +5148,13 @@
         <v>2.8371856212615967</v>
       </c>
       <c r="C348" s="2">
-        <v>2.7929396629333496</v>
+        <v>2.7928628921508789</v>
       </c>
       <c r="D348" s="2">
         <v>2.7610433101654053</v>
       </c>
       <c r="E348" s="2">
-        <v>2.7259092330932617</v>
+        <v>2.7252407073974609</v>
       </c>
     </row>
     <row r="349">
@@ -5165,13 +5165,13 @@
         <v>3.0300476551055908</v>
       </c>
       <c r="C349" s="2">
-        <v>3.0622384548187256</v>
+        <v>3.062302827835083</v>
       </c>
       <c r="D349" s="2">
         <v>2.8130855560302734</v>
       </c>
       <c r="E349" s="2">
-        <v>2.7689981460571289</v>
+        <v>2.7682232856750488</v>
       </c>
     </row>
     <row r="350">
@@ -5182,13 +5182,13 @@
         <v>2.9354543685913086</v>
       </c>
       <c r="C350" s="2">
-        <v>2.8999629020690918</v>
+        <v>2.8994815349578857</v>
       </c>
       <c r="D350" s="2">
         <v>2.7753708362579346</v>
       </c>
       <c r="E350" s="2">
-        <v>2.7328212261199951</v>
+        <v>2.7323160171508789</v>
       </c>
     </row>
     <row r="351">
@@ -5199,13 +5199,13 @@
         <v>2.3078649044036865</v>
       </c>
       <c r="C351" s="2">
-        <v>2.2666633129119873</v>
+        <v>2.2664029598236084</v>
       </c>
       <c r="D351" s="2">
         <v>2.7796561717987061</v>
       </c>
       <c r="E351" s="2">
-        <v>2.7338740825653076</v>
+        <v>2.733630895614624</v>
       </c>
     </row>
     <row r="352">
@@ -5216,13 +5216,13 @@
         <v>2.6729929447174072</v>
       </c>
       <c r="C352" s="2">
-        <v>2.6000382900238037</v>
+        <v>2.6000528335571289</v>
       </c>
       <c r="D352" s="2">
         <v>2.7898030281066895</v>
       </c>
       <c r="E352" s="2">
-        <v>2.743316650390625</v>
+        <v>2.7430520057678223</v>
       </c>
     </row>
     <row r="353">
@@ -5233,13 +5233,13 @@
         <v>2.7854316234588623</v>
       </c>
       <c r="C353" s="2">
-        <v>2.586313009262085</v>
+        <v>2.5846114158630371</v>
       </c>
       <c r="D353" s="2">
         <v>2.8075573444366455</v>
       </c>
       <c r="E353" s="2">
-        <v>2.756605863571167</v>
+        <v>2.756342887878418</v>
       </c>
     </row>
     <row r="354">
@@ -5250,13 +5250,13 @@
         <v>2.9536609649658203</v>
       </c>
       <c r="C354" s="2">
-        <v>2.8821523189544678</v>
+        <v>2.8832435607910156</v>
       </c>
       <c r="D354" s="2">
         <v>2.7602970600128174</v>
       </c>
       <c r="E354" s="2">
-        <v>2.7056865692138672</v>
+        <v>2.7054495811462402</v>
       </c>
     </row>
     <row r="355">
@@ -5267,13 +5267,13 @@
         <v>2.6041765213012695</v>
       </c>
       <c r="C355" s="2">
-        <v>2.5795252323150635</v>
+        <v>2.5792958736419678</v>
       </c>
       <c r="D355" s="2">
         <v>2.7145042419433594</v>
       </c>
       <c r="E355" s="2">
-        <v>2.6624298095703125</v>
+        <v>2.662346363067627</v>
       </c>
     </row>
     <row r="356">
@@ -5284,13 +5284,13 @@
         <v>2.9814133644104004</v>
       </c>
       <c r="C356" s="2">
-        <v>3.0200164318084717</v>
+        <v>3.0192134380340576</v>
       </c>
       <c r="D356" s="2">
         <v>2.8583881855010986</v>
       </c>
       <c r="E356" s="2">
-        <v>2.8159177303314209</v>
+        <v>2.8158516883850098</v>
       </c>
     </row>
     <row r="357">
@@ -5301,13 +5301,13 @@
         <v>2.996973991394043</v>
       </c>
       <c r="C357" s="2">
-        <v>2.9125425815582275</v>
+        <v>2.9124808311462402</v>
       </c>
       <c r="D357" s="2">
         <v>2.8879735469818115</v>
       </c>
       <c r="E357" s="2">
-        <v>2.8544297218322754</v>
+        <v>2.854248046875</v>
       </c>
     </row>
     <row r="358">
@@ -5318,13 +5318,13 @@
         <v>2.6047053337097168</v>
       </c>
       <c r="C358" s="2">
-        <v>2.6039655208587647</v>
+        <v>2.6042647361755371</v>
       </c>
       <c r="D358" s="2">
         <v>2.8947820663452148</v>
       </c>
       <c r="E358" s="2">
-        <v>2.8948819637298584</v>
+        <v>2.8948221206665039</v>
       </c>
     </row>
     <row r="359">
@@ -5335,13 +5335,13 @@
         <v>2.5233175754547119</v>
       </c>
       <c r="C359" s="2">
-        <v>2.510650634765625</v>
+        <v>2.5115516185760498</v>
       </c>
       <c r="D359" s="2">
         <v>2.8767657279968262</v>
       </c>
       <c r="E359" s="2">
-        <v>2.8908050060272217</v>
+        <v>2.8903512954711914</v>
       </c>
     </row>
     <row r="360">
@@ -5352,13 +5352,13 @@
         <v>3.6028206348419189</v>
       </c>
       <c r="C360" s="2">
-        <v>3.648054838180542</v>
+        <v>3.6479501724243164</v>
       </c>
       <c r="D360" s="2">
         <v>2.9705870151519775</v>
       </c>
       <c r="E360" s="2">
-        <v>2.977161169052124</v>
+        <v>2.9765844345092774</v>
       </c>
     </row>
     <row r="361">
@@ -5369,13 +5369,13 @@
         <v>2.9392609596252442</v>
       </c>
       <c r="C361" s="2">
-        <v>2.9466476440429688</v>
+        <v>2.9456217288970947</v>
       </c>
       <c r="D361" s="2">
         <v>3.0329892635345459</v>
       </c>
       <c r="E361" s="2">
-        <v>3.0127058029174805</v>
+        <v>3.0120799541473389</v>
       </c>
     </row>
     <row r="362">
@@ -5386,13 +5386,13 @@
         <v>2.8467082977294922</v>
       </c>
       <c r="C362" s="2">
-        <v>2.9503815174102783</v>
+        <v>2.949777364730835</v>
       </c>
       <c r="D362" s="2">
         <v>3.1134994029998779</v>
       </c>
       <c r="E362" s="2">
-        <v>3.1062519550323486</v>
+        <v>3.1055309772491455</v>
       </c>
     </row>
     <row r="363">
@@ -5403,13 +5403,13 @@
         <v>2.7915153503417969</v>
       </c>
       <c r="C363" s="2">
-        <v>2.8454601764678955</v>
+        <v>2.843005895614624</v>
       </c>
       <c r="D363" s="2">
         <v>3.2506794929504395</v>
       </c>
       <c r="E363" s="2">
-        <v>3.2336485385894775</v>
+        <v>3.2329370975494385</v>
       </c>
     </row>
     <row r="364">
@@ -5420,13 +5420,13 @@
         <v>3.4485676288604736</v>
       </c>
       <c r="C364" s="2">
-        <v>3.3567311763763428</v>
+        <v>3.3553941249847412</v>
       </c>
       <c r="D364" s="2">
         <v>3.3929991722106934</v>
       </c>
       <c r="E364" s="2">
-        <v>3.3824484348297119</v>
+        <v>3.3816177845001221</v>
       </c>
     </row>
     <row r="365">
@@ -5437,13 +5437,13 @@
         <v>3.5430328845977783</v>
       </c>
       <c r="C365" s="2">
-        <v>3.3399171829223633</v>
+        <v>3.3386731147766113</v>
       </c>
       <c r="D365" s="2">
         <v>3.3593947887420654</v>
       </c>
       <c r="E365" s="2">
-        <v>3.3424980640411377</v>
+        <v>3.3417327404022217</v>
       </c>
     </row>
     <row r="366">
@@ -5454,13 +5454,13 @@
         <v>3.7215662002563477</v>
       </c>
       <c r="C366" s="2">
-        <v>3.7544598579406738</v>
+        <v>3.7535395622253418</v>
       </c>
       <c r="D366" s="2">
         <v>3.4102058410644531</v>
       </c>
       <c r="E366" s="2">
-        <v>3.3919658660888672</v>
+        <v>3.3912935256958008</v>
       </c>
     </row>
     <row r="367">
@@ -5471,13 +5471,13 @@
         <v>3.8393266201019287</v>
       </c>
       <c r="C367" s="2">
-        <v>3.7505331039428711</v>
+        <v>3.7509207725524902</v>
       </c>
       <c r="D367" s="2">
         <v>3.4632799625396729</v>
       </c>
       <c r="E367" s="2">
-        <v>3.444749116897583</v>
+        <v>3.4438636302947998</v>
       </c>
     </row>
     <row r="368">
@@ -5488,13 +5488,13 @@
         <v>3.8041937351226807</v>
       </c>
       <c r="C368" s="2">
-        <v>3.8498504161834717</v>
+        <v>3.8496770858764648</v>
       </c>
       <c r="D368" s="2">
         <v>3.5386779308319092</v>
       </c>
       <c r="E368" s="2">
-        <v>3.5141780376434326</v>
+        <v>3.5134732723236084</v>
       </c>
     </row>
     <row r="369">
@@ -5505,13 +5505,13 @@
         <v>3.3003807067871094</v>
       </c>
       <c r="C369" s="2">
-        <v>3.2885019779205322</v>
+        <v>3.2889847755432129</v>
       </c>
       <c r="D369" s="2">
         <v>3.5326230525970459</v>
       </c>
       <c r="E369" s="2">
-        <v>3.5234224796295166</v>
+        <v>3.5225005149841309</v>
       </c>
     </row>
     <row r="370">
@@ -5522,13 +5522,13 @@
         <v>3.396561861038208</v>
       </c>
       <c r="C370" s="2">
-        <v>3.3918578624725342</v>
+        <v>3.3916690349578857</v>
       </c>
       <c r="D370" s="2">
         <v>3.5288946628570557</v>
       </c>
       <c r="E370" s="2">
-        <v>3.5344414710998535</v>
+        <v>3.5335559844970703</v>
       </c>
     </row>
     <row r="371">
@@ -5539,13 +5539,13 @@
         <v>3.3243756294250488</v>
       </c>
       <c r="C371" s="2">
-        <v>3.4254307746887207</v>
+        <v>3.4229087829589844</v>
       </c>
       <c r="D371" s="2">
         <v>3.5113959312438965</v>
       </c>
       <c r="E371" s="2">
-        <v>3.5090887546539307</v>
+        <v>3.5082218647003174</v>
       </c>
     </row>
     <row r="372">
@@ -5556,13 +5556,13 @@
         <v>3.4700953960418701</v>
       </c>
       <c r="C372" s="2">
-        <v>3.4703207015991211</v>
+        <v>3.4694914817810059</v>
       </c>
       <c r="D372" s="2">
         <v>3.473313570022583</v>
       </c>
       <c r="E372" s="2">
-        <v>3.4921162128448486</v>
+        <v>3.4909572601318359</v>
       </c>
     </row>
     <row r="373">
@@ -5573,13 +5573,13 @@
         <v>3.3940751552581787</v>
       </c>
       <c r="C373" s="2">
-        <v>3.4399294853210449</v>
+        <v>3.4366395473480225</v>
       </c>
       <c r="D373" s="2">
         <v>3.4050359725952148</v>
       </c>
       <c r="E373" s="2">
-        <v>3.4265551567077637</v>
+        <v>3.4252638816833496</v>
       </c>
     </row>
     <row r="374">
@@ -5590,13 +5590,13 @@
         <v>3.5094757080078125</v>
       </c>
       <c r="C374" s="2">
-        <v>3.4390900135040283</v>
+        <v>3.4381725788116455</v>
       </c>
       <c r="D374" s="2">
         <v>3.419992208480835</v>
       </c>
       <c r="E374" s="2">
-        <v>3.4478650093078613</v>
+        <v>3.4464726448059082</v>
       </c>
     </row>
     <row r="375">
@@ -5607,13 +5607,13 @@
         <v>3.564077615737915</v>
       </c>
       <c r="C375" s="2">
-        <v>3.5262835025787354</v>
+        <v>3.5255317687988281</v>
       </c>
       <c r="D375" s="2">
         <v>3.4214012622833252</v>
       </c>
       <c r="E375" s="2">
-        <v>3.4615845680236817</v>
+        <v>3.460108757019043</v>
       </c>
     </row>
     <row r="376">
@@ -5624,13 +5624,13 @@
         <v>3.4965860843658447</v>
       </c>
       <c r="C376" s="2">
-        <v>3.5977814197540283</v>
+        <v>3.59554123878479</v>
       </c>
       <c r="D376" s="2">
         <v>3.5204756259918213</v>
       </c>
       <c r="E376" s="2">
-        <v>3.5614643096923828</v>
+        <v>3.5601806640625</v>
       </c>
     </row>
     <row r="377">
@@ -5641,13 +5641,13 @@
         <v>3.189694881439209</v>
       </c>
       <c r="C377" s="2">
-        <v>3.2598013877868652</v>
+        <v>3.2584366798400879</v>
       </c>
       <c r="D377" s="2">
         <v>3.4483969211578369</v>
       </c>
       <c r="E377" s="2">
-        <v>3.5041916370391846</v>
+        <v>3.5027768611907959</v>
       </c>
     </row>
     <row r="378">
@@ -5658,13 +5658,13 @@
         <v>3.4349884986877441</v>
       </c>
       <c r="C378" s="2">
-        <v>3.4802894592285156</v>
+        <v>3.4798626899719238</v>
       </c>
       <c r="D378" s="2">
         <v>3.4510953426361084</v>
       </c>
       <c r="E378" s="2">
-        <v>3.4958662986755371</v>
+        <v>3.4946689605712891</v>
       </c>
     </row>
     <row r="379">
@@ -5675,13 +5675,13 @@
         <v>3.4092419147491455</v>
       </c>
       <c r="C379" s="2">
-        <v>3.5153343677520752</v>
+        <v>3.5143945217132568</v>
       </c>
       <c r="D379" s="2">
         <v>3.4201765060424805</v>
       </c>
       <c r="E379" s="2">
-        <v>3.473522424697876</v>
+        <v>3.472278356552124</v>
       </c>
     </row>
     <row r="380">
@@ -5692,13 +5692,13 @@
         <v>4.2160458564758301</v>
       </c>
       <c r="C380" s="2">
-        <v>4.3243479728698731</v>
+        <v>4.3235554695129395</v>
       </c>
       <c r="D380" s="2">
         <v>3.3299660682678223</v>
       </c>
       <c r="E380" s="2">
-        <v>3.3870437145233154</v>
+        <v>3.3858029842376709</v>
       </c>
     </row>
     <row r="381">
@@ -5709,13 +5709,13 @@
         <v>2.8213868141174317</v>
       </c>
       <c r="C381" s="2">
-        <v>2.9548664093017578</v>
+        <v>2.9528570175170899</v>
       </c>
       <c r="D381" s="2">
         <v>3.3169794082641602</v>
       </c>
       <c r="E381" s="2">
-        <v>3.3764042854309082</v>
+        <v>3.3752391338348389</v>
       </c>
     </row>
     <row r="382">
@@ -5726,13 +5726,13 @@
         <v>3.4183616638183594</v>
       </c>
       <c r="C382" s="2">
-        <v>3.3650026321411133</v>
+        <v>3.3636696338653564</v>
       </c>
       <c r="D382" s="2">
         <v>3.3591029644012451</v>
       </c>
       <c r="E382" s="2">
-        <v>3.3935837745666504</v>
+        <v>3.3925762176513672</v>
       </c>
     </row>
     <row r="383">
@@ -5743,13 +5743,13 @@
         <v>3.2312054634094238</v>
       </c>
       <c r="C383" s="2">
-        <v>3.2379937171936035</v>
+        <v>3.2366559505462647</v>
       </c>
       <c r="D383" s="2">
         <v>3.3747761249542236</v>
       </c>
       <c r="E383" s="2">
-        <v>3.4013018608093262</v>
+        <v>3.4002852439880371</v>
       </c>
     </row>
     <row r="384">
@@ -5760,13 +5760,13 @@
         <v>2.7521841526031494</v>
       </c>
       <c r="C384" s="2">
-        <v>2.747976541519165</v>
+        <v>2.7472543716430664</v>
       </c>
       <c r="D384" s="2">
         <v>3.3357021808624268</v>
       </c>
       <c r="E384" s="2">
-        <v>3.3492069244384766</v>
+        <v>3.3482024669647217</v>
       </c>
     </row>
     <row r="385">
@@ -5777,13 +5777,13 @@
         <v>3.3797051906585693</v>
       </c>
       <c r="C385" s="2">
-        <v>3.5020270347595215</v>
+        <v>3.5004656314849854</v>
       </c>
       <c r="D385" s="2">
         <v>3.2344791889190674</v>
       </c>
       <c r="E385" s="2">
-        <v>3.2418961524963379</v>
+        <v>3.2409510612487793</v>
       </c>
     </row>
     <row r="386">
@@ -5794,13 +5794,13 @@
         <v>3.5688071250915527</v>
       </c>
       <c r="C386" s="2">
-        <v>3.4144155979156494</v>
+        <v>3.4144713878631592</v>
       </c>
       <c r="D386" s="2">
         <v>3.2539050579071045</v>
       </c>
       <c r="E386" s="2">
-        <v>3.2450311183929443</v>
+        <v>3.244290828704834</v>
       </c>
     </row>
     <row r="387">
@@ -5811,13 +5811,13 @@
         <v>3.5760478973388672</v>
       </c>
       <c r="C387" s="2">
-        <v>3.5497531890869141</v>
+        <v>3.5492422580718994</v>
       </c>
       <c r="D387" s="2">
         <v>3.152677059173584</v>
       </c>
       <c r="E387" s="2">
-        <v>3.1593296527862549</v>
+        <v>3.1584558486938477</v>
       </c>
     </row>
     <row r="388">
@@ -5828,13 +5828,13 @@
         <v>3.0575752258300781</v>
       </c>
       <c r="C388" s="2">
-        <v>3.0464797019958496</v>
+        <v>3.0456504821777344</v>
       </c>
       <c r="D388" s="2">
         <v>3.1137194633483887</v>
       </c>
       <c r="E388" s="2">
-        <v>3.1080288887023926</v>
+        <v>3.1073102951049805</v>
       </c>
     </row>
     <row r="389">
@@ -5845,13 +5845,13 @@
         <v>3.3050394058227539</v>
       </c>
       <c r="C389" s="2">
-        <v>3.3585515022277832</v>
+        <v>3.358292818069458</v>
       </c>
       <c r="D389" s="2">
         <v>3.1617593765258789</v>
       </c>
       <c r="E389" s="2">
-        <v>3.1563196182250977</v>
+        <v>3.1558248996734619</v>
       </c>
     </row>
     <row r="390">
@@ -5862,13 +5862,13 @@
         <v>2.9962191581726074</v>
       </c>
       <c r="C390" s="2">
-        <v>2.9830806255340576</v>
+        <v>2.9829144477844238</v>
       </c>
       <c r="D390" s="2">
         <v>3.0901715755462647</v>
       </c>
       <c r="E390" s="2">
-        <v>3.0745694637298584</v>
+        <v>3.0741865634918213</v>
       </c>
     </row>
     <row r="391">
@@ -5879,13 +5879,13 @@
         <v>2.5073091983795166</v>
       </c>
       <c r="C391" s="2">
-        <v>2.5936882495880127</v>
+        <v>2.5911555290222168</v>
       </c>
       <c r="D391" s="2">
         <v>3.0425910949707031</v>
       </c>
       <c r="E391" s="2">
-        <v>2.9938392639160156</v>
+        <v>2.9933364391326904</v>
       </c>
     </row>
     <row r="392">
@@ -5896,13 +5896,13 @@
         <v>2.8805880546569824</v>
       </c>
       <c r="C392" s="2">
-        <v>2.7762877941131592</v>
+        <v>2.7763447761535645</v>
       </c>
       <c r="D392" s="2">
         <v>2.9899451732635498</v>
       </c>
       <c r="E392" s="2">
-        <v>2.942716121673584</v>
+        <v>2.9422547817230225</v>
       </c>
     </row>
     <row r="393">
@@ -5913,13 +5913,13 @@
         <v>3.1845428943634033</v>
       </c>
       <c r="C393" s="2">
-        <v>3.1825931072235108</v>
+        <v>3.1838865280151367</v>
       </c>
       <c r="D393" s="2">
         <v>3.0211079120635986</v>
       </c>
       <c r="E393" s="2">
-        <v>2.9709224700927734</v>
+        <v>2.9705407619476318</v>
       </c>
     </row>
     <row r="394">
@@ -5930,13 +5930,13 @@
         <v>2.7354156970977783</v>
       </c>
       <c r="C394" s="2">
-        <v>2.76627516746521</v>
+        <v>2.7657203674316406</v>
       </c>
       <c r="D394" s="2">
         <v>2.988760232925415</v>
       </c>
       <c r="E394" s="2">
-        <v>2.9359536170959473</v>
+        <v>2.9355056285858154</v>
       </c>
     </row>
     <row r="395">
@@ -5947,13 +5947,13 @@
         <v>3.1405818462371826</v>
       </c>
       <c r="C395" s="2">
-        <v>2.6878445148468018</v>
+        <v>2.6868212223052979</v>
       </c>
       <c r="D395" s="2">
         <v>2.959986686706543</v>
       </c>
       <c r="E395" s="2">
-        <v>2.90267014503479</v>
+        <v>2.9022121429443359</v>
       </c>
     </row>
     <row r="396">
@@ -5964,13 +5964,13 @@
         <v>3.1022353172302246</v>
       </c>
       <c r="C396" s="2">
-        <v>3.0896449089050293</v>
+        <v>3.0895078182220459</v>
       </c>
       <c r="D396" s="2">
         <v>3.0459551811218262</v>
       </c>
       <c r="E396" s="2">
-        <v>2.9719822406768799</v>
+        <v>2.9716191291809082</v>
       </c>
     </row>
     <row r="397">
@@ -5981,13 +5981,13 @@
         <v>3.3380398750305176</v>
       </c>
       <c r="C397" s="2">
-        <v>3.3003358840942383</v>
+        <v>3.3002223968505859</v>
       </c>
       <c r="D397" s="2">
         <v>3.10400390625</v>
       </c>
       <c r="E397" s="2">
-        <v>3.0387723445892334</v>
+        <v>3.038360595703125</v>
       </c>
     </row>
     <row r="398">
@@ -5998,13 +5998,13 @@
         <v>3.0139105319976807</v>
       </c>
       <c r="C398" s="2">
-        <v>3.043832540512085</v>
+        <v>3.0429773330688477</v>
       </c>
       <c r="D398" s="2">
         <v>3.0988743305206299</v>
       </c>
       <c r="E398" s="2">
-        <v>3.045501708984375</v>
+        <v>3.0447618961334229</v>
       </c>
     </row>
     <row r="399">
@@ -6015,13 +6015,13 @@
         <v>2.7372558116912842</v>
       </c>
       <c r="C399" s="2">
-        <v>2.6835298538208008</v>
+        <v>2.6832735538482666</v>
       </c>
       <c r="D399" s="2">
         <v>3.1548702716827393</v>
       </c>
       <c r="E399" s="2">
-        <v>3.0908622741699219</v>
+        <v>3.0902760028839111</v>
       </c>
     </row>
     <row r="400">
@@ -6032,13 +6032,13 @@
         <v>3.2810258865356445</v>
       </c>
       <c r="C400" s="2">
-        <v>3.2174968719482422</v>
+        <v>3.2158174514770508</v>
       </c>
       <c r="D400" s="2">
         <v>3.1094582080841064</v>
       </c>
       <c r="E400" s="2">
-        <v>3.0915210247039795</v>
+        <v>3.091015100479126</v>
       </c>
     </row>
     <row r="401">
@@ -6049,13 +6049,13 @@
         <v>3.4030265808105469</v>
       </c>
       <c r="C401" s="2">
-        <v>3.3773989677429199</v>
+        <v>3.3770191669464111</v>
       </c>
       <c r="D401" s="2">
         <v>3.1314268112182617</v>
       </c>
       <c r="E401" s="2">
-        <v>3.1210219860076904</v>
+        <v>3.1205117702484131</v>
       </c>
     </row>
     <row r="402">
@@ -6066,13 +6066,13 @@
         <v>3.1383779048919678</v>
       </c>
       <c r="C402" s="2">
-        <v>3.2431564331054688</v>
+        <v>3.241497278213501</v>
       </c>
       <c r="D402" s="2">
         <v>3.0907306671142578</v>
       </c>
       <c r="E402" s="2">
-        <v>3.0803403854370117</v>
+        <v>3.0797488689422607</v>
       </c>
     </row>
     <row r="403">
@@ -6083,13 +6083,13 @@
         <v>3.2393794059753418</v>
       </c>
       <c r="C403" s="2">
-        <v>3.1745197772979736</v>
+        <v>3.175346851348877</v>
       </c>
       <c r="D403" s="2">
         <v>3.071422815322876</v>
       </c>
       <c r="E403" s="2">
-        <v>3.0537517070770264</v>
+        <v>3.0531432628631592</v>
       </c>
     </row>
     <row r="404">
@@ -6100,13 +6100,13 @@
         <v>2.7318727970123291</v>
       </c>
       <c r="C404" s="2">
-        <v>2.6937744617462158</v>
+        <v>2.6934745311737061</v>
       </c>
       <c r="D404" s="2">
         <v>3.0552563667297363</v>
       </c>
       <c r="E404" s="2">
-        <v>3.0327708721160889</v>
+        <v>3.0321478843688965</v>
       </c>
     </row>
     <row r="405">
@@ -6117,13 +6117,13 @@
         <v>3.2999529838562012</v>
       </c>
       <c r="C405" s="2">
-        <v>3.3551521301269531</v>
+        <v>3.3549764156341553</v>
       </c>
       <c r="D405" s="2">
         <v>3.0121161937713623</v>
       </c>
       <c r="E405" s="2">
-        <v>3.0074408054351807</v>
+        <v>3.0069479942321777</v>
       </c>
     </row>
     <row r="406">
@@ -6134,13 +6134,13 @@
         <v>2.9717750549316406</v>
       </c>
       <c r="C406" s="2">
-        <v>2.9342021942138672</v>
+        <v>2.9333581924438477</v>
       </c>
       <c r="D406" s="2">
         <v>2.943411111831665</v>
       </c>
       <c r="E406" s="2">
-        <v>2.9432864189147949</v>
+        <v>2.9426777362823486</v>
       </c>
     </row>
     <row r="407">
@@ -6151,13 +6151,13 @@
         <v>2.8401391506195068</v>
       </c>
       <c r="C407" s="2">
-        <v>2.8045341968536377</v>
+        <v>2.8035249710083008</v>
       </c>
       <c r="D407" s="2">
         <v>2.9322686195373535</v>
       </c>
       <c r="E407" s="2">
-        <v>2.9265952110290527</v>
+        <v>2.9260122776031494</v>
       </c>
     </row>
     <row r="408">
@@ -6168,13 +6168,13 @@
         <v>2.5917577743530273</v>
       </c>
       <c r="C408" s="2">
-        <v>2.4947032928466797</v>
+        <v>2.4943161010742188</v>
       </c>
       <c r="D408" s="2">
         <v>2.9009478092193604</v>
       </c>
       <c r="E408" s="2">
-        <v>2.9028880596160889</v>
+        <v>2.9020628929138184</v>
       </c>
     </row>
     <row r="409">
@@ -6185,13 +6185,13 @@
         <v>2.8927643299102783</v>
       </c>
       <c r="C409" s="2">
-        <v>2.9895262718200684</v>
+        <v>2.9890193939208984</v>
       </c>
       <c r="D409" s="2">
         <v>2.9216787815093994</v>
       </c>
       <c r="E409" s="2">
-        <v>2.9286413192749024</v>
+        <v>2.9277539253234863</v>
       </c>
     </row>
     <row r="410">
@@ -6202,13 +6202,13 @@
         <v>2.7846798896789551</v>
       </c>
       <c r="C410" s="2">
-        <v>2.8000082969665527</v>
+        <v>2.7985854148864746</v>
       </c>
       <c r="D410" s="2">
         <v>2.8747327327728272</v>
       </c>
       <c r="E410" s="2">
-        <v>2.8740909099578858</v>
+        <v>2.8730399608612061</v>
       </c>
     </row>
     <row r="411">
@@ -6219,13 +6219,13 @@
         <v>3.0380964279174805</v>
       </c>
       <c r="C411" s="2">
-        <v>3.0929372310638428</v>
+        <v>3.0915088653564453</v>
       </c>
       <c r="D411" s="2">
         <v>2.8957514762878418</v>
       </c>
       <c r="E411" s="2">
-        <v>2.892401933670044</v>
+        <v>2.8915445804595947</v>
       </c>
     </row>
     <row r="412">
@@ -6236,13 +6236,13 @@
         <v>2.9574911594390869</v>
       </c>
       <c r="C412" s="2">
-        <v>2.9611546993255615</v>
+        <v>2.9598021507263184</v>
       </c>
       <c r="D412" s="2">
         <v>2.9098155498504639</v>
       </c>
       <c r="E412" s="2">
-        <v>2.8989391326904297</v>
+        <v>2.8980438709259033</v>
       </c>
     </row>
     <row r="413">
@@ -6253,13 +6253,13 @@
         <v>2.9184513092041016</v>
       </c>
       <c r="C413" s="2">
-        <v>2.9255526065826416</v>
+        <v>2.9246933460235596</v>
       </c>
       <c r="D413" s="2">
         <v>2.9318664073944092</v>
       </c>
       <c r="E413" s="2">
-        <v>2.9261679649353027</v>
+        <v>2.9252254962921143</v>
       </c>
     </row>
     <row r="414">
@@ -6270,13 +6270,13 @@
         <v>2.8774399757385254</v>
       </c>
       <c r="C414" s="2">
-        <v>2.864199161529541</v>
+        <v>2.8625516891479492</v>
       </c>
       <c r="D414" s="2">
         <v>2.9796748161315918</v>
       </c>
       <c r="E414" s="2">
-        <v>2.9762823581695557</v>
+        <v>2.9751336574554443</v>
       </c>
     </row>
     <row r="415">
@@ -6287,13 +6287,13 @@
         <v>3.1609432697296143</v>
       </c>
       <c r="C415" s="2">
-        <v>3.099001407623291</v>
+        <v>3.0998985767364502</v>
       </c>
       <c r="D415" s="2">
         <v>3.0407562255859375</v>
       </c>
       <c r="E415" s="2">
-        <v>3.0353138446807861</v>
+        <v>3.0342767238616943</v>
       </c>
     </row>
     <row r="416">
@@ -6304,13 +6304,13 @@
         <v>2.9667150974273682</v>
       </c>
       <c r="C416" s="2">
-        <v>2.8633682727813721</v>
+        <v>2.8620197772979736</v>
       </c>
       <c r="D416" s="2">
         <v>3.0985720157623291</v>
       </c>
       <c r="E416" s="2">
-        <v>3.0917696952819824</v>
+        <v>3.0907723903656006</v>
       </c>
     </row>
     <row r="417">
@@ -6321,13 +6321,13 @@
         <v>2.7902162075042725</v>
       </c>
       <c r="C417" s="2">
-        <v>2.7397632598876953</v>
+        <v>2.7389492988586426</v>
       </c>
       <c r="D417" s="2">
         <v>3.0900552272796631</v>
       </c>
       <c r="E417" s="2">
-        <v>3.0867412090301514</v>
+        <v>3.0858206748962402</v>
       </c>
     </row>
     <row r="418">
@@ -6338,13 +6338,13 @@
         <v>3.3230390548706055</v>
       </c>
       <c r="C418" s="2">
-        <v>3.4405553340911865</v>
+        <v>3.4381935596466065</v>
       </c>
       <c r="D418" s="2">
         <v>3.1378860473632813</v>
       </c>
       <c r="E418" s="2">
-        <v>3.142117977142334</v>
+        <v>3.1412532329559326</v>
       </c>
     </row>
     <row r="419">
@@ -6355,13 +6355,13 @@
         <v>3.3344135284423828</v>
       </c>
       <c r="C419" s="2">
-        <v>3.3312923908233643</v>
+        <v>3.3308722972869873</v>
       </c>
       <c r="D419" s="2">
         <v>3.1894783973693848</v>
       </c>
       <c r="E419" s="2">
-        <v>3.2063643932342529</v>
+        <v>3.2055873870849609</v>
       </c>
     </row>
     <row r="420">
@@ -6372,13 +6372,13 @@
         <v>3.5584390163421631</v>
       </c>
       <c r="C420" s="2">
-        <v>3.6010398864746094</v>
+        <v>3.5999703407287598</v>
       </c>
       <c r="D420" s="2">
         <v>3.1751704216003418</v>
       </c>
       <c r="E420" s="2">
-        <v>3.2026810646057129</v>
+        <v>3.2016046047210693</v>
       </c>
     </row>
     <row r="421">
@@ -6389,13 +6389,13 @@
         <v>2.8808391094207764</v>
       </c>
       <c r="C421" s="2">
-        <v>2.9158985614776611</v>
+        <v>2.9152374267578125</v>
       </c>
       <c r="D421" s="2">
         <v>3.2250933647155762</v>
       </c>
       <c r="E421" s="2">
-        <v>3.2507340908050537</v>
+        <v>3.2495639324188232</v>
       </c>
     </row>
     <row r="422">
@@ -6406,13 +6406,13 @@
         <v>3.3489301204681396</v>
       </c>
       <c r="C422" s="2">
-        <v>3.4239444732666016</v>
+        <v>3.4235866069793701</v>
       </c>
       <c r="D422" s="2">
         <v>3.2920436859130859</v>
       </c>
       <c r="E422" s="2">
-        <v>3.3217575550079346</v>
+        <v>3.320570707321167</v>
       </c>
     </row>
     <row r="423">
@@ -6423,13 +6423,13 @@
         <v>3.3417708873748779</v>
       </c>
       <c r="C423" s="2">
-        <v>3.4424161911010742</v>
+        <v>3.4415590763092041</v>
       </c>
       <c r="D423" s="2">
         <v>3.2705795764923096</v>
       </c>
       <c r="E423" s="2">
-        <v>3.2795634269714355</v>
+        <v>3.2786498069763184</v>
       </c>
     </row>
     <row r="424">
@@ -6440,13 +6440,13 @@
         <v>3.0321712493896484</v>
       </c>
       <c r="C424" s="2">
-        <v>3.0658519268035889</v>
+        <v>3.0640521049499512</v>
       </c>
       <c r="D424" s="2">
         <v>3.1837081909179688</v>
       </c>
       <c r="E424" s="2">
-        <v>3.1822230815887451</v>
+        <v>3.1812596321105957</v>
       </c>
     </row>
     <row r="425">
@@ -6457,13 +6457,13 @@
         <v>3.4160213470458984</v>
       </c>
       <c r="C425" s="2">
-        <v>3.2958455085754395</v>
+        <v>3.293654203414917</v>
       </c>
       <c r="D425" s="2">
         <v>3.1636965274810791</v>
       </c>
       <c r="E425" s="2">
-        <v>3.1531052589416504</v>
+        <v>3.1522207260131836</v>
       </c>
     </row>
     <row r="426">
@@ -6474,13 +6474,13 @@
         <v>3.3927681446075439</v>
       </c>
       <c r="C426" s="2">
-        <v>3.3789741992950439</v>
+        <v>3.3780117034912109</v>
       </c>
       <c r="D426" s="2">
         <v>3.1743838787078857</v>
       </c>
       <c r="E426" s="2">
-        <v>3.1560492515563965</v>
+        <v>3.1552510261535645</v>
       </c>
     </row>
     <row r="427">
@@ -6491,13 +6491,13 @@
         <v>3.1298623085021973</v>
       </c>
       <c r="C427" s="2">
-        <v>3.060807466506958</v>
+        <v>3.0609049797058106</v>
       </c>
       <c r="D427" s="2">
         <v>3.1469569206237793</v>
       </c>
       <c r="E427" s="2">
-        <v>3.1284558773040772</v>
+        <v>3.1275520324707031</v>
       </c>
     </row>
     <row r="428">
@@ -6508,13 +6508,13 @@
         <v>2.5525708198547363</v>
       </c>
       <c r="C428" s="2">
-        <v>2.4552299976348877</v>
+        <v>2.4543607234954834</v>
       </c>
       <c r="D428" s="2">
         <v>3.1523776054382324</v>
       </c>
       <c r="E428" s="2">
-        <v>3.1078622341156006</v>
+        <v>3.106942892074585</v>
       </c>
     </row>
     <row r="429">
@@ -6525,13 +6525,13 @@
         <v>3.3783354759216309</v>
       </c>
       <c r="C429" s="2">
-        <v>3.338979959487915</v>
+        <v>3.3386201858520508</v>
       </c>
       <c r="D429" s="2">
         <v>3.1923325061798096</v>
       </c>
       <c r="E429" s="2">
-        <v>3.14095139503479</v>
+        <v>3.1401636600494385</v>
       </c>
     </row>
     <row r="430">
@@ -6542,13 +6542,13 @@
         <v>2.9770252704620361</v>
       </c>
       <c r="C430" s="2">
-        <v>2.9423942565917969</v>
+        <v>2.9425098896026611</v>
       </c>
       <c r="D430" s="2">
         <v>3.1372289657592774</v>
       </c>
       <c r="E430" s="2">
-        <v>3.0956313610076904</v>
+        <v>3.0951042175292969</v>
       </c>
     </row>
     <row r="431">
@@ -6559,13 +6559,13 @@
         <v>3.102086067199707</v>
       </c>
       <c r="C431" s="2">
-        <v>3.1756041049957275</v>
+        <v>3.1742959022521973</v>
       </c>
       <c r="D431" s="2">
         <v>3.1095607280731201</v>
       </c>
       <c r="E431" s="2">
-        <v>3.0463035106658936</v>
+        <v>3.0458478927612305</v>
       </c>
     </row>
     <row r="432">
@@ -6576,13 +6576,13 @@
         <v>3.3905570507049561</v>
       </c>
       <c r="C432" s="2">
-        <v>3.2570734024047852</v>
+        <v>3.2560765743255615</v>
       </c>
       <c r="D432" s="2">
         <v>3.101276159286499</v>
       </c>
       <c r="E432" s="2">
-        <v>3.051375150680542</v>
+        <v>3.0508348941802979</v>
       </c>
     </row>
     <row r="433">
@@ -6593,13 +6593,13 @@
         <v>3.391765832901001</v>
       </c>
       <c r="C433" s="2">
-        <v>3.3636534214019775</v>
+        <v>3.3630397319793701</v>
       </c>
       <c r="D433" s="2">
         <v>3.146780252456665</v>
       </c>
       <c r="E433" s="2">
-        <v>3.0990519523620606</v>
+        <v>3.0986332893371582</v>
       </c>
     </row>
     <row r="434">
@@ -6610,13 +6610,13 @@
         <v>2.9200890064239502</v>
       </c>
       <c r="C434" s="2">
-        <v>2.8879654407501221</v>
+        <v>2.8881180286407471</v>
       </c>
       <c r="D434" s="2">
         <v>3.1014249324798584</v>
       </c>
       <c r="E434" s="2">
-        <v>3.0575945377349854</v>
+        <v>3.0572752952575684</v>
       </c>
     </row>
     <row r="435">
@@ -6627,13 +6627,13 @@
         <v>3.1437547206878662</v>
       </c>
       <c r="C435" s="2">
-        <v>2.9350225925445557</v>
+        <v>2.9347047805786133</v>
       </c>
       <c r="D435" s="2">
         <v>3.1049909591674805</v>
       </c>
       <c r="E435" s="2">
-        <v>3.0574407577514649</v>
+        <v>3.0569672584533691</v>
       </c>
     </row>
     <row r="436">
@@ -6644,13 +6644,13 @@
         <v>3.0553004741668701</v>
       </c>
       <c r="C436" s="2">
-        <v>3.106452465057373</v>
+        <v>3.105787992477417</v>
       </c>
       <c r="D436" s="2">
         <v>3.0878763198852539</v>
       </c>
       <c r="E436" s="2">
-        <v>3.0370135307312012</v>
+        <v>3.0365712642669678</v>
       </c>
     </row>
     <row r="437">
@@ -6661,13 +6661,13 @@
         <v>2.9621086120605469</v>
       </c>
       <c r="C437" s="2">
-        <v>2.8843228816986084</v>
+        <v>2.8845474720001221</v>
       </c>
       <c r="D437" s="2">
         <v>3.0275809764862061</v>
       </c>
       <c r="E437" s="2">
-        <v>2.9765183925628662</v>
+        <v>2.9761641025543213</v>
       </c>
     </row>
     <row r="438">
@@ -6678,13 +6678,13 @@
         <v>2.9701380729675293</v>
       </c>
       <c r="C438" s="2">
-        <v>2.9658629894256592</v>
+        <v>2.9663970470428467</v>
       </c>
       <c r="D438" s="2">
         <v>2.940532922744751</v>
       </c>
       <c r="E438" s="2">
-        <v>2.8747036457061768</v>
+        <v>2.8744559288024902</v>
       </c>
     </row>
     <row r="439">
@@ -6695,13 +6695,13 @@
         <v>3.0091185569763184</v>
       </c>
       <c r="C439" s="2">
-        <v>2.9410088062286377</v>
+        <v>2.9397377967834473</v>
       </c>
       <c r="D439" s="2">
         <v>2.9111831188201904</v>
       </c>
       <c r="E439" s="2">
-        <v>2.8532350063323975</v>
+        <v>2.8529462814331055</v>
       </c>
     </row>
     <row r="440">
@@ -6712,13 +6712,13 @@
         <v>2.9480540752410889</v>
       </c>
       <c r="C440" s="2">
-        <v>2.9917593002319336</v>
+        <v>2.9907314777374268</v>
       </c>
       <c r="D440" s="2">
         <v>2.8712742328643799</v>
       </c>
       <c r="E440" s="2">
-        <v>2.8352065086364746</v>
+        <v>2.8348777294158936</v>
       </c>
     </row>
     <row r="441">
@@ -6729,13 +6729,13 @@
         <v>2.8479001522064209</v>
       </c>
       <c r="C441" s="2">
-        <v>2.7126185894012451</v>
+        <v>2.7124123573303223</v>
       </c>
       <c r="D441" s="2">
         <v>2.8171241283416748</v>
       </c>
       <c r="E441" s="2">
-        <v>2.7702560424804688</v>
+        <v>2.7698397636413574</v>
       </c>
     </row>
     <row r="442">
@@ -6746,13 +6746,13 @@
         <v>2.6083316802978516</v>
       </c>
       <c r="C442" s="2">
-        <v>2.4473187923431396</v>
+        <v>2.4476673603057861</v>
       </c>
       <c r="D442" s="2">
         <v>2.7841508388519287</v>
       </c>
       <c r="E442" s="2">
-        <v>2.7492177486419678</v>
+        <v>2.7487740516662598</v>
       </c>
     </row>
     <row r="443">
@@ -6763,13 +6763,13 @@
         <v>2.6559422016143799</v>
       </c>
       <c r="C443" s="2">
-        <v>2.6947481632232666</v>
+        <v>2.6945292949676514</v>
       </c>
       <c r="D443" s="2">
         <v>2.7631773948669434</v>
       </c>
       <c r="E443" s="2">
-        <v>2.7324130535125732</v>
+        <v>2.7318956851959229</v>
       </c>
     </row>
     <row r="444">
@@ -6780,13 +6780,13 @@
         <v>2.7845733165740967</v>
       </c>
       <c r="C444" s="2">
-        <v>2.7727668285369873</v>
+        <v>2.7720885276794434</v>
       </c>
       <c r="D444" s="2">
         <v>2.736886739730835</v>
       </c>
       <c r="E444" s="2">
-        <v>2.7128701210021973</v>
+        <v>2.7123641967773438</v>
       </c>
     </row>
     <row r="445">
@@ -6797,13 +6797,13 @@
         <v>2.5679512023925781</v>
       </c>
       <c r="C445" s="2">
-        <v>2.5218989849090576</v>
+        <v>2.5204474925994873</v>
       </c>
       <c r="D445" s="2">
         <v>2.6898953914642334</v>
       </c>
       <c r="E445" s="2">
-        <v>2.6632239818572998</v>
+        <v>2.6625490188598633</v>
       </c>
     </row>
     <row r="446">
@@ -6814,13 +6814,13 @@
         <v>2.6653487682342529</v>
       </c>
       <c r="C446" s="2">
-        <v>2.6949765682220459</v>
+        <v>2.6949560642242432</v>
       </c>
       <c r="D446" s="2">
         <v>2.6980898380279541</v>
       </c>
       <c r="E446" s="2">
-        <v>2.6698920726776123</v>
+        <v>2.6691906452178955</v>
       </c>
     </row>
     <row r="447">
@@ -6831,13 +6831,13 @@
         <v>2.7813756465911865</v>
       </c>
       <c r="C447" s="2">
-        <v>2.8146209716796875</v>
+        <v>2.8144903182983398</v>
       </c>
       <c r="D447" s="2">
         <v>2.6988604068756104</v>
       </c>
       <c r="E447" s="2">
-        <v>2.6783227920532227</v>
+        <v>2.677424430847168</v>
       </c>
     </row>
     <row r="448">
@@ -6848,13 +6848,13 @@
         <v>2.7725033760070801</v>
       </c>
       <c r="C448" s="2">
-        <v>2.7651224136352539</v>
+        <v>2.7639551162719727</v>
       </c>
       <c r="D448" s="2">
         <v>2.7359039783477783</v>
       </c>
       <c r="E448" s="2">
-        <v>2.6957478523254395</v>
+        <v>2.6947107315063477</v>
       </c>
     </row>
     <row r="449">
@@ -6865,13 +6865,13 @@
         <v>2.5251312255859375</v>
       </c>
       <c r="C449" s="2">
-        <v>2.5449445247650147</v>
+        <v>2.5423943996429443</v>
       </c>
       <c r="D449" s="2">
         <v>2.7346234321594238</v>
       </c>
       <c r="E449" s="2">
-        <v>2.691378116607666</v>
+        <v>2.6902837753295898</v>
       </c>
     </row>
     <row r="450">
@@ -6882,13 +6882,13 @@
         <v>2.9216506481170654</v>
       </c>
       <c r="C450" s="2">
-        <v>2.7726318836212158</v>
+        <v>2.7721877098083496</v>
       </c>
       <c r="D450" s="2">
         <v>2.7363929748535156</v>
       </c>
       <c r="E450" s="2">
-        <v>2.6759531497955322</v>
+        <v>2.6747543811798096</v>
       </c>
     </row>
     <row r="451">
@@ -6899,13 +6899,13 @@
         <v>2.6152679920196533</v>
       </c>
       <c r="C451" s="2">
-        <v>2.5231940746307373</v>
+        <v>2.5217719078063965</v>
       </c>
       <c r="D451" s="2">
         <v>2.7989218235015869</v>
       </c>
       <c r="E451" s="2">
-        <v>2.7290658950805664</v>
+        <v>2.7277500629425049</v>
       </c>
     </row>
     <row r="452">
@@ -6916,13 +6916,13 @@
         <v>2.9893345832824707</v>
       </c>
       <c r="C452" s="2">
-        <v>2.8515751361846924</v>
+        <v>2.8501043319702148</v>
       </c>
       <c r="D452" s="2">
         <v>2.7745163440704346</v>
       </c>
       <c r="E452" s="2">
-        <v>2.6818270683288574</v>
+        <v>2.6803600788116455</v>
       </c>
     </row>
     <row r="453">
@@ -6933,13 +6933,13 @@
         <v>2.7730464935302734</v>
       </c>
       <c r="C453" s="2">
-        <v>2.7334377765655518</v>
+        <v>2.732245922088623</v>
       </c>
       <c r="D453" s="2">
         <v>2.7575724124908447</v>
       </c>
       <c r="E453" s="2">
-        <v>2.653937578201294</v>
+        <v>2.6526377201080322</v>
       </c>
     </row>
     <row r="454">
@@ -6950,13 +6950,13 @@
         <v>2.5838770866394043</v>
       </c>
       <c r="C454" s="2">
-        <v>2.3830747604370117</v>
+        <v>2.3806838989257813</v>
       </c>
       <c r="D454" s="2">
         <v>2.8140444755554199</v>
       </c>
       <c r="E454" s="2">
-        <v>2.706902027130127</v>
+        <v>2.7058060169219971</v>
       </c>
     </row>
     <row r="455">
@@ -6967,13 +6967,13 @@
         <v>3.22810959815979</v>
       </c>
       <c r="C455" s="2">
-        <v>3.172992467880249</v>
+        <v>3.1719160079956055</v>
       </c>
       <c r="D455" s="2">
         <v>2.796811580657959</v>
       </c>
       <c r="E455" s="2">
-        <v>2.708845853805542</v>
+        <v>2.7076306343078613</v>
       </c>
     </row>
     <row r="456">
@@ -6984,13 +6984,13 @@
         <v>2.5617256164550781</v>
       </c>
       <c r="C456" s="2">
-        <v>2.3894708156585693</v>
+        <v>2.3879809379577637</v>
       </c>
       <c r="D456" s="2">
         <v>2.8140428066253662</v>
       </c>
       <c r="E456" s="2">
-        <v>2.7190911769866943</v>
+        <v>2.7180747985839844</v>
       </c>
     </row>
     <row r="457">
@@ -7001,13 +7001,13 @@
         <v>2.6200084686279297</v>
       </c>
       <c r="C457" s="2">
-        <v>2.5141177177429199</v>
+        <v>2.5144550800323486</v>
       </c>
       <c r="D457" s="2">
         <v>2.7849936485290527</v>
       </c>
       <c r="E457" s="2">
-        <v>2.7033140659332275</v>
+        <v>2.70235276222229</v>
       </c>
     </row>
     <row r="458">
@@ -7018,13 +7018,13 @@
         <v>3.033379077911377</v>
       </c>
       <c r="C458" s="2">
-        <v>3.0216240882873535</v>
+        <v>3.0209088325500488</v>
       </c>
       <c r="D458" s="2">
         <v>2.7469065189361572</v>
       </c>
       <c r="E458" s="2">
-        <v>2.670344352722168</v>
+        <v>2.6693089008331299</v>
       </c>
     </row>
     <row r="459">
@@ -7035,13 +7035,13 @@
         <v>2.7665557861328125</v>
       </c>
       <c r="C459" s="2">
-        <v>2.7901265621185303</v>
+        <v>2.788609504699707</v>
       </c>
       <c r="D459" s="2">
         <v>2.7278730869293213</v>
       </c>
       <c r="E459" s="2">
-        <v>2.6814892292022705</v>
+        <v>2.6805350780487061</v>
       </c>
     </row>
     <row r="460">
@@ -7052,13 +7052,13 @@
         <v>2.7703475952148438</v>
       </c>
       <c r="C460" s="2">
-        <v>2.615401029586792</v>
+        <v>2.6157684326171875</v>
       </c>
       <c r="D460" s="2">
         <v>2.6778824329376221</v>
       </c>
       <c r="E460" s="2">
-        <v>2.6325650215148926</v>
+        <v>2.6316831111907959</v>
       </c>
     </row>
     <row r="461">
@@ -7069,13 +7069,13 @@
         <v>2.7278928756713867</v>
       </c>
       <c r="C461" s="2">
-        <v>2.7095813751220703</v>
+        <v>2.7086060047149658</v>
       </c>
       <c r="D461" s="2">
         <v>2.6666951179504395</v>
       </c>
       <c r="E461" s="2">
-        <v>2.636432409286499</v>
+        <v>2.6356923580169678</v>
       </c>
     </row>
     <row r="462">
@@ -7086,13 +7086,13 @@
         <v>2.4302632808685303</v>
       </c>
       <c r="C462" s="2">
-        <v>2.436711311340332</v>
+        <v>2.434851884841919</v>
       </c>
       <c r="D462" s="2">
         <v>2.6616573333740234</v>
       </c>
       <c r="E462" s="2">
-        <v>2.6441071033477783</v>
+        <v>2.6432821750640869</v>
       </c>
     </row>
     <row r="463">
@@ -7103,13 +7103,13 @@
         <v>2.4125761985778809</v>
       </c>
       <c r="C463" s="2">
-        <v>2.4833786487579346</v>
+        <v>2.4817192554473877</v>
       </c>
       <c r="D463" s="2">
         <v>2.6214265823364258</v>
       </c>
       <c r="E463" s="2">
-        <v>2.6101145744323731</v>
+        <v>2.6093006134033203</v>
       </c>
     </row>
     <row r="464">
@@ -7120,13 +7120,13 @@
         <v>2.7781939506530762</v>
       </c>
       <c r="C464" s="2">
-        <v>2.7326734066009521</v>
+        <v>2.7322485446929932</v>
       </c>
       <c r="D464" s="2">
         <v>2.6013615131378174</v>
       </c>
       <c r="E464" s="2">
-        <v>2.5978798866271973</v>
+        <v>2.5970795154571533</v>
       </c>
     </row>
     <row r="465">
@@ -7137,13 +7137,13 @@
         <v>2.4610390663146973</v>
       </c>
       <c r="C465" s="2">
-        <v>2.4242780208587647</v>
+        <v>2.4240627288818359</v>
       </c>
       <c r="D465" s="2">
         <v>2.6265122890472412</v>
       </c>
       <c r="E465" s="2">
-        <v>2.6335136890411377</v>
+        <v>2.6323733329772949</v>
       </c>
     </row>
     <row r="466">
@@ -7154,13 +7154,13 @@
         <v>2.5746691226959229</v>
       </c>
       <c r="C466" s="2">
-        <v>2.583188533782959</v>
+        <v>2.5827646255493164</v>
       </c>
       <c r="D466" s="2">
         <v>2.6273176670074463</v>
       </c>
       <c r="E466" s="2">
-        <v>2.6409187316894531</v>
+        <v>2.6397476196289063</v>
       </c>
     </row>
     <row r="467">
@@ -7171,13 +7171,13 @@
         <v>2.6713011264801025</v>
       </c>
       <c r="C467" s="2">
-        <v>2.7156913280487061</v>
+        <v>2.7150740623474121</v>
       </c>
       <c r="D467" s="2">
         <v>2.6889805793762207</v>
       </c>
       <c r="E467" s="2">
-        <v>2.6873505115509033</v>
+        <v>2.6862549781799316</v>
       </c>
     </row>
     <row r="468">
@@ -7188,13 +7188,13 @@
         <v>2.5859699249267578</v>
       </c>
       <c r="C468" s="2">
-        <v>2.6800148487091065</v>
+        <v>2.6786191463470459</v>
       </c>
       <c r="D468" s="2">
         <v>2.7668824195861817</v>
       </c>
       <c r="E468" s="2">
-        <v>2.7620267868041992</v>
+        <v>2.7609453201293945</v>
       </c>
     </row>
     <row r="469">
@@ -7205,13 +7205,13 @@
         <v>2.9967043399810791</v>
       </c>
       <c r="C469" s="2">
-        <v>2.9361050128936768</v>
+        <v>2.9334142208099365</v>
       </c>
       <c r="D469" s="2">
         <v>2.748664140701294</v>
       </c>
       <c r="E469" s="2">
-        <v>2.7523012161254883</v>
+        <v>2.7510578632354736</v>
       </c>
     </row>
     <row r="470">
@@ -7222,13 +7222,13 @@
         <v>2.7351410388946533</v>
       </c>
       <c r="C470" s="2">
-        <v>2.7762277126312256</v>
+        <v>2.7749736309051514</v>
       </c>
       <c r="D470" s="2">
         <v>2.7564685344696045</v>
       </c>
       <c r="E470" s="2">
-        <v>2.7562956809997559</v>
+        <v>2.7550003528594971</v>
       </c>
     </row>
     <row r="471">
@@ -7239,13 +7239,13 @@
         <v>2.9852306842803955</v>
       </c>
       <c r="C471" s="2">
-        <v>2.8545980453491211</v>
+        <v>2.8534176349639893</v>
       </c>
       <c r="D471" s="2">
         <v>2.8123488426208496</v>
       </c>
       <c r="E471" s="2">
-        <v>2.8029680252075195</v>
+        <v>2.8018214702606201</v>
       </c>
     </row>
     <row r="472">
@@ -7256,13 +7256,13 @@
         <v>3.1136932373046875</v>
       </c>
       <c r="C472" s="2">
-        <v>3.1554641723632813</v>
+        <v>3.1539323329925537</v>
       </c>
       <c r="D472" s="2">
         <v>2.7665665149688721</v>
       </c>
       <c r="E472" s="2">
-        <v>2.7488827705383301</v>
+        <v>2.7476222515106201</v>
       </c>
     </row>
     <row r="473">
@@ -7273,13 +7273,13 @@
         <v>2.6142282485961914</v>
       </c>
       <c r="C473" s="2">
-        <v>2.6451427936553955</v>
+        <v>2.6432626247406006</v>
       </c>
       <c r="D473" s="2">
         <v>2.7636537551879883</v>
       </c>
       <c r="E473" s="2">
-        <v>2.732947826385498</v>
+        <v>2.7317430973052979</v>
       </c>
     </row>
     <row r="474">
@@ -7290,13 +7290,13 @@
         <v>2.5312793254852295</v>
       </c>
       <c r="C474" s="2">
-        <v>2.460228443145752</v>
+        <v>2.459545373916626</v>
       </c>
       <c r="D474" s="2">
         <v>2.7696874141693115</v>
       </c>
       <c r="E474" s="2">
-        <v>2.7335915565490723</v>
+        <v>2.7327094078063965</v>
       </c>
     </row>
     <row r="475">
@@ -7307,13 +7307,13 @@
         <v>3.0775909423828125</v>
       </c>
       <c r="C475" s="2">
-        <v>3.0032403469085693</v>
+        <v>3.0041537284851074</v>
       </c>
       <c r="D475" s="2">
         <v>2.7364692687988281</v>
       </c>
       <c r="E475" s="2">
-        <v>2.6906349658966064</v>
+        <v>2.6898558139801025</v>
       </c>
     </row>
     <row r="476">
@@ -7324,13 +7324,13 @@
         <v>2.2592616081237793</v>
       </c>
       <c r="C476" s="2">
-        <v>2.2289242744445801</v>
+        <v>2.2272818088531494</v>
       </c>
       <c r="D476" s="2">
         <v>2.731764554977417</v>
       </c>
       <c r="E476" s="2">
-        <v>2.6950869560241699</v>
+        <v>2.694150447845459</v>
       </c>
     </row>
     <row r="477">
@@ -7341,13 +7341,13 @@
         <v>2.5597541332244873</v>
       </c>
       <c r="C477" s="2">
-        <v>2.5365996360778809</v>
+        <v>2.5357060432434082</v>
       </c>
       <c r="D477" s="2">
         <v>2.6701865196228027</v>
       </c>
       <c r="E477" s="2">
-        <v>2.6273140907287598</v>
+        <v>2.6265304088592529</v>
       </c>
     </row>
     <row r="478">
@@ -7358,13 +7358,13 @@
         <v>3.0510075092315674</v>
       </c>
       <c r="C478" s="2">
-        <v>2.941899299621582</v>
+        <v>2.9421119689941406</v>
       </c>
       <c r="D478" s="2">
         <v>2.6619458198547363</v>
       </c>
       <c r="E478" s="2">
-        <v>2.6122324466705322</v>
+        <v>2.61153244972229</v>
       </c>
     </row>
     <row r="479">
@@ -7375,13 +7375,13 @@
         <v>2.4361770153045654</v>
       </c>
       <c r="C479" s="2">
-        <v>2.3896181583404541</v>
+        <v>2.389291524887085</v>
       </c>
       <c r="D479" s="2">
         <v>2.6666512489318848</v>
       </c>
       <c r="E479" s="2">
-        <v>2.6245489120483398</v>
+        <v>2.6238052845001221</v>
       </c>
     </row>
     <row r="480">
@@ -7392,13 +7392,13 @@
         <v>2.9428889751434326</v>
       </c>
       <c r="C480" s="2">
-        <v>2.894665002822876</v>
+        <v>2.8920688629150391</v>
       </c>
       <c r="D480" s="2">
         <v>2.6039409637451172</v>
       </c>
       <c r="E480" s="2">
-        <v>2.5673830509185791</v>
+        <v>2.566516637802124</v>
       </c>
     </row>
     <row r="481">
@@ -7409,13 +7409,13 @@
         <v>2.5594911575317383</v>
       </c>
       <c r="C481" s="2">
-        <v>2.5455093383789063</v>
+        <v>2.5453526973724365</v>
       </c>
       <c r="D481" s="2">
         <v>2.6355845928192139</v>
       </c>
       <c r="E481" s="2">
-        <v>2.5944256782531738</v>
+        <v>2.593766450881958</v>
       </c>
     </row>
     <row r="482">
@@ -7426,13 +7426,13 @@
         <v>2.5400607585906982</v>
       </c>
       <c r="C482" s="2">
-        <v>2.5094077587127686</v>
+        <v>2.5082809925079346</v>
       </c>
       <c r="D482" s="2">
         <v>2.6351888179779053</v>
       </c>
       <c r="E482" s="2">
-        <v>2.5858802795410156</v>
+        <v>2.5852506160736084</v>
       </c>
     </row>
     <row r="483">
@@ -7443,13 +7443,13 @@
         <v>2.5736291408538818</v>
       </c>
       <c r="C483" s="2">
-        <v>2.5710759162902832</v>
+        <v>2.5699996948242188</v>
       </c>
       <c r="D483" s="2">
         <v>2.6240286827087402</v>
       </c>
       <c r="E483" s="2">
-        <v>2.5730757713317871</v>
+        <v>2.5722825527191162</v>
       </c>
     </row>
     <row r="484">
@@ -7460,13 +7460,13 @@
         <v>2.5131983757019043</v>
       </c>
       <c r="C484" s="2">
-        <v>2.48874831199646</v>
+        <v>2.4885571002960205</v>
       </c>
       <c r="D484" s="2">
         <v>2.633913516998291</v>
       </c>
       <c r="E484" s="2">
-        <v>2.5937764644622803</v>
+        <v>2.592843770980835</v>
       </c>
     </row>
     <row r="485">
@@ -7477,13 +7477,13 @@
         <v>2.5440547466278076</v>
       </c>
       <c r="C485" s="2">
-        <v>2.4723067283630371</v>
+        <v>2.4725298881530762</v>
       </c>
       <c r="D485" s="2">
         <v>2.6443402767181396</v>
       </c>
       <c r="E485" s="2">
-        <v>2.5995862483978272</v>
+        <v>2.5989112854003906</v>
       </c>
     </row>
     <row r="486">
@@ -7494,13 +7494,13 @@
         <v>2.5561923980712891</v>
       </c>
       <c r="C486" s="2">
-        <v>2.4596912860870361</v>
+        <v>2.4590628147125244</v>
       </c>
       <c r="D486" s="2">
         <v>2.6657605171203613</v>
       </c>
       <c r="E486" s="2">
-        <v>2.6251697540283203</v>
+        <v>2.6244792938232422</v>
       </c>
     </row>
     <row r="487">
@@ -7511,13 +7511,13 @@
         <v>2.9505648612976074</v>
       </c>
       <c r="C487" s="2">
-        <v>2.82666015625</v>
+        <v>2.8253986835479736</v>
       </c>
       <c r="D487" s="2">
         <v>2.6703059673309326</v>
       </c>
       <c r="E487" s="2">
-        <v>2.638601541519165</v>
+        <v>2.6378705501556397</v>
       </c>
     </row>
     <row r="488">
@@ -7528,13 +7528,13 @@
         <v>2.5251419544219971</v>
       </c>
       <c r="C488" s="2">
-        <v>2.5759241580963135</v>
+        <v>2.5743422508239746</v>
       </c>
       <c r="D488" s="2">
         <v>2.6668796539306641</v>
       </c>
       <c r="E488" s="2">
-        <v>2.6234335899353027</v>
+        <v>2.6227169036865234</v>
       </c>
     </row>
     <row r="489">
@@ -7545,13 +7545,13 @@
         <v>3.0367288589477539</v>
       </c>
       <c r="C489" s="2">
-        <v>2.9469518661499023</v>
+        <v>2.9466769695281983</v>
       </c>
       <c r="D489" s="2">
         <v>2.6861402988433838</v>
       </c>
       <c r="E489" s="2">
-        <v>2.6481006145477295</v>
+        <v>2.6472048759460449</v>
       </c>
     </row>
     <row r="490">
@@ -7562,13 +7562,13 @@
         <v>2.7522745132446289</v>
       </c>
       <c r="C490" s="2">
-        <v>2.7757608890533447</v>
+        <v>2.7754659652709961</v>
       </c>
       <c r="D490" s="2">
         <v>2.6630902290344238</v>
       </c>
       <c r="E490" s="2">
-        <v>2.6373367309570313</v>
+        <v>2.6362454891204834</v>
       </c>
     </row>
     <row r="491">
@@ -7579,13 +7579,13 @@
         <v>2.5809698104858399</v>
       </c>
       <c r="C491" s="2">
-        <v>2.6302947998046875</v>
+        <v>2.6288022994995117</v>
       </c>
       <c r="D491" s="2">
         <v>2.6858401298522949</v>
       </c>
       <c r="E491" s="2">
-        <v>2.6720113754272461</v>
+        <v>2.6708707809448242</v>
       </c>
     </row>
     <row r="492">
@@ -7596,13 +7596,13 @@
         <v>2.5427908897399902</v>
       </c>
       <c r="C492" s="2">
-        <v>2.4345643520355225</v>
+        <v>2.4336159229278564</v>
       </c>
       <c r="D492" s="2">
         <v>2.5910727977752686</v>
       </c>
       <c r="E492" s="2">
-        <v>2.5945141315460205</v>
+        <v>2.5933952331542969</v>
       </c>
     </row>
     <row r="493">
@@ -7613,13 +7613,13 @@
         <v>2.6865453720092774</v>
       </c>
       <c r="C493" s="2">
-        <v>2.7107503414154053</v>
+        <v>2.7089486122131348</v>
       </c>
       <c r="D493" s="2">
         <v>2.5656423568725586</v>
       </c>
       <c r="E493" s="2">
-        <v>2.5681707859039307</v>
+        <v>2.5669994354248047</v>
       </c>
     </row>
     <row r="494">
@@ -7630,13 +7630,13 @@
         <v>2.3366026878356934</v>
       </c>
       <c r="C494" s="2">
-        <v>2.375432014465332</v>
+        <v>2.3738954067230225</v>
       </c>
       <c r="D494" s="2">
         <v>2.5340976715087891</v>
       </c>
       <c r="E494" s="2">
-        <v>2.532968282699585</v>
+        <v>2.5317480564117432</v>
       </c>
     </row>
     <row r="495">
@@ -7647,13 +7647,13 @@
         <v>2.7609415054321289</v>
       </c>
       <c r="C495" s="2">
-        <v>2.7717635631561279</v>
+        <v>2.7706913948059082</v>
       </c>
       <c r="D495" s="2">
         <v>2.5165019035339356</v>
       </c>
       <c r="E495" s="2">
-        <v>2.4964101314544678</v>
+        <v>2.4949996471405029</v>
       </c>
     </row>
     <row r="496">
@@ -7664,13 +7664,13 @@
         <v>2.0976600646972656</v>
       </c>
       <c r="C496" s="2">
-        <v>2.1291847229003906</v>
+        <v>2.1281180381774902</v>
       </c>
       <c r="D496" s="2">
         <v>2.5515782833099365</v>
       </c>
       <c r="E496" s="2">
-        <v>2.5190784931182861</v>
+        <v>2.5178141593933105</v>
       </c>
     </row>
     <row r="497">
@@ -7681,13 +7681,13 @@
         <v>2.2962672710418701</v>
       </c>
       <c r="C497" s="2">
-        <v>2.3388338088989258</v>
+        <v>2.3367800712585449</v>
       </c>
       <c r="D497" s="2">
         <v>2.5546910762786865</v>
       </c>
       <c r="E497" s="2">
-        <v>2.542853832244873</v>
+        <v>2.5414388179779053</v>
       </c>
     </row>
     <row r="498">
@@ -7698,13 +7698,13 @@
         <v>2.7528274059295654</v>
       </c>
       <c r="C498" s="2">
-        <v>2.6301305294036865</v>
+        <v>2.6294147968292236</v>
       </c>
       <c r="D498" s="2">
         <v>2.5697212219238281</v>
       </c>
       <c r="E498" s="2">
-        <v>2.5350172519683838</v>
+        <v>2.5338122844696045</v>
       </c>
     </row>
     <row r="499">
@@ -7715,13 +7715,13 @@
         <v>2.5939116477966309</v>
       </c>
       <c r="C499" s="2">
-        <v>2.4467363357543945</v>
+        <v>2.4447309970855713</v>
       </c>
       <c r="D499" s="2">
         <v>2.5828979015350342</v>
       </c>
       <c r="E499" s="2">
-        <v>2.5369663238525391</v>
+        <v>2.5357942581176758</v>
       </c>
     </row>
     <row r="500">
@@ -7732,13 +7732,13 @@
         <v>2.896658182144165</v>
       </c>
       <c r="C500" s="2">
-        <v>2.8343098163604736</v>
+        <v>2.8341312408447266</v>
       </c>
       <c r="D500" s="2">
         <v>2.5934164524078369</v>
       </c>
       <c r="E500" s="2">
-        <v>2.5197820663452148</v>
+        <v>2.5186595916748047</v>
       </c>
     </row>
     <row r="501">
@@ -7749,13 +7749,13 @@
         <v>2.5708050727844238</v>
       </c>
       <c r="C501" s="2">
-        <v>2.6485438346862793</v>
+        <v>2.6462395191192627</v>
       </c>
       <c r="D501" s="2">
         <v>2.6256239414215088</v>
       </c>
       <c r="E501" s="2">
-        <v>2.5460402965545654</v>
+        <v>2.5450220108032227</v>
       </c>
     </row>
     <row r="502">
@@ -7766,13 +7766,13 @@
         <v>2.8218173980712891</v>
       </c>
       <c r="C502" s="2">
-        <v>2.6402196884155274</v>
+        <v>2.6403098106384277</v>
       </c>
       <c r="D502" s="2">
         <v>2.6227767467498779</v>
       </c>
       <c r="E502" s="2">
-        <v>2.5211808681488037</v>
+        <v>2.5202162265777588</v>
       </c>
     </row>
     <row r="503">
@@ -7783,13 +7783,13 @@
         <v>2.4551935195922852</v>
       </c>
       <c r="C503" s="2">
-        <v>2.3929736614227295</v>
+        <v>2.3917334079742432</v>
       </c>
       <c r="D503" s="2">
         <v>2.608351469039917</v>
       </c>
       <c r="E503" s="2">
-        <v>2.5223624706268311</v>
+        <v>2.5212059020996094</v>
       </c>
     </row>
     <row r="504">
@@ -7800,13 +7800,13 @@
         <v>2.8556067943572998</v>
       </c>
       <c r="C504" s="2">
-        <v>2.61710524559021</v>
+        <v>2.6164789199829102</v>
       </c>
       <c r="D504" s="2">
         <v>2.5827634334564209</v>
       </c>
       <c r="E504" s="2">
-        <v>2.5140178203582764</v>
+        <v>2.512904167175293</v>
       </c>
     </row>
     <row r="505">
@@ -7817,13 +7817,13 @@
         <v>2.3875288963317871</v>
       </c>
       <c r="C505" s="2">
-        <v>2.3655107021331787</v>
+        <v>2.3653802871704102</v>
       </c>
       <c r="D505" s="2">
         <v>2.5589601993560791</v>
       </c>
       <c r="E505" s="2">
-        <v>2.495929479598999</v>
+        <v>2.4946498870849609</v>
       </c>
     </row>
     <row r="506">
@@ -7834,13 +7834,13 @@
         <v>2.2706425189971924</v>
       </c>
       <c r="C506" s="2">
-        <v>2.1150975227355957</v>
+        <v>2.1135272979736328</v>
       </c>
       <c r="D506" s="2">
         <v>2.6139340400695801</v>
       </c>
       <c r="E506" s="2">
-        <v>2.5451080799102783</v>
+        <v>2.5439412593841553</v>
       </c>
     </row>
     <row r="507">
@@ -7851,13 +7851,13 @@
         <v>2.6229984760284424</v>
       </c>
       <c r="C507" s="2">
-        <v>2.6407656669616699</v>
+        <v>2.6383218765258789</v>
       </c>
       <c r="D507" s="2">
         <v>2.5573687553405762</v>
       </c>
       <c r="E507" s="2">
-        <v>2.5201902389526367</v>
+        <v>2.5187561511993408</v>
       </c>
     </row>
     <row r="508">
@@ -7868,13 +7868,13 @@
         <v>2.3636209964752197</v>
       </c>
       <c r="C508" s="2">
-        <v>2.3716349601745606</v>
+        <v>2.3700153827667236</v>
       </c>
       <c r="D508" s="2">
         <v>2.5642008781433105</v>
       </c>
       <c r="E508" s="2">
-        <v>2.5301456451416016</v>
+        <v>2.5286955833435059</v>
       </c>
     </row>
     <row r="509">
@@ -7885,13 +7885,13 @@
         <v>2.6824285984039307</v>
       </c>
       <c r="C509" s="2">
-        <v>2.6715147495269775</v>
+        <v>2.6698434352874756</v>
       </c>
       <c r="D509" s="2">
         <v>2.5378682613372803</v>
       </c>
       <c r="E509" s="2">
-        <v>2.5443451404571533</v>
+        <v>2.5428061485290527</v>
       </c>
     </row>
     <row r="510">
@@ -7902,13 +7902,13 @@
         <v>3.0655684471130371</v>
       </c>
       <c r="C510" s="2">
-        <v>3.091151237487793</v>
+        <v>3.0898611545562744</v>
       </c>
       <c r="D510" s="2">
         <v>2.5521366596221924</v>
       </c>
       <c r="E510" s="2">
-        <v>2.5619716644287109</v>
+        <v>2.5602943897247315</v>
       </c>
     </row>
     <row r="511">
@@ -7919,13 +7919,13 @@
         <v>2.3127312660217285</v>
       </c>
       <c r="C511" s="2">
-        <v>2.4159576892852783</v>
+        <v>2.4136438369750977</v>
       </c>
       <c r="D511" s="2">
         <v>2.6005368232727051</v>
       </c>
       <c r="E511" s="2">
-        <v>2.6184172630310059</v>
+        <v>2.6167888641357422</v>
       </c>
     </row>
     <row r="512">
@@ -7936,13 +7936,13 @@
         <v>2.5166811943054199</v>
       </c>
       <c r="C512" s="2">
-        <v>2.4825737476348877</v>
+        <v>2.4811880588531494</v>
       </c>
       <c r="D512" s="2">
         <v>2.5813901424407959</v>
       </c>
       <c r="E512" s="2">
-        <v>2.5981109142303467</v>
+        <v>2.5966527462005615</v>
       </c>
     </row>
     <row r="513">
@@ -7953,13 +7953,13 @@
         <v>2.6186144351959229</v>
       </c>
       <c r="C513" s="2">
-        <v>2.7449004650115967</v>
+        <v>2.7434735298156738</v>
       </c>
       <c r="D513" s="2">
         <v>2.6622903347015381</v>
       </c>
       <c r="E513" s="2">
-        <v>2.6814424991607666</v>
+        <v>2.6800100803375244</v>
       </c>
     </row>
     <row r="514">
@@ -7970,13 +7970,13 @@
         <v>2.5159430503845215</v>
       </c>
       <c r="C514" s="2">
-        <v>2.5241484642028809</v>
+        <v>2.5227758884429932</v>
       </c>
       <c r="D514" s="2">
         <v>2.6796371936798096</v>
       </c>
       <c r="E514" s="2">
-        <v>2.6866827011108399</v>
+        <v>2.685387134552002</v>
       </c>
     </row>
     <row r="515">
@@ -7987,13 +7987,13 @@
         <v>2.7062458992004395</v>
       </c>
       <c r="C515" s="2">
-        <v>2.62310791015625</v>
+        <v>2.6219761371612549</v>
       </c>
       <c r="D515" s="2">
         <v>2.6662776470184326</v>
       </c>
       <c r="E515" s="2">
-        <v>2.6750373840332031</v>
+        <v>2.6737864017486572</v>
       </c>
     </row>
     <row r="516">
@@ -8004,13 +8004,13 @@
         <v>2.4506778717041016</v>
       </c>
       <c r="C516" s="2">
-        <v>2.4580094814300537</v>
+        <v>2.4570972919464111</v>
       </c>
       <c r="D516" s="2">
         <v>2.7365729808807373</v>
       </c>
       <c r="E516" s="2">
-        <v>2.7268161773681641</v>
+        <v>2.7256941795349121</v>
       </c>
     </row>
     <row r="517">
@@ -8021,13 +8021,13 @@
         <v>3.0917212963104248</v>
       </c>
       <c r="C517" s="2">
-        <v>3.1216187477111816</v>
+        <v>3.1202311515808105</v>
       </c>
       <c r="D517" s="2">
         <v>2.7284095287322998</v>
       </c>
       <c r="E517" s="2">
-        <v>2.7197520732879639</v>
+        <v>2.7186977863311768</v>
       </c>
     </row>
     <row r="518">
@@ -8038,13 +8038,13 @@
         <v>2.8385505676269531</v>
       </c>
       <c r="C518" s="2">
-        <v>2.7186760902404785</v>
+        <v>2.7182378768920899</v>
       </c>
       <c r="D518" s="2">
         <v>2.742429256439209</v>
       </c>
       <c r="E518" s="2">
-        <v>2.7251358032226563</v>
+        <v>2.7240581512451172</v>
       </c>
     </row>
     <row r="519">
@@ -8055,13 +8055,13 @@
         <v>2.94533371925354</v>
       </c>
       <c r="C519" s="2">
-        <v>2.9863431453704834</v>
+        <v>2.9854533672332764</v>
       </c>
       <c r="D519" s="2">
         <v>2.8440389633178711</v>
       </c>
       <c r="E519" s="2">
-        <v>2.8413331508636475</v>
+        <v>2.8402268886566162</v>
       </c>
     </row>
     <row r="520">
@@ -8072,13 +8072,13 @@
         <v>2.9453883171081543</v>
       </c>
       <c r="C520" s="2">
-        <v>2.8819677829742432</v>
+        <v>2.8808143138885498</v>
       </c>
       <c r="D520" s="2">
         <v>2.9764657020568848</v>
       </c>
       <c r="E520" s="2">
-        <v>2.9472887516021729</v>
+        <v>2.946354866027832</v>
       </c>
     </row>
     <row r="521">
@@ -8089,13 +8089,13 @@
         <v>2.4432106018066406</v>
       </c>
       <c r="C521" s="2">
-        <v>2.4189972877502442</v>
+        <v>2.4182200431823731</v>
       </c>
       <c r="D521" s="2">
         <v>3.1342942714691162</v>
       </c>
       <c r="E521" s="2">
-        <v>3.0945103168487549</v>
+        <v>3.0936510562896729</v>
       </c>
     </row>
     <row r="522">
@@ -8106,13 +8106,13 @@
         <v>2.7447912693023682</v>
       </c>
       <c r="C522" s="2">
-        <v>2.793353796005249</v>
+        <v>2.7917180061340332</v>
       </c>
       <c r="D522" s="2">
         <v>3.1873319149017334</v>
       </c>
       <c r="E522" s="2">
-        <v>3.131103515625</v>
+        <v>3.1303040981292725</v>
       </c>
     </row>
     <row r="523">
@@ -8123,13 +8123,13 @@
         <v>3.4304304122924805</v>
       </c>
       <c r="C523" s="2">
-        <v>3.5699234008789063</v>
+        <v>3.5682947635650635</v>
       </c>
       <c r="D523" s="2">
         <v>3.2289783954620361</v>
       </c>
       <c r="E523" s="2">
-        <v>3.1895997524261475</v>
+        <v>3.1886804103851318</v>
       </c>
     </row>
     <row r="524">
@@ -8140,13 +8140,13 @@
         <v>3.8980875015258789</v>
       </c>
       <c r="C524" s="2">
-        <v>3.5767083168029785</v>
+        <v>3.5771262645721436</v>
       </c>
       <c r="D524" s="2">
         <v>3.2866997718811035</v>
       </c>
       <c r="E524" s="2">
-        <v>3.2307138442993164</v>
+        <v>3.2298433780670166</v>
       </c>
     </row>
     <row r="525">
@@ -8157,13 +8157,13 @@
         <v>3.8711347579956055</v>
       </c>
       <c r="C525" s="2">
-        <v>3.7830047607421875</v>
+        <v>3.7827627658843994</v>
       </c>
       <c r="D525" s="2">
         <v>3.3973889350891113</v>
       </c>
       <c r="E525" s="2">
-        <v>3.3459348678588867</v>
+        <v>3.3452026844024658</v>
       </c>
     </row>
     <row r="526">
@@ -8174,13 +8174,13 @@
         <v>3.5690600872039795</v>
       </c>
       <c r="C526" s="2">
-        <v>3.4509568214416504</v>
+        <v>3.4501087665557861</v>
       </c>
       <c r="D526" s="2">
         <v>3.514833927154541</v>
       </c>
       <c r="E526" s="2">
-        <v>3.4676103591918945</v>
+        <v>3.466893196105957</v>
       </c>
     </row>
     <row r="527">
@@ -8191,13 +8191,13 @@
         <v>3.213369607925415</v>
       </c>
       <c r="C527" s="2">
-        <v>3.2451426982879639</v>
+        <v>3.2436251640319824</v>
       </c>
       <c r="D527" s="2">
         <v>3.6371064186096192</v>
       </c>
       <c r="E527" s="2">
-        <v>3.5761816501617432</v>
+        <v>3.5755398273468018</v>
       </c>
     </row>
     <row r="528">
@@ -8208,13 +8208,13 @@
         <v>3.4648256301879883</v>
       </c>
       <c r="C528" s="2">
-        <v>3.3563694953918457</v>
+        <v>3.3559195995330811</v>
       </c>
       <c r="D528" s="2">
         <v>3.6798088550567627</v>
       </c>
       <c r="E528" s="2">
-        <v>3.6029765605926514</v>
+        <v>3.6023757457733154</v>
       </c>
     </row>
     <row r="529">
@@ -8225,13 +8225,13 @@
         <v>3.9415903091430664</v>
       </c>
       <c r="C529" s="2">
-        <v>3.9189562797546387</v>
+        <v>3.919048547744751</v>
       </c>
       <c r="D529" s="2">
         <v>3.6931970119476318</v>
       </c>
       <c r="E529" s="2">
-        <v>3.6377825736999512</v>
+        <v>3.6371400356292725</v>
       </c>
     </row>
     <row r="530">
@@ -8242,13 +8242,13 @@
         <v>3.5002150535583496</v>
       </c>
       <c r="C530" s="2">
-        <v>3.51407790184021</v>
+        <v>3.5134346485137939</v>
       </c>
       <c r="D530" s="2">
         <v>3.7167260646820068</v>
       </c>
       <c r="E530" s="2">
-        <v>3.6602694988250733</v>
+        <v>3.6596462726593018</v>
       </c>
     </row>
     <row r="531">
@@ -8259,13 +8259,13 @@
         <v>3.8452441692352295</v>
       </c>
       <c r="C531" s="2">
-        <v>3.7704946994781494</v>
+        <v>3.769538402557373</v>
       </c>
       <c r="D531" s="2">
         <v>3.8630597591400147</v>
       </c>
       <c r="E531" s="2">
-        <v>3.7955076694488525</v>
+        <v>3.7949819564819336</v>
       </c>
     </row>
     <row r="532">
@@ -8276,13 +8276,13 @@
         <v>3.814753532409668</v>
       </c>
       <c r="C532" s="2">
-        <v>3.8110771179199219</v>
+        <v>3.8098170757293701</v>
       </c>
       <c r="D532" s="2">
         <v>3.9556484222412109</v>
       </c>
       <c r="E532" s="2">
-        <v>3.8835489749908447</v>
+        <v>3.8830816745758057</v>
       </c>
     </row>
     <row r="533">
@@ -8293,13 +8293,13 @@
         <v>4.0185794830322266</v>
       </c>
       <c r="C533" s="2">
-        <v>3.8899631500244141</v>
+        <v>3.8900043964385986</v>
       </c>
       <c r="D533" s="2">
         <v>3.9714298248291016</v>
       </c>
       <c r="E533" s="2">
-        <v>3.9131941795349121</v>
+        <v>3.9126183986663818</v>
       </c>
     </row>
     <row r="534">
@@ -8310,13 +8310,13 @@
         <v>4.0828957557678223</v>
       </c>
       <c r="C534" s="2">
-        <v>3.9853882789611816</v>
+        <v>3.9853200912475586</v>
       </c>
       <c r="D534" s="2">
         <v>4.0083322525024414</v>
       </c>
       <c r="E534" s="2">
-        <v>3.9515380859375</v>
+        <v>3.9508876800537109</v>
       </c>
     </row>
     <row r="535">
@@ -8327,13 +8327,13 @@
         <v>4.8860640525817871</v>
       </c>
       <c r="C535" s="2">
-        <v>4.6680989265441895</v>
+        <v>4.6681299209594727</v>
       </c>
       <c r="D535" s="2">
         <v>4.1091818809509277</v>
       </c>
       <c r="E535" s="2">
-        <v>4.0363516807556152</v>
+        <v>4.0356554985046387</v>
       </c>
     </row>
     <row r="536">
@@ -8344,13 +8344,13 @@
         <v>4.0466670989990234</v>
       </c>
       <c r="C536" s="2">
-        <v>4.0375156402587891</v>
+        <v>4.036522388458252</v>
       </c>
       <c r="D536" s="2">
         <v>4.1340928077697754</v>
       </c>
       <c r="E536" s="2">
-        <v>4.0677118301391602</v>
+        <v>4.0671324729919434</v>
       </c>
     </row>
     <row r="537">
@@ -8361,13 +8361,13 @@
         <v>3.6068596839904785</v>
       </c>
       <c r="C537" s="2">
-        <v>3.6231765747070313</v>
+        <v>3.621751070022583</v>
       </c>
       <c r="D537" s="2">
         <v>4.1659126281738281</v>
       </c>
       <c r="E537" s="2">
-        <v>4.0790181159973145</v>
+        <v>4.078615665435791</v>
       </c>
     </row>
     <row r="538">
@@ -8378,13 +8378,13 @@
         <v>4.2737116813659668</v>
       </c>
       <c r="C538" s="2">
-        <v>4.2640509605407715</v>
+        <v>4.2634716033935547</v>
       </c>
       <c r="D538" s="2">
         <v>4.1496243476867676</v>
       </c>
       <c r="E538" s="2">
-        <v>4.0687131881713867</v>
+        <v>4.0682940483093262</v>
       </c>
     </row>
     <row r="539">
@@ -8395,13 +8395,13 @@
         <v>4.4078612327575684</v>
       </c>
       <c r="C539" s="2">
-        <v>4.2773985862731934</v>
+        <v>4.2763457298278809</v>
       </c>
       <c r="D539" s="2">
         <v>4.1836681365966797</v>
       </c>
       <c r="E539" s="2">
-        <v>4.0875639915466309</v>
+        <v>4.0870175361633301</v>
       </c>
     </row>
     <row r="540">
@@ -8412,13 +8412,13 @@
         <v>4.0694417953491211</v>
       </c>
       <c r="C540" s="2">
-        <v>4.052736759185791</v>
+        <v>4.0528316497802734</v>
       </c>
       <c r="D540" s="2">
         <v>4.1096882820129395</v>
       </c>
       <c r="E540" s="2">
-        <v>4.0471224784851074</v>
+        <v>4.0465593338012695</v>
       </c>
     </row>
     <row r="541">
@@ -8429,13 +8429,13 @@
         <v>4.1011319160461426</v>
       </c>
       <c r="C541" s="2">
-        <v>3.9128329753875732</v>
+        <v>3.9131660461425781</v>
       </c>
       <c r="D541" s="2">
         <v>4.0478038787841797</v>
       </c>
       <c r="E541" s="2">
-        <v>3.9805762767791748</v>
+        <v>3.9801223278045654</v>
       </c>
     </row>
     <row r="542">
@@ -8446,13 +8446,13 @@
         <v>3.8719861507415771</v>
       </c>
       <c r="C542" s="2">
-        <v>3.7972180843353272</v>
+        <v>3.7971079349517822</v>
       </c>
       <c r="D542" s="2">
         <v>4.1201076507568359</v>
       </c>
       <c r="E542" s="2">
-        <v>4.0553698539733887</v>
+        <v>4.0549526214599609</v>
       </c>
     </row>
     <row r="543">
@@ -8463,13 +8463,13 @@
         <v>4.3892917633056641</v>
       </c>
       <c r="C543" s="2">
-        <v>4.1550464630126953</v>
+        <v>4.1538329124450684</v>
       </c>
       <c r="D543" s="2">
         <v>4.0656123161315918</v>
       </c>
       <c r="E543" s="2">
-        <v>3.9904582500457764</v>
+        <v>3.9901390075683594</v>
       </c>
     </row>
     <row r="544">
@@ -8480,13 +8480,13 @@
         <v>4.2202444076538086</v>
       </c>
       <c r="C544" s="2">
-        <v>4.3041281700134277</v>
+        <v>4.3040041923522949</v>
       </c>
       <c r="D544" s="2">
         <v>4.0455965995788574</v>
       </c>
       <c r="E544" s="2">
-        <v>3.9823498725891113</v>
+        <v>3.9821388721466065</v>
       </c>
     </row>
     <row r="545">
@@ -8497,13 +8497,13 @@
         <v>3.4897079467773438</v>
       </c>
       <c r="C545" s="2">
-        <v>3.4385986328125</v>
+        <v>3.4385900497436524</v>
       </c>
       <c r="D545" s="2">
         <v>4.0015368461608887</v>
       </c>
       <c r="E545" s="2">
-        <v>3.9381940364837646</v>
+        <v>3.9379415512084961</v>
       </c>
     </row>
     <row r="546">
@@ -8514,13 +8514,13 @@
         <v>4.257591724395752</v>
       </c>
       <c r="C546" s="2">
-        <v>4.2963199615478516</v>
+        <v>4.295222282409668</v>
       </c>
       <c r="D546" s="2">
         <v>3.9736373424530029</v>
       </c>
       <c r="E546" s="2">
-        <v>3.9372012615203858</v>
+        <v>3.9367556571960449</v>
       </c>
     </row>
     <row r="547">
@@ -8531,13 +8531,13 @@
         <v>3.7832555770874023</v>
       </c>
       <c r="C547" s="2">
-        <v>3.6798455715179443</v>
+        <v>3.6801497936248779</v>
       </c>
       <c r="D547" s="2">
         <v>3.9578354358673096</v>
       </c>
       <c r="E547" s="2">
-        <v>3.9256868362426758</v>
+        <v>3.9252021312713623</v>
       </c>
     </row>
     <row r="548">
@@ -8548,13 +8548,13 @@
         <v>4.2277169227600098</v>
       </c>
       <c r="C548" s="2">
-        <v>4.2044224739074707</v>
+        <v>4.2043442726135254</v>
       </c>
       <c r="D548" s="2">
         <v>3.9201803207397461</v>
       </c>
       <c r="E548" s="2">
-        <v>3.906818151473999</v>
+        <v>3.9064621925354004</v>
       </c>
     </row>
     <row r="549">
@@ -8565,13 +8565,13 @@
         <v>3.6729066371917725</v>
       </c>
       <c r="C549" s="2">
-        <v>3.6553339958190918</v>
+        <v>3.6550559997558594</v>
       </c>
       <c r="D549" s="2">
         <v>3.8609051704406738</v>
       </c>
       <c r="E549" s="2">
-        <v>3.8403937816619873</v>
+        <v>3.8399336338043213</v>
       </c>
     </row>
     <row r="550">
@@ -8582,13 +8582,13 @@
         <v>3.8500359058380127</v>
       </c>
       <c r="C550" s="2">
-        <v>3.9038984775543213</v>
+        <v>3.9024944305419922</v>
       </c>
       <c r="D550" s="2">
         <v>3.9055280685424805</v>
       </c>
       <c r="E550" s="2">
-        <v>3.8947708606719971</v>
+        <v>3.8943595886230469</v>
       </c>
     </row>
     <row r="551">
@@ -8599,13 +8599,13 @@
         <v>3.7297689914703369</v>
       </c>
       <c r="C551" s="2">
-        <v>3.6935880184173584</v>
+        <v>3.6931250095367432</v>
       </c>
       <c r="D551" s="2">
         <v>3.8611819744110107</v>
       </c>
       <c r="E551" s="2">
-        <v>3.8516290187835693</v>
+        <v>3.8513138294219971</v>
       </c>
     </row>
     <row r="552">
@@ -8616,13 +8616,13 @@
         <v>4.0503945350646973</v>
       </c>
       <c r="C552" s="2">
-        <v>3.9852290153503418</v>
+        <v>3.9851737022399902</v>
       </c>
       <c r="D552" s="2">
         <v>3.827488899230957</v>
       </c>
       <c r="E552" s="2">
-        <v>3.8172755241394043</v>
+        <v>3.816960334777832</v>
       </c>
     </row>
     <row r="553">
@@ -8633,13 +8633,13 @@
         <v>3.6867685317993164</v>
       </c>
       <c r="C553" s="2">
-        <v>3.7063076496124268</v>
+        <v>3.7052462100982666</v>
       </c>
       <c r="D553" s="2">
-        <v>3.7212235927581787</v>
+        <v>3.7690713405609131</v>
       </c>
       <c r="E553" s="2">
-        <v>3.7106261253356934</v>
+        <v>3.7361483573913574</v>
       </c>
     </row>
     <row r="554">
@@ -8650,13 +8650,13 @@
         <v>3.8913142681121826</v>
       </c>
       <c r="C554" s="2">
-        <v>3.9279930591583252</v>
+        <v>3.9284238815307617</v>
       </c>
       <c r="D554" s="2">
-        <v>3.6855175495147705</v>
+        <v>3.8388018608093262</v>
       </c>
       <c r="E554" s="2">
-        <v>3.6837420463562012</v>
+        <v>3.784496545791626</v>
       </c>
     </row>
     <row r="555">
@@ -8667,13 +8667,13 @@
         <v>3.8584771156311035</v>
       </c>
       <c r="C555" s="2">
-        <v>3.9080419540405274</v>
+        <v>3.9078116416931152</v>
       </c>
       <c r="D555" s="2">
-        <v>3.7216579914093018</v>
+        <v>3.9248607158660889</v>
       </c>
       <c r="E555" s="2">
-        <v>3.7107634544372559</v>
+        <v>3.8585619926452637</v>
       </c>
     </row>
     <row r="556">
@@ -8684,13 +8684,13 @@
         <v>3.4800169467926025</v>
       </c>
       <c r="C556" s="2">
-        <v>3.3706645965576172</v>
+        <v>3.3709673881530762</v>
       </c>
       <c r="D556" s="2">
-        <v>3.6132152080535889</v>
+        <v>4.0792217254638672</v>
       </c>
       <c r="E556" s="2">
-        <v>3.513087272644043</v>
+        <v>3.9802317619323731</v>
       </c>
     </row>
     <row r="557">
@@ -8698,16 +8698,16 @@
         <v>45383</v>
       </c>
       <c r="B557" s="2">
-        <v>3.271329402923584</v>
+        <v>3.7019596099853516</v>
       </c>
       <c r="C557" s="2">
-        <v>3.2445788383483887</v>
+        <v>3.477036714553833</v>
       </c>
       <c r="D557" s="2">
-        <v>3.6763715744018555</v>
+        <v>4.1505126953125</v>
       </c>
       <c r="E557" s="2">
-        <v>3.5917513370513916</v>
+        <v>4.0423555374145508</v>
       </c>
     </row>
     <row r="558">
@@ -8715,16 +8715,16 @@
         <v>45413</v>
       </c>
       <c r="B558" s="2">
-        <v>3.3515520095825195</v>
+        <v>4.3004803657531738</v>
       </c>
       <c r="C558" s="2">
-        <v>3.4133763313293457</v>
+        <v>4.0901894569396973</v>
       </c>
       <c r="D558" s="2">
-        <v>3.6750719547271729</v>
+        <v>4.2084808349609375</v>
       </c>
       <c r="E558" s="2">
-        <v>3.5774319171905518</v>
+        <v>4.0844945907592774</v>
       </c>
     </row>
     <row r="559">
@@ -8732,16 +8732,16 @@
         <v>45444</v>
       </c>
       <c r="B559" s="2">
-        <v>4.1752991676330566</v>
+        <v>4.6245660781860352</v>
       </c>
       <c r="C559" s="2">
-        <v>4.1470913887023926</v>
+        <v>4.569084644317627</v>
       </c>
       <c r="D559" s="2">
-        <v>3.6441802978515625</v>
+        <v>4.2537903785705567</v>
       </c>
       <c r="E559" s="2">
-        <v>3.5273516178131104</v>
+        <v>4.1067900657653809</v>
       </c>
     </row>
     <row r="560">
@@ -8749,16 +8749,16 @@
         <v>45474</v>
       </c>
       <c r="B560" s="2">
-        <v>2.7537853717803955</v>
+        <v>5.1190185546875</v>
       </c>
       <c r="C560" s="2">
-        <v>1.9145033359527588</v>
+        <v>4.788151741027832</v>
       </c>
       <c r="D560" s="2">
-        <v>3.608464241027832</v>
+        <v>4.3196759223937988</v>
       </c>
       <c r="E560" s="2">
-        <v>3.4639034271240234</v>
+        <v>4.1399531364440918</v>
       </c>
     </row>
     <row r="561">
@@ -8766,16 +8766,16 @@
         <v>45505</v>
       </c>
       <c r="B561" s="2">
-        <v>4.6188020706176758</v>
+        <v>4.6920127868652344</v>
       </c>
       <c r="C561" s="2">
-        <v>4.6932053565979004</v>
+        <v>4.5442900657653809</v>
       </c>
       <c r="D561" s="2">
-        <v>3.6341536045074463</v>
+        <v>4.487607479095459</v>
       </c>
       <c r="E561" s="2">
-        <v>3.4825510978698731</v>
+        <v>4.2937507629394531</v>
       </c>
     </row>
   </sheetData>

--- a/MSC_stdev_lt.xlsx
+++ b/MSC_stdev_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E561"/>
+  <dimension ref="A1:E567"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -223,13 +223,13 @@
         <v>4.1788797378540039</v>
       </c>
       <c r="C15" s="2">
-        <v>4.1893577575683594</v>
+        <v>4.1873559951782227</v>
       </c>
       <c r="D15" s="2">
         <v>4.1788797378540039</v>
       </c>
       <c r="E15" s="2">
-        <v>4.1893577575683594</v>
+        <v>4.1873559951782227</v>
       </c>
     </row>
     <row r="16">
@@ -339,13 +339,13 @@
         <v>6.1115078926086426</v>
       </c>
       <c r="C27" s="2">
-        <v>6.1401910781860352</v>
+        <v>6.1374707221984863</v>
       </c>
       <c r="D27" s="2">
         <v>6.1115078926086426</v>
       </c>
       <c r="E27" s="2">
-        <v>6.1401910781860352</v>
+        <v>6.1374707221984863</v>
       </c>
     </row>
     <row r="28">
@@ -401,13 +401,13 @@
         <v>5.7580242156982422</v>
       </c>
       <c r="C33" s="2">
-        <v>5.9110288619995117</v>
+        <v>5.9081392288208008</v>
       </c>
       <c r="D33" s="2">
         <v>5.8651628494262695</v>
       </c>
       <c r="E33" s="2">
-        <v>5.9070100784301758</v>
+        <v>5.9047479629516602</v>
       </c>
     </row>
     <row r="34">
@@ -418,13 +418,13 @@
         <v>5.9723010063171387</v>
       </c>
       <c r="C34" s="2">
-        <v>5.9029917716979981</v>
+        <v>5.9013571739196777</v>
       </c>
       <c r="D34" s="2">
         <v>5.9284567832946777</v>
       </c>
       <c r="E34" s="2">
-        <v>5.9298138618469238</v>
+        <v>5.9277496337890625</v>
       </c>
     </row>
     <row r="35">
@@ -462,13 +462,13 @@
         <v>6.0550446510314942</v>
       </c>
       <c r="C38" s="2">
-        <v>5.9754209518432617</v>
+        <v>5.973752498626709</v>
       </c>
       <c r="D38" s="2">
         <v>5.9516944885253906</v>
       </c>
       <c r="E38" s="2">
-        <v>5.8554916381835938</v>
+        <v>5.8535518646240234</v>
       </c>
     </row>
     <row r="39">
@@ -479,13 +479,13 @@
         <v>5.4729719161987305</v>
       </c>
       <c r="C39" s="2">
-        <v>5.3194408416748047</v>
+        <v>5.3171401023864746</v>
       </c>
       <c r="D39" s="2">
         <v>5.9448256492614746</v>
       </c>
       <c r="E39" s="2">
-        <v>5.839658260345459</v>
+        <v>5.8376169204711914</v>
       </c>
     </row>
     <row r="40">
@@ -496,13 +496,13 @@
         <v>6.306459903717041</v>
       </c>
       <c r="C40" s="2">
-        <v>6.2241134643554688</v>
+        <v>6.2219581604003906</v>
       </c>
       <c r="D40" s="2">
         <v>5.9566988945007324</v>
       </c>
       <c r="E40" s="2">
-        <v>5.8966302871704102</v>
+        <v>5.8943295478820801</v>
       </c>
     </row>
     <row r="41">
@@ -540,13 +540,13 @@
         <v>5.9923186302185059</v>
       </c>
       <c r="C44" s="2">
-        <v>6.0675449371337891</v>
+        <v>6.0644669532775879</v>
       </c>
       <c r="D44" s="2">
         <v>6.1459627151489258</v>
       </c>
       <c r="E44" s="2">
-        <v>6.1237578392028809</v>
+        <v>6.1213293075561523</v>
       </c>
     </row>
     <row r="45">
@@ -557,13 +557,13 @@
         <v>6.0672760009765625</v>
       </c>
       <c r="C45" s="2">
-        <v>5.9404535293579102</v>
+        <v>5.9380869865417481</v>
       </c>
       <c r="D45" s="2">
         <v>6.0924639701843262</v>
       </c>
       <c r="E45" s="2">
-        <v>6.0903058052062988</v>
+        <v>6.0877866744995117</v>
       </c>
     </row>
     <row r="46">
@@ -574,13 +574,13 @@
         <v>6.2177972793579102</v>
       </c>
       <c r="C46" s="2">
-        <v>6.2629194259643555</v>
+        <v>6.2608060836791992</v>
       </c>
       <c r="D46" s="2">
         <v>5.9169168472290039</v>
       </c>
       <c r="E46" s="2">
-        <v>5.8964543342590332</v>
+        <v>5.8943061828613281</v>
       </c>
     </row>
     <row r="47">
@@ -618,13 +618,13 @@
         <v>5.3902754783630371</v>
       </c>
       <c r="C50" s="2">
-        <v>5.3148994445800781</v>
+        <v>5.3138642311096192</v>
       </c>
       <c r="D50" s="2">
         <v>5.8341712951660156</v>
       </c>
       <c r="E50" s="2">
-        <v>5.7868490219116211</v>
+        <v>5.7842674255371094</v>
       </c>
     </row>
     <row r="51">
@@ -635,13 +635,13 @@
         <v>5.9486303329467774</v>
       </c>
       <c r="C51" s="2">
-        <v>5.8934602737426758</v>
+        <v>5.8902497291564941</v>
       </c>
       <c r="D51" s="2">
         <v>5.7062959671020508</v>
       </c>
       <c r="E51" s="2">
-        <v>5.6281590461730957</v>
+        <v>5.6254210472106934</v>
       </c>
     </row>
     <row r="52">
@@ -652,13 +652,13 @@
         <v>5.7799816131591797</v>
       </c>
       <c r="C52" s="2">
-        <v>5.676116943359375</v>
+        <v>5.672149658203125</v>
       </c>
       <c r="D52" s="2">
         <v>5.6263575553894043</v>
       </c>
       <c r="E52" s="2">
-        <v>5.5716338157653809</v>
+        <v>5.5692157745361328</v>
       </c>
     </row>
     <row r="53">
@@ -696,13 +696,13 @@
         <v>5.3865432739257813</v>
       </c>
       <c r="C56" s="2">
-        <v>5.4020581245422363</v>
+        <v>5.4005985260009766</v>
       </c>
       <c r="D56" s="2">
         <v>5.6400809288024902</v>
       </c>
       <c r="E56" s="2">
-        <v>5.5673375129699707</v>
+        <v>5.565147876739502</v>
       </c>
     </row>
     <row r="57">
@@ -713,13 +713,13 @@
         <v>5.5564494132995605</v>
       </c>
       <c r="C57" s="2">
-        <v>5.5819921493530273</v>
+        <v>5.5808587074279785</v>
       </c>
       <c r="D57" s="2">
         <v>5.5934476852416992</v>
       </c>
       <c r="E57" s="2">
-        <v>5.5310778617858887</v>
+        <v>5.5294804573059082</v>
       </c>
     </row>
     <row r="58">
@@ -730,13 +730,13 @@
         <v>5.8373498916625977</v>
       </c>
       <c r="C58" s="2">
-        <v>5.6091833114624024</v>
+        <v>5.6069846153259277</v>
       </c>
       <c r="D58" s="2">
         <v>5.580876350402832</v>
       </c>
       <c r="E58" s="2">
-        <v>5.5322055816650391</v>
+        <v>5.530430793762207</v>
       </c>
     </row>
     <row r="59">
@@ -774,13 +774,13 @@
         <v>5.5431632995605469</v>
       </c>
       <c r="C62" s="2">
-        <v>5.535588264465332</v>
+        <v>5.5332808494567871</v>
       </c>
       <c r="D62" s="2">
         <v>5.5256805419921875</v>
       </c>
       <c r="E62" s="2">
-        <v>5.4008479118347168</v>
+        <v>5.3988409042358399</v>
       </c>
     </row>
     <row r="63">
@@ -791,13 +791,13 @@
         <v>5.6156759262084961</v>
       </c>
       <c r="C63" s="2">
-        <v>5.4399185180664063</v>
+        <v>5.4376769065856934</v>
       </c>
       <c r="D63" s="2">
         <v>5.421790599822998</v>
       </c>
       <c r="E63" s="2">
-        <v>5.3314027786254883</v>
+        <v>5.3294596672058106</v>
       </c>
     </row>
     <row r="64">
@@ -808,13 +808,13 @@
         <v>5.1065330505371094</v>
       </c>
       <c r="C64" s="2">
-        <v>5.0187020301818848</v>
+        <v>5.0174212455749512</v>
       </c>
       <c r="D64" s="2">
         <v>5.3345050811767578</v>
       </c>
       <c r="E64" s="2">
-        <v>5.248197078704834</v>
+        <v>5.2466211318969727</v>
       </c>
     </row>
     <row r="65">
@@ -852,13 +852,13 @@
         <v>5.0726470947265625</v>
       </c>
       <c r="C68" s="2">
-        <v>4.9985799789428711</v>
+        <v>4.998105525970459</v>
       </c>
       <c r="D68" s="2">
         <v>5.0970463752746582</v>
       </c>
       <c r="E68" s="2">
-        <v>5.073601245880127</v>
+        <v>5.0725011825561523</v>
       </c>
     </row>
     <row r="69">
@@ -869,13 +869,13 @@
         <v>4.991325855255127</v>
       </c>
       <c r="C69" s="2">
-        <v>5.0350031852722168</v>
+        <v>5.0341496467590332</v>
       </c>
       <c r="D69" s="2">
         <v>5.0938844680786133</v>
       </c>
       <c r="E69" s="2">
-        <v>5.0919013023376465</v>
+        <v>5.0908608436584473</v>
       </c>
     </row>
     <row r="70">
@@ -886,13 +886,13 @@
         <v>5.2176799774169922</v>
       </c>
       <c r="C70" s="2">
-        <v>5.2421202659606934</v>
+        <v>5.2403273582458496</v>
       </c>
       <c r="D70" s="2">
         <v>4.9554963111877441</v>
       </c>
       <c r="E70" s="2">
-        <v>4.9441423416137695</v>
+        <v>4.9433536529541016</v>
       </c>
     </row>
     <row r="71">
@@ -930,13 +930,13 @@
         <v>4.5403318405151367</v>
       </c>
       <c r="C74" s="2">
-        <v>4.5008664131164551</v>
+        <v>4.5008311271667481</v>
       </c>
       <c r="D74" s="2">
         <v>4.8358821868896484</v>
       </c>
       <c r="E74" s="2">
-        <v>4.7998476028442383</v>
+        <v>4.7993259429931641</v>
       </c>
     </row>
     <row r="75">
@@ -947,13 +947,13 @@
         <v>4.6630620956420898</v>
       </c>
       <c r="C75" s="2">
-        <v>4.5689506530761719</v>
+        <v>4.5695781707763672</v>
       </c>
       <c r="D75" s="2">
         <v>4.7086162567138672</v>
       </c>
       <c r="E75" s="2">
-        <v>4.6524233818054199</v>
+        <v>4.6523256301879883</v>
       </c>
     </row>
     <row r="76">
@@ -964,13 +964,13 @@
         <v>4.922454833984375</v>
       </c>
       <c r="C76" s="2">
-        <v>4.8874530792236328</v>
+        <v>4.8865671157836914</v>
       </c>
       <c r="D76" s="2">
         <v>4.8247361183166504</v>
       </c>
       <c r="E76" s="2">
-        <v>4.8031101226806641</v>
+        <v>4.802617073059082</v>
       </c>
     </row>
     <row r="77">
@@ -1008,13 +1008,13 @@
         <v>5.173095703125</v>
       </c>
       <c r="C80" s="2">
-        <v>5.2551712989807129</v>
+        <v>5.2534923553466797</v>
       </c>
       <c r="D80" s="2">
         <v>4.7965712547302246</v>
       </c>
       <c r="E80" s="2">
-        <v>4.772162914276123</v>
+        <v>4.7713809013366699</v>
       </c>
     </row>
     <row r="81">
@@ -1025,13 +1025,13 @@
         <v>4.6439208984375</v>
       </c>
       <c r="C81" s="2">
-        <v>4.565277099609375</v>
+        <v>4.5654807090759277</v>
       </c>
       <c r="D81" s="2">
         <v>4.7546100616455078</v>
       </c>
       <c r="E81" s="2">
-        <v>4.7337327003479004</v>
+        <v>4.7329854965209961</v>
       </c>
     </row>
     <row r="82">
@@ -1042,13 +1042,13 @@
         <v>4.4468135833740234</v>
       </c>
       <c r="C82" s="2">
-        <v>4.3807501792907715</v>
+        <v>4.3799834251403809</v>
       </c>
       <c r="D82" s="2">
         <v>4.757075309753418</v>
       </c>
       <c r="E82" s="2">
-        <v>4.7137651443481445</v>
+        <v>4.713170051574707</v>
       </c>
     </row>
     <row r="83">
@@ -1086,13 +1086,13 @@
         <v>4.7644710540771484</v>
       </c>
       <c r="C86" s="2">
-        <v>4.6538615226745606</v>
+        <v>4.6537246704101563</v>
       </c>
       <c r="D86" s="2">
         <v>4.815241813659668</v>
       </c>
       <c r="E86" s="2">
-        <v>4.735285758972168</v>
+        <v>4.7348017692565918</v>
       </c>
     </row>
     <row r="87">
@@ -1103,13 +1103,13 @@
         <v>4.888249397277832</v>
       </c>
       <c r="C87" s="2">
-        <v>4.8117351531982422</v>
+        <v>4.8116722106933594</v>
       </c>
       <c r="D87" s="2">
         <v>4.9380512237548828</v>
       </c>
       <c r="E87" s="2">
-        <v>4.8534641265869141</v>
+        <v>4.8530745506286621</v>
       </c>
     </row>
     <row r="88">
@@ -1120,13 +1120,13 @@
         <v>5.1614327430725098</v>
       </c>
       <c r="C88" s="2">
-        <v>5.0947957038879395</v>
+        <v>5.0938262939453125</v>
       </c>
       <c r="D88" s="2">
         <v>4.8513517379760742</v>
       </c>
       <c r="E88" s="2">
-        <v>4.7524247169494629</v>
+        <v>4.7518224716186523</v>
       </c>
     </row>
     <row r="89">
@@ -1164,13 +1164,13 @@
         <v>4.5912532806396484</v>
       </c>
       <c r="C92" s="2">
-        <v>4.4493069648742676</v>
+        <v>4.4480657577514649</v>
       </c>
       <c r="D92" s="2">
         <v>4.6403255462646484</v>
       </c>
       <c r="E92" s="2">
-        <v>4.583308219909668</v>
+        <v>4.5828871726989746</v>
       </c>
     </row>
     <row r="93">
@@ -1181,13 +1181,13 @@
         <v>4.1453595161437988</v>
       </c>
       <c r="C93" s="2">
-        <v>4.1634550094604492</v>
+        <v>4.1630764007568359</v>
       </c>
       <c r="D93" s="2">
         <v>4.4666228294372559</v>
       </c>
       <c r="E93" s="2">
-        <v>4.4128127098083496</v>
+        <v>4.412574291229248</v>
       </c>
     </row>
     <row r="94">
@@ -1198,13 +1198,13 @@
         <v>4.6632556915283203</v>
       </c>
       <c r="C94" s="2">
-        <v>4.625676155090332</v>
+        <v>4.6265802383422852</v>
       </c>
       <c r="D94" s="2">
         <v>4.4666228294372559</v>
       </c>
       <c r="E94" s="2">
-        <v>4.4128127098083496</v>
+        <v>4.412574291229248</v>
       </c>
     </row>
     <row r="95">
@@ -1260,13 +1260,13 @@
         <v>4.4021458625793457</v>
       </c>
       <c r="C100" s="2">
-        <v>4.163334846496582</v>
+        <v>4.1622552871704102</v>
       </c>
       <c r="D100" s="2">
         <v>4.1503567695617676</v>
       </c>
       <c r="E100" s="2">
-        <v>3.9594745635986328</v>
+        <v>3.959226131439209</v>
       </c>
     </row>
     <row r="101">
@@ -1295,13 +1295,13 @@
         <v>3.8985676765441895</v>
       </c>
       <c r="C103" s="2">
-        <v>3.7556145191192627</v>
+        <v>3.7561967372894287</v>
       </c>
       <c r="D103" s="2">
         <v>4.0395383834838867</v>
       </c>
       <c r="E103" s="2">
-        <v>3.9078292846679688</v>
+        <v>3.907174825668335</v>
       </c>
     </row>
     <row r="104">
@@ -1330,13 +1330,13 @@
         <v>3.8179013729095459</v>
       </c>
       <c r="C106" s="2">
-        <v>3.8045387268066406</v>
+        <v>3.8030722141265869</v>
       </c>
       <c r="D106" s="2">
         <v>4.0753483772277832</v>
       </c>
       <c r="E106" s="2">
-        <v>4.0169620513916016</v>
+        <v>4.0164556503295898</v>
       </c>
     </row>
     <row r="107">
@@ -1365,13 +1365,13 @@
         <v>4.5095758438110352</v>
       </c>
       <c r="C109" s="2">
-        <v>4.4907321929931641</v>
+        <v>4.4900979995727539</v>
       </c>
       <c r="D109" s="2">
         <v>4.1512641906738281</v>
       </c>
       <c r="E109" s="2">
-        <v>4.0804152488708496</v>
+        <v>4.0794715881347656</v>
       </c>
     </row>
     <row r="110">
@@ -1400,13 +1400,13 @@
         <v>4.1263151168823242</v>
       </c>
       <c r="C112" s="2">
-        <v>3.9459753036499023</v>
+        <v>3.945244312286377</v>
       </c>
       <c r="D112" s="2">
         <v>4.3904008865356445</v>
       </c>
       <c r="E112" s="2">
-        <v>4.3301968574523926</v>
+        <v>4.3288702964782715</v>
       </c>
     </row>
     <row r="113">
@@ -1435,13 +1435,13 @@
         <v>4.5353116989135742</v>
       </c>
       <c r="C115" s="2">
-        <v>4.5538825988769531</v>
+        <v>4.5512690544128418</v>
       </c>
       <c r="D115" s="2">
         <v>3.9998931884765625</v>
       </c>
       <c r="E115" s="2">
-        <v>3.954099178314209</v>
+        <v>3.9517018795013428</v>
       </c>
     </row>
     <row r="116">
@@ -1470,13 +1470,13 @@
         <v>3.3380529880523682</v>
       </c>
       <c r="C118" s="2">
-        <v>3.3624393939971924</v>
+        <v>3.3585925102233887</v>
       </c>
       <c r="D118" s="2">
         <v>4.2668075561523438</v>
       </c>
       <c r="E118" s="2">
-        <v>4.3071532249450684</v>
+        <v>4.3046784400939942</v>
       </c>
     </row>
     <row r="119">
@@ -1505,13 +1505,13 @@
         <v>4.9270586967468262</v>
       </c>
       <c r="C121" s="2">
-        <v>5.0051374435424805</v>
+        <v>5.0041732788085938</v>
       </c>
       <c r="D121" s="2">
         <v>4.1325559616088867</v>
       </c>
       <c r="E121" s="2">
-        <v>4.1837882995605469</v>
+        <v>4.1813831329345703</v>
       </c>
     </row>
     <row r="122">
@@ -1765,13 +1765,13 @@
         <v>4.0407509803771973</v>
       </c>
       <c r="C149" s="2">
-        <v>4.0178918838500977</v>
+        <v>4.0191655158996582</v>
       </c>
       <c r="D149" s="2">
         <v>3.9090104103088379</v>
       </c>
       <c r="E149" s="2">
-        <v>3.9088001251220703</v>
+        <v>3.9081907272338867</v>
       </c>
     </row>
     <row r="150">
@@ -1782,13 +1782,13 @@
         <v>3.6292774677276611</v>
       </c>
       <c r="C150" s="2">
-        <v>3.604778528213501</v>
+        <v>3.6043658256530762</v>
       </c>
       <c r="D150" s="2">
         <v>3.974285364151001</v>
       </c>
       <c r="E150" s="2">
-        <v>3.9658923149108887</v>
+        <v>3.9655318260192871</v>
       </c>
     </row>
     <row r="151">
@@ -1799,13 +1799,13 @@
         <v>4.0736160278320313</v>
       </c>
       <c r="C151" s="2">
-        <v>4.0401120185852051</v>
+        <v>4.0398931503295898</v>
       </c>
       <c r="D151" s="2">
         <v>3.9965953826904297</v>
       </c>
       <c r="E151" s="2">
-        <v>3.9812748432159424</v>
+        <v>3.9806067943572998</v>
       </c>
     </row>
     <row r="152">
@@ -1816,13 +1816,13 @@
         <v>4.0311360359191895</v>
       </c>
       <c r="C152" s="2">
-        <v>4.0852775573730469</v>
+        <v>4.0819525718688965</v>
       </c>
       <c r="D152" s="2">
         <v>4.0567965507507324</v>
       </c>
       <c r="E152" s="2">
-        <v>4.0262260437011719</v>
+        <v>4.0252804756164551</v>
       </c>
     </row>
     <row r="153">
@@ -1833,13 +1833,13 @@
         <v>3.7702715396881104</v>
       </c>
       <c r="C153" s="2">
-        <v>3.7959408760070801</v>
+        <v>3.7955765724182129</v>
       </c>
       <c r="D153" s="2">
         <v>4.0978078842163086</v>
       </c>
       <c r="E153" s="2">
-        <v>4.0636582374572754</v>
+        <v>4.0629281997680664</v>
       </c>
     </row>
     <row r="154">
@@ -1850,13 +1850,13 @@
         <v>4.3006601333618164</v>
       </c>
       <c r="C154" s="2">
-        <v>4.2513523101806641</v>
+        <v>4.2522373199462891</v>
       </c>
       <c r="D154" s="2">
         <v>4.1319494247436524</v>
       </c>
       <c r="E154" s="2">
-        <v>4.0613746643066406</v>
+        <v>4.060305118560791</v>
       </c>
     </row>
     <row r="155">
@@ -1867,13 +1867,13 @@
         <v>4.130455493927002</v>
       </c>
       <c r="C155" s="2">
-        <v>4.0735712051391602</v>
+        <v>4.0710558891296387</v>
       </c>
       <c r="D155" s="2">
         <v>4.1520943641662598</v>
       </c>
       <c r="E155" s="2">
-        <v>4.0799498558044434</v>
+        <v>4.0789966583251953</v>
       </c>
     </row>
     <row r="156">
@@ -1884,13 +1884,13 @@
         <v>4.478203296661377</v>
       </c>
       <c r="C156" s="2">
-        <v>4.340883731842041</v>
+        <v>4.3379960060119629</v>
       </c>
       <c r="D156" s="2">
         <v>4.1483449935913086</v>
       </c>
       <c r="E156" s="2">
-        <v>4.0683245658874512</v>
+        <v>4.0673346519470215</v>
       </c>
     </row>
     <row r="157">
@@ -1901,13 +1901,13 @@
         <v>4.425900936126709</v>
       </c>
       <c r="C157" s="2">
-        <v>4.3631143569946289</v>
+        <v>4.3641104698181152</v>
       </c>
       <c r="D157" s="2">
         <v>4.1562228202819824</v>
       </c>
       <c r="E157" s="2">
-        <v>4.0652608871459961</v>
+        <v>4.0647034645080567</v>
       </c>
     </row>
     <row r="158">
@@ -1918,13 +1918,13 @@
         <v>4.3480219841003418</v>
       </c>
       <c r="C158" s="2">
-        <v>3.9973433017730713</v>
+        <v>3.9955594539642334</v>
       </c>
       <c r="D158" s="2">
         <v>4.1692380905151367</v>
       </c>
       <c r="E158" s="2">
-        <v>4.0681939125061035</v>
+        <v>4.0674314498901367</v>
       </c>
     </row>
     <row r="159">
@@ -1935,13 +1935,13 @@
         <v>3.8105847835540772</v>
       </c>
       <c r="C159" s="2">
-        <v>3.7719523906707764</v>
+        <v>3.7725901603698731</v>
       </c>
       <c r="D159" s="2">
         <v>4.0699191093444824</v>
       </c>
       <c r="E159" s="2">
-        <v>3.9803156852722168</v>
+        <v>3.979081392288208</v>
       </c>
     </row>
     <row r="160">
@@ -1952,13 +1952,13 @@
         <v>4.0398716926574707</v>
       </c>
       <c r="C160" s="2">
-        <v>3.9354846477508545</v>
+        <v>3.9349336624145508</v>
       </c>
       <c r="D160" s="2">
         <v>3.9994978904724121</v>
       </c>
       <c r="E160" s="2">
-        <v>3.910585880279541</v>
+        <v>3.9095771312713623</v>
       </c>
     </row>
     <row r="161">
@@ -1969,13 +1969,13 @@
         <v>4.1020364761352539</v>
       </c>
       <c r="C161" s="2">
-        <v>4.0577058792114258</v>
+        <v>4.0582733154296875</v>
       </c>
       <c r="D161" s="2">
         <v>3.8941307067871094</v>
       </c>
       <c r="E161" s="2">
-        <v>3.8234965801239014</v>
+        <v>3.8224124908447266</v>
       </c>
     </row>
     <row r="162">
@@ -1986,13 +1986,13 @@
         <v>3.8874070644378662</v>
       </c>
       <c r="C162" s="2">
-        <v>3.8223385810852051</v>
+        <v>3.8201260566711426</v>
       </c>
       <c r="D162" s="2">
         <v>3.8076536655426025</v>
       </c>
       <c r="E162" s="2">
-        <v>3.7390255928039551</v>
+        <v>3.7377281188964844</v>
       </c>
     </row>
     <row r="163">
@@ -2003,13 +2003,13 @@
         <v>3.4067883491516113</v>
       </c>
       <c r="C163" s="2">
-        <v>3.4604475498199463</v>
+        <v>3.4570884704589844</v>
       </c>
       <c r="D163" s="2">
         <v>3.8048508167266846</v>
       </c>
       <c r="E163" s="2">
-        <v>3.7565181255340576</v>
+        <v>3.755319356918335</v>
       </c>
     </row>
     <row r="164">
@@ -2020,13 +2020,13 @@
         <v>3.4966666698455811</v>
       </c>
       <c r="C164" s="2">
-        <v>3.4460024833679199</v>
+        <v>3.4455173015594483</v>
       </c>
       <c r="D164" s="2">
         <v>3.8857729434967041</v>
       </c>
       <c r="E164" s="2">
-        <v>3.8215837478637695</v>
+        <v>3.8204336166381836</v>
       </c>
     </row>
     <row r="165">
@@ -2037,13 +2037,13 @@
         <v>3.5298976898193359</v>
       </c>
       <c r="C165" s="2">
-        <v>3.5570793151855469</v>
+        <v>3.5535132884979248</v>
       </c>
       <c r="D165" s="2">
         <v>3.8797805309295654</v>
       </c>
       <c r="E165" s="2">
-        <v>3.8243019580841064</v>
+        <v>3.8231921195983887</v>
       </c>
     </row>
     <row r="166">
@@ -2054,13 +2054,13 @@
         <v>3.6476085186004639</v>
       </c>
       <c r="C166" s="2">
-        <v>3.6028761863708496</v>
+        <v>3.6019511222839355</v>
       </c>
       <c r="D166" s="2">
         <v>3.8594353199005127</v>
       </c>
       <c r="E166" s="2">
-        <v>3.8091056346893311</v>
+        <v>3.8079438209533691</v>
       </c>
     </row>
     <row r="167">
@@ -2071,13 +2071,13 @@
         <v>4.3227953910827637</v>
       </c>
       <c r="C167" s="2">
-        <v>4.1547770500183105</v>
+        <v>4.1538810729980469</v>
       </c>
       <c r="D167" s="2">
         <v>3.8741469383239746</v>
       </c>
       <c r="E167" s="2">
-        <v>3.8419556617736817</v>
+        <v>3.8408691883087158</v>
       </c>
     </row>
     <row r="168">
@@ -2088,13 +2088,13 @@
         <v>4.5388855934143066</v>
       </c>
       <c r="C168" s="2">
-        <v>4.3575410842895508</v>
+        <v>4.3586192131042481</v>
       </c>
       <c r="D168" s="2">
         <v>3.9207284450531006</v>
       </c>
       <c r="E168" s="2">
-        <v>3.8829929828643799</v>
+        <v>3.8819437026977539</v>
       </c>
     </row>
     <row r="169">
@@ -2105,13 +2105,13 @@
         <v>3.9859380722045899</v>
       </c>
       <c r="C169" s="2">
-        <v>3.9599499702453613</v>
+        <v>3.9597597122192383</v>
       </c>
       <c r="D169" s="2">
         <v>4.0254907608032227</v>
       </c>
       <c r="E169" s="2">
-        <v>3.9530224800109863</v>
+        <v>3.9519803524017334</v>
       </c>
     </row>
     <row r="170">
@@ -2122,13 +2122,13 @@
         <v>3.918931245803833</v>
       </c>
       <c r="C170" s="2">
-        <v>3.92093825340271</v>
+        <v>3.9210383892059326</v>
       </c>
       <c r="D170" s="2">
         <v>4.0412383079528809</v>
       </c>
       <c r="E170" s="2">
-        <v>3.9533822536468506</v>
+        <v>3.9530930519104004</v>
       </c>
     </row>
     <row r="171">
@@ -2139,13 +2139,13 @@
         <v>4.0198111534118652</v>
       </c>
       <c r="C171" s="2">
-        <v>4.1179900169372559</v>
+        <v>4.1164541244506836</v>
       </c>
       <c r="D171" s="2">
         <v>4.0694746971130371</v>
       </c>
       <c r="E171" s="2">
-        <v>3.9804377555847168</v>
+        <v>3.9799907207489014</v>
       </c>
     </row>
     <row r="172">
@@ -2156,13 +2156,13 @@
         <v>3.8260209560394287</v>
       </c>
       <c r="C172" s="2">
-        <v>3.8297834396362305</v>
+        <v>3.8267581462860108</v>
       </c>
       <c r="D172" s="2">
         <v>4.0094428062438965</v>
       </c>
       <c r="E172" s="2">
-        <v>3.9410815238952637</v>
+        <v>3.9407269954681396</v>
       </c>
     </row>
     <row r="173">
@@ -2173,13 +2173,13 @@
         <v>4.4395270347595215</v>
       </c>
       <c r="C173" s="2">
-        <v>4.0762672424316406</v>
+        <v>4.0758471488952637</v>
       </c>
       <c r="D173" s="2">
         <v>3.9834260940551758</v>
       </c>
       <c r="E173" s="2">
-        <v>3.9432492256164551</v>
+        <v>3.9425590038299561</v>
       </c>
     </row>
     <row r="174">
@@ -2190,13 +2190,13 @@
         <v>3.6716256141662598</v>
       </c>
       <c r="C174" s="2">
-        <v>3.5603177547454834</v>
+        <v>3.5635278224945068</v>
       </c>
       <c r="D174" s="2">
         <v>3.9549510478973389</v>
       </c>
       <c r="E174" s="2">
-        <v>3.9093306064605713</v>
+        <v>3.9085726737976074</v>
       </c>
     </row>
     <row r="175">
@@ -2207,13 +2207,13 @@
         <v>3.9017355442047119</v>
       </c>
       <c r="C175" s="2">
-        <v>3.8463759422302246</v>
+        <v>3.8440303802490234</v>
       </c>
       <c r="D175" s="2">
         <v>3.9263350963592529</v>
       </c>
       <c r="E175" s="2">
-        <v>3.8805756568908691</v>
+        <v>3.8798182010650635</v>
       </c>
     </row>
     <row r="176">
@@ -2224,13 +2224,13 @@
         <v>3.7825098037719727</v>
       </c>
       <c r="C176" s="2">
-        <v>3.800570011138916</v>
+        <v>3.8005070686340332</v>
       </c>
       <c r="D176" s="2">
         <v>3.9105796813964844</v>
       </c>
       <c r="E176" s="2">
-        <v>3.8408982753753662</v>
+        <v>3.8403360843658447</v>
       </c>
     </row>
     <row r="177">
@@ -2241,13 +2241,13 @@
         <v>4.3047347068786621</v>
       </c>
       <c r="C177" s="2">
-        <v>4.3770503997802734</v>
+        <v>4.3751087188720703</v>
       </c>
       <c r="D177" s="2">
         <v>3.8544960021972656</v>
       </c>
       <c r="E177" s="2">
-        <v>3.7781052589416504</v>
+        <v>3.7778604030609131</v>
       </c>
     </row>
     <row r="178">
@@ -2258,13 +2258,13 @@
         <v>3.7296640872955322</v>
       </c>
       <c r="C178" s="2">
-        <v>3.6546831130981445</v>
+        <v>3.6538832187652588</v>
       </c>
       <c r="D178" s="2">
         <v>3.8200070858001709</v>
       </c>
       <c r="E178" s="2">
-        <v>3.7546217441558838</v>
+        <v>3.7541825771331787</v>
       </c>
     </row>
     <row r="179">
@@ -2275,13 +2275,13 @@
         <v>3.6613872051239014</v>
       </c>
       <c r="C179" s="2">
-        <v>3.6621425151824951</v>
+        <v>3.6622481346130371</v>
       </c>
       <c r="D179" s="2">
         <v>3.7984433174133301</v>
       </c>
       <c r="E179" s="2">
-        <v>3.7378244400024414</v>
+        <v>3.737018346786499</v>
       </c>
     </row>
     <row r="180">
@@ -2292,13 +2292,13 @@
         <v>3.8780112266540527</v>
       </c>
       <c r="C180" s="2">
-        <v>3.7608933448791504</v>
+        <v>3.7611134052276611</v>
       </c>
       <c r="D180" s="2">
         <v>3.7613801956176758</v>
       </c>
       <c r="E180" s="2">
-        <v>3.7109055519104004</v>
+        <v>3.7103662490844727</v>
       </c>
     </row>
     <row r="181">
@@ -2309,13 +2309,13 @@
         <v>3.3212690353393555</v>
       </c>
       <c r="C181" s="2">
-        <v>3.2646472454071045</v>
+        <v>3.2644786834716797</v>
       </c>
       <c r="D181" s="2">
         <v>3.7816169261932373</v>
       </c>
       <c r="E181" s="2">
-        <v>3.7197666168212891</v>
+        <v>3.7189483642578125</v>
       </c>
     </row>
     <row r="182">
@@ -2326,13 +2326,13 @@
         <v>4.1291270256042481</v>
       </c>
       <c r="C182" s="2">
-        <v>3.8649148941040039</v>
+        <v>3.8627462387084961</v>
       </c>
       <c r="D182" s="2">
         <v>3.745964527130127</v>
       </c>
       <c r="E182" s="2">
-        <v>3.682755708694458</v>
+        <v>3.6820545196533203</v>
       </c>
     </row>
     <row r="183">
@@ -2343,13 +2343,13 @@
         <v>3.4775512218475342</v>
       </c>
       <c r="C183" s="2">
-        <v>3.4091434478759766</v>
+        <v>3.4090495109558106</v>
       </c>
       <c r="D183" s="2">
         <v>3.7568225860595703</v>
       </c>
       <c r="E183" s="2">
-        <v>3.6990973949432373</v>
+        <v>3.6987466812133789</v>
       </c>
     </row>
     <row r="184">
@@ -2360,13 +2360,13 @@
         <v>3.5681676864624024</v>
       </c>
       <c r="C184" s="2">
-        <v>3.6041057109832764</v>
+        <v>3.6041622161865234</v>
       </c>
       <c r="D184" s="2">
         <v>3.7859220504760742</v>
       </c>
       <c r="E184" s="2">
-        <v>3.6970632076263428</v>
+        <v>3.6966829299926758</v>
       </c>
     </row>
     <row r="185">
@@ -2377,13 +2377,13 @@
         <v>3.9646396636962891</v>
       </c>
       <c r="C185" s="2">
-        <v>3.8803184032440186</v>
+        <v>3.8777453899383545</v>
       </c>
       <c r="D185" s="2">
         <v>3.804668664932251</v>
       </c>
       <c r="E185" s="2">
-        <v>3.7196121215820313</v>
+        <v>3.7192161083221436</v>
       </c>
     </row>
     <row r="186">
@@ -2394,13 +2394,13 @@
         <v>3.9838638305664063</v>
       </c>
       <c r="C186" s="2">
-        <v>4.0439534187316895</v>
+        <v>4.0430641174316406</v>
       </c>
       <c r="D186" s="2">
         <v>3.9430408477783203</v>
       </c>
       <c r="E186" s="2">
-        <v>3.8579931259155273</v>
+        <v>3.8575544357299805</v>
       </c>
     </row>
     <row r="187">
@@ -2411,13 +2411,13 @@
         <v>3.8273870944976807</v>
       </c>
       <c r="C187" s="2">
-        <v>3.8017580509185791</v>
+        <v>3.8041131496429443</v>
       </c>
       <c r="D187" s="2">
         <v>3.9191761016845703</v>
       </c>
       <c r="E187" s="2">
-        <v>3.8488929271697998</v>
+        <v>3.8488733768463135</v>
       </c>
     </row>
     <row r="188">
@@ -2428,13 +2428,13 @@
         <v>3.9232823848724365</v>
       </c>
       <c r="C188" s="2">
-        <v>3.6438348293304443</v>
+        <v>3.6436741352081299</v>
       </c>
       <c r="D188" s="2">
         <v>3.9901235103607178</v>
       </c>
       <c r="E188" s="2">
-        <v>3.9283177852630615</v>
+        <v>3.9282045364379883</v>
       </c>
     </row>
     <row r="189">
@@ -2445,13 +2445,13 @@
         <v>4.0467309951782227</v>
       </c>
       <c r="C189" s="2">
-        <v>3.9638330936431885</v>
+        <v>3.9639120101928711</v>
       </c>
       <c r="D189" s="2">
         <v>4.0468387603759766</v>
       </c>
       <c r="E189" s="2">
-        <v>3.9858343601226807</v>
+        <v>3.9857273101806641</v>
       </c>
     </row>
     <row r="190">
@@ -2462,13 +2462,13 @@
         <v>4.5666170120239258</v>
       </c>
       <c r="C190" s="2">
-        <v>4.5100765228271484</v>
+        <v>4.5095233917236328</v>
       </c>
       <c r="D190" s="2">
         <v>3.960597038269043</v>
       </c>
       <c r="E190" s="2">
-        <v>3.8921897411346436</v>
+        <v>3.8920643329620361</v>
       </c>
     </row>
     <row r="191">
@@ -2479,13 +2479,13 @@
         <v>3.9143457412719727</v>
       </c>
       <c r="C191" s="2">
-        <v>3.7830119132995605</v>
+        <v>3.784616231918335</v>
       </c>
       <c r="D191" s="2">
         <v>3.8566398620605469</v>
       </c>
       <c r="E191" s="2">
-        <v>3.7846870422363281</v>
+        <v>3.7845461368560791</v>
       </c>
     </row>
     <row r="192">
@@ -2496,13 +2496,13 @@
         <v>4.1160769462585449</v>
       </c>
       <c r="C192" s="2">
-        <v>4.1239686012268066</v>
+        <v>4.1230306625366211</v>
       </c>
       <c r="D192" s="2">
         <v>3.8897714614868164</v>
       </c>
       <c r="E192" s="2">
-        <v>3.812932014465332</v>
+        <v>3.8124182224273682</v>
       </c>
     </row>
     <row r="193">
@@ -2513,13 +2513,13 @@
         <v>4.0786056518554688</v>
       </c>
       <c r="C193" s="2">
-        <v>4.1217551231384277</v>
+        <v>4.1218662261962891</v>
       </c>
       <c r="D193" s="2">
         <v>3.8120527267456055</v>
       </c>
       <c r="E193" s="2">
-        <v>3.7763042449951172</v>
+        <v>3.7755687236785889</v>
       </c>
     </row>
     <row r="194">
@@ -2530,13 +2530,13 @@
         <v>3.1884627342224121</v>
       </c>
       <c r="C194" s="2">
-        <v>3.0375161170959473</v>
+        <v>3.0347790718078613</v>
       </c>
       <c r="D194" s="2">
         <v>3.7646775245666504</v>
       </c>
       <c r="E194" s="2">
-        <v>3.721998929977417</v>
+        <v>3.7213344573974609</v>
       </c>
     </row>
     <row r="195">
@@ -2547,13 +2547,13 @@
         <v>3.0482499599456787</v>
       </c>
       <c r="C195" s="2">
-        <v>3.0764281749725342</v>
+        <v>3.0754005908966065</v>
       </c>
       <c r="D195" s="2">
         <v>3.6284298896789551</v>
       </c>
       <c r="E195" s="2">
-        <v>3.5939793586730957</v>
+        <v>3.5934224128723145</v>
       </c>
     </row>
     <row r="196">
@@ -2564,13 +2564,13 @@
         <v>4.1255717277526855</v>
       </c>
       <c r="C196" s="2">
-        <v>4.0559635162353516</v>
+        <v>4.054962158203125</v>
       </c>
       <c r="D196" s="2">
         <v>3.6339685916900635</v>
       </c>
       <c r="E196" s="2">
-        <v>3.6056995391845703</v>
+        <v>3.6050395965576172</v>
       </c>
     </row>
     <row r="197">
@@ -2581,13 +2581,13 @@
         <v>3.2238137722015381</v>
       </c>
       <c r="C197" s="2">
-        <v>3.3141841888427734</v>
+        <v>3.3120291233062744</v>
       </c>
       <c r="D197" s="2">
         <v>3.5637655258178711</v>
       </c>
       <c r="E197" s="2">
-        <v>3.5323507785797119</v>
+        <v>3.5317702293395996</v>
       </c>
     </row>
     <row r="198">
@@ -2598,13 +2598,13 @@
         <v>3.6203534603118897</v>
       </c>
       <c r="C198" s="2">
-        <v>3.4750864505767822</v>
+        <v>3.4758036136627197</v>
       </c>
       <c r="D198" s="2">
         <v>3.4463129043579102</v>
       </c>
       <c r="E198" s="2">
-        <v>3.3986279964447021</v>
+        <v>3.3978564739227295</v>
       </c>
     </row>
     <row r="199">
@@ -2615,13 +2615,13 @@
         <v>3.3403892517089844</v>
       </c>
       <c r="C199" s="2">
-        <v>3.3579006195068359</v>
+        <v>3.3583147525787354</v>
       </c>
       <c r="D199" s="2">
         <v>3.4527311325073242</v>
       </c>
       <c r="E199" s="2">
-        <v>3.422111988067627</v>
+        <v>3.4215462207794189</v>
       </c>
     </row>
     <row r="200">
@@ -2632,13 +2632,13 @@
         <v>3.9641928672790527</v>
       </c>
       <c r="C200" s="2">
-        <v>3.8884930610656738</v>
+        <v>3.8891692161560059</v>
       </c>
       <c r="D200" s="2">
         <v>3.5121605396270752</v>
       </c>
       <c r="E200" s="2">
-        <v>3.4826598167419434</v>
+        <v>3.4823513031005859</v>
       </c>
     </row>
     <row r="201">
@@ -2649,13 +2649,13 @@
         <v>3.4842512607574463</v>
       </c>
       <c r="C201" s="2">
-        <v>3.4638307094573975</v>
+        <v>3.4636075496673584</v>
       </c>
       <c r="D201" s="2">
         <v>3.3905034065246582</v>
       </c>
       <c r="E201" s="2">
-        <v>3.3655650615692139</v>
+        <v>3.3651964664459229</v>
       </c>
     </row>
     <row r="202">
@@ -2666,13 +2666,13 @@
         <v>3.0215303897857666</v>
       </c>
       <c r="C202" s="2">
-        <v>2.9182488918304443</v>
+        <v>2.9166431427001953</v>
       </c>
       <c r="D202" s="2">
         <v>3.4051318168640137</v>
       </c>
       <c r="E202" s="2">
-        <v>3.3598463535308838</v>
+        <v>3.3599448204040527</v>
       </c>
     </row>
     <row r="203">
@@ -2683,13 +2683,13 @@
         <v>3.2462267875671387</v>
       </c>
       <c r="C203" s="2">
-        <v>3.2488718032836914</v>
+        <v>3.2479848861694336</v>
       </c>
       <c r="D203" s="2">
         <v>3.3391690254211426</v>
       </c>
       <c r="E203" s="2">
-        <v>3.3104419708251953</v>
+        <v>3.3105347156524658</v>
       </c>
     </row>
     <row r="204">
@@ -2700,13 +2700,13 @@
         <v>3.5831162929534912</v>
       </c>
       <c r="C204" s="2">
-        <v>3.6213598251342773</v>
+        <v>3.6226470470428467</v>
       </c>
       <c r="D204" s="2">
         <v>3.3376224040985107</v>
       </c>
       <c r="E204" s="2">
-        <v>3.2928812503814697</v>
+        <v>3.2927320003509522</v>
       </c>
     </row>
     <row r="205">
@@ -2717,13 +2717,13 @@
         <v>3.0306565761566162</v>
       </c>
       <c r="C205" s="2">
-        <v>3.0021090507507324</v>
+        <v>3.000568151473999</v>
       </c>
       <c r="D205" s="2">
         <v>3.2475378513336182</v>
       </c>
       <c r="E205" s="2">
-        <v>3.2002687454223633</v>
+        <v>3.2001328468322754</v>
       </c>
     </row>
     <row r="206">
@@ -2734,13 +2734,13 @@
         <v>3.3554694652557373</v>
       </c>
       <c r="C206" s="2">
-        <v>3.2627158164978027</v>
+        <v>3.2647652626037598</v>
       </c>
       <c r="D206" s="2">
         <v>3.167449951171875</v>
       </c>
       <c r="E206" s="2">
-        <v>3.097524881362915</v>
+        <v>3.0972988605499268</v>
       </c>
     </row>
     <row r="207">
@@ -2751,13 +2751,13 @@
         <v>3.0266876220703125</v>
       </c>
       <c r="C207" s="2">
-        <v>3.0304489135742188</v>
+        <v>3.0311129093170166</v>
       </c>
       <c r="D207" s="2">
         <v>3.191051721572876</v>
       </c>
       <c r="E207" s="2">
-        <v>3.1304869651794434</v>
+        <v>3.1306576728820801</v>
       </c>
     </row>
     <row r="208">
@@ -2768,13 +2768,13 @@
         <v>3.326469898223877</v>
       </c>
       <c r="C208" s="2">
-        <v>3.1998538970947266</v>
+        <v>3.1980903148651123</v>
       </c>
       <c r="D208" s="2">
         <v>3.1807165145874023</v>
       </c>
       <c r="E208" s="2">
-        <v>3.1264035701751709</v>
+        <v>3.1264176368713379</v>
       </c>
     </row>
     <row r="209">
@@ -2785,13 +2785,13 @@
         <v>3.1534333229064941</v>
       </c>
       <c r="C209" s="2">
-        <v>3.0549802780151367</v>
+        <v>3.0557758808135986</v>
       </c>
       <c r="D209" s="2">
         <v>3.1588447093963623</v>
       </c>
       <c r="E209" s="2">
-        <v>3.0963258743286133</v>
+        <v>3.0963690280914307</v>
       </c>
     </row>
     <row r="210">
@@ -2802,13 +2802,13 @@
         <v>2.7634584903717041</v>
       </c>
       <c r="C210" s="2">
-        <v>2.5391345024108887</v>
+        <v>2.5381019115447998</v>
       </c>
       <c r="D210" s="2">
         <v>3.1920223236083984</v>
       </c>
       <c r="E210" s="2">
-        <v>3.1322181224822998</v>
+        <v>3.1323754787445068</v>
       </c>
     </row>
     <row r="211">
@@ -2819,13 +2819,13 @@
         <v>3.2339470386505127</v>
       </c>
       <c r="C211" s="2">
-        <v>3.2149093151092529</v>
+        <v>3.2168734073638916</v>
       </c>
       <c r="D211" s="2">
         <v>3.1167340278625488</v>
       </c>
       <c r="E211" s="2">
-        <v>3.0682389736175537</v>
+        <v>3.0680797100067139</v>
       </c>
     </row>
     <row r="212">
@@ -2836,13 +2836,13 @@
         <v>3.1532101631164551</v>
       </c>
       <c r="C212" s="2">
-        <v>3.212120532989502</v>
+        <v>3.2098231315612793</v>
       </c>
       <c r="D212" s="2">
         <v>3.1478762626647949</v>
       </c>
       <c r="E212" s="2">
-        <v>3.0703985691070557</v>
+        <v>3.0697906017303467</v>
       </c>
     </row>
     <row r="213">
@@ -2853,13 +2853,13 @@
         <v>3.3862698078155518</v>
       </c>
       <c r="C213" s="2">
-        <v>3.3506612777709961</v>
+        <v>3.3522095680236817</v>
       </c>
       <c r="D213" s="2">
         <v>3.1121904850006104</v>
       </c>
       <c r="E213" s="2">
-        <v>3.024376392364502</v>
+        <v>3.023665189743042</v>
       </c>
     </row>
     <row r="214">
@@ -2870,13 +2870,13 @@
         <v>3.3292543888092041</v>
       </c>
       <c r="C214" s="2">
-        <v>3.3251385688781738</v>
+        <v>3.3246273994445801</v>
       </c>
       <c r="D214" s="2">
         <v>3.1172163486480713</v>
       </c>
       <c r="E214" s="2">
-        <v>3.0239858627319336</v>
+        <v>3.0234136581420898</v>
       </c>
     </row>
     <row r="215">
@@ -2887,13 +2887,13 @@
         <v>2.6778759956359863</v>
       </c>
       <c r="C215" s="2">
-        <v>2.6869041919708252</v>
+        <v>2.6861035823822022</v>
       </c>
       <c r="D215" s="2">
         <v>3.1227946281433106</v>
       </c>
       <c r="E215" s="2">
-        <v>3.0173661708831787</v>
+        <v>3.0167067050933838</v>
       </c>
     </row>
     <row r="216">
@@ -2904,13 +2904,13 @@
         <v>3.3069674968719482</v>
       </c>
       <c r="C216" s="2">
-        <v>3.049884557723999</v>
+        <v>3.0465097427368164</v>
       </c>
       <c r="D216" s="2">
         <v>3.1679747104644775</v>
       </c>
       <c r="E216" s="2">
-        <v>3.0501499176025391</v>
+        <v>3.0494287014007568</v>
       </c>
     </row>
     <row r="217">
@@ -2921,13 +2921,13 @@
         <v>3.0052967071533203</v>
       </c>
       <c r="C217" s="2">
-        <v>2.7856545448303223</v>
+        <v>2.7829630374908447</v>
       </c>
       <c r="D217" s="2">
         <v>3.1287002563476563</v>
       </c>
       <c r="E217" s="2">
-        <v>2.9642126560211182</v>
+        <v>2.9635272026062012</v>
       </c>
     </row>
     <row r="218">
@@ -2938,13 +2938,13 @@
         <v>3.1986663341522217</v>
       </c>
       <c r="C218" s="2">
-        <v>3.0514647960662842</v>
+        <v>3.0535109043121338</v>
       </c>
       <c r="D218" s="2">
         <v>3.1426537036895752</v>
       </c>
       <c r="E218" s="2">
-        <v>2.9759917259216309</v>
+        <v>2.9755141735076904</v>
       </c>
     </row>
     <row r="219">
@@ -2955,13 +2955,13 @@
         <v>2.8136639595031738</v>
       </c>
       <c r="C219" s="2">
-        <v>2.479557991027832</v>
+        <v>2.4777390956878662</v>
       </c>
       <c r="D219" s="2">
         <v>3.13094162940979</v>
       </c>
       <c r="E219" s="2">
-        <v>2.9340362548828125</v>
+        <v>2.9333457946777344</v>
       </c>
     </row>
     <row r="220">
@@ -2972,13 +2972,13 @@
         <v>3.6405684947967529</v>
       </c>
       <c r="C220" s="2">
-        <v>3.5099618434906006</v>
+        <v>3.5113723278045654</v>
       </c>
       <c r="D220" s="2">
         <v>3.2145609855651855</v>
       </c>
       <c r="E220" s="2">
-        <v>3.0239415168762207</v>
+        <v>3.0233848094940186</v>
       </c>
     </row>
     <row r="221">
@@ -2989,13 +2989,13 @@
         <v>2.7997400760650635</v>
       </c>
       <c r="C221" s="2">
-        <v>2.4386870861053467</v>
+        <v>2.4367098808288574</v>
       </c>
       <c r="D221" s="2">
         <v>3.1816213130950928</v>
       </c>
       <c r="E221" s="2">
-        <v>3.0213432312011719</v>
+        <v>3.0210521221160889</v>
       </c>
     </row>
     <row r="222">
@@ -3006,13 +3006,13 @@
         <v>3.5118489265441895</v>
       </c>
       <c r="C222" s="2">
-        <v>3.4566724300384521</v>
+        <v>3.4600918292999268</v>
       </c>
       <c r="D222" s="2">
         <v>3.1948869228363037</v>
       </c>
       <c r="E222" s="2">
-        <v>3.0682072639465332</v>
+        <v>3.0681729316711426</v>
       </c>
     </row>
     <row r="223">
@@ -3023,13 +3023,13 @@
         <v>3.223846435546875</v>
       </c>
       <c r="C223" s="2">
-        <v>2.9475390911102295</v>
+        <v>2.9451110363006592</v>
       </c>
       <c r="D223" s="2">
         <v>3.2163012027740479</v>
       </c>
       <c r="E223" s="2">
-        <v>3.1048030853271484</v>
+        <v>3.1044223308563232</v>
       </c>
     </row>
     <row r="224">
@@ -3040,13 +3040,13 @@
         <v>3.430450439453125</v>
       </c>
       <c r="C224" s="2">
-        <v>3.496051549911499</v>
+        <v>3.496455192565918</v>
       </c>
       <c r="D224" s="2">
         <v>3.2372779846191406</v>
       </c>
       <c r="E224" s="2">
-        <v>3.1659088134765625</v>
+        <v>3.1655125617980957</v>
       </c>
     </row>
     <row r="225">
@@ -3057,13 +3057,13 @@
         <v>3.0105109214782715</v>
       </c>
       <c r="C225" s="2">
-        <v>3.0264990329742432</v>
+        <v>3.025515079498291</v>
       </c>
       <c r="D225" s="2">
         <v>3.127838134765625</v>
       </c>
       <c r="E225" s="2">
-        <v>3.0746936798095703</v>
+        <v>3.0739407539367676</v>
       </c>
     </row>
     <row r="226">
@@ -3074,13 +3074,13 @@
         <v>3.1246864795684814</v>
       </c>
       <c r="C226" s="2">
-        <v>3.2074310779571533</v>
+        <v>3.2070503234863281</v>
       </c>
       <c r="D226" s="2">
         <v>3.1378114223480225</v>
       </c>
       <c r="E226" s="2">
-        <v>3.1030712127685547</v>
+        <v>3.1023447513580322</v>
       </c>
     </row>
     <row r="227">
@@ -3091,13 +3091,13 @@
         <v>3.3913955688476563</v>
       </c>
       <c r="C227" s="2">
-        <v>3.3808274269104004</v>
+        <v>3.3797552585601807</v>
       </c>
       <c r="D227" s="2">
         <v>3.0965931415557861</v>
       </c>
       <c r="E227" s="2">
-        <v>3.0596294403076172</v>
+        <v>3.0588161945343018</v>
       </c>
     </row>
     <row r="228">
@@ -3108,13 +3108,13 @@
         <v>3.0024549961090088</v>
       </c>
       <c r="C228" s="2">
-        <v>3.0295088291168213</v>
+        <v>3.0275521278381348</v>
       </c>
       <c r="D228" s="2">
         <v>3.0485906600952148</v>
       </c>
       <c r="E228" s="2">
-        <v>3.0191771984100342</v>
+        <v>3.0187325477600098</v>
       </c>
     </row>
     <row r="229">
@@ -3125,13 +3125,13 @@
         <v>2.6556093692779541</v>
       </c>
       <c r="C229" s="2">
-        <v>2.6890256404876709</v>
+        <v>2.6872260570526123</v>
       </c>
       <c r="D229" s="2">
         <v>2.9838063716888428</v>
       </c>
       <c r="E229" s="2">
-        <v>2.9266901016235352</v>
+        <v>2.9263112545013428</v>
       </c>
     </row>
     <row r="230">
@@ -3142,13 +3142,13 @@
         <v>2.8895001411437988</v>
       </c>
       <c r="C230" s="2">
-        <v>2.6940855979919434</v>
+        <v>2.6923458576202393</v>
       </c>
       <c r="D230" s="2">
         <v>2.9771034717559814</v>
       </c>
       <c r="E230" s="2">
-        <v>2.9035367965698242</v>
+        <v>2.9030542373657227</v>
       </c>
     </row>
     <row r="231">
@@ -3159,13 +3159,13 @@
         <v>3.1408829689025879</v>
       </c>
       <c r="C231" s="2">
-        <v>3.0656957626342773</v>
+        <v>3.0683341026306152</v>
       </c>
       <c r="D231" s="2">
         <v>2.9764928817749024</v>
       </c>
       <c r="E231" s="2">
-        <v>2.9067480564117432</v>
+        <v>2.9062671661376953</v>
       </c>
     </row>
     <row r="232">
@@ -3176,13 +3176,13 @@
         <v>2.7918250560760498</v>
       </c>
       <c r="C232" s="2">
-        <v>2.5834689140319824</v>
+        <v>2.5843591690063477</v>
       </c>
       <c r="D232" s="2">
         <v>2.9911315441131592</v>
       </c>
       <c r="E232" s="2">
-        <v>2.919677734375</v>
+        <v>2.9193122386932373</v>
       </c>
     </row>
     <row r="233">
@@ -3193,13 +3193,13 @@
         <v>2.8473913669586182</v>
       </c>
       <c r="C233" s="2">
-        <v>2.6636683940887451</v>
+        <v>2.6646630764007568</v>
       </c>
       <c r="D233" s="2">
         <v>3.0460283756256104</v>
       </c>
       <c r="E233" s="2">
-        <v>2.9649503231048584</v>
+        <v>2.964806079864502</v>
       </c>
     </row>
     <row r="234">
@@ -3210,13 +3210,13 @@
         <v>2.9501862525939942</v>
       </c>
       <c r="C234" s="2">
-        <v>2.8181185722351074</v>
+        <v>2.8162014484405518</v>
       </c>
       <c r="D234" s="2">
         <v>3.0399088859558106</v>
       </c>
       <c r="E234" s="2">
-        <v>2.9563784599304199</v>
+        <v>2.9561054706573486</v>
       </c>
     </row>
     <row r="235">
@@ -3227,13 +3227,13 @@
         <v>3.1191895008087158</v>
       </c>
       <c r="C235" s="2">
-        <v>3.2363333702087402</v>
+        <v>3.2359683513641357</v>
       </c>
       <c r="D235" s="2">
         <v>3.1280696392059326</v>
       </c>
       <c r="E235" s="2">
-        <v>3.0755441188812256</v>
+        <v>3.0754683017730713</v>
       </c>
     </row>
     <row r="236">
@@ -3244,13 +3244,13 @@
         <v>3.5231449604034424</v>
       </c>
       <c r="C236" s="2">
-        <v>3.4971950054168701</v>
+        <v>3.4971597194671631</v>
       </c>
       <c r="D236" s="2">
         <v>3.1685526371002197</v>
       </c>
       <c r="E236" s="2">
-        <v>3.1342887878417969</v>
+        <v>3.1338992118835449</v>
       </c>
     </row>
     <row r="237">
@@ -3261,13 +3261,13 @@
         <v>3.4965260028839111</v>
       </c>
       <c r="C237" s="2">
-        <v>3.4369606971740723</v>
+        <v>3.4369959831237793</v>
       </c>
       <c r="D237" s="2">
         <v>3.2153244018554688</v>
       </c>
       <c r="E237" s="2">
-        <v>3.1782040596008301</v>
+        <v>3.1778452396392822</v>
       </c>
     </row>
     <row r="238">
@@ -3278,13 +3278,13 @@
         <v>2.6005332469940186</v>
       </c>
       <c r="C238" s="2">
-        <v>2.6118805408477783</v>
+        <v>2.6089224815368652</v>
       </c>
       <c r="D238" s="2">
         <v>3.2169513702392578</v>
       </c>
       <c r="E238" s="2">
-        <v>3.2067775726318359</v>
+        <v>3.206291675567627</v>
       </c>
     </row>
     <row r="239">
@@ -3295,13 +3295,13 @@
         <v>3.6829466819763184</v>
       </c>
       <c r="C239" s="2">
-        <v>3.7665750980377197</v>
+        <v>3.7666110992431641</v>
       </c>
       <c r="D239" s="2">
         <v>3.1889281272888184</v>
       </c>
       <c r="E239" s="2">
-        <v>3.1949310302734375</v>
+        <v>3.1945540904998779</v>
       </c>
     </row>
     <row r="240">
@@ -3312,13 +3312,13 @@
         <v>3.505230188369751</v>
       </c>
       <c r="C240" s="2">
-        <v>3.5943980216979981</v>
+        <v>3.5942118167877197</v>
       </c>
       <c r="D240" s="2">
         <v>3.2115790843963623</v>
       </c>
       <c r="E240" s="2">
-        <v>3.1902086734771729</v>
+        <v>3.1895990371704102</v>
       </c>
     </row>
     <row r="241">
@@ -3329,13 +3329,13 @@
         <v>3.2127711772918701</v>
       </c>
       <c r="C241" s="2">
-        <v>2.9787068367004395</v>
+        <v>2.9798731803894043</v>
       </c>
       <c r="D241" s="2">
         <v>3.0848937034606934</v>
       </c>
       <c r="E241" s="2">
-        <v>3.0735864639282227</v>
+        <v>3.0726990699768066</v>
       </c>
     </row>
     <row r="242">
@@ -3346,13 +3346,13 @@
         <v>2.8620338439941406</v>
       </c>
       <c r="C242" s="2">
-        <v>2.9208295345306396</v>
+        <v>2.9206809997558594</v>
       </c>
       <c r="D242" s="2">
         <v>3.0242416858673096</v>
       </c>
       <c r="E242" s="2">
-        <v>3.0101883411407471</v>
+        <v>3.009174108505249</v>
       </c>
     </row>
     <row r="243">
@@ -3363,13 +3363,13 @@
         <v>2.6979777812957764</v>
       </c>
       <c r="C243" s="2">
-        <v>2.711500883102417</v>
+        <v>2.7105629444122314</v>
       </c>
       <c r="D243" s="2">
         <v>3.0114040374755859</v>
       </c>
       <c r="E243" s="2">
-        <v>2.9889340400695801</v>
+        <v>2.9880633354187012</v>
       </c>
     </row>
     <row r="244">
@@ -3380,13 +3380,13 @@
         <v>3.3230476379394531</v>
       </c>
       <c r="C244" s="2">
-        <v>3.1938307285308838</v>
+        <v>3.1913728713989258</v>
       </c>
       <c r="D244" s="2">
         <v>2.8580513000488281</v>
       </c>
       <c r="E244" s="2">
-        <v>2.8333671092987061</v>
+        <v>2.8318896293640137</v>
       </c>
     </row>
     <row r="245">
@@ -3397,13 +3397,13 @@
         <v>2.3829770088195801</v>
       </c>
       <c r="C245" s="2">
-        <v>2.4475967884063721</v>
+        <v>2.4450592994689942</v>
       </c>
       <c r="D245" s="2">
         <v>2.7454192638397217</v>
       </c>
       <c r="E245" s="2">
-        <v>2.7012996673583984</v>
+        <v>2.6996324062347412</v>
       </c>
     </row>
     <row r="246">
@@ -3414,13 +3414,13 @@
         <v>2.9506573677062988</v>
       </c>
       <c r="C246" s="2">
-        <v>2.8663773536682129</v>
+        <v>2.8652715682983398</v>
       </c>
       <c r="D246" s="2">
         <v>2.7061033248901367</v>
       </c>
       <c r="E246" s="2">
-        <v>2.6703979969024658</v>
+        <v>2.6689243316650391</v>
       </c>
     </row>
     <row r="247">
@@ -3431,13 +3431,13 @@
         <v>2.4849939346313477</v>
       </c>
       <c r="C247" s="2">
-        <v>2.4205911159515381</v>
+        <v>2.418926477432251</v>
       </c>
       <c r="D247" s="2">
         <v>2.6917681694030762</v>
       </c>
       <c r="E247" s="2">
-        <v>2.6333482265472412</v>
+        <v>2.6316134929656982</v>
       </c>
     </row>
     <row r="248">
@@ -3448,13 +3448,13 @@
         <v>2.302772045135498</v>
       </c>
       <c r="C248" s="2">
-        <v>2.3664731979370117</v>
+        <v>2.3610482215881348</v>
       </c>
       <c r="D248" s="2">
         <v>2.7224681377410889</v>
       </c>
       <c r="E248" s="2">
-        <v>2.6677765846252442</v>
+        <v>2.6660816669464111</v>
       </c>
     </row>
     <row r="249">
@@ -3465,13 +3465,13 @@
         <v>2.4915425777435303</v>
       </c>
       <c r="C249" s="2">
-        <v>2.4057900905609131</v>
+        <v>2.4038965702056885</v>
       </c>
       <c r="D249" s="2">
         <v>2.6708219051361084</v>
       </c>
       <c r="E249" s="2">
-        <v>2.6073527336120605</v>
+        <v>2.6058502197265625</v>
       </c>
     </row>
     <row r="250">
@@ -3482,13 +3482,13 @@
         <v>2.8589277267456055</v>
       </c>
       <c r="C250" s="2">
-        <v>2.7005922794342041</v>
+        <v>2.7035007476806641</v>
       </c>
       <c r="D250" s="2">
         <v>2.7147762775421143</v>
       </c>
       <c r="E250" s="2">
-        <v>2.6405947208404541</v>
+        <v>2.6392643451690674</v>
       </c>
     </row>
     <row r="251">
@@ -3499,13 +3499,13 @@
         <v>2.7330176830291748</v>
       </c>
       <c r="C251" s="2">
-        <v>2.5873825550079346</v>
+        <v>2.5848836898803711</v>
       </c>
       <c r="D251" s="2">
         <v>2.6843230724334717</v>
       </c>
       <c r="E251" s="2">
-        <v>2.6077196598052979</v>
+        <v>2.6064333915710449</v>
       </c>
     </row>
     <row r="252">
@@ -3516,13 +3516,13 @@
         <v>2.9742763042449951</v>
       </c>
       <c r="C252" s="2">
-        <v>3.021355152130127</v>
+        <v>3.0207748413085938</v>
       </c>
       <c r="D252" s="2">
         <v>2.7008523941040039</v>
       </c>
       <c r="E252" s="2">
-        <v>2.6142456531524658</v>
+        <v>2.6132924556732178</v>
       </c>
     </row>
     <row r="253">
@@ -3533,13 +3533,13 @@
         <v>2.8582320213317871</v>
       </c>
       <c r="C253" s="2">
-        <v>2.6500167846679688</v>
+        <v>2.6492910385131836</v>
       </c>
       <c r="D253" s="2">
         <v>2.7425746917724609</v>
       </c>
       <c r="E253" s="2">
-        <v>2.6460995674133301</v>
+        <v>2.6456947326660156</v>
       </c>
     </row>
     <row r="254">
@@ -3550,13 +3550,13 @@
         <v>2.7785665988922119</v>
       </c>
       <c r="C254" s="2">
-        <v>2.7467730045318604</v>
+        <v>2.745786190032959</v>
       </c>
       <c r="D254" s="2">
         <v>2.7578179836273193</v>
       </c>
       <c r="E254" s="2">
-        <v>2.6628680229187012</v>
+        <v>2.6626937389373779</v>
       </c>
     </row>
     <row r="255">
@@ -3567,13 +3567,13 @@
         <v>2.6765787601470947</v>
       </c>
       <c r="C255" s="2">
-        <v>2.5705029964447021</v>
+        <v>2.5697917938232422</v>
       </c>
       <c r="D255" s="2">
         <v>2.7331204414367676</v>
       </c>
       <c r="E255" s="2">
-        <v>2.6631760597229004</v>
+        <v>2.6626548767089844</v>
       </c>
     </row>
     <row r="256">
@@ -3584,13 +3584,13 @@
         <v>2.6337580680847168</v>
       </c>
       <c r="C256" s="2">
-        <v>2.4793257713317871</v>
+        <v>2.4806585311889648</v>
       </c>
       <c r="D256" s="2">
         <v>2.7129490375518799</v>
       </c>
       <c r="E256" s="2">
-        <v>2.6627871990203857</v>
+        <v>2.662341833114624</v>
       </c>
     </row>
     <row r="257">
@@ -3601,13 +3601,13 @@
         <v>2.678272008895874</v>
       </c>
       <c r="C257" s="2">
-        <v>2.6531565189361572</v>
+        <v>2.6526699066162109</v>
       </c>
       <c r="D257" s="2">
         <v>2.7248332500457764</v>
       </c>
       <c r="E257" s="2">
-        <v>2.6608285903930664</v>
+        <v>2.6604897975921631</v>
       </c>
     </row>
     <row r="258">
@@ -3618,13 +3618,13 @@
         <v>2.6287331581115723</v>
       </c>
       <c r="C258" s="2">
-        <v>2.556706428527832</v>
+        <v>2.5568876266479492</v>
       </c>
       <c r="D258" s="2">
         <v>2.7202703952789307</v>
       </c>
       <c r="E258" s="2">
-        <v>2.6643106937408447</v>
+        <v>2.6639504432678223</v>
       </c>
     </row>
     <row r="259">
@@ -3635,13 +3635,13 @@
         <v>2.636648416519165</v>
       </c>
       <c r="C259" s="2">
-        <v>2.7033658027648926</v>
+        <v>2.7031509876251221</v>
       </c>
       <c r="D259" s="2">
         <v>2.6817796230316162</v>
       </c>
       <c r="E259" s="2">
-        <v>2.6063926219940186</v>
+        <v>2.6061387062072754</v>
       </c>
     </row>
     <row r="260">
@@ -3652,13 +3652,13 @@
         <v>2.5514752864837647</v>
       </c>
       <c r="C260" s="2">
-        <v>2.5838823318481445</v>
+        <v>2.5820651054382324</v>
       </c>
       <c r="D260" s="2">
         <v>2.6873016357421875</v>
       </c>
       <c r="E260" s="2">
-        <v>2.6220123767852783</v>
+        <v>2.621671199798584</v>
       </c>
     </row>
     <row r="261">
@@ -3669,13 +3669,13 @@
         <v>3.0812349319458008</v>
       </c>
       <c r="C261" s="2">
-        <v>3.0037267208099365</v>
+        <v>3.0041065216064453</v>
       </c>
       <c r="D261" s="2">
         <v>2.7034556865692139</v>
       </c>
       <c r="E261" s="2">
-        <v>2.653883695602417</v>
+        <v>2.6533496379852295</v>
       </c>
     </row>
     <row r="262">
@@ -3686,13 +3686,13 @@
         <v>2.8171656131744385</v>
       </c>
       <c r="C262" s="2">
-        <v>2.6813569068908691</v>
+        <v>2.6804382801055908</v>
       </c>
       <c r="D262" s="2">
         <v>2.6964144706726074</v>
       </c>
       <c r="E262" s="2">
-        <v>2.6249485015869141</v>
+        <v>2.6245410442352295</v>
       </c>
     </row>
     <row r="263">
@@ -3703,13 +3703,13 @@
         <v>2.4321508407592774</v>
       </c>
       <c r="C263" s="2">
-        <v>2.2255091667175293</v>
+        <v>2.2254791259765625</v>
       </c>
       <c r="D263" s="2">
         <v>2.6909148693084717</v>
       </c>
       <c r="E263" s="2">
-        <v>2.6164913177490234</v>
+        <v>2.6158840656280518</v>
       </c>
     </row>
     <row r="264">
@@ -3720,13 +3720,13 @@
         <v>2.7262763977050781</v>
       </c>
       <c r="C264" s="2">
-        <v>2.71108078956604</v>
+        <v>2.7095844745635986</v>
       </c>
       <c r="D264" s="2">
         <v>2.7549972534179688</v>
       </c>
       <c r="E264" s="2">
-        <v>2.6543986797332764</v>
+        <v>2.6536431312561035</v>
       </c>
     </row>
     <row r="265">
@@ -3737,13 +3737,13 @@
         <v>2.779144287109375</v>
       </c>
       <c r="C265" s="2">
-        <v>2.7661678791046143</v>
+        <v>2.7657639980316162</v>
       </c>
       <c r="D265" s="2">
         <v>2.8090832233428955</v>
       </c>
       <c r="E265" s="2">
-        <v>2.683912992477417</v>
+        <v>2.6834254264831543</v>
       </c>
     </row>
     <row r="266">
@@ -3754,13 +3754,13 @@
         <v>2.6149022579193115</v>
       </c>
       <c r="C266" s="2">
-        <v>2.3927404880523682</v>
+        <v>2.3933935165405274</v>
       </c>
       <c r="D266" s="2">
         <v>2.768094539642334</v>
       </c>
       <c r="E266" s="2">
-        <v>2.6411073207855225</v>
+        <v>2.6404762268066406</v>
       </c>
     </row>
     <row r="267">
@@ -3771,13 +3771,13 @@
         <v>2.5792360305786133</v>
       </c>
       <c r="C267" s="2">
-        <v>2.4805917739868164</v>
+        <v>2.4789738655090332</v>
       </c>
       <c r="D267" s="2">
         <v>2.8302388191223145</v>
       </c>
       <c r="E267" s="2">
-        <v>2.7118897438049316</v>
+        <v>2.7113323211669922</v>
       </c>
     </row>
     <row r="268">
@@ -3788,13 +3788,13 @@
         <v>3.2133891582489014</v>
       </c>
       <c r="C268" s="2">
-        <v>3.0445318222045899</v>
+        <v>3.0429830551147461</v>
       </c>
       <c r="D268" s="2">
         <v>2.8525166511535645</v>
       </c>
       <c r="E268" s="2">
-        <v>2.7592959403991699</v>
+        <v>2.7589371204376221</v>
       </c>
     </row>
     <row r="269">
@@ -3805,13 +3805,13 @@
         <v>3.0382492542266846</v>
       </c>
       <c r="C269" s="2">
-        <v>2.8495118618011475</v>
+        <v>2.8501062393188477</v>
       </c>
       <c r="D269" s="2">
         <v>2.8651344776153565</v>
       </c>
       <c r="E269" s="2">
-        <v>2.7396228313446045</v>
+        <v>2.73941969871521</v>
       </c>
     </row>
     <row r="270">
@@ -3822,13 +3822,13 @@
         <v>2.7123379707336426</v>
       </c>
       <c r="C270" s="2">
-        <v>2.6184749603271484</v>
+        <v>2.6175625324249268</v>
       </c>
       <c r="D270" s="2">
         <v>2.8804192543029785</v>
       </c>
       <c r="E270" s="2">
-        <v>2.7533602714538574</v>
+        <v>2.7533066272735596</v>
       </c>
     </row>
     <row r="271">
@@ -3839,13 +3839,13 @@
         <v>3.3764641284942627</v>
       </c>
       <c r="C271" s="2">
-        <v>3.3183984756469727</v>
+        <v>3.3181436061859131</v>
       </c>
       <c r="D271" s="2">
         <v>2.9208593368530273</v>
       </c>
       <c r="E271" s="2">
-        <v>2.805635929107666</v>
+        <v>2.805448055267334</v>
       </c>
     </row>
     <row r="272">
@@ -3856,13 +3856,13 @@
         <v>2.6326503753662109</v>
       </c>
       <c r="C272" s="2">
-        <v>2.6521658897399902</v>
+        <v>2.6539220809936524</v>
       </c>
       <c r="D272" s="2">
         <v>3.0039057731628418</v>
       </c>
       <c r="E272" s="2">
-        <v>2.9030532836914063</v>
+        <v>2.9030351638793945</v>
       </c>
     </row>
     <row r="273">
@@ -3873,13 +3873,13 @@
         <v>2.8398375511169434</v>
       </c>
       <c r="C273" s="2">
-        <v>2.5340232849121094</v>
+        <v>2.5339281558990479</v>
       </c>
       <c r="D273" s="2">
         <v>2.9937937259674072</v>
       </c>
       <c r="E273" s="2">
-        <v>2.9046816825866699</v>
+        <v>2.904829740524292</v>
       </c>
     </row>
     <row r="274">
@@ -3890,13 +3890,13 @@
         <v>2.9167056083679199</v>
       </c>
       <c r="C274" s="2">
-        <v>2.8898036479949951</v>
+        <v>2.8907475471496582</v>
       </c>
       <c r="D274" s="2">
         <v>2.9863662719726563</v>
       </c>
       <c r="E274" s="2">
-        <v>2.9185059070587158</v>
+        <v>2.9186131954193115</v>
       </c>
     </row>
     <row r="275">
@@ -3907,13 +3907,13 @@
         <v>2.9788649082183838</v>
       </c>
       <c r="C275" s="2">
-        <v>2.8632209300994873</v>
+        <v>2.8626654148101807</v>
       </c>
       <c r="D275" s="2">
         <v>2.9935076236724854</v>
       </c>
       <c r="E275" s="2">
-        <v>2.9289865493774414</v>
+        <v>2.9292209148406982</v>
       </c>
     </row>
     <row r="276">
@@ -3924,13 +3924,13 @@
         <v>3.3266537189483643</v>
       </c>
       <c r="C276" s="2">
-        <v>3.3573479652404785</v>
+        <v>3.3572573661804199</v>
       </c>
       <c r="D276" s="2">
         <v>2.9609360694885254</v>
       </c>
       <c r="E276" s="2">
-        <v>2.8961050510406494</v>
+        <v>2.8961963653564453</v>
       </c>
     </row>
     <row r="277">
@@ -3941,13 +3941,13 @@
         <v>3.1223795413970947</v>
       </c>
       <c r="C277" s="2">
-        <v>3.0591886043548584</v>
+        <v>3.0591347217559814</v>
       </c>
       <c r="D277" s="2">
         <v>3.0026471614837646</v>
       </c>
       <c r="E277" s="2">
-        <v>2.9235053062438965</v>
+        <v>2.9233207702636719</v>
       </c>
     </row>
     <row r="278">
@@ -3958,13 +3958,13 @@
         <v>2.9714028835296631</v>
       </c>
       <c r="C278" s="2">
-        <v>2.9739298820495605</v>
+        <v>2.9741578102111816</v>
       </c>
       <c r="D278" s="2">
         <v>3.0358569622039795</v>
       </c>
       <c r="E278" s="2">
-        <v>2.9895172119140625</v>
+        <v>2.9894683361053467</v>
       </c>
     </row>
     <row r="279">
@@ -3975,13 +3975,13 @@
         <v>2.7766101360321045</v>
       </c>
       <c r="C279" s="2">
-        <v>2.7128000259399414</v>
+        <v>2.7130310535430908</v>
       </c>
       <c r="D279" s="2">
         <v>3.0247781276702881</v>
       </c>
       <c r="E279" s="2">
-        <v>2.9541029930114746</v>
+        <v>2.954232931137085</v>
       </c>
     </row>
     <row r="280">
@@ -3992,13 +3992,13 @@
         <v>3.083319902420044</v>
       </c>
       <c r="C280" s="2">
-        <v>3.0224645137786865</v>
+        <v>3.0209224224090576</v>
       </c>
       <c r="D280" s="2">
         <v>3.0043797492980957</v>
       </c>
       <c r="E280" s="2">
-        <v>2.938828706741333</v>
+        <v>2.9387664794921875</v>
       </c>
     </row>
     <row r="281">
@@ -4009,13 +4009,13 @@
         <v>3.0080509185791016</v>
       </c>
       <c r="C281" s="2">
-        <v>2.8987679481506348</v>
+        <v>2.8980426788330078</v>
       </c>
       <c r="D281" s="2">
         <v>2.9357397556304932</v>
       </c>
       <c r="E281" s="2">
-        <v>2.8585371971130371</v>
+        <v>2.8582477569580078</v>
       </c>
     </row>
     <row r="282">
@@ -4026,13 +4026,13 @@
         <v>3.1387259960174561</v>
       </c>
       <c r="C282" s="2">
-        <v>3.1281321048736572</v>
+        <v>3.1292567253112793</v>
       </c>
       <c r="D282" s="2">
         <v>2.8883428573608398</v>
       </c>
       <c r="E282" s="2">
-        <v>2.8068890571594238</v>
+        <v>2.8065347671508789</v>
       </c>
     </row>
     <row r="283">
@@ -4043,13 +4043,13 @@
         <v>2.8169944286346436</v>
       </c>
       <c r="C283" s="2">
-        <v>2.571075439453125</v>
+        <v>2.5736289024353027</v>
       </c>
       <c r="D283" s="2">
         <v>2.8581039905548096</v>
       </c>
       <c r="E283" s="2">
-        <v>2.7952861785888672</v>
+        <v>2.7944839000701904</v>
       </c>
     </row>
     <row r="284">
@@ -4060,13 +4060,13 @@
         <v>2.795280933380127</v>
       </c>
       <c r="C284" s="2">
-        <v>2.7257518768310547</v>
+        <v>2.7234675884246826</v>
       </c>
       <c r="D284" s="2">
         <v>2.8784995079040527</v>
       </c>
       <c r="E284" s="2">
-        <v>2.8105347156524658</v>
+        <v>2.8096904754638672</v>
       </c>
     </row>
     <row r="285">
@@ -4077,13 +4077,13 @@
         <v>2.7088937759399414</v>
       </c>
       <c r="C285" s="2">
-        <v>2.6347243785858154</v>
+        <v>2.6325876712799072</v>
       </c>
       <c r="D285" s="2">
         <v>2.9298126697540283</v>
       </c>
       <c r="E285" s="2">
-        <v>2.8742847442626953</v>
+        <v>2.8739824295043945</v>
       </c>
     </row>
     <row r="286">
@@ -4094,13 +4094,13 @@
         <v>2.6958062648773193</v>
       </c>
       <c r="C286" s="2">
-        <v>2.594355583190918</v>
+        <v>2.5937175750732422</v>
       </c>
       <c r="D286" s="2">
         <v>2.8711872100830078</v>
       </c>
       <c r="E286" s="2">
-        <v>2.8238186836242676</v>
+        <v>2.8235340118408203</v>
       </c>
     </row>
     <row r="287">
@@ -4111,13 +4111,13 @@
         <v>2.6992526054382324</v>
       </c>
       <c r="C287" s="2">
-        <v>2.8695037364959717</v>
+        <v>2.8657007217407227</v>
       </c>
       <c r="D287" s="2">
         <v>2.8382124900817871</v>
       </c>
       <c r="E287" s="2">
-        <v>2.7880442142486572</v>
+        <v>2.7875888347625732</v>
       </c>
     </row>
     <row r="288">
@@ -4128,13 +4128,13 @@
         <v>2.9601714611053467</v>
       </c>
       <c r="C288" s="2">
-        <v>2.8500370979309082</v>
+        <v>2.849890947341919</v>
       </c>
       <c r="D288" s="2">
         <v>2.8817493915557861</v>
       </c>
       <c r="E288" s="2">
-        <v>2.853482723236084</v>
+        <v>2.8526961803436279</v>
       </c>
     </row>
     <row r="289">
@@ -4145,13 +4145,13 @@
         <v>3.5451385974884033</v>
       </c>
       <c r="C289" s="2">
-        <v>3.5962135791778565</v>
+        <v>3.5995485782623291</v>
       </c>
       <c r="D289" s="2">
         <v>2.9315910339355469</v>
       </c>
       <c r="E289" s="2">
-        <v>2.8971340656280518</v>
+        <v>2.8964922428131104</v>
       </c>
     </row>
     <row r="290">
@@ -4162,13 +4162,13 @@
         <v>2.4804210662841797</v>
       </c>
       <c r="C290" s="2">
-        <v>2.4445745944976807</v>
+        <v>2.4440069198608399</v>
       </c>
       <c r="D290" s="2">
         <v>2.9121754169464111</v>
       </c>
       <c r="E290" s="2">
-        <v>2.8789904117584229</v>
+        <v>2.8782494068145752</v>
       </c>
     </row>
     <row r="291">
@@ -4179,13 +4179,13 @@
         <v>2.841954231262207</v>
       </c>
       <c r="C291" s="2">
-        <v>2.8061625957489014</v>
+        <v>2.8057498931884766</v>
       </c>
       <c r="D291" s="2">
         <v>2.932633638381958</v>
       </c>
       <c r="E291" s="2">
-        <v>2.9014408588409424</v>
+        <v>2.9004905223846436</v>
       </c>
     </row>
     <row r="292">
@@ -4196,13 +4196,13 @@
         <v>3.2088251113891602</v>
       </c>
       <c r="C292" s="2">
-        <v>3.1600217819213867</v>
+        <v>3.1595964431762695</v>
       </c>
       <c r="D292" s="2">
         <v>2.9704816341400147</v>
       </c>
       <c r="E292" s="2">
-        <v>2.914968729019165</v>
+        <v>2.9145448207855225</v>
       </c>
     </row>
     <row r="293">
@@ -4213,13 +4213,13 @@
         <v>3.2438561916351318</v>
       </c>
       <c r="C293" s="2">
-        <v>3.1186132431030273</v>
+        <v>3.1176319122314453</v>
       </c>
       <c r="D293" s="2">
         <v>2.9342086315155029</v>
       </c>
       <c r="E293" s="2">
-        <v>2.8906590938568115</v>
+        <v>2.8903145790100098</v>
       </c>
     </row>
     <row r="294">
@@ -4230,13 +4230,13 @@
         <v>2.5341536998748779</v>
       </c>
       <c r="C294" s="2">
-        <v>2.4714314937591553</v>
+        <v>2.468402624130249</v>
       </c>
       <c r="D294" s="2">
         <v>2.8772158622741699</v>
       </c>
       <c r="E294" s="2">
-        <v>2.8108692169189453</v>
+        <v>2.8103611469268799</v>
       </c>
     </row>
     <row r="295">
@@ -4247,13 +4247,13 @@
         <v>2.879929780960083</v>
       </c>
       <c r="C295" s="2">
-        <v>2.796410083770752</v>
+        <v>2.7938857078552246</v>
       </c>
       <c r="D295" s="2">
         <v>2.9354000091552734</v>
       </c>
       <c r="E295" s="2">
-        <v>2.8643944263458252</v>
+        <v>2.8635056018829346</v>
       </c>
     </row>
     <row r="296">
@@ -4264,13 +4264,13 @@
         <v>3.0398852825164795</v>
       </c>
       <c r="C296" s="2">
-        <v>2.9912536144256592</v>
+        <v>2.9921894073486328</v>
       </c>
       <c r="D296" s="2">
         <v>2.9405057430267334</v>
       </c>
       <c r="E296" s="2">
-        <v>2.8411915302276611</v>
+        <v>2.840569019317627</v>
       </c>
     </row>
     <row r="297">
@@ -4281,13 +4281,13 @@
         <v>2.6337132453918457</v>
       </c>
       <c r="C297" s="2">
-        <v>2.6312503814697266</v>
+        <v>2.6318187713623047</v>
       </c>
       <c r="D297" s="2">
         <v>2.9440460205078125</v>
       </c>
       <c r="E297" s="2">
-        <v>2.8435108661651611</v>
+        <v>2.8430271148681641</v>
       </c>
     </row>
     <row r="298">
@@ -4298,13 +4298,13 @@
         <v>3.0322039127349854</v>
       </c>
       <c r="C298" s="2">
-        <v>2.8781044483184815</v>
+        <v>2.8799684047698975</v>
       </c>
       <c r="D298" s="2">
         <v>2.888934850692749</v>
       </c>
       <c r="E298" s="2">
-        <v>2.7933738231658936</v>
+        <v>2.7932038307189942</v>
       </c>
     </row>
     <row r="299">
@@ -4315,13 +4315,13 @@
         <v>3.0040779113769531</v>
       </c>
       <c r="C299" s="2">
-        <v>2.9263012409210205</v>
+        <v>2.9223079681396484</v>
       </c>
       <c r="D299" s="2">
         <v>2.9606404304504395</v>
       </c>
       <c r="E299" s="2">
-        <v>2.8882107734680176</v>
+        <v>2.8879380226135254</v>
       </c>
     </row>
     <row r="300">
@@ -4332,13 +4332,13 @@
         <v>2.8879055976867676</v>
       </c>
       <c r="C300" s="2">
-        <v>2.5973384380340576</v>
+        <v>2.5993201732635498</v>
       </c>
       <c r="D300" s="2">
         <v>2.9479122161865234</v>
       </c>
       <c r="E300" s="2">
-        <v>2.8978271484375</v>
+        <v>2.8975329399108887</v>
       </c>
     </row>
     <row r="301">
@@ -4349,13 +4349,13 @@
         <v>3.2406888008117676</v>
       </c>
       <c r="C301" s="2">
-        <v>3.1808938980102539</v>
+        <v>3.1817185878753662</v>
       </c>
       <c r="D301" s="2">
         <v>3.0099730491638184</v>
       </c>
       <c r="E301" s="2">
-        <v>2.9314558506011963</v>
+        <v>2.9308302402496338</v>
       </c>
     </row>
     <row r="302">
@@ -4366,13 +4366,13 @@
         <v>2.7478563785552979</v>
       </c>
       <c r="C302" s="2">
-        <v>2.6673812866210938</v>
+        <v>2.6692218780517578</v>
       </c>
       <c r="D302" s="2">
         <v>3.0016026496887207</v>
       </c>
       <c r="E302" s="2">
-        <v>2.9192090034484863</v>
+        <v>2.9184811115264893</v>
       </c>
     </row>
     <row r="303">
@@ -4383,13 +4383,13 @@
         <v>3.1795029640197754</v>
       </c>
       <c r="C303" s="2">
-        <v>3.3249645233154297</v>
+        <v>3.3210122585296631</v>
       </c>
       <c r="D303" s="2">
         <v>2.9876425266265869</v>
       </c>
       <c r="E303" s="2">
-        <v>2.9244334697723389</v>
+        <v>2.9232876300811768</v>
       </c>
     </row>
     <row r="304">
@@ -4400,13 +4400,13 @@
         <v>2.7653753757476807</v>
       </c>
       <c r="C304" s="2">
-        <v>2.8829565048217773</v>
+        <v>2.880239725112915</v>
       </c>
       <c r="D304" s="2">
         <v>2.9952743053436279</v>
       </c>
       <c r="E304" s="2">
-        <v>2.927262544631958</v>
+        <v>2.9264097213745117</v>
       </c>
     </row>
     <row r="305">
@@ -4417,13 +4417,13 @@
         <v>3.5984334945678711</v>
       </c>
       <c r="C305" s="2">
-        <v>3.2939116954803467</v>
+        <v>3.2918651103973389</v>
       </c>
       <c r="D305" s="2">
         <v>3.0517692565917969</v>
       </c>
       <c r="E305" s="2">
-        <v>3.0117590427398682</v>
+        <v>3.0104830265045166</v>
       </c>
     </row>
     <row r="306">
@@ -4434,13 +4434,13 @@
         <v>2.5583784580230713</v>
       </c>
       <c r="C306" s="2">
-        <v>2.5210292339324951</v>
+        <v>2.520676851272583</v>
       </c>
       <c r="D306" s="2">
         <v>3.0155408382415771</v>
       </c>
       <c r="E306" s="2">
-        <v>2.9809727668762207</v>
+        <v>2.9795572757720947</v>
       </c>
     </row>
     <row r="307">
@@ -4451,13 +4451,13 @@
         <v>2.9065632820129395</v>
       </c>
       <c r="C307" s="2">
-        <v>2.9251248836517334</v>
+        <v>2.9232261180877686</v>
       </c>
       <c r="D307" s="2">
         <v>3.0446062088012695</v>
       </c>
       <c r="E307" s="2">
-        <v>3.0218007564544678</v>
+        <v>3.0198361873626709</v>
       </c>
     </row>
     <row r="308">
@@ -4468,13 +4468,13 @@
         <v>3.0727653503417969</v>
       </c>
       <c r="C308" s="2">
-        <v>2.9517624378204346</v>
+        <v>2.9504072666168213</v>
       </c>
       <c r="D308" s="2">
         <v>2.9843366146087647</v>
       </c>
       <c r="E308" s="2">
-        <v>2.9437658786773682</v>
+        <v>2.94185471534729</v>
       </c>
     </row>
     <row r="309">
@@ -4485,13 +4485,13 @@
         <v>3.396359920501709</v>
       </c>
       <c r="C309" s="2">
-        <v>3.3578073978424072</v>
+        <v>3.3559792041778565</v>
       </c>
       <c r="D309" s="2">
         <v>2.9754116535186768</v>
       </c>
       <c r="E309" s="2">
-        <v>2.9140243530273438</v>
+        <v>2.9122416973114014</v>
       </c>
     </row>
     <row r="310">
@@ -4502,13 +4502,13 @@
         <v>2.9146325588226318</v>
       </c>
       <c r="C310" s="2">
-        <v>2.9038176536560059</v>
+        <v>2.9033880233764648</v>
       </c>
       <c r="D310" s="2">
         <v>2.8857958316802979</v>
       </c>
       <c r="E310" s="2">
-        <v>2.8639676570892334</v>
+        <v>2.8621656894683838</v>
       </c>
     </row>
     <row r="311">
@@ -4519,13 +4519,13 @@
         <v>3.009443998336792</v>
       </c>
       <c r="C311" s="2">
-        <v>3.0348331928253174</v>
+        <v>3.0317304134368896</v>
       </c>
       <c r="D311" s="2">
         <v>2.9076120853424072</v>
       </c>
       <c r="E311" s="2">
-        <v>2.8875489234924316</v>
+        <v>2.8853685855865479</v>
       </c>
     </row>
     <row r="312">
@@ -4536,13 +4536,13 @@
         <v>2.6370763778686524</v>
       </c>
       <c r="C312" s="2">
-        <v>2.6226508617401123</v>
+        <v>2.6191794872283936</v>
       </c>
       <c r="D312" s="2">
         <v>2.9007503986358643</v>
       </c>
       <c r="E312" s="2">
-        <v>2.8896136283874512</v>
+        <v>2.8875360488891602</v>
       </c>
     </row>
     <row r="313">
@@ -4553,13 +4553,13 @@
         <v>2.6850523948669434</v>
       </c>
       <c r="C313" s="2">
-        <v>2.6152820587158203</v>
+        <v>2.613722562789917</v>
       </c>
       <c r="D313" s="2">
         <v>2.8695483207702637</v>
       </c>
       <c r="E313" s="2">
-        <v>2.8804845809936524</v>
+        <v>2.8782529830932617</v>
       </c>
     </row>
     <row r="314">
@@ -4570,13 +4570,13 @@
         <v>2.7918891906738281</v>
       </c>
       <c r="C314" s="2">
-        <v>2.8434021472930908</v>
+        <v>2.8411803245544434</v>
       </c>
       <c r="D314" s="2">
         <v>2.8094995021820068</v>
       </c>
       <c r="E314" s="2">
-        <v>2.8231468200683594</v>
+        <v>2.8210763931274414</v>
       </c>
     </row>
     <row r="315">
@@ -4587,13 +4587,13 @@
         <v>2.7547266483306885</v>
       </c>
       <c r="C315" s="2">
-        <v>2.7332589626312256</v>
+        <v>2.7295048236846924</v>
       </c>
       <c r="D315" s="2">
         <v>2.7660925388336182</v>
       </c>
       <c r="E315" s="2">
-        <v>2.7715530395507813</v>
+        <v>2.7693610191345215</v>
       </c>
     </row>
     <row r="316">
@@ -4604,13 +4604,13 @@
         <v>2.8448073863983154</v>
       </c>
       <c r="C316" s="2">
-        <v>2.9437077045440674</v>
+        <v>2.9427323341369629</v>
       </c>
       <c r="D316" s="2">
         <v>2.7220799922943115</v>
       </c>
       <c r="E316" s="2">
-        <v>2.7232093811035156</v>
+        <v>2.7211349010467529</v>
       </c>
     </row>
     <row r="317">
@@ -4621,13 +4621,13 @@
         <v>2.7919459342956543</v>
       </c>
       <c r="C317" s="2">
-        <v>2.8696019649505615</v>
+        <v>2.8668594360351563</v>
       </c>
       <c r="D317" s="2">
         <v>2.8139922618865967</v>
       </c>
       <c r="E317" s="2">
-        <v>2.8158943653106689</v>
+        <v>2.8143091201782227</v>
       </c>
     </row>
     <row r="318">
@@ -4638,13 +4638,13 @@
         <v>2.855921745300293</v>
       </c>
       <c r="C318" s="2">
-        <v>2.8417661190032959</v>
+        <v>2.8413898944854736</v>
       </c>
       <c r="D318" s="2">
         <v>2.8755722045898438</v>
       </c>
       <c r="E318" s="2">
-        <v>2.8885016441345215</v>
+        <v>2.8872010707855225</v>
       </c>
     </row>
     <row r="319">
@@ -4655,13 +4655,13 @@
         <v>2.5239691734313965</v>
       </c>
       <c r="C319" s="2">
-        <v>2.4394745826721191</v>
+        <v>2.4379508495330811</v>
       </c>
       <c r="D319" s="2">
         <v>2.8728706836700439</v>
       </c>
       <c r="E319" s="2">
-        <v>2.8753597736358643</v>
+        <v>2.8739080429077149</v>
       </c>
     </row>
     <row r="320">
@@ -4672,13 +4672,13 @@
         <v>2.6133308410644531</v>
       </c>
       <c r="C320" s="2">
-        <v>2.5997395515441895</v>
+        <v>2.5976934432983398</v>
       </c>
       <c r="D320" s="2">
         <v>2.8676979541778564</v>
       </c>
       <c r="E320" s="2">
-        <v>2.8801584243774414</v>
+        <v>2.8788917064666748</v>
       </c>
     </row>
     <row r="321">
@@ -4689,13 +4689,13 @@
         <v>3.4642865657806396</v>
       </c>
       <c r="C321" s="2">
-        <v>3.4568164348602295</v>
+        <v>3.4577474594116211</v>
       </c>
       <c r="D321" s="2">
         <v>2.8698451519012451</v>
       </c>
       <c r="E321" s="2">
-        <v>2.8457291126251221</v>
+        <v>2.8442285060882568</v>
       </c>
     </row>
     <row r="322">
@@ -4706,13 +4706,13 @@
         <v>3.2392730712890625</v>
       </c>
       <c r="C322" s="2">
-        <v>3.2687478065490723</v>
+        <v>3.2697520256042481</v>
       </c>
       <c r="D322" s="2">
         <v>2.8810973167419434</v>
       </c>
       <c r="E322" s="2">
-        <v>2.8539941310882568</v>
+        <v>2.8526573181152344</v>
       </c>
     </row>
     <row r="323">
@@ -4723,13 +4723,13 @@
         <v>2.7675745487213135</v>
       </c>
       <c r="C323" s="2">
-        <v>2.7251241207122803</v>
+        <v>2.7215421199798584</v>
       </c>
       <c r="D323" s="2">
         <v>2.8653018474578858</v>
       </c>
       <c r="E323" s="2">
-        <v>2.845181941986084</v>
+        <v>2.8435640335083008</v>
       </c>
     </row>
     <row r="324">
@@ -4740,13 +4740,13 @@
         <v>2.708172082901001</v>
       </c>
       <c r="C324" s="2">
-        <v>2.7764472961425781</v>
+        <v>2.7743575572967529</v>
       </c>
       <c r="D324" s="2">
         <v>2.9021182060241699</v>
       </c>
       <c r="E324" s="2">
-        <v>2.8906927108764648</v>
+        <v>2.8890838623046875</v>
       </c>
     </row>
     <row r="325">
@@ -4757,13 +4757,13 @@
         <v>2.8641316890716553</v>
       </c>
       <c r="C325" s="2">
-        <v>2.6338434219360352</v>
+        <v>2.6307637691497803</v>
       </c>
       <c r="D325" s="2">
         <v>2.9019820690155029</v>
       </c>
       <c r="E325" s="2">
-        <v>2.8958847522735596</v>
+        <v>2.8941953182220459</v>
       </c>
     </row>
     <row r="326">
@@ -4774,13 +4774,13 @@
         <v>2.8932168483734131</v>
       </c>
       <c r="C326" s="2">
-        <v>2.9439873695373535</v>
+        <v>2.9427192211151123</v>
       </c>
       <c r="D326" s="2">
         <v>2.8163001537322998</v>
       </c>
       <c r="E326" s="2">
-        <v>2.8076872825622559</v>
+        <v>2.8056879043579102</v>
       </c>
     </row>
     <row r="327">
@@ -4791,13 +4791,13 @@
         <v>2.7137627601623535</v>
       </c>
       <c r="C327" s="2">
-        <v>2.7624566555023193</v>
+        <v>2.759549617767334</v>
       </c>
       <c r="D327" s="2">
         <v>2.7646729946136475</v>
       </c>
       <c r="E327" s="2">
-        <v>2.7546067237854004</v>
+        <v>2.7522797584533692</v>
       </c>
     </row>
     <row r="328">
@@ -4808,13 +4808,13 @@
         <v>2.8553144931793213</v>
       </c>
       <c r="C328" s="2">
-        <v>2.8490710258483887</v>
+        <v>2.847630500793457</v>
       </c>
       <c r="D328" s="2">
         <v>2.7419497966766358</v>
       </c>
       <c r="E328" s="2">
-        <v>2.7319328784942627</v>
+        <v>2.7300167083740234</v>
       </c>
     </row>
     <row r="329">
@@ -4825,13 +4825,13 @@
         <v>2.6121056079864502</v>
       </c>
       <c r="C329" s="2">
-        <v>2.6464676856994629</v>
+        <v>2.6436948776245117</v>
       </c>
       <c r="D329" s="2">
         <v>2.8135664463043213</v>
       </c>
       <c r="E329" s="2">
-        <v>2.7926065921783447</v>
+        <v>2.7905824184417725</v>
       </c>
     </row>
     <row r="330">
@@ -4842,13 +4842,13 @@
         <v>2.6931507587432861</v>
       </c>
       <c r="C330" s="2">
-        <v>2.6630399227142334</v>
+        <v>2.6611824035644531</v>
       </c>
       <c r="D330" s="2">
         <v>2.8811171054840088</v>
       </c>
       <c r="E330" s="2">
-        <v>2.8712787628173828</v>
+        <v>2.8695926666259766</v>
       </c>
     </row>
     <row r="331">
@@ -4859,13 +4859,13 @@
         <v>2.7746286392211914</v>
       </c>
       <c r="C331" s="2">
-        <v>2.7910223007202148</v>
+        <v>2.7890779972076416</v>
       </c>
       <c r="D331" s="2">
         <v>2.9362571239471436</v>
       </c>
       <c r="E331" s="2">
-        <v>2.9017922878265381</v>
+        <v>2.9003670215606689</v>
       </c>
     </row>
     <row r="332">
@@ -4876,13 +4876,13 @@
         <v>2.5630660057067871</v>
       </c>
       <c r="C332" s="2">
-        <v>2.5210611820220947</v>
+        <v>2.5211749076843262</v>
       </c>
       <c r="D332" s="2">
         <v>2.9898898601531982</v>
       </c>
       <c r="E332" s="2">
-        <v>2.9423768520355225</v>
+        <v>2.9410738945007324</v>
       </c>
     </row>
     <row r="333">
@@ -4893,13 +4893,13 @@
         <v>3.3527207374572754</v>
       </c>
       <c r="C333" s="2">
-        <v>3.3225090503692627</v>
+        <v>3.3194475173950195</v>
       </c>
       <c r="D333" s="2">
         <v>3.0033667087554932</v>
       </c>
       <c r="E333" s="2">
-        <v>2.9435276985168457</v>
+        <v>2.9423837661743164</v>
       </c>
     </row>
     <row r="334">
@@ -4910,13 +4910,13 @@
         <v>3.4720878601074219</v>
       </c>
       <c r="C334" s="2">
-        <v>3.3418939113616943</v>
+        <v>3.3418571949005127</v>
       </c>
       <c r="D334" s="2">
         <v>3.0960991382598877</v>
       </c>
       <c r="E334" s="2">
-        <v>3.046736478805542</v>
+        <v>3.0459635257720947</v>
       </c>
     </row>
     <row r="335">
@@ -4927,13 +4927,13 @@
         <v>3.3894779682159424</v>
       </c>
       <c r="C335" s="2">
-        <v>3.2186081409454346</v>
+        <v>3.2196879386901856</v>
       </c>
       <c r="D335" s="2">
         <v>3.0677731037139893</v>
       </c>
       <c r="E335" s="2">
-        <v>3.0167334079742432</v>
+        <v>3.0160846710205078</v>
       </c>
     </row>
     <row r="336">
@@ -4944,13 +4944,13 @@
         <v>3.1964564323425293</v>
       </c>
       <c r="C336" s="2">
-        <v>3.1277186870574951</v>
+        <v>3.125910758972168</v>
       </c>
       <c r="D336" s="2">
         <v>3.1209614276885986</v>
       </c>
       <c r="E336" s="2">
-        <v>3.0738286972045899</v>
+        <v>3.0731010437011719</v>
       </c>
     </row>
     <row r="337">
@@ -4961,13 +4961,13 @@
         <v>2.9766063690185547</v>
       </c>
       <c r="C337" s="2">
-        <v>2.8594281673431396</v>
+        <v>2.859419584274292</v>
       </c>
       <c r="D337" s="2">
         <v>3.221625566482544</v>
       </c>
       <c r="E337" s="2">
-        <v>3.1753859519958496</v>
+        <v>3.1748080253601074</v>
       </c>
     </row>
     <row r="338">
@@ -4978,13 +4978,13 @@
         <v>3.4466981887817383</v>
       </c>
       <c r="C338" s="2">
-        <v>3.5753471851348877</v>
+        <v>3.5759139060974121</v>
       </c>
       <c r="D338" s="2">
         <v>3.2171969413757324</v>
       </c>
       <c r="E338" s="2">
-        <v>3.1845567226409912</v>
+        <v>3.1842420101165772</v>
       </c>
     </row>
     <row r="339">
@@ -4995,13 +4995,13 @@
         <v>2.4382150173187256</v>
       </c>
       <c r="C339" s="2">
-        <v>2.3930130004882813</v>
+        <v>2.3922719955444336</v>
       </c>
       <c r="D339" s="2">
         <v>3.1648685932159424</v>
       </c>
       <c r="E339" s="2">
-        <v>3.1437258720397949</v>
+        <v>3.143399715423584</v>
       </c>
     </row>
     <row r="340">
@@ -5012,13 +5012,13 @@
         <v>3.2533247470855713</v>
       </c>
       <c r="C340" s="2">
-        <v>3.3048779964447021</v>
+        <v>3.3022251129150391</v>
       </c>
       <c r="D340" s="2">
         <v>3.0457100868225098</v>
       </c>
       <c r="E340" s="2">
-        <v>3.0302989482879639</v>
+        <v>3.0298585891723633</v>
       </c>
     </row>
     <row r="341">
@@ -5029,13 +5029,13 @@
         <v>3.4690430164337158</v>
       </c>
       <c r="C341" s="2">
-        <v>3.4350781440734863</v>
+        <v>3.4365377426147461</v>
       </c>
       <c r="D341" s="2">
         <v>3.0564477443695068</v>
       </c>
       <c r="E341" s="2">
-        <v>3.0390424728393555</v>
+        <v>3.03865647315979</v>
       </c>
     </row>
     <row r="342">
@@ -5046,13 +5046,13 @@
         <v>3.3128621578216553</v>
       </c>
       <c r="C342" s="2">
-        <v>3.4050450325012207</v>
+        <v>3.4043540954589844</v>
       </c>
       <c r="D342" s="2">
         <v>3.0107812881469727</v>
       </c>
       <c r="E342" s="2">
-        <v>3.0066018104553223</v>
+        <v>3.0057516098022461</v>
       </c>
     </row>
     <row r="343">
@@ -5063,13 +5063,13 @@
         <v>3.0011341571807861</v>
       </c>
       <c r="C343" s="2">
-        <v>2.9744160175323486</v>
+        <v>2.9742772579193115</v>
       </c>
       <c r="D343" s="2">
         <v>2.9489359855651855</v>
       </c>
       <c r="E343" s="2">
-        <v>2.9353880882263184</v>
+        <v>2.9344515800476074</v>
       </c>
     </row>
     <row r="344">
@@ -5080,13 +5080,13 @@
         <v>2.3170506954193115</v>
       </c>
       <c r="C344" s="2">
-        <v>2.1977665424346924</v>
+        <v>2.1978166103363037</v>
       </c>
       <c r="D344" s="2">
         <v>2.9932661056518555</v>
       </c>
       <c r="E344" s="2">
-        <v>2.9798159599304199</v>
+        <v>2.9791121482849121</v>
       </c>
     </row>
     <row r="345">
@@ -5097,13 +5097,13 @@
         <v>3.2930951118469238</v>
       </c>
       <c r="C345" s="2">
-        <v>3.2064096927642822</v>
+        <v>3.2050929069519043</v>
       </c>
       <c r="D345" s="2">
         <v>2.9684574604034424</v>
       </c>
       <c r="E345" s="2">
-        <v>2.9528629779815674</v>
+        <v>2.9524791240692139</v>
       </c>
     </row>
     <row r="346">
@@ -5114,13 +5114,13 @@
         <v>2.5656082630157471</v>
       </c>
       <c r="C346" s="2">
-        <v>2.5674622058868408</v>
+        <v>2.5632741451263428</v>
       </c>
       <c r="D346" s="2">
         <v>2.9091699123382568</v>
       </c>
       <c r="E346" s="2">
-        <v>2.8933522701263428</v>
+        <v>2.8926002979278565</v>
       </c>
     </row>
     <row r="347">
@@ -5131,13 +5131,13 @@
         <v>2.8900904655456543</v>
       </c>
       <c r="C347" s="2">
-        <v>2.9344241619110107</v>
+        <v>2.9342141151428223</v>
       </c>
       <c r="D347" s="2">
         <v>2.7975034713745117</v>
       </c>
       <c r="E347" s="2">
-        <v>2.7668366432189942</v>
+        <v>2.7658653259277344</v>
       </c>
     </row>
     <row r="348">
@@ -5148,13 +5148,13 @@
         <v>2.8371856212615967</v>
       </c>
       <c r="C348" s="2">
-        <v>2.7928628921508789</v>
+        <v>2.7942166328430176</v>
       </c>
       <c r="D348" s="2">
         <v>2.7610433101654053</v>
       </c>
       <c r="E348" s="2">
-        <v>2.7252407073974609</v>
+        <v>2.7243847846984863</v>
       </c>
     </row>
     <row r="349">
@@ -5165,13 +5165,13 @@
         <v>3.0300476551055908</v>
       </c>
       <c r="C349" s="2">
-        <v>3.062302827835083</v>
+        <v>3.0625276565551758</v>
       </c>
       <c r="D349" s="2">
         <v>2.8130855560302734</v>
       </c>
       <c r="E349" s="2">
-        <v>2.7682232856750488</v>
+        <v>2.7671873569488525</v>
       </c>
     </row>
     <row r="350">
@@ -5182,13 +5182,13 @@
         <v>2.9354543685913086</v>
       </c>
       <c r="C350" s="2">
-        <v>2.8994815349578857</v>
+        <v>2.897629976272583</v>
       </c>
       <c r="D350" s="2">
         <v>2.7753708362579346</v>
       </c>
       <c r="E350" s="2">
-        <v>2.7323160171508789</v>
+        <v>2.7316975593566895</v>
       </c>
     </row>
     <row r="351">
@@ -5199,13 +5199,13 @@
         <v>2.3078649044036865</v>
       </c>
       <c r="C351" s="2">
-        <v>2.2664029598236084</v>
+        <v>2.2637395858764649</v>
       </c>
       <c r="D351" s="2">
         <v>2.7796561717987061</v>
       </c>
       <c r="E351" s="2">
-        <v>2.733630895614624</v>
+        <v>2.7334063053131104</v>
       </c>
     </row>
     <row r="352">
@@ -5216,13 +5216,13 @@
         <v>2.6729929447174072</v>
       </c>
       <c r="C352" s="2">
-        <v>2.6000528335571289</v>
+        <v>2.6009523868560791</v>
       </c>
       <c r="D352" s="2">
         <v>2.7898030281066895</v>
       </c>
       <c r="E352" s="2">
-        <v>2.7430520057678223</v>
+        <v>2.7426779270172119</v>
       </c>
     </row>
     <row r="353">
@@ -5233,13 +5233,13 @@
         <v>2.7854316234588623</v>
       </c>
       <c r="C353" s="2">
-        <v>2.5846114158630371</v>
+        <v>2.5830392837524414</v>
       </c>
       <c r="D353" s="2">
         <v>2.8075573444366455</v>
       </c>
       <c r="E353" s="2">
-        <v>2.756342887878418</v>
+        <v>2.7559108734130859</v>
       </c>
     </row>
     <row r="354">
@@ -5250,13 +5250,13 @@
         <v>2.9536609649658203</v>
       </c>
       <c r="C354" s="2">
-        <v>2.8832435607910156</v>
+        <v>2.8856847286224365</v>
       </c>
       <c r="D354" s="2">
         <v>2.7602970600128174</v>
       </c>
       <c r="E354" s="2">
-        <v>2.7054495811462402</v>
+        <v>2.704897403717041</v>
       </c>
     </row>
     <row r="355">
@@ -5267,13 +5267,13 @@
         <v>2.6041765213012695</v>
       </c>
       <c r="C355" s="2">
-        <v>2.5792958736419678</v>
+        <v>2.5786514282226563</v>
       </c>
       <c r="D355" s="2">
         <v>2.7145042419433594</v>
       </c>
       <c r="E355" s="2">
-        <v>2.662346363067627</v>
+        <v>2.6620702743530273</v>
       </c>
     </row>
     <row r="356">
@@ -5284,13 +5284,13 @@
         <v>2.9814133644104004</v>
       </c>
       <c r="C356" s="2">
-        <v>3.0192134380340576</v>
+        <v>3.0176594257354736</v>
       </c>
       <c r="D356" s="2">
         <v>2.8583881855010986</v>
       </c>
       <c r="E356" s="2">
-        <v>2.8158516883850098</v>
+        <v>2.8157987594604492</v>
       </c>
     </row>
     <row r="357">
@@ -5301,13 +5301,13 @@
         <v>2.996973991394043</v>
       </c>
       <c r="C357" s="2">
-        <v>2.9124808311462402</v>
+        <v>2.9133129119873047</v>
       </c>
       <c r="D357" s="2">
         <v>2.8879735469818115</v>
       </c>
       <c r="E357" s="2">
-        <v>2.854248046875</v>
+        <v>2.8540244102478027</v>
       </c>
     </row>
     <row r="358">
@@ -5318,13 +5318,13 @@
         <v>2.6047053337097168</v>
       </c>
       <c r="C358" s="2">
-        <v>2.6042647361755371</v>
+        <v>2.6034069061279297</v>
       </c>
       <c r="D358" s="2">
         <v>2.8947820663452148</v>
       </c>
       <c r="E358" s="2">
-        <v>2.8948221206665039</v>
+        <v>2.8945879936218262</v>
       </c>
     </row>
     <row r="359">
@@ -5335,13 +5335,13 @@
         <v>2.5233175754547119</v>
       </c>
       <c r="C359" s="2">
-        <v>2.5115516185760498</v>
+        <v>2.5121853351593018</v>
       </c>
       <c r="D359" s="2">
         <v>2.8767657279968262</v>
       </c>
       <c r="E359" s="2">
-        <v>2.8903512954711914</v>
+        <v>2.8895878791809082</v>
       </c>
     </row>
     <row r="360">
@@ -5352,13 +5352,13 @@
         <v>3.6028206348419189</v>
       </c>
       <c r="C360" s="2">
-        <v>3.6479501724243164</v>
+        <v>3.6472961902618408</v>
       </c>
       <c r="D360" s="2">
         <v>2.9705870151519775</v>
       </c>
       <c r="E360" s="2">
-        <v>2.9765844345092774</v>
+        <v>2.9757330417633057</v>
       </c>
     </row>
     <row r="361">
@@ -5369,13 +5369,13 @@
         <v>2.9392609596252442</v>
       </c>
       <c r="C361" s="2">
-        <v>2.9456217288970947</v>
+        <v>2.9449825286865234</v>
       </c>
       <c r="D361" s="2">
         <v>3.0329892635345459</v>
       </c>
       <c r="E361" s="2">
-        <v>3.0120799541473389</v>
+        <v>3.0110442638397217</v>
       </c>
     </row>
     <row r="362">
@@ -5386,13 +5386,13 @@
         <v>2.8467082977294922</v>
       </c>
       <c r="C362" s="2">
-        <v>2.949777364730835</v>
+        <v>2.948112964630127</v>
       </c>
       <c r="D362" s="2">
         <v>3.1134994029998779</v>
       </c>
       <c r="E362" s="2">
-        <v>3.1055309772491455</v>
+        <v>3.1042077541351318</v>
       </c>
     </row>
     <row r="363">
@@ -5403,13 +5403,13 @@
         <v>2.7915153503417969</v>
       </c>
       <c r="C363" s="2">
-        <v>2.843005895614624</v>
+        <v>2.8406825065612793</v>
       </c>
       <c r="D363" s="2">
         <v>3.2506794929504395</v>
       </c>
       <c r="E363" s="2">
-        <v>3.2329370975494385</v>
+        <v>3.2316100597381592</v>
       </c>
     </row>
     <row r="364">
@@ -5420,13 +5420,13 @@
         <v>3.4485676288604736</v>
       </c>
       <c r="C364" s="2">
-        <v>3.3553941249847412</v>
+        <v>3.3539581298828125</v>
       </c>
       <c r="D364" s="2">
         <v>3.3929991722106934</v>
       </c>
       <c r="E364" s="2">
-        <v>3.3816177845001221</v>
+        <v>3.3803176879882813</v>
       </c>
     </row>
     <row r="365">
@@ -5437,13 +5437,13 @@
         <v>3.5430328845977783</v>
       </c>
       <c r="C365" s="2">
-        <v>3.3386731147766113</v>
+        <v>3.335460901260376</v>
       </c>
       <c r="D365" s="2">
         <v>3.3593947887420654</v>
       </c>
       <c r="E365" s="2">
-        <v>3.3417327404022217</v>
+        <v>3.340709924697876</v>
       </c>
     </row>
     <row r="366">
@@ -5454,13 +5454,13 @@
         <v>3.7215662002563477</v>
       </c>
       <c r="C366" s="2">
-        <v>3.7535395622253418</v>
+        <v>3.7517843246459961</v>
       </c>
       <c r="D366" s="2">
         <v>3.4102058410644531</v>
       </c>
       <c r="E366" s="2">
-        <v>3.3912935256958008</v>
+        <v>3.3903121948242188</v>
       </c>
     </row>
     <row r="367">
@@ -5471,13 +5471,13 @@
         <v>3.8393266201019287</v>
       </c>
       <c r="C367" s="2">
-        <v>3.7509207725524902</v>
+        <v>3.7500269412994385</v>
       </c>
       <c r="D367" s="2">
         <v>3.4632799625396729</v>
       </c>
       <c r="E367" s="2">
-        <v>3.4438636302947998</v>
+        <v>3.442490816116333</v>
       </c>
     </row>
     <row r="368">
@@ -5488,13 +5488,13 @@
         <v>3.8041937351226807</v>
       </c>
       <c r="C368" s="2">
-        <v>3.8496770858764648</v>
+        <v>3.8505556583404541</v>
       </c>
       <c r="D368" s="2">
         <v>3.5386779308319092</v>
       </c>
       <c r="E368" s="2">
-        <v>3.5134732723236084</v>
+        <v>3.5122087001800537</v>
       </c>
     </row>
     <row r="369">
@@ -5505,13 +5505,13 @@
         <v>3.3003807067871094</v>
       </c>
       <c r="C369" s="2">
-        <v>3.2889847755432129</v>
+        <v>3.2908248901367188</v>
       </c>
       <c r="D369" s="2">
         <v>3.5326230525970459</v>
       </c>
       <c r="E369" s="2">
-        <v>3.5225005149841309</v>
+        <v>3.5208239555358887</v>
       </c>
     </row>
     <row r="370">
@@ -5522,13 +5522,13 @@
         <v>3.396561861038208</v>
       </c>
       <c r="C370" s="2">
-        <v>3.3916690349578857</v>
+        <v>3.391404390335083</v>
       </c>
       <c r="D370" s="2">
         <v>3.5288946628570557</v>
       </c>
       <c r="E370" s="2">
-        <v>3.5335559844970703</v>
+        <v>3.5322363376617432</v>
       </c>
     </row>
     <row r="371">
@@ -5539,13 +5539,13 @@
         <v>3.3243756294250488</v>
       </c>
       <c r="C371" s="2">
-        <v>3.4229087829589844</v>
+        <v>3.4177188873291016</v>
       </c>
       <c r="D371" s="2">
         <v>3.5113959312438965</v>
       </c>
       <c r="E371" s="2">
-        <v>3.5082218647003174</v>
+        <v>3.5068202018737793</v>
       </c>
     </row>
     <row r="372">
@@ -5556,13 +5556,13 @@
         <v>3.4700953960418701</v>
       </c>
       <c r="C372" s="2">
-        <v>3.4694914817810059</v>
+        <v>3.4681437015533447</v>
       </c>
       <c r="D372" s="2">
         <v>3.473313570022583</v>
       </c>
       <c r="E372" s="2">
-        <v>3.4909572601318359</v>
+        <v>3.4890635013580322</v>
       </c>
     </row>
     <row r="373">
@@ -5573,13 +5573,13 @@
         <v>3.3940751552581787</v>
       </c>
       <c r="C373" s="2">
-        <v>3.4366395473480225</v>
+        <v>3.4314968585968018</v>
       </c>
       <c r="D373" s="2">
         <v>3.4050359725952148</v>
       </c>
       <c r="E373" s="2">
-        <v>3.4252638816833496</v>
+        <v>3.423032283782959</v>
       </c>
     </row>
     <row r="374">
@@ -5590,13 +5590,13 @@
         <v>3.5094757080078125</v>
       </c>
       <c r="C374" s="2">
-        <v>3.4381725788116455</v>
+        <v>3.4381709098815918</v>
       </c>
       <c r="D374" s="2">
         <v>3.419992208480835</v>
       </c>
       <c r="E374" s="2">
-        <v>3.4464726448059082</v>
+        <v>3.4436793327331543</v>
       </c>
     </row>
     <row r="375">
@@ -5607,13 +5607,13 @@
         <v>3.564077615737915</v>
       </c>
       <c r="C375" s="2">
-        <v>3.5255317687988281</v>
+        <v>3.5230393409729004</v>
       </c>
       <c r="D375" s="2">
         <v>3.4214012622833252</v>
       </c>
       <c r="E375" s="2">
-        <v>3.460108757019043</v>
+        <v>3.457158088684082</v>
       </c>
     </row>
     <row r="376">
@@ -5624,13 +5624,13 @@
         <v>3.4965860843658447</v>
       </c>
       <c r="C376" s="2">
-        <v>3.59554123878479</v>
+        <v>3.5902173519134522</v>
       </c>
       <c r="D376" s="2">
         <v>3.5204756259918213</v>
       </c>
       <c r="E376" s="2">
-        <v>3.5601806640625</v>
+        <v>3.5575757026672363</v>
       </c>
     </row>
     <row r="377">
@@ -5641,13 +5641,13 @@
         <v>3.189694881439209</v>
       </c>
       <c r="C377" s="2">
-        <v>3.2584366798400879</v>
+        <v>3.2562742233276367</v>
       </c>
       <c r="D377" s="2">
         <v>3.4483969211578369</v>
       </c>
       <c r="E377" s="2">
-        <v>3.5027768611907959</v>
+        <v>3.4998259544372559</v>
       </c>
     </row>
     <row r="378">
@@ -5658,13 +5658,13 @@
         <v>3.4349884986877441</v>
       </c>
       <c r="C378" s="2">
-        <v>3.4798626899719238</v>
+        <v>3.4766490459442139</v>
       </c>
       <c r="D378" s="2">
         <v>3.4510953426361084</v>
       </c>
       <c r="E378" s="2">
-        <v>3.4946689605712891</v>
+        <v>3.4918732643127442</v>
       </c>
     </row>
     <row r="379">
@@ -5675,13 +5675,13 @@
         <v>3.4092419147491455</v>
       </c>
       <c r="C379" s="2">
-        <v>3.5143945217132568</v>
+        <v>3.5127124786376953</v>
       </c>
       <c r="D379" s="2">
         <v>3.4201765060424805</v>
       </c>
       <c r="E379" s="2">
-        <v>3.472278356552124</v>
+        <v>3.4693155288696289</v>
       </c>
     </row>
     <row r="380">
@@ -5692,13 +5692,13 @@
         <v>4.2160458564758301</v>
       </c>
       <c r="C380" s="2">
-        <v>4.3235554695129395</v>
+        <v>4.3214778900146484</v>
       </c>
       <c r="D380" s="2">
         <v>3.3299660682678223</v>
       </c>
       <c r="E380" s="2">
-        <v>3.3858029842376709</v>
+        <v>3.3829164505004883</v>
       </c>
     </row>
     <row r="381">
@@ -5709,13 +5709,13 @@
         <v>2.8213868141174317</v>
       </c>
       <c r="C381" s="2">
-        <v>2.9528570175170899</v>
+        <v>2.9483959674835205</v>
       </c>
       <c r="D381" s="2">
         <v>3.3169794082641602</v>
       </c>
       <c r="E381" s="2">
-        <v>3.3752391338348389</v>
+        <v>3.3725519180297852</v>
       </c>
     </row>
     <row r="382">
@@ -5726,13 +5726,13 @@
         <v>3.4183616638183594</v>
       </c>
       <c r="C382" s="2">
-        <v>3.3636696338653564</v>
+        <v>3.3599226474761963</v>
       </c>
       <c r="D382" s="2">
         <v>3.3591029644012451</v>
       </c>
       <c r="E382" s="2">
-        <v>3.3925762176513672</v>
+        <v>3.3898594379425049</v>
       </c>
     </row>
     <row r="383">
@@ -5743,13 +5743,13 @@
         <v>3.2312054634094238</v>
       </c>
       <c r="C383" s="2">
-        <v>3.2366559505462647</v>
+        <v>3.2351505756378174</v>
       </c>
       <c r="D383" s="2">
         <v>3.3747761249542236</v>
       </c>
       <c r="E383" s="2">
-        <v>3.4002852439880371</v>
+        <v>3.3979406356811524</v>
       </c>
     </row>
     <row r="384">
@@ -5760,13 +5760,13 @@
         <v>2.7521841526031494</v>
       </c>
       <c r="C384" s="2">
-        <v>2.7472543716430664</v>
+        <v>2.745448112487793</v>
       </c>
       <c r="D384" s="2">
         <v>3.3357021808624268</v>
       </c>
       <c r="E384" s="2">
-        <v>3.3482024669647217</v>
+        <v>3.3460586071014404</v>
       </c>
     </row>
     <row r="385">
@@ -5777,13 +5777,13 @@
         <v>3.3797051906585693</v>
       </c>
       <c r="C385" s="2">
-        <v>3.5004656314849854</v>
+        <v>3.4969372749328613</v>
       </c>
       <c r="D385" s="2">
         <v>3.2344791889190674</v>
       </c>
       <c r="E385" s="2">
-        <v>3.2409510612487793</v>
+        <v>3.2389230728149414</v>
       </c>
     </row>
     <row r="386">
@@ -5794,13 +5794,13 @@
         <v>3.5688071250915527</v>
       </c>
       <c r="C386" s="2">
-        <v>3.4144713878631592</v>
+        <v>3.4120409488677979</v>
       </c>
       <c r="D386" s="2">
         <v>3.2539050579071045</v>
       </c>
       <c r="E386" s="2">
-        <v>3.244290828704834</v>
+        <v>3.2429068088531494</v>
       </c>
     </row>
     <row r="387">
@@ -5811,13 +5811,13 @@
         <v>3.5760478973388672</v>
       </c>
       <c r="C387" s="2">
-        <v>3.5492422580718994</v>
+        <v>3.5493800640106201</v>
       </c>
       <c r="D387" s="2">
         <v>3.152677059173584</v>
       </c>
       <c r="E387" s="2">
-        <v>3.1584558486938477</v>
+        <v>3.1569592952728271</v>
       </c>
     </row>
     <row r="388">
@@ -5828,13 +5828,13 @@
         <v>3.0575752258300781</v>
       </c>
       <c r="C388" s="2">
-        <v>3.0456504821777344</v>
+        <v>3.045773983001709</v>
       </c>
       <c r="D388" s="2">
         <v>3.1137194633483887</v>
       </c>
       <c r="E388" s="2">
-        <v>3.1073102951049805</v>
+        <v>3.105928897857666</v>
       </c>
     </row>
     <row r="389">
@@ -5845,13 +5845,13 @@
         <v>3.3050394058227539</v>
       </c>
       <c r="C389" s="2">
-        <v>3.358292818069458</v>
+        <v>3.3572573661804199</v>
       </c>
       <c r="D389" s="2">
         <v>3.1617593765258789</v>
       </c>
       <c r="E389" s="2">
-        <v>3.1558248996734619</v>
+        <v>3.1547541618347168</v>
       </c>
     </row>
     <row r="390">
@@ -5862,13 +5862,13 @@
         <v>2.9962191581726074</v>
       </c>
       <c r="C390" s="2">
-        <v>2.9829144477844238</v>
+        <v>2.9842498302459717</v>
       </c>
       <c r="D390" s="2">
         <v>3.0901715755462647</v>
       </c>
       <c r="E390" s="2">
-        <v>3.0741865634918213</v>
+        <v>3.0733613967895508</v>
       </c>
     </row>
     <row r="391">
@@ -5879,13 +5879,13 @@
         <v>2.5073091983795166</v>
       </c>
       <c r="C391" s="2">
-        <v>2.5911555290222168</v>
+        <v>2.5863962173461914</v>
       </c>
       <c r="D391" s="2">
         <v>3.0425910949707031</v>
       </c>
       <c r="E391" s="2">
-        <v>2.9933364391326904</v>
+        <v>2.9927699565887451</v>
       </c>
     </row>
     <row r="392">
@@ -5896,13 +5896,13 @@
         <v>2.8805880546569824</v>
       </c>
       <c r="C392" s="2">
-        <v>2.7763447761535645</v>
+        <v>2.7758769989013672</v>
       </c>
       <c r="D392" s="2">
         <v>2.9899451732635498</v>
       </c>
       <c r="E392" s="2">
-        <v>2.9422547817230225</v>
+        <v>2.9414403438568115</v>
       </c>
     </row>
     <row r="393">
@@ -5913,13 +5913,13 @@
         <v>3.1845428943634033</v>
       </c>
       <c r="C393" s="2">
-        <v>3.1838865280151367</v>
+        <v>3.1848745346069336</v>
       </c>
       <c r="D393" s="2">
         <v>3.0211079120635986</v>
       </c>
       <c r="E393" s="2">
-        <v>2.9705407619476318</v>
+        <v>2.9698293209075928</v>
       </c>
     </row>
     <row r="394">
@@ -5930,13 +5930,13 @@
         <v>2.7354156970977783</v>
       </c>
       <c r="C394" s="2">
-        <v>2.7657203674316406</v>
+        <v>2.764401912689209</v>
       </c>
       <c r="D394" s="2">
         <v>2.988760232925415</v>
       </c>
       <c r="E394" s="2">
-        <v>2.9355056285858154</v>
+        <v>2.9344828128814697</v>
       </c>
     </row>
     <row r="395">
@@ -5947,13 +5947,13 @@
         <v>3.1405818462371826</v>
       </c>
       <c r="C395" s="2">
-        <v>2.6868212223052979</v>
+        <v>2.6867191791534424</v>
       </c>
       <c r="D395" s="2">
         <v>2.959986686706543</v>
       </c>
       <c r="E395" s="2">
-        <v>2.9022121429443359</v>
+        <v>2.9011316299438477</v>
       </c>
     </row>
     <row r="396">
@@ -5964,13 +5964,13 @@
         <v>3.1022353172302246</v>
       </c>
       <c r="C396" s="2">
-        <v>3.0895078182220459</v>
+        <v>3.0874130725860596</v>
       </c>
       <c r="D396" s="2">
         <v>3.0459551811218262</v>
       </c>
       <c r="E396" s="2">
-        <v>2.9716191291809082</v>
+        <v>2.970902681350708</v>
       </c>
     </row>
     <row r="397">
@@ -5981,13 +5981,13 @@
         <v>3.3380398750305176</v>
       </c>
       <c r="C397" s="2">
-        <v>3.3002223968505859</v>
+        <v>3.301274299621582</v>
       </c>
       <c r="D397" s="2">
         <v>3.10400390625</v>
       </c>
       <c r="E397" s="2">
-        <v>3.038360595703125</v>
+        <v>3.0376100540161133</v>
       </c>
     </row>
     <row r="398">
@@ -5998,13 +5998,13 @@
         <v>3.0139105319976807</v>
       </c>
       <c r="C398" s="2">
-        <v>3.0429773330688477</v>
+        <v>3.0391387939453125</v>
       </c>
       <c r="D398" s="2">
         <v>3.0988743305206299</v>
       </c>
       <c r="E398" s="2">
-        <v>3.0447618961334229</v>
+        <v>3.0436270236968994</v>
       </c>
     </row>
     <row r="399">
@@ -6015,13 +6015,13 @@
         <v>2.7372558116912842</v>
       </c>
       <c r="C399" s="2">
-        <v>2.6832735538482666</v>
+        <v>2.6840889453887939</v>
       </c>
       <c r="D399" s="2">
         <v>3.1548702716827393</v>
       </c>
       <c r="E399" s="2">
-        <v>3.0902760028839111</v>
+        <v>3.0894806385040283</v>
       </c>
     </row>
     <row r="400">
@@ -6032,13 +6032,13 @@
         <v>3.2810258865356445</v>
       </c>
       <c r="C400" s="2">
-        <v>3.2158174514770508</v>
+        <v>3.2143361568450928</v>
       </c>
       <c r="D400" s="2">
         <v>3.1094582080841064</v>
       </c>
       <c r="E400" s="2">
-        <v>3.091015100479126</v>
+        <v>3.0901696681976318</v>
       </c>
     </row>
     <row r="401">
@@ -6049,13 +6049,13 @@
         <v>3.4030265808105469</v>
       </c>
       <c r="C401" s="2">
-        <v>3.3770191669464111</v>
+        <v>3.3762445449829102</v>
       </c>
       <c r="D401" s="2">
         <v>3.1314268112182617</v>
       </c>
       <c r="E401" s="2">
-        <v>3.1205117702484131</v>
+        <v>3.1197443008422852</v>
       </c>
     </row>
     <row r="402">
@@ -6066,13 +6066,13 @@
         <v>3.1383779048919678</v>
       </c>
       <c r="C402" s="2">
-        <v>3.241497278213501</v>
+        <v>3.2390255928039551</v>
       </c>
       <c r="D402" s="2">
         <v>3.0907306671142578</v>
       </c>
       <c r="E402" s="2">
-        <v>3.0797488689422607</v>
+        <v>3.0788273811340332</v>
       </c>
     </row>
     <row r="403">
@@ -6083,13 +6083,13 @@
         <v>3.2393794059753418</v>
       </c>
       <c r="C403" s="2">
-        <v>3.175346851348877</v>
+        <v>3.1770856380462647</v>
       </c>
       <c r="D403" s="2">
         <v>3.071422815322876</v>
       </c>
       <c r="E403" s="2">
-        <v>3.0531432628631592</v>
+        <v>3.052344799041748</v>
       </c>
     </row>
     <row r="404">
@@ -6100,13 +6100,13 @@
         <v>2.7318727970123291</v>
       </c>
       <c r="C404" s="2">
-        <v>2.6934745311737061</v>
+        <v>2.6929199695587158</v>
       </c>
       <c r="D404" s="2">
         <v>3.0552563667297363</v>
       </c>
       <c r="E404" s="2">
-        <v>3.0321478843688965</v>
+        <v>3.0310580730438233</v>
       </c>
     </row>
     <row r="405">
@@ -6117,13 +6117,13 @@
         <v>3.2999529838562012</v>
       </c>
       <c r="C405" s="2">
-        <v>3.3549764156341553</v>
+        <v>3.3535857200622559</v>
       </c>
       <c r="D405" s="2">
         <v>3.0121161937713623</v>
       </c>
       <c r="E405" s="2">
-        <v>3.0069479942321777</v>
+        <v>3.0059225559234619</v>
       </c>
     </row>
     <row r="406">
@@ -6134,13 +6134,13 @@
         <v>2.9717750549316406</v>
       </c>
       <c r="C406" s="2">
-        <v>2.9333581924438477</v>
+        <v>2.9330205917358399</v>
       </c>
       <c r="D406" s="2">
         <v>2.943411111831665</v>
       </c>
       <c r="E406" s="2">
-        <v>2.9426777362823486</v>
+        <v>2.9415428638458252</v>
       </c>
     </row>
     <row r="407">
@@ -6151,13 +6151,13 @@
         <v>2.8401391506195068</v>
       </c>
       <c r="C407" s="2">
-        <v>2.8035249710083008</v>
+        <v>2.8007950782775879</v>
       </c>
       <c r="D407" s="2">
         <v>2.9322686195373535</v>
       </c>
       <c r="E407" s="2">
-        <v>2.9260122776031494</v>
+        <v>2.9248003959655762</v>
       </c>
     </row>
     <row r="408">
@@ -6168,13 +6168,13 @@
         <v>2.5917577743530273</v>
       </c>
       <c r="C408" s="2">
-        <v>2.4943161010742188</v>
+        <v>2.492509126663208</v>
       </c>
       <c r="D408" s="2">
         <v>2.9009478092193604</v>
       </c>
       <c r="E408" s="2">
-        <v>2.9020628929138184</v>
+        <v>2.9004440307617188</v>
       </c>
     </row>
     <row r="409">
@@ -6185,13 +6185,13 @@
         <v>2.8927643299102783</v>
       </c>
       <c r="C409" s="2">
-        <v>2.9890193939208984</v>
+        <v>2.9881157875061035</v>
       </c>
       <c r="D409" s="2">
         <v>2.9216787815093994</v>
       </c>
       <c r="E409" s="2">
-        <v>2.9277539253234863</v>
+        <v>2.9261288642883301</v>
       </c>
     </row>
     <row r="410">
@@ -6202,13 +6202,13 @@
         <v>2.7846798896789551</v>
       </c>
       <c r="C410" s="2">
-        <v>2.7985854148864746</v>
+        <v>2.7968285083770752</v>
       </c>
       <c r="D410" s="2">
         <v>2.8747327327728272</v>
       </c>
       <c r="E410" s="2">
-        <v>2.8730399608612061</v>
+        <v>2.8711934089660645</v>
       </c>
     </row>
     <row r="411">
@@ -6219,13 +6219,13 @@
         <v>3.0380964279174805</v>
       </c>
       <c r="C411" s="2">
-        <v>3.0915088653564453</v>
+        <v>3.0883429050445557</v>
       </c>
       <c r="D411" s="2">
         <v>2.8957514762878418</v>
       </c>
       <c r="E411" s="2">
-        <v>2.8915445804595947</v>
+        <v>2.8897302150726318</v>
       </c>
     </row>
     <row r="412">
@@ -6236,13 +6236,13 @@
         <v>2.9574911594390869</v>
       </c>
       <c r="C412" s="2">
-        <v>2.9598021507263184</v>
+        <v>2.9578783512115479</v>
       </c>
       <c r="D412" s="2">
         <v>2.9098155498504639</v>
       </c>
       <c r="E412" s="2">
-        <v>2.8980438709259033</v>
+        <v>2.8963148593902588</v>
       </c>
     </row>
     <row r="413">
@@ -6253,13 +6253,13 @@
         <v>2.9184513092041016</v>
       </c>
       <c r="C413" s="2">
-        <v>2.9246933460235596</v>
+        <v>2.9240832328796387</v>
       </c>
       <c r="D413" s="2">
         <v>2.9318664073944092</v>
       </c>
       <c r="E413" s="2">
-        <v>2.9252254962921143</v>
+        <v>2.9235327243804932</v>
       </c>
     </row>
     <row r="414">
@@ -6270,13 +6270,13 @@
         <v>2.8774399757385254</v>
       </c>
       <c r="C414" s="2">
-        <v>2.8625516891479492</v>
+        <v>2.8591663837432861</v>
       </c>
       <c r="D414" s="2">
         <v>2.9796748161315918</v>
       </c>
       <c r="E414" s="2">
-        <v>2.9751336574554443</v>
+        <v>2.9729228019714355</v>
       </c>
     </row>
     <row r="415">
@@ -6287,13 +6287,13 @@
         <v>3.1609432697296143</v>
       </c>
       <c r="C415" s="2">
-        <v>3.0998985767364502</v>
+        <v>3.0998530387878418</v>
       </c>
       <c r="D415" s="2">
         <v>3.0407562255859375</v>
       </c>
       <c r="E415" s="2">
-        <v>3.0342767238616943</v>
+        <v>3.0323488712310791</v>
       </c>
     </row>
     <row r="416">
@@ -6304,13 +6304,13 @@
         <v>2.9667150974273682</v>
       </c>
       <c r="C416" s="2">
-        <v>2.8620197772979736</v>
+        <v>2.8600573539733887</v>
       </c>
       <c r="D416" s="2">
         <v>3.0985720157623291</v>
       </c>
       <c r="E416" s="2">
-        <v>3.0907723903656006</v>
+        <v>3.0889501571655273</v>
       </c>
     </row>
     <row r="417">
@@ -6321,13 +6321,13 @@
         <v>2.7902162075042725</v>
       </c>
       <c r="C417" s="2">
-        <v>2.7389492988586426</v>
+        <v>2.7374687194824219</v>
       </c>
       <c r="D417" s="2">
         <v>3.0900552272796631</v>
       </c>
       <c r="E417" s="2">
-        <v>3.0858206748962402</v>
+        <v>3.0840439796447754</v>
       </c>
     </row>
     <row r="418">
@@ -6338,13 +6338,13 @@
         <v>3.3230390548706055</v>
       </c>
       <c r="C418" s="2">
-        <v>3.4381935596466065</v>
+        <v>3.4326262474060059</v>
       </c>
       <c r="D418" s="2">
         <v>3.1378860473632813</v>
       </c>
       <c r="E418" s="2">
-        <v>3.1412532329559326</v>
+        <v>3.1393980979919434</v>
       </c>
     </row>
     <row r="419">
@@ -6355,13 +6355,13 @@
         <v>3.3344135284423828</v>
       </c>
       <c r="C419" s="2">
-        <v>3.3308722972869873</v>
+        <v>3.3316640853881836</v>
       </c>
       <c r="D419" s="2">
         <v>3.1894783973693848</v>
       </c>
       <c r="E419" s="2">
-        <v>3.2055873870849609</v>
+        <v>3.20416259765625</v>
       </c>
     </row>
     <row r="420">
@@ -6372,13 +6372,13 @@
         <v>3.5584390163421631</v>
       </c>
       <c r="C420" s="2">
-        <v>3.5999703407287598</v>
+        <v>3.5977540016174317</v>
       </c>
       <c r="D420" s="2">
         <v>3.1751704216003418</v>
       </c>
       <c r="E420" s="2">
-        <v>3.2016046047210693</v>
+        <v>3.1997957229614258</v>
       </c>
     </row>
     <row r="421">
@@ -6389,13 +6389,13 @@
         <v>2.8808391094207764</v>
       </c>
       <c r="C421" s="2">
-        <v>2.9152374267578125</v>
+        <v>2.9137227535247803</v>
       </c>
       <c r="D421" s="2">
         <v>3.2250933647155762</v>
       </c>
       <c r="E421" s="2">
-        <v>3.2495639324188232</v>
+        <v>3.2477126121520996</v>
       </c>
     </row>
     <row r="422">
@@ -6406,13 +6406,13 @@
         <v>3.3489301204681396</v>
       </c>
       <c r="C422" s="2">
-        <v>3.4235866069793701</v>
+        <v>3.4222705364227295</v>
       </c>
       <c r="D422" s="2">
         <v>3.2920436859130859</v>
       </c>
       <c r="E422" s="2">
-        <v>3.320570707321167</v>
+        <v>3.3188614845275879</v>
       </c>
     </row>
     <row r="423">
@@ -6423,13 +6423,13 @@
         <v>3.3417708873748779</v>
       </c>
       <c r="C423" s="2">
-        <v>3.4415590763092041</v>
+        <v>3.4420464038848877</v>
       </c>
       <c r="D423" s="2">
         <v>3.2705795764923096</v>
       </c>
       <c r="E423" s="2">
-        <v>3.2786498069763184</v>
+        <v>3.2777152061462402</v>
       </c>
     </row>
     <row r="424">
@@ -6440,13 +6440,13 @@
         <v>3.0321712493896484</v>
       </c>
       <c r="C424" s="2">
-        <v>3.0640521049499512</v>
+        <v>3.0605514049530029</v>
       </c>
       <c r="D424" s="2">
         <v>3.1837081909179688</v>
       </c>
       <c r="E424" s="2">
-        <v>3.1812596321105957</v>
+        <v>3.18003249168396</v>
       </c>
     </row>
     <row r="425">
@@ -6457,13 +6457,13 @@
         <v>3.4160213470458984</v>
       </c>
       <c r="C425" s="2">
-        <v>3.293654203414917</v>
+        <v>3.2913103103637695</v>
       </c>
       <c r="D425" s="2">
         <v>3.1636965274810791</v>
       </c>
       <c r="E425" s="2">
-        <v>3.1522207260131836</v>
+        <v>3.1514139175415039</v>
       </c>
     </row>
     <row r="426">
@@ -6474,13 +6474,13 @@
         <v>3.3927681446075439</v>
       </c>
       <c r="C426" s="2">
-        <v>3.3780117034912109</v>
+        <v>3.3778069019317627</v>
       </c>
       <c r="D426" s="2">
         <v>3.1743838787078857</v>
       </c>
       <c r="E426" s="2">
-        <v>3.1552510261535645</v>
+        <v>3.1549587249755859</v>
       </c>
     </row>
     <row r="427">
@@ -6491,13 +6491,13 @@
         <v>3.1298623085021973</v>
       </c>
       <c r="C427" s="2">
-        <v>3.0609049797058106</v>
+        <v>3.0623109340667725</v>
       </c>
       <c r="D427" s="2">
         <v>3.1469569206237793</v>
       </c>
       <c r="E427" s="2">
-        <v>3.1275520324707031</v>
+        <v>3.1271622180938721</v>
       </c>
     </row>
     <row r="428">
@@ -6508,13 +6508,13 @@
         <v>2.5525708198547363</v>
       </c>
       <c r="C428" s="2">
-        <v>2.4543607234954834</v>
+        <v>2.4525187015533447</v>
       </c>
       <c r="D428" s="2">
         <v>3.1523776054382324</v>
       </c>
       <c r="E428" s="2">
-        <v>3.106942892074585</v>
+        <v>3.1063323020935059</v>
       </c>
     </row>
     <row r="429">
@@ -6525,13 +6525,13 @@
         <v>3.3783354759216309</v>
       </c>
       <c r="C429" s="2">
-        <v>3.3386201858520508</v>
+        <v>3.3401873111724854</v>
       </c>
       <c r="D429" s="2">
         <v>3.1923325061798096</v>
       </c>
       <c r="E429" s="2">
-        <v>3.1401636600494385</v>
+        <v>3.1397650241851807</v>
       </c>
     </row>
     <row r="430">
@@ -6542,13 +6542,13 @@
         <v>2.9770252704620361</v>
       </c>
       <c r="C430" s="2">
-        <v>2.9425098896026611</v>
+        <v>2.9456260204315186</v>
       </c>
       <c r="D430" s="2">
         <v>3.1372289657592774</v>
       </c>
       <c r="E430" s="2">
-        <v>3.0951042175292969</v>
+        <v>3.0948805809020996</v>
       </c>
     </row>
     <row r="431">
@@ -6559,13 +6559,13 @@
         <v>3.102086067199707</v>
       </c>
       <c r="C431" s="2">
-        <v>3.1742959022521973</v>
+        <v>3.1721022129058838</v>
       </c>
       <c r="D431" s="2">
         <v>3.1095607280731201</v>
       </c>
       <c r="E431" s="2">
-        <v>3.0458478927612305</v>
+        <v>3.0456106662750244</v>
       </c>
     </row>
     <row r="432">
@@ -6576,13 +6576,13 @@
         <v>3.3905570507049561</v>
       </c>
       <c r="C432" s="2">
-        <v>3.2560765743255615</v>
+        <v>3.2545766830444336</v>
       </c>
       <c r="D432" s="2">
         <v>3.101276159286499</v>
       </c>
       <c r="E432" s="2">
-        <v>3.0508348941802979</v>
+        <v>3.0504741668701172</v>
       </c>
     </row>
     <row r="433">
@@ -6593,13 +6593,13 @@
         <v>3.391765832901001</v>
       </c>
       <c r="C433" s="2">
-        <v>3.3630397319793701</v>
+        <v>3.3614466190338135</v>
       </c>
       <c r="D433" s="2">
         <v>3.146780252456665</v>
       </c>
       <c r="E433" s="2">
-        <v>3.0986332893371582</v>
+        <v>3.0988194942474365</v>
       </c>
     </row>
     <row r="434">
@@ -6610,13 +6610,13 @@
         <v>2.9200890064239502</v>
       </c>
       <c r="C434" s="2">
-        <v>2.8881180286407471</v>
+        <v>2.8873507976531982</v>
       </c>
       <c r="D434" s="2">
         <v>3.1014249324798584</v>
       </c>
       <c r="E434" s="2">
-        <v>3.0572752952575684</v>
+        <v>3.0576221942901611</v>
       </c>
     </row>
     <row r="435">
@@ -6627,13 +6627,13 @@
         <v>3.1437547206878662</v>
       </c>
       <c r="C435" s="2">
-        <v>2.9347047805786133</v>
+        <v>2.9343771934509277</v>
       </c>
       <c r="D435" s="2">
         <v>3.1049909591674805</v>
       </c>
       <c r="E435" s="2">
-        <v>3.0569672584533691</v>
+        <v>3.0568718910217285</v>
       </c>
     </row>
     <row r="436">
@@ -6644,13 +6644,13 @@
         <v>3.0553004741668701</v>
       </c>
       <c r="C436" s="2">
-        <v>3.105787992477417</v>
+        <v>3.1060812473297119</v>
       </c>
       <c r="D436" s="2">
         <v>3.0878763198852539</v>
       </c>
       <c r="E436" s="2">
-        <v>3.0365712642669678</v>
+        <v>3.0365593433380127</v>
       </c>
     </row>
     <row r="437">
@@ -6661,13 +6661,13 @@
         <v>2.9621086120605469</v>
       </c>
       <c r="C437" s="2">
-        <v>2.8845474720001221</v>
+        <v>2.887627124786377</v>
       </c>
       <c r="D437" s="2">
         <v>3.0275809764862061</v>
       </c>
       <c r="E437" s="2">
-        <v>2.9761641025543213</v>
+        <v>2.9764225482940674</v>
       </c>
     </row>
     <row r="438">
@@ -6678,13 +6678,13 @@
         <v>2.9701380729675293</v>
       </c>
       <c r="C438" s="2">
-        <v>2.9663970470428467</v>
+        <v>2.969412088394165</v>
       </c>
       <c r="D438" s="2">
         <v>2.940532922744751</v>
       </c>
       <c r="E438" s="2">
-        <v>2.8744559288024902</v>
+        <v>2.8747305870056152</v>
       </c>
     </row>
     <row r="439">
@@ -6695,13 +6695,13 @@
         <v>3.0091185569763184</v>
       </c>
       <c r="C439" s="2">
-        <v>2.9397377967834473</v>
+        <v>2.9388740062713623</v>
       </c>
       <c r="D439" s="2">
         <v>2.9111831188201904</v>
       </c>
       <c r="E439" s="2">
-        <v>2.8529462814331055</v>
+        <v>2.8531975746154785</v>
       </c>
     </row>
     <row r="440">
@@ -6712,13 +6712,13 @@
         <v>2.9480540752410889</v>
       </c>
       <c r="C440" s="2">
-        <v>2.9907314777374268</v>
+        <v>2.9892892837524414</v>
       </c>
       <c r="D440" s="2">
         <v>2.8712742328643799</v>
       </c>
       <c r="E440" s="2">
-        <v>2.8348777294158936</v>
+        <v>2.8348078727722168</v>
       </c>
     </row>
     <row r="441">
@@ -6729,13 +6729,13 @@
         <v>2.8479001522064209</v>
       </c>
       <c r="C441" s="2">
-        <v>2.7124123573303223</v>
+        <v>2.7133450508117676</v>
       </c>
       <c r="D441" s="2">
         <v>2.8171241283416748</v>
       </c>
       <c r="E441" s="2">
-        <v>2.7698397636413574</v>
+        <v>2.769681453704834</v>
       </c>
     </row>
     <row r="442">
@@ -6746,13 +6746,13 @@
         <v>2.6083316802978516</v>
       </c>
       <c r="C442" s="2">
-        <v>2.4476673603057861</v>
+        <v>2.4462180137634277</v>
       </c>
       <c r="D442" s="2">
         <v>2.7841508388519287</v>
       </c>
       <c r="E442" s="2">
-        <v>2.7487740516662598</v>
+        <v>2.7481460571289063</v>
       </c>
     </row>
     <row r="443">
@@ -6763,13 +6763,13 @@
         <v>2.6559422016143799</v>
       </c>
       <c r="C443" s="2">
-        <v>2.6945292949676514</v>
+        <v>2.693554162979126</v>
       </c>
       <c r="D443" s="2">
         <v>2.7631773948669434</v>
       </c>
       <c r="E443" s="2">
-        <v>2.7318956851959229</v>
+        <v>2.7309937477111817</v>
       </c>
     </row>
     <row r="444">
@@ -6780,13 +6780,13 @@
         <v>2.7845733165740967</v>
       </c>
       <c r="C444" s="2">
-        <v>2.7720885276794434</v>
+        <v>2.7688708305358887</v>
       </c>
       <c r="D444" s="2">
         <v>2.736886739730835</v>
       </c>
       <c r="E444" s="2">
-        <v>2.7123641967773438</v>
+        <v>2.7113893032073975</v>
       </c>
     </row>
     <row r="445">
@@ -6797,13 +6797,13 @@
         <v>2.5679512023925781</v>
       </c>
       <c r="C445" s="2">
-        <v>2.5204474925994873</v>
+        <v>2.5199422836303711</v>
       </c>
       <c r="D445" s="2">
         <v>2.6898953914642334</v>
       </c>
       <c r="E445" s="2">
-        <v>2.6625490188598633</v>
+        <v>2.6615891456604004</v>
       </c>
     </row>
     <row r="446">
@@ -6814,13 +6814,13 @@
         <v>2.6653487682342529</v>
       </c>
       <c r="C446" s="2">
-        <v>2.6949560642242432</v>
+        <v>2.69380784034729</v>
       </c>
       <c r="D446" s="2">
         <v>2.6980898380279541</v>
       </c>
       <c r="E446" s="2">
-        <v>2.6691906452178955</v>
+        <v>2.6681485176086426</v>
       </c>
     </row>
     <row r="447">
@@ -6831,13 +6831,13 @@
         <v>2.7813756465911865</v>
       </c>
       <c r="C447" s="2">
-        <v>2.8144903182983398</v>
+        <v>2.8150432109832764</v>
       </c>
       <c r="D447" s="2">
         <v>2.6988604068756104</v>
       </c>
       <c r="E447" s="2">
-        <v>2.677424430847168</v>
+        <v>2.6763954162597656</v>
       </c>
     </row>
     <row r="448">
@@ -6848,13 +6848,13 @@
         <v>2.7725033760070801</v>
       </c>
       <c r="C448" s="2">
-        <v>2.7639551162719727</v>
+        <v>2.7624330520629883</v>
       </c>
       <c r="D448" s="2">
         <v>2.7359039783477783</v>
       </c>
       <c r="E448" s="2">
-        <v>2.6947107315063477</v>
+        <v>2.6936249732971191</v>
       </c>
     </row>
     <row r="449">
@@ -6865,13 +6865,13 @@
         <v>2.5251312255859375</v>
       </c>
       <c r="C449" s="2">
-        <v>2.5423943996429443</v>
+        <v>2.541088342666626</v>
       </c>
       <c r="D449" s="2">
         <v>2.7346234321594238</v>
       </c>
       <c r="E449" s="2">
-        <v>2.6902837753295898</v>
+        <v>2.6894516944885254</v>
       </c>
     </row>
     <row r="450">
@@ -6882,13 +6882,13 @@
         <v>2.9216506481170654</v>
       </c>
       <c r="C450" s="2">
-        <v>2.7721877098083496</v>
+        <v>2.7723789215087891</v>
       </c>
       <c r="D450" s="2">
         <v>2.7363929748535156</v>
       </c>
       <c r="E450" s="2">
-        <v>2.6747543811798096</v>
+        <v>2.6737363338470459</v>
       </c>
     </row>
     <row r="451">
@@ -6899,13 +6899,13 @@
         <v>2.6152679920196533</v>
       </c>
       <c r="C451" s="2">
-        <v>2.5217719078063965</v>
+        <v>2.520439624786377</v>
       </c>
       <c r="D451" s="2">
         <v>2.7989218235015869</v>
       </c>
       <c r="E451" s="2">
-        <v>2.7277500629425049</v>
+        <v>2.7267539501190186</v>
       </c>
     </row>
     <row r="452">
@@ -6916,13 +6916,13 @@
         <v>2.9893345832824707</v>
       </c>
       <c r="C452" s="2">
-        <v>2.8501043319702148</v>
+        <v>2.8486201763153076</v>
       </c>
       <c r="D452" s="2">
         <v>2.7745163440704346</v>
       </c>
       <c r="E452" s="2">
-        <v>2.6803600788116455</v>
+        <v>2.6792795658111572</v>
       </c>
     </row>
     <row r="453">
@@ -6933,13 +6933,13 @@
         <v>2.7730464935302734</v>
       </c>
       <c r="C453" s="2">
-        <v>2.732245922088623</v>
+        <v>2.7313127517700195</v>
       </c>
       <c r="D453" s="2">
         <v>2.7575724124908447</v>
       </c>
       <c r="E453" s="2">
-        <v>2.6526377201080322</v>
+        <v>2.6517431735992432</v>
       </c>
     </row>
     <row r="454">
@@ -6950,13 +6950,13 @@
         <v>2.5838770866394043</v>
       </c>
       <c r="C454" s="2">
-        <v>2.3806838989257813</v>
+        <v>2.3785037994384766</v>
       </c>
       <c r="D454" s="2">
         <v>2.8140444755554199</v>
       </c>
       <c r="E454" s="2">
-        <v>2.7058060169219971</v>
+        <v>2.7049300670623779</v>
       </c>
     </row>
     <row r="455">
@@ -6967,13 +6967,13 @@
         <v>3.22810959815979</v>
       </c>
       <c r="C455" s="2">
-        <v>3.1719160079956055</v>
+        <v>3.1709654331207275</v>
       </c>
       <c r="D455" s="2">
         <v>2.796811580657959</v>
       </c>
       <c r="E455" s="2">
-        <v>2.7076306343078613</v>
+        <v>2.7068047523498535</v>
       </c>
     </row>
     <row r="456">
@@ -6984,13 +6984,13 @@
         <v>2.5617256164550781</v>
       </c>
       <c r="C456" s="2">
-        <v>2.3879809379577637</v>
+        <v>2.3877749443054199</v>
       </c>
       <c r="D456" s="2">
         <v>2.8140428066253662</v>
       </c>
       <c r="E456" s="2">
-        <v>2.7180747985839844</v>
+        <v>2.7177000045776367</v>
       </c>
     </row>
     <row r="457">
@@ -7001,13 +7001,13 @@
         <v>2.6200084686279297</v>
       </c>
       <c r="C457" s="2">
-        <v>2.5144550800323486</v>
+        <v>2.5146045684814453</v>
       </c>
       <c r="D457" s="2">
         <v>2.7849936485290527</v>
       </c>
       <c r="E457" s="2">
-        <v>2.70235276222229</v>
+        <v>2.7023286819458008</v>
       </c>
     </row>
     <row r="458">
@@ -7018,13 +7018,13 @@
         <v>3.033379077911377</v>
       </c>
       <c r="C458" s="2">
-        <v>3.0209088325500488</v>
+        <v>3.0197701454162598</v>
       </c>
       <c r="D458" s="2">
         <v>2.7469065189361572</v>
       </c>
       <c r="E458" s="2">
-        <v>2.6693089008331299</v>
+        <v>2.6692256927490234</v>
       </c>
     </row>
     <row r="459">
@@ -7035,13 +7035,13 @@
         <v>2.7665557861328125</v>
       </c>
       <c r="C459" s="2">
-        <v>2.788609504699707</v>
+        <v>2.7892508506774902</v>
       </c>
       <c r="D459" s="2">
         <v>2.7278730869293213</v>
       </c>
       <c r="E459" s="2">
-        <v>2.6805350780487061</v>
+        <v>2.6804606914520264</v>
       </c>
     </row>
     <row r="460">
@@ -7052,13 +7052,13 @@
         <v>2.7703475952148438</v>
       </c>
       <c r="C460" s="2">
-        <v>2.6157684326171875</v>
+        <v>2.6184976100921631</v>
       </c>
       <c r="D460" s="2">
         <v>2.6778824329376221</v>
       </c>
       <c r="E460" s="2">
-        <v>2.6316831111907959</v>
+        <v>2.6317365169525146</v>
       </c>
     </row>
     <row r="461">
@@ -7069,13 +7069,13 @@
         <v>2.7278928756713867</v>
       </c>
       <c r="C461" s="2">
-        <v>2.7086060047149658</v>
+        <v>2.7102773189544678</v>
       </c>
       <c r="D461" s="2">
         <v>2.6666951179504395</v>
       </c>
       <c r="E461" s="2">
-        <v>2.6356923580169678</v>
+        <v>2.63580322265625</v>
       </c>
     </row>
     <row r="462">
@@ -7086,13 +7086,13 @@
         <v>2.4302632808685303</v>
       </c>
       <c r="C462" s="2">
-        <v>2.434851884841919</v>
+        <v>2.4333875179290771</v>
       </c>
       <c r="D462" s="2">
         <v>2.6616573333740234</v>
       </c>
       <c r="E462" s="2">
-        <v>2.6432821750640869</v>
+        <v>2.6431779861450195</v>
       </c>
     </row>
     <row r="463">
@@ -7103,13 +7103,13 @@
         <v>2.4125761985778809</v>
       </c>
       <c r="C463" s="2">
-        <v>2.4817192554473877</v>
+        <v>2.4796180725097656</v>
       </c>
       <c r="D463" s="2">
         <v>2.6214265823364258</v>
       </c>
       <c r="E463" s="2">
-        <v>2.6093006134033203</v>
+        <v>2.6094985008239746</v>
       </c>
     </row>
     <row r="464">
@@ -7120,13 +7120,13 @@
         <v>2.7781939506530762</v>
       </c>
       <c r="C464" s="2">
-        <v>2.7322485446929932</v>
+        <v>2.7324478626251221</v>
       </c>
       <c r="D464" s="2">
         <v>2.6013615131378174</v>
       </c>
       <c r="E464" s="2">
-        <v>2.5970795154571533</v>
+        <v>2.5971779823303223</v>
       </c>
     </row>
     <row r="465">
@@ -7137,13 +7137,13 @@
         <v>2.4610390663146973</v>
       </c>
       <c r="C465" s="2">
-        <v>2.4240627288818359</v>
+        <v>2.4243745803833008</v>
       </c>
       <c r="D465" s="2">
         <v>2.6265122890472412</v>
       </c>
       <c r="E465" s="2">
-        <v>2.6323733329772949</v>
+        <v>2.631939172744751</v>
       </c>
     </row>
     <row r="466">
@@ -7154,13 +7154,13 @@
         <v>2.5746691226959229</v>
       </c>
       <c r="C466" s="2">
-        <v>2.5827646255493164</v>
+        <v>2.5809776782989502</v>
       </c>
       <c r="D466" s="2">
         <v>2.6273176670074463</v>
       </c>
       <c r="E466" s="2">
-        <v>2.6397476196289063</v>
+        <v>2.6387708187103271</v>
       </c>
     </row>
     <row r="467">
@@ -7171,13 +7171,13 @@
         <v>2.6713011264801025</v>
       </c>
       <c r="C467" s="2">
-        <v>2.7150740623474121</v>
+        <v>2.7166547775268555</v>
       </c>
       <c r="D467" s="2">
         <v>2.6889805793762207</v>
       </c>
       <c r="E467" s="2">
-        <v>2.6862549781799316</v>
+        <v>2.6851894855499268</v>
       </c>
     </row>
     <row r="468">
@@ -7188,13 +7188,13 @@
         <v>2.5859699249267578</v>
       </c>
       <c r="C468" s="2">
-        <v>2.6786191463470459</v>
+        <v>2.6783666610717773</v>
       </c>
       <c r="D468" s="2">
         <v>2.7668824195861817</v>
       </c>
       <c r="E468" s="2">
-        <v>2.7609453201293945</v>
+        <v>2.7597417831420899</v>
       </c>
     </row>
     <row r="469">
@@ -7205,13 +7205,13 @@
         <v>2.9967043399810791</v>
       </c>
       <c r="C469" s="2">
-        <v>2.9334142208099365</v>
+        <v>2.9313473701477051</v>
       </c>
       <c r="D469" s="2">
         <v>2.748664140701294</v>
       </c>
       <c r="E469" s="2">
-        <v>2.7510578632354736</v>
+        <v>2.7496402263641357</v>
       </c>
     </row>
     <row r="470">
@@ -7222,13 +7222,13 @@
         <v>2.7351410388946533</v>
       </c>
       <c r="C470" s="2">
-        <v>2.7749736309051514</v>
+        <v>2.7717633247375488</v>
       </c>
       <c r="D470" s="2">
         <v>2.7564685344696045</v>
       </c>
       <c r="E470" s="2">
-        <v>2.7550003528594971</v>
+        <v>2.7533791065216064</v>
       </c>
     </row>
     <row r="471">
@@ -7239,13 +7239,13 @@
         <v>2.9852306842803955</v>
       </c>
       <c r="C471" s="2">
-        <v>2.8534176349639893</v>
+        <v>2.8511545658111572</v>
       </c>
       <c r="D471" s="2">
         <v>2.8123488426208496</v>
       </c>
       <c r="E471" s="2">
-        <v>2.8018214702606201</v>
+        <v>2.8007748126983643</v>
       </c>
     </row>
     <row r="472">
@@ -7256,13 +7256,13 @@
         <v>3.1136932373046875</v>
       </c>
       <c r="C472" s="2">
-        <v>3.1539323329925537</v>
+        <v>3.1505892276763916</v>
       </c>
       <c r="D472" s="2">
         <v>2.7665665149688721</v>
       </c>
       <c r="E472" s="2">
-        <v>2.7476222515106201</v>
+        <v>2.7461133003234863</v>
       </c>
     </row>
     <row r="473">
@@ -7273,13 +7273,13 @@
         <v>2.6142282485961914</v>
       </c>
       <c r="C473" s="2">
-        <v>2.6432626247406006</v>
+        <v>2.6415343284606934</v>
       </c>
       <c r="D473" s="2">
         <v>2.7636537551879883</v>
       </c>
       <c r="E473" s="2">
-        <v>2.7317430973052979</v>
+        <v>2.7302803993225098</v>
       </c>
     </row>
     <row r="474">
@@ -7290,13 +7290,13 @@
         <v>2.5312793254852295</v>
       </c>
       <c r="C474" s="2">
-        <v>2.459545373916626</v>
+        <v>2.4580235481262207</v>
       </c>
       <c r="D474" s="2">
         <v>2.7696874141693115</v>
       </c>
       <c r="E474" s="2">
-        <v>2.7327094078063965</v>
+        <v>2.7316527366638184</v>
       </c>
     </row>
     <row r="475">
@@ -7307,13 +7307,13 @@
         <v>3.0775909423828125</v>
       </c>
       <c r="C475" s="2">
-        <v>3.0041537284851074</v>
+        <v>3.0075387954711914</v>
       </c>
       <c r="D475" s="2">
         <v>2.7364692687988281</v>
       </c>
       <c r="E475" s="2">
-        <v>2.6898558139801025</v>
+        <v>2.689115047454834</v>
       </c>
     </row>
     <row r="476">
@@ -7324,13 +7324,13 @@
         <v>2.2592616081237793</v>
       </c>
       <c r="C476" s="2">
-        <v>2.2272818088531494</v>
+        <v>2.2247025966644287</v>
       </c>
       <c r="D476" s="2">
         <v>2.731764554977417</v>
       </c>
       <c r="E476" s="2">
-        <v>2.694150447845459</v>
+        <v>2.6933050155639648</v>
       </c>
     </row>
     <row r="477">
@@ -7341,13 +7341,13 @@
         <v>2.5597541332244873</v>
       </c>
       <c r="C477" s="2">
-        <v>2.5357060432434082</v>
+        <v>2.5358703136444092</v>
       </c>
       <c r="D477" s="2">
         <v>2.6701865196228027</v>
       </c>
       <c r="E477" s="2">
-        <v>2.6265304088592529</v>
+        <v>2.6261961460113525</v>
       </c>
     </row>
     <row r="478">
@@ -7358,13 +7358,13 @@
         <v>3.0510075092315674</v>
       </c>
       <c r="C478" s="2">
-        <v>2.9421119689941406</v>
+        <v>2.9436981678009033</v>
       </c>
       <c r="D478" s="2">
         <v>2.6619458198547363</v>
       </c>
       <c r="E478" s="2">
-        <v>2.61153244972229</v>
+        <v>2.6110303401947021</v>
       </c>
     </row>
     <row r="479">
@@ -7375,13 +7375,13 @@
         <v>2.4361770153045654</v>
       </c>
       <c r="C479" s="2">
-        <v>2.389291524887085</v>
+        <v>2.3889248371124268</v>
       </c>
       <c r="D479" s="2">
         <v>2.6666512489318848</v>
       </c>
       <c r="E479" s="2">
-        <v>2.6238052845001221</v>
+        <v>2.6234588623046875</v>
       </c>
     </row>
     <row r="480">
@@ -7392,13 +7392,13 @@
         <v>2.9428889751434326</v>
       </c>
       <c r="C480" s="2">
-        <v>2.8920688629150391</v>
+        <v>2.8888623714447021</v>
       </c>
       <c r="D480" s="2">
         <v>2.6039409637451172</v>
       </c>
       <c r="E480" s="2">
-        <v>2.566516637802124</v>
+        <v>2.5657849311828613</v>
       </c>
     </row>
     <row r="481">
@@ -7409,13 +7409,13 @@
         <v>2.5594911575317383</v>
       </c>
       <c r="C481" s="2">
-        <v>2.5453526973724365</v>
+        <v>2.5466101169586182</v>
       </c>
       <c r="D481" s="2">
         <v>2.6355845928192139</v>
       </c>
       <c r="E481" s="2">
-        <v>2.593766450881958</v>
+        <v>2.5935266017913818</v>
       </c>
     </row>
     <row r="482">
@@ -7426,13 +7426,13 @@
         <v>2.5400607585906982</v>
       </c>
       <c r="C482" s="2">
-        <v>2.5082809925079346</v>
+        <v>2.5050413608551025</v>
       </c>
       <c r="D482" s="2">
         <v>2.6351888179779053</v>
       </c>
       <c r="E482" s="2">
-        <v>2.5852506160736084</v>
+        <v>2.5849835872650147</v>
       </c>
     </row>
     <row r="483">
@@ -7443,13 +7443,13 @@
         <v>2.5736291408538818</v>
       </c>
       <c r="C483" s="2">
-        <v>2.5699996948242188</v>
+        <v>2.5698812007904053</v>
       </c>
       <c r="D483" s="2">
         <v>2.6240286827087402</v>
       </c>
       <c r="E483" s="2">
-        <v>2.5722825527191162</v>
+        <v>2.571707010269165</v>
       </c>
     </row>
     <row r="484">
@@ -7460,13 +7460,13 @@
         <v>2.5131983757019043</v>
       </c>
       <c r="C484" s="2">
-        <v>2.4885571002960205</v>
+        <v>2.4884741306304932</v>
       </c>
       <c r="D484" s="2">
         <v>2.633913516998291</v>
       </c>
       <c r="E484" s="2">
-        <v>2.592843770980835</v>
+        <v>2.5919017791748047</v>
       </c>
     </row>
     <row r="485">
@@ -7477,13 +7477,13 @@
         <v>2.5440547466278076</v>
       </c>
       <c r="C485" s="2">
-        <v>2.4725298881530762</v>
+        <v>2.4743764400482178</v>
       </c>
       <c r="D485" s="2">
         <v>2.6443402767181396</v>
       </c>
       <c r="E485" s="2">
-        <v>2.5989112854003906</v>
+        <v>2.5982367992401123</v>
       </c>
     </row>
     <row r="486">
@@ -7494,13 +7494,13 @@
         <v>2.5561923980712891</v>
       </c>
       <c r="C486" s="2">
-        <v>2.4590628147125244</v>
+        <v>2.4589838981628418</v>
       </c>
       <c r="D486" s="2">
         <v>2.6657605171203613</v>
       </c>
       <c r="E486" s="2">
-        <v>2.6244792938232422</v>
+        <v>2.623668909072876</v>
       </c>
     </row>
     <row r="487">
@@ -7511,13 +7511,13 @@
         <v>2.9505648612976074</v>
       </c>
       <c r="C487" s="2">
-        <v>2.8253986835479736</v>
+        <v>2.8242092132568359</v>
       </c>
       <c r="D487" s="2">
         <v>2.6703059673309326</v>
       </c>
       <c r="E487" s="2">
-        <v>2.6378705501556397</v>
+        <v>2.6372227668762207</v>
       </c>
     </row>
     <row r="488">
@@ -7528,13 +7528,13 @@
         <v>2.5251419544219971</v>
       </c>
       <c r="C488" s="2">
-        <v>2.5743422508239746</v>
+        <v>2.5706779956817627</v>
       </c>
       <c r="D488" s="2">
         <v>2.6668796539306641</v>
       </c>
       <c r="E488" s="2">
-        <v>2.6227169036865234</v>
+        <v>2.6219098567962646</v>
       </c>
     </row>
     <row r="489">
@@ -7545,13 +7545,13 @@
         <v>3.0367288589477539</v>
       </c>
       <c r="C489" s="2">
-        <v>2.9466769695281983</v>
+        <v>2.9458761215209961</v>
       </c>
       <c r="D489" s="2">
         <v>2.6861402988433838</v>
       </c>
       <c r="E489" s="2">
-        <v>2.6472048759460449</v>
+        <v>2.6460721492767334</v>
       </c>
     </row>
     <row r="490">
@@ -7562,13 +7562,13 @@
         <v>2.7522745132446289</v>
       </c>
       <c r="C490" s="2">
-        <v>2.7754659652709961</v>
+        <v>2.7754995822906494</v>
       </c>
       <c r="D490" s="2">
         <v>2.6630902290344238</v>
       </c>
       <c r="E490" s="2">
-        <v>2.6362454891204834</v>
+        <v>2.6348607540130615</v>
       </c>
     </row>
     <row r="491">
@@ -7579,13 +7579,13 @@
         <v>2.5809698104858399</v>
       </c>
       <c r="C491" s="2">
-        <v>2.6288022994995117</v>
+        <v>2.6270256042480469</v>
       </c>
       <c r="D491" s="2">
         <v>2.6858401298522949</v>
       </c>
       <c r="E491" s="2">
-        <v>2.6708707809448242</v>
+        <v>2.6695172786712646</v>
       </c>
     </row>
     <row r="492">
@@ -7596,13 +7596,13 @@
         <v>2.5427908897399902</v>
       </c>
       <c r="C492" s="2">
-        <v>2.4336159229278564</v>
+        <v>2.4320657253265381</v>
       </c>
       <c r="D492" s="2">
         <v>2.5910727977752686</v>
       </c>
       <c r="E492" s="2">
-        <v>2.5933952331542969</v>
+        <v>2.5920982360839844</v>
       </c>
     </row>
     <row r="493">
@@ -7613,13 +7613,13 @@
         <v>2.6865453720092774</v>
       </c>
       <c r="C493" s="2">
-        <v>2.7089486122131348</v>
+        <v>2.7059357166290283</v>
       </c>
       <c r="D493" s="2">
         <v>2.5656423568725586</v>
       </c>
       <c r="E493" s="2">
-        <v>2.5669994354248047</v>
+        <v>2.5659966468811035</v>
       </c>
     </row>
     <row r="494">
@@ -7630,13 +7630,13 @@
         <v>2.3366026878356934</v>
       </c>
       <c r="C494" s="2">
-        <v>2.3738954067230225</v>
+        <v>2.3734736442565918</v>
       </c>
       <c r="D494" s="2">
         <v>2.5340976715087891</v>
       </c>
       <c r="E494" s="2">
-        <v>2.5317480564117432</v>
+        <v>2.5310304164886475</v>
       </c>
     </row>
     <row r="495">
@@ -7647,13 +7647,13 @@
         <v>2.7609415054321289</v>
       </c>
       <c r="C495" s="2">
-        <v>2.7706913948059082</v>
+        <v>2.7708923816680908</v>
       </c>
       <c r="D495" s="2">
         <v>2.5165019035339356</v>
       </c>
       <c r="E495" s="2">
-        <v>2.4949996471405029</v>
+        <v>2.4940199851989746</v>
       </c>
     </row>
     <row r="496">
@@ -7664,13 +7664,13 @@
         <v>2.0976600646972656</v>
       </c>
       <c r="C496" s="2">
-        <v>2.1281180381774902</v>
+        <v>2.1274373531341553</v>
       </c>
       <c r="D496" s="2">
         <v>2.5515782833099365</v>
       </c>
       <c r="E496" s="2">
-        <v>2.5178141593933105</v>
+        <v>2.5171968936920166</v>
       </c>
     </row>
     <row r="497">
@@ -7681,13 +7681,13 @@
         <v>2.2962672710418701</v>
       </c>
       <c r="C497" s="2">
-        <v>2.3367800712585449</v>
+        <v>2.3357629776000977</v>
       </c>
       <c r="D497" s="2">
         <v>2.5546910762786865</v>
       </c>
       <c r="E497" s="2">
-        <v>2.5414388179779053</v>
+        <v>2.5405879020690918</v>
       </c>
     </row>
     <row r="498">
@@ -7698,13 +7698,13 @@
         <v>2.7528274059295654</v>
       </c>
       <c r="C498" s="2">
-        <v>2.6294147968292236</v>
+        <v>2.6311800479888916</v>
       </c>
       <c r="D498" s="2">
         <v>2.5697212219238281</v>
       </c>
       <c r="E498" s="2">
-        <v>2.5338122844696045</v>
+        <v>2.5334651470184326</v>
       </c>
     </row>
     <row r="499">
@@ -7715,13 +7715,13 @@
         <v>2.5939116477966309</v>
       </c>
       <c r="C499" s="2">
-        <v>2.4447309970855713</v>
+        <v>2.4424059391021729</v>
       </c>
       <c r="D499" s="2">
         <v>2.5828979015350342</v>
       </c>
       <c r="E499" s="2">
-        <v>2.5357942581176758</v>
+        <v>2.5353524684906006</v>
       </c>
     </row>
     <row r="500">
@@ -7732,13 +7732,13 @@
         <v>2.896658182144165</v>
       </c>
       <c r="C500" s="2">
-        <v>2.8341312408447266</v>
+        <v>2.8356173038482666</v>
       </c>
       <c r="D500" s="2">
         <v>2.5934164524078369</v>
       </c>
       <c r="E500" s="2">
-        <v>2.5186595916748047</v>
+        <v>2.5181167125701904</v>
       </c>
     </row>
     <row r="501">
@@ -7749,13 +7749,13 @@
         <v>2.5708050727844238</v>
       </c>
       <c r="C501" s="2">
-        <v>2.6462395191192627</v>
+        <v>2.6425852775573731</v>
       </c>
       <c r="D501" s="2">
         <v>2.6256239414215088</v>
       </c>
       <c r="E501" s="2">
-        <v>2.5450220108032227</v>
+        <v>2.5445351600646973</v>
       </c>
     </row>
     <row r="502">
@@ -7766,13 +7766,13 @@
         <v>2.8218173980712891</v>
       </c>
       <c r="C502" s="2">
-        <v>2.6403098106384277</v>
+        <v>2.6418306827545166</v>
       </c>
       <c r="D502" s="2">
         <v>2.6227767467498779</v>
       </c>
       <c r="E502" s="2">
-        <v>2.5202162265777588</v>
+        <v>2.5195672512054443</v>
       </c>
     </row>
     <row r="503">
@@ -7783,13 +7783,13 @@
         <v>2.4551935195922852</v>
       </c>
       <c r="C503" s="2">
-        <v>2.3917334079742432</v>
+        <v>2.390460729598999</v>
       </c>
       <c r="D503" s="2">
         <v>2.608351469039917</v>
       </c>
       <c r="E503" s="2">
-        <v>2.5212059020996094</v>
+        <v>2.5201413631439209</v>
       </c>
     </row>
     <row r="504">
@@ -7800,13 +7800,13 @@
         <v>2.8556067943572998</v>
       </c>
       <c r="C504" s="2">
-        <v>2.6164789199829102</v>
+        <v>2.6157710552215576</v>
       </c>
       <c r="D504" s="2">
         <v>2.5827634334564209</v>
       </c>
       <c r="E504" s="2">
-        <v>2.512904167175293</v>
+        <v>2.5117967128753662</v>
       </c>
     </row>
     <row r="505">
@@ -7817,13 +7817,13 @@
         <v>2.3875288963317871</v>
       </c>
       <c r="C505" s="2">
-        <v>2.3653802871704102</v>
+        <v>2.3652019500732422</v>
       </c>
       <c r="D505" s="2">
         <v>2.5589601993560791</v>
       </c>
       <c r="E505" s="2">
-        <v>2.4946498870849609</v>
+        <v>2.4932198524475098</v>
       </c>
     </row>
     <row r="506">
@@ -7834,13 +7834,13 @@
         <v>2.2706425189971924</v>
       </c>
       <c r="C506" s="2">
-        <v>2.1135272979736328</v>
+        <v>2.1110515594482422</v>
       </c>
       <c r="D506" s="2">
         <v>2.6139340400695801</v>
       </c>
       <c r="E506" s="2">
-        <v>2.5439412593841553</v>
+        <v>2.5427994728088379</v>
       </c>
     </row>
     <row r="507">
@@ -7851,13 +7851,13 @@
         <v>2.6229984760284424</v>
       </c>
       <c r="C507" s="2">
-        <v>2.6383218765258789</v>
+        <v>2.6363470554351807</v>
       </c>
       <c r="D507" s="2">
         <v>2.5573687553405762</v>
       </c>
       <c r="E507" s="2">
-        <v>2.5187561511993408</v>
+        <v>2.5168013572692871</v>
       </c>
     </row>
     <row r="508">
@@ -7868,13 +7868,13 @@
         <v>2.3636209964752197</v>
       </c>
       <c r="C508" s="2">
-        <v>2.3700153827667236</v>
+        <v>2.3673055171966553</v>
       </c>
       <c r="D508" s="2">
         <v>2.5642008781433105</v>
       </c>
       <c r="E508" s="2">
-        <v>2.5286955833435059</v>
+        <v>2.5267374515533447</v>
       </c>
     </row>
     <row r="509">
@@ -7885,13 +7885,13 @@
         <v>2.6824285984039307</v>
       </c>
       <c r="C509" s="2">
-        <v>2.6698434352874756</v>
+        <v>2.6684238910675049</v>
       </c>
       <c r="D509" s="2">
         <v>2.5378682613372803</v>
       </c>
       <c r="E509" s="2">
-        <v>2.5428061485290527</v>
+        <v>2.5404765605926514</v>
       </c>
     </row>
     <row r="510">
@@ -7902,13 +7902,13 @@
         <v>3.0655684471130371</v>
       </c>
       <c r="C510" s="2">
-        <v>3.0898611545562744</v>
+        <v>3.0888025760650635</v>
       </c>
       <c r="D510" s="2">
         <v>2.5521366596221924</v>
       </c>
       <c r="E510" s="2">
-        <v>2.5602943897247315</v>
+        <v>2.5577938556671143</v>
       </c>
     </row>
     <row r="511">
@@ -7919,13 +7919,13 @@
         <v>2.3127312660217285</v>
       </c>
       <c r="C511" s="2">
-        <v>2.4136438369750977</v>
+        <v>2.4078481197357178</v>
       </c>
       <c r="D511" s="2">
         <v>2.6005368232727051</v>
       </c>
       <c r="E511" s="2">
-        <v>2.6167888641357422</v>
+        <v>2.6145083904266358</v>
       </c>
     </row>
     <row r="512">
@@ -7936,13 +7936,13 @@
         <v>2.5166811943054199</v>
       </c>
       <c r="C512" s="2">
-        <v>2.4811880588531494</v>
+        <v>2.4798860549926758</v>
       </c>
       <c r="D512" s="2">
         <v>2.5813901424407959</v>
       </c>
       <c r="E512" s="2">
-        <v>2.5966527462005615</v>
+        <v>2.5944614410400391</v>
       </c>
     </row>
     <row r="513">
@@ -7953,13 +7953,13 @@
         <v>2.6186144351959229</v>
       </c>
       <c r="C513" s="2">
-        <v>2.7434735298156738</v>
+        <v>2.7394218444824219</v>
       </c>
       <c r="D513" s="2">
         <v>2.6622903347015381</v>
       </c>
       <c r="E513" s="2">
-        <v>2.6800100803375244</v>
+        <v>2.6779935359954834</v>
       </c>
     </row>
     <row r="514">
@@ -7970,13 +7970,13 @@
         <v>2.5159430503845215</v>
       </c>
       <c r="C514" s="2">
-        <v>2.5227758884429932</v>
+        <v>2.5210583209991455</v>
       </c>
       <c r="D514" s="2">
         <v>2.6796371936798096</v>
       </c>
       <c r="E514" s="2">
-        <v>2.685387134552002</v>
+        <v>2.6834359169006348</v>
       </c>
     </row>
     <row r="515">
@@ -7987,13 +7987,13 @@
         <v>2.7062458992004395</v>
       </c>
       <c r="C515" s="2">
-        <v>2.6219761371612549</v>
+        <v>2.6214814186096192</v>
       </c>
       <c r="D515" s="2">
         <v>2.6662776470184326</v>
       </c>
       <c r="E515" s="2">
-        <v>2.6737864017486572</v>
+        <v>2.671912431716919</v>
       </c>
     </row>
     <row r="516">
@@ -8004,13 +8004,13 @@
         <v>2.4506778717041016</v>
       </c>
       <c r="C516" s="2">
-        <v>2.4570972919464111</v>
+        <v>2.4559247493743897</v>
       </c>
       <c r="D516" s="2">
         <v>2.7365729808807373</v>
       </c>
       <c r="E516" s="2">
-        <v>2.7256941795349121</v>
+        <v>2.7244498729705811</v>
       </c>
     </row>
     <row r="517">
@@ -8021,13 +8021,13 @@
         <v>3.0917212963104248</v>
       </c>
       <c r="C517" s="2">
-        <v>3.1202311515808105</v>
+        <v>3.1190948486328125</v>
       </c>
       <c r="D517" s="2">
         <v>2.7284095287322998</v>
       </c>
       <c r="E517" s="2">
-        <v>2.7186977863311768</v>
+        <v>2.7175769805908203</v>
       </c>
     </row>
     <row r="518">
@@ -8038,13 +8038,13 @@
         <v>2.8385505676269531</v>
       </c>
       <c r="C518" s="2">
-        <v>2.7182378768920899</v>
+        <v>2.717404842376709</v>
       </c>
       <c r="D518" s="2">
         <v>2.742429256439209</v>
       </c>
       <c r="E518" s="2">
-        <v>2.7240581512451172</v>
+        <v>2.7232203483581543</v>
       </c>
     </row>
     <row r="519">
@@ -8055,13 +8055,13 @@
         <v>2.94533371925354</v>
       </c>
       <c r="C519" s="2">
-        <v>2.9854533672332764</v>
+        <v>2.9850914478302002</v>
       </c>
       <c r="D519" s="2">
         <v>2.8440389633178711</v>
       </c>
       <c r="E519" s="2">
-        <v>2.8402268886566162</v>
+        <v>2.8393540382385254</v>
       </c>
     </row>
     <row r="520">
@@ -8072,13 +8072,13 @@
         <v>2.9453883171081543</v>
       </c>
       <c r="C520" s="2">
-        <v>2.8808143138885498</v>
+        <v>2.8806846141815186</v>
       </c>
       <c r="D520" s="2">
         <v>2.9764657020568848</v>
       </c>
       <c r="E520" s="2">
-        <v>2.946354866027832</v>
+        <v>2.94547438621521</v>
       </c>
     </row>
     <row r="521">
@@ -8089,13 +8089,13 @@
         <v>2.4432106018066406</v>
       </c>
       <c r="C521" s="2">
-        <v>2.4182200431823731</v>
+        <v>2.4180309772491455</v>
       </c>
       <c r="D521" s="2">
         <v>3.1342942714691162</v>
       </c>
       <c r="E521" s="2">
-        <v>3.0936510562896729</v>
+        <v>3.0929787158966065</v>
       </c>
     </row>
     <row r="522">
@@ -8106,13 +8106,13 @@
         <v>2.7447912693023682</v>
       </c>
       <c r="C522" s="2">
-        <v>2.7917180061340332</v>
+        <v>2.7902121543884277</v>
       </c>
       <c r="D522" s="2">
         <v>3.1873319149017334</v>
       </c>
       <c r="E522" s="2">
-        <v>3.1303040981292725</v>
+        <v>3.1297650337219238</v>
       </c>
     </row>
     <row r="523">
@@ -8123,13 +8123,13 @@
         <v>3.4304304122924805</v>
       </c>
       <c r="C523" s="2">
-        <v>3.5682947635650635</v>
+        <v>3.5662615299224854</v>
       </c>
       <c r="D523" s="2">
         <v>3.2289783954620361</v>
       </c>
       <c r="E523" s="2">
-        <v>3.1886804103851318</v>
+        <v>3.1878938674926758</v>
       </c>
     </row>
     <row r="524">
@@ -8140,13 +8140,13 @@
         <v>3.8980875015258789</v>
       </c>
       <c r="C524" s="2">
-        <v>3.5771262645721436</v>
+        <v>3.5765647888183594</v>
       </c>
       <c r="D524" s="2">
         <v>3.2866997718811035</v>
       </c>
       <c r="E524" s="2">
-        <v>3.2298433780670166</v>
+        <v>3.2289516925811768</v>
       </c>
     </row>
     <row r="525">
@@ -8157,13 +8157,13 @@
         <v>3.8711347579956055</v>
       </c>
       <c r="C525" s="2">
-        <v>3.7827627658843994</v>
+        <v>3.7834625244140625</v>
       </c>
       <c r="D525" s="2">
         <v>3.3973889350891113</v>
       </c>
       <c r="E525" s="2">
-        <v>3.3452026844024658</v>
+        <v>3.3443448543548584</v>
       </c>
     </row>
     <row r="526">
@@ -8174,13 +8174,13 @@
         <v>3.5690600872039795</v>
       </c>
       <c r="C526" s="2">
-        <v>3.4501087665557861</v>
+        <v>3.4501714706420898</v>
       </c>
       <c r="D526" s="2">
         <v>3.514833927154541</v>
       </c>
       <c r="E526" s="2">
-        <v>3.466893196105957</v>
+        <v>3.4660499095916748</v>
       </c>
     </row>
     <row r="527">
@@ -8191,13 +8191,13 @@
         <v>3.213369607925415</v>
       </c>
       <c r="C527" s="2">
-        <v>3.2436251640319824</v>
+        <v>3.2405645847320557</v>
       </c>
       <c r="D527" s="2">
         <v>3.6371064186096192</v>
       </c>
       <c r="E527" s="2">
-        <v>3.5755398273468018</v>
+        <v>3.5748422145843506</v>
       </c>
     </row>
     <row r="528">
@@ -8208,13 +8208,13 @@
         <v>3.4648256301879883</v>
       </c>
       <c r="C528" s="2">
-        <v>3.3559195995330811</v>
+        <v>3.3546125888824463</v>
       </c>
       <c r="D528" s="2">
         <v>3.6798088550567627</v>
       </c>
       <c r="E528" s="2">
-        <v>3.6023757457733154</v>
+        <v>3.6015276908874512</v>
       </c>
     </row>
     <row r="529">
@@ -8225,13 +8225,13 @@
         <v>3.9415903091430664</v>
       </c>
       <c r="C529" s="2">
-        <v>3.919048547744751</v>
+        <v>3.9192225933074951</v>
       </c>
       <c r="D529" s="2">
         <v>3.6931970119476318</v>
       </c>
       <c r="E529" s="2">
-        <v>3.6371400356292725</v>
+        <v>3.6364014148712158</v>
       </c>
     </row>
     <row r="530">
@@ -8242,13 +8242,13 @@
         <v>3.5002150535583496</v>
       </c>
       <c r="C530" s="2">
-        <v>3.5134346485137939</v>
+        <v>3.5133774280548096</v>
       </c>
       <c r="D530" s="2">
         <v>3.7167260646820068</v>
       </c>
       <c r="E530" s="2">
-        <v>3.6596462726593018</v>
+        <v>3.6589395999908447</v>
       </c>
     </row>
     <row r="531">
@@ -8259,13 +8259,13 @@
         <v>3.8452441692352295</v>
       </c>
       <c r="C531" s="2">
-        <v>3.769538402557373</v>
+        <v>3.7693417072296143</v>
       </c>
       <c r="D531" s="2">
         <v>3.8630597591400147</v>
       </c>
       <c r="E531" s="2">
-        <v>3.7949819564819336</v>
+        <v>3.7942399978637695</v>
       </c>
     </row>
     <row r="532">
@@ -8276,13 +8276,13 @@
         <v>3.814753532409668</v>
       </c>
       <c r="C532" s="2">
-        <v>3.8098170757293701</v>
+        <v>3.8064308166503906</v>
       </c>
       <c r="D532" s="2">
         <v>3.9556484222412109</v>
       </c>
       <c r="E532" s="2">
-        <v>3.8830816745758057</v>
+        <v>3.8824582099914551</v>
       </c>
     </row>
     <row r="533">
@@ -8293,13 +8293,13 @@
         <v>4.0185794830322266</v>
       </c>
       <c r="C533" s="2">
-        <v>3.8900043964385986</v>
+        <v>3.8904280662536621</v>
       </c>
       <c r="D533" s="2">
         <v>3.9714298248291016</v>
       </c>
       <c r="E533" s="2">
-        <v>3.9126183986663818</v>
+        <v>3.9119186401367188</v>
       </c>
     </row>
     <row r="534">
@@ -8310,13 +8310,13 @@
         <v>4.0828957557678223</v>
       </c>
       <c r="C534" s="2">
-        <v>3.9853200912475586</v>
+        <v>3.9863076210021973</v>
       </c>
       <c r="D534" s="2">
         <v>4.0083322525024414</v>
       </c>
       <c r="E534" s="2">
-        <v>3.9508876800537109</v>
+        <v>3.9500482082366943</v>
       </c>
     </row>
     <row r="535">
@@ -8327,13 +8327,13 @@
         <v>4.8860640525817871</v>
       </c>
       <c r="C535" s="2">
-        <v>4.6681299209594727</v>
+        <v>4.6678738594055176</v>
       </c>
       <c r="D535" s="2">
         <v>4.1091818809509277</v>
       </c>
       <c r="E535" s="2">
-        <v>4.0356554985046387</v>
+        <v>4.0346283912658692</v>
       </c>
     </row>
     <row r="536">
@@ -8344,13 +8344,13 @@
         <v>4.0466670989990234</v>
       </c>
       <c r="C536" s="2">
-        <v>4.036522388458252</v>
+        <v>4.0345301628112793</v>
       </c>
       <c r="D536" s="2">
         <v>4.1340928077697754</v>
       </c>
       <c r="E536" s="2">
-        <v>4.0671324729919434</v>
+        <v>4.0660061836242676</v>
       </c>
     </row>
     <row r="537">
@@ -8361,13 +8361,13 @@
         <v>3.6068596839904785</v>
       </c>
       <c r="C537" s="2">
-        <v>3.621751070022583</v>
+        <v>3.6197550296783447</v>
       </c>
       <c r="D537" s="2">
         <v>4.1659126281738281</v>
       </c>
       <c r="E537" s="2">
-        <v>4.078615665435791</v>
+        <v>4.0778989791870117</v>
       </c>
     </row>
     <row r="538">
@@ -8378,13 +8378,13 @@
         <v>4.2737116813659668</v>
       </c>
       <c r="C538" s="2">
-        <v>4.2634716033935547</v>
+        <v>4.26239013671875</v>
       </c>
       <c r="D538" s="2">
         <v>4.1496243476867676</v>
       </c>
       <c r="E538" s="2">
-        <v>4.0682940483093262</v>
+        <v>4.0673770904541016</v>
       </c>
     </row>
     <row r="539">
@@ -8395,13 +8395,13 @@
         <v>4.4078612327575684</v>
       </c>
       <c r="C539" s="2">
-        <v>4.2763457298278809</v>
+        <v>4.2745962142944336</v>
       </c>
       <c r="D539" s="2">
         <v>4.1836681365966797</v>
       </c>
       <c r="E539" s="2">
-        <v>4.0870175361633301</v>
+        <v>4.0857396125793457</v>
       </c>
     </row>
     <row r="540">
@@ -8412,13 +8412,13 @@
         <v>4.0694417953491211</v>
       </c>
       <c r="C540" s="2">
-        <v>4.0528316497802734</v>
+        <v>4.0517420768737793</v>
       </c>
       <c r="D540" s="2">
         <v>4.1096882820129395</v>
       </c>
       <c r="E540" s="2">
-        <v>4.0465593338012695</v>
+        <v>4.0450525283813477</v>
       </c>
     </row>
     <row r="541">
@@ -8429,13 +8429,13 @@
         <v>4.1011319160461426</v>
       </c>
       <c r="C541" s="2">
-        <v>3.9131660461425781</v>
+        <v>3.9134683609008789</v>
       </c>
       <c r="D541" s="2">
         <v>4.0478038787841797</v>
       </c>
       <c r="E541" s="2">
-        <v>3.9801223278045654</v>
+        <v>3.9788963794708252</v>
       </c>
     </row>
     <row r="542">
@@ -8446,13 +8446,13 @@
         <v>3.8719861507415771</v>
       </c>
       <c r="C542" s="2">
-        <v>3.7971079349517822</v>
+        <v>3.7957315444946289</v>
       </c>
       <c r="D542" s="2">
         <v>4.1201076507568359</v>
       </c>
       <c r="E542" s="2">
-        <v>4.0549526214599609</v>
+        <v>4.0538506507873535</v>
       </c>
     </row>
     <row r="543">
@@ -8463,13 +8463,13 @@
         <v>4.3892917633056641</v>
       </c>
       <c r="C543" s="2">
-        <v>4.1538329124450684</v>
+        <v>4.1515684127807617</v>
       </c>
       <c r="D543" s="2">
         <v>4.0656123161315918</v>
       </c>
       <c r="E543" s="2">
-        <v>3.9901390075683594</v>
+        <v>3.9890925884246826</v>
       </c>
     </row>
     <row r="544">
@@ -8480,13 +8480,13 @@
         <v>4.2202444076538086</v>
       </c>
       <c r="C544" s="2">
-        <v>4.3040041923522949</v>
+        <v>4.3016915321350098</v>
       </c>
       <c r="D544" s="2">
         <v>4.0455965995788574</v>
       </c>
       <c r="E544" s="2">
-        <v>3.9821388721466065</v>
+        <v>3.9813621044158936</v>
       </c>
     </row>
     <row r="545">
@@ -8497,13 +8497,13 @@
         <v>3.4897079467773438</v>
       </c>
       <c r="C545" s="2">
-        <v>3.4385900497436524</v>
+        <v>3.4391241073608398</v>
       </c>
       <c r="D545" s="2">
         <v>4.0015368461608887</v>
       </c>
       <c r="E545" s="2">
-        <v>3.9379415512084961</v>
+        <v>3.9370768070220947</v>
       </c>
     </row>
     <row r="546">
@@ -8514,13 +8514,13 @@
         <v>4.257591724395752</v>
       </c>
       <c r="C546" s="2">
-        <v>4.295222282409668</v>
+        <v>4.294344425201416</v>
       </c>
       <c r="D546" s="2">
         <v>3.9736373424530029</v>
       </c>
       <c r="E546" s="2">
-        <v>3.9367556571960449</v>
+        <v>3.935884952545166</v>
       </c>
     </row>
     <row r="547">
@@ -8531,13 +8531,13 @@
         <v>3.7832555770874023</v>
       </c>
       <c r="C547" s="2">
-        <v>3.6801497936248779</v>
+        <v>3.6795670986175537</v>
       </c>
       <c r="D547" s="2">
         <v>3.9578354358673096</v>
       </c>
       <c r="E547" s="2">
-        <v>3.9252021312713623</v>
+        <v>3.9246551990509033</v>
       </c>
     </row>
     <row r="548">
@@ -8548,13 +8548,13 @@
         <v>4.2277169227600098</v>
       </c>
       <c r="C548" s="2">
-        <v>4.2043442726135254</v>
+        <v>4.2050204277038574</v>
       </c>
       <c r="D548" s="2">
         <v>3.9201803207397461</v>
       </c>
       <c r="E548" s="2">
-        <v>3.9064621925354004</v>
+        <v>3.9058566093444824</v>
       </c>
     </row>
     <row r="549">
@@ -8565,13 +8565,13 @@
         <v>3.6729066371917725</v>
       </c>
       <c r="C549" s="2">
-        <v>3.6550559997558594</v>
+        <v>3.6531760692596436</v>
       </c>
       <c r="D549" s="2">
         <v>3.8609051704406738</v>
       </c>
       <c r="E549" s="2">
-        <v>3.8399336338043213</v>
+        <v>3.8393352031707764</v>
       </c>
     </row>
     <row r="550">
@@ -8582,13 +8582,13 @@
         <v>3.8500359058380127</v>
       </c>
       <c r="C550" s="2">
-        <v>3.9024944305419922</v>
+        <v>3.9027414321899414</v>
       </c>
       <c r="D550" s="2">
         <v>3.9055280685424805</v>
       </c>
       <c r="E550" s="2">
-        <v>3.8943595886230469</v>
+        <v>3.89361572265625</v>
       </c>
     </row>
     <row r="551">
@@ -8599,13 +8599,13 @@
         <v>3.7297689914703369</v>
       </c>
       <c r="C551" s="2">
-        <v>3.6931250095367432</v>
+        <v>3.6946630477905274</v>
       </c>
       <c r="D551" s="2">
         <v>3.8611819744110107</v>
       </c>
       <c r="E551" s="2">
-        <v>3.8513138294219971</v>
+        <v>3.8507461547851563</v>
       </c>
     </row>
     <row r="552">
@@ -8616,13 +8616,13 @@
         <v>4.0503945350646973</v>
       </c>
       <c r="C552" s="2">
-        <v>3.9851737022399902</v>
+        <v>3.9823818206787109</v>
       </c>
       <c r="D552" s="2">
         <v>3.827488899230957</v>
       </c>
       <c r="E552" s="2">
-        <v>3.816960334777832</v>
+        <v>3.8164932727813721</v>
       </c>
     </row>
     <row r="553">
@@ -8633,13 +8633,13 @@
         <v>3.6867685317993164</v>
       </c>
       <c r="C553" s="2">
-        <v>3.7052462100982666</v>
+        <v>3.7029976844787598</v>
       </c>
       <c r="D553" s="2">
         <v>3.7690713405609131</v>
       </c>
       <c r="E553" s="2">
-        <v>3.7361483573913574</v>
+        <v>3.7356350421905518</v>
       </c>
     </row>
     <row r="554">
@@ -8650,13 +8650,13 @@
         <v>3.8913142681121826</v>
       </c>
       <c r="C554" s="2">
-        <v>3.9284238815307617</v>
+        <v>3.927649974822998</v>
       </c>
       <c r="D554" s="2">
         <v>3.8388018608093262</v>
       </c>
       <c r="E554" s="2">
-        <v>3.784496545791626</v>
+        <v>3.7840962409973145</v>
       </c>
     </row>
     <row r="555">
@@ -8667,13 +8667,13 @@
         <v>3.8584771156311035</v>
       </c>
       <c r="C555" s="2">
-        <v>3.9078116416931152</v>
+        <v>3.9085173606872559</v>
       </c>
       <c r="D555" s="2">
         <v>3.9248607158660889</v>
       </c>
       <c r="E555" s="2">
-        <v>3.8585619926452637</v>
+        <v>3.85825514793396</v>
       </c>
     </row>
     <row r="556">
@@ -8684,13 +8684,13 @@
         <v>3.4800169467926025</v>
       </c>
       <c r="C556" s="2">
-        <v>3.3709673881530762</v>
+        <v>3.3712925910949707</v>
       </c>
       <c r="D556" s="2">
         <v>4.0792217254638672</v>
       </c>
       <c r="E556" s="2">
-        <v>3.9802317619323731</v>
+        <v>3.9798226356506348</v>
       </c>
     </row>
     <row r="557">
@@ -8701,13 +8701,13 @@
         <v>3.7019596099853516</v>
       </c>
       <c r="C557" s="2">
-        <v>3.477036714553833</v>
+        <v>3.4772961139678955</v>
       </c>
       <c r="D557" s="2">
         <v>4.1505126953125</v>
       </c>
       <c r="E557" s="2">
-        <v>4.0423555374145508</v>
+        <v>4.0423688888549805</v>
       </c>
     </row>
     <row r="558">
@@ -8718,13 +8718,13 @@
         <v>4.3004803657531738</v>
       </c>
       <c r="C558" s="2">
-        <v>4.0901894569396973</v>
+        <v>4.0893268585205078</v>
       </c>
       <c r="D558" s="2">
-        <v>4.2084808349609375</v>
+        <v>4.2734236717224121</v>
       </c>
       <c r="E558" s="2">
-        <v>4.0844945907592774</v>
+        <v>4.1571874618530273</v>
       </c>
     </row>
     <row r="559">
@@ -8735,13 +8735,13 @@
         <v>4.6245660781860352</v>
       </c>
       <c r="C559" s="2">
-        <v>4.569084644317627</v>
+        <v>4.5701699256896973</v>
       </c>
       <c r="D559" s="2">
-        <v>4.2537903785705567</v>
+        <v>4.3957571983337402</v>
       </c>
       <c r="E559" s="2">
-        <v>4.1067900657653809</v>
+        <v>4.294133186340332</v>
       </c>
     </row>
     <row r="560">
@@ -8752,13 +8752,13 @@
         <v>5.1190185546875</v>
       </c>
       <c r="C560" s="2">
-        <v>4.788151741027832</v>
+        <v>4.7887706756591797</v>
       </c>
       <c r="D560" s="2">
-        <v>4.3196759223937988</v>
+        <v>4.590519905090332</v>
       </c>
       <c r="E560" s="2">
-        <v>4.1399531364440918</v>
+        <v>4.4570074081420898</v>
       </c>
     </row>
     <row r="561">
@@ -8769,13 +8769,115 @@
         <v>4.6920127868652344</v>
       </c>
       <c r="C561" s="2">
-        <v>4.5442900657653809</v>
+        <v>4.5452976226806641</v>
       </c>
       <c r="D561" s="2">
-        <v>4.487607479095459</v>
+        <v>4.8457164764404297</v>
       </c>
       <c r="E561" s="2">
-        <v>4.2937507629394531</v>
+        <v>4.720789909362793</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B562" s="2">
+        <v>4.7929677963256836</v>
+      </c>
+      <c r="C562" s="2">
+        <v>4.7363667488098145</v>
+      </c>
+      <c r="D562" s="2">
+        <v>5.0053172111511231</v>
+      </c>
+      <c r="E562" s="2">
+        <v>4.8897662162780762</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B563" s="2">
+        <v>4.992314338684082</v>
+      </c>
+      <c r="C563" s="2">
+        <v>5.1601614952087402</v>
+      </c>
+      <c r="D563" s="2">
+        <v>5.2087035179138184</v>
+      </c>
+      <c r="E563" s="2">
+        <v>5.1111617088317871</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B564" s="2">
+        <v>5.6113433837890625</v>
+      </c>
+      <c r="C564" s="2">
+        <v>5.3743853569030762</v>
+      </c>
+      <c r="D564" s="2">
+        <v>5.2817206382751465</v>
+      </c>
+      <c r="E564" s="2">
+        <v>5.1787858009338379</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B565" s="2">
+        <v>5.776787281036377</v>
+      </c>
+      <c r="C565" s="2">
+        <v>5.745333194732666</v>
+      </c>
+      <c r="D565" s="2">
+        <v>5.3049640655517578</v>
+      </c>
+      <c r="E565" s="2">
+        <v>5.2345023155212402</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B566" s="2">
+        <v>5.138364315032959</v>
+      </c>
+      <c r="C566" s="2">
+        <v>4.9980845451354981</v>
+      </c>
+      <c r="D566" s="2">
+        <v>5.4071226119995117</v>
+      </c>
+      <c r="E566" s="2">
+        <v>5.349370002746582</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B567" s="2">
+        <v>6.1309576034545898</v>
+      </c>
+      <c r="C567" s="2">
+        <v>6.0818872451782227</v>
+      </c>
+      <c r="D567" s="2">
+        <v>5.5299534797668457</v>
+      </c>
+      <c r="E567" s="2">
+        <v>5.4719705581665039</v>
       </c>
     </row>
   </sheetData>

--- a/MSC_stdev_lt.xlsx
+++ b/MSC_stdev_lt.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E567"/>
+  <dimension ref="A1:E569"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -223,13 +223,13 @@
         <v>4.1788797378540039</v>
       </c>
       <c r="C15" s="2">
-        <v>4.1873559951782227</v>
+        <v>4.1878609657287598</v>
       </c>
       <c r="D15" s="2">
         <v>4.1788797378540039</v>
       </c>
       <c r="E15" s="2">
-        <v>4.1873559951782227</v>
+        <v>4.1878609657287598</v>
       </c>
     </row>
     <row r="16">
@@ -339,13 +339,13 @@
         <v>6.1115078926086426</v>
       </c>
       <c r="C27" s="2">
-        <v>6.1374707221984863</v>
+        <v>6.1378183364868164</v>
       </c>
       <c r="D27" s="2">
         <v>6.1115078926086426</v>
       </c>
       <c r="E27" s="2">
-        <v>6.1374707221984863</v>
+        <v>6.1378183364868164</v>
       </c>
     </row>
     <row r="28">
@@ -401,13 +401,13 @@
         <v>5.7580242156982422</v>
       </c>
       <c r="C33" s="2">
-        <v>5.9081392288208008</v>
+        <v>5.908879280090332</v>
       </c>
       <c r="D33" s="2">
         <v>5.8651628494262695</v>
       </c>
       <c r="E33" s="2">
-        <v>5.9047479629516602</v>
+        <v>5.9052715301513672</v>
       </c>
     </row>
     <row r="34">
@@ -418,13 +418,13 @@
         <v>5.9723010063171387</v>
       </c>
       <c r="C34" s="2">
-        <v>5.9013571739196777</v>
+        <v>5.9016642570495605</v>
       </c>
       <c r="D34" s="2">
         <v>5.9284567832946777</v>
       </c>
       <c r="E34" s="2">
-        <v>5.9277496337890625</v>
+        <v>5.9282093048095703</v>
       </c>
     </row>
     <row r="35">
@@ -459,16 +459,16 @@
         <v>29587</v>
       </c>
       <c r="B38" s="2">
-        <v>6.0550446510314942</v>
+        <v>6.0550446510314941</v>
       </c>
       <c r="C38" s="2">
-        <v>5.973752498626709</v>
+        <v>5.9740843772888184</v>
       </c>
       <c r="D38" s="2">
         <v>5.9516944885253906</v>
       </c>
       <c r="E38" s="2">
-        <v>5.8535518646240234</v>
+        <v>5.8538951873779297</v>
       </c>
     </row>
     <row r="39">
@@ -479,13 +479,13 @@
         <v>5.4729719161987305</v>
       </c>
       <c r="C39" s="2">
-        <v>5.3171401023864746</v>
+        <v>5.3173108100891113</v>
       </c>
       <c r="D39" s="2">
         <v>5.9448256492614746</v>
       </c>
       <c r="E39" s="2">
-        <v>5.8376169204711914</v>
+        <v>5.8379721641540527</v>
       </c>
     </row>
     <row r="40">
@@ -496,13 +496,13 @@
         <v>6.306459903717041</v>
       </c>
       <c r="C40" s="2">
-        <v>6.2219581604003906</v>
+        <v>6.2225213050842285</v>
       </c>
       <c r="D40" s="2">
         <v>5.9566988945007324</v>
       </c>
       <c r="E40" s="2">
-        <v>5.8943295478820801</v>
+        <v>5.8947439193725586</v>
       </c>
     </row>
     <row r="41">
@@ -540,13 +540,13 @@
         <v>5.9923186302185059</v>
       </c>
       <c r="C44" s="2">
-        <v>6.0644669532775879</v>
+        <v>6.065058708190918</v>
       </c>
       <c r="D44" s="2">
         <v>6.1459627151489258</v>
       </c>
       <c r="E44" s="2">
-        <v>6.1213293075561523</v>
+        <v>6.1218180656433105</v>
       </c>
     </row>
     <row r="45">
@@ -557,13 +557,13 @@
         <v>6.0672760009765625</v>
       </c>
       <c r="C45" s="2">
-        <v>5.9380869865417481</v>
+        <v>5.9382591247558594</v>
       </c>
       <c r="D45" s="2">
         <v>6.0924639701843262</v>
       </c>
       <c r="E45" s="2">
-        <v>6.0877866744995117</v>
+        <v>6.0882501602172852</v>
       </c>
     </row>
     <row r="46">
@@ -574,13 +574,13 @@
         <v>6.2177972793579102</v>
       </c>
       <c r="C46" s="2">
-        <v>6.2608060836791992</v>
+        <v>6.2614331245422363</v>
       </c>
       <c r="D46" s="2">
         <v>5.9169168472290039</v>
       </c>
       <c r="E46" s="2">
-        <v>5.8943061828613281</v>
+        <v>5.8947548866271973</v>
       </c>
     </row>
     <row r="47">
@@ -618,13 +618,13 @@
         <v>5.3902754783630371</v>
       </c>
       <c r="C50" s="2">
-        <v>5.3138642311096192</v>
+        <v>5.3142685890197754</v>
       </c>
       <c r="D50" s="2">
         <v>5.8341712951660156</v>
       </c>
       <c r="E50" s="2">
-        <v>5.7842674255371094</v>
+        <v>5.7847247123718262</v>
       </c>
     </row>
     <row r="51">
@@ -632,16 +632,16 @@
         <v>29983</v>
       </c>
       <c r="B51" s="2">
-        <v>5.9486303329467774</v>
+        <v>5.9486303329467773</v>
       </c>
       <c r="C51" s="2">
-        <v>5.8902497291564941</v>
+        <v>5.8905973434448242</v>
       </c>
       <c r="D51" s="2">
         <v>5.7062959671020508</v>
       </c>
       <c r="E51" s="2">
-        <v>5.6254210472106934</v>
+        <v>5.625821590423584</v>
       </c>
     </row>
     <row r="52">
@@ -652,13 +652,13 @@
         <v>5.7799816131591797</v>
       </c>
       <c r="C52" s="2">
-        <v>5.672149658203125</v>
+        <v>5.6725993156433105</v>
       </c>
       <c r="D52" s="2">
         <v>5.6263575553894043</v>
       </c>
       <c r="E52" s="2">
-        <v>5.5692157745361328</v>
+        <v>5.5696134567260742</v>
       </c>
     </row>
     <row r="53">
@@ -693,16 +693,16 @@
         <v>30133</v>
       </c>
       <c r="B56" s="2">
-        <v>5.3865432739257813</v>
+        <v>5.3865432739257812</v>
       </c>
       <c r="C56" s="2">
-        <v>5.4005985260009766</v>
+        <v>5.4009895324707031</v>
       </c>
       <c r="D56" s="2">
         <v>5.6400809288024902</v>
       </c>
       <c r="E56" s="2">
-        <v>5.565147876739502</v>
+        <v>5.5655379295349121</v>
       </c>
     </row>
     <row r="57">
@@ -713,13 +713,13 @@
         <v>5.5564494132995605</v>
       </c>
       <c r="C57" s="2">
-        <v>5.5808587074279785</v>
+        <v>5.5814008712768555</v>
       </c>
       <c r="D57" s="2">
         <v>5.5934476852416992</v>
       </c>
       <c r="E57" s="2">
-        <v>5.5294804573059082</v>
+        <v>5.529850959777832</v>
       </c>
     </row>
     <row r="58">
@@ -730,13 +730,13 @@
         <v>5.8373498916625977</v>
       </c>
       <c r="C58" s="2">
-        <v>5.6069846153259277</v>
+        <v>5.6071624755859375</v>
       </c>
       <c r="D58" s="2">
         <v>5.580876350402832</v>
       </c>
       <c r="E58" s="2">
-        <v>5.530430793762207</v>
+        <v>5.5307254791259766</v>
       </c>
     </row>
     <row r="59">
@@ -774,13 +774,13 @@
         <v>5.5431632995605469</v>
       </c>
       <c r="C62" s="2">
-        <v>5.5332808494567871</v>
+        <v>5.5333495140075684</v>
       </c>
       <c r="D62" s="2">
         <v>5.5256805419921875</v>
       </c>
       <c r="E62" s="2">
-        <v>5.3988409042358399</v>
+        <v>5.3989272117614746</v>
       </c>
     </row>
     <row r="63">
@@ -791,13 +791,13 @@
         <v>5.6156759262084961</v>
       </c>
       <c r="C63" s="2">
-        <v>5.4376769065856934</v>
+        <v>5.4378347396850586</v>
       </c>
       <c r="D63" s="2">
         <v>5.421790599822998</v>
       </c>
       <c r="E63" s="2">
-        <v>5.3294596672058106</v>
+        <v>5.3295154571533203</v>
       </c>
     </row>
     <row r="64">
@@ -808,13 +808,13 @@
         <v>5.1065330505371094</v>
       </c>
       <c r="C64" s="2">
-        <v>5.0174212455749512</v>
+        <v>5.0173625946044922</v>
       </c>
       <c r="D64" s="2">
         <v>5.3345050811767578</v>
       </c>
       <c r="E64" s="2">
-        <v>5.2466211318969727</v>
+        <v>5.2467041015625</v>
       </c>
     </row>
     <row r="65">
@@ -852,13 +852,13 @@
         <v>5.0726470947265625</v>
       </c>
       <c r="C68" s="2">
-        <v>4.998105525970459</v>
+        <v>4.9982705116271973</v>
       </c>
       <c r="D68" s="2">
         <v>5.0970463752746582</v>
       </c>
       <c r="E68" s="2">
-        <v>5.0725011825561523</v>
+        <v>5.0724163055419922</v>
       </c>
     </row>
     <row r="69">
@@ -869,13 +869,13 @@
         <v>4.991325855255127</v>
       </c>
       <c r="C69" s="2">
-        <v>5.0341496467590332</v>
+        <v>5.0341448783874512</v>
       </c>
       <c r="D69" s="2">
         <v>5.0938844680786133</v>
       </c>
       <c r="E69" s="2">
-        <v>5.0908608436584473</v>
+        <v>5.0907678604125977</v>
       </c>
     </row>
     <row r="70">
@@ -886,13 +886,13 @@
         <v>5.2176799774169922</v>
       </c>
       <c r="C70" s="2">
-        <v>5.2403273582458496</v>
+        <v>5.2398881912231445</v>
       </c>
       <c r="D70" s="2">
         <v>4.9554963111877441</v>
       </c>
       <c r="E70" s="2">
-        <v>4.9433536529541016</v>
+        <v>4.9433250427246094</v>
       </c>
     </row>
     <row r="71">
@@ -930,13 +930,13 @@
         <v>4.5403318405151367</v>
       </c>
       <c r="C74" s="2">
-        <v>4.5008311271667481</v>
+        <v>4.5009965896606445</v>
       </c>
       <c r="D74" s="2">
         <v>4.8358821868896484</v>
       </c>
       <c r="E74" s="2">
-        <v>4.7993259429931641</v>
+        <v>4.7992544174194336</v>
       </c>
     </row>
     <row r="75">
@@ -947,13 +947,13 @@
         <v>4.6630620956420898</v>
       </c>
       <c r="C75" s="2">
-        <v>4.5695781707763672</v>
+        <v>4.5694117546081543</v>
       </c>
       <c r="D75" s="2">
         <v>4.7086162567138672</v>
       </c>
       <c r="E75" s="2">
-        <v>4.6523256301879883</v>
+        <v>4.6523761749267578</v>
       </c>
     </row>
     <row r="76">
@@ -964,13 +964,13 @@
         <v>4.922454833984375</v>
       </c>
       <c r="C76" s="2">
-        <v>4.8865671157836914</v>
+        <v>4.8867206573486328</v>
       </c>
       <c r="D76" s="2">
         <v>4.8247361183166504</v>
       </c>
       <c r="E76" s="2">
-        <v>4.802617073059082</v>
+        <v>4.8026409149169922</v>
       </c>
     </row>
     <row r="77">
@@ -1008,13 +1008,13 @@
         <v>5.173095703125</v>
       </c>
       <c r="C80" s="2">
-        <v>5.2534923553466797</v>
+        <v>5.2534341812133789</v>
       </c>
       <c r="D80" s="2">
         <v>4.7965712547302246</v>
       </c>
       <c r="E80" s="2">
-        <v>4.7713809013366699</v>
+        <v>4.7713065147399902</v>
       </c>
     </row>
     <row r="81">
@@ -1025,13 +1025,13 @@
         <v>4.6439208984375</v>
       </c>
       <c r="C81" s="2">
-        <v>4.5654807090759277</v>
+        <v>4.5649881362915039</v>
       </c>
       <c r="D81" s="2">
         <v>4.7546100616455078</v>
       </c>
       <c r="E81" s="2">
-        <v>4.7329854965209961</v>
+        <v>4.7328352928161621</v>
       </c>
     </row>
     <row r="82">
@@ -1042,13 +1042,13 @@
         <v>4.4468135833740234</v>
       </c>
       <c r="C82" s="2">
-        <v>4.3799834251403809</v>
+        <v>4.3800835609436035</v>
       </c>
       <c r="D82" s="2">
         <v>4.757075309753418</v>
       </c>
       <c r="E82" s="2">
-        <v>4.713170051574707</v>
+        <v>4.713047981262207</v>
       </c>
     </row>
     <row r="83">
@@ -1086,13 +1086,13 @@
         <v>4.7644710540771484</v>
       </c>
       <c r="C86" s="2">
-        <v>4.6537246704101563</v>
+        <v>4.6536855697631836</v>
       </c>
       <c r="D86" s="2">
         <v>4.815241813659668</v>
       </c>
       <c r="E86" s="2">
-        <v>4.7348017692565918</v>
+        <v>4.7348203659057617</v>
       </c>
     </row>
     <row r="87">
@@ -1103,13 +1103,13 @@
         <v>4.888249397277832</v>
       </c>
       <c r="C87" s="2">
-        <v>4.8116722106933594</v>
+        <v>4.811887264251709</v>
       </c>
       <c r="D87" s="2">
         <v>4.9380512237548828</v>
       </c>
       <c r="E87" s="2">
-        <v>4.8530745506286621</v>
+        <v>4.8530664443969727</v>
       </c>
     </row>
     <row r="88">
@@ -1120,13 +1120,13 @@
         <v>5.1614327430725098</v>
       </c>
       <c r="C88" s="2">
-        <v>5.0938262939453125</v>
+        <v>5.0936260223388672</v>
       </c>
       <c r="D88" s="2">
         <v>4.8513517379760742</v>
       </c>
       <c r="E88" s="2">
-        <v>4.7518224716186523</v>
+        <v>4.7517871856689453</v>
       </c>
     </row>
     <row r="89">
@@ -1164,13 +1164,13 @@
         <v>4.5912532806396484</v>
       </c>
       <c r="C92" s="2">
-        <v>4.4480657577514649</v>
+        <v>4.4479494094848633</v>
       </c>
       <c r="D92" s="2">
         <v>4.6403255462646484</v>
       </c>
       <c r="E92" s="2">
-        <v>4.5828871726989746</v>
+        <v>4.5827727317810059</v>
       </c>
     </row>
     <row r="93">
@@ -1181,13 +1181,13 @@
         <v>4.1453595161437988</v>
       </c>
       <c r="C93" s="2">
-        <v>4.1630764007568359</v>
+        <v>4.1632308959960938</v>
       </c>
       <c r="D93" s="2">
         <v>4.4666228294372559</v>
       </c>
       <c r="E93" s="2">
-        <v>4.412574291229248</v>
+        <v>4.4124884605407715</v>
       </c>
     </row>
     <row r="94">
@@ -1198,13 +1198,13 @@
         <v>4.6632556915283203</v>
       </c>
       <c r="C94" s="2">
-        <v>4.6265802383422852</v>
+        <v>4.6262845993041992</v>
       </c>
       <c r="D94" s="2">
         <v>4.4666228294372559</v>
       </c>
       <c r="E94" s="2">
-        <v>4.412574291229248</v>
+        <v>4.4124884605407715</v>
       </c>
     </row>
     <row r="95">
@@ -1260,13 +1260,13 @@
         <v>4.4021458625793457</v>
       </c>
       <c r="C100" s="2">
-        <v>4.1622552871704102</v>
+        <v>4.1623001098632812</v>
       </c>
       <c r="D100" s="2">
         <v>4.1503567695617676</v>
       </c>
       <c r="E100" s="2">
-        <v>3.959226131439209</v>
+        <v>3.9591379165649414</v>
       </c>
     </row>
     <row r="101">
@@ -1295,13 +1295,13 @@
         <v>3.8985676765441895</v>
       </c>
       <c r="C103" s="2">
-        <v>3.7561967372894287</v>
+        <v>3.7559754848480225</v>
       </c>
       <c r="D103" s="2">
         <v>4.0395383834838867</v>
       </c>
       <c r="E103" s="2">
-        <v>3.907174825668335</v>
+        <v>3.9068701267242432</v>
       </c>
     </row>
     <row r="104">
@@ -1330,13 +1330,13 @@
         <v>3.8179013729095459</v>
       </c>
       <c r="C106" s="2">
-        <v>3.8030722141265869</v>
+        <v>3.8023347854614258</v>
       </c>
       <c r="D106" s="2">
         <v>4.0753483772277832</v>
       </c>
       <c r="E106" s="2">
-        <v>4.0164556503295898</v>
+        <v>4.0159292221069336</v>
       </c>
     </row>
     <row r="107">
@@ -1365,13 +1365,13 @@
         <v>4.5095758438110352</v>
       </c>
       <c r="C109" s="2">
-        <v>4.4900979995727539</v>
+        <v>4.4894776344299316</v>
       </c>
       <c r="D109" s="2">
         <v>4.1512641906738281</v>
       </c>
       <c r="E109" s="2">
-        <v>4.0794715881347656</v>
+        <v>4.0789790153503418</v>
       </c>
     </row>
     <row r="110">
@@ -1400,13 +1400,13 @@
         <v>4.1263151168823242</v>
       </c>
       <c r="C112" s="2">
-        <v>3.945244312286377</v>
+        <v>3.945124626159668</v>
       </c>
       <c r="D112" s="2">
         <v>4.3904008865356445</v>
       </c>
       <c r="E112" s="2">
-        <v>4.3288702964782715</v>
+        <v>4.3284130096435547</v>
       </c>
     </row>
     <row r="113">
@@ -1435,13 +1435,13 @@
         <v>4.5353116989135742</v>
       </c>
       <c r="C115" s="2">
-        <v>4.5512690544128418</v>
+        <v>4.5506367683410645</v>
       </c>
       <c r="D115" s="2">
         <v>3.9998931884765625</v>
       </c>
       <c r="E115" s="2">
-        <v>3.9517018795013428</v>
+        <v>3.9512410163879395</v>
       </c>
     </row>
     <row r="116">
@@ -1470,13 +1470,13 @@
         <v>3.3380529880523682</v>
       </c>
       <c r="C118" s="2">
-        <v>3.3585925102233887</v>
+        <v>3.3579614162445068</v>
       </c>
       <c r="D118" s="2">
         <v>4.2668075561523438</v>
       </c>
       <c r="E118" s="2">
-        <v>4.3046784400939942</v>
+        <v>4.3041377067565918</v>
       </c>
     </row>
     <row r="119">
@@ -1505,13 +1505,13 @@
         <v>4.9270586967468262</v>
       </c>
       <c r="C121" s="2">
-        <v>5.0041732788085938</v>
+        <v>5.0038151741027832</v>
       </c>
       <c r="D121" s="2">
         <v>4.1325559616088867</v>
       </c>
       <c r="E121" s="2">
-        <v>4.1813831329345703</v>
+        <v>4.1808881759643555</v>
       </c>
     </row>
     <row r="122">
@@ -1765,13 +1765,13 @@
         <v>4.0407509803771973</v>
       </c>
       <c r="C149" s="2">
-        <v>4.0191655158996582</v>
+        <v>4.0184760093688965</v>
       </c>
       <c r="D149" s="2">
         <v>3.9090104103088379</v>
       </c>
       <c r="E149" s="2">
-        <v>3.9081907272338867</v>
+        <v>3.9077436923980713</v>
       </c>
     </row>
     <row r="150">
@@ -1782,13 +1782,13 @@
         <v>3.6292774677276611</v>
       </c>
       <c r="C150" s="2">
-        <v>3.6043658256530762</v>
+        <v>3.6038060188293457</v>
       </c>
       <c r="D150" s="2">
         <v>3.974285364151001</v>
       </c>
       <c r="E150" s="2">
-        <v>3.9655318260192871</v>
+        <v>3.965116024017334</v>
       </c>
     </row>
     <row r="151">
@@ -1796,16 +1796,16 @@
         <v>33025</v>
       </c>
       <c r="B151" s="2">
-        <v>4.0736160278320313</v>
+        <v>4.0736160278320312</v>
       </c>
       <c r="C151" s="2">
-        <v>4.0398931503295898</v>
+        <v>4.039647102355957</v>
       </c>
       <c r="D151" s="2">
         <v>3.9965953826904297</v>
       </c>
       <c r="E151" s="2">
-        <v>3.9806067943572998</v>
+        <v>3.9802112579345703</v>
       </c>
     </row>
     <row r="152">
@@ -1816,13 +1816,13 @@
         <v>4.0311360359191895</v>
       </c>
       <c r="C152" s="2">
-        <v>4.0819525718688965</v>
+        <v>4.0811896324157715</v>
       </c>
       <c r="D152" s="2">
         <v>4.0567965507507324</v>
       </c>
       <c r="E152" s="2">
-        <v>4.0252804756164551</v>
+        <v>4.0248847007751465</v>
       </c>
     </row>
     <row r="153">
@@ -1833,13 +1833,13 @@
         <v>3.7702715396881104</v>
       </c>
       <c r="C153" s="2">
-        <v>3.7955765724182129</v>
+        <v>3.7956001758575439</v>
       </c>
       <c r="D153" s="2">
         <v>4.0978078842163086</v>
       </c>
       <c r="E153" s="2">
-        <v>4.0629281997680664</v>
+        <v>4.0625333786010742</v>
       </c>
     </row>
     <row r="154">
@@ -1850,13 +1850,13 @@
         <v>4.3006601333618164</v>
       </c>
       <c r="C154" s="2">
-        <v>4.2522373199462891</v>
+        <v>4.2519769668579102</v>
       </c>
       <c r="D154" s="2">
-        <v>4.1319494247436524</v>
+        <v>4.1319494247436523</v>
       </c>
       <c r="E154" s="2">
-        <v>4.060305118560791</v>
+        <v>4.0599889755249023</v>
       </c>
     </row>
     <row r="155">
@@ -1867,13 +1867,13 @@
         <v>4.130455493927002</v>
       </c>
       <c r="C155" s="2">
-        <v>4.0710558891296387</v>
+        <v>4.0707831382751465</v>
       </c>
       <c r="D155" s="2">
         <v>4.1520943641662598</v>
       </c>
       <c r="E155" s="2">
-        <v>4.0789966583251953</v>
+        <v>4.0786828994750977</v>
       </c>
     </row>
     <row r="156">
@@ -1884,13 +1884,13 @@
         <v>4.478203296661377</v>
       </c>
       <c r="C156" s="2">
-        <v>4.3379960060119629</v>
+        <v>4.3375992774963379</v>
       </c>
       <c r="D156" s="2">
         <v>4.1483449935913086</v>
       </c>
       <c r="E156" s="2">
-        <v>4.0673346519470215</v>
+        <v>4.0669960975646973</v>
       </c>
     </row>
     <row r="157">
@@ -1901,13 +1901,13 @@
         <v>4.425900936126709</v>
       </c>
       <c r="C157" s="2">
-        <v>4.3641104698181152</v>
+        <v>4.3637237548828125</v>
       </c>
       <c r="D157" s="2">
         <v>4.1562228202819824</v>
       </c>
       <c r="E157" s="2">
-        <v>4.0647034645080567</v>
+        <v>4.0643477439880371</v>
       </c>
     </row>
     <row r="158">
@@ -1918,13 +1918,13 @@
         <v>4.3480219841003418</v>
       </c>
       <c r="C158" s="2">
-        <v>3.9955594539642334</v>
+        <v>3.9955751895904541</v>
       </c>
       <c r="D158" s="2">
         <v>4.1692380905151367</v>
       </c>
       <c r="E158" s="2">
-        <v>4.0674314498901367</v>
+        <v>4.0669608116149902</v>
       </c>
     </row>
     <row r="159">
@@ -1932,16 +1932,16 @@
         <v>33270</v>
       </c>
       <c r="B159" s="2">
-        <v>3.8105847835540772</v>
+        <v>3.8105847835540771</v>
       </c>
       <c r="C159" s="2">
-        <v>3.7725901603698731</v>
+        <v>3.7720513343811035</v>
       </c>
       <c r="D159" s="2">
         <v>4.0699191093444824</v>
       </c>
       <c r="E159" s="2">
-        <v>3.979081392288208</v>
+        <v>3.978524923324585</v>
       </c>
     </row>
     <row r="160">
@@ -1952,13 +1952,13 @@
         <v>4.0398716926574707</v>
       </c>
       <c r="C160" s="2">
-        <v>3.9349336624145508</v>
+        <v>3.9344663619995117</v>
       </c>
       <c r="D160" s="2">
         <v>3.9994978904724121</v>
       </c>
       <c r="E160" s="2">
-        <v>3.9095771312713623</v>
+        <v>3.9089846611022949</v>
       </c>
     </row>
     <row r="161">
@@ -1969,13 +1969,13 @@
         <v>4.1020364761352539</v>
       </c>
       <c r="C161" s="2">
-        <v>4.0582733154296875</v>
+        <v>4.0573525428771973</v>
       </c>
       <c r="D161" s="2">
         <v>3.8941307067871094</v>
       </c>
       <c r="E161" s="2">
-        <v>3.8224124908447266</v>
+        <v>3.8217494487762451</v>
       </c>
     </row>
     <row r="162">
@@ -1986,13 +1986,13 @@
         <v>3.8874070644378662</v>
       </c>
       <c r="C162" s="2">
-        <v>3.8201260566711426</v>
+        <v>3.8191177845001221</v>
       </c>
       <c r="D162" s="2">
         <v>3.8076536655426025</v>
       </c>
       <c r="E162" s="2">
-        <v>3.7377281188964844</v>
+        <v>3.7370572090148926</v>
       </c>
     </row>
     <row r="163">
@@ -2003,13 +2003,13 @@
         <v>3.4067883491516113</v>
       </c>
       <c r="C163" s="2">
-        <v>3.4570884704589844</v>
+        <v>3.4560549259185791</v>
       </c>
       <c r="D163" s="2">
         <v>3.8048508167266846</v>
       </c>
       <c r="E163" s="2">
-        <v>3.755319356918335</v>
+        <v>3.7546029090881348</v>
       </c>
     </row>
     <row r="164">
@@ -2020,13 +2020,13 @@
         <v>3.4966666698455811</v>
       </c>
       <c r="C164" s="2">
-        <v>3.4455173015594483</v>
+        <v>3.4449207782745361</v>
       </c>
       <c r="D164" s="2">
         <v>3.8857729434967041</v>
       </c>
       <c r="E164" s="2">
-        <v>3.8204336166381836</v>
+        <v>3.8197100162506104</v>
       </c>
     </row>
     <row r="165">
@@ -2037,13 +2037,13 @@
         <v>3.5298976898193359</v>
       </c>
       <c r="C165" s="2">
-        <v>3.5535132884979248</v>
+        <v>3.5524821281433105</v>
       </c>
       <c r="D165" s="2">
         <v>3.8797805309295654</v>
       </c>
       <c r="E165" s="2">
-        <v>3.8231921195983887</v>
+        <v>3.8225507736206055</v>
       </c>
     </row>
     <row r="166">
@@ -2054,13 +2054,13 @@
         <v>3.6476085186004639</v>
       </c>
       <c r="C166" s="2">
-        <v>3.6019511222839355</v>
+        <v>3.6014931201934814</v>
       </c>
       <c r="D166" s="2">
         <v>3.8594353199005127</v>
       </c>
       <c r="E166" s="2">
-        <v>3.8079438209533691</v>
+        <v>3.8074402809143066</v>
       </c>
     </row>
     <row r="167">
@@ -2071,13 +2071,13 @@
         <v>4.3227953910827637</v>
       </c>
       <c r="C167" s="2">
-        <v>4.1538810729980469</v>
+        <v>4.1534867286682129</v>
       </c>
       <c r="D167" s="2">
         <v>3.8741469383239746</v>
       </c>
       <c r="E167" s="2">
-        <v>3.8408691883087158</v>
+        <v>3.8403887748718262</v>
       </c>
     </row>
     <row r="168">
@@ -2088,13 +2088,13 @@
         <v>4.5388855934143066</v>
       </c>
       <c r="C168" s="2">
-        <v>4.3586192131042481</v>
+        <v>4.3580155372619629</v>
       </c>
       <c r="D168" s="2">
         <v>3.9207284450531006</v>
       </c>
       <c r="E168" s="2">
-        <v>3.8819437026977539</v>
+        <v>3.8815019130706787</v>
       </c>
     </row>
     <row r="169">
@@ -2102,16 +2102,16 @@
         <v>33573</v>
       </c>
       <c r="B169" s="2">
-        <v>3.9859380722045899</v>
+        <v>3.9859380722045898</v>
       </c>
       <c r="C169" s="2">
-        <v>3.9597597122192383</v>
+        <v>3.960033655166626</v>
       </c>
       <c r="D169" s="2">
         <v>4.0254907608032227</v>
       </c>
       <c r="E169" s="2">
-        <v>3.9519803524017334</v>
+        <v>3.9515330791473389</v>
       </c>
     </row>
     <row r="170">
@@ -2122,13 +2122,13 @@
         <v>3.918931245803833</v>
       </c>
       <c r="C170" s="2">
-        <v>3.9210383892059326</v>
+        <v>3.9213571548461914</v>
       </c>
       <c r="D170" s="2">
         <v>4.0412383079528809</v>
       </c>
       <c r="E170" s="2">
-        <v>3.9530930519104004</v>
+        <v>3.952751636505127</v>
       </c>
     </row>
     <row r="171">
@@ -2139,13 +2139,13 @@
         <v>4.0198111534118652</v>
       </c>
       <c r="C171" s="2">
-        <v>4.1164541244506836</v>
+        <v>4.1156549453735352</v>
       </c>
       <c r="D171" s="2">
         <v>4.0694746971130371</v>
       </c>
       <c r="E171" s="2">
-        <v>3.9799907207489014</v>
+        <v>3.9795844554901123</v>
       </c>
     </row>
     <row r="172">
@@ -2156,13 +2156,13 @@
         <v>3.8260209560394287</v>
       </c>
       <c r="C172" s="2">
-        <v>3.8267581462860108</v>
+        <v>3.8260729312896729</v>
       </c>
       <c r="D172" s="2">
         <v>4.0094428062438965</v>
       </c>
       <c r="E172" s="2">
-        <v>3.9407269954681396</v>
+        <v>3.9402670860290527</v>
       </c>
     </row>
     <row r="173">
@@ -2173,13 +2173,13 @@
         <v>4.4395270347595215</v>
       </c>
       <c r="C173" s="2">
-        <v>4.0758471488952637</v>
+        <v>4.0752005577087402</v>
       </c>
       <c r="D173" s="2">
         <v>3.9834260940551758</v>
       </c>
       <c r="E173" s="2">
-        <v>3.9425590038299561</v>
+        <v>3.9421195983886719</v>
       </c>
     </row>
     <row r="174">
@@ -2190,13 +2190,13 @@
         <v>3.6716256141662598</v>
       </c>
       <c r="C174" s="2">
-        <v>3.5635278224945068</v>
+        <v>3.5634500980377197</v>
       </c>
       <c r="D174" s="2">
         <v>3.9549510478973389</v>
       </c>
       <c r="E174" s="2">
-        <v>3.9085726737976074</v>
+        <v>3.9080941677093506</v>
       </c>
     </row>
     <row r="175">
@@ -2207,13 +2207,13 @@
         <v>3.9017355442047119</v>
       </c>
       <c r="C175" s="2">
-        <v>3.8440303802490234</v>
+        <v>3.8429892063140869</v>
       </c>
       <c r="D175" s="2">
         <v>3.9263350963592529</v>
       </c>
       <c r="E175" s="2">
-        <v>3.8798182010650635</v>
+        <v>3.8793210983276367</v>
       </c>
     </row>
     <row r="176">
@@ -2224,13 +2224,13 @@
         <v>3.7825098037719727</v>
       </c>
       <c r="C176" s="2">
-        <v>3.8005070686340332</v>
+        <v>3.7996289730072021</v>
       </c>
       <c r="D176" s="2">
         <v>3.9105796813964844</v>
       </c>
       <c r="E176" s="2">
-        <v>3.8403360843658447</v>
+        <v>3.8399636745452881</v>
       </c>
     </row>
     <row r="177">
@@ -2241,13 +2241,13 @@
         <v>4.3047347068786621</v>
       </c>
       <c r="C177" s="2">
-        <v>4.3751087188720703</v>
+        <v>4.3746891021728516</v>
       </c>
       <c r="D177" s="2">
         <v>3.8544960021972656</v>
       </c>
       <c r="E177" s="2">
-        <v>3.7778604030609131</v>
+        <v>3.7776343822479248</v>
       </c>
     </row>
     <row r="178">
@@ -2258,13 +2258,13 @@
         <v>3.7296640872955322</v>
       </c>
       <c r="C178" s="2">
-        <v>3.6538832187652588</v>
+        <v>3.6538047790527344</v>
       </c>
       <c r="D178" s="2">
         <v>3.8200070858001709</v>
       </c>
       <c r="E178" s="2">
-        <v>3.7541825771331787</v>
+        <v>3.7539300918579102</v>
       </c>
     </row>
     <row r="179">
@@ -2275,13 +2275,13 @@
         <v>3.6613872051239014</v>
       </c>
       <c r="C179" s="2">
-        <v>3.6622481346130371</v>
+        <v>3.6623990535736084</v>
       </c>
       <c r="D179" s="2">
         <v>3.7984433174133301</v>
       </c>
       <c r="E179" s="2">
-        <v>3.737018346786499</v>
+        <v>3.7367379665374756</v>
       </c>
     </row>
     <row r="180">
@@ -2292,13 +2292,13 @@
         <v>3.8780112266540527</v>
       </c>
       <c r="C180" s="2">
-        <v>3.7611134052276611</v>
+        <v>3.7614386081695557</v>
       </c>
       <c r="D180" s="2">
         <v>3.7613801956176758</v>
       </c>
       <c r="E180" s="2">
-        <v>3.7103662490844727</v>
+        <v>3.7101540565490723</v>
       </c>
     </row>
     <row r="181">
@@ -2309,13 +2309,13 @@
         <v>3.3212690353393555</v>
       </c>
       <c r="C181" s="2">
-        <v>3.2644786834716797</v>
+        <v>3.2651097774505615</v>
       </c>
       <c r="D181" s="2">
         <v>3.7816169261932373</v>
       </c>
       <c r="E181" s="2">
-        <v>3.7189483642578125</v>
+        <v>3.7188172340393066</v>
       </c>
     </row>
     <row r="182">
@@ -2323,16 +2323,16 @@
         <v>33970</v>
       </c>
       <c r="B182" s="2">
-        <v>4.1291270256042481</v>
+        <v>4.129127025604248</v>
       </c>
       <c r="C182" s="2">
-        <v>3.8627462387084961</v>
+        <v>3.8618621826171875</v>
       </c>
       <c r="D182" s="2">
         <v>3.745964527130127</v>
       </c>
       <c r="E182" s="2">
-        <v>3.6820545196533203</v>
+        <v>3.6819205284118652</v>
       </c>
     </row>
     <row r="183">
@@ -2343,13 +2343,13 @@
         <v>3.4775512218475342</v>
       </c>
       <c r="C183" s="2">
-        <v>3.4090495109558106</v>
+        <v>3.4087209701538086</v>
       </c>
       <c r="D183" s="2">
         <v>3.7568225860595703</v>
       </c>
       <c r="E183" s="2">
-        <v>3.6987466812133789</v>
+        <v>3.6985948085784912</v>
       </c>
     </row>
     <row r="184">
@@ -2357,16 +2357,16 @@
         <v>34029</v>
       </c>
       <c r="B184" s="2">
-        <v>3.5681676864624024</v>
+        <v>3.5681676864624023</v>
       </c>
       <c r="C184" s="2">
-        <v>3.6041622161865234</v>
+        <v>3.6037335395812988</v>
       </c>
       <c r="D184" s="2">
         <v>3.7859220504760742</v>
       </c>
       <c r="E184" s="2">
-        <v>3.6966829299926758</v>
+        <v>3.6965148448944092</v>
       </c>
     </row>
     <row r="185">
@@ -2377,13 +2377,13 @@
         <v>3.9646396636962891</v>
       </c>
       <c r="C185" s="2">
-        <v>3.8777453899383545</v>
+        <v>3.8775961399078369</v>
       </c>
       <c r="D185" s="2">
         <v>3.804668664932251</v>
       </c>
       <c r="E185" s="2">
-        <v>3.7192161083221436</v>
+        <v>3.7189066410064697</v>
       </c>
     </row>
     <row r="186">
@@ -2391,16 +2391,16 @@
         <v>34090</v>
       </c>
       <c r="B186" s="2">
-        <v>3.9838638305664063</v>
+        <v>3.9838638305664062</v>
       </c>
       <c r="C186" s="2">
-        <v>4.0430641174316406</v>
+        <v>4.0426201820373535</v>
       </c>
       <c r="D186" s="2">
         <v>3.9430408477783203</v>
       </c>
       <c r="E186" s="2">
-        <v>3.8575544357299805</v>
+        <v>3.8571665287017822</v>
       </c>
     </row>
     <row r="187">
@@ -2411,13 +2411,13 @@
         <v>3.8273870944976807</v>
       </c>
       <c r="C187" s="2">
-        <v>3.8041131496429443</v>
+        <v>3.8038735389709473</v>
       </c>
       <c r="D187" s="2">
         <v>3.9191761016845703</v>
       </c>
       <c r="E187" s="2">
-        <v>3.8488733768463135</v>
+        <v>3.8485808372497559</v>
       </c>
     </row>
     <row r="188">
@@ -2428,13 +2428,13 @@
         <v>3.9232823848724365</v>
       </c>
       <c r="C188" s="2">
-        <v>3.6436741352081299</v>
+        <v>3.643679141998291</v>
       </c>
       <c r="D188" s="2">
         <v>3.9901235103607178</v>
       </c>
       <c r="E188" s="2">
-        <v>3.9282045364379883</v>
+        <v>3.9278454780578613</v>
       </c>
     </row>
     <row r="189">
@@ -2445,13 +2445,13 @@
         <v>4.0467309951782227</v>
       </c>
       <c r="C189" s="2">
-        <v>3.9639120101928711</v>
+        <v>3.9629638195037842</v>
       </c>
       <c r="D189" s="2">
         <v>4.0468387603759766</v>
       </c>
       <c r="E189" s="2">
-        <v>3.9857273101806641</v>
+        <v>3.9853482246398926</v>
       </c>
     </row>
     <row r="190">
@@ -2462,13 +2462,13 @@
         <v>4.5666170120239258</v>
       </c>
       <c r="C190" s="2">
-        <v>4.5095233917236328</v>
+        <v>4.5094490051269531</v>
       </c>
       <c r="D190" s="2">
         <v>3.960597038269043</v>
       </c>
       <c r="E190" s="2">
-        <v>3.8920643329620361</v>
+        <v>3.8915989398956299</v>
       </c>
     </row>
     <row r="191">
@@ -2479,13 +2479,13 @@
         <v>3.9143457412719727</v>
       </c>
       <c r="C191" s="2">
-        <v>3.784616231918335</v>
+        <v>3.7845911979675293</v>
       </c>
       <c r="D191" s="2">
         <v>3.8566398620605469</v>
       </c>
       <c r="E191" s="2">
-        <v>3.7845461368560791</v>
+        <v>3.7840530872344971</v>
       </c>
     </row>
     <row r="192">
@@ -2496,13 +2496,13 @@
         <v>4.1160769462585449</v>
       </c>
       <c r="C192" s="2">
-        <v>4.1230306625366211</v>
+        <v>4.1221022605895996</v>
       </c>
       <c r="D192" s="2">
         <v>3.8897714614868164</v>
       </c>
       <c r="E192" s="2">
-        <v>3.8124182224273682</v>
+        <v>3.8118948936462402</v>
       </c>
     </row>
     <row r="193">
@@ -2513,13 +2513,13 @@
         <v>4.0786056518554688</v>
       </c>
       <c r="C193" s="2">
-        <v>4.1218662261962891</v>
+        <v>4.1212577819824219</v>
       </c>
       <c r="D193" s="2">
         <v>3.8120527267456055</v>
       </c>
       <c r="E193" s="2">
-        <v>3.7755687236785889</v>
+        <v>3.7749643325805664</v>
       </c>
     </row>
     <row r="194">
@@ -2530,13 +2530,13 @@
         <v>3.1884627342224121</v>
       </c>
       <c r="C194" s="2">
-        <v>3.0347790718078613</v>
+        <v>3.0338528156280518</v>
       </c>
       <c r="D194" s="2">
         <v>3.7646775245666504</v>
       </c>
       <c r="E194" s="2">
-        <v>3.7213344573974609</v>
+        <v>3.7207996845245361</v>
       </c>
     </row>
     <row r="195">
@@ -2547,13 +2547,13 @@
         <v>3.0482499599456787</v>
       </c>
       <c r="C195" s="2">
-        <v>3.0754005908966065</v>
+        <v>3.0747084617614746</v>
       </c>
       <c r="D195" s="2">
         <v>3.6284298896789551</v>
       </c>
       <c r="E195" s="2">
-        <v>3.5934224128723145</v>
+        <v>3.5928275585174561</v>
       </c>
     </row>
     <row r="196">
@@ -2564,13 +2564,13 @@
         <v>4.1255717277526855</v>
       </c>
       <c r="C196" s="2">
-        <v>4.054962158203125</v>
+        <v>4.0544490814208984</v>
       </c>
       <c r="D196" s="2">
         <v>3.6339685916900635</v>
       </c>
       <c r="E196" s="2">
-        <v>3.6050395965576172</v>
+        <v>3.6044244766235352</v>
       </c>
     </row>
     <row r="197">
@@ -2581,13 +2581,13 @@
         <v>3.2238137722015381</v>
       </c>
       <c r="C197" s="2">
-        <v>3.3120291233062744</v>
+        <v>3.311305046081543</v>
       </c>
       <c r="D197" s="2">
         <v>3.5637655258178711</v>
       </c>
       <c r="E197" s="2">
-        <v>3.5317702293395996</v>
+        <v>3.5312325954437256</v>
       </c>
     </row>
     <row r="198">
@@ -2595,16 +2595,16 @@
         <v>34455</v>
       </c>
       <c r="B198" s="2">
-        <v>3.6203534603118897</v>
+        <v>3.6203534603118896</v>
       </c>
       <c r="C198" s="2">
-        <v>3.4758036136627197</v>
+        <v>3.4754805564880371</v>
       </c>
       <c r="D198" s="2">
         <v>3.4463129043579102</v>
       </c>
       <c r="E198" s="2">
-        <v>3.3978564739227295</v>
+        <v>3.3973376750946045</v>
       </c>
     </row>
     <row r="199">
@@ -2615,13 +2615,13 @@
         <v>3.3403892517089844</v>
       </c>
       <c r="C199" s="2">
-        <v>3.3583147525787354</v>
+        <v>3.3577008247375488</v>
       </c>
       <c r="D199" s="2">
         <v>3.4527311325073242</v>
       </c>
       <c r="E199" s="2">
-        <v>3.4215462207794189</v>
+        <v>3.4211220741271973</v>
       </c>
     </row>
     <row r="200">
@@ -2632,13 +2632,13 @@
         <v>3.9641928672790527</v>
       </c>
       <c r="C200" s="2">
-        <v>3.8891692161560059</v>
+        <v>3.8889634609222412</v>
       </c>
       <c r="D200" s="2">
         <v>3.5121605396270752</v>
       </c>
       <c r="E200" s="2">
-        <v>3.4823513031005859</v>
+        <v>3.4819412231445312</v>
       </c>
     </row>
     <row r="201">
@@ -2649,13 +2649,13 @@
         <v>3.4842512607574463</v>
       </c>
       <c r="C201" s="2">
-        <v>3.4636075496673584</v>
+        <v>3.4633758068084717</v>
       </c>
       <c r="D201" s="2">
         <v>3.3905034065246582</v>
       </c>
       <c r="E201" s="2">
-        <v>3.3651964664459229</v>
+        <v>3.3647823333740234</v>
       </c>
     </row>
     <row r="202">
@@ -2666,13 +2666,13 @@
         <v>3.0215303897857666</v>
       </c>
       <c r="C202" s="2">
-        <v>2.9166431427001953</v>
+        <v>2.9162030220031738</v>
       </c>
       <c r="D202" s="2">
         <v>3.4051318168640137</v>
       </c>
       <c r="E202" s="2">
-        <v>3.3599448204040527</v>
+        <v>3.3596217632293701</v>
       </c>
     </row>
     <row r="203">
@@ -2683,13 +2683,13 @@
         <v>3.2462267875671387</v>
       </c>
       <c r="C203" s="2">
-        <v>3.2479848861694336</v>
+        <v>3.2479133605957031</v>
       </c>
       <c r="D203" s="2">
         <v>3.3391690254211426</v>
       </c>
       <c r="E203" s="2">
-        <v>3.3105347156524658</v>
+        <v>3.3101809024810791</v>
       </c>
     </row>
     <row r="204">
@@ -2700,13 +2700,13 @@
         <v>3.5831162929534912</v>
       </c>
       <c r="C204" s="2">
-        <v>3.6226470470428467</v>
+        <v>3.6220803260803223</v>
       </c>
       <c r="D204" s="2">
         <v>3.3376224040985107</v>
       </c>
       <c r="E204" s="2">
-        <v>3.2927320003509522</v>
+        <v>3.292471170425415</v>
       </c>
     </row>
     <row r="205">
@@ -2717,13 +2717,13 @@
         <v>3.0306565761566162</v>
       </c>
       <c r="C205" s="2">
-        <v>3.000568151473999</v>
+        <v>3.000018835067749</v>
       </c>
       <c r="D205" s="2">
         <v>3.2475378513336182</v>
       </c>
       <c r="E205" s="2">
-        <v>3.2001328468322754</v>
+        <v>3.1999096870422363</v>
       </c>
     </row>
     <row r="206">
@@ -2734,13 +2734,13 @@
         <v>3.3554694652557373</v>
       </c>
       <c r="C206" s="2">
-        <v>3.2647652626037598</v>
+        <v>3.2648603916168213</v>
       </c>
       <c r="D206" s="2">
         <v>3.167449951171875</v>
       </c>
       <c r="E206" s="2">
-        <v>3.0972988605499268</v>
+        <v>3.0970497131347656</v>
       </c>
     </row>
     <row r="207">
@@ -2751,13 +2751,13 @@
         <v>3.0266876220703125</v>
       </c>
       <c r="C207" s="2">
-        <v>3.0311129093170166</v>
+        <v>3.0305116176605225</v>
       </c>
       <c r="D207" s="2">
         <v>3.191051721572876</v>
       </c>
       <c r="E207" s="2">
-        <v>3.1306576728820801</v>
+        <v>3.130326509475708</v>
       </c>
     </row>
     <row r="208">
@@ -2768,13 +2768,13 @@
         <v>3.326469898223877</v>
       </c>
       <c r="C208" s="2">
-        <v>3.1980903148651123</v>
+        <v>3.1983132362365723</v>
       </c>
       <c r="D208" s="2">
         <v>3.1807165145874023</v>
       </c>
       <c r="E208" s="2">
-        <v>3.1264176368713379</v>
+        <v>3.1259293556213379</v>
       </c>
     </row>
     <row r="209">
@@ -2785,13 +2785,13 @@
         <v>3.1534333229064941</v>
       </c>
       <c r="C209" s="2">
-        <v>3.0557758808135986</v>
+        <v>3.055910587310791</v>
       </c>
       <c r="D209" s="2">
         <v>3.1588447093963623</v>
       </c>
       <c r="E209" s="2">
-        <v>3.0963690280914307</v>
+        <v>3.0959484577178955</v>
       </c>
     </row>
     <row r="210">
@@ -2802,13 +2802,13 @@
         <v>2.7634584903717041</v>
       </c>
       <c r="C210" s="2">
-        <v>2.5381019115447998</v>
+        <v>2.5376360416412354</v>
       </c>
       <c r="D210" s="2">
         <v>3.1920223236083984</v>
       </c>
       <c r="E210" s="2">
-        <v>3.1323754787445068</v>
+        <v>3.1320004463195801</v>
       </c>
     </row>
     <row r="211">
@@ -2819,13 +2819,13 @@
         <v>3.2339470386505127</v>
       </c>
       <c r="C211" s="2">
-        <v>3.2168734073638916</v>
+        <v>3.2156949043273926</v>
       </c>
       <c r="D211" s="2">
         <v>3.1167340278625488</v>
       </c>
       <c r="E211" s="2">
-        <v>3.0680797100067139</v>
+        <v>3.0676453113555908</v>
       </c>
     </row>
     <row r="212">
@@ -2836,13 +2836,13 @@
         <v>3.1532101631164551</v>
       </c>
       <c r="C212" s="2">
-        <v>3.2098231315612793</v>
+        <v>3.208338737487793</v>
       </c>
       <c r="D212" s="2">
         <v>3.1478762626647949</v>
       </c>
       <c r="E212" s="2">
-        <v>3.0697906017303467</v>
+        <v>3.0692763328552246</v>
       </c>
     </row>
     <row r="213">
@@ -2853,13 +2853,13 @@
         <v>3.3862698078155518</v>
       </c>
       <c r="C213" s="2">
-        <v>3.3522095680236817</v>
+        <v>3.3522517681121826</v>
       </c>
       <c r="D213" s="2">
         <v>3.1121904850006104</v>
       </c>
       <c r="E213" s="2">
-        <v>3.023665189743042</v>
+        <v>3.0231037139892578</v>
       </c>
     </row>
     <row r="214">
@@ -2870,13 +2870,13 @@
         <v>3.3292543888092041</v>
       </c>
       <c r="C214" s="2">
-        <v>3.3246273994445801</v>
+        <v>3.3244874477386475</v>
       </c>
       <c r="D214" s="2">
         <v>3.1172163486480713</v>
       </c>
       <c r="E214" s="2">
-        <v>3.0234136581420898</v>
+        <v>3.0228631496429443</v>
       </c>
     </row>
     <row r="215">
@@ -2887,13 +2887,13 @@
         <v>2.6778759956359863</v>
       </c>
       <c r="C215" s="2">
-        <v>2.6861035823822022</v>
+        <v>2.6856634616851807</v>
       </c>
       <c r="D215" s="2">
-        <v>3.1227946281433106</v>
+        <v>3.1227946281433105</v>
       </c>
       <c r="E215" s="2">
-        <v>3.0167067050933838</v>
+        <v>3.0161299705505371</v>
       </c>
     </row>
     <row r="216">
@@ -2904,13 +2904,13 @@
         <v>3.3069674968719482</v>
       </c>
       <c r="C216" s="2">
-        <v>3.0465097427368164</v>
+        <v>3.0451905727386475</v>
       </c>
       <c r="D216" s="2">
         <v>3.1679747104644775</v>
       </c>
       <c r="E216" s="2">
-        <v>3.0494287014007568</v>
+        <v>3.048954963684082</v>
       </c>
     </row>
     <row r="217">
@@ -2921,13 +2921,13 @@
         <v>3.0052967071533203</v>
       </c>
       <c r="C217" s="2">
-        <v>2.7829630374908447</v>
+        <v>2.7827606201171875</v>
       </c>
       <c r="D217" s="2">
-        <v>3.1287002563476563</v>
+        <v>3.1287002563476562</v>
       </c>
       <c r="E217" s="2">
-        <v>2.9635272026062012</v>
+        <v>2.9630985260009766</v>
       </c>
     </row>
     <row r="218">
@@ -2938,13 +2938,13 @@
         <v>3.1986663341522217</v>
       </c>
       <c r="C218" s="2">
-        <v>3.0535109043121338</v>
+        <v>3.0537452697753906</v>
       </c>
       <c r="D218" s="2">
         <v>3.1426537036895752</v>
       </c>
       <c r="E218" s="2">
-        <v>2.9755141735076904</v>
+        <v>2.9750850200653076</v>
       </c>
     </row>
     <row r="219">
@@ -2955,13 +2955,13 @@
         <v>2.8136639595031738</v>
       </c>
       <c r="C219" s="2">
-        <v>2.4777390956878662</v>
+        <v>2.4770379066467285</v>
       </c>
       <c r="D219" s="2">
         <v>3.13094162940979</v>
       </c>
       <c r="E219" s="2">
-        <v>2.9333457946777344</v>
+        <v>2.932873010635376</v>
       </c>
     </row>
     <row r="220">
@@ -2972,13 +2972,13 @@
         <v>3.6405684947967529</v>
       </c>
       <c r="C220" s="2">
-        <v>3.5113723278045654</v>
+        <v>3.5111198425292969</v>
       </c>
       <c r="D220" s="2">
         <v>3.2145609855651855</v>
       </c>
       <c r="E220" s="2">
-        <v>3.0233848094940186</v>
+        <v>3.0229892730712891</v>
       </c>
     </row>
     <row r="221">
@@ -2989,13 +2989,13 @@
         <v>2.7997400760650635</v>
       </c>
       <c r="C221" s="2">
-        <v>2.4367098808288574</v>
+        <v>2.4356307983398438</v>
       </c>
       <c r="D221" s="2">
         <v>3.1816213130950928</v>
       </c>
       <c r="E221" s="2">
-        <v>3.0210521221160889</v>
+        <v>3.0206804275512695</v>
       </c>
     </row>
     <row r="222">
@@ -3006,13 +3006,13 @@
         <v>3.5118489265441895</v>
       </c>
       <c r="C222" s="2">
-        <v>3.4600918292999268</v>
+        <v>3.4601297378540039</v>
       </c>
       <c r="D222" s="2">
         <v>3.1948869228363037</v>
       </c>
       <c r="E222" s="2">
-        <v>3.0681729316711426</v>
+        <v>3.0676991939544678</v>
       </c>
     </row>
     <row r="223">
@@ -3023,13 +3023,13 @@
         <v>3.223846435546875</v>
       </c>
       <c r="C223" s="2">
-        <v>2.9451110363006592</v>
+        <v>2.9445793628692627</v>
       </c>
       <c r="D223" s="2">
         <v>3.2163012027740479</v>
       </c>
       <c r="E223" s="2">
-        <v>3.1044223308563232</v>
+        <v>3.103801965713501</v>
       </c>
     </row>
     <row r="224">
@@ -3040,13 +3040,13 @@
         <v>3.430450439453125</v>
       </c>
       <c r="C224" s="2">
-        <v>3.496455192565918</v>
+        <v>3.4967093467712402</v>
       </c>
       <c r="D224" s="2">
         <v>3.2372779846191406</v>
       </c>
       <c r="E224" s="2">
-        <v>3.1655125617980957</v>
+        <v>3.1648876667022705</v>
       </c>
     </row>
     <row r="225">
@@ -3057,13 +3057,13 @@
         <v>3.0105109214782715</v>
       </c>
       <c r="C225" s="2">
-        <v>3.025515079498291</v>
+        <v>3.0244102478027344</v>
       </c>
       <c r="D225" s="2">
         <v>3.127838134765625</v>
       </c>
       <c r="E225" s="2">
-        <v>3.0739407539367676</v>
+        <v>3.0731575489044189</v>
       </c>
     </row>
     <row r="226">
@@ -3074,13 +3074,13 @@
         <v>3.1246864795684814</v>
       </c>
       <c r="C226" s="2">
-        <v>3.2070503234863281</v>
+        <v>3.2059304714202881</v>
       </c>
       <c r="D226" s="2">
         <v>3.1378114223480225</v>
       </c>
       <c r="E226" s="2">
-        <v>3.1023447513580322</v>
+        <v>3.1016144752502441</v>
       </c>
     </row>
     <row r="227">
@@ -3088,16 +3088,16 @@
         <v>35339</v>
       </c>
       <c r="B227" s="2">
-        <v>3.3913955688476563</v>
+        <v>3.3913955688476562</v>
       </c>
       <c r="C227" s="2">
-        <v>3.3797552585601807</v>
+        <v>3.378669261932373</v>
       </c>
       <c r="D227" s="2">
         <v>3.0965931415557861</v>
       </c>
       <c r="E227" s="2">
-        <v>3.0588161945343018</v>
+        <v>3.0580005645751953</v>
       </c>
     </row>
     <row r="228">
@@ -3108,13 +3108,13 @@
         <v>3.0024549961090088</v>
       </c>
       <c r="C228" s="2">
-        <v>3.0275521278381348</v>
+        <v>3.026810884475708</v>
       </c>
       <c r="D228" s="2">
         <v>3.0485906600952148</v>
       </c>
       <c r="E228" s="2">
-        <v>3.0187325477600098</v>
+        <v>3.0178759098052979</v>
       </c>
     </row>
     <row r="229">
@@ -3125,13 +3125,13 @@
         <v>2.6556093692779541</v>
       </c>
       <c r="C229" s="2">
-        <v>2.6872260570526123</v>
+        <v>2.685546875</v>
       </c>
       <c r="D229" s="2">
         <v>2.9838063716888428</v>
       </c>
       <c r="E229" s="2">
-        <v>2.9263112545013428</v>
+        <v>2.9253203868865967</v>
       </c>
     </row>
     <row r="230">
@@ -3142,13 +3142,13 @@
         <v>2.8895001411437988</v>
       </c>
       <c r="C230" s="2">
-        <v>2.6923458576202393</v>
+        <v>2.6917448043823242</v>
       </c>
       <c r="D230" s="2">
         <v>2.9771034717559814</v>
       </c>
       <c r="E230" s="2">
-        <v>2.9030542373657227</v>
+        <v>2.9021010398864746</v>
       </c>
     </row>
     <row r="231">
@@ -3159,13 +3159,13 @@
         <v>3.1408829689025879</v>
       </c>
       <c r="C231" s="2">
-        <v>3.0683341026306152</v>
+        <v>3.0676031112670898</v>
       </c>
       <c r="D231" s="2">
-        <v>2.9764928817749024</v>
+        <v>2.9764928817749023</v>
       </c>
       <c r="E231" s="2">
-        <v>2.9062671661376953</v>
+        <v>2.9053127765655518</v>
       </c>
     </row>
     <row r="232">
@@ -3176,13 +3176,13 @@
         <v>2.7918250560760498</v>
       </c>
       <c r="C232" s="2">
-        <v>2.5843591690063477</v>
+        <v>2.583458423614502</v>
       </c>
       <c r="D232" s="2">
         <v>2.9911315441131592</v>
       </c>
       <c r="E232" s="2">
-        <v>2.9193122386932373</v>
+        <v>2.9184854030609131</v>
       </c>
     </row>
     <row r="233">
@@ -3193,13 +3193,13 @@
         <v>2.8473913669586182</v>
       </c>
       <c r="C233" s="2">
-        <v>2.6646630764007568</v>
+        <v>2.6637084484100342</v>
       </c>
       <c r="D233" s="2">
         <v>3.0460283756256104</v>
       </c>
       <c r="E233" s="2">
-        <v>2.964806079864502</v>
+        <v>2.9639818668365479</v>
       </c>
     </row>
     <row r="234">
@@ -3207,16 +3207,16 @@
         <v>35551</v>
       </c>
       <c r="B234" s="2">
-        <v>2.9501862525939942</v>
+        <v>2.9501862525939941</v>
       </c>
       <c r="C234" s="2">
-        <v>2.8162014484405518</v>
+        <v>2.815436840057373</v>
       </c>
       <c r="D234" s="2">
-        <v>3.0399088859558106</v>
+        <v>3.0399088859558105</v>
       </c>
       <c r="E234" s="2">
-        <v>2.9561054706573486</v>
+        <v>2.9554574489593506</v>
       </c>
     </row>
     <row r="235">
@@ -3227,13 +3227,13 @@
         <v>3.1191895008087158</v>
       </c>
       <c r="C235" s="2">
-        <v>3.2359683513641357</v>
+        <v>3.2348361015319824</v>
       </c>
       <c r="D235" s="2">
         <v>3.1280696392059326</v>
       </c>
       <c r="E235" s="2">
-        <v>3.0754683017730713</v>
+        <v>3.0749678611755371</v>
       </c>
     </row>
     <row r="236">
@@ -3244,13 +3244,13 @@
         <v>3.5231449604034424</v>
       </c>
       <c r="C236" s="2">
-        <v>3.4971597194671631</v>
+        <v>3.4972226619720459</v>
       </c>
       <c r="D236" s="2">
         <v>3.1685526371002197</v>
       </c>
       <c r="E236" s="2">
-        <v>3.1338992118835449</v>
+        <v>3.1333737373352051</v>
       </c>
     </row>
     <row r="237">
@@ -3261,13 +3261,13 @@
         <v>3.4965260028839111</v>
       </c>
       <c r="C237" s="2">
-        <v>3.4369959831237793</v>
+        <v>3.4362800121307373</v>
       </c>
       <c r="D237" s="2">
         <v>3.2153244018554688</v>
       </c>
       <c r="E237" s="2">
-        <v>3.1778452396392822</v>
+        <v>3.1773438453674316</v>
       </c>
     </row>
     <row r="238">
@@ -3278,13 +3278,13 @@
         <v>2.6005332469940186</v>
       </c>
       <c r="C238" s="2">
-        <v>2.6089224815368652</v>
+        <v>2.6088259220123291</v>
       </c>
       <c r="D238" s="2">
         <v>3.2169513702392578</v>
       </c>
       <c r="E238" s="2">
-        <v>3.206291675567627</v>
+        <v>3.2058992385864258</v>
       </c>
     </row>
     <row r="239">
@@ -3295,13 +3295,13 @@
         <v>3.6829466819763184</v>
       </c>
       <c r="C239" s="2">
-        <v>3.7666110992431641</v>
+        <v>3.7673385143280029</v>
       </c>
       <c r="D239" s="2">
         <v>3.1889281272888184</v>
       </c>
       <c r="E239" s="2">
-        <v>3.1945540904998779</v>
+        <v>3.1941487789154053</v>
       </c>
     </row>
     <row r="240">
@@ -3312,13 +3312,13 @@
         <v>3.505230188369751</v>
       </c>
       <c r="C240" s="2">
-        <v>3.5942118167877197</v>
+        <v>3.5932571887969971</v>
       </c>
       <c r="D240" s="2">
         <v>3.2115790843963623</v>
       </c>
       <c r="E240" s="2">
-        <v>3.1895990371704102</v>
+        <v>3.1892988681793213</v>
       </c>
     </row>
     <row r="241">
@@ -3329,13 +3329,13 @@
         <v>3.2127711772918701</v>
       </c>
       <c r="C241" s="2">
-        <v>2.9798731803894043</v>
+        <v>2.9791884422302246</v>
       </c>
       <c r="D241" s="2">
         <v>3.0848937034606934</v>
       </c>
       <c r="E241" s="2">
-        <v>3.0726990699768066</v>
+        <v>3.0722718238830566</v>
       </c>
     </row>
     <row r="242">
@@ -3346,13 +3346,13 @@
         <v>2.8620338439941406</v>
       </c>
       <c r="C242" s="2">
-        <v>2.9206809997558594</v>
+        <v>2.9207065105438232</v>
       </c>
       <c r="D242" s="2">
         <v>3.0242416858673096</v>
       </c>
       <c r="E242" s="2">
-        <v>3.009174108505249</v>
+        <v>3.008746862411499</v>
       </c>
     </row>
     <row r="243">
@@ -3363,13 +3363,13 @@
         <v>2.6979777812957764</v>
       </c>
       <c r="C243" s="2">
-        <v>2.7105629444122314</v>
+        <v>2.7096827030181885</v>
       </c>
       <c r="D243" s="2">
         <v>3.0114040374755859</v>
       </c>
       <c r="E243" s="2">
-        <v>2.9880633354187012</v>
+        <v>2.9876058101654053</v>
       </c>
     </row>
     <row r="244">
@@ -3380,13 +3380,13 @@
         <v>3.3230476379394531</v>
       </c>
       <c r="C244" s="2">
-        <v>3.1913728713989258</v>
+        <v>3.191187858581543</v>
       </c>
       <c r="D244" s="2">
         <v>2.8580513000488281</v>
       </c>
       <c r="E244" s="2">
-        <v>2.8318896293640137</v>
+        <v>2.8312220573425293</v>
       </c>
     </row>
     <row r="245">
@@ -3397,13 +3397,13 @@
         <v>2.3829770088195801</v>
       </c>
       <c r="C245" s="2">
-        <v>2.4450592994689942</v>
+        <v>2.4439785480499268</v>
       </c>
       <c r="D245" s="2">
         <v>2.7454192638397217</v>
       </c>
       <c r="E245" s="2">
-        <v>2.6996324062347412</v>
+        <v>2.6989505290985107</v>
       </c>
     </row>
     <row r="246">
@@ -3414,13 +3414,13 @@
         <v>2.9506573677062988</v>
       </c>
       <c r="C246" s="2">
-        <v>2.8652715682983398</v>
+        <v>2.8645555973052979</v>
       </c>
       <c r="D246" s="2">
         <v>2.7061033248901367</v>
       </c>
       <c r="E246" s="2">
-        <v>2.6689243316650391</v>
+        <v>2.6683933734893799</v>
       </c>
     </row>
     <row r="247">
@@ -3431,13 +3431,13 @@
         <v>2.4849939346313477</v>
       </c>
       <c r="C247" s="2">
-        <v>2.418926477432251</v>
+        <v>2.4185571670532227</v>
       </c>
       <c r="D247" s="2">
         <v>2.6917681694030762</v>
       </c>
       <c r="E247" s="2">
-        <v>2.6316134929656982</v>
+        <v>2.631028413772583</v>
       </c>
     </row>
     <row r="248">
@@ -3448,13 +3448,13 @@
         <v>2.302772045135498</v>
       </c>
       <c r="C248" s="2">
-        <v>2.3610482215881348</v>
+        <v>2.3598852157592773</v>
       </c>
       <c r="D248" s="2">
         <v>2.7224681377410889</v>
       </c>
       <c r="E248" s="2">
-        <v>2.6660816669464111</v>
+        <v>2.6654479503631592</v>
       </c>
     </row>
     <row r="249">
@@ -3465,13 +3465,13 @@
         <v>2.4915425777435303</v>
       </c>
       <c r="C249" s="2">
-        <v>2.4038965702056885</v>
+        <v>2.4028129577636719</v>
       </c>
       <c r="D249" s="2">
         <v>2.6708219051361084</v>
       </c>
       <c r="E249" s="2">
-        <v>2.6058502197265625</v>
+        <v>2.6052587032318115</v>
       </c>
     </row>
     <row r="250">
@@ -3482,13 +3482,13 @@
         <v>2.8589277267456055</v>
       </c>
       <c r="C250" s="2">
-        <v>2.7035007476806641</v>
+        <v>2.7041740417480469</v>
       </c>
       <c r="D250" s="2">
         <v>2.7147762775421143</v>
       </c>
       <c r="E250" s="2">
-        <v>2.6392643451690674</v>
+        <v>2.6387374401092529</v>
       </c>
     </row>
     <row r="251">
@@ -3499,13 +3499,13 @@
         <v>2.7330176830291748</v>
       </c>
       <c r="C251" s="2">
-        <v>2.5848836898803711</v>
+        <v>2.5844211578369141</v>
       </c>
       <c r="D251" s="2">
         <v>2.6843230724334717</v>
       </c>
       <c r="E251" s="2">
-        <v>2.6064333915710449</v>
+        <v>2.6059088706970215</v>
       </c>
     </row>
     <row r="252">
@@ -3516,13 +3516,13 @@
         <v>2.9742763042449951</v>
       </c>
       <c r="C252" s="2">
-        <v>3.0207748413085938</v>
+        <v>3.019458532333374</v>
       </c>
       <c r="D252" s="2">
         <v>2.7008523941040039</v>
       </c>
       <c r="E252" s="2">
-        <v>2.6132924556732178</v>
+        <v>2.6127140522003174</v>
       </c>
     </row>
     <row r="253">
@@ -3533,13 +3533,13 @@
         <v>2.8582320213317871</v>
       </c>
       <c r="C253" s="2">
-        <v>2.6492910385131836</v>
+        <v>2.6494851112365723</v>
       </c>
       <c r="D253" s="2">
         <v>2.7425746917724609</v>
       </c>
       <c r="E253" s="2">
-        <v>2.6456947326660156</v>
+        <v>2.6451337337493896</v>
       </c>
     </row>
     <row r="254">
@@ -3550,13 +3550,13 @@
         <v>2.7785665988922119</v>
       </c>
       <c r="C254" s="2">
-        <v>2.745786190032959</v>
+        <v>2.7452874183654785</v>
       </c>
       <c r="D254" s="2">
         <v>2.7578179836273193</v>
       </c>
       <c r="E254" s="2">
-        <v>2.6626937389373779</v>
+        <v>2.6621713638305664</v>
       </c>
     </row>
     <row r="255">
@@ -3567,13 +3567,13 @@
         <v>2.6765787601470947</v>
       </c>
       <c r="C255" s="2">
-        <v>2.5697917938232422</v>
+        <v>2.5690972805023193</v>
       </c>
       <c r="D255" s="2">
         <v>2.7331204414367676</v>
       </c>
       <c r="E255" s="2">
-        <v>2.6626548767089844</v>
+        <v>2.6619360446929932</v>
       </c>
     </row>
     <row r="256">
@@ -3584,13 +3584,13 @@
         <v>2.6337580680847168</v>
       </c>
       <c r="C256" s="2">
-        <v>2.4806585311889648</v>
+        <v>2.4798038005828857</v>
       </c>
       <c r="D256" s="2">
         <v>2.7129490375518799</v>
       </c>
       <c r="E256" s="2">
-        <v>2.662341833114624</v>
+        <v>2.6616179943084717</v>
       </c>
     </row>
     <row r="257">
@@ -3601,13 +3601,13 @@
         <v>2.678272008895874</v>
       </c>
       <c r="C257" s="2">
-        <v>2.6526699066162109</v>
+        <v>2.6516635417938232</v>
       </c>
       <c r="D257" s="2">
         <v>2.7248332500457764</v>
       </c>
       <c r="E257" s="2">
-        <v>2.6604897975921631</v>
+        <v>2.6598665714263916</v>
       </c>
     </row>
     <row r="258">
@@ -3618,13 +3618,13 @@
         <v>2.6287331581115723</v>
       </c>
       <c r="C258" s="2">
-        <v>2.5568876266479492</v>
+        <v>2.5561518669128418</v>
       </c>
       <c r="D258" s="2">
         <v>2.7202703952789307</v>
       </c>
       <c r="E258" s="2">
-        <v>2.6639504432678223</v>
+        <v>2.6632769107818604</v>
       </c>
     </row>
     <row r="259">
@@ -3635,13 +3635,13 @@
         <v>2.636648416519165</v>
       </c>
       <c r="C259" s="2">
-        <v>2.7031509876251221</v>
+        <v>2.7020549774169922</v>
       </c>
       <c r="D259" s="2">
         <v>2.6817796230316162</v>
       </c>
       <c r="E259" s="2">
-        <v>2.6061387062072754</v>
+        <v>2.6055006980895996</v>
       </c>
     </row>
     <row r="260">
@@ -3649,16 +3649,16 @@
         <v>36342</v>
       </c>
       <c r="B260" s="2">
-        <v>2.5514752864837647</v>
+        <v>2.5514752864837646</v>
       </c>
       <c r="C260" s="2">
-        <v>2.5820651054382324</v>
+        <v>2.5815596580505371</v>
       </c>
       <c r="D260" s="2">
         <v>2.6873016357421875</v>
       </c>
       <c r="E260" s="2">
-        <v>2.621671199798584</v>
+        <v>2.6210665702819824</v>
       </c>
     </row>
     <row r="261">
@@ -3669,13 +3669,13 @@
         <v>3.0812349319458008</v>
       </c>
       <c r="C261" s="2">
-        <v>3.0041065216064453</v>
+        <v>3.0036952495574951</v>
       </c>
       <c r="D261" s="2">
         <v>2.7034556865692139</v>
       </c>
       <c r="E261" s="2">
-        <v>2.6533496379852295</v>
+        <v>2.6527702808380127</v>
       </c>
     </row>
     <row r="262">
@@ -3686,13 +3686,13 @@
         <v>2.8171656131744385</v>
       </c>
       <c r="C262" s="2">
-        <v>2.6804382801055908</v>
+        <v>2.6801791191101074</v>
       </c>
       <c r="D262" s="2">
         <v>2.6964144706726074</v>
       </c>
       <c r="E262" s="2">
-        <v>2.6245410442352295</v>
+        <v>2.6240801811218262</v>
       </c>
     </row>
     <row r="263">
@@ -3700,16 +3700,16 @@
         <v>36434</v>
       </c>
       <c r="B263" s="2">
-        <v>2.4321508407592774</v>
+        <v>2.4321508407592773</v>
       </c>
       <c r="C263" s="2">
-        <v>2.2254791259765625</v>
+        <v>2.2253012657165527</v>
       </c>
       <c r="D263" s="2">
         <v>2.6909148693084717</v>
       </c>
       <c r="E263" s="2">
-        <v>2.6158840656280518</v>
+        <v>2.6154937744140625</v>
       </c>
     </row>
     <row r="264">
@@ -3720,13 +3720,13 @@
         <v>2.7262763977050781</v>
       </c>
       <c r="C264" s="2">
-        <v>2.7095844745635986</v>
+        <v>2.7091891765594482</v>
       </c>
       <c r="D264" s="2">
         <v>2.7549972534179688</v>
       </c>
       <c r="E264" s="2">
-        <v>2.6536431312561035</v>
+        <v>2.6533198356628418</v>
       </c>
     </row>
     <row r="265">
@@ -3737,13 +3737,13 @@
         <v>2.779144287109375</v>
       </c>
       <c r="C265" s="2">
-        <v>2.7657639980316162</v>
+        <v>2.7651383876800537</v>
       </c>
       <c r="D265" s="2">
         <v>2.8090832233428955</v>
       </c>
       <c r="E265" s="2">
-        <v>2.6834254264831543</v>
+        <v>2.6831283569335938</v>
       </c>
     </row>
     <row r="266">
@@ -3754,13 +3754,13 @@
         <v>2.6149022579193115</v>
       </c>
       <c r="C266" s="2">
-        <v>2.3933935165405274</v>
+        <v>2.3934528827667236</v>
       </c>
       <c r="D266" s="2">
         <v>2.768094539642334</v>
       </c>
       <c r="E266" s="2">
-        <v>2.6404762268066406</v>
+        <v>2.6401145458221436</v>
       </c>
     </row>
     <row r="267">
@@ -3771,13 +3771,13 @@
         <v>2.5792360305786133</v>
       </c>
       <c r="C267" s="2">
-        <v>2.4789738655090332</v>
+        <v>2.4788727760314941</v>
       </c>
       <c r="D267" s="2">
         <v>2.8302388191223145</v>
       </c>
       <c r="E267" s="2">
-        <v>2.7113323211669922</v>
+        <v>2.7109184265136719</v>
       </c>
     </row>
     <row r="268">
@@ -3788,13 +3788,13 @@
         <v>3.2133891582489014</v>
       </c>
       <c r="C268" s="2">
-        <v>3.0429830551147461</v>
+        <v>3.0424909591674805</v>
       </c>
       <c r="D268" s="2">
         <v>2.8525166511535645</v>
       </c>
       <c r="E268" s="2">
-        <v>2.7589371204376221</v>
+        <v>2.7585177421569824</v>
       </c>
     </row>
     <row r="269">
@@ -3805,13 +3805,13 @@
         <v>3.0382492542266846</v>
       </c>
       <c r="C269" s="2">
-        <v>2.8501062393188477</v>
+        <v>2.8498356342315674</v>
       </c>
       <c r="D269" s="2">
-        <v>2.8651344776153565</v>
+        <v>2.8651344776153564</v>
       </c>
       <c r="E269" s="2">
-        <v>2.73941969871521</v>
+        <v>2.7390437126159668</v>
       </c>
     </row>
     <row r="270">
@@ -3822,13 +3822,13 @@
         <v>2.7123379707336426</v>
       </c>
       <c r="C270" s="2">
-        <v>2.6175625324249268</v>
+        <v>2.6165714263916016</v>
       </c>
       <c r="D270" s="2">
         <v>2.8804192543029785</v>
       </c>
       <c r="E270" s="2">
-        <v>2.7533066272735596</v>
+        <v>2.7529942989349365</v>
       </c>
     </row>
     <row r="271">
@@ -3839,13 +3839,13 @@
         <v>3.3764641284942627</v>
       </c>
       <c r="C271" s="2">
-        <v>3.3181436061859131</v>
+        <v>3.3174130916595459</v>
       </c>
       <c r="D271" s="2">
         <v>2.9208593368530273</v>
       </c>
       <c r="E271" s="2">
-        <v>2.805448055267334</v>
+        <v>2.8050870895385742</v>
       </c>
     </row>
     <row r="272">
@@ -3856,13 +3856,13 @@
         <v>2.6326503753662109</v>
       </c>
       <c r="C272" s="2">
-        <v>2.6539220809936524</v>
+        <v>2.6536962985992432</v>
       </c>
       <c r="D272" s="2">
         <v>3.0039057731628418</v>
       </c>
       <c r="E272" s="2">
-        <v>2.9030351638793945</v>
+        <v>2.9026389122009277</v>
       </c>
     </row>
     <row r="273">
@@ -3873,13 +3873,13 @@
         <v>2.8398375511169434</v>
       </c>
       <c r="C273" s="2">
-        <v>2.5339281558990479</v>
+        <v>2.5339229106903076</v>
       </c>
       <c r="D273" s="2">
         <v>2.9937937259674072</v>
       </c>
       <c r="E273" s="2">
-        <v>2.904829740524292</v>
+        <v>2.9044399261474609</v>
       </c>
     </row>
     <row r="274">
@@ -3890,13 +3890,13 @@
         <v>2.9167056083679199</v>
       </c>
       <c r="C274" s="2">
-        <v>2.8907475471496582</v>
+        <v>2.8906924724578857</v>
       </c>
       <c r="D274" s="2">
-        <v>2.9863662719726563</v>
+        <v>2.9863662719726562</v>
       </c>
       <c r="E274" s="2">
-        <v>2.9186131954193115</v>
+        <v>2.9182193279266357</v>
       </c>
     </row>
     <row r="275">
@@ -3907,13 +3907,13 @@
         <v>2.9788649082183838</v>
       </c>
       <c r="C275" s="2">
-        <v>2.8626654148101807</v>
+        <v>2.8622887134552002</v>
       </c>
       <c r="D275" s="2">
         <v>2.9935076236724854</v>
       </c>
       <c r="E275" s="2">
-        <v>2.9292209148406982</v>
+        <v>2.9288380146026611</v>
       </c>
     </row>
     <row r="276">
@@ -3924,13 +3924,13 @@
         <v>3.3266537189483643</v>
       </c>
       <c r="C276" s="2">
-        <v>3.3572573661804199</v>
+        <v>3.3568391799926758</v>
       </c>
       <c r="D276" s="2">
         <v>2.9609360694885254</v>
       </c>
       <c r="E276" s="2">
-        <v>2.8961963653564453</v>
+        <v>2.8958499431610107</v>
       </c>
     </row>
     <row r="277">
@@ -3941,13 +3941,13 @@
         <v>3.1223795413970947</v>
       </c>
       <c r="C277" s="2">
-        <v>3.0591347217559814</v>
+        <v>3.0586991310119629</v>
       </c>
       <c r="D277" s="2">
         <v>3.0026471614837646</v>
       </c>
       <c r="E277" s="2">
-        <v>2.9233207702636719</v>
+        <v>2.9229686260223389</v>
       </c>
     </row>
     <row r="278">
@@ -3958,13 +3958,13 @@
         <v>2.9714028835296631</v>
       </c>
       <c r="C278" s="2">
-        <v>2.9741578102111816</v>
+        <v>2.9738514423370361</v>
       </c>
       <c r="D278" s="2">
         <v>3.0358569622039795</v>
       </c>
       <c r="E278" s="2">
-        <v>2.9894683361053467</v>
+        <v>2.989093542098999</v>
       </c>
     </row>
     <row r="279">
@@ -3975,13 +3975,13 @@
         <v>2.7766101360321045</v>
       </c>
       <c r="C279" s="2">
-        <v>2.7130310535430908</v>
+        <v>2.7121396064758301</v>
       </c>
       <c r="D279" s="2">
         <v>3.0247781276702881</v>
       </c>
       <c r="E279" s="2">
-        <v>2.954232931137085</v>
+        <v>2.9537947177886963</v>
       </c>
     </row>
     <row r="280">
@@ -3989,16 +3989,16 @@
         <v>36951</v>
       </c>
       <c r="B280" s="2">
-        <v>3.083319902420044</v>
+        <v>3.0833199024200439</v>
       </c>
       <c r="C280" s="2">
-        <v>3.0209224224090576</v>
+        <v>3.0205192565917969</v>
       </c>
       <c r="D280" s="2">
         <v>3.0043797492980957</v>
       </c>
       <c r="E280" s="2">
-        <v>2.9387664794921875</v>
+        <v>2.938382625579834</v>
       </c>
     </row>
     <row r="281">
@@ -4009,13 +4009,13 @@
         <v>3.0080509185791016</v>
       </c>
       <c r="C281" s="2">
-        <v>2.8980426788330078</v>
+        <v>2.8977658748626709</v>
       </c>
       <c r="D281" s="2">
         <v>2.9357397556304932</v>
       </c>
       <c r="E281" s="2">
-        <v>2.8582477569580078</v>
+        <v>2.8578217029571533</v>
       </c>
     </row>
     <row r="282">
@@ -4026,13 +4026,13 @@
         <v>3.1387259960174561</v>
       </c>
       <c r="C282" s="2">
-        <v>3.1292567253112793</v>
+        <v>3.1290462017059326</v>
       </c>
       <c r="D282" s="2">
         <v>2.8883428573608398</v>
       </c>
       <c r="E282" s="2">
-        <v>2.8065347671508789</v>
+        <v>2.8060641288757324</v>
       </c>
     </row>
     <row r="283">
@@ -4043,13 +4043,13 @@
         <v>2.8169944286346436</v>
       </c>
       <c r="C283" s="2">
-        <v>2.5736289024353027</v>
+        <v>2.5730020999908447</v>
       </c>
       <c r="D283" s="2">
         <v>2.8581039905548096</v>
       </c>
       <c r="E283" s="2">
-        <v>2.7944839000701904</v>
+        <v>2.793879508972168</v>
       </c>
     </row>
     <row r="284">
@@ -4060,13 +4060,13 @@
         <v>2.795280933380127</v>
       </c>
       <c r="C284" s="2">
-        <v>2.7234675884246826</v>
+        <v>2.7235801219940186</v>
       </c>
       <c r="D284" s="2">
         <v>2.8784995079040527</v>
       </c>
       <c r="E284" s="2">
-        <v>2.8096904754638672</v>
+        <v>2.8091187477111816</v>
       </c>
     </row>
     <row r="285">
@@ -4077,13 +4077,13 @@
         <v>2.7088937759399414</v>
       </c>
       <c r="C285" s="2">
-        <v>2.6325876712799072</v>
+        <v>2.6317906379699707</v>
       </c>
       <c r="D285" s="2">
         <v>2.9298126697540283</v>
       </c>
       <c r="E285" s="2">
-        <v>2.8739824295043945</v>
+        <v>2.8733401298522949</v>
       </c>
     </row>
     <row r="286">
@@ -4094,13 +4094,13 @@
         <v>2.6958062648773193</v>
       </c>
       <c r="C286" s="2">
-        <v>2.5937175750732422</v>
+        <v>2.5928819179534912</v>
       </c>
       <c r="D286" s="2">
         <v>2.8711872100830078</v>
       </c>
       <c r="E286" s="2">
-        <v>2.8235340118408203</v>
+        <v>2.8228931427001953</v>
       </c>
     </row>
     <row r="287">
@@ -4111,13 +4111,13 @@
         <v>2.6992526054382324</v>
       </c>
       <c r="C287" s="2">
-        <v>2.8657007217407227</v>
+        <v>2.8641893863677979</v>
       </c>
       <c r="D287" s="2">
         <v>2.8382124900817871</v>
       </c>
       <c r="E287" s="2">
-        <v>2.7875888347625732</v>
+        <v>2.7869067192077637</v>
       </c>
     </row>
     <row r="288">
@@ -4128,13 +4128,13 @@
         <v>2.9601714611053467</v>
       </c>
       <c r="C288" s="2">
-        <v>2.849890947341919</v>
+        <v>2.849292516708374</v>
       </c>
       <c r="D288" s="2">
         <v>2.8817493915557861</v>
       </c>
       <c r="E288" s="2">
-        <v>2.8526961803436279</v>
+        <v>2.8519666194915771</v>
       </c>
     </row>
     <row r="289">
@@ -4145,13 +4145,13 @@
         <v>3.5451385974884033</v>
       </c>
       <c r="C289" s="2">
-        <v>3.5995485782623291</v>
+        <v>3.5985124111175537</v>
       </c>
       <c r="D289" s="2">
         <v>2.9315910339355469</v>
       </c>
       <c r="E289" s="2">
-        <v>2.8964922428131104</v>
+        <v>2.8957180976867676</v>
       </c>
     </row>
     <row r="290">
@@ -4162,13 +4162,13 @@
         <v>2.4804210662841797</v>
       </c>
       <c r="C290" s="2">
-        <v>2.4440069198608399</v>
+        <v>2.4437422752380371</v>
       </c>
       <c r="D290" s="2">
         <v>2.9121754169464111</v>
       </c>
       <c r="E290" s="2">
-        <v>2.8782494068145752</v>
+        <v>2.8774456977844238</v>
       </c>
     </row>
     <row r="291">
@@ -4179,13 +4179,13 @@
         <v>2.841954231262207</v>
       </c>
       <c r="C291" s="2">
-        <v>2.8057498931884766</v>
+        <v>2.8051683902740479</v>
       </c>
       <c r="D291" s="2">
         <v>2.932633638381958</v>
       </c>
       <c r="E291" s="2">
-        <v>2.9004905223846436</v>
+        <v>2.8996829986572266</v>
       </c>
     </row>
     <row r="292">
@@ -4196,13 +4196,13 @@
         <v>3.2088251113891602</v>
       </c>
       <c r="C292" s="2">
-        <v>3.1595964431762695</v>
+        <v>3.1585409641265869</v>
       </c>
       <c r="D292" s="2">
-        <v>2.9704816341400147</v>
+        <v>2.9704816341400146</v>
       </c>
       <c r="E292" s="2">
-        <v>2.9145448207855225</v>
+        <v>2.9139575958251953</v>
       </c>
     </row>
     <row r="293">
@@ -4213,13 +4213,13 @@
         <v>3.2438561916351318</v>
       </c>
       <c r="C293" s="2">
-        <v>3.1176319122314453</v>
+        <v>3.1173453330993652</v>
       </c>
       <c r="D293" s="2">
         <v>2.9342086315155029</v>
       </c>
       <c r="E293" s="2">
-        <v>2.8903145790100098</v>
+        <v>2.8897972106933594</v>
       </c>
     </row>
     <row r="294">
@@ -4230,13 +4230,13 @@
         <v>2.5341536998748779</v>
       </c>
       <c r="C294" s="2">
-        <v>2.468402624130249</v>
+        <v>2.4673376083374023</v>
       </c>
       <c r="D294" s="2">
         <v>2.8772158622741699</v>
       </c>
       <c r="E294" s="2">
-        <v>2.8103611469268799</v>
+        <v>2.8099110126495361</v>
       </c>
     </row>
     <row r="295">
@@ -4247,13 +4247,13 @@
         <v>2.879929780960083</v>
       </c>
       <c r="C295" s="2">
-        <v>2.7938857078552246</v>
+        <v>2.7930171489715576</v>
       </c>
       <c r="D295" s="2">
         <v>2.9354000091552734</v>
       </c>
       <c r="E295" s="2">
-        <v>2.8635056018829346</v>
+        <v>2.8629651069641113</v>
       </c>
     </row>
     <row r="296">
@@ -4264,13 +4264,13 @@
         <v>3.0398852825164795</v>
       </c>
       <c r="C296" s="2">
-        <v>2.9921894073486328</v>
+        <v>2.9926621913909912</v>
       </c>
       <c r="D296" s="2">
         <v>2.9405057430267334</v>
       </c>
       <c r="E296" s="2">
-        <v>2.840569019317627</v>
+        <v>2.8402009010314941</v>
       </c>
     </row>
     <row r="297">
@@ -4281,13 +4281,13 @@
         <v>2.6337132453918457</v>
       </c>
       <c r="C297" s="2">
-        <v>2.6318187713623047</v>
+        <v>2.6318480968475342</v>
       </c>
       <c r="D297" s="2">
         <v>2.9440460205078125</v>
       </c>
       <c r="E297" s="2">
-        <v>2.8430271148681641</v>
+        <v>2.842738151550293</v>
       </c>
     </row>
     <row r="298">
@@ -4298,13 +4298,13 @@
         <v>3.0322039127349854</v>
       </c>
       <c r="C298" s="2">
-        <v>2.8799684047698975</v>
+        <v>2.8795380592346191</v>
       </c>
       <c r="D298" s="2">
         <v>2.888934850692749</v>
       </c>
       <c r="E298" s="2">
-        <v>2.7932038307189942</v>
+        <v>2.7928733825683594</v>
       </c>
     </row>
     <row r="299">
@@ -4315,13 +4315,13 @@
         <v>3.0040779113769531</v>
       </c>
       <c r="C299" s="2">
-        <v>2.9223079681396484</v>
+        <v>2.9212286472320557</v>
       </c>
       <c r="D299" s="2">
         <v>2.9606404304504395</v>
       </c>
       <c r="E299" s="2">
-        <v>2.8879380226135254</v>
+        <v>2.8876626491546631</v>
       </c>
     </row>
     <row r="300">
@@ -4332,13 +4332,13 @@
         <v>2.8879055976867676</v>
       </c>
       <c r="C300" s="2">
-        <v>2.5993201732635498</v>
+        <v>2.6002907752990723</v>
       </c>
       <c r="D300" s="2">
         <v>2.9479122161865234</v>
       </c>
       <c r="E300" s="2">
-        <v>2.8975329399108887</v>
+        <v>2.8971562385559082</v>
       </c>
     </row>
     <row r="301">
@@ -4349,13 +4349,13 @@
         <v>3.2406888008117676</v>
       </c>
       <c r="C301" s="2">
-        <v>3.1817185878753662</v>
+        <v>3.1813745498657227</v>
       </c>
       <c r="D301" s="2">
         <v>3.0099730491638184</v>
       </c>
       <c r="E301" s="2">
-        <v>2.9308302402496338</v>
+        <v>2.9303536415100098</v>
       </c>
     </row>
     <row r="302">
@@ -4366,13 +4366,13 @@
         <v>2.7478563785552979</v>
       </c>
       <c r="C302" s="2">
-        <v>2.6692218780517578</v>
+        <v>2.6685633659362793</v>
       </c>
       <c r="D302" s="2">
         <v>3.0016026496887207</v>
       </c>
       <c r="E302" s="2">
-        <v>2.9184811115264893</v>
+        <v>2.9179236888885498</v>
       </c>
     </row>
     <row r="303">
@@ -4383,13 +4383,13 @@
         <v>3.1795029640197754</v>
       </c>
       <c r="C303" s="2">
-        <v>3.3210122585296631</v>
+        <v>3.320441722869873</v>
       </c>
       <c r="D303" s="2">
         <v>2.9876425266265869</v>
       </c>
       <c r="E303" s="2">
-        <v>2.9232876300811768</v>
+        <v>2.9226644039154053</v>
       </c>
     </row>
     <row r="304">
@@ -4400,13 +4400,13 @@
         <v>2.7653753757476807</v>
       </c>
       <c r="C304" s="2">
-        <v>2.880239725112915</v>
+        <v>2.8784592151641846</v>
       </c>
       <c r="D304" s="2">
         <v>2.9952743053436279</v>
       </c>
       <c r="E304" s="2">
-        <v>2.9264097213745117</v>
+        <v>2.9258270263671875</v>
       </c>
     </row>
     <row r="305">
@@ -4417,13 +4417,13 @@
         <v>3.5984334945678711</v>
       </c>
       <c r="C305" s="2">
-        <v>3.2918651103973389</v>
+        <v>3.2914376258850098</v>
       </c>
       <c r="D305" s="2">
         <v>3.0517692565917969</v>
       </c>
       <c r="E305" s="2">
-        <v>3.0104830265045166</v>
+        <v>3.0097761154174805</v>
       </c>
     </row>
     <row r="306">
@@ -4434,13 +4434,13 @@
         <v>2.5583784580230713</v>
       </c>
       <c r="C306" s="2">
-        <v>2.520676851272583</v>
+        <v>2.5199799537658691</v>
       </c>
       <c r="D306" s="2">
         <v>3.0155408382415771</v>
       </c>
       <c r="E306" s="2">
-        <v>2.9795572757720947</v>
+        <v>2.978792667388916</v>
       </c>
     </row>
     <row r="307">
@@ -4451,13 +4451,13 @@
         <v>2.9065632820129395</v>
       </c>
       <c r="C307" s="2">
-        <v>2.9232261180877686</v>
+        <v>2.9222044944763184</v>
       </c>
       <c r="D307" s="2">
         <v>3.0446062088012695</v>
       </c>
       <c r="E307" s="2">
-        <v>3.0198361873626709</v>
+        <v>3.0190021991729736</v>
       </c>
     </row>
     <row r="308">
@@ -4468,13 +4468,13 @@
         <v>3.0727653503417969</v>
       </c>
       <c r="C308" s="2">
-        <v>2.9504072666168213</v>
+        <v>2.949690580368042</v>
       </c>
       <c r="D308" s="2">
-        <v>2.9843366146087647</v>
+        <v>2.9843366146087646</v>
       </c>
       <c r="E308" s="2">
-        <v>2.94185471534729</v>
+        <v>2.9411156177520752</v>
       </c>
     </row>
     <row r="309">
@@ -4485,13 +4485,13 @@
         <v>3.396359920501709</v>
       </c>
       <c r="C309" s="2">
-        <v>3.3559792041778565</v>
+        <v>3.3558335304260254</v>
       </c>
       <c r="D309" s="2">
         <v>2.9754116535186768</v>
       </c>
       <c r="E309" s="2">
-        <v>2.9122416973114014</v>
+        <v>2.9115934371948242</v>
       </c>
     </row>
     <row r="310">
@@ -4502,13 +4502,13 @@
         <v>2.9146325588226318</v>
       </c>
       <c r="C310" s="2">
-        <v>2.9033880233764648</v>
+        <v>2.9025232791900635</v>
       </c>
       <c r="D310" s="2">
         <v>2.8857958316802979</v>
       </c>
       <c r="E310" s="2">
-        <v>2.8621656894683838</v>
+        <v>2.8614468574523926</v>
       </c>
     </row>
     <row r="311">
@@ -4519,13 +4519,13 @@
         <v>3.009443998336792</v>
       </c>
       <c r="C311" s="2">
-        <v>3.0317304134368896</v>
+        <v>3.0304496288299561</v>
       </c>
       <c r="D311" s="2">
         <v>2.9076120853424072</v>
       </c>
       <c r="E311" s="2">
-        <v>2.8853685855865479</v>
+        <v>2.8847436904907227</v>
       </c>
     </row>
     <row r="312">
@@ -4533,16 +4533,16 @@
         <v>37926</v>
       </c>
       <c r="B312" s="2">
-        <v>2.6370763778686524</v>
+        <v>2.6370763778686523</v>
       </c>
       <c r="C312" s="2">
-        <v>2.6191794872283936</v>
+        <v>2.6194627285003662</v>
       </c>
       <c r="D312" s="2">
         <v>2.9007503986358643</v>
       </c>
       <c r="E312" s="2">
-        <v>2.8875360488891602</v>
+        <v>2.8869779109954834</v>
       </c>
     </row>
     <row r="313">
@@ -4553,13 +4553,13 @@
         <v>2.6850523948669434</v>
       </c>
       <c r="C313" s="2">
-        <v>2.613722562789917</v>
+        <v>2.6127581596374512</v>
       </c>
       <c r="D313" s="2">
         <v>2.8695483207702637</v>
       </c>
       <c r="E313" s="2">
-        <v>2.8782529830932617</v>
+        <v>2.8777604103088379</v>
       </c>
     </row>
     <row r="314">
@@ -4570,13 +4570,13 @@
         <v>2.7918891906738281</v>
       </c>
       <c r="C314" s="2">
-        <v>2.8411803245544434</v>
+        <v>2.840118408203125</v>
       </c>
       <c r="D314" s="2">
         <v>2.8094995021820068</v>
       </c>
       <c r="E314" s="2">
-        <v>2.8210763931274414</v>
+        <v>2.8205344676971436</v>
       </c>
     </row>
     <row r="315">
@@ -4587,13 +4587,13 @@
         <v>2.7547266483306885</v>
       </c>
       <c r="C315" s="2">
-        <v>2.7295048236846924</v>
+        <v>2.7296526432037354</v>
       </c>
       <c r="D315" s="2">
         <v>2.7660925388336182</v>
       </c>
       <c r="E315" s="2">
-        <v>2.7693610191345215</v>
+        <v>2.7688651084899902</v>
       </c>
     </row>
     <row r="316">
@@ -4604,13 +4604,13 @@
         <v>2.8448073863983154</v>
       </c>
       <c r="C316" s="2">
-        <v>2.9427323341369629</v>
+        <v>2.9423112869262695</v>
       </c>
       <c r="D316" s="2">
         <v>2.7220799922943115</v>
       </c>
       <c r="E316" s="2">
-        <v>2.7211349010467529</v>
+        <v>2.7207028865814209</v>
       </c>
     </row>
     <row r="317">
@@ -4621,13 +4621,13 @@
         <v>2.7919459342956543</v>
       </c>
       <c r="C317" s="2">
-        <v>2.8668594360351563</v>
+        <v>2.8667337894439697</v>
       </c>
       <c r="D317" s="2">
         <v>2.8139922618865967</v>
       </c>
       <c r="E317" s="2">
-        <v>2.8143091201782227</v>
+        <v>2.8138458728790283</v>
       </c>
     </row>
     <row r="318">
@@ -4638,13 +4638,13 @@
         <v>2.855921745300293</v>
       </c>
       <c r="C318" s="2">
-        <v>2.8413898944854736</v>
+        <v>2.8408012390136719</v>
       </c>
       <c r="D318" s="2">
         <v>2.8755722045898438</v>
       </c>
       <c r="E318" s="2">
-        <v>2.8872010707855225</v>
+        <v>2.8867316246032715</v>
       </c>
     </row>
     <row r="319">
@@ -4655,13 +4655,13 @@
         <v>2.5239691734313965</v>
       </c>
       <c r="C319" s="2">
-        <v>2.4379508495330811</v>
+        <v>2.4374990463256836</v>
       </c>
       <c r="D319" s="2">
         <v>2.8728706836700439</v>
       </c>
       <c r="E319" s="2">
-        <v>2.8739080429077149</v>
+        <v>2.873490571975708</v>
       </c>
     </row>
     <row r="320">
@@ -4672,13 +4672,13 @@
         <v>2.6133308410644531</v>
       </c>
       <c r="C320" s="2">
-        <v>2.5976934432983398</v>
+        <v>2.5969889163970947</v>
       </c>
       <c r="D320" s="2">
         <v>2.8676979541778564</v>
       </c>
       <c r="E320" s="2">
-        <v>2.8788917064666748</v>
+        <v>2.8783292770385742</v>
       </c>
     </row>
     <row r="321">
@@ -4689,13 +4689,13 @@
         <v>3.4642865657806396</v>
       </c>
       <c r="C321" s="2">
-        <v>3.4577474594116211</v>
+        <v>3.4577493667602539</v>
       </c>
       <c r="D321" s="2">
         <v>2.8698451519012451</v>
       </c>
       <c r="E321" s="2">
-        <v>2.8442285060882568</v>
+        <v>2.8436210155487061</v>
       </c>
     </row>
     <row r="322">
@@ -4706,13 +4706,13 @@
         <v>3.2392730712890625</v>
       </c>
       <c r="C322" s="2">
-        <v>3.2697520256042481</v>
+        <v>3.268730640411377</v>
       </c>
       <c r="D322" s="2">
         <v>2.8810973167419434</v>
       </c>
       <c r="E322" s="2">
-        <v>2.8526573181152344</v>
+        <v>2.8520121574401855</v>
       </c>
     </row>
     <row r="323">
@@ -4723,13 +4723,13 @@
         <v>2.7675745487213135</v>
       </c>
       <c r="C323" s="2">
-        <v>2.7215421199798584</v>
+        <v>2.7209475040435791</v>
       </c>
       <c r="D323" s="2">
-        <v>2.8653018474578858</v>
+        <v>2.8653018474578857</v>
       </c>
       <c r="E323" s="2">
-        <v>2.8435640335083008</v>
+        <v>2.8428835868835449</v>
       </c>
     </row>
     <row r="324">
@@ -4740,13 +4740,13 @@
         <v>2.708172082901001</v>
       </c>
       <c r="C324" s="2">
-        <v>2.7743575572967529</v>
+        <v>2.7732024192810059</v>
       </c>
       <c r="D324" s="2">
         <v>2.9021182060241699</v>
       </c>
       <c r="E324" s="2">
-        <v>2.8890838623046875</v>
+        <v>2.8884146213531494</v>
       </c>
     </row>
     <row r="325">
@@ -4757,13 +4757,13 @@
         <v>2.8641316890716553</v>
       </c>
       <c r="C325" s="2">
-        <v>2.6307637691497803</v>
+        <v>2.6299369335174561</v>
       </c>
       <c r="D325" s="2">
         <v>2.9019820690155029</v>
       </c>
       <c r="E325" s="2">
-        <v>2.8941953182220459</v>
+        <v>2.8935303688049316</v>
       </c>
     </row>
     <row r="326">
@@ -4774,13 +4774,13 @@
         <v>2.8932168483734131</v>
       </c>
       <c r="C326" s="2">
-        <v>2.9427192211151123</v>
+        <v>2.9422540664672852</v>
       </c>
       <c r="D326" s="2">
         <v>2.8163001537322998</v>
       </c>
       <c r="E326" s="2">
-        <v>2.8056879043579102</v>
+        <v>2.8049905300140381</v>
       </c>
     </row>
     <row r="327">
@@ -4791,13 +4791,13 @@
         <v>2.7137627601623535</v>
       </c>
       <c r="C327" s="2">
-        <v>2.759549617767334</v>
+        <v>2.7586433887481689</v>
       </c>
       <c r="D327" s="2">
         <v>2.7646729946136475</v>
       </c>
       <c r="E327" s="2">
-        <v>2.7522797584533692</v>
+        <v>2.7516517639160156</v>
       </c>
     </row>
     <row r="328">
@@ -4808,13 +4808,13 @@
         <v>2.8553144931793213</v>
       </c>
       <c r="C328" s="2">
-        <v>2.847630500793457</v>
+        <v>2.8472793102264404</v>
       </c>
       <c r="D328" s="2">
-        <v>2.7419497966766358</v>
+        <v>2.7419497966766357</v>
       </c>
       <c r="E328" s="2">
-        <v>2.7300167083740234</v>
+        <v>2.7294533252716064</v>
       </c>
     </row>
     <row r="329">
@@ -4825,13 +4825,13 @@
         <v>2.6121056079864502</v>
       </c>
       <c r="C329" s="2">
-        <v>2.6436948776245117</v>
+        <v>2.6430299282073975</v>
       </c>
       <c r="D329" s="2">
         <v>2.8135664463043213</v>
       </c>
       <c r="E329" s="2">
-        <v>2.7905824184417725</v>
+        <v>2.7899932861328125</v>
       </c>
     </row>
     <row r="330">
@@ -4842,13 +4842,13 @@
         <v>2.6931507587432861</v>
       </c>
       <c r="C330" s="2">
-        <v>2.6611824035644531</v>
+        <v>2.6608915328979492</v>
       </c>
       <c r="D330" s="2">
         <v>2.8811171054840088</v>
       </c>
       <c r="E330" s="2">
-        <v>2.8695926666259766</v>
+        <v>2.8690717220306396</v>
       </c>
     </row>
     <row r="331">
@@ -4859,13 +4859,13 @@
         <v>2.7746286392211914</v>
       </c>
       <c r="C331" s="2">
-        <v>2.7890779972076416</v>
+        <v>2.7886812686920166</v>
       </c>
       <c r="D331" s="2">
         <v>2.9362571239471436</v>
       </c>
       <c r="E331" s="2">
-        <v>2.9003670215606689</v>
+        <v>2.8998568058013916</v>
       </c>
     </row>
     <row r="332">
@@ -4876,13 +4876,13 @@
         <v>2.5630660057067871</v>
       </c>
       <c r="C332" s="2">
-        <v>2.5211749076843262</v>
+        <v>2.5211620330810547</v>
       </c>
       <c r="D332" s="2">
         <v>2.9898898601531982</v>
       </c>
       <c r="E332" s="2">
-        <v>2.9410738945007324</v>
+        <v>2.9406242370605469</v>
       </c>
     </row>
     <row r="333">
@@ -4893,13 +4893,13 @@
         <v>3.3527207374572754</v>
       </c>
       <c r="C333" s="2">
-        <v>3.3194475173950195</v>
+        <v>3.3180608749389648</v>
       </c>
       <c r="D333" s="2">
         <v>3.0033667087554932</v>
       </c>
       <c r="E333" s="2">
-        <v>2.9423837661743164</v>
+        <v>2.9419751167297363</v>
       </c>
     </row>
     <row r="334">
@@ -4910,13 +4910,13 @@
         <v>3.4720878601074219</v>
       </c>
       <c r="C334" s="2">
-        <v>3.3418571949005127</v>
+        <v>3.3416426181793213</v>
       </c>
       <c r="D334" s="2">
         <v>3.0960991382598877</v>
       </c>
       <c r="E334" s="2">
-        <v>3.0459635257720947</v>
+        <v>3.0456295013427734</v>
       </c>
     </row>
     <row r="335">
@@ -4927,13 +4927,13 @@
         <v>3.3894779682159424</v>
       </c>
       <c r="C335" s="2">
-        <v>3.2196879386901856</v>
+        <v>3.21932053565979</v>
       </c>
       <c r="D335" s="2">
         <v>3.0677731037139893</v>
       </c>
       <c r="E335" s="2">
-        <v>3.0160846710205078</v>
+        <v>3.0156311988830566</v>
       </c>
     </row>
     <row r="336">
@@ -4944,13 +4944,13 @@
         <v>3.1964564323425293</v>
       </c>
       <c r="C336" s="2">
-        <v>3.125910758972168</v>
+        <v>3.1255502700805664</v>
       </c>
       <c r="D336" s="2">
         <v>3.1209614276885986</v>
       </c>
       <c r="E336" s="2">
-        <v>3.0731010437011719</v>
+        <v>3.072688102722168</v>
       </c>
     </row>
     <row r="337">
@@ -4961,13 +4961,13 @@
         <v>2.9766063690185547</v>
       </c>
       <c r="C337" s="2">
-        <v>2.859419584274292</v>
+        <v>2.8594372272491455</v>
       </c>
       <c r="D337" s="2">
-        <v>3.221625566482544</v>
+        <v>3.2216255664825439</v>
       </c>
       <c r="E337" s="2">
-        <v>3.1748080253601074</v>
+        <v>3.1743228435516357</v>
       </c>
     </row>
     <row r="338">
@@ -4978,13 +4978,13 @@
         <v>3.4466981887817383</v>
       </c>
       <c r="C338" s="2">
-        <v>3.5759139060974121</v>
+        <v>3.575918436050415</v>
       </c>
       <c r="D338" s="2">
         <v>3.2171969413757324</v>
       </c>
       <c r="E338" s="2">
-        <v>3.1842420101165772</v>
+        <v>3.1838164329528809</v>
       </c>
     </row>
     <row r="339">
@@ -4995,13 +4995,13 @@
         <v>2.4382150173187256</v>
       </c>
       <c r="C339" s="2">
-        <v>2.3922719955444336</v>
+        <v>2.3909077644348145</v>
       </c>
       <c r="D339" s="2">
         <v>3.1648685932159424</v>
       </c>
       <c r="E339" s="2">
-        <v>3.143399715423584</v>
+        <v>3.1430068016052246</v>
       </c>
     </row>
     <row r="340">
@@ -5012,13 +5012,13 @@
         <v>3.2533247470855713</v>
       </c>
       <c r="C340" s="2">
-        <v>3.3022251129150391</v>
+        <v>3.3021938800811768</v>
       </c>
       <c r="D340" s="2">
         <v>3.0457100868225098</v>
       </c>
       <c r="E340" s="2">
-        <v>3.0298585891723633</v>
+        <v>3.0294396877288818</v>
       </c>
     </row>
     <row r="341">
@@ -5029,13 +5029,13 @@
         <v>3.4690430164337158</v>
       </c>
       <c r="C341" s="2">
-        <v>3.4365377426147461</v>
+        <v>3.4358742237091064</v>
       </c>
       <c r="D341" s="2">
         <v>3.0564477443695068</v>
       </c>
       <c r="E341" s="2">
-        <v>3.03865647315979</v>
+        <v>3.0382809638977051</v>
       </c>
     </row>
     <row r="342">
@@ -5046,13 +5046,13 @@
         <v>3.3128621578216553</v>
       </c>
       <c r="C342" s="2">
-        <v>3.4043540954589844</v>
+        <v>3.4035036563873291</v>
       </c>
       <c r="D342" s="2">
         <v>3.0107812881469727</v>
       </c>
       <c r="E342" s="2">
-        <v>3.0057516098022461</v>
+        <v>3.005333423614502</v>
       </c>
     </row>
     <row r="343">
@@ -5063,13 +5063,13 @@
         <v>3.0011341571807861</v>
       </c>
       <c r="C343" s="2">
-        <v>2.9742772579193115</v>
+        <v>2.9743552207946777</v>
       </c>
       <c r="D343" s="2">
         <v>2.9489359855651855</v>
       </c>
       <c r="E343" s="2">
-        <v>2.9344515800476074</v>
+        <v>2.9339637756347656</v>
       </c>
     </row>
     <row r="344">
@@ -5080,13 +5080,13 @@
         <v>2.3170506954193115</v>
       </c>
       <c r="C344" s="2">
-        <v>2.1978166103363037</v>
+        <v>2.1972169876098633</v>
       </c>
       <c r="D344" s="2">
         <v>2.9932661056518555</v>
       </c>
       <c r="E344" s="2">
-        <v>2.9791121482849121</v>
+        <v>2.9787449836730957</v>
       </c>
     </row>
     <row r="345">
@@ -5097,13 +5097,13 @@
         <v>3.2930951118469238</v>
       </c>
       <c r="C345" s="2">
-        <v>3.2050929069519043</v>
+        <v>3.2051219940185547</v>
       </c>
       <c r="D345" s="2">
         <v>2.9684574604034424</v>
       </c>
       <c r="E345" s="2">
-        <v>2.9524791240692139</v>
+        <v>2.9520604610443115</v>
       </c>
     </row>
     <row r="346">
@@ -5114,13 +5114,13 @@
         <v>2.5656082630157471</v>
       </c>
       <c r="C346" s="2">
-        <v>2.5632741451263428</v>
+        <v>2.5629076957702637</v>
       </c>
       <c r="D346" s="2">
         <v>2.9091699123382568</v>
       </c>
       <c r="E346" s="2">
-        <v>2.8926002979278565</v>
+        <v>2.8921768665313721</v>
       </c>
     </row>
     <row r="347">
@@ -5131,13 +5131,13 @@
         <v>2.8900904655456543</v>
       </c>
       <c r="C347" s="2">
-        <v>2.9342141151428223</v>
+        <v>2.9335930347442627</v>
       </c>
       <c r="D347" s="2">
         <v>2.7975034713745117</v>
       </c>
       <c r="E347" s="2">
-        <v>2.7658653259277344</v>
+        <v>2.7654850482940674</v>
       </c>
     </row>
     <row r="348">
@@ -5148,13 +5148,13 @@
         <v>2.8371856212615967</v>
       </c>
       <c r="C348" s="2">
-        <v>2.7942166328430176</v>
+        <v>2.793938159942627</v>
       </c>
       <c r="D348" s="2">
         <v>2.7610433101654053</v>
       </c>
       <c r="E348" s="2">
-        <v>2.7243847846984863</v>
+        <v>2.7239854335784912</v>
       </c>
     </row>
     <row r="349">
@@ -5165,13 +5165,13 @@
         <v>3.0300476551055908</v>
       </c>
       <c r="C349" s="2">
-        <v>3.0625276565551758</v>
+        <v>3.0620341300964355</v>
       </c>
       <c r="D349" s="2">
         <v>2.8130855560302734</v>
       </c>
       <c r="E349" s="2">
-        <v>2.7671873569488525</v>
+        <v>2.7667727470397949</v>
       </c>
     </row>
     <row r="350">
@@ -5182,13 +5182,13 @@
         <v>2.9354543685913086</v>
       </c>
       <c r="C350" s="2">
-        <v>2.897629976272583</v>
+        <v>2.8969204425811768</v>
       </c>
       <c r="D350" s="2">
         <v>2.7753708362579346</v>
       </c>
       <c r="E350" s="2">
-        <v>2.7316975593566895</v>
+        <v>2.7313573360443115</v>
       </c>
     </row>
     <row r="351">
@@ -5199,13 +5199,13 @@
         <v>2.3078649044036865</v>
       </c>
       <c r="C351" s="2">
-        <v>2.2637395858764649</v>
+        <v>2.2632787227630615</v>
       </c>
       <c r="D351" s="2">
         <v>2.7796561717987061</v>
       </c>
       <c r="E351" s="2">
-        <v>2.7334063053131104</v>
+        <v>2.7332072257995605</v>
       </c>
     </row>
     <row r="352">
@@ -5216,13 +5216,13 @@
         <v>2.6729929447174072</v>
       </c>
       <c r="C352" s="2">
-        <v>2.6009523868560791</v>
+        <v>2.6008579730987549</v>
       </c>
       <c r="D352" s="2">
         <v>2.7898030281066895</v>
       </c>
       <c r="E352" s="2">
-        <v>2.7426779270172119</v>
+        <v>2.7425720691680908</v>
       </c>
     </row>
     <row r="353">
@@ -5233,13 +5233,13 @@
         <v>2.7854316234588623</v>
       </c>
       <c r="C353" s="2">
-        <v>2.5830392837524414</v>
+        <v>2.5823018550872803</v>
       </c>
       <c r="D353" s="2">
         <v>2.8075573444366455</v>
       </c>
       <c r="E353" s="2">
-        <v>2.7559108734130859</v>
+        <v>2.7558357715606689</v>
       </c>
     </row>
     <row r="354">
@@ -5250,13 +5250,13 @@
         <v>2.9536609649658203</v>
       </c>
       <c r="C354" s="2">
-        <v>2.8856847286224365</v>
+        <v>2.8863835334777832</v>
       </c>
       <c r="D354" s="2">
         <v>2.7602970600128174</v>
       </c>
       <c r="E354" s="2">
-        <v>2.704897403717041</v>
+        <v>2.7048985958099365</v>
       </c>
     </row>
     <row r="355">
@@ -5267,13 +5267,13 @@
         <v>2.6041765213012695</v>
       </c>
       <c r="C355" s="2">
-        <v>2.5786514282226563</v>
+        <v>2.5795581340789795</v>
       </c>
       <c r="D355" s="2">
         <v>2.7145042419433594</v>
       </c>
       <c r="E355" s="2">
-        <v>2.6620702743530273</v>
+        <v>2.6621553897857666</v>
       </c>
     </row>
     <row r="356">
@@ -5284,13 +5284,13 @@
         <v>2.9814133644104004</v>
       </c>
       <c r="C356" s="2">
-        <v>3.0176594257354736</v>
+        <v>3.0178754329681396</v>
       </c>
       <c r="D356" s="2">
         <v>2.8583881855010986</v>
       </c>
       <c r="E356" s="2">
-        <v>2.8157987594604492</v>
+        <v>2.8158974647521973</v>
       </c>
     </row>
     <row r="357">
@@ -5301,13 +5301,13 @@
         <v>2.996973991394043</v>
       </c>
       <c r="C357" s="2">
-        <v>2.9133129119873047</v>
+        <v>2.9133121967315674</v>
       </c>
       <c r="D357" s="2">
         <v>2.8879735469818115</v>
       </c>
       <c r="E357" s="2">
-        <v>2.8540244102478027</v>
+        <v>2.8541431427001953</v>
       </c>
     </row>
     <row r="358">
@@ -5318,13 +5318,13 @@
         <v>2.6047053337097168</v>
       </c>
       <c r="C358" s="2">
-        <v>2.6034069061279297</v>
+        <v>2.6035990715026855</v>
       </c>
       <c r="D358" s="2">
         <v>2.8947820663452148</v>
       </c>
       <c r="E358" s="2">
-        <v>2.8945879936218262</v>
+        <v>2.894810676574707</v>
       </c>
     </row>
     <row r="359">
@@ -5335,13 +5335,13 @@
         <v>2.5233175754547119</v>
       </c>
       <c r="C359" s="2">
-        <v>2.5121853351593018</v>
+        <v>2.5122323036193848</v>
       </c>
       <c r="D359" s="2">
         <v>2.8767657279968262</v>
       </c>
       <c r="E359" s="2">
-        <v>2.8895878791809082</v>
+        <v>2.8895518779754639</v>
       </c>
     </row>
     <row r="360">
@@ -5352,13 +5352,13 @@
         <v>3.6028206348419189</v>
       </c>
       <c r="C360" s="2">
-        <v>3.6472961902618408</v>
+        <v>3.6469566822052002</v>
       </c>
       <c r="D360" s="2">
         <v>2.9705870151519775</v>
       </c>
       <c r="E360" s="2">
-        <v>2.9757330417633057</v>
+        <v>2.9755535125732422</v>
       </c>
     </row>
     <row r="361">
@@ -5366,16 +5366,16 @@
         <v>39417</v>
       </c>
       <c r="B361" s="2">
-        <v>2.9392609596252442</v>
+        <v>2.9392609596252441</v>
       </c>
       <c r="C361" s="2">
-        <v>2.9449825286865234</v>
+        <v>2.9450697898864746</v>
       </c>
       <c r="D361" s="2">
         <v>3.0329892635345459</v>
       </c>
       <c r="E361" s="2">
-        <v>3.0110442638397217</v>
+        <v>3.0107643604278564</v>
       </c>
     </row>
     <row r="362">
@@ -5386,13 +5386,13 @@
         <v>2.8467082977294922</v>
       </c>
       <c r="C362" s="2">
-        <v>2.948112964630127</v>
+        <v>2.9483096599578857</v>
       </c>
       <c r="D362" s="2">
         <v>3.1134994029998779</v>
       </c>
       <c r="E362" s="2">
-        <v>3.1042077541351318</v>
+        <v>3.1039118766784668</v>
       </c>
     </row>
     <row r="363">
@@ -5403,13 +5403,13 @@
         <v>2.7915153503417969</v>
       </c>
       <c r="C363" s="2">
-        <v>2.8406825065612793</v>
+        <v>2.8390543460845947</v>
       </c>
       <c r="D363" s="2">
         <v>3.2506794929504395</v>
       </c>
       <c r="E363" s="2">
-        <v>3.2316100597381592</v>
+        <v>3.2312788963317871</v>
       </c>
     </row>
     <row r="364">
@@ -5420,13 +5420,13 @@
         <v>3.4485676288604736</v>
       </c>
       <c r="C364" s="2">
-        <v>3.3539581298828125</v>
+        <v>3.3535723686218262</v>
       </c>
       <c r="D364" s="2">
         <v>3.3929991722106934</v>
       </c>
       <c r="E364" s="2">
-        <v>3.3803176879882813</v>
+        <v>3.3799829483032227</v>
       </c>
     </row>
     <row r="365">
@@ -5437,13 +5437,13 @@
         <v>3.5430328845977783</v>
       </c>
       <c r="C365" s="2">
-        <v>3.335460901260376</v>
+        <v>3.334773063659668</v>
       </c>
       <c r="D365" s="2">
         <v>3.3593947887420654</v>
       </c>
       <c r="E365" s="2">
-        <v>3.340709924697876</v>
+        <v>3.3404409885406494</v>
       </c>
     </row>
     <row r="366">
@@ -5454,13 +5454,13 @@
         <v>3.7215662002563477</v>
       </c>
       <c r="C366" s="2">
-        <v>3.7517843246459961</v>
+        <v>3.7516388893127441</v>
       </c>
       <c r="D366" s="2">
         <v>3.4102058410644531</v>
       </c>
       <c r="E366" s="2">
-        <v>3.3903121948242188</v>
+        <v>3.390101432800293</v>
       </c>
     </row>
     <row r="367">
@@ -5471,13 +5471,13 @@
         <v>3.8393266201019287</v>
       </c>
       <c r="C367" s="2">
-        <v>3.7500269412994385</v>
+        <v>3.7499027252197266</v>
       </c>
       <c r="D367" s="2">
         <v>3.4632799625396729</v>
       </c>
       <c r="E367" s="2">
-        <v>3.442490816116333</v>
+        <v>3.4421291351318359</v>
       </c>
     </row>
     <row r="368">
@@ -5488,13 +5488,13 @@
         <v>3.8041937351226807</v>
       </c>
       <c r="C368" s="2">
-        <v>3.8505556583404541</v>
+        <v>3.8505692481994629</v>
       </c>
       <c r="D368" s="2">
         <v>3.5386779308319092</v>
       </c>
       <c r="E368" s="2">
-        <v>3.5122087001800537</v>
+        <v>3.5119853019714355</v>
       </c>
     </row>
     <row r="369">
@@ -5505,13 +5505,13 @@
         <v>3.3003807067871094</v>
       </c>
       <c r="C369" s="2">
-        <v>3.2908248901367188</v>
+        <v>3.2910780906677246</v>
       </c>
       <c r="D369" s="2">
         <v>3.5326230525970459</v>
       </c>
       <c r="E369" s="2">
-        <v>3.5208239555358887</v>
+        <v>3.5205357074737549</v>
       </c>
     </row>
     <row r="370">
@@ -5522,13 +5522,13 @@
         <v>3.396561861038208</v>
       </c>
       <c r="C370" s="2">
-        <v>3.391404390335083</v>
+        <v>3.3920149803161621</v>
       </c>
       <c r="D370" s="2">
         <v>3.5288946628570557</v>
       </c>
       <c r="E370" s="2">
-        <v>3.5322363376617432</v>
+        <v>3.5319557189941406</v>
       </c>
     </row>
     <row r="371">
@@ -5539,13 +5539,13 @@
         <v>3.3243756294250488</v>
       </c>
       <c r="C371" s="2">
-        <v>3.4177188873291016</v>
+        <v>3.4165582656860352</v>
       </c>
       <c r="D371" s="2">
         <v>3.5113959312438965</v>
       </c>
       <c r="E371" s="2">
-        <v>3.5068202018737793</v>
+        <v>3.5066101551055908</v>
       </c>
     </row>
     <row r="372">
@@ -5556,13 +5556,13 @@
         <v>3.4700953960418701</v>
       </c>
       <c r="C372" s="2">
-        <v>3.4681437015533447</v>
+        <v>3.4677608013153076</v>
       </c>
       <c r="D372" s="2">
         <v>3.473313570022583</v>
       </c>
       <c r="E372" s="2">
-        <v>3.4890635013580322</v>
+        <v>3.488717794418335</v>
       </c>
     </row>
     <row r="373">
@@ -5573,13 +5573,13 @@
         <v>3.3940751552581787</v>
       </c>
       <c r="C373" s="2">
-        <v>3.4314968585968018</v>
+        <v>3.4305253028869629</v>
       </c>
       <c r="D373" s="2">
         <v>3.4050359725952148</v>
       </c>
       <c r="E373" s="2">
-        <v>3.423032283782959</v>
+        <v>3.4226438999176025</v>
       </c>
     </row>
     <row r="374">
@@ -5590,13 +5590,13 @@
         <v>3.5094757080078125</v>
       </c>
       <c r="C374" s="2">
-        <v>3.4381709098815918</v>
+        <v>3.4375524520874023</v>
       </c>
       <c r="D374" s="2">
         <v>3.419992208480835</v>
       </c>
       <c r="E374" s="2">
-        <v>3.4436793327331543</v>
+        <v>3.4432876110076904</v>
       </c>
     </row>
     <row r="375">
@@ -5607,13 +5607,13 @@
         <v>3.564077615737915</v>
       </c>
       <c r="C375" s="2">
-        <v>3.5230393409729004</v>
+        <v>3.5235288143157959</v>
       </c>
       <c r="D375" s="2">
         <v>3.4214012622833252</v>
       </c>
       <c r="E375" s="2">
-        <v>3.457158088684082</v>
+        <v>3.456613302230835</v>
       </c>
     </row>
     <row r="376">
@@ -5624,13 +5624,13 @@
         <v>3.4965860843658447</v>
       </c>
       <c r="C376" s="2">
-        <v>3.5902173519134522</v>
+        <v>3.5888712406158447</v>
       </c>
       <c r="D376" s="2">
         <v>3.5204756259918213</v>
       </c>
       <c r="E376" s="2">
-        <v>3.5575757026672363</v>
+        <v>3.5570733547210693</v>
       </c>
     </row>
     <row r="377">
@@ -5641,13 +5641,13 @@
         <v>3.189694881439209</v>
       </c>
       <c r="C377" s="2">
-        <v>3.2562742233276367</v>
+        <v>3.2559041976928711</v>
       </c>
       <c r="D377" s="2">
         <v>3.4483969211578369</v>
       </c>
       <c r="E377" s="2">
-        <v>3.4998259544372559</v>
+        <v>3.4993071556091309</v>
       </c>
     </row>
     <row r="378">
@@ -5658,13 +5658,13 @@
         <v>3.4349884986877441</v>
       </c>
       <c r="C378" s="2">
-        <v>3.4766490459442139</v>
+        <v>3.4768719673156738</v>
       </c>
       <c r="D378" s="2">
         <v>3.4510953426361084</v>
       </c>
       <c r="E378" s="2">
-        <v>3.4918732643127442</v>
+        <v>3.4914674758911133</v>
       </c>
     </row>
     <row r="379">
@@ -5675,13 +5675,13 @@
         <v>3.4092419147491455</v>
       </c>
       <c r="C379" s="2">
-        <v>3.5127124786376953</v>
+        <v>3.5119457244873047</v>
       </c>
       <c r="D379" s="2">
         <v>3.4201765060424805</v>
       </c>
       <c r="E379" s="2">
-        <v>3.4693155288696289</v>
+        <v>3.4689197540283203</v>
       </c>
     </row>
     <row r="380">
@@ -5692,13 +5692,13 @@
         <v>4.2160458564758301</v>
       </c>
       <c r="C380" s="2">
-        <v>4.3214778900146484</v>
+        <v>4.3206992149353027</v>
       </c>
       <c r="D380" s="2">
         <v>3.3299660682678223</v>
       </c>
       <c r="E380" s="2">
-        <v>3.3829164505004883</v>
+        <v>3.3825056552886963</v>
       </c>
     </row>
     <row r="381">
@@ -5706,16 +5706,16 @@
         <v>40026</v>
       </c>
       <c r="B381" s="2">
-        <v>2.8213868141174317</v>
+        <v>2.8213868141174316</v>
       </c>
       <c r="C381" s="2">
-        <v>2.9483959674835205</v>
+        <v>2.9478662014007568</v>
       </c>
       <c r="D381" s="2">
         <v>3.3169794082641602</v>
       </c>
       <c r="E381" s="2">
-        <v>3.3725519180297852</v>
+        <v>3.3722028732299805</v>
       </c>
     </row>
     <row r="382">
@@ -5726,13 +5726,13 @@
         <v>3.4183616638183594</v>
       </c>
       <c r="C382" s="2">
-        <v>3.3599226474761963</v>
+        <v>3.359966516494751</v>
       </c>
       <c r="D382" s="2">
         <v>3.3591029644012451</v>
       </c>
       <c r="E382" s="2">
-        <v>3.3898594379425049</v>
+        <v>3.3895571231842041</v>
       </c>
     </row>
     <row r="383">
@@ -5743,13 +5743,13 @@
         <v>3.2312054634094238</v>
       </c>
       <c r="C383" s="2">
-        <v>3.2351505756378174</v>
+        <v>3.234623908996582</v>
       </c>
       <c r="D383" s="2">
         <v>3.3747761249542236</v>
       </c>
       <c r="E383" s="2">
-        <v>3.3979406356811524</v>
+        <v>3.3976032733917236</v>
       </c>
     </row>
     <row r="384">
@@ -5760,13 +5760,13 @@
         <v>2.7521841526031494</v>
       </c>
       <c r="C384" s="2">
-        <v>2.745448112487793</v>
+        <v>2.7458021640777588</v>
       </c>
       <c r="D384" s="2">
         <v>3.3357021808624268</v>
       </c>
       <c r="E384" s="2">
-        <v>3.3460586071014404</v>
+        <v>3.3456795215606689</v>
       </c>
     </row>
     <row r="385">
@@ -5777,13 +5777,13 @@
         <v>3.3797051906585693</v>
       </c>
       <c r="C385" s="2">
-        <v>3.4969372749328613</v>
+        <v>3.496145486831665</v>
       </c>
       <c r="D385" s="2">
         <v>3.2344791889190674</v>
       </c>
       <c r="E385" s="2">
-        <v>3.2389230728149414</v>
+        <v>3.2386133670806885</v>
       </c>
     </row>
     <row r="386">
@@ -5794,13 +5794,13 @@
         <v>3.5688071250915527</v>
       </c>
       <c r="C386" s="2">
-        <v>3.4120409488677979</v>
+        <v>3.4120936393737793</v>
       </c>
       <c r="D386" s="2">
         <v>3.2539050579071045</v>
       </c>
       <c r="E386" s="2">
-        <v>3.2429068088531494</v>
+        <v>3.2426905632019043</v>
       </c>
     </row>
     <row r="387">
@@ -5811,13 +5811,13 @@
         <v>3.5760478973388672</v>
       </c>
       <c r="C387" s="2">
-        <v>3.5493800640106201</v>
+        <v>3.5492875576019287</v>
       </c>
       <c r="D387" s="2">
         <v>3.152677059173584</v>
       </c>
       <c r="E387" s="2">
-        <v>3.1569592952728271</v>
+        <v>3.1566767692565918</v>
       </c>
     </row>
     <row r="388">
@@ -5828,13 +5828,13 @@
         <v>3.0575752258300781</v>
       </c>
       <c r="C388" s="2">
-        <v>3.045773983001709</v>
+        <v>3.0446305274963379</v>
       </c>
       <c r="D388" s="2">
         <v>3.1137194633483887</v>
       </c>
       <c r="E388" s="2">
-        <v>3.105928897857666</v>
+        <v>3.1057515144348145</v>
       </c>
     </row>
     <row r="389">
@@ -5845,13 +5845,13 @@
         <v>3.3050394058227539</v>
       </c>
       <c r="C389" s="2">
-        <v>3.3572573661804199</v>
+        <v>3.3571047782897949</v>
       </c>
       <c r="D389" s="2">
         <v>3.1617593765258789</v>
       </c>
       <c r="E389" s="2">
-        <v>3.1547541618347168</v>
+        <v>3.1545560359954834</v>
       </c>
     </row>
     <row r="390">
@@ -5862,13 +5862,13 @@
         <v>2.9962191581726074</v>
       </c>
       <c r="C390" s="2">
-        <v>2.9842498302459717</v>
+        <v>2.9845612049102783</v>
       </c>
       <c r="D390" s="2">
-        <v>3.0901715755462647</v>
+        <v>3.0901715755462646</v>
       </c>
       <c r="E390" s="2">
-        <v>3.0733613967895508</v>
+        <v>3.0731477737426758</v>
       </c>
     </row>
     <row r="391">
@@ -5879,13 +5879,13 @@
         <v>2.5073091983795166</v>
       </c>
       <c r="C391" s="2">
-        <v>2.5863962173461914</v>
+        <v>2.5858418941497803</v>
       </c>
       <c r="D391" s="2">
         <v>3.0425910949707031</v>
       </c>
       <c r="E391" s="2">
-        <v>2.9927699565887451</v>
+        <v>2.9924452304840088</v>
       </c>
     </row>
     <row r="392">
@@ -5896,13 +5896,13 @@
         <v>2.8805880546569824</v>
       </c>
       <c r="C392" s="2">
-        <v>2.7758769989013672</v>
+        <v>2.7762959003448486</v>
       </c>
       <c r="D392" s="2">
         <v>2.9899451732635498</v>
       </c>
       <c r="E392" s="2">
-        <v>2.9414403438568115</v>
+        <v>2.9411163330078125</v>
       </c>
     </row>
     <row r="393">
@@ -5913,13 +5913,13 @@
         <v>3.1845428943634033</v>
       </c>
       <c r="C393" s="2">
-        <v>3.1848745346069336</v>
+        <v>3.1850430965423584</v>
       </c>
       <c r="D393" s="2">
         <v>3.0211079120635986</v>
       </c>
       <c r="E393" s="2">
-        <v>2.9698293209075928</v>
+        <v>2.9696216583251953</v>
       </c>
     </row>
     <row r="394">
@@ -5930,13 +5930,13 @@
         <v>2.7354156970977783</v>
       </c>
       <c r="C394" s="2">
-        <v>2.764401912689209</v>
+        <v>2.7634718418121338</v>
       </c>
       <c r="D394" s="2">
         <v>2.988760232925415</v>
       </c>
       <c r="E394" s="2">
-        <v>2.9344828128814697</v>
+        <v>2.9342961311340332</v>
       </c>
     </row>
     <row r="395">
@@ -5947,13 +5947,13 @@
         <v>3.1405818462371826</v>
       </c>
       <c r="C395" s="2">
-        <v>2.6867191791534424</v>
+        <v>2.6857707500457764</v>
       </c>
       <c r="D395" s="2">
         <v>2.959986686706543</v>
       </c>
       <c r="E395" s="2">
-        <v>2.9011316299438477</v>
+        <v>2.900881290435791</v>
       </c>
     </row>
     <row r="396">
@@ -5964,13 +5964,13 @@
         <v>3.1022353172302246</v>
       </c>
       <c r="C396" s="2">
-        <v>3.0874130725860596</v>
+        <v>3.0873270034790039</v>
       </c>
       <c r="D396" s="2">
         <v>3.0459551811218262</v>
       </c>
       <c r="E396" s="2">
-        <v>2.970902681350708</v>
+        <v>2.9706552028656006</v>
       </c>
     </row>
     <row r="397">
@@ -5981,13 +5981,13 @@
         <v>3.3380398750305176</v>
       </c>
       <c r="C397" s="2">
-        <v>3.301274299621582</v>
+        <v>3.3011775016784668</v>
       </c>
       <c r="D397" s="2">
         <v>3.10400390625</v>
       </c>
       <c r="E397" s="2">
-        <v>3.0376100540161133</v>
+        <v>3.0373194217681885</v>
       </c>
     </row>
     <row r="398">
@@ -5998,13 +5998,13 @@
         <v>3.0139105319976807</v>
       </c>
       <c r="C398" s="2">
-        <v>3.0391387939453125</v>
+        <v>3.0391755104064941</v>
       </c>
       <c r="D398" s="2">
         <v>3.0988743305206299</v>
       </c>
       <c r="E398" s="2">
-        <v>3.0436270236968994</v>
+        <v>3.0432610511779785</v>
       </c>
     </row>
     <row r="399">
@@ -6015,13 +6015,13 @@
         <v>2.7372558116912842</v>
       </c>
       <c r="C399" s="2">
-        <v>2.6840889453887939</v>
+        <v>2.6838278770446777</v>
       </c>
       <c r="D399" s="2">
         <v>3.1548702716827393</v>
       </c>
       <c r="E399" s="2">
-        <v>3.0894806385040283</v>
+        <v>3.0892667770385742</v>
       </c>
     </row>
     <row r="400">
@@ -6032,13 +6032,13 @@
         <v>3.2810258865356445</v>
       </c>
       <c r="C400" s="2">
-        <v>3.2143361568450928</v>
+        <v>3.2138066291809082</v>
       </c>
       <c r="D400" s="2">
         <v>3.1094582080841064</v>
       </c>
       <c r="E400" s="2">
-        <v>3.0901696681976318</v>
+        <v>3.0900681018829346</v>
       </c>
     </row>
     <row r="401">
@@ -6049,13 +6049,13 @@
         <v>3.4030265808105469</v>
       </c>
       <c r="C401" s="2">
-        <v>3.3762445449829102</v>
+        <v>3.376274585723877</v>
       </c>
       <c r="D401" s="2">
         <v>3.1314268112182617</v>
       </c>
       <c r="E401" s="2">
-        <v>3.1197443008422852</v>
+        <v>3.1196670532226562</v>
       </c>
     </row>
     <row r="402">
@@ -6066,13 +6066,13 @@
         <v>3.1383779048919678</v>
       </c>
       <c r="C402" s="2">
-        <v>3.2390255928039551</v>
+        <v>3.2385175228118896</v>
       </c>
       <c r="D402" s="2">
         <v>3.0907306671142578</v>
       </c>
       <c r="E402" s="2">
-        <v>3.0788273811340332</v>
+        <v>3.0787234306335449</v>
       </c>
     </row>
     <row r="403">
@@ -6083,13 +6083,13 @@
         <v>3.2393794059753418</v>
       </c>
       <c r="C403" s="2">
-        <v>3.1770856380462647</v>
+        <v>3.1775233745574951</v>
       </c>
       <c r="D403" s="2">
         <v>3.071422815322876</v>
       </c>
       <c r="E403" s="2">
-        <v>3.052344799041748</v>
+        <v>3.0522520542144775</v>
       </c>
     </row>
     <row r="404">
@@ -6100,13 +6100,13 @@
         <v>2.7318727970123291</v>
       </c>
       <c r="C404" s="2">
-        <v>2.6929199695587158</v>
+        <v>2.692983865737915</v>
       </c>
       <c r="D404" s="2">
         <v>3.0552563667297363</v>
       </c>
       <c r="E404" s="2">
-        <v>3.0310580730438233</v>
+        <v>3.0309009552001953</v>
       </c>
     </row>
     <row r="405">
@@ -6117,13 +6117,13 @@
         <v>3.2999529838562012</v>
       </c>
       <c r="C405" s="2">
-        <v>3.3535857200622559</v>
+        <v>3.3537156581878662</v>
       </c>
       <c r="D405" s="2">
         <v>3.0121161937713623</v>
       </c>
       <c r="E405" s="2">
-        <v>3.0059225559234619</v>
+        <v>3.0057613849639893</v>
       </c>
     </row>
     <row r="406">
@@ -6134,13 +6134,13 @@
         <v>2.9717750549316406</v>
       </c>
       <c r="C406" s="2">
-        <v>2.9330205917358399</v>
+        <v>2.932685375213623</v>
       </c>
       <c r="D406" s="2">
         <v>2.943411111831665</v>
       </c>
       <c r="E406" s="2">
-        <v>2.9415428638458252</v>
+        <v>2.9412722587585449</v>
       </c>
     </row>
     <row r="407">
@@ -6151,13 +6151,13 @@
         <v>2.8401391506195068</v>
       </c>
       <c r="C407" s="2">
-        <v>2.8007950782775879</v>
+        <v>2.8009328842163086</v>
       </c>
       <c r="D407" s="2">
         <v>2.9322686195373535</v>
       </c>
       <c r="E407" s="2">
-        <v>2.9248003959655762</v>
+        <v>2.9244832992553711</v>
       </c>
     </row>
     <row r="408">
@@ -6168,13 +6168,13 @@
         <v>2.5917577743530273</v>
       </c>
       <c r="C408" s="2">
-        <v>2.492509126663208</v>
+        <v>2.4916689395904541</v>
       </c>
       <c r="D408" s="2">
         <v>2.9009478092193604</v>
       </c>
       <c r="E408" s="2">
-        <v>2.9004440307617188</v>
+        <v>2.9000484943389893</v>
       </c>
     </row>
     <row r="409">
@@ -6185,13 +6185,13 @@
         <v>2.8927643299102783</v>
       </c>
       <c r="C409" s="2">
-        <v>2.9881157875061035</v>
+        <v>2.9875497817993164</v>
       </c>
       <c r="D409" s="2">
         <v>2.9216787815093994</v>
       </c>
       <c r="E409" s="2">
-        <v>2.9261288642883301</v>
+        <v>2.9256777763366699</v>
       </c>
     </row>
     <row r="410">
@@ -6202,13 +6202,13 @@
         <v>2.7846798896789551</v>
       </c>
       <c r="C410" s="2">
-        <v>2.7968285083770752</v>
+        <v>2.7958729267120361</v>
       </c>
       <c r="D410" s="2">
-        <v>2.8747327327728272</v>
+        <v>2.8747327327728271</v>
       </c>
       <c r="E410" s="2">
-        <v>2.8711934089660645</v>
+        <v>2.8706550598144531</v>
       </c>
     </row>
     <row r="411">
@@ -6219,13 +6219,13 @@
         <v>3.0380964279174805</v>
       </c>
       <c r="C411" s="2">
-        <v>3.0883429050445557</v>
+        <v>3.0874159336090088</v>
       </c>
       <c r="D411" s="2">
         <v>2.8957514762878418</v>
       </c>
       <c r="E411" s="2">
-        <v>2.8897302150726318</v>
+        <v>2.8893253803253174</v>
       </c>
     </row>
     <row r="412">
@@ -6236,13 +6236,13 @@
         <v>2.9574911594390869</v>
       </c>
       <c r="C412" s="2">
-        <v>2.9578783512115479</v>
+        <v>2.9576101303100586</v>
       </c>
       <c r="D412" s="2">
         <v>2.9098155498504639</v>
       </c>
       <c r="E412" s="2">
-        <v>2.8963148593902588</v>
+        <v>2.8958220481872559</v>
       </c>
     </row>
     <row r="413">
@@ -6253,13 +6253,13 @@
         <v>2.9184513092041016</v>
       </c>
       <c r="C413" s="2">
-        <v>2.9240832328796387</v>
+        <v>2.9236478805541992</v>
       </c>
       <c r="D413" s="2">
         <v>2.9318664073944092</v>
       </c>
       <c r="E413" s="2">
-        <v>2.9235327243804932</v>
+        <v>2.9231042861938477</v>
       </c>
     </row>
     <row r="414">
@@ -6270,13 +6270,13 @@
         <v>2.8774399757385254</v>
       </c>
       <c r="C414" s="2">
-        <v>2.8591663837432861</v>
+        <v>2.8585107326507568</v>
       </c>
       <c r="D414" s="2">
         <v>2.9796748161315918</v>
       </c>
       <c r="E414" s="2">
-        <v>2.9729228019714355</v>
+        <v>2.9724504947662354</v>
       </c>
     </row>
     <row r="415">
@@ -6287,13 +6287,13 @@
         <v>3.1609432697296143</v>
       </c>
       <c r="C415" s="2">
-        <v>3.0998530387878418</v>
+        <v>3.1007201671600342</v>
       </c>
       <c r="D415" s="2">
         <v>3.0407562255859375</v>
       </c>
       <c r="E415" s="2">
-        <v>3.0323488712310791</v>
+        <v>3.0319480895996094</v>
       </c>
     </row>
     <row r="416">
@@ -6304,13 +6304,13 @@
         <v>2.9667150974273682</v>
       </c>
       <c r="C416" s="2">
-        <v>2.8600573539733887</v>
+        <v>2.8594017028808594</v>
       </c>
       <c r="D416" s="2">
         <v>3.0985720157623291</v>
       </c>
       <c r="E416" s="2">
-        <v>3.0889501571655273</v>
+        <v>3.0886032581329346</v>
       </c>
     </row>
     <row r="417">
@@ -6321,13 +6321,13 @@
         <v>2.7902162075042725</v>
       </c>
       <c r="C417" s="2">
-        <v>2.7374687194824219</v>
+        <v>2.7372093200683594</v>
       </c>
       <c r="D417" s="2">
         <v>3.0900552272796631</v>
       </c>
       <c r="E417" s="2">
-        <v>3.0840439796447754</v>
+        <v>3.0837175846099854</v>
       </c>
     </row>
     <row r="418">
@@ -6338,13 +6338,13 @@
         <v>3.3230390548706055</v>
       </c>
       <c r="C418" s="2">
-        <v>3.4326262474060059</v>
+        <v>3.4316658973693848</v>
       </c>
       <c r="D418" s="2">
-        <v>3.1378860473632813</v>
+        <v>3.1378860473632812</v>
       </c>
       <c r="E418" s="2">
-        <v>3.1393980979919434</v>
+        <v>3.1390671730041504</v>
       </c>
     </row>
     <row r="419">
@@ -6355,13 +6355,13 @@
         <v>3.3344135284423828</v>
       </c>
       <c r="C419" s="2">
-        <v>3.3316640853881836</v>
+        <v>3.3313517570495605</v>
       </c>
       <c r="D419" s="2">
         <v>3.1894783973693848</v>
       </c>
       <c r="E419" s="2">
-        <v>3.20416259765625</v>
+        <v>3.2038033008575439</v>
       </c>
     </row>
     <row r="420">
@@ -6372,13 +6372,13 @@
         <v>3.5584390163421631</v>
       </c>
       <c r="C420" s="2">
-        <v>3.5977540016174317</v>
+        <v>3.5973122119903564</v>
       </c>
       <c r="D420" s="2">
         <v>3.1751704216003418</v>
       </c>
       <c r="E420" s="2">
-        <v>3.1997957229614258</v>
+        <v>3.1992294788360596</v>
       </c>
     </row>
     <row r="421">
@@ -6389,13 +6389,13 @@
         <v>2.8808391094207764</v>
       </c>
       <c r="C421" s="2">
-        <v>2.9137227535247803</v>
+        <v>2.9136388301849365</v>
       </c>
       <c r="D421" s="2">
         <v>3.2250933647155762</v>
       </c>
       <c r="E421" s="2">
-        <v>3.2477126121520996</v>
+        <v>3.2470576763153076</v>
       </c>
     </row>
     <row r="422">
@@ -6406,13 +6406,13 @@
         <v>3.3489301204681396</v>
       </c>
       <c r="C422" s="2">
-        <v>3.4222705364227295</v>
+        <v>3.4217934608459473</v>
       </c>
       <c r="D422" s="2">
         <v>3.2920436859130859</v>
       </c>
       <c r="E422" s="2">
-        <v>3.3188614845275879</v>
+        <v>3.3182578086853027</v>
       </c>
     </row>
     <row r="423">
@@ -6423,13 +6423,13 @@
         <v>3.3417708873748779</v>
       </c>
       <c r="C423" s="2">
-        <v>3.4420464038848877</v>
+        <v>3.4411358833312988</v>
       </c>
       <c r="D423" s="2">
         <v>3.2705795764923096</v>
       </c>
       <c r="E423" s="2">
-        <v>3.2777152061462402</v>
+        <v>3.2771387100219727</v>
       </c>
     </row>
     <row r="424">
@@ -6440,13 +6440,13 @@
         <v>3.0321712493896484</v>
       </c>
       <c r="C424" s="2">
-        <v>3.0605514049530029</v>
+        <v>3.0595571994781494</v>
       </c>
       <c r="D424" s="2">
         <v>3.1837081909179688</v>
       </c>
       <c r="E424" s="2">
-        <v>3.18003249168396</v>
+        <v>3.1794364452362061</v>
       </c>
     </row>
     <row r="425">
@@ -6457,13 +6457,13 @@
         <v>3.4160213470458984</v>
       </c>
       <c r="C425" s="2">
-        <v>3.2913103103637695</v>
+        <v>3.2898547649383545</v>
       </c>
       <c r="D425" s="2">
         <v>3.1636965274810791</v>
       </c>
       <c r="E425" s="2">
-        <v>3.1514139175415039</v>
+        <v>3.1508140563964844</v>
       </c>
     </row>
     <row r="426">
@@ -6474,13 +6474,13 @@
         <v>3.3927681446075439</v>
       </c>
       <c r="C426" s="2">
-        <v>3.3778069019317627</v>
+        <v>3.3780109882354736</v>
       </c>
       <c r="D426" s="2">
         <v>3.1743838787078857</v>
       </c>
       <c r="E426" s="2">
-        <v>3.1549587249755859</v>
+        <v>3.154400110244751</v>
       </c>
     </row>
     <row r="427">
@@ -6491,13 +6491,13 @@
         <v>3.1298623085021973</v>
       </c>
       <c r="C427" s="2">
-        <v>3.0623109340667725</v>
+        <v>3.0615935325622559</v>
       </c>
       <c r="D427" s="2">
         <v>3.1469569206237793</v>
       </c>
       <c r="E427" s="2">
-        <v>3.1271622180938721</v>
+        <v>3.1265749931335449</v>
       </c>
     </row>
     <row r="428">
@@ -6508,13 +6508,13 @@
         <v>2.5525708198547363</v>
       </c>
       <c r="C428" s="2">
-        <v>2.4525187015533447</v>
+        <v>2.4520313739776611</v>
       </c>
       <c r="D428" s="2">
         <v>3.1523776054382324</v>
       </c>
       <c r="E428" s="2">
-        <v>3.1063323020935059</v>
+        <v>3.1057472229003906</v>
       </c>
     </row>
     <row r="429">
@@ -6525,13 +6525,13 @@
         <v>3.3783354759216309</v>
       </c>
       <c r="C429" s="2">
-        <v>3.3401873111724854</v>
+        <v>3.3397109508514404</v>
       </c>
       <c r="D429" s="2">
         <v>3.1923325061798096</v>
       </c>
       <c r="E429" s="2">
-        <v>3.1397650241851807</v>
+        <v>3.1393229961395264</v>
       </c>
     </row>
     <row r="430">
@@ -6542,13 +6542,13 @@
         <v>2.9770252704620361</v>
       </c>
       <c r="C430" s="2">
-        <v>2.9456260204315186</v>
+        <v>2.9459128379821777</v>
       </c>
       <c r="D430" s="2">
-        <v>3.1372289657592774</v>
+        <v>3.1372289657592773</v>
       </c>
       <c r="E430" s="2">
-        <v>3.0948805809020996</v>
+        <v>3.0946087837219238</v>
       </c>
     </row>
     <row r="431">
@@ -6559,13 +6559,13 @@
         <v>3.102086067199707</v>
       </c>
       <c r="C431" s="2">
-        <v>3.1721022129058838</v>
+        <v>3.1713683605194092</v>
       </c>
       <c r="D431" s="2">
         <v>3.1095607280731201</v>
       </c>
       <c r="E431" s="2">
-        <v>3.0456106662750244</v>
+        <v>3.0453031063079834</v>
       </c>
     </row>
     <row r="432">
@@ -6576,13 +6576,13 @@
         <v>3.3905570507049561</v>
       </c>
       <c r="C432" s="2">
-        <v>3.2545766830444336</v>
+        <v>3.2536852359771729</v>
       </c>
       <c r="D432" s="2">
         <v>3.101276159286499</v>
       </c>
       <c r="E432" s="2">
-        <v>3.0504741668701172</v>
+        <v>3.0502133369445801</v>
       </c>
     </row>
     <row r="433">
@@ -6593,13 +6593,13 @@
         <v>3.391765832901001</v>
       </c>
       <c r="C433" s="2">
-        <v>3.3614466190338135</v>
+        <v>3.3617393970489502</v>
       </c>
       <c r="D433" s="2">
         <v>3.146780252456665</v>
       </c>
       <c r="E433" s="2">
-        <v>3.0988194942474365</v>
+        <v>3.0986473560333252</v>
       </c>
     </row>
     <row r="434">
@@ -6610,13 +6610,13 @@
         <v>2.9200890064239502</v>
       </c>
       <c r="C434" s="2">
-        <v>2.8873507976531982</v>
+        <v>2.8874256610870361</v>
       </c>
       <c r="D434" s="2">
         <v>3.1014249324798584</v>
       </c>
       <c r="E434" s="2">
-        <v>3.0576221942901611</v>
+        <v>3.0575225353240967</v>
       </c>
     </row>
     <row r="435">
@@ -6627,13 +6627,13 @@
         <v>3.1437547206878662</v>
       </c>
       <c r="C435" s="2">
-        <v>2.9343771934509277</v>
+        <v>2.9342606067657471</v>
       </c>
       <c r="D435" s="2">
         <v>3.1049909591674805</v>
       </c>
       <c r="E435" s="2">
-        <v>3.0568718910217285</v>
+        <v>3.0566942691802979</v>
       </c>
     </row>
     <row r="436">
@@ -6644,13 +6644,13 @@
         <v>3.0553004741668701</v>
       </c>
       <c r="C436" s="2">
-        <v>3.1060812473297119</v>
+        <v>3.105785608291626</v>
       </c>
       <c r="D436" s="2">
         <v>3.0878763198852539</v>
       </c>
       <c r="E436" s="2">
-        <v>3.0365593433380127</v>
+        <v>3.0363969802856445</v>
       </c>
     </row>
     <row r="437">
@@ -6661,13 +6661,13 @@
         <v>2.9621086120605469</v>
       </c>
       <c r="C437" s="2">
-        <v>2.887627124786377</v>
+        <v>2.8879373073577881</v>
       </c>
       <c r="D437" s="2">
         <v>3.0275809764862061</v>
       </c>
       <c r="E437" s="2">
-        <v>2.9764225482940674</v>
+        <v>2.9763236045837402</v>
       </c>
     </row>
     <row r="438">
@@ -6678,13 +6678,13 @@
         <v>2.9701380729675293</v>
       </c>
       <c r="C438" s="2">
-        <v>2.969412088394165</v>
+        <v>2.9695887565612793</v>
       </c>
       <c r="D438" s="2">
         <v>2.940532922744751</v>
       </c>
       <c r="E438" s="2">
-        <v>2.8747305870056152</v>
+        <v>2.8745687007904053</v>
       </c>
     </row>
     <row r="439">
@@ -6695,13 +6695,13 @@
         <v>3.0091185569763184</v>
       </c>
       <c r="C439" s="2">
-        <v>2.9388740062713623</v>
+        <v>2.9384584426879883</v>
       </c>
       <c r="D439" s="2">
         <v>2.9111831188201904</v>
       </c>
       <c r="E439" s="2">
-        <v>2.8531975746154785</v>
+        <v>2.853034496307373</v>
       </c>
     </row>
     <row r="440">
@@ -6712,13 +6712,13 @@
         <v>2.9480540752410889</v>
       </c>
       <c r="C440" s="2">
-        <v>2.9892892837524414</v>
+        <v>2.9886913299560547</v>
       </c>
       <c r="D440" s="2">
         <v>2.8712742328643799</v>
       </c>
       <c r="E440" s="2">
-        <v>2.8348078727722168</v>
+        <v>2.8347241878509521</v>
       </c>
     </row>
     <row r="441">
@@ -6729,13 +6729,13 @@
         <v>2.8479001522064209</v>
       </c>
       <c r="C441" s="2">
-        <v>2.7133450508117676</v>
+        <v>2.7130262851715088</v>
       </c>
       <c r="D441" s="2">
         <v>2.8171241283416748</v>
       </c>
       <c r="E441" s="2">
-        <v>2.769681453704834</v>
+        <v>2.769498348236084</v>
       </c>
     </row>
     <row r="442">
@@ -6746,13 +6746,13 @@
         <v>2.6083316802978516</v>
       </c>
       <c r="C442" s="2">
-        <v>2.4462180137634277</v>
+        <v>2.4459447860717773</v>
       </c>
       <c r="D442" s="2">
         <v>2.7841508388519287</v>
       </c>
       <c r="E442" s="2">
-        <v>2.7481460571289063</v>
+        <v>2.7478821277618408</v>
       </c>
     </row>
     <row r="443">
@@ -6763,13 +6763,13 @@
         <v>2.6559422016143799</v>
       </c>
       <c r="C443" s="2">
-        <v>2.693554162979126</v>
+        <v>2.693617582321167</v>
       </c>
       <c r="D443" s="2">
         <v>2.7631773948669434</v>
       </c>
       <c r="E443" s="2">
-        <v>2.7309937477111817</v>
+        <v>2.7307429313659668</v>
       </c>
     </row>
     <row r="444">
@@ -6780,13 +6780,13 @@
         <v>2.7845733165740967</v>
       </c>
       <c r="C444" s="2">
-        <v>2.7688708305358887</v>
+        <v>2.7694683074951172</v>
       </c>
       <c r="D444" s="2">
         <v>2.736886739730835</v>
       </c>
       <c r="E444" s="2">
-        <v>2.7113893032073975</v>
+        <v>2.7111306190490723</v>
       </c>
     </row>
     <row r="445">
@@ -6797,13 +6797,13 @@
         <v>2.5679512023925781</v>
       </c>
       <c r="C445" s="2">
-        <v>2.5199422836303711</v>
+        <v>2.5187513828277588</v>
       </c>
       <c r="D445" s="2">
         <v>2.6898953914642334</v>
       </c>
       <c r="E445" s="2">
-        <v>2.6615891456604004</v>
+        <v>2.6612987518310547</v>
       </c>
     </row>
     <row r="446">
@@ -6814,13 +6814,13 @@
         <v>2.6653487682342529</v>
       </c>
       <c r="C446" s="2">
-        <v>2.69380784034729</v>
+        <v>2.6933925151824951</v>
       </c>
       <c r="D446" s="2">
         <v>2.6980898380279541</v>
       </c>
       <c r="E446" s="2">
-        <v>2.6681485176086426</v>
+        <v>2.6678330898284912</v>
       </c>
     </row>
     <row r="447">
@@ -6831,13 +6831,13 @@
         <v>2.7813756465911865</v>
       </c>
       <c r="C447" s="2">
-        <v>2.8150432109832764</v>
+        <v>2.815335750579834</v>
       </c>
       <c r="D447" s="2">
         <v>2.6988604068756104</v>
       </c>
       <c r="E447" s="2">
-        <v>2.6763954162597656</v>
+        <v>2.6760625839233398</v>
       </c>
     </row>
     <row r="448">
@@ -6848,13 +6848,13 @@
         <v>2.7725033760070801</v>
       </c>
       <c r="C448" s="2">
-        <v>2.7624330520629883</v>
+        <v>2.7619476318359375</v>
       </c>
       <c r="D448" s="2">
         <v>2.7359039783477783</v>
       </c>
       <c r="E448" s="2">
-        <v>2.6936249732971191</v>
+        <v>2.6932730674743652</v>
       </c>
     </row>
     <row r="449">
@@ -6865,13 +6865,13 @@
         <v>2.5251312255859375</v>
       </c>
       <c r="C449" s="2">
-        <v>2.541088342666626</v>
+        <v>2.5402045249938965</v>
       </c>
       <c r="D449" s="2">
         <v>2.7346234321594238</v>
       </c>
       <c r="E449" s="2">
-        <v>2.6894516944885254</v>
+        <v>2.6889619827270508</v>
       </c>
     </row>
     <row r="450">
@@ -6882,13 +6882,13 @@
         <v>2.9216506481170654</v>
       </c>
       <c r="C450" s="2">
-        <v>2.7723789215087891</v>
+        <v>2.7718348503112793</v>
       </c>
       <c r="D450" s="2">
         <v>2.7363929748535156</v>
       </c>
       <c r="E450" s="2">
-        <v>2.6737363338470459</v>
+        <v>2.673234224319458</v>
       </c>
     </row>
     <row r="451">
@@ -6899,13 +6899,13 @@
         <v>2.6152679920196533</v>
       </c>
       <c r="C451" s="2">
-        <v>2.520439624786377</v>
+        <v>2.5200097560882568</v>
       </c>
       <c r="D451" s="2">
         <v>2.7989218235015869</v>
       </c>
       <c r="E451" s="2">
-        <v>2.7267539501190186</v>
+        <v>2.7262670993804932</v>
       </c>
     </row>
     <row r="452">
@@ -6916,13 +6916,13 @@
         <v>2.9893345832824707</v>
       </c>
       <c r="C452" s="2">
-        <v>2.8486201763153076</v>
+        <v>2.8485121726989746</v>
       </c>
       <c r="D452" s="2">
         <v>2.7745163440704346</v>
       </c>
       <c r="E452" s="2">
-        <v>2.6792795658111572</v>
+        <v>2.6786911487579346</v>
       </c>
     </row>
     <row r="453">
@@ -6933,13 +6933,13 @@
         <v>2.7730464935302734</v>
       </c>
       <c r="C453" s="2">
-        <v>2.7313127517700195</v>
+        <v>2.7306694984436035</v>
       </c>
       <c r="D453" s="2">
         <v>2.7575724124908447</v>
       </c>
       <c r="E453" s="2">
-        <v>2.6517431735992432</v>
+        <v>2.6512291431427002</v>
       </c>
     </row>
     <row r="454">
@@ -6950,13 +6950,13 @@
         <v>2.5838770866394043</v>
       </c>
       <c r="C454" s="2">
-        <v>2.3785037994384766</v>
+        <v>2.3772006034851074</v>
       </c>
       <c r="D454" s="2">
         <v>2.8140444755554199</v>
       </c>
       <c r="E454" s="2">
-        <v>2.7049300670623779</v>
+        <v>2.7044785022735596</v>
       </c>
     </row>
     <row r="455">
@@ -6967,13 +6967,13 @@
         <v>3.22810959815979</v>
       </c>
       <c r="C455" s="2">
-        <v>3.1709654331207275</v>
+        <v>3.1706900596618652</v>
       </c>
       <c r="D455" s="2">
         <v>2.796811580657959</v>
       </c>
       <c r="E455" s="2">
-        <v>2.7068047523498535</v>
+        <v>2.7063090801239014</v>
       </c>
     </row>
     <row r="456">
@@ -6984,13 +6984,13 @@
         <v>2.5617256164550781</v>
       </c>
       <c r="C456" s="2">
-        <v>2.3877749443054199</v>
+        <v>2.3871519565582275</v>
       </c>
       <c r="D456" s="2">
         <v>2.8140428066253662</v>
       </c>
       <c r="E456" s="2">
-        <v>2.7177000045776367</v>
+        <v>2.7172482013702393</v>
       </c>
     </row>
     <row r="457">
@@ -7001,13 +7001,13 @@
         <v>2.6200084686279297</v>
       </c>
       <c r="C457" s="2">
-        <v>2.5146045684814453</v>
+        <v>2.5147888660430908</v>
       </c>
       <c r="D457" s="2">
         <v>2.7849936485290527</v>
       </c>
       <c r="E457" s="2">
-        <v>2.7023286819458008</v>
+        <v>2.7018520832061768</v>
       </c>
     </row>
     <row r="458">
@@ -7018,13 +7018,13 @@
         <v>3.033379077911377</v>
       </c>
       <c r="C458" s="2">
-        <v>3.0197701454162598</v>
+        <v>3.0194478034973145</v>
       </c>
       <c r="D458" s="2">
         <v>2.7469065189361572</v>
       </c>
       <c r="E458" s="2">
-        <v>2.6692256927490234</v>
+        <v>2.6687510013580322</v>
       </c>
     </row>
     <row r="459">
@@ -7035,13 +7035,13 @@
         <v>2.7665557861328125</v>
       </c>
       <c r="C459" s="2">
-        <v>2.7892508506774902</v>
+        <v>2.7883114814758301</v>
       </c>
       <c r="D459" s="2">
         <v>2.7278730869293213</v>
       </c>
       <c r="E459" s="2">
-        <v>2.6804606914520264</v>
+        <v>2.6800379753112793</v>
       </c>
     </row>
     <row r="460">
@@ -7052,13 +7052,13 @@
         <v>2.7703475952148438</v>
       </c>
       <c r="C460" s="2">
-        <v>2.6184976100921631</v>
+        <v>2.618462085723877</v>
       </c>
       <c r="D460" s="2">
         <v>2.6778824329376221</v>
       </c>
       <c r="E460" s="2">
-        <v>2.6317365169525146</v>
+        <v>2.6313340663909912</v>
       </c>
     </row>
     <row r="461">
@@ -7069,13 +7069,13 @@
         <v>2.7278928756713867</v>
       </c>
       <c r="C461" s="2">
-        <v>2.7102773189544678</v>
+        <v>2.7099463939666748</v>
       </c>
       <c r="D461" s="2">
         <v>2.6666951179504395</v>
       </c>
       <c r="E461" s="2">
-        <v>2.63580322265625</v>
+        <v>2.6354753971099854</v>
       </c>
     </row>
     <row r="462">
@@ -7086,13 +7086,13 @@
         <v>2.4302632808685303</v>
       </c>
       <c r="C462" s="2">
-        <v>2.4333875179290771</v>
+        <v>2.4327588081359863</v>
       </c>
       <c r="D462" s="2">
         <v>2.6616573333740234</v>
       </c>
       <c r="E462" s="2">
-        <v>2.6431779861450195</v>
+        <v>2.6428542137145996</v>
       </c>
     </row>
     <row r="463">
@@ -7103,13 +7103,13 @@
         <v>2.4125761985778809</v>
       </c>
       <c r="C463" s="2">
-        <v>2.4796180725097656</v>
+        <v>2.4787840843200684</v>
       </c>
       <c r="D463" s="2">
         <v>2.6214265823364258</v>
       </c>
       <c r="E463" s="2">
-        <v>2.6094985008239746</v>
+        <v>2.6092097759246826</v>
       </c>
     </row>
     <row r="464">
@@ -7120,13 +7120,13 @@
         <v>2.7781939506530762</v>
       </c>
       <c r="C464" s="2">
-        <v>2.7324478626251221</v>
+        <v>2.7323541641235352</v>
       </c>
       <c r="D464" s="2">
         <v>2.6013615131378174</v>
       </c>
       <c r="E464" s="2">
-        <v>2.5971779823303223</v>
+        <v>2.5968899726867676</v>
       </c>
     </row>
     <row r="465">
@@ -7137,13 +7137,13 @@
         <v>2.4610390663146973</v>
       </c>
       <c r="C465" s="2">
-        <v>2.4243745803833008</v>
+        <v>2.4244248867034912</v>
       </c>
       <c r="D465" s="2">
         <v>2.6265122890472412</v>
       </c>
       <c r="E465" s="2">
-        <v>2.631939172744751</v>
+        <v>2.631542444229126</v>
       </c>
     </row>
     <row r="466">
@@ -7154,13 +7154,13 @@
         <v>2.5746691226959229</v>
       </c>
       <c r="C466" s="2">
-        <v>2.5809776782989502</v>
+        <v>2.5811989307403564</v>
       </c>
       <c r="D466" s="2">
         <v>2.6273176670074463</v>
       </c>
       <c r="E466" s="2">
-        <v>2.6387708187103271</v>
+        <v>2.6384172439575195</v>
       </c>
     </row>
     <row r="467">
@@ -7171,13 +7171,13 @@
         <v>2.6713011264801025</v>
       </c>
       <c r="C467" s="2">
-        <v>2.7166547775268555</v>
+        <v>2.7166473865509033</v>
       </c>
       <c r="D467" s="2">
         <v>2.6889805793762207</v>
       </c>
       <c r="E467" s="2">
-        <v>2.6851894855499268</v>
+        <v>2.6848781108856201</v>
       </c>
     </row>
     <row r="468">
@@ -7188,13 +7188,13 @@
         <v>2.5859699249267578</v>
       </c>
       <c r="C468" s="2">
-        <v>2.6783666610717773</v>
+        <v>2.6774334907531738</v>
       </c>
       <c r="D468" s="2">
-        <v>2.7668824195861817</v>
+        <v>2.7668824195861816</v>
       </c>
       <c r="E468" s="2">
-        <v>2.7597417831420899</v>
+        <v>2.7594542503356934</v>
       </c>
     </row>
     <row r="469">
@@ -7205,13 +7205,13 @@
         <v>2.9967043399810791</v>
       </c>
       <c r="C469" s="2">
-        <v>2.9313473701477051</v>
+        <v>2.9303328990936279</v>
       </c>
       <c r="D469" s="2">
-        <v>2.748664140701294</v>
+        <v>2.7486641407012939</v>
       </c>
       <c r="E469" s="2">
-        <v>2.7496402263641357</v>
+        <v>2.7492597103118896</v>
       </c>
     </row>
     <row r="470">
@@ -7222,13 +7222,13 @@
         <v>2.7351410388946533</v>
       </c>
       <c r="C470" s="2">
-        <v>2.7717633247375488</v>
+        <v>2.7718207836151123</v>
       </c>
       <c r="D470" s="2">
         <v>2.7564685344696045</v>
       </c>
       <c r="E470" s="2">
-        <v>2.7533791065216064</v>
+        <v>2.7529697418212891</v>
       </c>
     </row>
     <row r="471">
@@ -7239,13 +7239,13 @@
         <v>2.9852306842803955</v>
       </c>
       <c r="C471" s="2">
-        <v>2.8511545658111572</v>
+        <v>2.8509058952331543</v>
       </c>
       <c r="D471" s="2">
         <v>2.8123488426208496</v>
       </c>
       <c r="E471" s="2">
-        <v>2.8007748126983643</v>
+        <v>2.8003580570220947</v>
       </c>
     </row>
     <row r="472">
@@ -7256,13 +7256,13 @@
         <v>3.1136932373046875</v>
       </c>
       <c r="C472" s="2">
-        <v>3.1505892276763916</v>
+        <v>3.1499707698822021</v>
       </c>
       <c r="D472" s="2">
         <v>2.7665665149688721</v>
       </c>
       <c r="E472" s="2">
-        <v>2.7461133003234863</v>
+        <v>2.7456760406494141</v>
       </c>
     </row>
     <row r="473">
@@ -7273,13 +7273,13 @@
         <v>2.6142282485961914</v>
       </c>
       <c r="C473" s="2">
-        <v>2.6415343284606934</v>
+        <v>2.6406030654907227</v>
       </c>
       <c r="D473" s="2">
         <v>2.7636537551879883</v>
       </c>
       <c r="E473" s="2">
-        <v>2.7302803993225098</v>
+        <v>2.7299292087554932</v>
       </c>
     </row>
     <row r="474">
@@ -7290,13 +7290,13 @@
         <v>2.5312793254852295</v>
       </c>
       <c r="C474" s="2">
-        <v>2.4580235481262207</v>
+        <v>2.4578149318695068</v>
       </c>
       <c r="D474" s="2">
         <v>2.7696874141693115</v>
       </c>
       <c r="E474" s="2">
-        <v>2.7316527366638184</v>
+        <v>2.7314407825469971</v>
       </c>
     </row>
     <row r="475">
@@ -7307,13 +7307,13 @@
         <v>3.0775909423828125</v>
       </c>
       <c r="C475" s="2">
-        <v>3.0075387954711914</v>
+        <v>3.0076932907104492</v>
       </c>
       <c r="D475" s="2">
         <v>2.7364692687988281</v>
       </c>
       <c r="E475" s="2">
-        <v>2.689115047454834</v>
+        <v>2.6888420581817627</v>
       </c>
     </row>
     <row r="476">
@@ -7324,13 +7324,13 @@
         <v>2.2592616081237793</v>
       </c>
       <c r="C476" s="2">
-        <v>2.2247025966644287</v>
+        <v>2.2245092391967773</v>
       </c>
       <c r="D476" s="2">
         <v>2.731764554977417</v>
       </c>
       <c r="E476" s="2">
-        <v>2.6933050155639648</v>
+        <v>2.6929621696472168</v>
       </c>
     </row>
     <row r="477">
@@ -7341,13 +7341,13 @@
         <v>2.5597541332244873</v>
       </c>
       <c r="C477" s="2">
-        <v>2.5358703136444092</v>
+        <v>2.5357129573822021</v>
       </c>
       <c r="D477" s="2">
         <v>2.6701865196228027</v>
       </c>
       <c r="E477" s="2">
-        <v>2.6261961460113525</v>
+        <v>2.6258397102355957</v>
       </c>
     </row>
     <row r="478">
@@ -7358,13 +7358,13 @@
         <v>3.0510075092315674</v>
       </c>
       <c r="C478" s="2">
-        <v>2.9436981678009033</v>
+        <v>2.9439358711242676</v>
       </c>
       <c r="D478" s="2">
         <v>2.6619458198547363</v>
       </c>
       <c r="E478" s="2">
-        <v>2.6110303401947021</v>
+        <v>2.6107809543609619</v>
       </c>
     </row>
     <row r="479">
@@ -7375,13 +7375,13 @@
         <v>2.4361770153045654</v>
       </c>
       <c r="C479" s="2">
-        <v>2.3889248371124268</v>
+        <v>2.388432502746582</v>
       </c>
       <c r="D479" s="2">
         <v>2.6666512489318848</v>
       </c>
       <c r="E479" s="2">
-        <v>2.6234588623046875</v>
+        <v>2.6231706142425537</v>
       </c>
     </row>
     <row r="480">
@@ -7392,13 +7392,13 @@
         <v>2.9428889751434326</v>
       </c>
       <c r="C480" s="2">
-        <v>2.8888623714447021</v>
+        <v>2.8879878520965576</v>
       </c>
       <c r="D480" s="2">
         <v>2.6039409637451172</v>
       </c>
       <c r="E480" s="2">
-        <v>2.5657849311828613</v>
+        <v>2.565394401550293</v>
       </c>
     </row>
     <row r="481">
@@ -7409,13 +7409,13 @@
         <v>2.5594911575317383</v>
       </c>
       <c r="C481" s="2">
-        <v>2.5466101169586182</v>
+        <v>2.5458674430847168</v>
       </c>
       <c r="D481" s="2">
         <v>2.6355845928192139</v>
       </c>
       <c r="E481" s="2">
-        <v>2.5935266017913818</v>
+        <v>2.5931217670440674</v>
       </c>
     </row>
     <row r="482">
@@ -7426,13 +7426,13 @@
         <v>2.5400607585906982</v>
       </c>
       <c r="C482" s="2">
-        <v>2.5050413608551025</v>
+        <v>2.505075216293335</v>
       </c>
       <c r="D482" s="2">
         <v>2.6351888179779053</v>
       </c>
       <c r="E482" s="2">
-        <v>2.5849835872650147</v>
+        <v>2.5845322608947754</v>
       </c>
     </row>
     <row r="483">
@@ -7443,13 +7443,13 @@
         <v>2.5736291408538818</v>
       </c>
       <c r="C483" s="2">
-        <v>2.5698812007904053</v>
+        <v>2.5693206787109375</v>
       </c>
       <c r="D483" s="2">
         <v>2.6240286827087402</v>
       </c>
       <c r="E483" s="2">
-        <v>2.571707010269165</v>
+        <v>2.5711679458618164</v>
       </c>
     </row>
     <row r="484">
@@ -7460,13 +7460,13 @@
         <v>2.5131983757019043</v>
       </c>
       <c r="C484" s="2">
-        <v>2.4884741306304932</v>
+        <v>2.4877068996429443</v>
       </c>
       <c r="D484" s="2">
         <v>2.633913516998291</v>
       </c>
       <c r="E484" s="2">
-        <v>2.5919017791748047</v>
+        <v>2.5914018154144287</v>
       </c>
     </row>
     <row r="485">
@@ -7477,13 +7477,13 @@
         <v>2.5440547466278076</v>
       </c>
       <c r="C485" s="2">
-        <v>2.4743764400482178</v>
+        <v>2.4740560054779053</v>
       </c>
       <c r="D485" s="2">
         <v>2.6443402767181396</v>
       </c>
       <c r="E485" s="2">
-        <v>2.5982367992401123</v>
+        <v>2.5977895259857178</v>
       </c>
     </row>
     <row r="486">
@@ -7494,13 +7494,13 @@
         <v>2.5561923980712891</v>
       </c>
       <c r="C486" s="2">
-        <v>2.4589838981628418</v>
+        <v>2.4584085941314697</v>
       </c>
       <c r="D486" s="2">
         <v>2.6657605171203613</v>
       </c>
       <c r="E486" s="2">
-        <v>2.623668909072876</v>
+        <v>2.6233038902282715</v>
       </c>
     </row>
     <row r="487">
@@ -7511,13 +7511,13 @@
         <v>2.9505648612976074</v>
       </c>
       <c r="C487" s="2">
-        <v>2.8242092132568359</v>
+        <v>2.8236570358276367</v>
       </c>
       <c r="D487" s="2">
         <v>2.6703059673309326</v>
       </c>
       <c r="E487" s="2">
-        <v>2.6372227668762207</v>
+        <v>2.6367754936218262</v>
       </c>
     </row>
     <row r="488">
@@ -7528,13 +7528,13 @@
         <v>2.5251419544219971</v>
       </c>
       <c r="C488" s="2">
-        <v>2.5706779956817627</v>
+        <v>2.5705368518829346</v>
       </c>
       <c r="D488" s="2">
         <v>2.6668796539306641</v>
       </c>
       <c r="E488" s="2">
-        <v>2.6219098567962646</v>
+        <v>2.6215143203735352</v>
       </c>
     </row>
     <row r="489">
@@ -7545,13 +7545,13 @@
         <v>3.0367288589477539</v>
       </c>
       <c r="C489" s="2">
-        <v>2.9458761215209961</v>
+        <v>2.9454779624938965</v>
       </c>
       <c r="D489" s="2">
         <v>2.6861402988433838</v>
       </c>
       <c r="E489" s="2">
-        <v>2.6460721492767334</v>
+        <v>2.6456570625305176</v>
       </c>
     </row>
     <row r="490">
@@ -7562,13 +7562,13 @@
         <v>2.7522745132446289</v>
       </c>
       <c r="C490" s="2">
-        <v>2.7754995822906494</v>
+        <v>2.7754948139190674</v>
       </c>
       <c r="D490" s="2">
         <v>2.6630902290344238</v>
       </c>
       <c r="E490" s="2">
-        <v>2.6348607540130615</v>
+        <v>2.6344230175018311</v>
       </c>
     </row>
     <row r="491">
@@ -7576,16 +7576,16 @@
         <v>43374</v>
       </c>
       <c r="B491" s="2">
-        <v>2.5809698104858399</v>
+        <v>2.5809698104858398</v>
       </c>
       <c r="C491" s="2">
-        <v>2.6270256042480469</v>
+        <v>2.6263196468353271</v>
       </c>
       <c r="D491" s="2">
         <v>2.6858401298522949</v>
       </c>
       <c r="E491" s="2">
-        <v>2.6695172786712646</v>
+        <v>2.6690926551818848</v>
       </c>
     </row>
     <row r="492">
@@ -7596,13 +7596,13 @@
         <v>2.5427908897399902</v>
       </c>
       <c r="C492" s="2">
-        <v>2.4320657253265381</v>
+        <v>2.4319705963134766</v>
       </c>
       <c r="D492" s="2">
         <v>2.5910727977752686</v>
       </c>
       <c r="E492" s="2">
-        <v>2.5920982360839844</v>
+        <v>2.5916721820831299</v>
       </c>
     </row>
     <row r="493">
@@ -7610,16 +7610,16 @@
         <v>43435</v>
       </c>
       <c r="B493" s="2">
-        <v>2.6865453720092774</v>
+        <v>2.6865453720092773</v>
       </c>
       <c r="C493" s="2">
-        <v>2.7059357166290283</v>
+        <v>2.7049920558929443</v>
       </c>
       <c r="D493" s="2">
         <v>2.5656423568725586</v>
       </c>
       <c r="E493" s="2">
-        <v>2.5659966468811035</v>
+        <v>2.5655207633972168</v>
       </c>
     </row>
     <row r="494">
@@ -7630,13 +7630,13 @@
         <v>2.3366026878356934</v>
       </c>
       <c r="C494" s="2">
-        <v>2.3734736442565918</v>
+        <v>2.3729491233825684</v>
       </c>
       <c r="D494" s="2">
         <v>2.5340976715087891</v>
       </c>
       <c r="E494" s="2">
-        <v>2.5310304164886475</v>
+        <v>2.5305726528167725</v>
       </c>
     </row>
     <row r="495">
@@ -7647,13 +7647,13 @@
         <v>2.7609415054321289</v>
       </c>
       <c r="C495" s="2">
-        <v>2.7708923816680908</v>
+        <v>2.770435094833374</v>
       </c>
       <c r="D495" s="2">
-        <v>2.5165019035339356</v>
+        <v>2.5165019035339355</v>
       </c>
       <c r="E495" s="2">
-        <v>2.4940199851989746</v>
+        <v>2.4935100078582764</v>
       </c>
     </row>
     <row r="496">
@@ -7664,13 +7664,13 @@
         <v>2.0976600646972656</v>
       </c>
       <c r="C496" s="2">
-        <v>2.1274373531341553</v>
+        <v>2.1268730163574219</v>
       </c>
       <c r="D496" s="2">
         <v>2.5515782833099365</v>
       </c>
       <c r="E496" s="2">
-        <v>2.5171968936920166</v>
+        <v>2.516726016998291</v>
       </c>
     </row>
     <row r="497">
@@ -7681,13 +7681,13 @@
         <v>2.2962672710418701</v>
       </c>
       <c r="C497" s="2">
-        <v>2.3357629776000977</v>
+        <v>2.3351750373840332</v>
       </c>
       <c r="D497" s="2">
         <v>2.5546910762786865</v>
       </c>
       <c r="E497" s="2">
-        <v>2.5405879020690918</v>
+        <v>2.5399808883666992</v>
       </c>
     </row>
     <row r="498">
@@ -7698,13 +7698,13 @@
         <v>2.7528274059295654</v>
       </c>
       <c r="C498" s="2">
-        <v>2.6311800479888916</v>
+        <v>2.6309454441070557</v>
       </c>
       <c r="D498" s="2">
         <v>2.5697212219238281</v>
       </c>
       <c r="E498" s="2">
-        <v>2.5334651470184326</v>
+        <v>2.5329728126525879</v>
       </c>
     </row>
     <row r="499">
@@ -7715,13 +7715,13 @@
         <v>2.5939116477966309</v>
       </c>
       <c r="C499" s="2">
-        <v>2.4424059391021729</v>
+        <v>2.4419293403625488</v>
       </c>
       <c r="D499" s="2">
         <v>2.5828979015350342</v>
       </c>
       <c r="E499" s="2">
-        <v>2.5353524684906006</v>
+        <v>2.534874439239502</v>
       </c>
     </row>
     <row r="500">
@@ -7732,13 +7732,13 @@
         <v>2.896658182144165</v>
       </c>
       <c r="C500" s="2">
-        <v>2.8356173038482666</v>
+        <v>2.8352639675140381</v>
       </c>
       <c r="D500" s="2">
         <v>2.5934164524078369</v>
       </c>
       <c r="E500" s="2">
-        <v>2.5181167125701904</v>
+        <v>2.51761794090271</v>
       </c>
     </row>
     <row r="501">
@@ -7749,13 +7749,13 @@
         <v>2.5708050727844238</v>
       </c>
       <c r="C501" s="2">
-        <v>2.6425852775573731</v>
+        <v>2.6412639617919922</v>
       </c>
       <c r="D501" s="2">
         <v>2.6256239414215088</v>
       </c>
       <c r="E501" s="2">
-        <v>2.5445351600646973</v>
+        <v>2.5440843105316162</v>
       </c>
     </row>
     <row r="502">
@@ -7766,13 +7766,13 @@
         <v>2.8218173980712891</v>
       </c>
       <c r="C502" s="2">
-        <v>2.6418306827545166</v>
+        <v>2.6419196128845215</v>
       </c>
       <c r="D502" s="2">
         <v>2.6227767467498779</v>
       </c>
       <c r="E502" s="2">
-        <v>2.5195672512054443</v>
+        <v>2.5190708637237549</v>
       </c>
     </row>
     <row r="503">
@@ -7783,13 +7783,13 @@
         <v>2.4551935195922852</v>
       </c>
       <c r="C503" s="2">
-        <v>2.390460729598999</v>
+        <v>2.390064001083374</v>
       </c>
       <c r="D503" s="2">
         <v>2.608351469039917</v>
       </c>
       <c r="E503" s="2">
-        <v>2.5201413631439209</v>
+        <v>2.519556999206543</v>
       </c>
     </row>
     <row r="504">
@@ -7800,13 +7800,13 @@
         <v>2.8556067943572998</v>
       </c>
       <c r="C504" s="2">
-        <v>2.6157710552215576</v>
+        <v>2.6151270866394043</v>
       </c>
       <c r="D504" s="2">
         <v>2.5827634334564209</v>
       </c>
       <c r="E504" s="2">
-        <v>2.5117967128753662</v>
+        <v>2.5112056732177734</v>
       </c>
     </row>
     <row r="505">
@@ -7817,13 +7817,13 @@
         <v>2.3875288963317871</v>
       </c>
       <c r="C505" s="2">
-        <v>2.3652019500732422</v>
+        <v>2.3650712966918945</v>
       </c>
       <c r="D505" s="2">
         <v>2.5589601993560791</v>
       </c>
       <c r="E505" s="2">
-        <v>2.4932198524475098</v>
+        <v>2.4925663471221924</v>
       </c>
     </row>
     <row r="506">
@@ -7834,13 +7834,13 @@
         <v>2.2706425189971924</v>
       </c>
       <c r="C506" s="2">
-        <v>2.1110515594482422</v>
+        <v>2.1100523471832275</v>
       </c>
       <c r="D506" s="2">
         <v>2.6139340400695801</v>
       </c>
       <c r="E506" s="2">
-        <v>2.5427994728088379</v>
+        <v>2.54221510887146</v>
       </c>
     </row>
     <row r="507">
@@ -7851,13 +7851,13 @@
         <v>2.6229984760284424</v>
       </c>
       <c r="C507" s="2">
-        <v>2.6363470554351807</v>
+        <v>2.6353223323822021</v>
       </c>
       <c r="D507" s="2">
         <v>2.5573687553405762</v>
       </c>
       <c r="E507" s="2">
-        <v>2.5168013572692871</v>
+        <v>2.5161616802215576</v>
       </c>
     </row>
     <row r="508">
@@ -7868,13 +7868,13 @@
         <v>2.3636209964752197</v>
       </c>
       <c r="C508" s="2">
-        <v>2.3673055171966553</v>
+        <v>2.366767406463623</v>
       </c>
       <c r="D508" s="2">
         <v>2.5642008781433105</v>
       </c>
       <c r="E508" s="2">
-        <v>2.5267374515533447</v>
+        <v>2.5261211395263672</v>
       </c>
     </row>
     <row r="509">
@@ -7885,13 +7885,13 @@
         <v>2.6824285984039307</v>
       </c>
       <c r="C509" s="2">
-        <v>2.6684238910675049</v>
+        <v>2.667508602142334</v>
       </c>
       <c r="D509" s="2">
         <v>2.5378682613372803</v>
       </c>
       <c r="E509" s="2">
-        <v>2.5404765605926514</v>
+        <v>2.5399060249328613</v>
       </c>
     </row>
     <row r="510">
@@ -7902,13 +7902,13 @@
         <v>3.0655684471130371</v>
       </c>
       <c r="C510" s="2">
-        <v>3.0888025760650635</v>
+        <v>3.0881030559539795</v>
       </c>
       <c r="D510" s="2">
         <v>2.5521366596221924</v>
       </c>
       <c r="E510" s="2">
-        <v>2.5577938556671143</v>
+        <v>2.5571663379669189</v>
       </c>
     </row>
     <row r="511">
@@ -7919,13 +7919,13 @@
         <v>2.3127312660217285</v>
       </c>
       <c r="C511" s="2">
-        <v>2.4078481197357178</v>
+        <v>2.4074392318725586</v>
       </c>
       <c r="D511" s="2">
         <v>2.6005368232727051</v>
       </c>
       <c r="E511" s="2">
-        <v>2.6145083904266358</v>
+        <v>2.6139507293701172</v>
       </c>
     </row>
     <row r="512">
@@ -7936,13 +7936,13 @@
         <v>2.5166811943054199</v>
       </c>
       <c r="C512" s="2">
-        <v>2.4798860549926758</v>
+        <v>2.4796979427337646</v>
       </c>
       <c r="D512" s="2">
         <v>2.5813901424407959</v>
       </c>
       <c r="E512" s="2">
-        <v>2.5944614410400391</v>
+        <v>2.5939805507659912</v>
       </c>
     </row>
     <row r="513">
@@ -7953,13 +7953,13 @@
         <v>2.6186144351959229</v>
       </c>
       <c r="C513" s="2">
-        <v>2.7394218444824219</v>
+        <v>2.7391915321350098</v>
       </c>
       <c r="D513" s="2">
         <v>2.6622903347015381</v>
       </c>
       <c r="E513" s="2">
-        <v>2.6779935359954834</v>
+        <v>2.6775155067443848</v>
       </c>
     </row>
     <row r="514">
@@ -7970,13 +7970,13 @@
         <v>2.5159430503845215</v>
       </c>
       <c r="C514" s="2">
-        <v>2.5210583209991455</v>
+        <v>2.5204150676727295</v>
       </c>
       <c r="D514" s="2">
         <v>2.6796371936798096</v>
       </c>
       <c r="E514" s="2">
-        <v>2.6834359169006348</v>
+        <v>2.6830446720123291</v>
       </c>
     </row>
     <row r="515">
@@ -7987,13 +7987,13 @@
         <v>2.7062458992004395</v>
       </c>
       <c r="C515" s="2">
-        <v>2.6214814186096192</v>
+        <v>2.6211116313934326</v>
       </c>
       <c r="D515" s="2">
         <v>2.6662776470184326</v>
       </c>
       <c r="E515" s="2">
-        <v>2.671912431716919</v>
+        <v>2.6715512275695801</v>
       </c>
     </row>
     <row r="516">
@@ -8004,13 +8004,13 @@
         <v>2.4506778717041016</v>
       </c>
       <c r="C516" s="2">
-        <v>2.4559247493743897</v>
+        <v>2.4555914402008057</v>
       </c>
       <c r="D516" s="2">
         <v>2.7365729808807373</v>
       </c>
       <c r="E516" s="2">
-        <v>2.7244498729705811</v>
+        <v>2.7240867614746094</v>
       </c>
     </row>
     <row r="517">
@@ -8021,13 +8021,13 @@
         <v>3.0917212963104248</v>
       </c>
       <c r="C517" s="2">
-        <v>3.1190948486328125</v>
+        <v>3.1185812950134277</v>
       </c>
       <c r="D517" s="2">
         <v>2.7284095287322998</v>
       </c>
       <c r="E517" s="2">
-        <v>2.7175769805908203</v>
+        <v>2.7172250747680664</v>
       </c>
     </row>
     <row r="518">
@@ -8038,13 +8038,13 @@
         <v>2.8385505676269531</v>
       </c>
       <c r="C518" s="2">
-        <v>2.717404842376709</v>
+        <v>2.7172708511352539</v>
       </c>
       <c r="D518" s="2">
         <v>2.742429256439209</v>
       </c>
       <c r="E518" s="2">
-        <v>2.7232203483581543</v>
+        <v>2.7228140830993652</v>
       </c>
     </row>
     <row r="519">
@@ -8055,13 +8055,13 @@
         <v>2.94533371925354</v>
       </c>
       <c r="C519" s="2">
-        <v>2.9850914478302002</v>
+        <v>2.9846630096435547</v>
       </c>
       <c r="D519" s="2">
         <v>2.8440389633178711</v>
       </c>
       <c r="E519" s="2">
-        <v>2.8393540382385254</v>
+        <v>2.8389420509338379</v>
       </c>
     </row>
     <row r="520">
@@ -8072,13 +8072,13 @@
         <v>2.9453883171081543</v>
       </c>
       <c r="C520" s="2">
-        <v>2.8806846141815186</v>
+        <v>2.880258321762085</v>
       </c>
       <c r="D520" s="2">
         <v>2.9764657020568848</v>
       </c>
       <c r="E520" s="2">
-        <v>2.94547438621521</v>
+        <v>2.9451076984405518</v>
       </c>
     </row>
     <row r="521">
@@ -8089,13 +8089,13 @@
         <v>2.4432106018066406</v>
       </c>
       <c r="C521" s="2">
-        <v>2.4180309772491455</v>
+        <v>2.4179422855377197</v>
       </c>
       <c r="D521" s="2">
         <v>3.1342942714691162</v>
       </c>
       <c r="E521" s="2">
-        <v>3.0929787158966065</v>
+        <v>3.09263014793396</v>
       </c>
     </row>
     <row r="522">
@@ -8106,13 +8106,13 @@
         <v>2.7447912693023682</v>
       </c>
       <c r="C522" s="2">
-        <v>2.7902121543884277</v>
+        <v>2.7894923686981201</v>
       </c>
       <c r="D522" s="2">
         <v>3.1873319149017334</v>
       </c>
       <c r="E522" s="2">
-        <v>3.1297650337219238</v>
+        <v>3.1294760704040527</v>
       </c>
     </row>
     <row r="523">
@@ -8123,13 +8123,13 @@
         <v>3.4304304122924805</v>
       </c>
       <c r="C523" s="2">
-        <v>3.5662615299224854</v>
+        <v>3.5655663013458252</v>
       </c>
       <c r="D523" s="2">
         <v>3.2289783954620361</v>
       </c>
       <c r="E523" s="2">
-        <v>3.1878938674926758</v>
+        <v>3.1875402927398682</v>
       </c>
     </row>
     <row r="524">
@@ -8140,13 +8140,13 @@
         <v>3.8980875015258789</v>
       </c>
       <c r="C524" s="2">
-        <v>3.5765647888183594</v>
+        <v>3.5766034126281738</v>
       </c>
       <c r="D524" s="2">
         <v>3.2866997718811035</v>
       </c>
       <c r="E524" s="2">
-        <v>3.2289516925811768</v>
+        <v>3.2286701202392578</v>
       </c>
     </row>
     <row r="525">
@@ -8157,13 +8157,13 @@
         <v>3.8711347579956055</v>
       </c>
       <c r="C525" s="2">
-        <v>3.7834625244140625</v>
+        <v>3.7832942008972168</v>
       </c>
       <c r="D525" s="2">
         <v>3.3973889350891113</v>
       </c>
       <c r="E525" s="2">
-        <v>3.3443448543548584</v>
+        <v>3.3440985679626465</v>
       </c>
     </row>
     <row r="526">
@@ -8174,13 +8174,13 @@
         <v>3.5690600872039795</v>
       </c>
       <c r="C526" s="2">
-        <v>3.4501714706420898</v>
+        <v>3.4501936435699463</v>
       </c>
       <c r="D526" s="2">
         <v>3.514833927154541</v>
       </c>
       <c r="E526" s="2">
-        <v>3.4660499095916748</v>
+        <v>3.4657483100891113</v>
       </c>
     </row>
     <row r="527">
@@ -8191,13 +8191,13 @@
         <v>3.213369607925415</v>
       </c>
       <c r="C527" s="2">
-        <v>3.2405645847320557</v>
+        <v>3.2398495674133301</v>
       </c>
       <c r="D527" s="2">
-        <v>3.6371064186096192</v>
+        <v>3.6371064186096191</v>
       </c>
       <c r="E527" s="2">
-        <v>3.5748422145843506</v>
+        <v>3.5746128559112549</v>
       </c>
     </row>
     <row r="528">
@@ -8208,13 +8208,13 @@
         <v>3.4648256301879883</v>
       </c>
       <c r="C528" s="2">
-        <v>3.3546125888824463</v>
+        <v>3.3548316955566406</v>
       </c>
       <c r="D528" s="2">
         <v>3.6798088550567627</v>
       </c>
       <c r="E528" s="2">
-        <v>3.6015276908874512</v>
+        <v>3.6012840270996094</v>
       </c>
     </row>
     <row r="529">
@@ -8225,13 +8225,13 @@
         <v>3.9415903091430664</v>
       </c>
       <c r="C529" s="2">
-        <v>3.9192225933074951</v>
+        <v>3.9191141128540039</v>
       </c>
       <c r="D529" s="2">
         <v>3.6931970119476318</v>
       </c>
       <c r="E529" s="2">
-        <v>3.6364014148712158</v>
+        <v>3.6361896991729736</v>
       </c>
     </row>
     <row r="530">
@@ -8242,13 +8242,13 @@
         <v>3.5002150535583496</v>
       </c>
       <c r="C530" s="2">
-        <v>3.5133774280548096</v>
+        <v>3.5127894878387451</v>
       </c>
       <c r="D530" s="2">
         <v>3.7167260646820068</v>
       </c>
       <c r="E530" s="2">
-        <v>3.6589395999908447</v>
+        <v>3.658735990524292</v>
       </c>
     </row>
     <row r="531">
@@ -8259,13 +8259,13 @@
         <v>3.8452441692352295</v>
       </c>
       <c r="C531" s="2">
-        <v>3.7693417072296143</v>
+        <v>3.7692737579345703</v>
       </c>
       <c r="D531" s="2">
-        <v>3.8630597591400147</v>
+        <v>3.8630597591400146</v>
       </c>
       <c r="E531" s="2">
-        <v>3.7942399978637695</v>
+        <v>3.7939457893371582</v>
       </c>
     </row>
     <row r="532">
@@ -8276,13 +8276,13 @@
         <v>3.814753532409668</v>
       </c>
       <c r="C532" s="2">
-        <v>3.8064308166503906</v>
+        <v>3.8056068420410156</v>
       </c>
       <c r="D532" s="2">
         <v>3.9556484222412109</v>
       </c>
       <c r="E532" s="2">
-        <v>3.8824582099914551</v>
+        <v>3.8821914196014404</v>
       </c>
     </row>
     <row r="533">
@@ -8293,13 +8293,13 @@
         <v>4.0185794830322266</v>
       </c>
       <c r="C533" s="2">
-        <v>3.8904280662536621</v>
+        <v>3.8907546997070312</v>
       </c>
       <c r="D533" s="2">
         <v>3.9714298248291016</v>
       </c>
       <c r="E533" s="2">
-        <v>3.9119186401367188</v>
+        <v>3.9115989208221436</v>
       </c>
     </row>
     <row r="534">
@@ -8310,13 +8310,13 @@
         <v>4.0828957557678223</v>
       </c>
       <c r="C534" s="2">
-        <v>3.9863076210021973</v>
+        <v>3.9862096309661865</v>
       </c>
       <c r="D534" s="2">
         <v>4.0083322525024414</v>
       </c>
       <c r="E534" s="2">
-        <v>3.9500482082366943</v>
+        <v>3.949772834777832</v>
       </c>
     </row>
     <row r="535">
@@ -8327,13 +8327,13 @@
         <v>4.8860640525817871</v>
       </c>
       <c r="C535" s="2">
-        <v>4.6678738594055176</v>
+        <v>4.6670827865600586</v>
       </c>
       <c r="D535" s="2">
         <v>4.1091818809509277</v>
       </c>
       <c r="E535" s="2">
-        <v>4.0346283912658692</v>
+        <v>4.034386157989502</v>
       </c>
     </row>
     <row r="536">
@@ -8344,13 +8344,13 @@
         <v>4.0466670989990234</v>
       </c>
       <c r="C536" s="2">
-        <v>4.0345301628112793</v>
+        <v>4.034060001373291</v>
       </c>
       <c r="D536" s="2">
         <v>4.1340928077697754</v>
       </c>
       <c r="E536" s="2">
-        <v>4.0660061836242676</v>
+        <v>4.0658416748046875</v>
       </c>
     </row>
     <row r="537">
@@ -8361,13 +8361,13 @@
         <v>3.6068596839904785</v>
       </c>
       <c r="C537" s="2">
-        <v>3.6197550296783447</v>
+        <v>3.6194994449615479</v>
       </c>
       <c r="D537" s="2">
         <v>4.1659126281738281</v>
       </c>
       <c r="E537" s="2">
-        <v>4.0778989791870117</v>
+        <v>4.0778932571411133</v>
       </c>
     </row>
     <row r="538">
@@ -8378,13 +8378,13 @@
         <v>4.2737116813659668</v>
       </c>
       <c r="C538" s="2">
-        <v>4.26239013671875</v>
+        <v>4.2626781463623047</v>
       </c>
       <c r="D538" s="2">
         <v>4.1496243476867676</v>
       </c>
       <c r="E538" s="2">
-        <v>4.0673770904541016</v>
+        <v>4.0673575401306152</v>
       </c>
     </row>
     <row r="539">
@@ -8395,13 +8395,13 @@
         <v>4.4078612327575684</v>
       </c>
       <c r="C539" s="2">
-        <v>4.2745962142944336</v>
+        <v>4.2743086814880371</v>
       </c>
       <c r="D539" s="2">
         <v>4.1836681365966797</v>
       </c>
       <c r="E539" s="2">
-        <v>4.0857396125793457</v>
+        <v>4.0857076644897461</v>
       </c>
     </row>
     <row r="540">
@@ -8412,13 +8412,13 @@
         <v>4.0694417953491211</v>
       </c>
       <c r="C540" s="2">
-        <v>4.0517420768737793</v>
+        <v>4.0523743629455566</v>
       </c>
       <c r="D540" s="2">
         <v>4.1096882820129395</v>
       </c>
       <c r="E540" s="2">
-        <v>4.0450525283813477</v>
+        <v>4.0451011657714844</v>
       </c>
     </row>
     <row r="541">
@@ -8429,13 +8429,13 @@
         <v>4.1011319160461426</v>
       </c>
       <c r="C541" s="2">
-        <v>3.9134683609008789</v>
+        <v>3.9140703678131104</v>
       </c>
       <c r="D541" s="2">
         <v>4.0478038787841797</v>
       </c>
       <c r="E541" s="2">
-        <v>3.9788963794708252</v>
+        <v>3.9790477752685547</v>
       </c>
     </row>
     <row r="542">
@@ -8446,13 +8446,13 @@
         <v>3.8719861507415771</v>
       </c>
       <c r="C542" s="2">
-        <v>3.7957315444946289</v>
+        <v>3.7959344387054443</v>
       </c>
       <c r="D542" s="2">
         <v>4.1201076507568359</v>
       </c>
       <c r="E542" s="2">
-        <v>4.0538506507873535</v>
+        <v>4.0539541244506836</v>
       </c>
     </row>
     <row r="543">
@@ -8463,13 +8463,13 @@
         <v>4.3892917633056641</v>
       </c>
       <c r="C543" s="2">
-        <v>4.1515684127807617</v>
+        <v>4.151362419128418</v>
       </c>
       <c r="D543" s="2">
         <v>4.0656123161315918</v>
       </c>
       <c r="E543" s="2">
-        <v>3.9890925884246826</v>
+        <v>3.9892416000366211</v>
       </c>
     </row>
     <row r="544">
@@ -8480,13 +8480,13 @@
         <v>4.2202444076538086</v>
       </c>
       <c r="C544" s="2">
-        <v>4.3016915321350098</v>
+        <v>4.3016219139099121</v>
       </c>
       <c r="D544" s="2">
         <v>4.0455965995788574</v>
       </c>
       <c r="E544" s="2">
-        <v>3.9813621044158936</v>
+        <v>3.9815061092376709</v>
       </c>
     </row>
     <row r="545">
@@ -8497,13 +8497,13 @@
         <v>3.4897079467773438</v>
       </c>
       <c r="C545" s="2">
-        <v>3.4391241073608398</v>
+        <v>3.4395802021026611</v>
       </c>
       <c r="D545" s="2">
         <v>4.0015368461608887</v>
       </c>
       <c r="E545" s="2">
-        <v>3.9370768070220947</v>
+        <v>3.9371788501739502</v>
       </c>
     </row>
     <row r="546">
@@ -8514,13 +8514,13 @@
         <v>4.257591724395752</v>
       </c>
       <c r="C546" s="2">
-        <v>4.294344425201416</v>
+        <v>4.2936587333679199</v>
       </c>
       <c r="D546" s="2">
         <v>3.9736373424530029</v>
       </c>
       <c r="E546" s="2">
-        <v>3.935884952545166</v>
+        <v>3.9358797073364258</v>
       </c>
     </row>
     <row r="547">
@@ -8531,13 +8531,13 @@
         <v>3.7832555770874023</v>
       </c>
       <c r="C547" s="2">
-        <v>3.6795670986175537</v>
+        <v>3.6802628040313721</v>
       </c>
       <c r="D547" s="2">
         <v>3.9578354358673096</v>
       </c>
       <c r="E547" s="2">
-        <v>3.9246551990509033</v>
+        <v>3.9245960712432861</v>
       </c>
     </row>
     <row r="548">
@@ -8548,13 +8548,13 @@
         <v>4.2277169227600098</v>
       </c>
       <c r="C548" s="2">
-        <v>4.2050204277038574</v>
+        <v>4.2046899795532227</v>
       </c>
       <c r="D548" s="2">
         <v>3.9201803207397461</v>
       </c>
       <c r="E548" s="2">
-        <v>3.9058566093444824</v>
+        <v>3.9058601856231689</v>
       </c>
     </row>
     <row r="549">
@@ -8565,13 +8565,13 @@
         <v>3.6729066371917725</v>
       </c>
       <c r="C549" s="2">
-        <v>3.6531760692596436</v>
+        <v>3.6534287929534912</v>
       </c>
       <c r="D549" s="2">
         <v>3.8609051704406738</v>
       </c>
       <c r="E549" s="2">
-        <v>3.8393352031707764</v>
+        <v>3.8393847942352295</v>
       </c>
     </row>
     <row r="550">
@@ -8582,13 +8582,13 @@
         <v>3.8500359058380127</v>
       </c>
       <c r="C550" s="2">
-        <v>3.9027414321899414</v>
+        <v>3.9023780822753906</v>
       </c>
       <c r="D550" s="2">
         <v>3.9055280685424805</v>
       </c>
       <c r="E550" s="2">
-        <v>3.89361572265625</v>
+        <v>3.8936059474945068</v>
       </c>
     </row>
     <row r="551">
@@ -8599,13 +8599,13 @@
         <v>3.7297689914703369</v>
       </c>
       <c r="C551" s="2">
-        <v>3.6946630477905274</v>
+        <v>3.6943824291229248</v>
       </c>
       <c r="D551" s="2">
         <v>3.8611819744110107</v>
       </c>
       <c r="E551" s="2">
-        <v>3.8507461547851563</v>
+        <v>3.8508379459381104</v>
       </c>
     </row>
     <row r="552">
@@ -8616,13 +8616,13 @@
         <v>4.0503945350646973</v>
       </c>
       <c r="C552" s="2">
-        <v>3.9823818206787109</v>
+        <v>3.9827394485473633</v>
       </c>
       <c r="D552" s="2">
         <v>3.827488899230957</v>
       </c>
       <c r="E552" s="2">
-        <v>3.8164932727813721</v>
+        <v>3.8165163993835449</v>
       </c>
     </row>
     <row r="553">
@@ -8633,13 +8633,13 @@
         <v>3.6867685317993164</v>
       </c>
       <c r="C553" s="2">
-        <v>3.7029976844787598</v>
+        <v>3.7033417224884033</v>
       </c>
       <c r="D553" s="2">
         <v>3.7690713405609131</v>
       </c>
       <c r="E553" s="2">
-        <v>3.7356350421905518</v>
+        <v>3.7357168197631836</v>
       </c>
     </row>
     <row r="554">
@@ -8650,13 +8650,13 @@
         <v>3.8913142681121826</v>
       </c>
       <c r="C554" s="2">
-        <v>3.927649974822998</v>
+        <v>3.9275720119476318</v>
       </c>
       <c r="D554" s="2">
-        <v>3.8388018608093262</v>
+        <v>3.8859550952911377</v>
       </c>
       <c r="E554" s="2">
-        <v>3.7840962409973145</v>
+        <v>3.823641300201416</v>
       </c>
     </row>
     <row r="555">
@@ -8667,13 +8667,13 @@
         <v>3.8584771156311035</v>
       </c>
       <c r="C555" s="2">
-        <v>3.9085173606872559</v>
+        <v>3.9087467193603516</v>
       </c>
       <c r="D555" s="2">
-        <v>3.9248607158660889</v>
+        <v>3.9817161560058594</v>
       </c>
       <c r="E555" s="2">
-        <v>3.85825514793396</v>
+        <v>3.906804084777832</v>
       </c>
     </row>
     <row r="556">
@@ -8684,13 +8684,13 @@
         <v>3.4800169467926025</v>
       </c>
       <c r="C556" s="2">
-        <v>3.3712925910949707</v>
+        <v>3.3713686466217041</v>
       </c>
       <c r="D556" s="2">
-        <v>4.0792217254638672</v>
+        <v>4.1360774040222168</v>
       </c>
       <c r="E556" s="2">
-        <v>3.9798226356506348</v>
+        <v>4.0284419059753418</v>
       </c>
     </row>
     <row r="557">
@@ -8701,13 +8701,13 @@
         <v>3.7019596099853516</v>
       </c>
       <c r="C557" s="2">
-        <v>3.4772961139678955</v>
+        <v>3.4774928092956543</v>
       </c>
       <c r="D557" s="2">
-        <v>4.1505126953125</v>
+        <v>4.2073683738708496</v>
       </c>
       <c r="E557" s="2">
-        <v>4.0423688888549805</v>
+        <v>4.0909180641174316</v>
       </c>
     </row>
     <row r="558">
@@ -8715,16 +8715,16 @@
         <v>45413</v>
       </c>
       <c r="B558" s="2">
-        <v>4.3004803657531738</v>
+        <v>4.7248592376708984</v>
       </c>
       <c r="C558" s="2">
-        <v>4.0893268585205078</v>
+        <v>4.4447507858276367</v>
       </c>
       <c r="D558" s="2">
-        <v>4.2734236717224121</v>
+        <v>4.3302793502807617</v>
       </c>
       <c r="E558" s="2">
-        <v>4.1571874618530273</v>
+        <v>4.2057290077209473</v>
       </c>
     </row>
     <row r="559">
@@ -8732,16 +8732,16 @@
         <v>45444</v>
       </c>
       <c r="B559" s="2">
-        <v>4.6245660781860352</v>
+        <v>4.7118868827819824</v>
       </c>
       <c r="C559" s="2">
-        <v>4.5701699256896973</v>
+        <v>4.6508426666259766</v>
       </c>
       <c r="D559" s="2">
-        <v>4.3957571983337402</v>
+        <v>4.4643926620483398</v>
       </c>
       <c r="E559" s="2">
-        <v>4.294133186340332</v>
+        <v>4.3624730110168457</v>
       </c>
     </row>
     <row r="560">
@@ -8752,13 +8752,13 @@
         <v>5.1190185546875</v>
       </c>
       <c r="C560" s="2">
-        <v>4.7887706756591797</v>
+        <v>4.7891225814819336</v>
       </c>
       <c r="D560" s="2">
-        <v>4.590519905090332</v>
+        <v>4.6924991607666016</v>
       </c>
       <c r="E560" s="2">
-        <v>4.4570074081420898</v>
+        <v>4.5566301345825195</v>
       </c>
     </row>
     <row r="561">
@@ -8769,13 +8769,13 @@
         <v>4.6920127868652344</v>
       </c>
       <c r="C561" s="2">
-        <v>4.5452976226806641</v>
+        <v>4.5450239181518555</v>
       </c>
       <c r="D561" s="2">
-        <v>4.8457164764404297</v>
+        <v>4.9908885955810547</v>
       </c>
       <c r="E561" s="2">
-        <v>4.720789909362793</v>
+        <v>4.8634376525878906</v>
       </c>
     </row>
     <row r="562">
@@ -8786,13 +8786,13 @@
         <v>4.7929677963256836</v>
       </c>
       <c r="C562" s="2">
-        <v>4.7363667488098145</v>
+        <v>4.7366428375244141</v>
       </c>
       <c r="D562" s="2">
-        <v>5.0053172111511231</v>
+        <v>5.218010425567627</v>
       </c>
       <c r="E562" s="2">
-        <v>4.8897662162780762</v>
+        <v>5.1021428108215332</v>
       </c>
     </row>
     <row r="563">
@@ -8800,16 +8800,16 @@
         <v>45566</v>
       </c>
       <c r="B563" s="2">
-        <v>4.992314338684082</v>
+        <v>5.098334789276123</v>
       </c>
       <c r="C563" s="2">
-        <v>5.1601614952087402</v>
+        <v>5.3382649421691895</v>
       </c>
       <c r="D563" s="2">
-        <v>5.2087035179138184</v>
+        <v>5.3737473487854004</v>
       </c>
       <c r="E563" s="2">
-        <v>5.1111617088317871</v>
+        <v>5.2875967025756836</v>
       </c>
     </row>
     <row r="564">
@@ -8817,16 +8817,16 @@
         <v>45597</v>
       </c>
       <c r="B564" s="2">
-        <v>5.6113433837890625</v>
+        <v>5.9114370346069336</v>
       </c>
       <c r="C564" s="2">
-        <v>5.3743853569030762</v>
+        <v>5.6561598777770996</v>
       </c>
       <c r="D564" s="2">
-        <v>5.2817206382751465</v>
+        <v>5.5502724647521973</v>
       </c>
       <c r="E564" s="2">
-        <v>5.1787858009338379</v>
+        <v>5.463860034942627</v>
       </c>
     </row>
     <row r="565">
@@ -8834,16 +8834,16 @@
         <v>45627</v>
       </c>
       <c r="B565" s="2">
-        <v>5.776787281036377</v>
+        <v>6.1655206680297852</v>
       </c>
       <c r="C565" s="2">
-        <v>5.745333194732666</v>
+        <v>6.1326384544372559</v>
       </c>
       <c r="D565" s="2">
-        <v>5.3049640655517578</v>
+        <v>5.6535191535949707</v>
       </c>
       <c r="E565" s="2">
-        <v>5.2345023155212402</v>
+        <v>5.5724287033081055</v>
       </c>
     </row>
     <row r="566">
@@ -8851,16 +8851,16 @@
         <v>45658</v>
       </c>
       <c r="B566" s="2">
-        <v>5.138364315032959</v>
+        <v>5.7460579872131348</v>
       </c>
       <c r="C566" s="2">
-        <v>4.9980845451354981</v>
+        <v>5.6258382797241211</v>
       </c>
       <c r="D566" s="2">
-        <v>5.4071226119995117</v>
+        <v>5.773707389831543</v>
       </c>
       <c r="E566" s="2">
-        <v>5.349370002746582</v>
+        <v>5.7008543014526367</v>
       </c>
     </row>
     <row r="567">
@@ -8868,16 +8868,50 @@
         <v>45689</v>
       </c>
       <c r="B567" s="2">
-        <v>6.1309576034545898</v>
+        <v>6.126490592956543</v>
       </c>
       <c r="C567" s="2">
-        <v>6.0818872451782227</v>
+        <v>6.113837718963623</v>
       </c>
       <c r="D567" s="2">
-        <v>5.5299534797668457</v>
+        <v>5.9138131141662598</v>
       </c>
       <c r="E567" s="2">
-        <v>5.4719705581665039</v>
+        <v>5.8385987281799316</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B568" s="2">
+        <v>6.3006100654602051</v>
+      </c>
+      <c r="C568" s="2">
+        <v>6.237213134765625</v>
+      </c>
+      <c r="D568" s="2">
+        <v>6.0497264862060547</v>
+      </c>
+      <c r="E568" s="2">
+        <v>5.9219880104064941</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B569" s="2">
+        <v>6.048241138458252</v>
+      </c>
+      <c r="C569" s="2">
+        <v>5.766240119934082</v>
+      </c>
+      <c r="D569" s="2">
+        <v>6.0773839950561523</v>
+      </c>
+      <c r="E569" s="2">
+        <v>5.9751534461975098</v>
       </c>
     </row>
   </sheetData>
